--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B3DC0C-17E0-4A4F-99EF-D5CB748B5429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB08C7-F40B-44C7-9B9B-28333E9030A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="503">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -1305,9 +1305,6 @@
     <t>Oak storage +10</t>
   </si>
   <si>
-    <t>double storage</t>
-  </si>
-  <si>
     <t>ROUND((1.14^(M35)+M35^3)+148, 0)</t>
   </si>
   <si>
@@ -1428,9 +1425,6 @@
     <t>faster research 1%</t>
   </si>
   <si>
-    <t>better storage upgarade +10</t>
-  </si>
-  <si>
     <t>lower woodcamp production costs 1%</t>
   </si>
   <si>
@@ -1519,6 +1513,39 @@
   </si>
   <si>
     <t>Increase Oak per click 3%</t>
+  </si>
+  <si>
+    <t>multiply storage</t>
+  </si>
+  <si>
+    <t>better storage upgarade +40</t>
+  </si>
+  <si>
+    <t>Keep all research</t>
+  </si>
+  <si>
+    <t>Double all storage</t>
+  </si>
+  <si>
+    <t>Research 2 at a time</t>
+  </si>
+  <si>
+    <t>Research all Button</t>
+  </si>
+  <si>
+    <t>Buy Max Woodcamps</t>
+  </si>
+  <si>
+    <t>Build an Apple woodcamps</t>
+  </si>
+  <si>
+    <t>Unlock Production slider</t>
+  </si>
+  <si>
+    <t>Buy Max Levels</t>
+  </si>
+  <si>
+    <t>5000 Oak, 1000 Apple</t>
   </si>
 </sst>
 </file>
@@ -1975,6 +2002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1982,7 +2010,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -2633,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -2650,7 +2677,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -2684,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -2701,7 +2728,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -2718,7 +2745,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -2752,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -2769,7 +2796,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -2821,7 +2848,7 @@
   </sheetPr>
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3117,7 +3144,7 @@
       <c r="F11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="1">
         <v>100</v>
       </c>
@@ -3689,8 +3716,8 @@
   </sheetPr>
   <dimension ref="A2:Y275"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3741,30 +3768,30 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I5" t="s">
         <v>419</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="M5" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="M5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
@@ -3783,20 +3810,20 @@
         <v>416</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M35 + 1.3 * M35^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -3849,23 +3876,23 @@
         <v>421</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M35 + 1.3 * M35^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -3915,25 +3942,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -3983,22 +4010,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -4048,10 +4075,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>454</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>455</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -4100,19 +4127,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -4156,16 +4183,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -4207,7 +4234,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -4343,6 +4370,10 @@
       <c r="E17" s="1">
         <v>12</v>
       </c>
+      <c r="G17" t="e">
+        <f>log</f>
+        <v>#NAME?</v>
+      </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40" t="s">
         <v>407</v>
@@ -4427,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -4511,7 +4542,7 @@
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -4542,13 +4573,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -4579,13 +4610,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -4615,13 +4646,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -4651,13 +4682,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -4687,13 +4718,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
@@ -4748,13 +4779,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -4779,13 +4810,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -4799,16 +4830,16 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" ht="12.75">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="12.75">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -4819,7 +4850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:25" ht="12.75">
+    <row r="34" spans="1:25" ht="12.75">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -4834,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:25" ht="12.75">
+    <row r="35" spans="1:25" ht="12.75">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -4861,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:25" ht="12.75">
+    <row r="36" spans="1:25" ht="12.75">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -4886,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:25" ht="12.75">
+    <row r="37" spans="1:25" ht="12.75">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -4915,7 +4946,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="3:25" ht="12.75">
+    <row r="38" spans="1:25" ht="12.75">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -4940,7 +4971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:25" ht="12.75">
+    <row r="39" spans="1:25" ht="12.75">
       <c r="C39" s="1">
         <v>34</v>
       </c>
@@ -4966,7 +4997,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="3:25" ht="12.75">
+    <row r="40" spans="1:25" ht="12.75">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>LOG(A40, 9)</f>
+        <v>0</v>
+      </c>
       <c r="C40" s="1">
         <v>35</v>
       </c>
@@ -4989,7 +5027,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:25" ht="12.75">
+    <row r="41" spans="1:25" ht="12.75">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B62" si="2">LOG(A41, 9)</f>
+        <v>0.63092975357145742</v>
+      </c>
       <c r="C41" s="1">
         <v>36</v>
       </c>
@@ -5014,7 +5059,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="3:25" ht="12.75">
+    <row r="42" spans="1:25" ht="12.75">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>0.88562187458071107</v>
+      </c>
       <c r="C42" s="1">
         <v>37</v>
       </c>
@@ -5025,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -5043,7 +5095,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="3:25" ht="12.75">
+    <row r="43" spans="1:25" ht="12.75">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>1.0479516371446924</v>
+      </c>
       <c r="C43" s="1">
         <v>38</v>
       </c>
@@ -5069,7 +5128,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:25" ht="12.75">
+    <row r="44" spans="1:25" ht="12.75">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>1.1673587597363964</v>
+      </c>
       <c r="C44" s="1">
         <v>39</v>
       </c>
@@ -5092,7 +5158,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="3:25" ht="12.75">
+    <row r="45" spans="1:25" ht="12.75">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>1.2618595071429148</v>
+      </c>
       <c r="C45" s="1">
         <v>40</v>
       </c>
@@ -5115,7 +5188,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="3:25" ht="12.75">
+    <row r="46" spans="1:25" ht="12.75">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>1.3400719296231876</v>
+      </c>
       <c r="C46" s="1">
         <v>41</v>
       </c>
@@ -5138,7 +5218,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="3:25" ht="12.75">
+    <row r="47" spans="1:25" ht="12.75">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>1.4067940461077977</v>
+      </c>
       <c r="C47" s="1">
         <v>42</v>
       </c>
@@ -5161,7 +5248,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="3:25" ht="12.75">
+    <row r="48" spans="1:25" ht="12.75">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>1.4649735207179269</v>
+      </c>
       <c r="C48" s="1">
         <v>43</v>
       </c>
@@ -5184,7 +5278,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="3:15" ht="12.75">
+    <row r="49" spans="1:15" ht="12.75">
+      <c r="A49">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>1.5165516281521685</v>
+      </c>
       <c r="C49" s="1">
         <v>44</v>
       </c>
@@ -5207,7 +5308,14 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="3:15" ht="12.75">
+    <row r="50" spans="1:15" ht="12.75">
+      <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>1.5628749286285073</v>
+      </c>
       <c r="C50" s="1">
         <v>45</v>
       </c>
@@ -5230,7 +5338,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="3:15" ht="12.75">
+    <row r="51" spans="1:15" ht="12.75">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1.6049158383670117</v>
+      </c>
       <c r="C51" s="1">
         <v>46</v>
       </c>
@@ -5252,7 +5367,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="3:15" ht="12.75">
+    <row r="52" spans="1:15" ht="12.75">
+      <c r="A52">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>1.6433995641091363</v>
+      </c>
       <c r="C52" s="1">
         <v>47</v>
       </c>
@@ -5289,7 +5411,14 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="3:15" ht="12.75">
+    <row r="53" spans="1:15" ht="12.75">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>1.6788813907161495</v>
+      </c>
       <c r="C53" s="1">
         <v>48</v>
       </c>
@@ -5303,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M53">
         <v>19</v>
@@ -5317,7 +5446,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="3:15" ht="12.75">
+    <row r="54" spans="1:15" ht="12.75">
+      <c r="A54">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>1.7117959422488396</v>
+      </c>
       <c r="C54" s="1">
         <v>49</v>
       </c>
@@ -5345,7 +5481,14 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="3:15" ht="12.75">
+    <row r="55" spans="1:15" ht="12.75">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>1.7424897918858642</v>
+      </c>
       <c r="C55" s="1">
         <v>50</v>
       </c>
@@ -5368,7 +5511,7 @@
         <v>500</v>
       </c>
       <c r="L55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M55">
         <v>21</v>
@@ -5382,7 +5525,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="56" spans="3:15" ht="12.75">
+    <row r="56" spans="1:15" ht="12.75">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>1.7712437491614221</v>
+      </c>
       <c r="C56" s="1">
         <v>51</v>
       </c>
@@ -5396,7 +5546,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M56">
         <v>22</v>
@@ -5410,7 +5560,14 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="3:15" ht="12.75">
+    <row r="57" spans="1:15" ht="12.75">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>1.7982885133078537</v>
+      </c>
       <c r="C57" s="1">
         <v>52</v>
       </c>
@@ -5435,7 +5592,14 @@
         <v>579</v>
       </c>
     </row>
-    <row r="58" spans="3:15" ht="12.75">
+    <row r="58" spans="1:15" ht="12.75">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>1.8238159296810326</v>
+      </c>
       <c r="C58" s="1">
         <v>53</v>
       </c>
@@ -5449,7 +5613,7 @@
         <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -5463,7 +5627,14 @@
         <v>634</v>
       </c>
     </row>
-    <row r="59" spans="3:15" ht="12.75">
+    <row r="59" spans="1:15" ht="12.75">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>1.8479872528410597</v>
+      </c>
       <c r="C59" s="1">
         <v>54</v>
       </c>
@@ -5477,7 +5648,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M59">
         <v>25</v>
@@ -5491,7 +5662,14 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="3:15" ht="12.75">
+    <row r="60" spans="1:15" ht="12.75">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>1.8709393234427967</v>
+      </c>
       <c r="C60" s="1">
         <v>55</v>
       </c>
@@ -5513,7 +5691,14 @@
         <v>752</v>
       </c>
     </row>
-    <row r="61" spans="3:15" ht="12.75">
+    <row r="61" spans="1:15" ht="12.75">
+      <c r="A61">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>1.8927892607143719</v>
+      </c>
       <c r="C61" s="1">
         <v>56</v>
       </c>
@@ -5535,7 +5720,14 @@
         <v>817</v>
       </c>
     </row>
-    <row r="62" spans="3:15" ht="12.75">
+    <row r="62" spans="1:15" ht="12.75">
+      <c r="A62">
+        <v>9887654321</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>10.474374360724788</v>
+      </c>
       <c r="C62" s="1">
         <v>57</v>
       </c>
@@ -5557,7 +5749,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="63" spans="3:15" ht="12.75">
+    <row r="63" spans="1:15" ht="12.75">
       <c r="C63" s="1">
         <v>58</v>
       </c>
@@ -5579,7 +5771,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="64" spans="3:15" ht="12.75">
+    <row r="64" spans="1:15" ht="12.75">
       <c r="C64" s="1">
         <v>59</v>
       </c>
@@ -6385,11 +6577,11 @@
         <v>66</v>
       </c>
       <c r="N100" s="45">
-        <f t="shared" ref="N100:N160" si="2">ROUND(1.28^M100 + 1.3 * M100^1.8, 0)</f>
+        <f t="shared" ref="N100:N160" si="3">ROUND(1.28^M100 + 1.3 * M100^1.8, 0)</f>
         <v>11910975</v>
       </c>
       <c r="O100">
-        <f t="shared" ref="O100:O163" si="3">ROUND(1.15^(M100+5)+M100^2,0)</f>
+        <f t="shared" ref="O100:O163" si="4">ROUND(1.15^(M100+5)+M100^2,0)</f>
         <v>24752</v>
       </c>
     </row>
@@ -6407,11 +6599,11 @@
         <v>67</v>
       </c>
       <c r="N101" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15245430</v>
       </c>
       <c r="O101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27944</v>
       </c>
     </row>
@@ -6429,11 +6621,11 @@
         <v>68</v>
       </c>
       <c r="N102" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19513513</v>
       </c>
       <c r="O102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31598</v>
       </c>
     </row>
@@ -6451,11 +6643,11 @@
         <v>69</v>
       </c>
       <c r="N103" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24976642</v>
       </c>
       <c r="O103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35781</v>
       </c>
     </row>
@@ -6473,11 +6665,11 @@
         <v>70</v>
       </c>
       <c r="N104" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31969429</v>
       </c>
       <c r="O104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40573</v>
       </c>
     </row>
@@ -6495,11 +6687,11 @@
         <v>71</v>
       </c>
       <c r="N105" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40920176</v>
       </c>
       <c r="O105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46065</v>
       </c>
     </row>
@@ -6517,11 +6709,11 @@
         <v>72</v>
       </c>
       <c r="N106" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52377115</v>
       </c>
       <c r="O106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52361</v>
       </c>
     </row>
@@ -6539,11 +6731,11 @@
         <v>73</v>
       </c>
       <c r="N107" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67041977</v>
       </c>
       <c r="O107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59583</v>
       </c>
     </row>
@@ -6561,11 +6753,11 @@
         <v>74</v>
       </c>
       <c r="N108" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85812981</v>
       </c>
       <c r="O108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67868</v>
       </c>
     </row>
@@ -6583,11 +6775,11 @@
         <v>75</v>
       </c>
       <c r="N109" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109839846</v>
       </c>
       <c r="O109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77376</v>
       </c>
     </row>
@@ -6605,11 +6797,11 @@
         <v>76</v>
       </c>
       <c r="N110" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140594214</v>
       </c>
       <c r="O110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88290</v>
       </c>
     </row>
@@ -6627,11 +6819,11 @@
         <v>77</v>
       </c>
       <c r="N111" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179959785</v>
       </c>
       <c r="O111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100820</v>
       </c>
     </row>
@@ -6649,11 +6841,11 @@
         <v>78</v>
       </c>
       <c r="N112" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230347695</v>
       </c>
       <c r="O112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115208</v>
       </c>
     </row>
@@ -6671,11 +6863,11 @@
         <v>79</v>
       </c>
       <c r="N113" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>294844200</v>
       </c>
       <c r="O113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131734</v>
       </c>
     </row>
@@ -6693,11 +6885,11 @@
         <v>80</v>
       </c>
       <c r="N114" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>377399706</v>
       </c>
       <c r="O114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150717</v>
       </c>
     </row>
@@ -6715,11 +6907,11 @@
         <v>81</v>
       </c>
       <c r="N115" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>483070732</v>
       </c>
       <c r="O115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>172525</v>
       </c>
     </row>
@@ -6737,11 +6929,11 @@
         <v>82</v>
       </c>
       <c r="N116" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>618329625</v>
       </c>
       <c r="O116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197583</v>
       </c>
     </row>
@@ -6759,11 +6951,11 @@
         <v>83</v>
       </c>
       <c r="N117" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>791460985</v>
       </c>
       <c r="O117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>226377</v>
       </c>
     </row>
@@ -6781,11 +6973,11 @@
         <v>84</v>
       </c>
       <c r="N118" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1013069106</v>
       </c>
       <c r="O118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>259467</v>
       </c>
     </row>
@@ -6803,11 +6995,11 @@
         <v>85</v>
       </c>
       <c r="N119" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1296727478</v>
       </c>
       <c r="O119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>297497</v>
       </c>
     </row>
@@ -6825,11 +7017,11 @@
         <v>86</v>
       </c>
       <c r="N120" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1659810172</v>
       </c>
       <c r="O120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>341209</v>
       </c>
     </row>
@@ -6847,11 +7039,11 @@
         <v>87</v>
       </c>
       <c r="N121" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2124555999</v>
       </c>
       <c r="O121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>391454</v>
       </c>
     </row>
@@ -6869,11 +7061,11 @@
         <v>88</v>
       </c>
       <c r="N122" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2719430635</v>
       </c>
       <c r="O122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>449212</v>
       </c>
     </row>
@@ -6891,11 +7083,11 @@
         <v>89</v>
       </c>
       <c r="N123" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3480870146</v>
       </c>
       <c r="O123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>515609</v>
       </c>
     </row>
@@ -6913,11 +7105,11 @@
         <v>90</v>
       </c>
       <c r="N124" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4455512697</v>
       </c>
       <c r="O124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>591941</v>
       </c>
     </row>
@@ -6935,11 +7127,11 @@
         <v>91</v>
       </c>
       <c r="N125" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5703055139</v>
       </c>
       <c r="O125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>679699</v>
       </c>
     </row>
@@ -6957,11 +7149,11 @@
         <v>92</v>
       </c>
       <c r="N126" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7299909442</v>
       </c>
       <c r="O126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>780594</v>
       </c>
     </row>
@@ -6979,11 +7171,11 @@
         <v>93</v>
       </c>
       <c r="N127" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9343882927</v>
       </c>
       <c r="O127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>896599</v>
       </c>
     </row>
@@ -7001,11 +7193,11 @@
         <v>94</v>
       </c>
       <c r="N128" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11960168963</v>
       </c>
       <c r="O128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1029978</v>
       </c>
     </row>
@@ -7023,11 +7215,11 @@
         <v>95</v>
       </c>
       <c r="N129" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15309015065</v>
       </c>
       <c r="O129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1183338</v>
       </c>
     </row>
@@ -7045,11 +7237,11 @@
         <v>96</v>
       </c>
       <c r="N130" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19595538051</v>
       </c>
       <c r="O130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1359676</v>
       </c>
     </row>
@@ -7067,11 +7259,11 @@
         <v>97</v>
       </c>
       <c r="N131" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25082287450</v>
       </c>
       <c r="O131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1562439</v>
       </c>
     </row>
@@ -7089,11 +7281,11 @@
         <v>98</v>
       </c>
       <c r="N132" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32105326655</v>
       </c>
       <c r="O132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1795588</v>
       </c>
     </row>
@@ -7111,11 +7303,11 @@
         <v>99</v>
       </c>
       <c r="N133" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41094816813</v>
       </c>
       <c r="O133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2063683</v>
       </c>
     </row>
@@ -7133,11 +7325,11 @@
         <v>100</v>
       </c>
       <c r="N134" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52601364191</v>
       </c>
       <c r="O134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2371964</v>
       </c>
     </row>
@@ -7155,11 +7347,11 @@
         <v>101</v>
       </c>
       <c r="N135" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67329744809</v>
       </c>
       <c r="O135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2726459</v>
       </c>
     </row>
@@ -7177,11 +7369,11 @@
         <v>102</v>
       </c>
       <c r="N136" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86182071974</v>
       </c>
       <c r="O136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3134101</v>
       </c>
     </row>
@@ -7199,11 +7391,11 @@
         <v>103</v>
       </c>
       <c r="N137" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110313050720</v>
       </c>
       <c r="O137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3602861</v>
       </c>
     </row>
@@ -7221,11 +7413,11 @@
         <v>104</v>
       </c>
       <c r="N138" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141200703489</v>
       </c>
       <c r="O138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4141905</v>
       </c>
     </row>
@@ -7243,11 +7435,11 @@
         <v>105</v>
       </c>
       <c r="N139" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180736899008</v>
       </c>
       <c r="O139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4761778</v>
       </c>
     </row>
@@ -7262,17 +7454,17 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M140">
         <v>106</v>
       </c>
       <c r="N140" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>231343229245</v>
       </c>
       <c r="O140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5474602</v>
       </c>
     </row>
@@ -7290,11 +7482,11 @@
         <v>107</v>
       </c>
       <c r="N141" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>296119331922</v>
       </c>
       <c r="O141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6294320</v>
       </c>
     </row>
@@ -7312,11 +7504,11 @@
         <v>108</v>
       </c>
       <c r="N142" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>379032743322</v>
       </c>
       <c r="O142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7236965</v>
       </c>
     </row>
@@ -7334,11 +7526,11 @@
         <v>109</v>
       </c>
       <c r="N143" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>485161909888</v>
       </c>
       <c r="O143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8320977</v>
       </c>
     </row>
@@ -7356,11 +7548,11 @@
         <v>110</v>
       </c>
       <c r="N144" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>621007243064</v>
       </c>
       <c r="O144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9567561</v>
       </c>
     </row>
@@ -7378,11 +7570,11 @@
         <v>111</v>
       </c>
       <c r="N145" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>794889269503</v>
       </c>
       <c r="O145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11001101</v>
       </c>
     </row>
@@ -7400,11 +7592,11 @@
         <v>112</v>
       </c>
       <c r="N146" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1017458263317</v>
       </c>
       <c r="O146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12649641</v>
       </c>
     </row>
@@ -7422,11 +7614,11 @@
         <v>113</v>
       </c>
       <c r="N147" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1302346575371</v>
       </c>
       <c r="O147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14545431</v>
       </c>
     </row>
@@ -7444,11 +7636,11 @@
         <v>114</v>
       </c>
       <c r="N148" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1667003614772</v>
       </c>
       <c r="O148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16725557</v>
       </c>
     </row>
@@ -7466,11 +7658,11 @@
         <v>115</v>
       </c>
       <c r="N149" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2133764625177</v>
       </c>
       <c r="O149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19232670</v>
       </c>
     </row>
@@ -7488,11 +7680,11 @@
         <v>116</v>
       </c>
       <c r="N150" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2731218718468</v>
       </c>
       <c r="O150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22115818</v>
       </c>
     </row>
@@ -7510,11 +7702,11 @@
         <v>117</v>
       </c>
       <c r="N151" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3495959957851</v>
       </c>
       <c r="O151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25431405</v>
       </c>
     </row>
@@ -7532,11 +7724,11 @@
         <v>118</v>
       </c>
       <c r="N152" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4474828744233</v>
       </c>
       <c r="O152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29244297</v>
       </c>
     </row>
@@ -7554,11 +7746,11 @@
         <v>119</v>
       </c>
       <c r="N153" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5727780790773</v>
       </c>
       <c r="O153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33629090</v>
       </c>
     </row>
@@ -7576,11 +7768,11 @@
         <v>120</v>
       </c>
       <c r="N154" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7331559410315</v>
       </c>
       <c r="O154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38671569</v>
       </c>
     </row>
@@ -7598,11 +7790,11 @@
         <v>121</v>
       </c>
       <c r="N155" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9384396043300</v>
       </c>
       <c r="O155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44470385</v>
       </c>
     </row>
@@ -7620,11 +7812,11 @@
         <v>122</v>
       </c>
       <c r="N156" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12012026933490</v>
       </c>
       <c r="O156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51138990</v>
       </c>
     </row>
@@ -7642,11 +7834,11 @@
         <v>123</v>
       </c>
       <c r="N157" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15375394472904</v>
       </c>
       <c r="O157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58807851</v>
       </c>
     </row>
@@ -7664,11 +7856,11 @@
         <v>124</v>
       </c>
       <c r="N158" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19680504923324</v>
       </c>
       <c r="O158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67627006</v>
       </c>
     </row>
@@ -7686,11 +7878,11 @@
         <v>125</v>
       </c>
       <c r="N159" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25191046299832</v>
       </c>
       <c r="O159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77768999</v>
       </c>
     </row>
@@ -7708,11 +7900,11 @@
         <v>126</v>
       </c>
       <c r="N160" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32244539261731</v>
       </c>
       <c r="O160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89432257</v>
       </c>
     </row>
@@ -7734,7 +7926,7 @@
         <v>41273010252932</v>
       </c>
       <c r="O161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102844967</v>
       </c>
     </row>
@@ -7752,11 +7944,11 @@
         <v>128</v>
       </c>
       <c r="N162" s="45">
-        <f t="shared" ref="N162:N175" si="4">ROUND(1.28^M162 + 1.3 * M162^1.8, 0)</f>
+        <f t="shared" ref="N162:N175" si="5">ROUND(1.28^M162 + 1.3 * M162^1.8, 0)</f>
         <v>52829453121638</v>
       </c>
       <c r="O162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118269547</v>
       </c>
     </row>
@@ -7774,11 +7966,11 @@
         <v>129</v>
       </c>
       <c r="N163" s="45">
+        <f t="shared" si="5"/>
+        <v>67621699993550</v>
+      </c>
+      <c r="O163">
         <f t="shared" si="4"/>
-        <v>67621699993550</v>
-      </c>
-      <c r="O163">
-        <f t="shared" si="3"/>
         <v>136007779</v>
       </c>
     </row>
@@ -7796,11 +7988,11 @@
         <v>130</v>
       </c>
       <c r="N164" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86555775989567</v>
       </c>
       <c r="O164">
-        <f t="shared" ref="O164:O184" si="5">ROUND(1.15^(M164+5)+M164^2,0)</f>
+        <f t="shared" ref="O164:O184" si="6">ROUND(1.15^(M164+5)+M164^2,0)</f>
         <v>156406708</v>
       </c>
     </row>
@@ -7818,11 +8010,11 @@
         <v>131</v>
       </c>
       <c r="N165" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110791393264437</v>
       </c>
       <c r="O165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179865441</v>
       </c>
     </row>
@@ -7840,11 +8032,11 @@
         <v>132</v>
       </c>
       <c r="N166" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141812983376239</v>
       </c>
       <c r="O166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>206842946</v>
       </c>
     </row>
@@ -7862,11 +8054,11 @@
         <v>133</v>
       </c>
       <c r="N167" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181520618719314</v>
       </c>
       <c r="O167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>237867039</v>
       </c>
     </row>
@@ -7884,11 +8076,11 @@
         <v>134</v>
       </c>
       <c r="N168" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>232346391958418</v>
       </c>
       <c r="O168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273544708</v>
       </c>
     </row>
@@ -7906,11 +8098,11 @@
         <v>135</v>
       </c>
       <c r="N169" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297403381704440</v>
       </c>
       <c r="O169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>314573990</v>
       </c>
     </row>
@@ -7928,11 +8120,11 @@
         <v>136</v>
       </c>
       <c r="N170" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>380676328579314</v>
       </c>
       <c r="O170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361757626</v>
       </c>
     </row>
@@ -7950,11 +8142,11 @@
         <v>137</v>
       </c>
       <c r="N171" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>487265700579121</v>
       </c>
       <c r="O171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>416018769</v>
       </c>
     </row>
@@ -7972,11 +8164,11 @@
         <v>138</v>
       </c>
       <c r="N172" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>623700096738842</v>
       </c>
       <c r="O172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>478419044</v>
       </c>
     </row>
@@ -7994,11 +8186,11 @@
         <v>139</v>
       </c>
       <c r="N173" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>798336123823251</v>
       </c>
       <c r="O173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>550179320</v>
       </c>
     </row>
@@ -8016,11 +8208,11 @@
         <v>140</v>
       </c>
       <c r="N174" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1021870238491260</v>
       </c>
       <c r="O174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>632703599</v>
       </c>
     </row>
@@ -8038,11 +8230,11 @@
         <v>141</v>
       </c>
       <c r="N175" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1307993905266280</v>
       </c>
       <c r="O175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>727606480</v>
       </c>
     </row>
@@ -8064,7 +8256,7 @@
         <v>1674232198738270</v>
       </c>
       <c r="O176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>836744753</v>
       </c>
     </row>
@@ -8082,11 +8274,11 @@
         <v>143</v>
       </c>
       <c r="N177" s="45">
-        <f t="shared" ref="N177:N184" si="6">ROUND(1.28^M177 + 1.3 * M177^1.8, 0)</f>
+        <f t="shared" ref="N177:N184" si="7">ROUND(1.28^M177 + 1.3 * M177^1.8, 0)</f>
         <v>2143017214382390</v>
       </c>
       <c r="O177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>962253727</v>
       </c>
     </row>
@@ -8104,11 +8296,11 @@
         <v>144</v>
       </c>
       <c r="N178" s="45">
+        <f t="shared" si="7"/>
+        <v>2743062034406820</v>
+      </c>
+      <c r="O178">
         <f t="shared" si="6"/>
-        <v>2743062034406820</v>
-      </c>
-      <c r="O178">
-        <f t="shared" si="5"/>
         <v>1106589005</v>
       </c>
     </row>
@@ -8126,11 +8318,11 @@
         <v>145</v>
       </c>
       <c r="N179" s="45">
+        <f t="shared" si="7"/>
+        <v>3511119404038070</v>
+      </c>
+      <c r="O179">
         <f t="shared" si="6"/>
-        <v>3511119404038070</v>
-      </c>
-      <c r="O179">
-        <f t="shared" si="5"/>
         <v>1272574535</v>
       </c>
     </row>
@@ -8148,11 +8340,11 @@
         <v>146</v>
       </c>
       <c r="N180" s="45">
+        <f t="shared" si="7"/>
+        <v>4494232837166020</v>
+      </c>
+      <c r="O180">
         <f t="shared" si="6"/>
-        <v>4494232837166020</v>
-      </c>
-      <c r="O180">
-        <f t="shared" si="5"/>
         <v>1463457852</v>
       </c>
     </row>
@@ -8170,11 +8362,11 @@
         <v>147</v>
       </c>
       <c r="N181" s="45">
+        <f t="shared" si="7"/>
+        <v>5752618031569770</v>
+      </c>
+      <c r="O181">
         <f t="shared" si="6"/>
-        <v>5752618031569770</v>
-      </c>
-      <c r="O181">
-        <f t="shared" si="5"/>
         <v>1682973625</v>
       </c>
     </row>
@@ -8192,11 +8384,11 @@
         <v>148</v>
       </c>
       <c r="N182" s="45">
+        <f t="shared" si="7"/>
+        <v>7363351080406540</v>
+      </c>
+      <c r="O182">
         <f t="shared" si="6"/>
-        <v>7363351080406540</v>
-      </c>
-      <c r="O182">
-        <f t="shared" si="5"/>
         <v>1935416723</v>
       </c>
     </row>
@@ -8214,11 +8406,11 @@
         <v>149</v>
       </c>
       <c r="N183" s="45">
+        <f t="shared" si="7"/>
+        <v>9425089382917560</v>
+      </c>
+      <c r="O183">
         <f t="shared" si="6"/>
-        <v>9425089382917560</v>
-      </c>
-      <c r="O183">
-        <f t="shared" si="5"/>
         <v>2225726243</v>
       </c>
     </row>
@@ -8236,11 +8428,11 @@
         <v>150</v>
       </c>
       <c r="N184" s="45">
+        <f t="shared" si="7"/>
+        <v>1.20641144101316E+16</v>
+      </c>
+      <c r="O184">
         <f t="shared" si="6"/>
-        <v>1.20641144101316E+16</v>
-      </c>
-      <c r="O184">
-        <f t="shared" si="5"/>
         <v>2559582148</v>
       </c>
     </row>
@@ -8891,7 +9083,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
@@ -8905,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1">
@@ -8919,7 +9111,7 @@
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1">
@@ -8933,7 +9125,7 @@
         <v>6</v>
       </c>
       <c r="H245" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
@@ -8947,7 +9139,7 @@
         <v>7</v>
       </c>
       <c r="H246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
@@ -8961,7 +9153,7 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
@@ -8975,7 +9167,7 @@
         <v>9</v>
       </c>
       <c r="H248" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1">
@@ -8989,7 +9181,7 @@
         <v>10</v>
       </c>
       <c r="H249" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1">
@@ -9006,7 +9198,7 @@
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
@@ -9023,7 +9215,7 @@
         <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
@@ -9040,7 +9232,7 @@
         <v>13</v>
       </c>
       <c r="H252" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
@@ -9057,7 +9249,7 @@
         <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1">
@@ -9071,7 +9263,7 @@
         <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1">
@@ -9085,7 +9277,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1">
@@ -9099,7 +9291,7 @@
         <v>17</v>
       </c>
       <c r="H256" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="3:8" ht="15.75" customHeight="1">
@@ -9152,7 +9344,7 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="261" spans="3:8" ht="15.75" customHeight="1">
@@ -9166,7 +9358,7 @@
         <v>4</v>
       </c>
       <c r="H261" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="262" spans="3:8" ht="15.75" customHeight="1">
@@ -9180,7 +9372,7 @@
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="263" spans="3:8" ht="15.75" customHeight="1">
@@ -9194,7 +9386,7 @@
         <v>6</v>
       </c>
       <c r="H263" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="3:8" ht="15.75" customHeight="1">
@@ -9208,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="H264" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="265" spans="3:8" ht="15.75" customHeight="1">
@@ -9222,7 +9414,7 @@
         <v>8</v>
       </c>
       <c r="H265" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="266" spans="3:8" ht="15.75" customHeight="1">
@@ -9236,7 +9428,7 @@
         <v>9</v>
       </c>
       <c r="H266" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="267" spans="3:8" ht="15.75" customHeight="1">
@@ -9250,7 +9442,7 @@
         <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="268" spans="3:8" ht="15.75" customHeight="1">
@@ -9264,7 +9456,7 @@
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="269" spans="3:8" ht="15.75" customHeight="1">
@@ -9278,7 +9470,7 @@
         <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="270" spans="3:8" ht="15.75" customHeight="1">
@@ -9292,7 +9484,7 @@
         <v>13</v>
       </c>
       <c r="H270" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="271" spans="3:8" ht="15.75" customHeight="1">
@@ -9306,7 +9498,7 @@
         <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="272" spans="3:8" ht="15.75" customHeight="1">
@@ -9320,7 +9512,7 @@
         <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="273" spans="3:8" ht="15.75" customHeight="1">
@@ -9334,7 +9526,7 @@
         <v>16</v>
       </c>
       <c r="H273" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" spans="3:8" ht="15.75" customHeight="1">
@@ -9348,7 +9540,7 @@
         <v>17</v>
       </c>
       <c r="H274" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="3:8" ht="15.75" customHeight="1">
@@ -9362,7 +9554,7 @@
         <v>18</v>
       </c>
       <c r="H275" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -9381,11 +9573,14 @@
   </sheetPr>
   <dimension ref="C2:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10">
@@ -9430,7 +9625,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>196</v>
+      </c>
+      <c r="I5" t="s">
+        <v>502</v>
+      </c>
+      <c r="J5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:10">
@@ -9444,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -9458,7 +9659,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="3:10">
@@ -9472,7 +9673,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="3:10">
@@ -9486,7 +9687,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -9500,7 +9701,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="3:10">
@@ -9514,7 +9715,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="3:10">
@@ -9528,7 +9729,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="3:10">
@@ -9542,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -9556,7 +9757,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -9570,7 +9771,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -9584,7 +9785,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -9598,7 +9799,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -9612,7 +9813,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -9626,7 +9827,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -9640,7 +9841,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -9653,8 +9854,8 @@
       <c r="E21" s="1">
         <v>9</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>154</v>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -9667,8 +9868,8 @@
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>155</v>
+      <c r="F22" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -9682,7 +9883,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -9696,7 +9897,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -9710,7 +9911,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -9724,7 +9925,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -9738,7 +9939,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="3:6">
@@ -9752,7 +9953,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -9766,7 +9967,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -9780,7 +9981,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="3:6">
@@ -9794,7 +9995,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="3:6">
@@ -9808,7 +10009,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -9822,7 +10023,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -9836,7 +10037,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -9850,7 +10051,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -9864,7 +10065,7 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -9878,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -9892,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -9906,7 +10107,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -9920,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="3:6">
@@ -9934,7 +10135,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -9948,7 +10149,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -9962,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -9976,7 +10177,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="3:6">
@@ -9990,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="3:6">
@@ -10004,7 +10205,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -10018,7 +10219,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="3:6">
@@ -10032,7 +10233,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="3:6">
@@ -10046,7 +10247,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -10060,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="3:6">
@@ -10074,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="3:6">
@@ -10088,7 +10289,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="3:6">
@@ -10102,7 +10303,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="3:6">
@@ -10116,7 +10317,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="3:6">
@@ -10130,7 +10331,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="3:6">
@@ -10144,7 +10345,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="3:6">
@@ -10158,7 +10359,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="3:6">
@@ -10172,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="3:6">
@@ -10186,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="3:6">
@@ -10200,7 +10401,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="3:6">
@@ -10214,7 +10415,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="3:6">
@@ -10222,7 +10423,7 @@
         <v>58</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="3:6">
@@ -10788,9 +10989,14 @@
   </sheetPr>
   <dimension ref="C4:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
@@ -10858,6 +11064,9 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>496</v>
+      </c>
       <c r="G12" s="1">
         <v>135</v>
       </c>
@@ -10882,6 +11091,9 @@
       <c r="C15" s="1">
         <v>9</v>
       </c>
+      <c r="D15" t="s">
+        <v>495</v>
+      </c>
       <c r="G15" s="1">
         <v>666</v>
       </c>
@@ -10953,6 +11165,9 @@
     <row r="24" spans="3:7">
       <c r="C24" s="1">
         <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>494</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>234</v>
@@ -11136,11 +11351,14 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -11154,15 +11372,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">
@@ -11298,6 +11516,9 @@
       <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="G10" t="s">
+        <v>497</v>
+      </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
@@ -11340,6 +11561,9 @@
       <c r="D13" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="G13" t="s">
+        <v>498</v>
+      </c>
       <c r="L13" s="1">
         <v>8</v>
       </c>
@@ -11354,6 +11578,9 @@
       <c r="D14" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="G14" t="s">
+        <v>501</v>
+      </c>
       <c r="L14" s="1">
         <v>9</v>
       </c>
@@ -11571,7 +11798,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:7">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -11579,7 +11806,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:7">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -11587,7 +11814,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:7">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -11595,7 +11822,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:7">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -11603,7 +11830,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:7">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -11611,7 +11838,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:7">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -11619,52 +11846,58 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:7">
       <c r="C39" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="D39" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
       <c r="C40" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:7">
       <c r="C41" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:7">
       <c r="C42" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:7">
       <c r="C43" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:7">
       <c r="C44" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:7">
       <c r="C45" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:7">
       <c r="C46" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="3:7">
       <c r="C47" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:7">
       <c r="C48" s="1">
         <v>43</v>
       </c>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB08C7-F40B-44C7-9B9B-28333E9030A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B27B9B-3657-44DF-ADBC-9126B006B5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="524">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -453,9 +453,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Unlock Wood Reaserch</t>
-  </si>
-  <si>
     <t>Unlock Fishing</t>
   </si>
   <si>
@@ -537,30 +534,12 @@
     <t>Dragonwood Unlock</t>
   </si>
   <si>
-    <t>Yoshino Cherry Unlock</t>
-  </si>
-  <si>
     <t>Wood per click 10x</t>
   </si>
   <si>
-    <t>Cheaper Camps</t>
-  </si>
-  <si>
-    <t>Cheaper Levels</t>
-  </si>
-  <si>
-    <t>Improve Automation</t>
-  </si>
-  <si>
-    <t>Improve bot efficency</t>
-  </si>
-  <si>
     <t>Make bots 15% cheaper</t>
   </si>
   <si>
-    <t>Improve sell value</t>
-  </si>
-  <si>
     <t>Unlock Bots</t>
   </si>
   <si>
@@ -570,15 +549,9 @@
     <t>Unlock better bait</t>
   </si>
   <si>
-    <t>Bait works better</t>
-  </si>
-  <si>
     <t>Unlock more destinations</t>
   </si>
   <si>
-    <t>More bait storage</t>
-  </si>
-  <si>
     <t>Use 10 bait at a time</t>
   </si>
   <si>
@@ -606,9 +579,6 @@
     <t>Wood production increases magic production</t>
   </si>
   <si>
-    <t>25% magic</t>
-  </si>
-  <si>
     <t>Magic ^2 gold production</t>
   </si>
   <si>
@@ -1389,9 +1359,6 @@
     <t>Increases storage capacity by 10</t>
   </si>
   <si>
-    <t>Doubles storage capacity</t>
-  </si>
-  <si>
     <t>Increases wood gathered per click by an additional 1</t>
   </si>
   <si>
@@ -1521,12 +1488,6 @@
     <t>better storage upgarade +40</t>
   </si>
   <si>
-    <t>Keep all research</t>
-  </si>
-  <si>
-    <t>Double all storage</t>
-  </si>
-  <si>
     <t>Research 2 at a time</t>
   </si>
   <si>
@@ -1546,6 +1507,108 @@
   </si>
   <si>
     <t>5000 Oak, 1000 Apple</t>
+  </si>
+  <si>
+    <t>woodcamp storage increase 5%</t>
+  </si>
+  <si>
+    <t>Double Oak WPS and WPC</t>
+  </si>
+  <si>
+    <t>Unlock Maple Wood</t>
+  </si>
+  <si>
+    <t>Unlock Birch Wood</t>
+  </si>
+  <si>
+    <t>WoodCamps 5% cheaper</t>
+  </si>
+  <si>
+    <t>Unlock Achievements</t>
+  </si>
+  <si>
+    <t>Gain 10x magic</t>
+  </si>
+  <si>
+    <t>n times storage capacity</t>
+  </si>
+  <si>
+    <t>oak is worth 1% more</t>
+  </si>
+  <si>
+    <t>oak bots 4%</t>
+  </si>
+  <si>
+    <t>get more fish</t>
+  </si>
+  <si>
+    <t>Wood Levels become base click</t>
+  </si>
+  <si>
+    <t>Keep Research</t>
+  </si>
+  <si>
+    <t>Keep Classic Wood Upgrades</t>
+  </si>
+  <si>
+    <t>Unlock Final Dam</t>
+  </si>
+  <si>
+    <t>5x wood production</t>
+  </si>
+  <si>
+    <t>Research Times / 2</t>
+  </si>
+  <si>
+    <t>10x storage</t>
+  </si>
+  <si>
+    <t>Gain 3x Magic</t>
+  </si>
+  <si>
+    <t>Research 3 at a time</t>
+  </si>
+  <si>
+    <t>Keep Rare Wood Upgrades</t>
+  </si>
+  <si>
+    <t>Keep Mythic Wood Upgrades</t>
+  </si>
+  <si>
+    <t>Unlock Ascention</t>
+  </si>
+  <si>
+    <t>Unlock Spruce Wood</t>
+  </si>
+  <si>
+    <t>Unlock Chestnut</t>
+  </si>
+  <si>
+    <t>Other Effects</t>
+  </si>
+  <si>
+    <t>pamati - 10% Production</t>
+  </si>
+  <si>
+    <t>Unlock Cherry</t>
+  </si>
+  <si>
+    <t>Levels 10% cheaper</t>
+  </si>
+  <si>
+    <t>Improve wood sell value 25%</t>
+  </si>
+  <si>
+    <t>Improve bot gps</t>
+  </si>
+  <si>
+    <t>Bait works 8% better</t>
+  </si>
+  <si>
+    <t>10x bait storage</t>
+  </si>
+  <si>
+    <t>25% magic boost</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2299,7 @@
   <dimension ref="C5:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H45"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2592,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -2626,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J34" s="35" t="s">
         <v>11</v>
@@ -2660,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -2677,7 +2740,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -2711,7 +2774,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -2728,7 +2791,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -2745,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -2779,7 +2842,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -2796,7 +2859,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -2849,7 +2912,7 @@
   <dimension ref="A2:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3716,14 +3779,15 @@
   </sheetPr>
   <dimension ref="A2:Y275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" customWidth="1"/>
     <col min="10" max="10" width="31.28515625" customWidth="1"/>
@@ -3768,16 +3832,16 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I5" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>78</v>
@@ -3807,23 +3871,23 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M35 + 1.3 * M35^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -3856,7 +3920,7 @@
         <v>88</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75">
@@ -3873,26 +3937,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M35 + 1.3 * M35^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -3925,7 +3989,7 @@
         <v>98</v>
       </c>
       <c r="W7" s="39" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75">
@@ -3942,25 +4006,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -3978,22 +4042,22 @@
         <v>103</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="T8" s="27" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="V8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75">
@@ -4010,22 +4074,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -4043,22 +4107,22 @@
         <v>110</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="T9" s="27" t="s">
         <v>111</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="V9" s="38" t="s">
         <v>112</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.75">
@@ -4075,10 +4139,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -4096,21 +4160,21 @@
         <v>116</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="R10" s="27"/>
       <c r="S10" s="27" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" s="38" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="W10" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75">
@@ -4127,19 +4191,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L11" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -4148,25 +4212,25 @@
         <v>118</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="38" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75">
@@ -4183,16 +4247,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -4201,22 +4265,22 @@
         <v>121</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="U12" s="27"/>
       <c r="V12" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="W12" s="40"/>
     </row>
@@ -4234,7 +4298,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -4243,7 +4307,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>123</v>
@@ -4256,11 +4320,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="U13" s="27"/>
       <c r="V13" s="40" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="W13" s="40"/>
     </row>
@@ -4277,15 +4341,18 @@
       <c r="E14" s="1">
         <v>9</v>
       </c>
+      <c r="F14" s="45" t="s">
+        <v>490</v>
+      </c>
       <c r="M14" s="27" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>125</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -4309,14 +4376,14 @@
         <v>10</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -4340,14 +4407,14 @@
         <v>11</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
@@ -4376,11 +4443,11 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -4405,11 +4472,11 @@
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -4432,11 +4499,14 @@
       <c r="E19" s="1">
         <v>14</v>
       </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="35" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -4458,13 +4528,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="35" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -4489,7 +4559,7 @@
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="35" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -4514,7 +4584,7 @@
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="35" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -4542,7 +4612,7 @@
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -4551,7 +4621,7 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="35" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -4573,13 +4643,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -4588,7 +4658,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="35" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -4610,13 +4680,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -4625,7 +4695,7 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="35" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -4646,13 +4716,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -4661,7 +4731,7 @@
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="35" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -4682,13 +4752,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -4697,7 +4767,7 @@
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -4718,19 +4788,19 @@
         <v>5</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -4779,13 +4849,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -4810,13 +4880,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -4830,13 +4900,13 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12.75">
@@ -4848,6 +4918,9 @@
       </c>
       <c r="E33" s="1">
         <v>10</v>
+      </c>
+      <c r="R33" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12.75">
@@ -4943,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="Y37" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="12.75">
@@ -5077,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -5388,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I52">
         <v>21</v>
@@ -5397,7 +5470,7 @@
         <v>10</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M52">
         <v>18</v>
@@ -5432,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M53">
         <v>19</v>
@@ -5467,7 +5540,7 @@
         <v>6</v>
       </c>
       <c r="L54" s="45" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M54">
         <v>20</v>
@@ -5511,7 +5584,7 @@
         <v>500</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M55">
         <v>21</v>
@@ -5546,7 +5619,7 @@
         <v>6</v>
       </c>
       <c r="L56" s="45" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M56">
         <v>22</v>
@@ -5613,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -5648,7 +5721,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M59">
         <v>25</v>
@@ -7454,7 +7527,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M140">
         <v>106</v>
@@ -9083,7 +9156,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
@@ -9097,7 +9170,7 @@
         <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1">
@@ -9111,7 +9184,7 @@
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1">
@@ -9125,7 +9198,7 @@
         <v>6</v>
       </c>
       <c r="H245" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
@@ -9139,7 +9212,7 @@
         <v>7</v>
       </c>
       <c r="H246" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
@@ -9153,7 +9226,7 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
@@ -9167,7 +9240,7 @@
         <v>9</v>
       </c>
       <c r="H248" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1">
@@ -9181,7 +9254,7 @@
         <v>10</v>
       </c>
       <c r="H249" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1">
@@ -9198,7 +9271,7 @@
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
@@ -9215,7 +9288,7 @@
         <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
@@ -9232,7 +9305,7 @@
         <v>13</v>
       </c>
       <c r="H252" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
@@ -9249,7 +9322,7 @@
         <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1">
@@ -9263,7 +9336,7 @@
         <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1">
@@ -9277,7 +9350,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1">
@@ -9291,7 +9364,7 @@
         <v>17</v>
       </c>
       <c r="H256" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="3:8" ht="15.75" customHeight="1">
@@ -9344,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" spans="3:8" ht="15.75" customHeight="1">
@@ -9358,7 +9431,7 @@
         <v>4</v>
       </c>
       <c r="H261" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" spans="3:8" ht="15.75" customHeight="1">
@@ -9372,7 +9445,7 @@
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" spans="3:8" ht="15.75" customHeight="1">
@@ -9386,7 +9459,7 @@
         <v>6</v>
       </c>
       <c r="H263" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="264" spans="3:8" ht="15.75" customHeight="1">
@@ -9400,7 +9473,7 @@
         <v>7</v>
       </c>
       <c r="H264" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="265" spans="3:8" ht="15.75" customHeight="1">
@@ -9414,7 +9487,7 @@
         <v>8</v>
       </c>
       <c r="H265" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="266" spans="3:8" ht="15.75" customHeight="1">
@@ -9428,7 +9501,7 @@
         <v>9</v>
       </c>
       <c r="H266" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="3:8" ht="15.75" customHeight="1">
@@ -9442,7 +9515,7 @@
         <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="268" spans="3:8" ht="15.75" customHeight="1">
@@ -9456,7 +9529,7 @@
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269" spans="3:8" ht="15.75" customHeight="1">
@@ -9470,7 +9543,7 @@
         <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="3:8" ht="15.75" customHeight="1">
@@ -9484,7 +9557,7 @@
         <v>13</v>
       </c>
       <c r="H270" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="271" spans="3:8" ht="15.75" customHeight="1">
@@ -9498,7 +9571,7 @@
         <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="3:8" ht="15.75" customHeight="1">
@@ -9512,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="273" spans="3:8" ht="15.75" customHeight="1">
@@ -9526,7 +9599,7 @@
         <v>16</v>
       </c>
       <c r="H273" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="3:8" ht="15.75" customHeight="1">
@@ -9540,7 +9613,7 @@
         <v>17</v>
       </c>
       <c r="H274" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="3:8" ht="15.75" customHeight="1">
@@ -9554,7 +9627,7 @@
         <v>18</v>
       </c>
       <c r="H275" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -9571,10 +9644,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C2:J65"/>
+  <dimension ref="C2:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9625,13 +9698,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="3:10">
@@ -9645,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -9659,7 +9732,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="3:10">
@@ -9673,7 +9746,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="3:10">
@@ -9687,7 +9760,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -9701,7 +9774,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="3:10">
@@ -9715,7 +9788,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="3:10">
@@ -9728,22 +9801,19 @@
       <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -9751,13 +9821,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>146</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -9765,13 +9835,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>147</v>
+      <c r="F15" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -9779,13 +9849,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -9793,13 +9860,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -9807,13 +9874,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -9821,13 +9885,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -9835,13 +9899,13 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -9849,13 +9913,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1">
         <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -9863,13 +9927,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -9877,13 +9938,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1">
         <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -9891,13 +9949,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1">
         <v>12</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>156</v>
+      <c r="F24" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -9905,13 +9963,13 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>157</v>
+      <c r="F25" s="47" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -9919,13 +9977,13 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1">
         <v>14</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>158</v>
+      <c r="F26" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -9933,13 +9991,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1">
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:6">
@@ -9947,13 +10005,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="1">
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>160</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -9961,13 +10019,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1">
         <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -9975,13 +10030,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="1">
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="3:6">
@@ -9989,13 +10044,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="1">
         <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="3:6">
@@ -10003,13 +10058,13 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -10017,13 +10072,13 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="1">
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -10031,13 +10086,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="1">
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -10045,13 +10100,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -10059,14 +10114,12 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="1">
         <v>24</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="1">
@@ -10079,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -10092,9 +10145,7 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="1">
@@ -10107,7 +10158,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>171</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -10120,9 +10171,7 @@
       <c r="E40" s="1">
         <v>4</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="1">
@@ -10135,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>173</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -10149,7 +10198,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="3:6">
@@ -10163,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -10176,9 +10225,7 @@
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="1">
@@ -10191,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="3:6">
@@ -10205,7 +10252,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -10218,9 +10265,7 @@
       <c r="E47" s="1">
         <v>5</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="1">
@@ -10233,7 +10278,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="3:6">
@@ -10246,9 +10291,7 @@
       <c r="E49" s="1">
         <v>7</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="3:6">
       <c r="C50" s="1">
@@ -10261,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="3:6">
@@ -10274,9 +10317,7 @@
       <c r="E51" s="1">
         <v>2</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="1">
@@ -10289,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="3:6">
@@ -10303,7 +10344,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="3:6">
@@ -10317,7 +10358,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="3:6">
@@ -10330,9 +10371,6 @@
       <c r="E55" s="1">
         <v>6</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="1">
@@ -10345,7 +10383,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="3:6">
@@ -10358,22 +10396,19 @@
       <c r="E57" s="1">
         <v>8</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="3:6">
@@ -10381,13 +10416,13 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="3:6">
@@ -10395,13 +10430,13 @@
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="3:6">
@@ -10409,13 +10444,13 @@
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="3:6">
@@ -10423,7 +10458,7 @@
         <v>58</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="3:6">
@@ -10436,9 +10471,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:6">
       <c r="C65" s="1">
         <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="15.75" customHeight="1">
+      <c r="F66" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="15.75" customHeight="1">
+      <c r="F68" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -10474,19 +10519,19 @@
         <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -10552,7 +10597,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I10" s="1">
         <v>1.3</v>
@@ -10575,7 +10620,7 @@
         <v>145</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I11" s="1">
         <v>1.2</v>
@@ -10598,7 +10643,7 @@
         <v>220</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I12" s="1">
         <v>1.1000000000000001</v>
@@ -10621,7 +10666,7 @@
         <v>350</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I13" s="1">
         <v>1.05</v>
@@ -10644,7 +10689,7 @@
         <v>600</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I14" s="1">
         <v>1.75</v>
@@ -10667,7 +10712,7 @@
         <v>1000</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I15" s="1">
         <v>1.5</v>
@@ -10690,7 +10735,7 @@
         <v>2200</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I16" s="1">
         <v>1.4</v>
@@ -10713,7 +10758,7 @@
         <v>3800</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I17" s="1">
         <v>1.3</v>
@@ -10736,7 +10781,7 @@
         <v>7000</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I18" s="1">
         <v>1.2</v>
@@ -10756,10 +10801,10 @@
         <v>31</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I19" s="1">
         <v>1.1000000000000001</v>
@@ -10779,10 +10824,10 @@
         <v>33</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I20" s="1">
         <v>1.05</v>
@@ -10802,10 +10847,10 @@
         <v>35</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I21" s="1">
         <v>1.75</v>
@@ -10825,10 +10870,10 @@
         <v>37</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I22" s="1">
         <v>1.5</v>
@@ -10848,10 +10893,10 @@
         <v>39</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I23" s="1">
         <v>1.4</v>
@@ -10871,10 +10916,10 @@
         <v>41</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I24" s="1">
         <v>1.3</v>
@@ -10894,10 +10939,10 @@
         <v>43</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I25" s="1">
         <v>1.2</v>
@@ -10917,10 +10962,10 @@
         <v>45</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I26" s="1">
         <v>1.1000000000000001</v>
@@ -10940,10 +10985,10 @@
         <v>46</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I27" s="1">
         <v>1.05</v>
@@ -10963,10 +11008,10 @@
         <v>70</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="I28" s="1">
         <v>1.75</v>
@@ -10990,12 +11035,13 @@
   <dimension ref="C4:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -11017,13 +11063,16 @@
         <v>135</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="1">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>505</v>
+      </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -11032,6 +11081,9 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>506</v>
+      </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -11056,6 +11108,9 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>483</v>
+      </c>
       <c r="G11" s="1">
         <v>35</v>
       </c>
@@ -11064,9 +11119,6 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>496</v>
-      </c>
       <c r="G12" s="1">
         <v>135</v>
       </c>
@@ -11075,6 +11127,9 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>508</v>
+      </c>
       <c r="G13" s="1">
         <v>220</v>
       </c>
@@ -11083,6 +11138,9 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>513</v>
+      </c>
       <c r="G14" s="1">
         <v>444</v>
       </c>
@@ -11092,7 +11150,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -11126,6 +11184,9 @@
       <c r="C19" s="1">
         <v>13</v>
       </c>
+      <c r="D19" t="s">
+        <v>509</v>
+      </c>
       <c r="G19" s="1">
         <v>5000</v>
       </c>
@@ -11135,7 +11196,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -11143,7 +11204,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="3:7">
@@ -11151,7 +11212,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -11159,7 +11220,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -11167,10 +11228,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="3:7">
@@ -11178,7 +11239,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="3:7">
@@ -11186,31 +11247,40 @@
         <v>20</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="1">
         <v>21</v>
       </c>
+      <c r="D27" t="s">
+        <v>503</v>
+      </c>
       <c r="G27" s="28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="1">
         <v>22</v>
       </c>
+      <c r="D28" t="s">
+        <v>510</v>
+      </c>
       <c r="G28" s="28" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="1">
         <v>23</v>
       </c>
+      <c r="D29" t="s">
+        <v>511</v>
+      </c>
       <c r="G29" s="28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="3:7">
@@ -11218,7 +11288,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="3:7">
@@ -11226,7 +11296,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="3:7">
@@ -11234,7 +11304,7 @@
         <v>26</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -11242,7 +11312,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -11250,7 +11320,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -11258,15 +11328,18 @@
         <v>29</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1">
         <v>30</v>
       </c>
+      <c r="D36" t="s">
+        <v>504</v>
+      </c>
       <c r="G36" s="28" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -11279,18 +11352,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C3:G9"/>
+  <dimension ref="C3:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -11301,42 +11380,51 @@
         <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>238</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>514</v>
+      </c>
+      <c r="H6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -11365,15 +11453,15 @@
   <sheetData>
     <row r="3" spans="3:22">
       <c r="C3" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="3:22">
       <c r="O4" s="54" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="P4" s="55"/>
       <c r="Q4" s="55"/>
@@ -11393,7 +11481,7 @@
         <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>135</v>
@@ -11408,25 +11496,25 @@
         <v>53</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>135</v>
@@ -11437,13 +11525,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="3:22">
@@ -11451,13 +11539,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="3:22">
@@ -11465,13 +11553,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="3:22">
@@ -11479,19 +11567,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="1">
         <v>1000</v>
@@ -11514,16 +11602,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:22">
@@ -11531,13 +11619,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="3:22">
@@ -11545,13 +11633,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="3:22">
@@ -11559,16 +11647,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="L13" s="1">
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="3:22">
@@ -11576,16 +11664,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="3:22">
@@ -11593,13 +11681,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="3:22">
@@ -11607,13 +11695,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L16" s="1">
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="3:13">
@@ -11621,13 +11709,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="1">
         <v>12</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="3:13">
@@ -11635,13 +11723,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="3:13">
@@ -11649,13 +11737,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" s="1">
         <v>14</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="3:13">
@@ -11663,13 +11751,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -11677,13 +11765,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="3:13">
@@ -11691,13 +11779,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="3:13">
@@ -11705,13 +11793,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="3:13">
@@ -11719,13 +11807,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L24" s="1">
         <v>19</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -11733,13 +11821,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L25" s="1">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -11747,7 +11835,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="3:13">
@@ -11755,7 +11843,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="3:13">
@@ -11763,7 +11851,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="3:13">
@@ -11771,7 +11859,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="3:13">
@@ -11779,7 +11867,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="3:13">
@@ -11787,7 +11875,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -11795,7 +11883,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -11803,7 +11891,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -11811,7 +11899,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -11819,7 +11907,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -11827,7 +11915,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="3:7">
@@ -11835,7 +11923,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -11843,7 +11931,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="3:7">
@@ -11851,10 +11939,10 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G39" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="3:7">
@@ -12213,13 +12301,13 @@
   <sheetData>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -12232,10 +12320,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>135</v>
@@ -12250,10 +12338,10 @@
         <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>76</v>
@@ -12265,7 +12353,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>56</v>
@@ -12282,25 +12370,25 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="S6" s="29"/>
     </row>
@@ -12312,25 +12400,25 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="S7" s="30"/>
     </row>
@@ -12342,7 +12430,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F8" s="31">
         <v>0.08</v>
@@ -12351,16 +12439,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="P8" s="1">
         <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="S8" s="32"/>
     </row>
@@ -12372,7 +12460,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
@@ -12381,13 +12469,13 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>85</v>
@@ -12402,7 +12490,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F10" s="1">
         <v>25</v>
@@ -12411,16 +12499,16 @@
         <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P10" s="1">
         <v>5</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="S10" s="34"/>
     </row>
@@ -12432,7 +12520,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F11" s="1">
         <v>40</v>
@@ -12441,7 +12529,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="3:20">
@@ -12452,7 +12540,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F12" s="1">
         <v>60</v>
@@ -12461,7 +12549,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="3:20">
@@ -12472,7 +12560,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F13" s="1">
         <v>85</v>
@@ -12481,7 +12569,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="3:20">
@@ -12492,7 +12580,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F14" s="1">
         <v>115</v>
@@ -12501,7 +12589,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="3:20">
@@ -12512,7 +12600,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F15" s="1">
         <v>150</v>
@@ -12521,7 +12609,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="3:20">
@@ -12532,7 +12620,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F16" s="1">
         <v>200</v>
@@ -12541,7 +12629,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="3:11">
@@ -12552,7 +12640,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F17" s="1">
         <v>280</v>
@@ -12561,7 +12649,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="3:11">
@@ -12572,7 +12660,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F18" s="1">
         <v>380</v>
@@ -12581,7 +12669,7 @@
         <v>13</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -12592,7 +12680,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F19" s="1">
         <v>500</v>
@@ -12601,7 +12689,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -12612,7 +12700,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F20" s="1">
         <v>650</v>
@@ -12621,7 +12709,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="3:11">
@@ -12632,7 +12720,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F21" s="1">
         <v>800</v>
@@ -12641,7 +12729,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="3:11">
@@ -12652,7 +12740,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F22" s="1">
         <v>1000</v>
@@ -12661,7 +12749,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="3:11">
@@ -12672,7 +12760,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F23" s="1">
         <v>1300</v>
@@ -12681,7 +12769,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -12692,7 +12780,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F24" s="1">
         <v>2000</v>
@@ -12701,7 +12789,7 @@
         <v>19</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="3:11">
@@ -12712,7 +12800,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F25" s="1">
         <v>3000</v>
@@ -12721,7 +12809,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="3:11">
@@ -12732,7 +12820,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F26" s="1">
         <v>10000</v>
@@ -12741,7 +12829,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="3:11">
@@ -12749,7 +12837,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="3:11">
@@ -12757,7 +12845,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="3:11">
@@ -12765,7 +12853,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="3:11">
@@ -12773,7 +12861,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -12781,7 +12869,7 @@
         <v>26</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="3:11">
@@ -12789,7 +12877,7 @@
         <v>27</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="9:11">
@@ -12797,7 +12885,7 @@
         <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="9:11">
@@ -12805,7 +12893,7 @@
         <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="9:11">
@@ -12813,7 +12901,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="9:11">
@@ -12821,7 +12909,7 @@
         <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="9:11">
@@ -12829,7 +12917,7 @@
         <v>32</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="9:11">
@@ -12837,7 +12925,7 @@
         <v>33</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="9:11">
@@ -12845,7 +12933,7 @@
         <v>34</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="9:11">
@@ -12853,7 +12941,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="9:11">
@@ -12861,7 +12949,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="9:11">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDF369-9951-497E-9319-4D7AE6795881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65ED08-08F3-4A5A-9BA9-5D5853900B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,24 +24,11 @@
     <sheet name="Fishing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="823">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -2513,6 +2500,12 @@
   </si>
   <si>
     <t>wood per second 2% increase per level</t>
+  </si>
+  <si>
+    <t>Better wood price +10</t>
+  </si>
+  <si>
+    <t>levels effects 3%</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2873,6 +2866,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3191,13 +3190,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3249,7 +3241,14 @@
     <xf numFmtId="0" fontId="2" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4956,8 +4955,8 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5058,19 +5057,19 @@
       <c r="K5" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
@@ -5085,10 +5084,10 @@
       <c r="D6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="67">
         <v>1</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="105" t="s">
         <v>817</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -5154,10 +5153,10 @@
       <c r="D7">
         <v>1.3</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="67">
         <v>2</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="65" t="s">
         <v>400</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -5226,10 +5225,10 @@
       <c r="D8">
         <v>3.16</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="67">
         <v>3</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="75" t="s">
         <v>537</v>
       </c>
       <c r="G8" s="45" t="s">
@@ -5297,10 +5296,10 @@
       <c r="D9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="67">
         <v>4</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="105" t="s">
         <v>818</v>
       </c>
       <c r="G9" s="45" t="s">
@@ -5365,10 +5364,10 @@
       <c r="D10">
         <v>4.2</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="67">
         <v>5</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="104" t="s">
         <v>430</v>
       </c>
       <c r="G10" s="45" t="s">
@@ -5420,10 +5419,10 @@
       <c r="D11">
         <v>2.1</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="67">
         <v>6</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="75" t="s">
         <v>819</v>
       </c>
       <c r="H11">
@@ -5479,10 +5478,10 @@
       <c r="D12">
         <v>2.16</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="67">
         <v>7</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="102" t="s">
         <v>662</v>
       </c>
       <c r="H12">
@@ -5533,10 +5532,10 @@
       <c r="D13">
         <v>7.4</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="67">
         <v>8</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="65" t="s">
         <v>747</v>
       </c>
       <c r="H13" s="1">
@@ -5577,10 +5576,10 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="67">
         <v>9</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="97" t="s">
         <v>715</v>
       </c>
       <c r="M14" s="27" t="s">
@@ -5611,10 +5610,10 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="67">
         <v>10</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="98" t="s">
         <v>761</v>
       </c>
       <c r="M15" s="40" t="s">
@@ -5645,10 +5644,10 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="67">
         <v>11</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="99" t="s">
         <v>743</v>
       </c>
       <c r="M16" s="40" t="s">
@@ -5679,10 +5678,10 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="67">
         <v>12</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="97" t="s">
         <v>729</v>
       </c>
       <c r="G17" t="e">
@@ -5715,10 +5714,10 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="67">
         <v>13</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="75" t="s">
         <v>595</v>
       </c>
       <c r="M18" s="40"/>
@@ -5750,10 +5749,10 @@
       <c r="D19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="67">
         <v>14</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="74" t="s">
         <v>623</v>
       </c>
       <c r="M19" s="40"/>
@@ -5778,10 +5777,10 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="67">
         <v>15</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="105" t="s">
         <v>820</v>
       </c>
       <c r="M20" s="35"/>
@@ -5809,10 +5808,10 @@
       <c r="D21">
         <v>3.21</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="67">
         <v>16</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="65" t="s">
         <v>464</v>
       </c>
       <c r="M21" s="40"/>
@@ -5837,10 +5836,10 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="67">
         <v>17</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="74" t="s">
         <v>630</v>
       </c>
       <c r="M22" s="40"/>
@@ -5865,10 +5864,10 @@
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="67">
         <v>18</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="F23" s="100" t="s">
         <v>682</v>
       </c>
       <c r="H23" s="44">
@@ -5896,19 +5895,19 @@
     </row>
     <row r="24" spans="1:23" ht="12.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="109">
+      <c r="B24" s="106">
         <v>19</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="108">
         <v>1.2</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="106">
         <v>1</v>
       </c>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="105" t="s">
         <v>434</v>
       </c>
       <c r="H24">
@@ -5948,7 +5947,7 @@
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="65" t="s">
         <v>435</v>
       </c>
       <c r="H25">
@@ -5987,7 +5986,7 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="75" t="s">
         <v>538</v>
       </c>
       <c r="H26">
@@ -6026,7 +6025,7 @@
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="65" t="s">
         <v>759</v>
       </c>
       <c r="H27">
@@ -6059,10 +6058,10 @@
       <c r="C28" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="113">
         <v>5</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="105" t="s">
         <v>463</v>
       </c>
       <c r="H28">
@@ -6098,7 +6097,7 @@
       <c r="E29" s="1">
         <v>6</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="104" t="s">
         <v>92</v>
       </c>
       <c r="H29">
@@ -6129,8 +6128,8 @@
       <c r="E30" s="1">
         <v>7</v>
       </c>
-      <c r="F30" s="108" t="s">
-        <v>429</v>
+      <c r="F30" s="105" t="s">
+        <v>818</v>
       </c>
       <c r="H30">
         <v>1200</v>
@@ -6160,7 +6159,7 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="65" t="s">
         <v>464</v>
       </c>
       <c r="H31">
@@ -6186,7 +6185,7 @@
       <c r="E32" s="1">
         <v>9</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="75" t="s">
         <v>600</v>
       </c>
       <c r="H32">
@@ -6206,10 +6205,10 @@
       <c r="E33" s="1">
         <v>10</v>
       </c>
-      <c r="F33" s="105" t="s">
+      <c r="F33" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="O33" s="82" t="s">
+      <c r="O33" s="79" t="s">
         <v>756</v>
       </c>
     </row>
@@ -6223,7 +6222,7 @@
       <c r="E34" s="1">
         <v>11</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="74" t="s">
         <v>624</v>
       </c>
       <c r="L34" s="40"/>
@@ -6251,7 +6250,7 @@
       <c r="E35" s="1">
         <v>12</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="75" t="s">
         <v>757</v>
       </c>
       <c r="L35" s="46" t="s">
@@ -6304,7 +6303,7 @@
       <c r="E36" s="1">
         <v>13</v>
       </c>
-      <c r="F36" s="100" t="s">
+      <c r="F36" s="97" t="s">
         <v>718</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -6314,40 +6313,40 @@
       <c r="L36" s="40">
         <v>1</v>
       </c>
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="N36" s="75" t="s">
+      <c r="N36" s="72" t="s">
         <v>537</v>
       </c>
-      <c r="O36" s="76" t="s">
+      <c r="O36" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="P36" s="80" t="s">
+      <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="Q36" s="69" t="s">
+      <c r="Q36" s="66" t="s">
         <v>623</v>
       </c>
-      <c r="R36" s="85" t="s">
+      <c r="R36" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="S36" s="88" t="s">
+      <c r="S36" s="85" t="s">
         <v>658</v>
       </c>
-      <c r="T36" s="94" t="s">
+      <c r="T36" s="91" t="s">
         <v>673</v>
       </c>
-      <c r="U36" s="99" t="s">
+      <c r="U36" s="96" t="s">
         <v>694</v>
       </c>
-      <c r="V36" s="98" t="s">
+      <c r="V36" s="95" t="s">
         <v>703</v>
       </c>
-      <c r="W36" s="96" t="s">
+      <c r="W36" s="93" t="s">
         <v>714</v>
       </c>
-      <c r="X36" s="93" t="s">
+      <c r="X36" s="90" t="s">
         <v>746</v>
       </c>
     </row>
@@ -6361,7 +6360,7 @@
       <c r="E37" s="1">
         <v>14</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="74" t="s">
         <v>632</v>
       </c>
       <c r="G37" s="45" t="s">
@@ -6372,40 +6371,40 @@
       <c r="L37" s="40">
         <v>2</v>
       </c>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="N37" s="66" t="s">
+      <c r="N37" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="O37" s="67" t="s">
+      <c r="O37" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="P37" s="81" t="s">
+      <c r="P37" s="78" t="s">
         <v>562</v>
       </c>
-      <c r="Q37" s="86" t="s">
+      <c r="Q37" s="83" t="s">
         <v>624</v>
       </c>
-      <c r="R37" s="87" t="s">
+      <c r="R37" s="84" t="s">
         <v>761</v>
       </c>
-      <c r="S37" s="79" t="s">
+      <c r="S37" s="76" t="s">
         <v>659</v>
       </c>
-      <c r="T37" s="89" t="s">
+      <c r="T37" s="86" t="s">
         <v>674</v>
       </c>
-      <c r="U37" s="90" t="s">
+      <c r="U37" s="87" t="s">
         <v>695</v>
       </c>
-      <c r="V37" s="91" t="s">
+      <c r="V37" s="88" t="s">
         <v>704</v>
       </c>
-      <c r="W37" s="92" t="s">
+      <c r="W37" s="89" t="s">
         <v>715</v>
       </c>
-      <c r="X37" s="93" t="s">
+      <c r="X37" s="90" t="s">
         <v>745</v>
       </c>
     </row>
@@ -6419,7 +6418,7 @@
       <c r="E38" s="1">
         <v>15</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="100" t="s">
         <v>690</v>
       </c>
       <c r="G38" t="s">
@@ -6429,40 +6428,40 @@
       <c r="L38" s="40">
         <v>3</v>
       </c>
-      <c r="M38" s="71" t="s">
+      <c r="M38" s="68" t="s">
         <v>505</v>
       </c>
-      <c r="N38" s="66" t="s">
+      <c r="N38" s="63" t="s">
         <v>539</v>
       </c>
-      <c r="O38" s="67" t="s">
+      <c r="O38" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="P38" s="81" t="s">
+      <c r="P38" s="78" t="s">
         <v>621</v>
       </c>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="83" t="s">
         <v>625</v>
       </c>
-      <c r="R38" s="87" t="s">
+      <c r="R38" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="S38" s="79" t="s">
+      <c r="S38" s="76" t="s">
         <v>661</v>
       </c>
-      <c r="T38" s="95" t="s">
+      <c r="T38" s="92" t="s">
         <v>675</v>
       </c>
-      <c r="U38" s="90" t="s">
+      <c r="U38" s="87" t="s">
         <v>696</v>
       </c>
-      <c r="V38" s="91" t="s">
+      <c r="V38" s="88" t="s">
         <v>705</v>
       </c>
-      <c r="W38" s="92" t="s">
+      <c r="W38" s="89" t="s">
         <v>716</v>
       </c>
-      <c r="X38" s="93" t="s">
+      <c r="X38" s="90" t="s">
         <v>744</v>
       </c>
     </row>
@@ -6476,7 +6475,7 @@
       <c r="E39" s="1">
         <v>16</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="101" t="s">
         <v>695</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -6487,40 +6486,40 @@
       <c r="L39" s="40">
         <v>4</v>
       </c>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="68" t="s">
         <v>506</v>
       </c>
-      <c r="N39" s="66" t="s">
+      <c r="N39" s="63" t="s">
         <v>540</v>
       </c>
-      <c r="O39" s="67" t="s">
+      <c r="O39" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="P39" s="81" t="s">
+      <c r="P39" s="78" t="s">
         <v>622</v>
       </c>
-      <c r="Q39" s="86" t="s">
+      <c r="Q39" s="83" t="s">
         <v>649</v>
       </c>
-      <c r="R39" s="87" t="s">
+      <c r="R39" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="S39" s="79" t="s">
+      <c r="S39" s="76" t="s">
         <v>662</v>
       </c>
-      <c r="T39" s="89" t="s">
+      <c r="T39" s="86" t="s">
         <v>678</v>
       </c>
-      <c r="U39" s="90" t="s">
+      <c r="U39" s="87" t="s">
         <v>697</v>
       </c>
-      <c r="V39" s="91" t="s">
+      <c r="V39" s="88" t="s">
         <v>708</v>
       </c>
-      <c r="W39" s="92" t="s">
+      <c r="W39" s="89" t="s">
         <v>717</v>
       </c>
-      <c r="X39" s="97" t="s">
+      <c r="X39" s="94" t="s">
         <v>742</v>
       </c>
     </row>
@@ -6537,7 +6536,7 @@
       <c r="E40" s="1">
         <v>17</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="100" t="s">
         <v>675</v>
       </c>
       <c r="G40" t="s">
@@ -6546,38 +6545,38 @@
       <c r="L40" s="40">
         <v>5</v>
       </c>
-      <c r="M40" s="72" t="s">
+      <c r="M40" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="N40" s="66" t="s">
+      <c r="N40" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="O40" s="67" t="s">
+      <c r="O40" s="64" t="s">
         <v>556</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="83" t="s">
         <v>650</v>
       </c>
       <c r="R40" s="57"/>
-      <c r="S40" s="79" t="s">
+      <c r="S40" s="76" t="s">
         <v>663</v>
       </c>
-      <c r="T40" s="89" t="s">
+      <c r="T40" s="86" t="s">
         <v>679</v>
       </c>
-      <c r="U40" s="90" t="s">
+      <c r="U40" s="87" t="s">
         <v>698</v>
       </c>
-      <c r="V40" s="91" t="s">
+      <c r="V40" s="88" t="s">
         <v>709</v>
       </c>
-      <c r="W40" s="92" t="s">
+      <c r="W40" s="89" t="s">
         <v>718</v>
       </c>
-      <c r="X40" s="97" t="s">
+      <c r="X40" s="94" t="s">
         <v>743</v>
       </c>
     </row>
@@ -6594,7 +6593,7 @@
       <c r="E41" s="1">
         <v>18</v>
       </c>
-      <c r="F41" s="100" t="s">
+      <c r="F41" s="97" t="s">
         <v>723</v>
       </c>
       <c r="G41" s="1"/>
@@ -6602,35 +6601,35 @@
       <c r="L41" s="40">
         <v>6</v>
       </c>
-      <c r="M41" s="71" t="s">
+      <c r="M41" s="68" t="s">
         <v>508</v>
       </c>
-      <c r="N41" s="66" t="s">
+      <c r="N41" s="63" t="s">
         <v>542</v>
       </c>
-      <c r="O41" s="67" t="s">
+      <c r="O41" s="64" t="s">
         <v>557</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="Q41" s="86" t="s">
+      <c r="Q41" s="83" t="s">
         <v>626</v>
       </c>
       <c r="R41" s="57"/>
-      <c r="S41" s="79" t="s">
+      <c r="S41" s="76" t="s">
         <v>660</v>
       </c>
-      <c r="T41" s="89" t="s">
+      <c r="T41" s="86" t="s">
         <v>680</v>
       </c>
-      <c r="U41" s="90" t="s">
+      <c r="U41" s="87" t="s">
         <v>699</v>
       </c>
-      <c r="V41" s="91" t="s">
+      <c r="V41" s="88" t="s">
         <v>710</v>
       </c>
-      <c r="W41" s="92" t="s">
+      <c r="W41" s="89" t="s">
         <v>719</v>
       </c>
       <c r="X41" s="55"/>
@@ -6639,17 +6638,17 @@
       <c r="A42">
         <v>7</v>
       </c>
-      <c r="B42" s="109">
+      <c r="B42" s="106">
         <v>37</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="109">
+      <c r="D42" s="108"/>
+      <c r="E42" s="106">
         <v>1</v>
       </c>
-      <c r="F42" s="108" t="s">
+      <c r="F42" s="105" t="s">
         <v>505</v>
       </c>
       <c r="G42" s="1"/>
@@ -6659,35 +6658,35 @@
       <c r="L42" s="40">
         <v>7</v>
       </c>
-      <c r="M42" s="71" t="s">
+      <c r="M42" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="N42" s="66" t="s">
+      <c r="N42" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="O42" s="67" t="s">
+      <c r="O42" s="64" t="s">
         <v>558</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="86" t="s">
+      <c r="Q42" s="83" t="s">
         <v>627</v>
       </c>
       <c r="R42" s="57"/>
-      <c r="S42" s="79" t="s">
+      <c r="S42" s="76" t="s">
         <v>664</v>
       </c>
-      <c r="T42" s="89" t="s">
+      <c r="T42" s="86" t="s">
         <v>681</v>
       </c>
-      <c r="U42" s="90" t="s">
+      <c r="U42" s="87" t="s">
         <v>700</v>
       </c>
-      <c r="V42" s="91" t="s">
+      <c r="V42" s="88" t="s">
         <v>711</v>
       </c>
-      <c r="W42" s="92" t="s">
+      <c r="W42" s="89" t="s">
         <v>720</v>
       </c>
       <c r="X42" s="55"/>
@@ -6702,45 +6701,45 @@
       <c r="C43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="67">
         <v>2</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="65" t="s">
         <v>554</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="68" t="s">
         <v>510</v>
       </c>
-      <c r="N43" s="66" t="s">
+      <c r="N43" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="O43" s="67" t="s">
+      <c r="O43" s="64" t="s">
         <v>559</v>
       </c>
       <c r="P43" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="Q43" s="86" t="s">
+      <c r="Q43" s="83" t="s">
         <v>628</v>
       </c>
       <c r="R43" s="57"/>
-      <c r="S43" s="79" t="s">
+      <c r="S43" s="76" t="s">
         <v>665</v>
       </c>
-      <c r="T43" s="89" t="s">
+      <c r="T43" s="86" t="s">
         <v>682</v>
       </c>
-      <c r="U43" s="90" t="s">
+      <c r="U43" s="87" t="s">
         <v>701</v>
       </c>
-      <c r="V43" s="91" t="s">
+      <c r="V43" s="88" t="s">
         <v>712</v>
       </c>
-      <c r="W43" s="92" t="s">
+      <c r="W43" s="89" t="s">
         <v>721</v>
       </c>
       <c r="X43" s="55"/>
@@ -6755,45 +6754,45 @@
       <c r="C44" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="67">
         <v>3</v>
       </c>
-      <c r="F44" s="78" t="s">
+      <c r="F44" s="75" t="s">
         <v>539</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="N44" s="66" t="s">
+      <c r="N44" s="63" t="s">
         <v>545</v>
       </c>
-      <c r="O44" s="67" t="s">
+      <c r="O44" s="64" t="s">
         <v>560</v>
       </c>
       <c r="P44" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="Q44" s="86" t="s">
+      <c r="Q44" s="83" t="s">
         <v>651</v>
       </c>
       <c r="R44" s="57"/>
-      <c r="S44" s="79" t="s">
+      <c r="S44" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="T44" s="95" t="s">
+      <c r="T44" s="92" t="s">
         <v>686</v>
       </c>
-      <c r="U44" s="90" t="s">
+      <c r="U44" s="87" t="s">
         <v>702</v>
       </c>
-      <c r="V44" s="91" t="s">
+      <c r="V44" s="88" t="s">
         <v>713</v>
       </c>
-      <c r="W44" s="92" t="s">
+      <c r="W44" s="89" t="s">
         <v>722</v>
       </c>
       <c r="X44" s="55"/>
@@ -6811,43 +6810,43 @@
       <c r="D45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="67">
         <v>4</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="75" t="s">
         <v>584</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="68" t="s">
         <v>512</v>
       </c>
-      <c r="N45" s="66" t="s">
+      <c r="N45" s="63" t="s">
         <v>546</v>
       </c>
-      <c r="O45" s="67" t="s">
+      <c r="O45" s="64" t="s">
         <v>561</v>
       </c>
       <c r="P45" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="Q45" s="86" t="s">
+      <c r="Q45" s="83" t="s">
         <v>654</v>
       </c>
       <c r="R45" s="57"/>
-      <c r="S45" s="79" t="s">
+      <c r="S45" s="76" t="s">
         <v>667</v>
       </c>
-      <c r="T45" s="89" t="s">
+      <c r="T45" s="86" t="s">
         <v>683</v>
       </c>
       <c r="U45" s="57"/>
-      <c r="V45" s="91" t="s">
+      <c r="V45" s="88" t="s">
         <v>706</v>
       </c>
-      <c r="W45" s="92" t="s">
+      <c r="W45" s="89" t="s">
         <v>723</v>
       </c>
       <c r="X45" s="59"/>
@@ -6862,43 +6861,43 @@
       <c r="C46" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="67">
         <v>5</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="105" t="s">
         <v>576</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
-      <c r="M46" s="71" t="s">
+      <c r="M46" s="68" t="s">
         <v>513</v>
       </c>
-      <c r="N46" s="66" t="s">
+      <c r="N46" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="O46" s="67" t="s">
+      <c r="O46" s="64" t="s">
         <v>750</v>
       </c>
       <c r="P46" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="Q46" s="86" t="s">
+      <c r="Q46" s="83" t="s">
         <v>655</v>
       </c>
       <c r="R46" s="55"/>
-      <c r="S46" s="79" t="s">
+      <c r="S46" s="76" t="s">
         <v>672</v>
       </c>
-      <c r="T46" s="89" t="s">
+      <c r="T46" s="86" t="s">
         <v>684</v>
       </c>
       <c r="U46" s="55"/>
-      <c r="V46" s="91" t="s">
+      <c r="V46" s="88" t="s">
         <v>707</v>
       </c>
-      <c r="W46" s="92" t="s">
+      <c r="W46" s="89" t="s">
         <v>724</v>
       </c>
       <c r="X46" s="55"/>
@@ -6913,43 +6912,43 @@
       <c r="C47" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="67">
         <v>6</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="65" t="s">
         <v>760</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
-      <c r="M47" s="71" t="s">
+      <c r="M47" s="68" t="s">
         <v>514</v>
       </c>
-      <c r="N47" s="66" t="s">
+      <c r="N47" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="O47" s="67" t="s">
+      <c r="O47" s="64" t="s">
         <v>751</v>
       </c>
       <c r="P47" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="Q47" s="86" t="s">
+      <c r="Q47" s="83" t="s">
         <v>629</v>
       </c>
       <c r="R47" s="55"/>
-      <c r="S47" s="79" t="s">
+      <c r="S47" s="76" t="s">
         <v>670</v>
       </c>
-      <c r="T47" s="89" t="s">
+      <c r="T47" s="86" t="s">
         <v>685</v>
       </c>
       <c r="U47" s="55"/>
-      <c r="V47" s="91" t="s">
+      <c r="V47" s="88" t="s">
         <v>763</v>
       </c>
-      <c r="W47" s="92" t="s">
+      <c r="W47" s="89" t="s">
         <v>725</v>
       </c>
       <c r="X47" s="55"/>
@@ -6964,41 +6963,41 @@
       <c r="C48" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="67">
         <v>7</v>
       </c>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="102" t="s">
         <v>667</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
-      <c r="M48" s="72" t="s">
+      <c r="M48" s="69" t="s">
         <v>515</v>
       </c>
-      <c r="N48" s="66" t="s">
+      <c r="N48" s="63" t="s">
         <v>549</v>
       </c>
-      <c r="O48" s="67" t="s">
+      <c r="O48" s="64" t="s">
         <v>752</v>
       </c>
       <c r="P48" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="Q48" s="86" t="s">
+      <c r="Q48" s="83" t="s">
         <v>630</v>
       </c>
       <c r="R48" s="55"/>
-      <c r="S48" s="79" t="s">
+      <c r="S48" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="T48" s="89" t="s">
+      <c r="T48" s="86" t="s">
         <v>687</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
-      <c r="W48" s="92" t="s">
+      <c r="W48" s="89" t="s">
         <v>726</v>
       </c>
       <c r="X48" s="55"/>
@@ -7013,41 +7012,41 @@
       <c r="C49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="67">
         <v>8</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="75" t="s">
         <v>608</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
-      <c r="M49" s="71" t="s">
+      <c r="M49" s="68" t="s">
         <v>516</v>
       </c>
-      <c r="N49" s="66" t="s">
+      <c r="N49" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="O49" s="67" t="s">
+      <c r="O49" s="64" t="s">
         <v>753</v>
       </c>
       <c r="P49" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="Q49" s="86" t="s">
+      <c r="Q49" s="83" t="s">
         <v>644</v>
       </c>
       <c r="R49" s="55"/>
-      <c r="S49" s="79" t="s">
+      <c r="S49" s="76" t="s">
         <v>671</v>
       </c>
-      <c r="T49" s="89" t="s">
+      <c r="T49" s="86" t="s">
         <v>688</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
-      <c r="W49" s="92" t="s">
+      <c r="W49" s="89" t="s">
         <v>727</v>
       </c>
       <c r="X49" s="55"/>
@@ -7062,41 +7061,41 @@
       <c r="C50" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="67">
         <v>9</v>
       </c>
-      <c r="F50" s="100" t="s">
+      <c r="F50" s="97" t="s">
         <v>720</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
-      <c r="M50" s="71" t="s">
+      <c r="M50" s="68" t="s">
         <v>517</v>
       </c>
-      <c r="N50" s="66" t="s">
+      <c r="N50" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="O50" s="67" t="s">
+      <c r="O50" s="64" t="s">
         <v>754</v>
       </c>
       <c r="P50" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="Q50" s="86" t="s">
+      <c r="Q50" s="83" t="s">
         <v>645</v>
       </c>
       <c r="R50" s="55"/>
-      <c r="S50" s="79" t="s">
+      <c r="S50" s="76" t="s">
         <v>668</v>
       </c>
-      <c r="T50" s="89" t="s">
+      <c r="T50" s="86" t="s">
         <v>689</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
-      <c r="W50" s="92" t="s">
+      <c r="W50" s="89" t="s">
         <v>728</v>
       </c>
       <c r="X50" s="55"/>
@@ -7111,38 +7110,38 @@
       <c r="C51" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="67">
         <v>10</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="99" t="s">
         <v>746</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
       </c>
-      <c r="M51" s="73" t="s">
+      <c r="M51" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N51" s="66" t="s">
+      <c r="N51" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="O51" s="67" t="s">
+      <c r="O51" s="64" t="s">
         <v>464</v>
       </c>
       <c r="P51" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="Q51" s="86" t="s">
+      <c r="Q51" s="83" t="s">
         <v>646</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
-      <c r="T51" s="89" t="s">
+      <c r="T51" s="86" t="s">
         <v>690</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
-      <c r="W51" s="92" t="s">
+      <c r="W51" s="89" t="s">
         <v>729</v>
       </c>
       <c r="X51" s="55"/>
@@ -7157,10 +7156,10 @@
       <c r="C52" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="67">
         <v>11</v>
       </c>
-      <c r="F52" s="77" t="s">
+      <c r="F52" s="74" t="s">
         <v>635</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -7181,29 +7180,29 @@
       <c r="L52" s="40">
         <v>17</v>
       </c>
-      <c r="M52" s="73" t="s">
+      <c r="M52" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N52" s="66" t="s">
+      <c r="N52" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="O52" s="67" t="s">
+      <c r="O52" s="64" t="s">
         <v>464</v>
       </c>
       <c r="P52" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="Q52" s="86" t="s">
+      <c r="Q52" s="83" t="s">
         <v>631</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
-      <c r="T52" s="89" t="s">
+      <c r="T52" s="86" t="s">
         <v>691</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
-      <c r="W52" s="92" t="s">
+      <c r="W52" s="89" t="s">
         <v>730</v>
       </c>
       <c r="X52" s="55"/>
@@ -7218,10 +7217,10 @@
       <c r="C53" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E53" s="67">
         <v>12</v>
       </c>
-      <c r="F53" s="78" t="s">
+      <c r="F53" s="75" t="s">
         <v>592</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -7233,29 +7232,29 @@
       <c r="L53" s="40">
         <v>18</v>
       </c>
-      <c r="M53" s="73" t="s">
+      <c r="M53" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N53" s="66" t="s">
+      <c r="N53" s="63" t="s">
         <v>584</v>
       </c>
-      <c r="O53" s="67" t="s">
+      <c r="O53" s="64" t="s">
         <v>464</v>
       </c>
       <c r="P53" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="Q53" s="86" t="s">
+      <c r="Q53" s="83" t="s">
         <v>632</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
-      <c r="T53" s="89" t="s">
+      <c r="T53" s="86" t="s">
         <v>692</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
-      <c r="W53" s="92" t="s">
+      <c r="W53" s="89" t="s">
         <v>731</v>
       </c>
       <c r="X53" s="55"/>
@@ -7270,10 +7269,10 @@
       <c r="C54" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="67">
         <v>13</v>
       </c>
-      <c r="F54" s="103" t="s">
+      <c r="F54" s="100" t="s">
         <v>677</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7282,29 +7281,29 @@
       <c r="L54" s="40">
         <v>19</v>
       </c>
-      <c r="M54" s="73" t="s">
+      <c r="M54" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N54" s="66" t="s">
+      <c r="N54" s="63" t="s">
         <v>585</v>
       </c>
-      <c r="O54" s="67" t="s">
+      <c r="O54" s="64" t="s">
         <v>464</v>
       </c>
       <c r="P54" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="Q54" s="86" t="s">
+      <c r="Q54" s="83" t="s">
         <v>633</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
-      <c r="T54" s="89" t="s">
+      <c r="T54" s="86" t="s">
         <v>693</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
-      <c r="W54" s="92" t="s">
+      <c r="W54" s="89" t="s">
         <v>732</v>
       </c>
       <c r="X54" s="55"/>
@@ -7319,10 +7318,10 @@
       <c r="C55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="70">
+      <c r="E55" s="67">
         <v>14</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="74" t="s">
         <v>628</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -7340,29 +7339,29 @@
       <c r="L55" s="40">
         <v>20</v>
       </c>
-      <c r="M55" s="73" t="s">
+      <c r="M55" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N55" s="66" t="s">
+      <c r="N55" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="O55" s="67" t="s">
+      <c r="O55" s="64" t="s">
         <v>755</v>
       </c>
       <c r="P55" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="Q55" s="86" t="s">
+      <c r="Q55" s="83" t="s">
         <v>634</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
-      <c r="T55" s="89" t="s">
+      <c r="T55" s="86" t="s">
         <v>676</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
-      <c r="W55" s="92" t="s">
+      <c r="W55" s="89" t="s">
         <v>733</v>
       </c>
       <c r="X55" s="55"/>
@@ -7377,10 +7376,10 @@
       <c r="C56" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="70">
+      <c r="E56" s="67">
         <v>15</v>
       </c>
-      <c r="F56" s="100" t="s">
+      <c r="F56" s="97" t="s">
         <v>736</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -7389,29 +7388,29 @@
       <c r="L56" s="40">
         <v>21</v>
       </c>
-      <c r="M56" s="73" t="s">
+      <c r="M56" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N56" s="66" t="s">
+      <c r="N56" s="63" t="s">
         <v>610</v>
       </c>
-      <c r="O56" s="67" t="s">
+      <c r="O56" s="64" t="s">
         <v>747</v>
       </c>
       <c r="P56" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="Q56" s="86" t="s">
+      <c r="Q56" s="83" t="s">
         <v>635</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
-      <c r="T56" s="89" t="s">
+      <c r="T56" s="86" t="s">
         <v>677</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
-      <c r="W56" s="92" t="s">
+      <c r="W56" s="89" t="s">
         <v>734</v>
       </c>
       <c r="X56" s="55"/>
@@ -7429,10 +7428,10 @@
       <c r="D57">
         <v>1.18</v>
       </c>
-      <c r="E57" s="70">
+      <c r="E57" s="67">
         <v>16</v>
       </c>
-      <c r="F57" s="108" t="s">
+      <c r="F57" s="105" t="s">
         <v>429</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -7441,29 +7440,29 @@
       <c r="L57" s="40">
         <v>22</v>
       </c>
-      <c r="M57" s="73" t="s">
+      <c r="M57" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N57" s="66" t="s">
+      <c r="N57" s="63" t="s">
         <v>611</v>
       </c>
-      <c r="O57" s="67" t="s">
+      <c r="O57" s="64" t="s">
         <v>748</v>
       </c>
       <c r="P57" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="Q57" s="86" t="s">
+      <c r="Q57" s="83" t="s">
         <v>636</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
-      <c r="T57" s="95" t="s">
+      <c r="T57" s="92" t="s">
         <v>762</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
-      <c r="W57" s="92" t="s">
+      <c r="W57" s="89" t="s">
         <v>735</v>
       </c>
       <c r="X57" s="55"/>
@@ -7478,10 +7477,10 @@
       <c r="C58" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="67">
         <v>17</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="65" t="s">
         <v>619</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -7490,17 +7489,17 @@
       <c r="L58" s="40">
         <v>23</v>
       </c>
-      <c r="M58" s="73" t="s">
+      <c r="M58" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N58" s="66" t="s">
+      <c r="N58" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="O58" s="67" t="s">
+      <c r="O58" s="64" t="s">
         <v>760</v>
       </c>
       <c r="P58" s="55"/>
-      <c r="Q58" s="86" t="s">
+      <c r="Q58" s="83" t="s">
         <v>637</v>
       </c>
       <c r="R58" s="55"/>
@@ -7508,7 +7507,7 @@
       <c r="T58" s="55"/>
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
-      <c r="W58" s="92" t="s">
+      <c r="W58" s="89" t="s">
         <v>736</v>
       </c>
       <c r="X58" s="55"/>
@@ -7523,10 +7522,10 @@
       <c r="C59" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="70">
+      <c r="E59" s="67">
         <v>18</v>
       </c>
-      <c r="F59" s="106" t="s">
+      <c r="F59" s="103" t="s">
         <v>763</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7538,17 +7537,17 @@
       <c r="L59" s="40">
         <v>24</v>
       </c>
-      <c r="M59" s="73" t="s">
+      <c r="M59" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N59" s="66" t="s">
+      <c r="N59" s="63" t="s">
         <v>588</v>
       </c>
-      <c r="O59" s="67" t="s">
+      <c r="O59" s="64" t="s">
         <v>759</v>
       </c>
       <c r="P59" s="55"/>
-      <c r="Q59" s="86" t="s">
+      <c r="Q59" s="83" t="s">
         <v>638</v>
       </c>
       <c r="R59" s="55"/>
@@ -7556,7 +7555,7 @@
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
-      <c r="W59" s="92" t="s">
+      <c r="W59" s="89" t="s">
         <v>737</v>
       </c>
       <c r="X59" s="55"/>
@@ -7565,33 +7564,33 @@
       <c r="A60">
         <v>61</v>
       </c>
-      <c r="B60" s="109">
+      <c r="B60" s="106">
         <v>55</v>
       </c>
-      <c r="C60" s="110" t="s">
+      <c r="C60" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="111"/>
-      <c r="E60" s="109">
+      <c r="D60" s="108"/>
+      <c r="E60" s="106">
         <v>1</v>
       </c>
-      <c r="F60" s="108" t="s">
+      <c r="F60" s="105" t="s">
         <v>506</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
       </c>
-      <c r="M60" s="73" t="s">
+      <c r="M60" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N60" s="66" t="s">
+      <c r="N60" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="O60" s="67" t="s">
+      <c r="O60" s="64" t="s">
         <v>612</v>
       </c>
       <c r="P60" s="55"/>
-      <c r="Q60" s="86" t="s">
+      <c r="Q60" s="83" t="s">
         <v>639</v>
       </c>
       <c r="R60" s="55"/>
@@ -7599,7 +7598,7 @@
       <c r="T60" s="55"/>
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
-      <c r="W60" s="92" t="s">
+      <c r="W60" s="89" t="s">
         <v>738</v>
       </c>
       <c r="X60" s="55"/>
@@ -7617,7 +7616,7 @@
       <c r="E61" s="1">
         <v>2</v>
       </c>
-      <c r="F61" s="68" t="s">
+      <c r="F61" s="65" t="s">
         <v>555</v>
       </c>
       <c r="I61" s="45" t="s">
@@ -7626,17 +7625,17 @@
       <c r="L61" s="40">
         <v>26</v>
       </c>
-      <c r="M61" s="73" t="s">
+      <c r="M61" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="N61" s="66" t="s">
+      <c r="N61" s="63" t="s">
         <v>590</v>
       </c>
-      <c r="O61" s="67" t="s">
+      <c r="O61" s="64" t="s">
         <v>613</v>
       </c>
       <c r="P61" s="55"/>
-      <c r="Q61" s="86" t="s">
+      <c r="Q61" s="83" t="s">
         <v>640</v>
       </c>
       <c r="R61" s="55"/>
@@ -7644,7 +7643,7 @@
       <c r="T61" s="55"/>
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
-      <c r="W61" s="92" t="s">
+      <c r="W61" s="89" t="s">
         <v>739</v>
       </c>
       <c r="X61" s="55"/>
@@ -7662,23 +7661,23 @@
       <c r="E62" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="78" t="s">
+      <c r="F62" s="75" t="s">
         <v>540</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
-      <c r="M62" s="74" t="s">
+      <c r="M62" s="71" t="s">
         <v>574</v>
       </c>
-      <c r="N62" s="66" t="s">
+      <c r="N62" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O62" s="67" t="s">
+      <c r="O62" s="64" t="s">
         <v>614</v>
       </c>
       <c r="P62" s="55"/>
-      <c r="Q62" s="86" t="s">
+      <c r="Q62" s="83" t="s">
         <v>641</v>
       </c>
       <c r="R62" s="55"/>
@@ -7686,7 +7685,7 @@
       <c r="T62" s="55"/>
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
-      <c r="W62" s="92" t="s">
+      <c r="W62" s="89" t="s">
         <v>740</v>
       </c>
       <c r="X62" s="55"/>
@@ -7701,23 +7700,23 @@
       <c r="E63" s="1">
         <v>4</v>
       </c>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="65" t="s">
         <v>464</v>
       </c>
       <c r="L63" s="40">
         <v>28</v>
       </c>
-      <c r="M63" s="74" t="s">
+      <c r="M63" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="N63" s="66" t="s">
+      <c r="N63" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="O63" s="67" t="s">
+      <c r="O63" s="64" t="s">
         <v>615</v>
       </c>
       <c r="P63" s="55"/>
-      <c r="Q63" s="86" t="s">
+      <c r="Q63" s="83" t="s">
         <v>642</v>
       </c>
       <c r="R63" s="55"/>
@@ -7725,7 +7724,7 @@
       <c r="T63" s="55"/>
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
-      <c r="W63" s="92" t="s">
+      <c r="W63" s="89" t="s">
         <v>741</v>
       </c>
       <c r="X63" s="55"/>
@@ -7740,23 +7739,23 @@
       <c r="E64" s="1">
         <v>5</v>
       </c>
-      <c r="F64" s="105" t="s">
+      <c r="F64" s="102" t="s">
         <v>670</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
       </c>
-      <c r="M64" s="74" t="s">
+      <c r="M64" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="N64" s="66" t="s">
+      <c r="N64" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="O64" s="67" t="s">
+      <c r="O64" s="64" t="s">
         <v>616</v>
       </c>
       <c r="P64" s="55"/>
-      <c r="Q64" s="86" t="s">
+      <c r="Q64" s="83" t="s">
         <v>643</v>
       </c>
       <c r="R64" s="55"/>
@@ -7777,23 +7776,23 @@
       <c r="E65" s="1">
         <v>6</v>
       </c>
-      <c r="F65" s="100" t="s">
+      <c r="F65" s="97" t="s">
         <v>738</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
-      <c r="M65" s="74" t="s">
+      <c r="M65" s="71" t="s">
         <v>571</v>
       </c>
-      <c r="N65" s="66" t="s">
+      <c r="N65" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="O65" s="67" t="s">
+      <c r="O65" s="64" t="s">
         <v>617</v>
       </c>
       <c r="P65" s="55"/>
-      <c r="Q65" s="86" t="s">
+      <c r="Q65" s="83" t="s">
         <v>652</v>
       </c>
       <c r="R65" s="55"/>
@@ -7814,23 +7813,23 @@
       <c r="E66" s="1">
         <v>7</v>
       </c>
-      <c r="F66" s="108" t="s">
+      <c r="F66" s="105" t="s">
         <v>571</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
-      <c r="M66" s="74" t="s">
+      <c r="M66" s="71" t="s">
         <v>572</v>
       </c>
-      <c r="N66" s="66" t="s">
+      <c r="N66" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="O66" s="67" t="s">
+      <c r="O66" s="64" t="s">
         <v>618</v>
       </c>
       <c r="P66" s="55"/>
-      <c r="Q66" s="86" t="s">
+      <c r="Q66" s="83" t="s">
         <v>653</v>
       </c>
       <c r="R66" s="55"/>
@@ -7851,23 +7850,23 @@
       <c r="E67" s="1">
         <v>8</v>
       </c>
-      <c r="F67" s="106" t="s">
+      <c r="F67" s="103" t="s">
         <v>708</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
-      <c r="M67" s="74" t="s">
+      <c r="M67" s="71" t="s">
         <v>573</v>
       </c>
-      <c r="N67" s="66" t="s">
+      <c r="N67" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="O67" s="67" t="s">
+      <c r="O67" s="64" t="s">
         <v>619</v>
       </c>
       <c r="P67" s="55"/>
-      <c r="Q67" s="86" t="s">
+      <c r="Q67" s="83" t="s">
         <v>647</v>
       </c>
       <c r="R67" s="55"/>
@@ -7888,23 +7887,23 @@
       <c r="E68" s="1">
         <v>9</v>
       </c>
-      <c r="F68" s="78" t="s">
+      <c r="F68" s="75" t="s">
         <v>597</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
-      <c r="M68" s="83" t="s">
+      <c r="M68" s="80" t="s">
         <v>579</v>
       </c>
-      <c r="N68" s="66" t="s">
+      <c r="N68" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="O68" s="67" t="s">
+      <c r="O68" s="64" t="s">
         <v>619</v>
       </c>
       <c r="P68" s="55"/>
-      <c r="Q68" s="86" t="s">
+      <c r="Q68" s="83" t="s">
         <v>648</v>
       </c>
       <c r="R68" s="55"/>
@@ -7925,19 +7924,19 @@
       <c r="E69" s="1">
         <v>10</v>
       </c>
-      <c r="F69" s="103" t="s">
+      <c r="F69" s="100" t="s">
         <v>762</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
       </c>
-      <c r="M69" s="83" t="s">
+      <c r="M69" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="N69" s="66" t="s">
+      <c r="N69" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="O69" s="67" t="s">
+      <c r="O69" s="64" t="s">
         <v>619</v>
       </c>
       <c r="P69" s="55"/>
@@ -7963,19 +7962,19 @@
       <c r="E70" s="1">
         <v>11</v>
       </c>
-      <c r="F70" s="103" t="s">
+      <c r="F70" s="100" t="s">
         <v>685</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
       </c>
-      <c r="M70" s="83" t="s">
+      <c r="M70" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="N70" s="66" t="s">
+      <c r="N70" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="O70" s="67" t="s">
+      <c r="O70" s="64" t="s">
         <v>620</v>
       </c>
       <c r="P70" s="55"/>
@@ -7998,21 +7997,21 @@
       <c r="E71" s="1">
         <v>12</v>
       </c>
-      <c r="F71" s="100" t="s">
+      <c r="F71" s="97" t="s">
         <v>730</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
       </c>
-      <c r="M71" s="83" t="s">
+      <c r="M71" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="N71" s="66" t="s">
+      <c r="N71" s="63" t="s">
         <v>595</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
-      <c r="Q71" s="64"/>
+      <c r="Q71" s="61"/>
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
       <c r="T71" s="55"/>
@@ -8031,16 +8030,16 @@
       <c r="E72" s="1">
         <v>13</v>
       </c>
-      <c r="F72" s="78" t="s">
+      <c r="F72" s="75" t="s">
         <v>609</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
       </c>
-      <c r="M72" s="83" t="s">
+      <c r="M72" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="N72" s="66" t="s">
+      <c r="N72" s="63" t="s">
         <v>595</v>
       </c>
       <c r="O72" s="55"/>
@@ -8064,16 +8063,16 @@
       <c r="E73" s="1">
         <v>14</v>
       </c>
-      <c r="F73" s="77" t="s">
+      <c r="F73" s="74" t="s">
         <v>634</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
       </c>
-      <c r="M73" s="83" t="s">
+      <c r="M73" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="N73" s="66" t="s">
+      <c r="N73" s="63" t="s">
         <v>596</v>
       </c>
       <c r="O73" s="55"/>
@@ -8097,16 +8096,16 @@
       <c r="E74" s="1">
         <v>15</v>
       </c>
-      <c r="F74" s="108" t="s">
+      <c r="F74" s="105" t="s">
         <v>387</v>
       </c>
       <c r="L74" s="40">
         <v>39</v>
       </c>
-      <c r="M74" s="74" t="s">
+      <c r="M74" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="N74" s="66" t="s">
+      <c r="N74" s="63" t="s">
         <v>597</v>
       </c>
       <c r="O74" s="55"/>
@@ -8130,16 +8129,16 @@
       <c r="E75" s="1">
         <v>16</v>
       </c>
-      <c r="F75" s="77" t="s">
+      <c r="F75" s="74" t="s">
         <v>627</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
-      <c r="M75" s="74" t="s">
+      <c r="M75" s="71" t="s">
         <v>577</v>
       </c>
-      <c r="N75" s="66" t="s">
+      <c r="N75" s="63" t="s">
         <v>598</v>
       </c>
       <c r="O75" s="55"/>
@@ -8163,16 +8162,16 @@
       <c r="E76" s="1">
         <v>17</v>
       </c>
-      <c r="F76" s="104" t="s">
+      <c r="F76" s="101" t="s">
         <v>702</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
-      <c r="M76" s="74" t="s">
+      <c r="M76" s="71" t="s">
         <v>578</v>
       </c>
-      <c r="N76" s="66" t="s">
+      <c r="N76" s="63" t="s">
         <v>599</v>
       </c>
       <c r="O76" s="55"/>
@@ -8196,16 +8195,16 @@
       <c r="E77" s="1">
         <v>18</v>
       </c>
-      <c r="F77" s="77" t="s">
+      <c r="F77" s="74" t="s">
         <v>642</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
-      <c r="M77" s="83" t="s">
+      <c r="M77" s="80" t="s">
         <v>580</v>
       </c>
-      <c r="N77" s="66" t="s">
+      <c r="N77" s="63" t="s">
         <v>601</v>
       </c>
       <c r="O77" s="55"/>
@@ -8220,26 +8219,26 @@
       <c r="X77" s="55"/>
     </row>
     <row r="78" spans="2:24" ht="12.75">
-      <c r="B78" s="109">
+      <c r="B78" s="106">
         <v>73</v>
       </c>
-      <c r="C78" s="110" t="s">
+      <c r="C78" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="111"/>
-      <c r="E78" s="109">
+      <c r="D78" s="108"/>
+      <c r="E78" s="106">
         <v>1</v>
       </c>
-      <c r="F78" s="108" t="s">
+      <c r="F78" s="105" t="s">
         <v>507</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
-      <c r="M78" s="83" t="s">
+      <c r="M78" s="80" t="s">
         <v>581</v>
       </c>
-      <c r="N78" s="66" t="s">
+      <c r="N78" s="63" t="s">
         <v>600</v>
       </c>
       <c r="O78" s="55"/>
@@ -8260,19 +8259,19 @@
       <c r="C79" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="70">
+      <c r="E79" s="67">
         <v>2</v>
       </c>
-      <c r="F79" s="68" t="s">
+      <c r="F79" s="65" t="s">
         <v>556</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
-      <c r="M79" s="83" t="s">
+      <c r="M79" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="N79" s="66" t="s">
+      <c r="N79" s="63" t="s">
         <v>602</v>
       </c>
       <c r="O79" s="55"/>
@@ -8293,19 +8292,19 @@
       <c r="C80" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="70">
+      <c r="E80" s="67">
         <v>3</v>
       </c>
-      <c r="F80" s="78" t="s">
+      <c r="F80" s="75" t="s">
         <v>541</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
-      <c r="M80" s="83" t="s">
+      <c r="M80" s="80" t="s">
         <v>583</v>
       </c>
-      <c r="N80" s="66" t="s">
+      <c r="N80" s="63" t="s">
         <v>609</v>
       </c>
       <c r="O80" s="55"/>
@@ -8326,17 +8325,17 @@
       <c r="C81" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="70">
+      <c r="E81" s="67">
         <v>4</v>
       </c>
-      <c r="F81" s="108" t="s">
+      <c r="F81" s="105" t="s">
         <v>583</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
-      <c r="N81" s="66" t="s">
+      <c r="N81" s="63" t="s">
         <v>603</v>
       </c>
       <c r="O81" s="55"/>
@@ -8357,17 +8356,17 @@
       <c r="C82" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="67">
         <v>5</v>
       </c>
-      <c r="F82" s="78" t="s">
+      <c r="F82" s="75" t="s">
         <v>599</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
-      <c r="N82" s="66" t="s">
+      <c r="N82" s="63" t="s">
         <v>604</v>
       </c>
       <c r="O82" s="55"/>
@@ -8391,17 +8390,17 @@
       <c r="D83">
         <v>1.5</v>
       </c>
-      <c r="E83" s="70">
+      <c r="E83" s="67">
         <v>6</v>
       </c>
-      <c r="F83" s="105" t="s">
+      <c r="F83" s="102" t="s">
         <v>672</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
-      <c r="N83" s="66" t="s">
+      <c r="N83" s="63" t="s">
         <v>605</v>
       </c>
       <c r="O83" s="55"/>
@@ -8422,17 +8421,17 @@
       <c r="C84" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="67">
         <v>7</v>
       </c>
-      <c r="F84" s="101" t="s">
+      <c r="F84" s="98" t="s">
         <v>566</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
-      <c r="N84" s="84" t="s">
+      <c r="N84" s="81" t="s">
         <v>606</v>
       </c>
       <c r="O84" s="55"/>
@@ -8453,17 +8452,17 @@
       <c r="C85" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="70">
+      <c r="E85" s="67">
         <v>8</v>
       </c>
-      <c r="F85" s="100" t="s">
+      <c r="F85" s="97" t="s">
         <v>741</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
-      <c r="N85" s="84" t="s">
+      <c r="N85" s="81" t="s">
         <v>607</v>
       </c>
       <c r="O85" s="55"/>
@@ -8484,17 +8483,17 @@
       <c r="C86" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="70">
+      <c r="E86" s="67">
         <v>9</v>
       </c>
-      <c r="F86" s="77" t="s">
-        <v>625</v>
+      <c r="F86" s="74" t="s">
+        <v>821</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
-      <c r="N86" s="66" t="s">
+      <c r="N86" s="63" t="s">
         <v>608</v>
       </c>
       <c r="O86" s="55"/>
@@ -8515,10 +8514,10 @@
       <c r="C87" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="70">
+      <c r="E87" s="67">
         <v>10</v>
       </c>
-      <c r="F87" s="68" t="s">
+      <c r="F87" s="65" t="s">
         <v>764</v>
       </c>
       <c r="M87">
@@ -8565,10 +8564,10 @@
       <c r="C88" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="70">
+      <c r="E88" s="67">
         <v>11</v>
       </c>
-      <c r="F88" s="78" t="s">
+      <c r="F88" s="75" t="s">
         <v>589</v>
       </c>
       <c r="M88">
@@ -8597,10 +8596,10 @@
       <c r="C89" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E89" s="70">
+      <c r="E89" s="67">
         <v>12</v>
       </c>
-      <c r="F89" s="68" t="s">
+      <c r="F89" s="65" t="s">
         <v>619</v>
       </c>
       <c r="T89" t="s">
@@ -8614,11 +8613,11 @@
       <c r="C90" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="70">
+      <c r="E90" s="67">
         <v>13</v>
       </c>
-      <c r="F90" s="100" t="s">
-        <v>726</v>
+      <c r="F90" s="97" t="s">
+        <v>822</v>
       </c>
       <c r="T90" s="58" t="s">
         <v>519</v>
@@ -8644,10 +8643,10 @@
       <c r="C91" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="70">
+      <c r="E91" s="67">
         <v>14</v>
       </c>
-      <c r="F91" s="103" t="s">
+      <c r="F91" s="100" t="s">
         <v>676</v>
       </c>
       <c r="T91" s="58" t="s">
@@ -8674,10 +8673,10 @@
       <c r="C92" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="67">
         <v>15</v>
       </c>
-      <c r="F92" s="103" t="s">
+      <c r="F92" s="100" t="s">
         <v>679</v>
       </c>
       <c r="T92" s="58" t="s">
@@ -8704,10 +8703,10 @@
       <c r="C93" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="70">
+      <c r="E93" s="67">
         <v>16</v>
       </c>
-      <c r="F93" s="77" t="s">
+      <c r="F93" s="74" t="s">
         <v>633</v>
       </c>
       <c r="T93" s="58" t="s">
@@ -8737,11 +8736,11 @@
       <c r="D94">
         <v>1.19</v>
       </c>
-      <c r="E94" s="70">
+      <c r="E94" s="67">
         <v>17</v>
       </c>
-      <c r="F94" s="108" t="s">
-        <v>429</v>
+      <c r="F94" s="105" t="s">
+        <v>818</v>
       </c>
       <c r="T94" s="58" t="s">
         <v>522</v>
@@ -8767,10 +8766,10 @@
       <c r="C95" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="70">
+      <c r="E95" s="67">
         <v>18</v>
       </c>
-      <c r="F95" s="106" t="s">
+      <c r="F95" s="103" t="s">
         <v>712</v>
       </c>
       <c r="T95" s="58" t="s">
@@ -8791,17 +8790,17 @@
       </c>
     </row>
     <row r="96" spans="2:24" ht="12.75">
-      <c r="B96" s="109">
+      <c r="B96" s="106">
         <v>91</v>
       </c>
-      <c r="C96" s="110" t="s">
+      <c r="C96" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="111"/>
-      <c r="E96" s="109">
+      <c r="D96" s="108"/>
+      <c r="E96" s="106">
         <v>1</v>
       </c>
-      <c r="F96" s="108" t="s">
+      <c r="F96" s="105" t="s">
         <v>508</v>
       </c>
       <c r="T96" s="58" t="s">
@@ -8831,7 +8830,7 @@
       <c r="E97" s="1">
         <v>2</v>
       </c>
-      <c r="F97" s="68" t="s">
+      <c r="F97" s="65" t="s">
         <v>557</v>
       </c>
       <c r="T97" s="58" t="s">
@@ -8861,7 +8860,7 @@
       <c r="E98" s="1">
         <v>3</v>
       </c>
-      <c r="F98" s="78" t="s">
+      <c r="F98" s="75" t="s">
         <v>542</v>
       </c>
       <c r="T98" s="58" t="s">
@@ -8891,7 +8890,7 @@
       <c r="E99" s="1">
         <v>4</v>
       </c>
-      <c r="F99" s="105" t="s">
+      <c r="F99" s="102" t="s">
         <v>665</v>
       </c>
       <c r="T99" s="58" t="s">
@@ -8921,7 +8920,7 @@
       <c r="E100" s="1">
         <v>5</v>
       </c>
-      <c r="F100" s="100" t="s">
+      <c r="F100" s="97" t="s">
         <v>739</v>
       </c>
       <c r="T100" s="58" t="s">
@@ -8951,7 +8950,7 @@
       <c r="E101" s="1">
         <v>6</v>
       </c>
-      <c r="F101" s="106" t="s">
+      <c r="F101" s="103" t="s">
         <v>710</v>
       </c>
       <c r="T101" s="58" t="s">
@@ -8981,7 +8980,7 @@
       <c r="E102" s="1">
         <v>7</v>
       </c>
-      <c r="F102" s="78" t="s">
+      <c r="F102" s="75" t="s">
         <v>591</v>
       </c>
       <c r="T102" s="45" t="s">
@@ -9011,7 +9010,7 @@
       <c r="E103" s="1">
         <v>8</v>
       </c>
-      <c r="F103" s="77" t="s">
+      <c r="F103" s="74" t="s">
         <v>651</v>
       </c>
       <c r="T103" s="45"/>
@@ -9026,7 +9025,7 @@
       <c r="E104" s="1">
         <v>9</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="F104" s="100" t="s">
         <v>766</v>
       </c>
     </row>
@@ -9040,7 +9039,7 @@
       <c r="E105" s="1">
         <v>10</v>
       </c>
-      <c r="F105" s="78" t="s">
+      <c r="F105" s="75" t="s">
         <v>603</v>
       </c>
     </row>
@@ -9054,7 +9053,7 @@
       <c r="E106" s="1">
         <v>11</v>
       </c>
-      <c r="F106" s="108" t="s">
+      <c r="F106" s="105" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9068,7 +9067,7 @@
       <c r="E107" s="1">
         <v>12</v>
       </c>
-      <c r="F107" s="103" t="s">
+      <c r="F107" s="100" t="s">
         <v>680</v>
       </c>
     </row>
@@ -9085,7 +9084,7 @@
       <c r="E108" s="1">
         <v>13</v>
       </c>
-      <c r="F108" s="78" t="s">
+      <c r="F108" s="75" t="s">
         <v>590</v>
       </c>
     </row>
@@ -9099,7 +9098,7 @@
       <c r="E109" s="1">
         <v>14</v>
       </c>
-      <c r="F109" s="77" t="s">
+      <c r="F109" s="74" t="s">
         <v>640</v>
       </c>
       <c r="U109">
@@ -9125,7 +9124,7 @@
       <c r="E110" s="1">
         <v>15</v>
       </c>
-      <c r="F110" s="68" t="s">
+      <c r="F110" s="65" t="s">
         <v>612</v>
       </c>
     </row>
@@ -9139,7 +9138,7 @@
       <c r="E111" s="1">
         <v>16</v>
       </c>
-      <c r="F111" s="100" t="s">
+      <c r="F111" s="97" t="s">
         <v>734</v>
       </c>
     </row>
@@ -9153,7 +9152,7 @@
       <c r="E112" s="1">
         <v>17</v>
       </c>
-      <c r="F112" s="108" t="s">
+      <c r="F112" s="105" t="s">
         <v>582</v>
       </c>
       <c r="N112">
@@ -9174,7 +9173,7 @@
       <c r="E113" s="1">
         <v>18</v>
       </c>
-      <c r="F113" s="78" t="s">
+      <c r="F113" s="75" t="s">
         <v>598</v>
       </c>
       <c r="L113" s="45"/>
@@ -9211,17 +9210,17 @@
       </c>
     </row>
     <row r="114" spans="2:24" ht="12.75">
-      <c r="B114" s="109">
+      <c r="B114" s="106">
         <v>109</v>
       </c>
-      <c r="C114" s="112" t="s">
+      <c r="C114" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D114" s="111"/>
-      <c r="E114" s="109">
+      <c r="D114" s="108"/>
+      <c r="E114" s="106">
         <v>1</v>
       </c>
-      <c r="F114" s="108" t="s">
+      <c r="F114" s="105" t="s">
         <v>509</v>
       </c>
       <c r="L114" s="45"/>
@@ -9260,10 +9259,10 @@
       <c r="C115" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="70">
+      <c r="E115" s="67">
         <v>2</v>
       </c>
-      <c r="F115" s="68" t="s">
+      <c r="F115" s="65" t="s">
         <v>558</v>
       </c>
       <c r="L115" s="45"/>
@@ -9302,10 +9301,10 @@
       <c r="C116" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E116" s="70">
+      <c r="E116" s="67">
         <v>3</v>
       </c>
-      <c r="F116" s="78" t="s">
+      <c r="F116" s="75" t="s">
         <v>543</v>
       </c>
       <c r="L116" s="45"/>
@@ -9344,10 +9343,10 @@
       <c r="C117" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="70">
+      <c r="E117" s="67">
         <v>4</v>
       </c>
-      <c r="F117" s="105" t="s">
+      <c r="F117" s="102" t="s">
         <v>659</v>
       </c>
       <c r="L117" s="45"/>
@@ -9377,10 +9376,10 @@
       <c r="C118" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="70">
+      <c r="E118" s="67">
         <v>5</v>
       </c>
-      <c r="F118" s="101" t="s">
+      <c r="F118" s="98" t="s">
         <v>656</v>
       </c>
       <c r="M118">
@@ -9409,10 +9408,10 @@
       <c r="C119" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="70">
+      <c r="E119" s="67">
         <v>6</v>
       </c>
-      <c r="F119" s="100" t="s">
+      <c r="F119" s="97" t="s">
         <v>716</v>
       </c>
       <c r="L119" s="45"/>
@@ -9443,10 +9442,10 @@
       <c r="C120" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="70">
+      <c r="E120" s="67">
         <v>7</v>
       </c>
-      <c r="F120" s="100" t="s">
+      <c r="F120" s="97" t="s">
         <v>767</v>
       </c>
       <c r="M120">
@@ -9468,10 +9467,10 @@
       <c r="C121" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="70">
+      <c r="E121" s="67">
         <v>8</v>
       </c>
-      <c r="F121" s="68" t="s">
+      <c r="F121" s="65" t="s">
         <v>616</v>
       </c>
       <c r="M121">
@@ -9493,10 +9492,10 @@
       <c r="C122" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="70">
+      <c r="E122" s="67">
         <v>9</v>
       </c>
-      <c r="F122" s="106" t="s">
+      <c r="F122" s="103" t="s">
         <v>709</v>
       </c>
       <c r="M122">
@@ -9518,10 +9517,10 @@
       <c r="C123" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E123" s="70">
+      <c r="E123" s="67">
         <v>10</v>
       </c>
-      <c r="F123" s="108" t="s">
+      <c r="F123" s="105" t="s">
         <v>577</v>
       </c>
       <c r="M123">
@@ -9543,10 +9542,10 @@
       <c r="C124" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="70">
+      <c r="E124" s="67">
         <v>11</v>
       </c>
-      <c r="F124" s="78" t="s">
+      <c r="F124" s="75" t="s">
         <v>606</v>
       </c>
       <c r="M124">
@@ -9568,10 +9567,10 @@
       <c r="C125" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E125" s="70">
+      <c r="E125" s="67">
         <v>12</v>
       </c>
-      <c r="F125" s="104" t="s">
+      <c r="F125" s="101" t="s">
         <v>698</v>
       </c>
       <c r="M125">
@@ -9593,10 +9592,10 @@
       <c r="C126" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E126" s="70">
+      <c r="E126" s="67">
         <v>13</v>
       </c>
-      <c r="F126" s="108" t="s">
+      <c r="F126" s="105" t="s">
         <v>388</v>
       </c>
       <c r="M126">
@@ -9618,10 +9617,10 @@
       <c r="C127" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="70">
+      <c r="E127" s="67">
         <v>14</v>
       </c>
-      <c r="F127" s="77" t="s">
+      <c r="F127" s="74" t="s">
         <v>649</v>
       </c>
       <c r="M127">
@@ -9643,10 +9642,10 @@
       <c r="C128" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E128" s="70">
+      <c r="E128" s="67">
         <v>15</v>
       </c>
-      <c r="F128" s="103" t="s">
+      <c r="F128" s="100" t="s">
         <v>683</v>
       </c>
       <c r="M128">
@@ -9671,10 +9670,10 @@
       <c r="D129">
         <v>1.7</v>
       </c>
-      <c r="E129" s="70">
+      <c r="E129" s="67">
         <v>16</v>
       </c>
-      <c r="F129" s="102" t="s">
+      <c r="F129" s="99" t="s">
         <v>744</v>
       </c>
       <c r="M129">
@@ -9696,10 +9695,10 @@
       <c r="C130" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E130" s="70">
+      <c r="E130" s="67">
         <v>17</v>
       </c>
-      <c r="F130" s="78" t="s">
+      <c r="F130" s="75" t="s">
         <v>587</v>
       </c>
       <c r="M130">
@@ -9721,10 +9720,10 @@
       <c r="C131" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E131" s="70">
+      <c r="E131" s="67">
         <v>18</v>
       </c>
-      <c r="F131" s="108" t="s">
+      <c r="F131" s="105" t="s">
         <v>768</v>
       </c>
       <c r="M131">
@@ -9740,17 +9739,17 @@
       </c>
     </row>
     <row r="132" spans="2:15" ht="12.75">
-      <c r="B132" s="109">
+      <c r="B132" s="106">
         <v>127</v>
       </c>
-      <c r="C132" s="110" t="s">
+      <c r="C132" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="111"/>
-      <c r="E132" s="109">
+      <c r="D132" s="108"/>
+      <c r="E132" s="106">
         <v>1</v>
       </c>
-      <c r="F132" s="108" t="s">
+      <c r="F132" s="105" t="s">
         <v>510</v>
       </c>
       <c r="L132" s="45" t="s">
@@ -9778,7 +9777,7 @@
       <c r="E133" s="1">
         <v>2</v>
       </c>
-      <c r="F133" s="68" t="s">
+      <c r="F133" s="65" t="s">
         <v>559</v>
       </c>
       <c r="L133" t="s">
@@ -9806,7 +9805,7 @@
       <c r="E134" s="1">
         <v>3</v>
       </c>
-      <c r="F134" s="78" t="s">
+      <c r="F134" s="75" t="s">
         <v>544</v>
       </c>
       <c r="L134" s="45" t="s">
@@ -9834,7 +9833,7 @@
       <c r="E135" s="1">
         <v>4</v>
       </c>
-      <c r="F135" s="105" t="s">
+      <c r="F135" s="102" t="s">
         <v>660</v>
       </c>
       <c r="M135">
@@ -9859,7 +9858,7 @@
       <c r="E136" s="1">
         <v>5</v>
       </c>
-      <c r="F136" s="100" t="s">
+      <c r="F136" s="97" t="s">
         <v>722</v>
       </c>
       <c r="L136" t="s">
@@ -9887,7 +9886,7 @@
       <c r="E137" s="1">
         <v>6</v>
       </c>
-      <c r="F137" s="106" t="s">
+      <c r="F137" s="103" t="s">
         <v>713</v>
       </c>
       <c r="M137">
@@ -9912,7 +9911,7 @@
       <c r="E138" s="1">
         <v>7</v>
       </c>
-      <c r="F138" s="77" t="s">
+      <c r="F138" s="74" t="s">
         <v>629</v>
       </c>
       <c r="M138">
@@ -9937,7 +9936,7 @@
       <c r="E139" s="1">
         <v>8</v>
       </c>
-      <c r="F139" s="104" t="s">
+      <c r="F139" s="101" t="s">
         <v>696</v>
       </c>
       <c r="M139">
@@ -9962,7 +9961,7 @@
       <c r="E140" s="1">
         <v>9</v>
       </c>
-      <c r="F140" s="103" t="s">
+      <c r="F140" s="100" t="s">
         <v>686</v>
       </c>
       <c r="M140">
@@ -9987,7 +9986,7 @@
       <c r="E141" s="1">
         <v>10</v>
       </c>
-      <c r="F141" s="77" t="s">
+      <c r="F141" s="74" t="s">
         <v>637</v>
       </c>
       <c r="M141">
@@ -10012,7 +10011,7 @@
       <c r="E142" s="1">
         <v>11</v>
       </c>
-      <c r="F142" s="108" t="s">
+      <c r="F142" s="105" t="s">
         <v>581</v>
       </c>
       <c r="M142">
@@ -10037,7 +10036,7 @@
       <c r="E143" s="1">
         <v>12</v>
       </c>
-      <c r="F143" s="78" t="s">
+      <c r="F143" s="75" t="s">
         <v>595</v>
       </c>
       <c r="M143">
@@ -10062,7 +10061,7 @@
       <c r="E144" s="1">
         <v>13</v>
       </c>
-      <c r="F144" s="100" t="s">
+      <c r="F144" s="97" t="s">
         <v>740</v>
       </c>
       <c r="M144">
@@ -10087,7 +10086,7 @@
       <c r="E145" s="1">
         <v>14</v>
       </c>
-      <c r="F145" s="77" t="s">
+      <c r="F145" s="74" t="s">
         <v>648</v>
       </c>
       <c r="M145">
@@ -10112,7 +10111,7 @@
       <c r="E146" s="1">
         <v>15</v>
       </c>
-      <c r="F146" s="108" t="s">
+      <c r="F146" s="105" t="s">
         <v>579</v>
       </c>
       <c r="M146">
@@ -10137,7 +10136,7 @@
       <c r="E147" s="1">
         <v>16</v>
       </c>
-      <c r="F147" s="78" t="s">
+      <c r="F147" s="75" t="s">
         <v>602</v>
       </c>
       <c r="M147">
@@ -10162,7 +10161,7 @@
       <c r="E148" s="1">
         <v>17</v>
       </c>
-      <c r="F148" s="102" t="s">
+      <c r="F148" s="99" t="s">
         <v>769</v>
       </c>
       <c r="M148">
@@ -10190,7 +10189,7 @@
       <c r="E149" s="1">
         <v>18</v>
       </c>
-      <c r="F149" s="103" t="s">
+      <c r="F149" s="100" t="s">
         <v>688</v>
       </c>
       <c r="M149">
@@ -10206,17 +10205,17 @@
       </c>
     </row>
     <row r="150" spans="2:15" ht="12.75">
-      <c r="B150" s="109">
+      <c r="B150" s="106">
         <v>145</v>
       </c>
-      <c r="C150" s="110" t="s">
+      <c r="C150" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D150" s="111"/>
-      <c r="E150" s="109">
+      <c r="D150" s="108"/>
+      <c r="E150" s="106">
         <v>1</v>
       </c>
-      <c r="F150" s="108" t="s">
+      <c r="F150" s="105" t="s">
         <v>511</v>
       </c>
       <c r="M150">
@@ -10238,10 +10237,10 @@
       <c r="C151" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E151" s="70">
+      <c r="E151" s="67">
         <v>2</v>
       </c>
-      <c r="F151" s="68" t="s">
+      <c r="F151" s="65" t="s">
         <v>560</v>
       </c>
       <c r="M151">
@@ -10263,10 +10262,10 @@
       <c r="C152" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E152" s="70">
+      <c r="E152" s="67">
         <v>3</v>
       </c>
-      <c r="F152" s="78" t="s">
+      <c r="F152" s="75" t="s">
         <v>545</v>
       </c>
       <c r="M152">
@@ -10291,10 +10290,10 @@
       <c r="D153">
         <v>1.9</v>
       </c>
-      <c r="E153" s="70">
+      <c r="E153" s="67">
         <v>4</v>
       </c>
-      <c r="F153" s="105" t="s">
+      <c r="F153" s="102" t="s">
         <v>669</v>
       </c>
       <c r="M153">
@@ -10316,10 +10315,10 @@
       <c r="C154" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E154" s="70">
+      <c r="E154" s="67">
         <v>5</v>
       </c>
-      <c r="F154" s="100" t="s">
+      <c r="F154" s="97" t="s">
         <v>727</v>
       </c>
       <c r="M154">
@@ -10344,10 +10343,10 @@
       <c r="D155">
         <v>1.2</v>
       </c>
-      <c r="E155" s="70">
+      <c r="E155" s="67">
         <v>6</v>
       </c>
-      <c r="F155" s="108" t="s">
+      <c r="F155" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M155">
@@ -10369,10 +10368,10 @@
       <c r="C156" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E156" s="70">
+      <c r="E156" s="67">
         <v>7</v>
       </c>
-      <c r="F156" s="78" t="s">
+      <c r="F156" s="75" t="s">
         <v>601</v>
       </c>
       <c r="M156">
@@ -10394,10 +10393,10 @@
       <c r="C157" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E157" s="70">
+      <c r="E157" s="67">
         <v>8</v>
       </c>
-      <c r="F157" s="68" t="s">
+      <c r="F157" s="65" t="s">
         <v>613</v>
       </c>
       <c r="M157">
@@ -10419,10 +10418,10 @@
       <c r="C158" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E158" s="70">
+      <c r="E158" s="67">
         <v>9</v>
       </c>
-      <c r="F158" s="103" t="s">
+      <c r="F158" s="100" t="s">
         <v>692</v>
       </c>
       <c r="M158">
@@ -10444,10 +10443,10 @@
       <c r="C159" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E159" s="70">
+      <c r="E159" s="67">
         <v>10</v>
       </c>
-      <c r="F159" s="78" t="s">
+      <c r="F159" s="75" t="s">
         <v>388</v>
       </c>
       <c r="M159">
@@ -10469,10 +10468,10 @@
       <c r="C160" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E160" s="70">
+      <c r="E160" s="67">
         <v>11</v>
       </c>
-      <c r="F160" s="100" t="s">
+      <c r="F160" s="97" t="s">
         <v>735</v>
       </c>
       <c r="M160">
@@ -10494,10 +10493,10 @@
       <c r="C161" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E161" s="70">
+      <c r="E161" s="67">
         <v>12</v>
       </c>
-      <c r="F161" s="77" t="s">
+      <c r="F161" s="74" t="s">
         <v>630</v>
       </c>
       <c r="M161">
@@ -10519,10 +10518,10 @@
       <c r="C162" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E162" s="70">
+      <c r="E162" s="67">
         <v>13</v>
       </c>
-      <c r="F162" s="102" t="s">
+      <c r="F162" s="99" t="s">
         <v>765</v>
       </c>
       <c r="M162">
@@ -10544,10 +10543,10 @@
       <c r="C163" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E163" s="70">
+      <c r="E163" s="67">
         <v>14</v>
       </c>
-      <c r="F163" s="108" t="s">
+      <c r="F163" s="105" t="s">
         <v>580</v>
       </c>
       <c r="M163">
@@ -10569,10 +10568,10 @@
       <c r="C164" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E164" s="70">
+      <c r="E164" s="67">
         <v>15</v>
       </c>
-      <c r="F164" s="77" t="s">
+      <c r="F164" s="74" t="s">
         <v>653</v>
       </c>
       <c r="M164">
@@ -10594,10 +10593,10 @@
       <c r="C165" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E165" s="70">
+      <c r="E165" s="67">
         <v>16</v>
       </c>
-      <c r="F165" s="106" t="s">
+      <c r="F165" s="103" t="s">
         <v>707</v>
       </c>
       <c r="M165">
@@ -10619,10 +10618,10 @@
       <c r="C166" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E166" s="70">
+      <c r="E166" s="67">
         <v>17</v>
       </c>
-      <c r="F166" s="78" t="s">
+      <c r="F166" s="75" t="s">
         <v>403</v>
       </c>
       <c r="M166">
@@ -10644,10 +10643,10 @@
       <c r="C167" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E167" s="70">
+      <c r="E167" s="67">
         <v>18</v>
       </c>
-      <c r="F167" s="104" t="s">
+      <c r="F167" s="101" t="s">
         <v>694</v>
       </c>
       <c r="M167">
@@ -10663,17 +10662,17 @@
       </c>
     </row>
     <row r="168" spans="2:15" ht="12.75">
-      <c r="B168" s="109">
+      <c r="B168" s="106">
         <v>163</v>
       </c>
-      <c r="C168" s="110" t="s">
+      <c r="C168" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="111"/>
-      <c r="E168" s="109">
+      <c r="D168" s="108"/>
+      <c r="E168" s="106">
         <v>1</v>
       </c>
-      <c r="F168" s="108" t="s">
+      <c r="F168" s="105" t="s">
         <v>512</v>
       </c>
       <c r="M168">
@@ -10698,7 +10697,7 @@
       <c r="E169" s="1">
         <v>2</v>
       </c>
-      <c r="F169" s="68" t="s">
+      <c r="F169" s="65" t="s">
         <v>561</v>
       </c>
       <c r="M169">
@@ -10723,7 +10722,7 @@
       <c r="E170" s="1">
         <v>3</v>
       </c>
-      <c r="F170" s="78" t="s">
+      <c r="F170" s="75" t="s">
         <v>546</v>
       </c>
       <c r="M170">
@@ -10748,7 +10747,7 @@
       <c r="E171" s="1">
         <v>4</v>
       </c>
-      <c r="F171" s="108" t="s">
+      <c r="F171" s="105" t="s">
         <v>575</v>
       </c>
       <c r="M171">
@@ -10773,7 +10772,7 @@
       <c r="E172" s="1">
         <v>5</v>
       </c>
-      <c r="F172" s="77" t="s">
+      <c r="F172" s="74" t="s">
         <v>646</v>
       </c>
       <c r="M172">
@@ -10798,7 +10797,7 @@
       <c r="E173" s="1">
         <v>6</v>
       </c>
-      <c r="F173" s="105" t="s">
+      <c r="F173" s="102" t="s">
         <v>666</v>
       </c>
       <c r="M173">
@@ -10823,7 +10822,7 @@
       <c r="E174" s="1">
         <v>7</v>
       </c>
-      <c r="F174" s="100" t="s">
+      <c r="F174" s="97" t="s">
         <v>732</v>
       </c>
       <c r="M174">
@@ -10848,7 +10847,7 @@
       <c r="E175" s="1">
         <v>8</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="F175" s="100" t="s">
         <v>678</v>
       </c>
       <c r="M175">
@@ -10873,7 +10872,7 @@
       <c r="E176" s="1">
         <v>9</v>
       </c>
-      <c r="F176" s="78" t="s">
+      <c r="F176" s="75" t="s">
         <v>611</v>
       </c>
       <c r="M176">
@@ -10898,7 +10897,7 @@
       <c r="E177" s="1">
         <v>10</v>
       </c>
-      <c r="F177" s="68" t="s">
+      <c r="F177" s="65" t="s">
         <v>615</v>
       </c>
       <c r="M177">
@@ -10923,7 +10922,7 @@
       <c r="E178" s="1">
         <v>11</v>
       </c>
-      <c r="F178" s="78" t="s">
+      <c r="F178" s="75" t="s">
         <v>388</v>
       </c>
       <c r="M178">
@@ -10948,7 +10947,7 @@
       <c r="E179" s="1">
         <v>12</v>
       </c>
-      <c r="F179" s="77" t="s">
+      <c r="F179" s="74" t="s">
         <v>641</v>
       </c>
       <c r="M179">
@@ -10976,7 +10975,7 @@
       <c r="E180" s="1">
         <v>13</v>
       </c>
-      <c r="F180" s="107" t="s">
+      <c r="F180" s="104" t="s">
         <v>621</v>
       </c>
       <c r="M180">
@@ -11001,7 +11000,7 @@
       <c r="E181" s="1">
         <v>14</v>
       </c>
-      <c r="F181" s="100" t="s">
+      <c r="F181" s="97" t="s">
         <v>717</v>
       </c>
       <c r="M181">
@@ -11026,7 +11025,7 @@
       <c r="E182" s="1">
         <v>15</v>
       </c>
-      <c r="F182" s="68" t="s">
+      <c r="F182" s="65" t="s">
         <v>617</v>
       </c>
       <c r="M182">
@@ -11051,7 +11050,7 @@
       <c r="E183" s="1">
         <v>16</v>
       </c>
-      <c r="F183" s="103" t="s">
+      <c r="F183" s="100" t="s">
         <v>687</v>
       </c>
       <c r="M183">
@@ -11079,7 +11078,7 @@
       <c r="E184" s="1">
         <v>17</v>
       </c>
-      <c r="F184" s="108" t="s">
+      <c r="F184" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M184">
@@ -11104,7 +11103,7 @@
       <c r="E185" s="1">
         <v>18</v>
       </c>
-      <c r="F185" s="100" t="s">
+      <c r="F185" s="97" t="s">
         <v>733</v>
       </c>
       <c r="M185">
@@ -11120,17 +11119,17 @@
       </c>
     </row>
     <row r="186" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B186" s="109">
+      <c r="B186" s="106">
         <v>181</v>
       </c>
-      <c r="C186" s="110" t="s">
+      <c r="C186" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="D186" s="111"/>
-      <c r="E186" s="109">
+      <c r="D186" s="108"/>
+      <c r="E186" s="106">
         <v>1</v>
       </c>
-      <c r="F186" s="108" t="s">
+      <c r="F186" s="105" t="s">
         <v>513</v>
       </c>
       <c r="M186">
@@ -11155,10 +11154,10 @@
       <c r="D187">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E187" s="70">
+      <c r="E187" s="67">
         <v>2</v>
       </c>
-      <c r="F187" s="68" t="s">
+      <c r="F187" s="65" t="s">
         <v>750</v>
       </c>
       <c r="M187">
@@ -11180,10 +11179,10 @@
       <c r="C188" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E188" s="70">
+      <c r="E188" s="67">
         <v>3</v>
       </c>
-      <c r="F188" s="78" t="s">
+      <c r="F188" s="75" t="s">
         <v>547</v>
       </c>
       <c r="M188">
@@ -11205,10 +11204,10 @@
       <c r="C189" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E189" s="70">
+      <c r="E189" s="67">
         <v>4</v>
       </c>
-      <c r="F189" s="77" t="s">
+      <c r="F189" s="74" t="s">
         <v>647</v>
       </c>
       <c r="M189">
@@ -11230,10 +11229,10 @@
       <c r="C190" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E190" s="70">
+      <c r="E190" s="67">
         <v>5</v>
       </c>
-      <c r="F190" s="68" t="s">
+      <c r="F190" s="65" t="s">
         <v>464</v>
       </c>
       <c r="M190">
@@ -11255,10 +11254,10 @@
       <c r="C191" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E191" s="70">
+      <c r="E191" s="67">
         <v>6</v>
       </c>
-      <c r="F191" s="105" t="s">
+      <c r="F191" s="102" t="s">
         <v>668</v>
       </c>
       <c r="M191">
@@ -11280,10 +11279,10 @@
       <c r="C192" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E192" s="70">
+      <c r="E192" s="67">
         <v>7</v>
       </c>
-      <c r="F192" s="100" t="s">
+      <c r="F192" s="97" t="s">
         <v>737</v>
       </c>
       <c r="M192">
@@ -11305,10 +11304,10 @@
       <c r="C193" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E193" s="70">
+      <c r="E193" s="67">
         <v>8</v>
       </c>
-      <c r="F193" s="104" t="s">
+      <c r="F193" s="101" t="s">
         <v>699</v>
       </c>
       <c r="M193">
@@ -11330,10 +11329,10 @@
       <c r="C194" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E194" s="70">
+      <c r="E194" s="67">
         <v>9</v>
       </c>
-      <c r="F194" s="78" t="s">
+      <c r="F194" s="75" t="s">
         <v>588</v>
       </c>
       <c r="M194">
@@ -11355,10 +11354,10 @@
       <c r="C195" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E195" s="70">
+      <c r="E195" s="67">
         <v>10</v>
       </c>
-      <c r="F195" s="108" t="s">
+      <c r="F195" s="105" t="s">
         <v>572</v>
       </c>
       <c r="M195">
@@ -11380,10 +11379,10 @@
       <c r="C196" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E196" s="70">
+      <c r="E196" s="67">
         <v>11</v>
       </c>
-      <c r="F196" s="104" t="s">
+      <c r="F196" s="101" t="s">
         <v>700</v>
       </c>
       <c r="M196">
@@ -11405,10 +11404,10 @@
       <c r="C197" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E197" s="70">
+      <c r="E197" s="67">
         <v>12</v>
       </c>
-      <c r="F197" s="77" t="s">
+      <c r="F197" s="74" t="s">
         <v>626</v>
       </c>
       <c r="M197">
@@ -11433,10 +11432,10 @@
       <c r="D198">
         <v>1.22</v>
       </c>
-      <c r="E198" s="70">
+      <c r="E198" s="67">
         <v>13</v>
       </c>
-      <c r="F198" s="108" t="s">
+      <c r="F198" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M198">
@@ -11458,10 +11457,10 @@
       <c r="C199" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E199" s="70">
+      <c r="E199" s="67">
         <v>14</v>
       </c>
-      <c r="F199" s="68" t="s">
+      <c r="F199" s="65" t="s">
         <v>618</v>
       </c>
       <c r="M199">
@@ -11483,10 +11482,10 @@
       <c r="C200" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E200" s="70">
+      <c r="E200" s="67">
         <v>15</v>
       </c>
-      <c r="F200" s="78" t="s">
+      <c r="F200" s="75" t="s">
         <v>585</v>
       </c>
       <c r="M200">
@@ -11508,10 +11507,10 @@
       <c r="C201" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E201" s="70">
+      <c r="E201" s="67">
         <v>16</v>
       </c>
-      <c r="F201" s="103" t="s">
+      <c r="F201" s="100" t="s">
         <v>691</v>
       </c>
       <c r="M201">
@@ -11533,10 +11532,10 @@
       <c r="C202" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E202" s="70">
+      <c r="E202" s="67">
         <v>17</v>
       </c>
-      <c r="F202" s="77" t="s">
+      <c r="F202" s="74" t="s">
         <v>636</v>
       </c>
       <c r="M202">
@@ -11558,10 +11557,10 @@
       <c r="C203" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E203" s="70">
+      <c r="E203" s="67">
         <v>18</v>
       </c>
-      <c r="F203" s="106" t="s">
+      <c r="F203" s="103" t="s">
         <v>703</v>
       </c>
       <c r="M203">
@@ -11577,17 +11576,17 @@
       </c>
     </row>
     <row r="204" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B204" s="109">
+      <c r="B204" s="106">
         <v>199</v>
       </c>
-      <c r="C204" s="110" t="s">
+      <c r="C204" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D204" s="111"/>
-      <c r="E204" s="109">
+      <c r="D204" s="108"/>
+      <c r="E204" s="106">
         <v>1</v>
       </c>
-      <c r="F204" s="108" t="s">
+      <c r="F204" s="105" t="s">
         <v>514</v>
       </c>
       <c r="M204">
@@ -11612,7 +11611,7 @@
       <c r="E205" s="1">
         <v>2</v>
       </c>
-      <c r="F205" s="68" t="s">
+      <c r="F205" s="65" t="s">
         <v>751</v>
       </c>
       <c r="M205">
@@ -11637,7 +11636,7 @@
       <c r="E206" s="1">
         <v>3</v>
       </c>
-      <c r="F206" s="78" t="s">
+      <c r="F206" s="75" t="s">
         <v>548</v>
       </c>
       <c r="M206">
@@ -11662,7 +11661,7 @@
       <c r="E207" s="1">
         <v>4</v>
       </c>
-      <c r="F207" s="105" t="s">
+      <c r="F207" s="102" t="s">
         <v>663</v>
       </c>
       <c r="M207">
@@ -11687,7 +11686,7 @@
       <c r="E208" s="1">
         <v>5</v>
       </c>
-      <c r="F208" s="77" t="s">
+      <c r="F208" s="74" t="s">
         <v>643</v>
       </c>
       <c r="M208">
@@ -11712,7 +11711,7 @@
       <c r="E209" s="1">
         <v>6</v>
       </c>
-      <c r="F209" s="108" t="s">
+      <c r="F209" s="105" t="s">
         <v>573</v>
       </c>
       <c r="M209">
@@ -11740,7 +11739,7 @@
       <c r="E210" s="1">
         <v>7</v>
       </c>
-      <c r="F210" s="68" t="s">
+      <c r="F210" s="65" t="s">
         <v>614</v>
       </c>
       <c r="M210">
@@ -11765,7 +11764,7 @@
       <c r="E211" s="1">
         <v>8</v>
       </c>
-      <c r="F211" s="78" t="s">
+      <c r="F211" s="75" t="s">
         <v>594</v>
       </c>
       <c r="M211">
@@ -11790,7 +11789,7 @@
       <c r="E212" s="1">
         <v>9</v>
       </c>
-      <c r="F212" s="107" t="s">
+      <c r="F212" s="104" t="s">
         <v>622</v>
       </c>
       <c r="M212">
@@ -11815,7 +11814,7 @@
       <c r="E213" s="1">
         <v>10</v>
       </c>
-      <c r="F213" s="101" t="s">
+      <c r="F213" s="98" t="s">
         <v>657</v>
       </c>
       <c r="M213">
@@ -11840,7 +11839,7 @@
       <c r="E214" s="1">
         <v>11</v>
       </c>
-      <c r="F214" s="100" t="s">
+      <c r="F214" s="97" t="s">
         <v>714</v>
       </c>
       <c r="M214">
@@ -11865,7 +11864,7 @@
       <c r="E215" s="1">
         <v>12</v>
       </c>
-      <c r="F215" s="78" t="s">
+      <c r="F215" s="75" t="s">
         <v>595</v>
       </c>
       <c r="M215">
@@ -11890,7 +11889,7 @@
       <c r="E216" s="1">
         <v>13</v>
       </c>
-      <c r="F216" s="77" t="s">
+      <c r="F216" s="74" t="s">
         <v>654</v>
       </c>
       <c r="M216">
@@ -11915,7 +11914,7 @@
       <c r="E217" s="1">
         <v>14</v>
       </c>
-      <c r="F217" s="103" t="s">
+      <c r="F217" s="100" t="s">
         <v>673</v>
       </c>
       <c r="M217">
@@ -11943,7 +11942,7 @@
       <c r="E218" s="1">
         <v>15</v>
       </c>
-      <c r="F218" s="108" t="s">
+      <c r="F218" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M218">
@@ -11968,7 +11967,7 @@
       <c r="E219" s="1">
         <v>16</v>
       </c>
-      <c r="F219" s="78" t="s">
+      <c r="F219" s="75" t="s">
         <v>605</v>
       </c>
       <c r="M219">
@@ -11993,7 +11992,7 @@
       <c r="E220" s="1">
         <v>17</v>
       </c>
-      <c r="F220" s="77" t="s">
+      <c r="F220" s="74" t="s">
         <v>639</v>
       </c>
       <c r="M220">
@@ -12018,7 +12017,7 @@
       <c r="E221" s="1">
         <v>18</v>
       </c>
-      <c r="F221" s="102" t="s">
+      <c r="F221" s="99" t="s">
         <v>742</v>
       </c>
       <c r="M221">
@@ -12034,19 +12033,19 @@
       </c>
     </row>
     <row r="222" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B222" s="109">
+      <c r="B222" s="106">
         <v>217</v>
       </c>
-      <c r="C222" s="110" t="s">
+      <c r="C222" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D222" s="111">
+      <c r="D222" s="108">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E222" s="109">
+      <c r="E222" s="106">
         <v>1</v>
       </c>
-      <c r="F222" s="108" t="s">
+      <c r="F222" s="105" t="s">
         <v>515</v>
       </c>
       <c r="M222">
@@ -12068,10 +12067,10 @@
       <c r="C223" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="70">
+      <c r="E223" s="67">
         <v>2</v>
       </c>
-      <c r="F223" s="68" t="s">
+      <c r="F223" s="65" t="s">
         <v>752</v>
       </c>
       <c r="M223">
@@ -12093,10 +12092,10 @@
       <c r="C224" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E224" s="70">
+      <c r="E224" s="67">
         <v>3</v>
       </c>
-      <c r="F224" s="78" t="s">
+      <c r="F224" s="75" t="s">
         <v>549</v>
       </c>
       <c r="M224">
@@ -12118,10 +12117,10 @@
       <c r="C225" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E225" s="70">
+      <c r="E225" s="67">
         <v>4</v>
       </c>
-      <c r="F225" s="105" t="s">
+      <c r="F225" s="102" t="s">
         <v>664</v>
       </c>
       <c r="M225">
@@ -12143,10 +12142,10 @@
       <c r="C226" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E226" s="70">
+      <c r="E226" s="67">
         <v>5</v>
       </c>
-      <c r="F226" s="108" t="s">
+      <c r="F226" s="105" t="s">
         <v>578</v>
       </c>
       <c r="M226">
@@ -12168,10 +12167,10 @@
       <c r="C227" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E227" s="70">
+      <c r="E227" s="67">
         <v>6</v>
       </c>
-      <c r="F227" s="100" t="s">
+      <c r="F227" s="97" t="s">
         <v>725</v>
       </c>
       <c r="M227">
@@ -12196,10 +12195,10 @@
       <c r="D228">
         <v>1.24</v>
       </c>
-      <c r="E228" s="70">
+      <c r="E228" s="67">
         <v>7</v>
       </c>
-      <c r="F228" s="108" t="s">
+      <c r="F228" s="105" t="s">
         <v>429</v>
       </c>
       <c r="M228">
@@ -12221,10 +12220,10 @@
       <c r="C229" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E229" s="70">
+      <c r="E229" s="67">
         <v>8</v>
       </c>
-      <c r="F229" s="68" t="s">
+      <c r="F229" s="65" t="s">
         <v>755</v>
       </c>
       <c r="M229">
@@ -12246,10 +12245,10 @@
       <c r="C230" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E230" s="70">
+      <c r="E230" s="67">
         <v>9</v>
       </c>
-      <c r="F230" s="78" t="s">
+      <c r="F230" s="75" t="s">
         <v>593</v>
       </c>
       <c r="M230">
@@ -12271,10 +12270,10 @@
       <c r="C231" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E231" s="70">
+      <c r="E231" s="67">
         <v>10</v>
       </c>
-      <c r="F231" s="77" t="s">
+      <c r="F231" s="74" t="s">
         <v>645</v>
       </c>
       <c r="M231">
@@ -12296,10 +12295,10 @@
       <c r="C232" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="70">
+      <c r="E232" s="67">
         <v>11</v>
       </c>
-      <c r="F232" s="103" t="s">
+      <c r="F232" s="100" t="s">
         <v>684</v>
       </c>
       <c r="M232">
@@ -12321,10 +12320,10 @@
       <c r="C233" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E233" s="70">
+      <c r="E233" s="67">
         <v>12</v>
       </c>
-      <c r="F233" s="78" t="s">
+      <c r="F233" s="75" t="s">
         <v>387</v>
       </c>
       <c r="M233">
@@ -12346,10 +12345,10 @@
       <c r="C234" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E234" s="70">
+      <c r="E234" s="67">
         <v>13</v>
       </c>
-      <c r="F234" s="103" t="s">
+      <c r="F234" s="100" t="s">
         <v>689</v>
       </c>
       <c r="M234">
@@ -12371,10 +12370,10 @@
       <c r="C235" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E235" s="70">
+      <c r="E235" s="67">
         <v>14</v>
       </c>
-      <c r="F235" s="106" t="s">
+      <c r="F235" s="103" t="s">
         <v>705</v>
       </c>
       <c r="M235">
@@ -12396,10 +12395,10 @@
       <c r="C236" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E236" s="70">
+      <c r="E236" s="67">
         <v>15</v>
       </c>
-      <c r="F236" s="78" t="s">
+      <c r="F236" s="75" t="s">
         <v>607</v>
       </c>
       <c r="M236">
@@ -12421,10 +12420,10 @@
       <c r="C237" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E237" s="70">
+      <c r="E237" s="67">
         <v>16</v>
       </c>
-      <c r="F237" s="77" t="s">
+      <c r="F237" s="74" t="s">
         <v>650</v>
       </c>
       <c r="M237">
@@ -12446,10 +12445,10 @@
       <c r="C238" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E238" s="70">
+      <c r="E238" s="67">
         <v>17</v>
       </c>
-      <c r="F238" s="100" t="s">
+      <c r="F238" s="97" t="s">
         <v>731</v>
       </c>
       <c r="M238">
@@ -12471,10 +12470,10 @@
       <c r="C239" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E239" s="70">
+      <c r="E239" s="67">
         <v>18</v>
       </c>
-      <c r="F239" s="106" t="s">
+      <c r="F239" s="103" t="s">
         <v>711</v>
       </c>
       <c r="H239">
@@ -12493,17 +12492,17 @@
       </c>
     </row>
     <row r="240" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B240" s="109">
+      <c r="B240" s="106">
         <v>235</v>
       </c>
-      <c r="C240" s="110" t="s">
+      <c r="C240" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D240" s="111"/>
-      <c r="E240" s="109">
+      <c r="D240" s="108"/>
+      <c r="E240" s="106">
         <v>1</v>
       </c>
-      <c r="F240" s="108" t="s">
+      <c r="F240" s="105" t="s">
         <v>516</v>
       </c>
       <c r="H240">
@@ -12531,7 +12530,7 @@
       <c r="E241" s="1">
         <v>2</v>
       </c>
-      <c r="F241" s="68" t="s">
+      <c r="F241" s="65" t="s">
         <v>753</v>
       </c>
       <c r="H241">
@@ -12559,7 +12558,7 @@
       <c r="E242" s="1">
         <v>3</v>
       </c>
-      <c r="F242" s="78" t="s">
+      <c r="F242" s="75" t="s">
         <v>550</v>
       </c>
       <c r="H242" t="s">
@@ -12587,7 +12586,7 @@
       <c r="E243" s="1">
         <v>4</v>
       </c>
-      <c r="F243" s="105" t="s">
+      <c r="F243" s="102" t="s">
         <v>661</v>
       </c>
       <c r="H243" t="s">
@@ -12615,7 +12614,7 @@
       <c r="E244" s="1">
         <v>5</v>
       </c>
-      <c r="F244" s="68" t="s">
+      <c r="F244" s="65" t="s">
         <v>748</v>
       </c>
       <c r="H244" t="s">
@@ -12646,7 +12645,7 @@
       <c r="E245" s="1">
         <v>6</v>
       </c>
-      <c r="F245" s="78" t="s">
+      <c r="F245" s="75" t="s">
         <v>596</v>
       </c>
       <c r="H245" t="s">
@@ -12674,7 +12673,7 @@
       <c r="E246" s="1">
         <v>7</v>
       </c>
-      <c r="F246" s="100" t="s">
+      <c r="F246" s="97" t="s">
         <v>728</v>
       </c>
       <c r="H246" t="s">
@@ -12702,7 +12701,7 @@
       <c r="E247" s="1">
         <v>8</v>
       </c>
-      <c r="F247" s="108" t="s">
+      <c r="F247" s="105" t="s">
         <v>388</v>
       </c>
       <c r="H247" t="s">
@@ -12730,7 +12729,7 @@
       <c r="E248" s="1">
         <v>9</v>
       </c>
-      <c r="F248" s="77" t="s">
+      <c r="F248" s="74" t="s">
         <v>644</v>
       </c>
       <c r="H248" t="s">
@@ -12758,7 +12757,7 @@
       <c r="E249" s="1">
         <v>10</v>
       </c>
-      <c r="F249" s="100" t="s">
+      <c r="F249" s="97" t="s">
         <v>719</v>
       </c>
       <c r="H249" t="s">
@@ -12792,7 +12791,7 @@
       <c r="E250" s="1">
         <v>11</v>
       </c>
-      <c r="F250" s="108" t="s">
+      <c r="F250" s="105" t="s">
         <v>429</v>
       </c>
       <c r="H250" t="s">
@@ -12823,7 +12822,7 @@
       <c r="E251" s="1">
         <v>12</v>
       </c>
-      <c r="F251" s="103" t="s">
+      <c r="F251" s="100" t="s">
         <v>693</v>
       </c>
       <c r="H251" t="s">
@@ -12854,7 +12853,7 @@
       <c r="E252" s="1">
         <v>13</v>
       </c>
-      <c r="F252" s="68" t="s">
+      <c r="F252" s="65" t="s">
         <v>619</v>
       </c>
       <c r="H252" t="s">
@@ -12885,7 +12884,7 @@
       <c r="E253" s="1">
         <v>14</v>
       </c>
-      <c r="F253" s="77" t="s">
+      <c r="F253" s="74" t="s">
         <v>631</v>
       </c>
       <c r="H253" t="s">
@@ -12913,7 +12912,7 @@
       <c r="E254" s="1">
         <v>15</v>
       </c>
-      <c r="F254" s="78" t="s">
+      <c r="F254" s="75" t="s">
         <v>586</v>
       </c>
       <c r="H254" t="s">
@@ -12941,7 +12940,7 @@
       <c r="E255" s="1">
         <v>16</v>
       </c>
-      <c r="F255" s="77" t="s">
+      <c r="F255" s="74" t="s">
         <v>652</v>
       </c>
       <c r="H255" t="s">
@@ -12969,7 +12968,7 @@
       <c r="E256" s="1">
         <v>17</v>
       </c>
-      <c r="F256" s="103" t="s">
+      <c r="F256" s="100" t="s">
         <v>681</v>
       </c>
       <c r="H256" t="s">
@@ -12997,7 +12996,7 @@
       <c r="E257" s="1">
         <v>18</v>
       </c>
-      <c r="F257" s="104" t="s">
+      <c r="F257" s="101" t="s">
         <v>701</v>
       </c>
       <c r="M257">
@@ -13013,17 +13012,17 @@
       </c>
     </row>
     <row r="258" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B258" s="109">
+      <c r="B258" s="106">
         <v>253</v>
       </c>
-      <c r="C258" s="110" t="s">
+      <c r="C258" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D258" s="111"/>
-      <c r="E258" s="109">
+      <c r="D258" s="108"/>
+      <c r="E258" s="106">
         <v>1</v>
       </c>
-      <c r="F258" s="108" t="s">
+      <c r="F258" s="105" t="s">
         <v>517</v>
       </c>
       <c r="H258">
@@ -13048,10 +13047,10 @@
       <c r="C259" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E259" s="70">
+      <c r="E259" s="67">
         <v>2</v>
       </c>
-      <c r="F259" s="68" t="s">
+      <c r="F259" s="65" t="s">
         <v>754</v>
       </c>
       <c r="H259">
@@ -13079,10 +13078,10 @@
       <c r="D260">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E260" s="70">
+      <c r="E260" s="67">
         <v>3</v>
       </c>
-      <c r="F260" s="78" t="s">
+      <c r="F260" s="75" t="s">
         <v>551</v>
       </c>
       <c r="H260" t="s">
@@ -13107,10 +13106,10 @@
       <c r="C261" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E261" s="70">
+      <c r="E261" s="67">
         <v>4</v>
       </c>
-      <c r="F261" s="77" t="s">
+      <c r="F261" s="74" t="s">
         <v>655</v>
       </c>
       <c r="H261" t="s">
@@ -13135,10 +13134,10 @@
       <c r="C262" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E262" s="70">
+      <c r="E262" s="67">
         <v>5</v>
       </c>
-      <c r="F262" s="105" t="s">
+      <c r="F262" s="102" t="s">
         <v>671</v>
       </c>
       <c r="H262" t="s">
@@ -13163,10 +13162,10 @@
       <c r="C263" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E263" s="70">
+      <c r="E263" s="67">
         <v>6</v>
       </c>
-      <c r="F263" s="104" t="s">
+      <c r="F263" s="101" t="s">
         <v>697</v>
       </c>
       <c r="H263" t="s">
@@ -13180,10 +13179,10 @@
       <c r="C264" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E264" s="70">
+      <c r="E264" s="67">
         <v>7</v>
       </c>
-      <c r="F264" s="103" t="s">
+      <c r="F264" s="100" t="s">
         <v>674</v>
       </c>
       <c r="H264" t="s">
@@ -13197,10 +13196,10 @@
       <c r="C265" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E265" s="70">
+      <c r="E265" s="67">
         <v>8</v>
       </c>
-      <c r="F265" s="78" t="s">
+      <c r="F265" s="75" t="s">
         <v>610</v>
       </c>
       <c r="H265" t="s">
@@ -13214,10 +13213,10 @@
       <c r="C266" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E266" s="70">
+      <c r="E266" s="67">
         <v>9</v>
       </c>
-      <c r="F266" s="77" t="s">
+      <c r="F266" s="74" t="s">
         <v>638</v>
       </c>
       <c r="H266" t="s">
@@ -13231,10 +13230,10 @@
       <c r="C267" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E267" s="70">
+      <c r="E267" s="67">
         <v>10</v>
       </c>
-      <c r="F267" s="106" t="s">
+      <c r="F267" s="103" t="s">
         <v>704</v>
       </c>
       <c r="H267" t="s">
@@ -13248,10 +13247,10 @@
       <c r="C268" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E268" s="70">
+      <c r="E268" s="67">
         <v>11</v>
       </c>
-      <c r="F268" s="108" t="s">
+      <c r="F268" s="105" t="s">
         <v>387</v>
       </c>
       <c r="H268" t="s">
@@ -13265,10 +13264,10 @@
       <c r="C269" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E269" s="70">
+      <c r="E269" s="67">
         <v>12</v>
       </c>
-      <c r="F269" s="68" t="s">
+      <c r="F269" s="65" t="s">
         <v>620</v>
       </c>
       <c r="H269" t="s">
@@ -13282,10 +13281,10 @@
       <c r="C270" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E270" s="70">
+      <c r="E270" s="67">
         <v>13</v>
       </c>
-      <c r="F270" s="100" t="s">
+      <c r="F270" s="97" t="s">
         <v>724</v>
       </c>
       <c r="H270" t="s">
@@ -13299,10 +13298,10 @@
       <c r="C271" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E271" s="70">
+      <c r="E271" s="67">
         <v>14</v>
       </c>
-      <c r="F271" s="78" t="s">
+      <c r="F271" s="75" t="s">
         <v>387</v>
       </c>
       <c r="H271" t="s">
@@ -13319,10 +13318,10 @@
       <c r="D272">
         <v>1.26</v>
       </c>
-      <c r="E272" s="70">
+      <c r="E272" s="67">
         <v>15</v>
       </c>
-      <c r="F272" s="108" t="s">
+      <c r="F272" s="105" t="s">
         <v>429</v>
       </c>
       <c r="H272" t="s">
@@ -13336,10 +13335,10 @@
       <c r="C273" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E273" s="70">
+      <c r="E273" s="67">
         <v>16</v>
       </c>
-      <c r="F273" s="102" t="s">
+      <c r="F273" s="99" t="s">
         <v>745</v>
       </c>
       <c r="H273" t="s">
@@ -13353,10 +13352,10 @@
       <c r="C274" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E274" s="70">
+      <c r="E274" s="67">
         <v>17</v>
       </c>
-      <c r="F274" s="100" t="s">
+      <c r="F274" s="97" t="s">
         <v>721</v>
       </c>
       <c r="H274" t="s">
@@ -13370,10 +13369,10 @@
       <c r="C275" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E275" s="70">
+      <c r="E275" s="67">
         <v>18</v>
       </c>
-      <c r="F275" s="106" t="s">
+      <c r="F275" s="103" t="s">
         <v>706</v>
       </c>
       <c r="H275" t="s">
@@ -14403,7 +14402,7 @@
       <c r="E70" t="s">
         <v>802</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="1" t="s">
         <v>803</v>
       </c>
     </row>
@@ -15413,15 +15412,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65ED08-08F3-4A5A-9BA9-5D5853900B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47D44B-4ACD-47A5-B9E3-9A6F55CD2797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="7848" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,19 @@
     <sheet name="Fishing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3241,6 +3254,7 @@
     <xf numFmtId="0" fontId="2" fillId="44" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3248,10 +3262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3478,16 +3491,16 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="12.75">
+    <row r="5" spans="3:10" ht="13.2">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="12.75">
+    <row r="6" spans="3:10" ht="13.2">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -3512,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="12.75">
+    <row r="7" spans="3:10" ht="13.2">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -3526,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="12.75">
+    <row r="8" spans="3:10" ht="13.2">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -3540,7 +3553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="12.75">
+    <row r="9" spans="3:10" ht="13.2">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +3573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="12.75">
+    <row r="10" spans="3:10" ht="13.2">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="12.75">
+    <row r="11" spans="3:10" ht="13.2">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -3588,7 +3601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="12.75">
+    <row r="12" spans="3:10" ht="13.2">
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -3602,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="12.75">
+    <row r="13" spans="3:10" ht="13.2">
       <c r="G13" s="1">
         <v>2</v>
       </c>
@@ -3616,7 +3629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="12.75">
+    <row r="14" spans="3:10" ht="13.2">
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="12.75">
+    <row r="15" spans="3:10" ht="13.2">
       <c r="G15" s="1">
         <v>2</v>
       </c>
@@ -3642,7 +3655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="12.75">
+    <row r="16" spans="3:10" ht="13.2">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -3656,7 +3669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="12.75">
+    <row r="17" spans="6:10" ht="13.2">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="12.75">
+    <row r="18" spans="6:10" ht="13.2">
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -3681,7 +3694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="12.75">
+    <row r="19" spans="6:10" ht="13.2">
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="12.75">
+    <row r="20" spans="6:10" ht="13.2">
       <c r="G20" s="1">
         <v>3</v>
       </c>
@@ -3709,7 +3722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="12.75">
+    <row r="21" spans="6:10" ht="13.2">
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -3723,7 +3736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="12.75">
+    <row r="22" spans="6:10" ht="13.2">
       <c r="G22" s="1">
         <v>3</v>
       </c>
@@ -3737,7 +3750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="12.75">
+    <row r="23" spans="6:10" ht="13.2">
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -3751,7 +3764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="12.75">
+    <row r="24" spans="6:10" ht="13.2">
       <c r="G24" s="1">
         <v>3</v>
       </c>
@@ -3762,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="12.75">
+    <row r="25" spans="6:10" ht="13.2">
       <c r="G25" s="1">
         <v>3</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="12.75">
+    <row r="26" spans="6:10" ht="13.2">
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -4091,15 +4104,15 @@
       <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="12.75">
+    <row r="2" spans="1:15" ht="13.2">
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
@@ -4107,7 +4120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75">
+    <row r="3" spans="1:15" ht="13.2">
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -4139,7 +4152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75">
+    <row r="4" spans="1:15" ht="13.2">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75">
+    <row r="5" spans="1:15" ht="13.2">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -4205,7 +4218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75">
+    <row r="6" spans="1:15" ht="13.2">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75">
+    <row r="7" spans="1:15" ht="13.2">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -4271,7 +4284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75">
+    <row r="8" spans="1:15" ht="13.2">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -4304,7 +4317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75">
+    <row r="9" spans="1:15" ht="13.2">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -4337,7 +4350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75">
+    <row r="10" spans="1:15" ht="13.2">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -4370,7 +4383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75">
+    <row r="11" spans="1:15" ht="13.2">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -4403,7 +4416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75">
+    <row r="12" spans="1:15" ht="13.2">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75">
+    <row r="13" spans="1:15" ht="13.2">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -4472,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75">
+    <row r="14" spans="1:15" ht="13.2">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -4508,7 +4521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75">
+    <row r="15" spans="1:15" ht="13.2">
       <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
@@ -4544,7 +4557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75">
+    <row r="16" spans="1:15" ht="13.2">
       <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +4593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75">
+    <row r="17" spans="1:15" ht="13.2">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -4616,7 +4629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75">
+    <row r="18" spans="1:15" ht="13.2">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -4652,7 +4665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75">
+    <row r="19" spans="1:15" ht="13.2">
       <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
@@ -4660,7 +4673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75">
+    <row r="20" spans="1:15" ht="13.2">
       <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
@@ -4668,7 +4681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
@@ -4676,7 +4689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -4684,7 +4697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -4700,7 +4713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25" s="35" t="s">
         <v>41</v>
       </c>
@@ -4708,7 +4721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -4716,7 +4729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27" s="35" t="s">
         <v>46</v>
       </c>
@@ -4724,12 +4737,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="O28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -4762,12 +4775,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="O30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="F32" s="23" t="s">
         <v>72</v>
       </c>
@@ -4777,7 +4790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="12.75">
+    <row r="34" spans="2:12" ht="13.2">
       <c r="F34" s="23" t="s">
         <v>74</v>
       </c>
@@ -4955,40 +4968,41 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="C112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" customWidth="1"/>
+    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="31.42578125" customWidth="1"/>
-    <col min="27" max="27" width="37.7109375" customWidth="1"/>
-    <col min="28" max="28" width="29.42578125" customWidth="1"/>
-    <col min="29" max="29" width="29.85546875" customWidth="1"/>
-    <col min="30" max="30" width="28.7109375" customWidth="1"/>
-    <col min="31" max="31" width="33.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" customWidth="1"/>
+    <col min="25" max="25" width="22.109375" customWidth="1"/>
+    <col min="26" max="26" width="31.44140625" customWidth="1"/>
+    <col min="27" max="27" width="37.6640625" customWidth="1"/>
+    <col min="28" max="28" width="29.44140625" customWidth="1"/>
+    <col min="29" max="29" width="29.88671875" customWidth="1"/>
+    <col min="30" max="30" width="28.6640625" customWidth="1"/>
+    <col min="31" max="31" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
@@ -4996,7 +5010,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75">
+    <row r="2" spans="1:23" ht="13.2">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,21 +5071,21 @@
       <c r="K5" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" thickBot="1">
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.8" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -5140,7 +5154,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.75">
+    <row r="7" spans="1:23" ht="13.2">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -5212,7 +5226,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.75">
+    <row r="8" spans="1:23" ht="13.2">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -5283,7 +5297,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75">
+    <row r="9" spans="1:23" ht="13.2">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -5351,7 +5365,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75">
+    <row r="10" spans="1:23" ht="13.2">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -5406,7 +5420,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75">
+    <row r="11" spans="1:23" ht="13.2">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5479,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.75">
+    <row r="12" spans="1:23" ht="13.2">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -5519,7 +5533,7 @@
       </c>
       <c r="W12" s="40"/>
     </row>
-    <row r="13" spans="1:23" ht="12.75">
+    <row r="13" spans="1:23" ht="13.2">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -5566,7 +5580,7 @@
       </c>
       <c r="W13" s="40"/>
     </row>
-    <row r="14" spans="1:23" ht="12.75">
+    <row r="14" spans="1:23" ht="13.2">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -5600,7 +5614,7 @@
       <c r="V14" s="38"/>
       <c r="W14" s="40"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75">
+    <row r="15" spans="1:23" ht="13.2">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -5634,7 +5648,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="40"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75">
+    <row r="16" spans="1:23" ht="13.2">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -5668,7 +5682,7 @@
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
     </row>
-    <row r="17" spans="1:23" ht="12.75">
+    <row r="17" spans="1:23" ht="13.2">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -5704,7 +5718,7 @@
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
     </row>
-    <row r="18" spans="1:23" ht="12.75">
+    <row r="18" spans="1:23" ht="13.2">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -5736,7 +5750,7 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:23" ht="12.75">
+    <row r="19" spans="1:23" ht="13.2">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -5769,7 +5783,7 @@
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
     </row>
-    <row r="20" spans="1:23" ht="12.75">
+    <row r="20" spans="1:23" ht="13.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -5797,7 +5811,7 @@
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
     </row>
-    <row r="21" spans="1:23" ht="12.75">
+    <row r="21" spans="1:23" ht="13.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -5828,7 +5842,7 @@
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
     </row>
-    <row r="22" spans="1:23" ht="12.75">
+    <row r="22" spans="1:23" ht="13.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -5856,7 +5870,7 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="1:23" ht="12.75">
+    <row r="23" spans="1:23" ht="13.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -5893,7 +5907,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
     </row>
-    <row r="24" spans="1:23" ht="12.75">
+    <row r="24" spans="1:23" ht="13.2">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -5933,7 +5947,7 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
     </row>
-    <row r="25" spans="1:23" ht="12.75">
+    <row r="25" spans="1:23" ht="13.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -5973,7 +5987,7 @@
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
     </row>
-    <row r="26" spans="1:23" ht="12.75">
+    <row r="26" spans="1:23" ht="13.2">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -6012,7 +6026,7 @@
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
     </row>
-    <row r="27" spans="1:23" ht="12.75">
+    <row r="27" spans="1:23" ht="13.2">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -6051,14 +6065,14 @@
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
     </row>
-    <row r="28" spans="1:23" ht="12.75">
+    <row r="28" spans="1:23" ht="13.2">
       <c r="B28" s="1">
         <v>23</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="110">
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
@@ -6084,7 +6098,7 @@
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
     </row>
-    <row r="29" spans="1:23" ht="12.75">
+    <row r="29" spans="1:23" ht="13.2">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -6115,7 +6129,7 @@
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
     </row>
-    <row r="30" spans="1:23" ht="12.75">
+    <row r="30" spans="1:23" ht="13.2">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -6149,7 +6163,7 @@
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
     </row>
-    <row r="31" spans="1:23" ht="12.75">
+    <row r="31" spans="1:23" ht="13.2">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -6172,7 +6186,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75">
+    <row r="32" spans="1:23" ht="13.2">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -6195,7 +6209,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18.75" thickBot="1">
+    <row r="33" spans="1:24" ht="18" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -6212,7 +6226,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18.75" thickBot="1">
+    <row r="34" spans="1:24" ht="18" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -6240,7 +6254,7 @@
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" thickBot="1">
+    <row r="35" spans="1:24" ht="13.8" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -6293,7 +6307,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="12.75">
+    <row r="36" spans="1:24" ht="13.2">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -6350,7 +6364,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="12.75">
+    <row r="37" spans="1:24" ht="13.2">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -6408,7 +6422,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="12.75">
+    <row r="38" spans="1:24" ht="13.2">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -6465,7 +6479,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.75">
+    <row r="39" spans="1:24" ht="13.2">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -6523,7 +6537,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="12.75">
+    <row r="40" spans="1:24" ht="13.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6580,7 +6594,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="12.75">
+    <row r="41" spans="1:24" ht="13.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -6634,7 +6648,7 @@
       </c>
       <c r="X41" s="55"/>
     </row>
-    <row r="42" spans="1:24" ht="12.75">
+    <row r="42" spans="1:24" ht="13.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6691,7 +6705,7 @@
       </c>
       <c r="X42" s="55"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75">
+    <row r="43" spans="1:24" ht="13.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -6744,7 +6758,7 @@
       </c>
       <c r="X43" s="55"/>
     </row>
-    <row r="44" spans="1:24" ht="12.75">
+    <row r="44" spans="1:24" ht="13.2">
       <c r="A44">
         <v>13</v>
       </c>
@@ -6797,7 +6811,7 @@
       </c>
       <c r="X44" s="55"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75">
+    <row r="45" spans="1:24" ht="13.2">
       <c r="A45">
         <v>16</v>
       </c>
@@ -6851,7 +6865,7 @@
       </c>
       <c r="X45" s="59"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75">
+    <row r="46" spans="1:24" ht="13.2">
       <c r="A46">
         <v>19</v>
       </c>
@@ -6902,7 +6916,7 @@
       </c>
       <c r="X46" s="55"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75">
+    <row r="47" spans="1:24" ht="13.2">
       <c r="A47">
         <v>22</v>
       </c>
@@ -6953,7 +6967,7 @@
       </c>
       <c r="X47" s="55"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75">
+    <row r="48" spans="1:24" ht="13.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -7002,7 +7016,7 @@
       </c>
       <c r="X48" s="55"/>
     </row>
-    <row r="49" spans="1:24" ht="12.75">
+    <row r="49" spans="1:24" ht="13.2">
       <c r="A49">
         <v>28</v>
       </c>
@@ -7051,7 +7065,7 @@
       </c>
       <c r="X49" s="55"/>
     </row>
-    <row r="50" spans="1:24" ht="12.75">
+    <row r="50" spans="1:24" ht="13.2">
       <c r="A50">
         <v>31</v>
       </c>
@@ -7100,7 +7114,7 @@
       </c>
       <c r="X50" s="55"/>
     </row>
-    <row r="51" spans="1:24" ht="12.75">
+    <row r="51" spans="1:24" ht="13.2">
       <c r="A51">
         <v>34</v>
       </c>
@@ -7146,7 +7160,7 @@
       </c>
       <c r="X51" s="55"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75">
+    <row r="52" spans="1:24" ht="13.2">
       <c r="A52">
         <v>37</v>
       </c>
@@ -7207,7 +7221,7 @@
       </c>
       <c r="X52" s="55"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75">
+    <row r="53" spans="1:24" ht="13.2">
       <c r="A53">
         <v>40</v>
       </c>
@@ -7259,7 +7273,7 @@
       </c>
       <c r="X53" s="55"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75">
+    <row r="54" spans="1:24" ht="13.2">
       <c r="A54">
         <v>43</v>
       </c>
@@ -7308,7 +7322,7 @@
       </c>
       <c r="X54" s="55"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75">
+    <row r="55" spans="1:24" ht="13.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -7366,7 +7380,7 @@
       </c>
       <c r="X55" s="55"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75">
+    <row r="56" spans="1:24" ht="13.2">
       <c r="A56">
         <v>49</v>
       </c>
@@ -7415,7 +7429,7 @@
       </c>
       <c r="X56" s="55"/>
     </row>
-    <row r="57" spans="1:24" ht="12.75">
+    <row r="57" spans="1:24" ht="13.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -7467,7 +7481,7 @@
       </c>
       <c r="X57" s="55"/>
     </row>
-    <row r="58" spans="1:24" ht="12.75">
+    <row r="58" spans="1:24" ht="13.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7512,7 +7526,7 @@
       </c>
       <c r="X58" s="55"/>
     </row>
-    <row r="59" spans="1:24" ht="12.75">
+    <row r="59" spans="1:24" ht="13.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7560,7 +7574,7 @@
       </c>
       <c r="X59" s="55"/>
     </row>
-    <row r="60" spans="1:24" ht="12.75">
+    <row r="60" spans="1:24" ht="13.2">
       <c r="A60">
         <v>61</v>
       </c>
@@ -7603,7 +7617,7 @@
       </c>
       <c r="X60" s="55"/>
     </row>
-    <row r="61" spans="1:24" ht="12.75">
+    <row r="61" spans="1:24" ht="13.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -7648,7 +7662,7 @@
       </c>
       <c r="X61" s="55"/>
     </row>
-    <row r="62" spans="1:24" ht="12.75">
+    <row r="62" spans="1:24" ht="13.2">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -7690,7 +7704,7 @@
       </c>
       <c r="X62" s="55"/>
     </row>
-    <row r="63" spans="1:24" ht="12.75">
+    <row r="63" spans="1:24" ht="13.2">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -7729,7 +7743,7 @@
       </c>
       <c r="X63" s="55"/>
     </row>
-    <row r="64" spans="1:24" ht="12.75">
+    <row r="64" spans="1:24" ht="13.2">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -7766,7 +7780,7 @@
       <c r="W64" s="55"/>
       <c r="X64" s="55"/>
     </row>
-    <row r="65" spans="2:24" ht="12.75">
+    <row r="65" spans="2:24" ht="13.2">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -7803,7 +7817,7 @@
       <c r="W65" s="55"/>
       <c r="X65" s="55"/>
     </row>
-    <row r="66" spans="2:24" ht="12.75">
+    <row r="66" spans="2:24" ht="13.2">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -7840,7 +7854,7 @@
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
     </row>
-    <row r="67" spans="2:24" ht="12.75">
+    <row r="67" spans="2:24" ht="13.2">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -7877,7 +7891,7 @@
       <c r="W67" s="55"/>
       <c r="X67" s="55"/>
     </row>
-    <row r="68" spans="2:24" ht="12.75">
+    <row r="68" spans="2:24" ht="13.2">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -7914,7 +7928,7 @@
       <c r="W68" s="55"/>
       <c r="X68" s="55"/>
     </row>
-    <row r="69" spans="2:24" ht="12.75">
+    <row r="69" spans="2:24" ht="13.2">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -7949,7 +7963,7 @@
       <c r="W69" s="55"/>
       <c r="X69" s="55"/>
     </row>
-    <row r="70" spans="2:24" ht="12.75">
+    <row r="70" spans="2:24" ht="13.2">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -7987,7 +8001,7 @@
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
     </row>
-    <row r="71" spans="2:24" ht="12.75">
+    <row r="71" spans="2:24" ht="13.2">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -8020,7 +8034,7 @@
       <c r="W71" s="55"/>
       <c r="X71" s="55"/>
     </row>
-    <row r="72" spans="2:24" ht="12.75">
+    <row r="72" spans="2:24" ht="13.2">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -8053,7 +8067,7 @@
       <c r="W72" s="55"/>
       <c r="X72" s="55"/>
     </row>
-    <row r="73" spans="2:24" ht="12.75">
+    <row r="73" spans="2:24" ht="13.2">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -8086,7 +8100,7 @@
       <c r="W73" s="55"/>
       <c r="X73" s="55"/>
     </row>
-    <row r="74" spans="2:24" ht="12.75">
+    <row r="74" spans="2:24" ht="13.2">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -8119,7 +8133,7 @@
       <c r="W74" s="55"/>
       <c r="X74" s="55"/>
     </row>
-    <row r="75" spans="2:24" ht="12.75">
+    <row r="75" spans="2:24" ht="13.2">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -8152,7 +8166,7 @@
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
     </row>
-    <row r="76" spans="2:24" ht="12.75">
+    <row r="76" spans="2:24" ht="13.2">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -8185,7 +8199,7 @@
       <c r="W76" s="55"/>
       <c r="X76" s="55"/>
     </row>
-    <row r="77" spans="2:24" ht="12.75">
+    <row r="77" spans="2:24" ht="13.2">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -8218,7 +8232,7 @@
       <c r="W77" s="55"/>
       <c r="X77" s="55"/>
     </row>
-    <row r="78" spans="2:24" ht="12.75">
+    <row r="78" spans="2:24" ht="13.2">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -8252,7 +8266,7 @@
       <c r="W78" s="55"/>
       <c r="X78" s="55"/>
     </row>
-    <row r="79" spans="2:24" ht="12.75">
+    <row r="79" spans="2:24" ht="13.2">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -8285,7 +8299,7 @@
       <c r="W79" s="55"/>
       <c r="X79" s="55"/>
     </row>
-    <row r="80" spans="2:24" ht="12.75">
+    <row r="80" spans="2:24" ht="13.2">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -8318,7 +8332,7 @@
       <c r="W80" s="55"/>
       <c r="X80" s="55"/>
     </row>
-    <row r="81" spans="2:24" ht="12.75">
+    <row r="81" spans="2:24" ht="13.2">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -8349,7 +8363,7 @@
       <c r="W81" s="55"/>
       <c r="X81" s="55"/>
     </row>
-    <row r="82" spans="2:24" ht="12.75">
+    <row r="82" spans="2:24" ht="13.2">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -8380,7 +8394,7 @@
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
     </row>
-    <row r="83" spans="2:24" ht="12.75">
+    <row r="83" spans="2:24" ht="13.2">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -8414,7 +8428,7 @@
       <c r="W83" s="55"/>
       <c r="X83" s="55"/>
     </row>
-    <row r="84" spans="2:24" ht="12.75">
+    <row r="84" spans="2:24" ht="13.2">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -8445,7 +8459,7 @@
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
     </row>
-    <row r="85" spans="2:24" ht="12.75">
+    <row r="85" spans="2:24" ht="13.2">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -8476,7 +8490,7 @@
       <c r="W85" s="55"/>
       <c r="X85" s="55"/>
     </row>
-    <row r="86" spans="2:24" ht="12.75">
+    <row r="86" spans="2:24" ht="13.2">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -8507,7 +8521,7 @@
       <c r="W86" s="55"/>
       <c r="X86" s="55"/>
     </row>
-    <row r="87" spans="2:24" ht="12.75">
+    <row r="87" spans="2:24" ht="13.2">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -8557,7 +8571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:24" ht="12.75">
+    <row r="88" spans="2:24" ht="13.2">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -8589,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:24" ht="12.75">
+    <row r="89" spans="2:24" ht="13.2">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -8606,7 +8620,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="90" spans="2:24" ht="12.75">
+    <row r="90" spans="2:24" ht="13.2">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -8636,7 +8650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="2:24" ht="12.75">
+    <row r="91" spans="2:24" ht="13.2">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -8666,7 +8680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:24" ht="12.75">
+    <row r="92" spans="2:24" ht="13.2">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -8696,7 +8710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:24" ht="12.75">
+    <row r="93" spans="2:24" ht="13.2">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -8726,7 +8740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:24" ht="12.75">
+    <row r="94" spans="2:24" ht="13.2">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -8759,7 +8773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:24" ht="12.75">
+    <row r="95" spans="2:24" ht="13.2">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -8789,7 +8803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:24" ht="12.75">
+    <row r="96" spans="2:24" ht="13.2">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -8820,7 +8834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12.75">
+    <row r="97" spans="2:24" ht="13.2">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -8850,7 +8864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="12.75">
+    <row r="98" spans="2:24" ht="13.2">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -8880,7 +8894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12.75">
+    <row r="99" spans="2:24" ht="13.2">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -8910,7 +8924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="12.75">
+    <row r="100" spans="2:24" ht="13.2">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -8940,7 +8954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12.75">
+    <row r="101" spans="2:24" ht="13.2">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -8970,7 +8984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12.75">
+    <row r="102" spans="2:24" ht="13.2">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -9000,7 +9014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12.75">
+    <row r="103" spans="2:24" ht="13.2">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -9015,7 +9029,7 @@
       </c>
       <c r="T103" s="45"/>
     </row>
-    <row r="104" spans="2:24" ht="12.75">
+    <row r="104" spans="2:24" ht="13.2">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -9029,7 +9043,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12.75">
+    <row r="105" spans="2:24" ht="13.2">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -9043,7 +9057,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12.75">
+    <row r="106" spans="2:24" ht="13.2">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -9057,7 +9071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="2:24" ht="12.75">
+    <row r="107" spans="2:24" ht="13.2">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="108" spans="2:24" ht="12.75">
+    <row r="108" spans="2:24" ht="13.2">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -9088,7 +9102,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="109" spans="2:24" ht="12.75">
+    <row r="109" spans="2:24" ht="13.2">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -9114,7 +9128,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12.75">
+    <row r="110" spans="2:24" ht="13.2">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -9128,7 +9142,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12.75">
+    <row r="111" spans="2:24" ht="13.2">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -9142,7 +9156,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12.75">
+    <row r="112" spans="2:24" ht="13.2">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -9163,7 +9177,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="113" spans="2:24" ht="12.75">
+    <row r="113" spans="2:24" ht="13.2">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -9209,7 +9223,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:24" ht="12.75">
+    <row r="114" spans="2:24" ht="13.2">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -9252,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:24" ht="12.75">
+    <row r="115" spans="2:24" ht="13.2">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -9294,7 +9308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:24" ht="12.75">
+    <row r="116" spans="2:24" ht="13.2">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -9336,7 +9350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:24" ht="12.75">
+    <row r="117" spans="2:24" ht="13.2">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -9369,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:24" ht="12.75">
+    <row r="118" spans="2:24" ht="13.2">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -9401,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" ht="12.75">
+    <row r="119" spans="2:24" ht="13.2">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -9435,7 +9449,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="2:24" ht="12.75">
+    <row r="120" spans="2:24" ht="13.2">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -9460,7 +9474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="2:24" ht="12.75">
+    <row r="121" spans="2:24" ht="13.2">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -9485,7 +9499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="2:24" ht="12.75">
+    <row r="122" spans="2:24" ht="13.2">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -9510,7 +9524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="12.75">
+    <row r="123" spans="2:24" ht="13.2">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -9535,7 +9549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="2:24" ht="12.75">
+    <row r="124" spans="2:24" ht="13.2">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -9560,7 +9574,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="2:24" ht="12.75">
+    <row r="125" spans="2:24" ht="13.2">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -9585,7 +9599,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="2:24" ht="12.75">
+    <row r="126" spans="2:24" ht="13.2">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -9610,7 +9624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:24" ht="12.75">
+    <row r="127" spans="2:24" ht="13.2">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -9635,7 +9649,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="2:24" ht="12.75">
+    <row r="128" spans="2:24" ht="13.2">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -9660,7 +9674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="12.75">
+    <row r="129" spans="2:15" ht="13.2">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -9688,7 +9702,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="12.75">
+    <row r="130" spans="2:15" ht="13.2">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -9713,7 +9727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="12.75">
+    <row r="131" spans="2:15" ht="13.2">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -9738,7 +9752,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="12.75">
+    <row r="132" spans="2:15" ht="13.2">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -9767,7 +9781,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="12.75">
+    <row r="133" spans="2:15" ht="13.2">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -9795,7 +9809,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="12.75">
+    <row r="134" spans="2:15" ht="13.2">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -9823,7 +9837,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="12.75">
+    <row r="135" spans="2:15" ht="13.2">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -9848,7 +9862,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="12.75">
+    <row r="136" spans="2:15" ht="13.2">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -9876,7 +9890,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="12.75">
+    <row r="137" spans="2:15" ht="13.2">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -9901,7 +9915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="12.75">
+    <row r="138" spans="2:15" ht="13.2">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="12.75">
+    <row r="139" spans="2:15" ht="13.2">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -9951,7 +9965,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="12.75">
+    <row r="140" spans="2:15" ht="13.2">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="12.75">
+    <row r="141" spans="2:15" ht="13.2">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -10001,7 +10015,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="12.75">
+    <row r="142" spans="2:15" ht="13.2">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -10026,7 +10040,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="12.75">
+    <row r="143" spans="2:15" ht="13.2">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -10051,7 +10065,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="12.75">
+    <row r="144" spans="2:15" ht="13.2">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -10076,7 +10090,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="12.75">
+    <row r="145" spans="2:15" ht="13.2">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -10101,7 +10115,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="12.75">
+    <row r="146" spans="2:15" ht="13.2">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -10126,7 +10140,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="12.75">
+    <row r="147" spans="2:15" ht="13.2">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -10151,7 +10165,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="12.75">
+    <row r="148" spans="2:15" ht="13.2">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -10176,7 +10190,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="12.75">
+    <row r="149" spans="2:15" ht="13.2">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -10204,7 +10218,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="12.75">
+    <row r="150" spans="2:15" ht="13.2">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -10230,7 +10244,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="12.75">
+    <row r="151" spans="2:15" ht="13.2">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -10255,7 +10269,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="12.75">
+    <row r="152" spans="2:15" ht="13.2">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -10280,7 +10294,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="12.75">
+    <row r="153" spans="2:15" ht="13.2">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -10308,7 +10322,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="12.75">
+    <row r="154" spans="2:15" ht="13.2">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -10333,7 +10347,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="12.75">
+    <row r="155" spans="2:15" ht="13.2">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -10361,7 +10375,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="12.75">
+    <row r="156" spans="2:15" ht="13.2">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -10386,7 +10400,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="12.75">
+    <row r="157" spans="2:15" ht="13.2">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -10411,7 +10425,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="12.75">
+    <row r="158" spans="2:15" ht="13.2">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -10436,7 +10450,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="12.75">
+    <row r="159" spans="2:15" ht="13.2">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -10461,7 +10475,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="12.75">
+    <row r="160" spans="2:15" ht="13.2">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -10486,7 +10500,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="12.75">
+    <row r="161" spans="2:15" ht="13.2">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -10511,7 +10525,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="162" spans="2:15" ht="12.75">
+    <row r="162" spans="2:15" ht="13.2">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -10536,7 +10550,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="163" spans="2:15" ht="12.75">
+    <row r="163" spans="2:15" ht="13.2">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -10561,7 +10575,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="164" spans="2:15" ht="12.75">
+    <row r="164" spans="2:15" ht="13.2">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -10586,7 +10600,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="165" spans="2:15" ht="12.75">
+    <row r="165" spans="2:15" ht="13.2">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -10611,7 +10625,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="166" spans="2:15" ht="12.75">
+    <row r="166" spans="2:15" ht="13.2">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -10636,7 +10650,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="167" spans="2:15" ht="12.75">
+    <row r="167" spans="2:15" ht="13.2">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -10661,7 +10675,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="168" spans="2:15" ht="12.75">
+    <row r="168" spans="2:15" ht="13.2">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -10687,7 +10701,7 @@
         <v>8178</v>
       </c>
     </row>
-    <row r="169" spans="2:15" ht="12.75">
+    <row r="169" spans="2:15" ht="13.2">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -10712,7 +10726,7 @@
         <v>9047</v>
       </c>
     </row>
-    <row r="170" spans="2:15" ht="12.75">
+    <row r="170" spans="2:15" ht="13.2">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -10737,7 +10751,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="171" spans="2:15" ht="12.75">
+    <row r="171" spans="2:15" ht="13.2">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -10762,7 +10776,7 @@
         <v>11149</v>
       </c>
     </row>
-    <row r="172" spans="2:15" ht="12.75">
+    <row r="172" spans="2:15" ht="13.2">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -10787,7 +10801,7 @@
         <v>12418</v>
       </c>
     </row>
-    <row r="173" spans="2:15" ht="12.75">
+    <row r="173" spans="2:15" ht="13.2">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -13408,18 +13422,18 @@
       <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="12.75">
+    <row r="2" spans="3:10" ht="13.2">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="12.75">
+    <row r="4" spans="3:10" ht="13.2">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -13445,7 +13459,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="12.75">
+    <row r="5" spans="3:10" ht="13.2">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -13465,7 +13479,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="12.75">
+    <row r="6" spans="3:10" ht="13.2">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -13479,7 +13493,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="12.75">
+    <row r="7" spans="3:10" ht="13.2">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -13493,7 +13507,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="12.75">
+    <row r="8" spans="3:10" ht="13.2">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -13507,7 +13521,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="12.75">
+    <row r="9" spans="3:10" ht="13.2">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -13521,7 +13535,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="12.75">
+    <row r="10" spans="3:10" ht="13.2">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -13535,7 +13549,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="12.75">
+    <row r="11" spans="3:10" ht="13.2">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -13549,7 +13563,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="12.75">
+    <row r="12" spans="3:10" ht="13.2">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -13563,7 +13577,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="12.75">
+    <row r="13" spans="3:10" ht="13.2">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -13577,7 +13591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="12.75">
+    <row r="14" spans="3:10" ht="13.2">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -13591,7 +13605,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="12.75">
+    <row r="15" spans="3:10" ht="13.2">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -13605,7 +13619,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="12.75">
+    <row r="16" spans="3:10" ht="13.2">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -13619,7 +13633,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="12.75">
+    <row r="17" spans="3:9" ht="13.2">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -13633,7 +13647,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="12.75">
+    <row r="18" spans="3:9" ht="13.2">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -13647,7 +13661,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="12.75">
+    <row r="19" spans="3:9" ht="13.2">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -13661,7 +13675,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="12.75">
+    <row r="20" spans="3:9" ht="13.2">
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -13675,7 +13689,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="12.75">
+    <row r="21" spans="3:9" ht="13.2">
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -13689,7 +13703,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="12.75">
+    <row r="22" spans="3:9" ht="13.2">
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -13703,7 +13717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="12.75">
+    <row r="23" spans="3:9" ht="13.2">
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -13717,7 +13731,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="12.75">
+    <row r="24" spans="3:9" ht="13.2">
       <c r="C24" s="1">
         <v>20</v>
       </c>
@@ -13731,7 +13745,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="12.75">
+    <row r="25" spans="3:9" ht="13.2">
       <c r="C25" s="1">
         <v>21</v>
       </c>
@@ -13745,7 +13759,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="12.75">
+    <row r="26" spans="3:9" ht="13.2">
       <c r="C26" s="1">
         <v>22</v>
       </c>
@@ -13759,7 +13773,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="12.75">
+    <row r="27" spans="3:9" ht="13.2">
       <c r="C27" s="1">
         <v>23</v>
       </c>
@@ -13773,7 +13787,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="12.75">
+    <row r="28" spans="3:9" ht="13.2">
       <c r="C28" s="1">
         <v>24</v>
       </c>
@@ -13787,7 +13801,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="12.75">
+    <row r="29" spans="3:9" ht="13.2">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -13801,7 +13815,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="12.75">
+    <row r="30" spans="3:9" ht="13.2">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -13815,7 +13829,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="12.75">
+    <row r="31" spans="3:9" ht="13.2">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -13829,7 +13843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="12.75">
+    <row r="32" spans="3:9" ht="13.2">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -13844,7 +13858,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="3:9" ht="12.75">
+    <row r="33" spans="3:9" ht="13.2">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -13859,7 +13873,7 @@
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="3:9" ht="12.75">
+    <row r="34" spans="3:9" ht="13.2">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -13874,7 +13888,7 @@
       </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="3:9" ht="12.75">
+    <row r="35" spans="3:9" ht="13.2">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -13889,7 +13903,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="3:9" ht="12.75">
+    <row r="36" spans="3:9" ht="13.2">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -13906,7 +13920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="12.75">
+    <row r="37" spans="3:9" ht="13.2">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -13923,7 +13937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="12.75">
+    <row r="38" spans="3:9" ht="13.2">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -13940,7 +13954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="12.75">
+    <row r="39" spans="3:9" ht="13.2">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -13957,7 +13971,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="12.75">
+    <row r="40" spans="3:9" ht="13.2">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -13974,7 +13988,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="12.75">
+    <row r="41" spans="3:9" ht="13.2">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -13991,7 +14005,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="12.75">
+    <row r="42" spans="3:9" ht="13.2">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -14008,7 +14022,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="12.75">
+    <row r="43" spans="3:9" ht="13.2">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -14025,7 +14039,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="12.75">
+    <row r="44" spans="3:9" ht="13.2">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -14042,7 +14056,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="12.75">
+    <row r="45" spans="3:9" ht="13.2">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -14059,7 +14073,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="12.75">
+    <row r="46" spans="3:9" ht="13.2">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -14076,7 +14090,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="12.75">
+    <row r="47" spans="3:9" ht="13.2">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -14093,7 +14107,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="12.75">
+    <row r="48" spans="3:9" ht="13.2">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -14110,7 +14124,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="12.75">
+    <row r="49" spans="3:9" ht="13.2">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -14127,7 +14141,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="12.75">
+    <row r="50" spans="3:9" ht="13.2">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -14144,7 +14158,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="12.75">
+    <row r="51" spans="3:9" ht="13.2">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -14161,7 +14175,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="12.75">
+    <row r="52" spans="3:9" ht="13.2">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -14178,7 +14192,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="12.75">
+    <row r="53" spans="3:9" ht="13.2">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -14195,7 +14209,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="12.75">
+    <row r="54" spans="3:9" ht="13.2">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -14209,7 +14223,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="12.75">
+    <row r="55" spans="3:9" ht="13.2">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -14223,7 +14237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="12.75">
+    <row r="56" spans="3:9" ht="13.2">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -14237,7 +14251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="12.75">
+    <row r="57" spans="3:9" ht="13.2">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -14251,7 +14265,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="12.75">
+    <row r="58" spans="3:9" ht="13.2">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -14265,7 +14279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="12.75">
+    <row r="59" spans="3:9" ht="13.2">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -14279,7 +14293,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="12.75">
+    <row r="60" spans="3:9" ht="13.2">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -14293,7 +14307,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="12.75">
+    <row r="61" spans="3:9" ht="13.2">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -14307,7 +14321,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="12.75">
+    <row r="62" spans="3:9" ht="13.2">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -14318,7 +14332,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="12.75">
+    <row r="63" spans="3:9" ht="13.2">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -14329,7 +14343,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="12.75">
+    <row r="64" spans="3:9" ht="13.2">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -14340,7 +14354,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="12.75">
+    <row r="65" spans="3:6" ht="13.2">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -14482,10 +14496,10 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9">
@@ -14936,10 +14950,10 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -15310,10 +15324,10 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="69.85546875" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="69.88671875" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
@@ -15395,10 +15409,10 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -15412,15 +15426,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">
@@ -16244,11 +16258,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47D44B-4ACD-47A5-B9E3-9A6F55CD2797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A49CF-CB1E-4CC1-B6D9-747CC55AF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="7848" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,6 @@
     <sheet name="Fishing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1498,9 +1485,6 @@
     <t>get more fish</t>
   </si>
   <si>
-    <t>Wood Levels become base click</t>
-  </si>
-  <si>
     <t>Keep Research</t>
   </si>
   <si>
@@ -2500,9 +2484,6 @@
     <t>bait effects 15%</t>
   </si>
   <si>
-    <t>Fish rarer fish</t>
-  </si>
-  <si>
     <t>add click beaver</t>
   </si>
   <si>
@@ -2519,6 +2500,12 @@
   </si>
   <si>
     <t>levels effects 3%</t>
+  </si>
+  <si>
+    <t>Add wood Levels to base click</t>
+  </si>
+  <si>
+    <t>Fish rarer fish 2x</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3491,16 +3478,16 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="13.2">
+    <row r="5" spans="3:10" ht="12.75">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="13.2">
+    <row r="6" spans="3:10" ht="12.75">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -3525,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="13.2">
+    <row r="7" spans="3:10" ht="12.75">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -3539,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="13.2">
+    <row r="8" spans="3:10" ht="12.75">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -3553,7 +3540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="13.2">
+    <row r="9" spans="3:10" ht="12.75">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3573,7 +3560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="13.2">
+    <row r="10" spans="3:10" ht="12.75">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -3587,7 +3574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="13.2">
+    <row r="11" spans="3:10" ht="12.75">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -3601,7 +3588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="13.2">
+    <row r="12" spans="3:10" ht="12.75">
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -3615,7 +3602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="13.2">
+    <row r="13" spans="3:10" ht="12.75">
       <c r="G13" s="1">
         <v>2</v>
       </c>
@@ -3629,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="13.2">
+    <row r="14" spans="3:10" ht="12.75">
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -3643,7 +3630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="13.2">
+    <row r="15" spans="3:10" ht="12.75">
       <c r="G15" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="13.2">
+    <row r="16" spans="3:10" ht="12.75">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -3669,7 +3656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="13.2">
+    <row r="17" spans="6:10" ht="12.75">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -3683,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="13.2">
+    <row r="18" spans="6:10" ht="12.75">
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -3694,7 +3681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="13.2">
+    <row r="19" spans="6:10" ht="12.75">
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -3708,7 +3695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="13.2">
+    <row r="20" spans="6:10" ht="12.75">
       <c r="G20" s="1">
         <v>3</v>
       </c>
@@ -3722,7 +3709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="13.2">
+    <row r="21" spans="6:10" ht="12.75">
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -3736,7 +3723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="13.2">
+    <row r="22" spans="6:10" ht="12.75">
       <c r="G22" s="1">
         <v>3</v>
       </c>
@@ -3750,7 +3737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="13.2">
+    <row r="23" spans="6:10" ht="12.75">
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -3764,7 +3751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="13.2">
+    <row r="24" spans="6:10" ht="12.75">
       <c r="G24" s="1">
         <v>3</v>
       </c>
@@ -3775,7 +3762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="13.2">
+    <row r="25" spans="6:10" ht="12.75">
       <c r="G25" s="1">
         <v>3</v>
       </c>
@@ -3789,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="13.2">
+    <row r="26" spans="6:10" ht="12.75">
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -4104,15 +4091,15 @@
       <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="13.2">
+    <row r="2" spans="1:15" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
@@ -4120,7 +4107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2">
+    <row r="3" spans="1:15" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -4152,7 +4139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.2">
+    <row r="4" spans="1:15" ht="12.75">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -4185,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.2">
+    <row r="5" spans="1:15" ht="12.75">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -4218,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.2">
+    <row r="6" spans="1:15" ht="12.75">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -4251,7 +4238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13.2">
+    <row r="7" spans="1:15" ht="12.75">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -4284,7 +4271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2">
+    <row r="8" spans="1:15" ht="12.75">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -4317,7 +4304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2">
+    <row r="9" spans="1:15" ht="12.75">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -4350,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13.2">
+    <row r="10" spans="1:15" ht="12.75">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -4383,7 +4370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.2">
+    <row r="11" spans="1:15" ht="12.75">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -4416,7 +4403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.2">
+    <row r="12" spans="1:15" ht="12.75">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -4449,7 +4436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.2">
+    <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -4485,7 +4472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.2">
+    <row r="14" spans="1:15" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -4521,7 +4508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.2">
+    <row r="15" spans="1:15" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
@@ -4557,7 +4544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.2">
+    <row r="16" spans="1:15" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2">
+    <row r="17" spans="1:15" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -4629,7 +4616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2">
+    <row r="18" spans="1:15" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2">
+    <row r="19" spans="1:15" ht="12.75">
       <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
@@ -4673,7 +4660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2">
+    <row r="20" spans="1:15" ht="12.75">
       <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
@@ -4681,7 +4668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="12.75">
       <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
@@ -4689,7 +4676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="12.75">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -4697,7 +4684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="12.75">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
@@ -4705,7 +4692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="12.75">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -4713,7 +4700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="12.75">
       <c r="A25" s="35" t="s">
         <v>41</v>
       </c>
@@ -4721,7 +4708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="12.75">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -4729,7 +4716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="12.75">
       <c r="A27" s="35" t="s">
         <v>46</v>
       </c>
@@ -4737,12 +4724,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="12.75">
       <c r="O28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="12.75">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -4775,12 +4762,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="12.75">
       <c r="O30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="12.75">
       <c r="F32" s="23" t="s">
         <v>72</v>
       </c>
@@ -4790,7 +4777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.2">
+    <row r="34" spans="2:12" ht="12.75">
       <c r="F34" s="23" t="s">
         <v>74</v>
       </c>
@@ -4968,73 +4955,73 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView topLeftCell="A260" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" customWidth="1"/>
-    <col min="21" max="21" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" customWidth="1"/>
-    <col min="25" max="25" width="22.109375" customWidth="1"/>
-    <col min="26" max="26" width="31.44140625" customWidth="1"/>
-    <col min="27" max="27" width="37.6640625" customWidth="1"/>
-    <col min="28" max="28" width="29.44140625" customWidth="1"/>
-    <col min="29" max="29" width="29.88671875" customWidth="1"/>
-    <col min="30" max="30" width="28.6640625" customWidth="1"/>
-    <col min="31" max="31" width="33.109375" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="31.42578125" customWidth="1"/>
+    <col min="27" max="27" width="37.7109375" customWidth="1"/>
+    <col min="28" max="28" width="29.42578125" customWidth="1"/>
+    <col min="29" max="29" width="29.85546875" customWidth="1"/>
+    <col min="30" max="30" width="28.7109375" customWidth="1"/>
+    <col min="31" max="31" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="13.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="N4" s="45" t="s">
         <v>564</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
@@ -5048,7 +5035,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -5085,7 +5072,7 @@
       <c r="V5" s="111"/>
       <c r="W5" s="111"/>
     </row>
-    <row r="6" spans="1:23" ht="13.8" thickBot="1">
+    <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -5102,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>423</v>
@@ -5154,7 +5141,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.2">
+    <row r="7" spans="1:23" ht="12.75">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -5226,7 +5213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.2">
+    <row r="8" spans="1:23" ht="12.75">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -5243,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>479</v>
@@ -5297,7 +5284,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.2">
+    <row r="9" spans="1:23" ht="12.75">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>428</v>
@@ -5365,7 +5352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.2">
+    <row r="10" spans="1:23" ht="12.75">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -5420,7 +5407,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.2">
+    <row r="11" spans="1:23" ht="12.75">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -5437,7 +5424,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H11">
         <v>750</v>
@@ -5479,7 +5466,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.2">
+    <row r="12" spans="1:23" ht="12.75">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -5496,7 +5483,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H12">
         <v>1400</v>
@@ -5533,7 +5520,7 @@
       </c>
       <c r="W12" s="40"/>
     </row>
-    <row r="13" spans="1:23" ht="13.2">
+    <row r="13" spans="1:23" ht="12.75">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -5550,7 +5537,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -5580,7 +5567,7 @@
       </c>
       <c r="W13" s="40"/>
     </row>
-    <row r="14" spans="1:23" ht="13.2">
+    <row r="14" spans="1:23" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -5594,7 +5581,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>355</v>
@@ -5614,7 +5601,7 @@
       <c r="V14" s="38"/>
       <c r="W14" s="40"/>
     </row>
-    <row r="15" spans="1:23" ht="13.2">
+    <row r="15" spans="1:23" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -5628,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>387</v>
@@ -5648,7 +5635,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="40"/>
     </row>
-    <row r="16" spans="1:23" ht="13.2">
+    <row r="16" spans="1:23" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -5662,7 +5649,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>388</v>
@@ -5682,7 +5669,7 @@
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
     </row>
-    <row r="17" spans="1:23" ht="13.2">
+    <row r="17" spans="1:23" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -5696,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -5718,7 +5705,7 @@
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
     </row>
-    <row r="18" spans="1:23" ht="13.2">
+    <row r="18" spans="1:23" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -5732,7 +5719,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -5750,7 +5737,7 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:23" ht="13.2">
+    <row r="19" spans="1:23" ht="12.75">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -5767,7 +5754,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -5783,7 +5770,7 @@
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
     </row>
-    <row r="20" spans="1:23" ht="13.2">
+    <row r="20" spans="1:23" ht="12.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -5795,7 +5782,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -5811,7 +5798,7 @@
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
     </row>
-    <row r="21" spans="1:23" ht="13.2">
+    <row r="21" spans="1:23" ht="12.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -5842,7 +5829,7 @@
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
     </row>
-    <row r="22" spans="1:23" ht="13.2">
+    <row r="22" spans="1:23" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -5854,7 +5841,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -5870,7 +5857,7 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="1:23" ht="13.2">
+    <row r="23" spans="1:23" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -5882,7 +5869,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
@@ -5907,7 +5894,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
     </row>
-    <row r="24" spans="1:23" ht="13.2">
+    <row r="24" spans="1:23" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -5947,7 +5934,7 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
     </row>
-    <row r="25" spans="1:23" ht="13.2">
+    <row r="25" spans="1:23" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -5987,7 +5974,7 @@
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
     </row>
-    <row r="26" spans="1:23" ht="13.2">
+    <row r="26" spans="1:23" ht="12.75">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -6001,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -6026,7 +6013,7 @@
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
     </row>
-    <row r="27" spans="1:23" ht="13.2">
+    <row r="27" spans="1:23" ht="12.75">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -6040,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H27">
         <v>300</v>
@@ -6065,7 +6052,7 @@
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
     </row>
-    <row r="28" spans="1:23" ht="13.2">
+    <row r="28" spans="1:23" ht="12.75">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -6098,7 +6085,7 @@
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
     </row>
-    <row r="29" spans="1:23" ht="13.2">
+    <row r="29" spans="1:23" ht="12.75">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -6129,7 +6116,7 @@
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
     </row>
-    <row r="30" spans="1:23" ht="13.2">
+    <row r="30" spans="1:23" ht="12.75">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -6143,7 +6130,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H30">
         <v>1200</v>
@@ -6163,7 +6150,7 @@
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
     </row>
-    <row r="31" spans="1:23" ht="13.2">
+    <row r="31" spans="1:23" ht="12.75">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -6186,7 +6173,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.2">
+    <row r="32" spans="1:23" ht="12.75">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -6200,7 +6187,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H32">
         <v>2200</v>
@@ -6209,7 +6196,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18" thickBot="1">
+    <row r="33" spans="1:24" ht="18.75" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -6220,13 +6207,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="18" thickBot="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="18.75" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -6237,7 +6224,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -6254,7 +6241,7 @@
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:24" ht="13.8" thickBot="1">
+    <row r="35" spans="1:24" ht="13.5" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -6265,16 +6252,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -6307,7 +6294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.2">
+    <row r="36" spans="1:24" ht="12.75">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -6318,7 +6305,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>130</v>
@@ -6331,40 +6318,40 @@
         <v>395</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="13.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="12.75">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -6375,7 +6362,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>465</v>
@@ -6389,40 +6376,40 @@
         <v>396</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="13.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="12.75">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -6433,7 +6420,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G38" t="s">
         <v>439</v>
@@ -6443,43 +6430,43 @@
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R38" s="84" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="13.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="12.75">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -6490,7 +6477,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>126</v>
@@ -6501,43 +6488,43 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R39" s="84" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U39" s="87" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W39" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="13.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="12.75">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6551,7 +6538,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G40" t="s">
         <v>436</v>
@@ -6560,41 +6547,41 @@
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="13.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="12.75">
       <c r="A41">
         <v>4</v>
       </c>
@@ -6608,7 +6595,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -6616,39 +6603,39 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="X41" s="55"/>
     </row>
-    <row r="42" spans="1:24" ht="13.2">
+    <row r="42" spans="1:24" ht="12.75">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6663,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -6673,39 +6660,39 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X42" s="55"/>
     </row>
-    <row r="43" spans="1:24" ht="13.2">
+    <row r="43" spans="1:24" ht="12.75">
       <c r="A43">
         <v>10</v>
       </c>
@@ -6719,46 +6706,46 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P43" s="57" t="s">
         <v>359</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="X43" s="55"/>
     </row>
-    <row r="44" spans="1:24" ht="13.2">
+    <row r="44" spans="1:24" ht="12.75">
       <c r="A44">
         <v>13</v>
       </c>
@@ -6772,46 +6759,46 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P44" s="57" t="s">
         <v>360</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X44" s="55"/>
     </row>
-    <row r="45" spans="1:24" ht="13.2">
+    <row r="45" spans="1:24" ht="12.75">
       <c r="A45">
         <v>16</v>
       </c>
@@ -6828,44 +6815,44 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P45" s="57" t="s">
         <v>366</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="X45" s="59"/>
     </row>
-    <row r="46" spans="1:24" ht="13.2">
+    <row r="46" spans="1:24" ht="12.75">
       <c r="A46">
         <v>19</v>
       </c>
@@ -6879,44 +6866,44 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P46" s="55" t="s">
         <v>367</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X46" s="55"/>
     </row>
-    <row r="47" spans="1:24" ht="13.2">
+    <row r="47" spans="1:24" ht="12.75">
       <c r="A47">
         <v>22</v>
       </c>
@@ -6930,44 +6917,44 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P47" s="55" t="s">
         <v>368</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="X47" s="55"/>
     </row>
-    <row r="48" spans="1:24" ht="13.2">
+    <row r="48" spans="1:24" ht="12.75">
       <c r="A48">
         <v>25</v>
       </c>
@@ -6981,42 +6968,42 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P48" s="57" t="s">
         <v>369</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="X48" s="55"/>
     </row>
-    <row r="49" spans="1:24" ht="13.2">
+    <row r="49" spans="1:24" ht="12.75">
       <c r="A49">
         <v>28</v>
       </c>
@@ -7030,42 +7017,42 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P49" s="57" t="s">
         <v>370</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X49" s="55"/>
     </row>
-    <row r="50" spans="1:24" ht="13.2">
+    <row r="50" spans="1:24" ht="12.75">
       <c r="A50">
         <v>31</v>
       </c>
@@ -7079,42 +7066,42 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P50" s="57" t="s">
         <v>371</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="X50" s="55"/>
     </row>
-    <row r="51" spans="1:24" ht="13.2">
+    <row r="51" spans="1:24" ht="12.75">
       <c r="A51">
         <v>34</v>
       </c>
@@ -7128,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
@@ -7146,21 +7133,21 @@
         <v>372</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="X51" s="55"/>
     </row>
-    <row r="52" spans="1:24" ht="13.2">
+    <row r="52" spans="1:24" ht="12.75">
       <c r="A52">
         <v>37</v>
       </c>
@@ -7174,7 +7161,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>6</v>
@@ -7207,21 +7194,21 @@
         <v>373</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="X52" s="55"/>
     </row>
-    <row r="53" spans="1:24" ht="13.2">
+    <row r="53" spans="1:24" ht="12.75">
       <c r="A53">
         <v>40</v>
       </c>
@@ -7235,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>6</v>
@@ -7250,7 +7237,7 @@
         <v>429</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O53" s="64" t="s">
         <v>464</v>
@@ -7259,21 +7246,21 @@
         <v>374</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X53" s="55"/>
     </row>
-    <row r="54" spans="1:24" ht="13.2">
+    <row r="54" spans="1:24" ht="12.75">
       <c r="A54">
         <v>43</v>
       </c>
@@ -7287,7 +7274,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>6</v>
@@ -7299,7 +7286,7 @@
         <v>429</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O54" s="64" t="s">
         <v>464</v>
@@ -7308,21 +7295,21 @@
         <v>375</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="X54" s="55"/>
     </row>
-    <row r="55" spans="1:24" ht="13.2">
+    <row r="55" spans="1:24" ht="12.75">
       <c r="A55">
         <v>46</v>
       </c>
@@ -7336,7 +7323,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
@@ -7357,30 +7344,30 @@
         <v>429</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P55" s="57" t="s">
         <v>380</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="X55" s="55"/>
     </row>
-    <row r="56" spans="1:24" ht="13.2">
+    <row r="56" spans="1:24" ht="12.75">
       <c r="A56">
         <v>49</v>
       </c>
@@ -7394,7 +7381,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>6</v>
@@ -7406,30 +7393,30 @@
         <v>429</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P56" s="55" t="s">
         <v>392</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="X56" s="55"/>
     </row>
-    <row r="57" spans="1:24" ht="13.2">
+    <row r="57" spans="1:24" ht="12.75">
       <c r="A57">
         <v>52</v>
       </c>
@@ -7458,30 +7445,30 @@
         <v>429</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P57" s="55" t="s">
         <v>393</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X57" s="55"/>
     </row>
-    <row r="58" spans="1:24" ht="13.2">
+    <row r="58" spans="1:24" ht="12.75">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7495,7 +7482,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>6</v>
@@ -7507,14 +7494,14 @@
         <v>429</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -7522,11 +7509,11 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="X58" s="55"/>
     </row>
-    <row r="59" spans="1:24" ht="13.2">
+    <row r="59" spans="1:24" ht="12.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7540,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>9</v>
@@ -7555,14 +7542,14 @@
         <v>429</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -7570,11 +7557,11 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X59" s="55"/>
     </row>
-    <row r="60" spans="1:24" ht="13.2">
+    <row r="60" spans="1:24" ht="12.75">
       <c r="A60">
         <v>61</v>
       </c>
@@ -7589,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
@@ -7598,14 +7585,14 @@
         <v>429</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -7613,11 +7600,11 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X60" s="55"/>
     </row>
-    <row r="61" spans="1:24" ht="13.2">
+    <row r="61" spans="1:24" ht="12.75">
       <c r="A61">
         <v>64</v>
       </c>
@@ -7631,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -7643,14 +7630,14 @@
         <v>429</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -7658,11 +7645,11 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="X61" s="55"/>
     </row>
-    <row r="62" spans="1:24" ht="13.2">
+    <row r="62" spans="1:24" ht="12.75">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -7676,23 +7663,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -7700,11 +7687,11 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="X62" s="55"/>
     </row>
-    <row r="63" spans="1:24" ht="13.2">
+    <row r="63" spans="1:24" ht="12.75">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -7721,17 +7708,17 @@
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -7739,11 +7726,11 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X63" s="55"/>
     </row>
-    <row r="64" spans="1:24" ht="13.2">
+    <row r="64" spans="1:24" ht="12.75">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -7754,7 +7741,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
@@ -7763,14 +7750,14 @@
         <v>463</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -7780,7 +7767,7 @@
       <c r="W64" s="55"/>
       <c r="X64" s="55"/>
     </row>
-    <row r="65" spans="2:24" ht="13.2">
+    <row r="65" spans="2:24" ht="12.75">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -7791,23 +7778,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -7817,7 +7804,7 @@
       <c r="W65" s="55"/>
       <c r="X65" s="55"/>
     </row>
-    <row r="66" spans="2:24" ht="13.2">
+    <row r="66" spans="2:24" ht="12.75">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -7828,23 +7815,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N66" s="63" t="s">
         <v>388</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -7854,7 +7841,7 @@
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
     </row>
-    <row r="67" spans="2:24" ht="13.2">
+    <row r="67" spans="2:24" ht="12.75">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -7865,23 +7852,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N67" s="63" t="s">
         <v>388</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -7891,7 +7878,7 @@
       <c r="W67" s="55"/>
       <c r="X67" s="55"/>
     </row>
-    <row r="68" spans="2:24" ht="13.2">
+    <row r="68" spans="2:24" ht="12.75">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -7902,23 +7889,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N68" s="63" t="s">
         <v>387</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -7928,7 +7915,7 @@
       <c r="W68" s="55"/>
       <c r="X68" s="55"/>
     </row>
-    <row r="69" spans="2:24" ht="13.2">
+    <row r="69" spans="2:24" ht="12.75">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -7939,7 +7926,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
@@ -7951,7 +7938,7 @@
         <v>387</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -7963,7 +7950,7 @@
       <c r="W69" s="55"/>
       <c r="X69" s="55"/>
     </row>
-    <row r="70" spans="2:24" ht="13.2">
+    <row r="70" spans="2:24" ht="12.75">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -7977,7 +7964,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
@@ -7986,10 +7973,10 @@
         <v>388</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -8001,7 +7988,7 @@
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
     </row>
-    <row r="71" spans="2:24" ht="13.2">
+    <row r="71" spans="2:24" ht="12.75">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -8012,7 +7999,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
@@ -8021,7 +8008,7 @@
         <v>387</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -8034,7 +8021,7 @@
       <c r="W71" s="55"/>
       <c r="X71" s="55"/>
     </row>
-    <row r="72" spans="2:24" ht="13.2">
+    <row r="72" spans="2:24" ht="12.75">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -8045,7 +8032,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
@@ -8054,7 +8041,7 @@
         <v>387</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -8067,7 +8054,7 @@
       <c r="W72" s="55"/>
       <c r="X72" s="55"/>
     </row>
-    <row r="73" spans="2:24" ht="13.2">
+    <row r="73" spans="2:24" ht="12.75">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -8078,7 +8065,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
@@ -8087,7 +8074,7 @@
         <v>387</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -8100,7 +8087,7 @@
       <c r="W73" s="55"/>
       <c r="X73" s="55"/>
     </row>
-    <row r="74" spans="2:24" ht="13.2">
+    <row r="74" spans="2:24" ht="12.75">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -8117,10 +8104,10 @@
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -8133,7 +8120,7 @@
       <c r="W74" s="55"/>
       <c r="X74" s="55"/>
     </row>
-    <row r="75" spans="2:24" ht="13.2">
+    <row r="75" spans="2:24" ht="12.75">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -8144,16 +8131,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -8166,7 +8153,7 @@
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
     </row>
-    <row r="76" spans="2:24" ht="13.2">
+    <row r="76" spans="2:24" ht="12.75">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -8177,16 +8164,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -8199,7 +8186,7 @@
       <c r="W76" s="55"/>
       <c r="X76" s="55"/>
     </row>
-    <row r="77" spans="2:24" ht="13.2">
+    <row r="77" spans="2:24" ht="12.75">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -8210,16 +8197,16 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -8232,7 +8219,7 @@
       <c r="W77" s="55"/>
       <c r="X77" s="55"/>
     </row>
-    <row r="78" spans="2:24" ht="13.2">
+    <row r="78" spans="2:24" ht="12.75">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -8244,16 +8231,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -8266,7 +8253,7 @@
       <c r="W78" s="55"/>
       <c r="X78" s="55"/>
     </row>
-    <row r="79" spans="2:24" ht="13.2">
+    <row r="79" spans="2:24" ht="12.75">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -8277,16 +8264,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -8299,7 +8286,7 @@
       <c r="W79" s="55"/>
       <c r="X79" s="55"/>
     </row>
-    <row r="80" spans="2:24" ht="13.2">
+    <row r="80" spans="2:24" ht="12.75">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -8310,16 +8297,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -8332,7 +8319,7 @@
       <c r="W80" s="55"/>
       <c r="X80" s="55"/>
     </row>
-    <row r="81" spans="2:24" ht="13.2">
+    <row r="81" spans="2:24" ht="12.75">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -8343,14 +8330,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -8363,7 +8350,7 @@
       <c r="W81" s="55"/>
       <c r="X81" s="55"/>
     </row>
-    <row r="82" spans="2:24" ht="13.2">
+    <row r="82" spans="2:24" ht="12.75">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -8374,14 +8361,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -8394,7 +8381,7 @@
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
     </row>
-    <row r="83" spans="2:24" ht="13.2">
+    <row r="83" spans="2:24" ht="12.75">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -8408,14 +8395,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -8428,7 +8415,7 @@
       <c r="W83" s="55"/>
       <c r="X83" s="55"/>
     </row>
-    <row r="84" spans="2:24" ht="13.2">
+    <row r="84" spans="2:24" ht="12.75">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -8439,14 +8426,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -8459,7 +8446,7 @@
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
     </row>
-    <row r="85" spans="2:24" ht="13.2">
+    <row r="85" spans="2:24" ht="12.75">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -8470,14 +8457,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -8490,7 +8477,7 @@
       <c r="W85" s="55"/>
       <c r="X85" s="55"/>
     </row>
-    <row r="86" spans="2:24" ht="13.2">
+    <row r="86" spans="2:24" ht="12.75">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -8501,14 +8488,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -8521,7 +8508,7 @@
       <c r="W86" s="55"/>
       <c r="X86" s="55"/>
     </row>
-    <row r="87" spans="2:24" ht="13.2">
+    <row r="87" spans="2:24" ht="12.75">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -8532,7 +8519,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -8571,7 +8558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:24" ht="13.2">
+    <row r="88" spans="2:24" ht="12.75">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -8582,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -8603,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:24" ht="13.2">
+    <row r="89" spans="2:24" ht="12.75">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -8614,13 +8601,13 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T89" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="90" spans="2:24" ht="13.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" ht="12.75">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -8631,10 +8618,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -8650,7 +8637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="2:24" ht="13.2">
+    <row r="91" spans="2:24" ht="12.75">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -8661,10 +8648,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -8680,7 +8667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:24" ht="13.2">
+    <row r="92" spans="2:24" ht="12.75">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -8691,10 +8678,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -8710,7 +8697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:24" ht="13.2">
+    <row r="93" spans="2:24" ht="12.75">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -8721,10 +8708,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -8740,7 +8727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:24" ht="13.2">
+    <row r="94" spans="2:24" ht="12.75">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -8754,10 +8741,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -8773,7 +8760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:24" ht="13.2">
+    <row r="95" spans="2:24" ht="12.75">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -8784,10 +8771,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -8803,7 +8790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:24" ht="13.2">
+    <row r="96" spans="2:24" ht="12.75">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -8815,10 +8802,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -8834,7 +8821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="13.2">
+    <row r="97" spans="2:24" ht="12.75">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -8845,10 +8832,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -8864,7 +8851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="13.2">
+    <row r="98" spans="2:24" ht="12.75">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -8875,10 +8862,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -8894,7 +8881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="13.2">
+    <row r="99" spans="2:24" ht="12.75">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -8905,10 +8892,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -8924,7 +8911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="13.2">
+    <row r="100" spans="2:24" ht="12.75">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -8935,10 +8922,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -8954,7 +8941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="13.2">
+    <row r="101" spans="2:24" ht="12.75">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -8965,10 +8952,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -8984,7 +8971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="13.2">
+    <row r="102" spans="2:24" ht="12.75">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -8995,10 +8982,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -9014,7 +9001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="13.2">
+    <row r="103" spans="2:24" ht="12.75">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -9025,11 +9012,11 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T103" s="45"/>
     </row>
-    <row r="104" spans="2:24" ht="13.2">
+    <row r="104" spans="2:24" ht="12.75">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -9040,10 +9027,10 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="105" spans="2:24" ht="13.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" ht="12.75">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -9054,10 +9041,10 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="106" spans="2:24" ht="13.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" ht="12.75">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -9071,7 +9058,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="2:24" ht="13.2">
+    <row r="107" spans="2:24" ht="12.75">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -9082,10 +9069,10 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" ht="13.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" ht="12.75">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -9099,10 +9086,10 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="109" spans="2:24" ht="13.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" ht="12.75">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -9113,7 +9100,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -9128,7 +9115,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="13.2">
+    <row r="110" spans="2:24" ht="12.75">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -9139,10 +9126,10 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="111" spans="2:24" ht="13.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" ht="12.75">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -9153,10 +9140,10 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="112" spans="2:24" ht="13.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" ht="12.75">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -9167,17 +9154,17 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="113" spans="2:24" ht="13.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" ht="12.75">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -9188,7 +9175,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -9207,7 +9194,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -9223,7 +9210,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:24" ht="13.2">
+    <row r="114" spans="2:24" ht="12.75">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -9235,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -9250,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -9266,7 +9253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:24" ht="13.2">
+    <row r="115" spans="2:24" ht="12.75">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -9277,7 +9264,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -9292,7 +9279,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -9308,7 +9295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:24" ht="13.2">
+    <row r="116" spans="2:24" ht="12.75">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -9319,7 +9306,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -9334,7 +9321,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -9350,7 +9337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:24" ht="13.2">
+    <row r="117" spans="2:24" ht="12.75">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -9361,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -9383,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:24" ht="13.2">
+    <row r="118" spans="2:24" ht="12.75">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -9394,7 +9381,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -9415,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" ht="13.2">
+    <row r="119" spans="2:24" ht="12.75">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -9426,7 +9413,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -9449,7 +9436,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="2:24" ht="13.2">
+    <row r="120" spans="2:24" ht="12.75">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -9460,7 +9447,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -9474,7 +9461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="2:24" ht="13.2">
+    <row r="121" spans="2:24" ht="12.75">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -9485,7 +9472,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -9499,7 +9486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="2:24" ht="13.2">
+    <row r="122" spans="2:24" ht="12.75">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -9510,7 +9497,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -9524,7 +9511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="13.2">
+    <row r="123" spans="2:24" ht="12.75">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -9535,7 +9522,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -9549,7 +9536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="2:24" ht="13.2">
+    <row r="124" spans="2:24" ht="12.75">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -9560,7 +9547,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -9574,7 +9561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="2:24" ht="13.2">
+    <row r="125" spans="2:24" ht="12.75">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -9585,7 +9572,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -9599,7 +9586,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="2:24" ht="13.2">
+    <row r="126" spans="2:24" ht="12.75">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -9624,7 +9611,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:24" ht="13.2">
+    <row r="127" spans="2:24" ht="12.75">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -9635,7 +9622,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -9649,7 +9636,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="2:24" ht="13.2">
+    <row r="128" spans="2:24" ht="12.75">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -9660,7 +9647,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -9674,7 +9661,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="13.2">
+    <row r="129" spans="2:15" ht="12.75">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -9688,7 +9675,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -9702,7 +9689,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="13.2">
+    <row r="130" spans="2:15" ht="12.75">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -9713,7 +9700,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -9727,7 +9714,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="13.2">
+    <row r="131" spans="2:15" ht="12.75">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -9738,7 +9725,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -9752,7 +9739,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="13.2">
+    <row r="132" spans="2:15" ht="12.75">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -9764,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L132" s="45" t="s">
         <v>399</v>
@@ -9781,7 +9768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="13.2">
+    <row r="133" spans="2:15" ht="12.75">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -9792,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L133" t="s">
         <v>402</v>
@@ -9809,7 +9796,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="13.2">
+    <row r="134" spans="2:15" ht="12.75">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -9820,7 +9807,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L134" s="45" t="s">
         <v>401</v>
@@ -9837,7 +9824,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="13.2">
+    <row r="135" spans="2:15" ht="12.75">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -9848,7 +9835,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -9862,7 +9849,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="13.2">
+    <row r="136" spans="2:15" ht="12.75">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -9873,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L136" t="s">
         <v>404</v>
@@ -9890,7 +9877,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="13.2">
+    <row r="137" spans="2:15" ht="12.75">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -9901,7 +9888,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -9915,7 +9902,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="13.2">
+    <row r="138" spans="2:15" ht="12.75">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -9926,7 +9913,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -9940,7 +9927,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="13.2">
+    <row r="139" spans="2:15" ht="12.75">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -9951,7 +9938,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -9965,7 +9952,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="13.2">
+    <row r="140" spans="2:15" ht="12.75">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -9976,7 +9963,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -9990,7 +9977,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="13.2">
+    <row r="141" spans="2:15" ht="12.75">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -10001,7 +9988,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -10015,7 +10002,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="13.2">
+    <row r="142" spans="2:15" ht="12.75">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -10026,7 +10013,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -10040,7 +10027,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="13.2">
+    <row r="143" spans="2:15" ht="12.75">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -10051,7 +10038,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -10065,7 +10052,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="13.2">
+    <row r="144" spans="2:15" ht="12.75">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -10076,7 +10063,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -10090,7 +10077,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="13.2">
+    <row r="145" spans="2:15" ht="12.75">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -10101,7 +10088,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -10115,7 +10102,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="13.2">
+    <row r="146" spans="2:15" ht="12.75">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -10126,7 +10113,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -10140,7 +10127,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="13.2">
+    <row r="147" spans="2:15" ht="12.75">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -10151,7 +10138,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -10165,7 +10152,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="13.2">
+    <row r="148" spans="2:15" ht="12.75">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -10176,7 +10163,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -10190,7 +10177,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="13.2">
+    <row r="149" spans="2:15" ht="12.75">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -10204,7 +10191,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -10218,7 +10205,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="13.2">
+    <row r="150" spans="2:15" ht="12.75">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -10230,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -10244,7 +10231,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="13.2">
+    <row r="151" spans="2:15" ht="12.75">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -10255,7 +10242,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -10269,7 +10256,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="13.2">
+    <row r="152" spans="2:15" ht="12.75">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -10280,7 +10267,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -10294,7 +10281,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="13.2">
+    <row r="153" spans="2:15" ht="12.75">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -10308,7 +10295,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -10322,7 +10309,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="13.2">
+    <row r="154" spans="2:15" ht="12.75">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -10333,7 +10320,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -10347,7 +10334,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="13.2">
+    <row r="155" spans="2:15" ht="12.75">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -10375,7 +10362,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="13.2">
+    <row r="156" spans="2:15" ht="12.75">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -10386,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -10400,7 +10387,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="13.2">
+    <row r="157" spans="2:15" ht="12.75">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -10411,7 +10398,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -10425,7 +10412,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="13.2">
+    <row r="158" spans="2:15" ht="12.75">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -10436,7 +10423,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -10450,7 +10437,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="13.2">
+    <row r="159" spans="2:15" ht="12.75">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -10475,7 +10462,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="13.2">
+    <row r="160" spans="2:15" ht="12.75">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -10486,7 +10473,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -10500,7 +10487,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="13.2">
+    <row r="161" spans="2:15" ht="12.75">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -10511,7 +10498,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -10525,7 +10512,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="162" spans="2:15" ht="13.2">
+    <row r="162" spans="2:15" ht="12.75">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -10536,7 +10523,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -10550,7 +10537,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="163" spans="2:15" ht="13.2">
+    <row r="163" spans="2:15" ht="12.75">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -10561,7 +10548,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -10575,7 +10562,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="164" spans="2:15" ht="13.2">
+    <row r="164" spans="2:15" ht="12.75">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -10586,7 +10573,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -10600,7 +10587,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="165" spans="2:15" ht="13.2">
+    <row r="165" spans="2:15" ht="12.75">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -10611,7 +10598,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -10625,7 +10612,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="166" spans="2:15" ht="13.2">
+    <row r="166" spans="2:15" ht="12.75">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -10650,7 +10637,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="167" spans="2:15" ht="13.2">
+    <row r="167" spans="2:15" ht="12.75">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -10661,7 +10648,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -10675,7 +10662,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="168" spans="2:15" ht="13.2">
+    <row r="168" spans="2:15" ht="12.75">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -10687,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -10701,7 +10688,7 @@
         <v>8178</v>
       </c>
     </row>
-    <row r="169" spans="2:15" ht="13.2">
+    <row r="169" spans="2:15" ht="12.75">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -10712,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -10726,7 +10713,7 @@
         <v>9047</v>
       </c>
     </row>
-    <row r="170" spans="2:15" ht="13.2">
+    <row r="170" spans="2:15" ht="12.75">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -10737,7 +10724,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -10751,7 +10738,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="171" spans="2:15" ht="13.2">
+    <row r="171" spans="2:15" ht="12.75">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -10762,7 +10749,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -10776,7 +10763,7 @@
         <v>11149</v>
       </c>
     </row>
-    <row r="172" spans="2:15" ht="13.2">
+    <row r="172" spans="2:15" ht="12.75">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -10787,7 +10774,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -10801,7 +10788,7 @@
         <v>12418</v>
       </c>
     </row>
-    <row r="173" spans="2:15" ht="13.2">
+    <row r="173" spans="2:15" ht="12.75">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -10812,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -10837,7 +10824,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -10862,7 +10849,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -10887,7 +10874,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -10912,7 +10899,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -10962,7 +10949,7 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -10990,7 +10977,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -11015,7 +11002,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -11040,7 +11027,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -11065,7 +11052,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -11118,7 +11105,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -11144,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -11172,7 +11159,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -11197,7 +11184,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -11222,7 +11209,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -11272,7 +11259,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -11297,7 +11284,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -11322,7 +11309,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -11347,7 +11334,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -11372,7 +11359,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -11397,7 +11384,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -11422,7 +11409,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -11475,7 +11462,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -11500,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -11525,7 +11512,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -11550,7 +11537,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -11575,7 +11562,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -11601,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -11626,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -11651,7 +11638,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -11676,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -11701,7 +11688,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -11726,7 +11713,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -11754,7 +11741,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -11779,7 +11766,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -11804,7 +11791,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -11829,7 +11816,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -11854,7 +11841,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -11879,7 +11866,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -11904,7 +11891,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -11929,7 +11916,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -11982,7 +11969,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -12007,7 +11994,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -12032,7 +12019,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -12060,7 +12047,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -12085,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -12110,7 +12097,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -12135,7 +12122,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -12160,7 +12147,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -12185,7 +12172,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -12238,7 +12225,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -12263,7 +12250,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -12288,7 +12275,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -12313,7 +12300,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -12363,7 +12350,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -12388,7 +12375,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -12413,7 +12400,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -12438,7 +12425,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -12463,7 +12450,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -12488,7 +12475,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -12517,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -12545,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -12573,7 +12560,7 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H242" t="s">
         <v>441</v>
@@ -12601,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H243" t="s">
         <v>442</v>
@@ -12629,7 +12616,7 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H244" t="s">
         <v>455</v>
@@ -12660,7 +12647,7 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H245" t="s">
         <v>454</v>
@@ -12688,7 +12675,7 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H246" t="s">
         <v>453</v>
@@ -12744,7 +12731,7 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H248" t="s">
         <v>451</v>
@@ -12772,7 +12759,7 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H249" t="s">
         <v>450</v>
@@ -12837,7 +12824,7 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H251" t="s">
         <v>448</v>
@@ -12868,7 +12855,7 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H252" t="s">
         <v>447</v>
@@ -12899,7 +12886,7 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H253" t="s">
         <v>446</v>
@@ -12927,7 +12914,7 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H254" t="s">
         <v>445</v>
@@ -12955,7 +12942,7 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H255" t="s">
         <v>444</v>
@@ -12983,7 +12970,7 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H256" t="s">
         <v>443</v>
@@ -13011,7 +12998,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -13037,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -13065,7 +13052,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -13096,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H260" t="s">
         <v>440</v>
@@ -13124,7 +13111,7 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H261" t="s">
         <v>441</v>
@@ -13152,7 +13139,7 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H262" t="s">
         <v>442</v>
@@ -13180,7 +13167,7 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H263" t="s">
         <v>455</v>
@@ -13197,7 +13184,7 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H264" t="s">
         <v>454</v>
@@ -13214,7 +13201,7 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H265" t="s">
         <v>453</v>
@@ -13231,7 +13218,7 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H266" t="s">
         <v>452</v>
@@ -13248,7 +13235,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H267" t="s">
         <v>451</v>
@@ -13282,7 +13269,7 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H269" t="s">
         <v>449</v>
@@ -13299,7 +13286,7 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H270" t="s">
         <v>448</v>
@@ -13353,7 +13340,7 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H273" t="s">
         <v>445</v>
@@ -13370,7 +13357,7 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H274" t="s">
         <v>444</v>
@@ -13387,7 +13374,7 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H275" t="s">
         <v>443</v>
@@ -13399,7 +13386,7 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13418,22 +13405,22 @@
   </sheetPr>
   <dimension ref="C2:J76"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="13.2">
+    <row r="2" spans="3:10" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="13.2">
+    <row r="4" spans="3:10" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -13459,7 +13446,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="13.2">
+    <row r="5" spans="3:10" ht="12.75">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -13479,7 +13466,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="13.2">
+    <row r="6" spans="3:10" ht="12.75">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -13493,7 +13480,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="13.2">
+    <row r="7" spans="3:10" ht="12.75">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -13504,10 +13491,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="13.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="12.75">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -13521,7 +13508,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="13.2">
+    <row r="9" spans="3:10" ht="12.75">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -13532,10 +13519,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="13.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="12.75">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -13546,10 +13533,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="13.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="12.75">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -13560,10 +13547,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="13.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="12.75">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -13574,10 +13561,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="13.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="12.75">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -13591,7 +13578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="13.2">
+    <row r="14" spans="3:10" ht="12.75">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -13605,7 +13592,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="13.2">
+    <row r="15" spans="3:10" ht="12.75">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -13616,10 +13603,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="13.2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="12.75">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -13630,10 +13617,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="13.2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="12.75">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -13644,10 +13631,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="13.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="12.75">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -13661,7 +13648,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="13.2">
+    <row r="19" spans="3:9" ht="12.75">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -13672,10 +13659,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="13.2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="12.75">
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -13686,10 +13673,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="13.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="12.75">
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -13703,7 +13690,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="13.2">
+    <row r="22" spans="3:9" ht="12.75">
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -13714,10 +13701,10 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="13.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="12.75">
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -13728,10 +13715,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="13.2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="12.75">
       <c r="C24" s="1">
         <v>20</v>
       </c>
@@ -13742,10 +13729,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="13.2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="12.75">
       <c r="C25" s="1">
         <v>21</v>
       </c>
@@ -13756,10 +13743,10 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="13.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="12.75">
       <c r="C26" s="1">
         <v>22</v>
       </c>
@@ -13770,10 +13757,10 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="13.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="12.75">
       <c r="C27" s="1">
         <v>23</v>
       </c>
@@ -13787,7 +13774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="13.2">
+    <row r="28" spans="3:9" ht="12.75">
       <c r="C28" s="1">
         <v>24</v>
       </c>
@@ -13798,10 +13785,10 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="13.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="12.75">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -13812,10 +13799,10 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="13.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="12.75">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -13826,10 +13813,10 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="13.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="12.75">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -13843,7 +13830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="13.2">
+    <row r="32" spans="3:9" ht="12.75">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -13858,7 +13845,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="3:9" ht="13.2">
+    <row r="33" spans="3:9" ht="12.75">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -13869,11 +13856,11 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="3:9" ht="13.2">
+    <row r="34" spans="3:9" ht="12.75">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -13888,7 +13875,7 @@
       </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="3:9" ht="13.2">
+    <row r="35" spans="3:9" ht="12.75">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -13903,7 +13890,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="3:9" ht="13.2">
+    <row r="36" spans="3:9" ht="12.75">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -13920,7 +13907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="13.2">
+    <row r="37" spans="3:9" ht="12.75">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -13931,13 +13918,13 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="13.2">
+    <row r="38" spans="3:9" ht="12.75">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -13954,7 +13941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="13.2">
+    <row r="39" spans="3:9" ht="12.75">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -13971,7 +13958,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="13.2">
+    <row r="40" spans="3:9" ht="12.75">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -13982,13 +13969,13 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="13.2">
+    <row r="41" spans="3:9" ht="12.75">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -14005,7 +13992,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="13.2">
+    <row r="42" spans="3:9" ht="12.75">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -14016,13 +14003,13 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="13.2">
+    <row r="43" spans="3:9" ht="12.75">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -14039,7 +14026,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="13.2">
+    <row r="44" spans="3:9" ht="12.75">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -14056,7 +14043,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="13.2">
+    <row r="45" spans="3:9" ht="12.75">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -14073,7 +14060,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="13.2">
+    <row r="46" spans="3:9" ht="12.75">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -14090,7 +14077,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="13.2">
+    <row r="47" spans="3:9" ht="12.75">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -14101,13 +14088,13 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I47" s="35" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="13.2">
+    <row r="48" spans="3:9" ht="12.75">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -14118,13 +14105,13 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="13.2">
+    <row r="49" spans="3:9" ht="12.75">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -14141,7 +14128,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="13.2">
+    <row r="50" spans="3:9" ht="12.75">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -14158,7 +14145,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="13.2">
+    <row r="51" spans="3:9" ht="12.75">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -14169,13 +14156,13 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="13.2">
+    <row r="52" spans="3:9" ht="12.75">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -14192,7 +14179,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="13.2">
+    <row r="53" spans="3:9" ht="12.75">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -14203,13 +14190,13 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I53" s="40" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="13.2">
+    <row r="54" spans="3:9" ht="12.75">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -14220,10 +14207,10 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" ht="13.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="12.75">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -14237,7 +14224,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="13.2">
+    <row r="56" spans="3:9" ht="12.75">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -14251,7 +14238,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="13.2">
+    <row r="57" spans="3:9" ht="12.75">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -14262,10 +14249,10 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" ht="13.2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="12.75">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -14279,7 +14266,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="13.2">
+    <row r="59" spans="3:9" ht="12.75">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -14293,7 +14280,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="13.2">
+    <row r="60" spans="3:9" ht="12.75">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -14307,7 +14294,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="13.2">
+    <row r="61" spans="3:9" ht="12.75">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -14318,10 +14305,10 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" ht="13.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="12.75">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -14332,7 +14319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="13.2">
+    <row r="63" spans="3:9" ht="12.75">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -14343,7 +14330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="13.2">
+    <row r="64" spans="3:9" ht="12.75">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -14354,7 +14341,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="13.2">
+    <row r="65" spans="3:6" ht="12.75">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -14395,7 +14382,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -14414,10 +14401,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
+        <v>801</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -14428,7 +14415,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -14439,7 +14426,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -14450,7 +14437,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -14461,7 +14448,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -14472,12 +14459,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -14496,10 +14483,10 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9">
@@ -14946,14 +14933,14 @@
   </sheetPr>
   <dimension ref="C4:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -14983,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -14994,7 +14981,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -15005,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -15016,7 +15003,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G10" s="1">
         <v>14</v>
@@ -15027,7 +15014,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -15049,7 +15036,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G13" s="1">
         <v>220</v>
@@ -15060,7 +15047,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G14" s="1">
         <v>444</v>
@@ -15071,7 +15058,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -15082,7 +15069,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G16" s="1">
         <v>700</v>
@@ -15093,7 +15080,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G17" s="1">
         <v>1200</v>
@@ -15104,7 +15091,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G18" s="1">
         <v>3000</v>
@@ -15115,7 +15102,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G19" s="1">
         <v>5000</v>
@@ -15126,7 +15113,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>210</v>
@@ -15137,7 +15124,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>211</v>
@@ -15148,7 +15135,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>212</v>
@@ -15159,7 +15146,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>213</v>
@@ -15170,7 +15157,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>214</v>
@@ -15181,7 +15168,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>215</v>
@@ -15192,7 +15179,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>216</v>
@@ -15203,7 +15190,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>217</v>
@@ -15214,7 +15201,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>218</v>
@@ -15225,7 +15212,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>219</v>
@@ -15236,7 +15223,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>208</v>
@@ -15247,7 +15234,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>220</v>
@@ -15258,7 +15245,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>221</v>
@@ -15269,7 +15256,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>222</v>
@@ -15280,7 +15267,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>223</v>
@@ -15291,7 +15278,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -15302,7 +15289,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>225</v>
@@ -15324,10 +15311,10 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="69.88671875" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
@@ -15352,7 +15339,7 @@
         <v>228</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -15363,10 +15350,10 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -15409,10 +15396,10 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -16258,11 +16245,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A49CF-CB1E-4CC1-B6D9-747CC55AF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F1CE1-4ADD-42D7-B854-012B13125E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4955,8 +4955,8 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F274" sqref="F274"/>
+    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13405,8 +13405,8 @@
   </sheetPr>
   <dimension ref="C2:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14933,8 +14933,8 @@
   </sheetPr>
   <dimension ref="C4:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F1CE1-4ADD-42D7-B854-012B13125E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F1F21-99A9-4E55-A60B-9B777E57EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="832">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -2506,6 +2506,33 @@
   </si>
   <si>
     <t>Fish rarer fish 2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood per click add 1% wps </t>
+  </si>
+  <si>
+    <t>per achiv -0.2% WC price</t>
+  </si>
+  <si>
+    <t>All production +0.3%</t>
+  </si>
+  <si>
+    <t>0.09% wps per achievement</t>
+  </si>
+  <si>
+    <t>0.11% wps per achievement</t>
+  </si>
+  <si>
+    <t>Increase WPS based on WPC 1.5%</t>
+  </si>
+  <si>
+    <t>0.18% wps per achievement</t>
+  </si>
+  <si>
+    <t>WC cheaper on amount of achiv 0.07%</t>
+  </si>
+  <si>
+    <t>Wpc 0.2% per achievement</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2874,6 +2901,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -3118,7 +3151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3249,6 +3282,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4955,8 +4989,8 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L262" sqref="L262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5719,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>594</v>
+        <v>823</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -6866,7 +6900,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>575</v>
+        <v>824</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
@@ -9086,7 +9120,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="12.75">
@@ -9381,7 +9415,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>655</v>
+        <v>825</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -9522,7 +9556,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -9597,7 +9631,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>388</v>
+        <v>826</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -10448,7 +10482,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>388</v>
+        <v>827</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -10573,7 +10607,10 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>652</v>
+        <v>616</v>
+      </c>
+      <c r="G164" t="s">
+        <v>616</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -10623,7 +10660,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>403</v>
+        <v>828</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -10924,7 +10961,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>388</v>
+        <v>829</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -11027,7 +11064,10 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>616</v>
+        <v>652</v>
+      </c>
+      <c r="G182" t="s">
+        <v>652</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -11105,7 +11145,10 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>732</v>
+        <v>699</v>
+      </c>
+      <c r="G185" t="s">
+        <v>699</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -11384,7 +11427,10 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>699</v>
+        <v>732</v>
+      </c>
+      <c r="G196" t="s">
+        <v>732</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -11866,7 +11912,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>594</v>
+        <v>830</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -11993,8 +12039,11 @@
       <c r="E220" s="1">
         <v>17</v>
       </c>
-      <c r="F220" s="74" t="s">
-        <v>638</v>
+      <c r="F220" s="114" t="s">
+        <v>831</v>
+      </c>
+      <c r="G220" t="s">
+        <v>388</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -12147,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -12703,7 +12752,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>388</v>
+        <v>577</v>
+      </c>
+      <c r="G247" t="s">
+        <v>577</v>
       </c>
       <c r="H247" t="s">
         <v>452</v>
@@ -14933,7 +14985,7 @@
   </sheetPr>
   <dimension ref="C4:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F1F21-99A9-4E55-A60B-9B777E57EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6394049A-364D-4B32-A359-5C06CED42297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="839">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -2490,9 +2490,6 @@
     <t>upgrade click beaver</t>
   </si>
   <si>
-    <t>2+ beavers from woodcamps</t>
-  </si>
-  <si>
     <t>wood per second 2% increase per level</t>
   </si>
   <si>
@@ -2533,6 +2530,30 @@
   </si>
   <si>
     <t>Wpc 0.2% per achievement</t>
+  </si>
+  <si>
+    <t>change bot better sell price to better wood price</t>
+  </si>
+  <si>
+    <t>Better wood price 0.5%</t>
+  </si>
+  <si>
+    <t>Better wood price 0.3%</t>
+  </si>
+  <si>
+    <t>Better wood price 2.6%</t>
+  </si>
+  <si>
+    <t>FoS better all wood sell 0.02%</t>
+  </si>
+  <si>
+    <t>FoS better all wood sell 0.05%</t>
+  </si>
+  <si>
+    <t>Better wood price 3.1%</t>
+  </si>
+  <si>
+    <t>1+ beavers from woodcamps</t>
   </si>
 </sst>
 </file>
@@ -3275,6 +3296,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,7 +3304,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4989,8 +5010,8 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L262" sqref="L262"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5092,19 +5113,19 @@
       <c r="K5" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
@@ -5458,7 +5479,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="H11">
         <v>750</v>
@@ -5753,7 +5774,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -5790,6 +5811,9 @@
       <c r="F19" s="74" t="s">
         <v>622</v>
       </c>
+      <c r="G19" t="s">
+        <v>831</v>
+      </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
@@ -5816,7 +5840,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -6341,7 +6365,7 @@
       <c r="F36" s="97" t="s">
         <v>717</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K36" s="45"/>
@@ -6398,10 +6422,10 @@
       <c r="F37" s="74" t="s">
         <v>631</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="H37" s="45"/>
       <c r="K37" s="45"/>
       <c r="L37" s="40">
         <v>2</v>
@@ -6456,10 +6480,10 @@
       <c r="F38" s="100" t="s">
         <v>689</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" s="45"/>
+      <c r="I38" t="s">
         <v>439</v>
       </c>
-      <c r="H38" s="45"/>
       <c r="L38" s="40">
         <v>3</v>
       </c>
@@ -6513,10 +6537,10 @@
       <c r="F39" s="101" t="s">
         <v>694</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="45"/>
+      <c r="I39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="45"/>
       <c r="K39" s="45"/>
       <c r="L39" s="40">
         <v>4</v>
@@ -6574,7 +6598,7 @@
       <c r="F40" s="100" t="s">
         <v>674</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>436</v>
       </c>
       <c r="L40" s="40">
@@ -6900,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
@@ -7197,9 +7221,7 @@
       <c r="F52" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" t="s">
         <v>396</v>
       </c>
@@ -7258,9 +7280,7 @@
       <c r="F53" s="75" t="s">
         <v>591</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
         <v>410</v>
       </c>
@@ -7310,9 +7330,7 @@
       <c r="F54" s="100" t="s">
         <v>676</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G54" s="1"/>
       <c r="L54" s="40">
         <v>19</v>
       </c>
@@ -7359,9 +7377,7 @@
       <c r="F55" s="74" t="s">
         <v>627</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G55" s="1"/>
       <c r="H55" t="s">
         <v>92</v>
       </c>
@@ -7417,9 +7433,7 @@
       <c r="F56" s="97" t="s">
         <v>735</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G56" s="1"/>
       <c r="L56" s="40">
         <v>21</v>
       </c>
@@ -7469,9 +7483,7 @@
       <c r="F57" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="L57" s="40">
         <v>22</v>
       </c>
@@ -7518,9 +7530,7 @@
       <c r="F58" s="65" t="s">
         <v>618</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G58" s="1"/>
       <c r="L58" s="40">
         <v>23</v>
       </c>
@@ -7563,9 +7573,7 @@
       <c r="F59" s="103" t="s">
         <v>762</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
         <v>411</v>
       </c>
@@ -8231,6 +8239,9 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
+        <v>832</v>
+      </c>
+      <c r="G77" t="s">
         <v>641</v>
       </c>
       <c r="L77" s="40">
@@ -8522,7 +8533,7 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
@@ -8652,7 +8663,7 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T90" s="58" t="s">
         <v>518</v>
@@ -9134,6 +9145,9 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
+        <v>833</v>
+      </c>
+      <c r="G109" t="s">
         <v>639</v>
       </c>
       <c r="U109">
@@ -9415,7 +9429,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -9631,7 +9645,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -10482,7 +10496,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -10609,9 +10623,6 @@
       <c r="F164" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="G164" t="s">
-        <v>616</v>
-      </c>
       <c r="M164">
         <v>52</v>
       </c>
@@ -10660,7 +10671,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -10961,7 +10972,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -10986,6 +10997,9 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
+        <v>834</v>
+      </c>
+      <c r="G179" t="s">
         <v>640</v>
       </c>
       <c r="M179">
@@ -11066,9 +11080,6 @@
       <c r="F182" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="G182" t="s">
-        <v>652</v>
-      </c>
       <c r="M182">
         <v>70</v>
       </c>
@@ -11147,9 +11158,6 @@
       <c r="F185" s="97" t="s">
         <v>699</v>
       </c>
-      <c r="G185" t="s">
-        <v>699</v>
-      </c>
       <c r="M185">
         <v>73</v>
       </c>
@@ -11429,9 +11437,6 @@
       <c r="F196" s="101" t="s">
         <v>732</v>
       </c>
-      <c r="G196" t="s">
-        <v>732</v>
-      </c>
       <c r="M196">
         <v>84</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -11937,7 +11942,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>653</v>
+        <v>835</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -12039,11 +12044,8 @@
       <c r="E220" s="1">
         <v>17</v>
       </c>
-      <c r="F220" s="114" t="s">
-        <v>831</v>
-      </c>
-      <c r="G220" t="s">
-        <v>388</v>
+      <c r="F220" s="111" t="s">
+        <v>830</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -12754,9 +12756,6 @@
       <c r="F247" s="105" t="s">
         <v>577</v>
       </c>
-      <c r="G247" t="s">
-        <v>577</v>
-      </c>
       <c r="H247" t="s">
         <v>452</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>654</v>
+        <v>836</v>
       </c>
       <c r="H261" t="s">
         <v>441</v>
@@ -13270,6 +13269,9 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
+        <v>837</v>
+      </c>
+      <c r="G266" t="s">
         <v>637</v>
       </c>
       <c r="H266" t="s">
@@ -13865,7 +13867,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -15330,7 +15332,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -15465,15 +15467,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="112" t="s">
+      <c r="O4" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6394049A-364D-4B32-A359-5C06CED42297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E01CE-4D03-4FB2-9FC4-6B700D6CFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="907">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -894,45 +894,21 @@
     <t>Sell Price</t>
   </si>
   <si>
-    <t>effect</t>
-  </si>
-  <si>
     <t>Unlock Trigger</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>1% fishing power</t>
-  </si>
-  <si>
-    <t>wood fish</t>
-  </si>
-  <si>
     <t>small pond</t>
   </si>
   <si>
     <t>fishing unlocked</t>
   </si>
   <si>
-    <t>4% fishing power</t>
-  </si>
-  <si>
-    <t>boot</t>
-  </si>
-  <si>
-    <t>river vally</t>
-  </si>
-  <si>
-    <t>reaserch</t>
-  </si>
-  <si>
     <t>175k</t>
   </si>
   <si>
-    <t>creat</t>
-  </si>
-  <si>
     <t>great Lake</t>
   </si>
   <si>
@@ -942,18 +918,12 @@
     <t>2m</t>
   </si>
   <si>
-    <t>gold fish</t>
-  </si>
-  <si>
     <t>deep sea</t>
   </si>
   <si>
     <t>25m</t>
   </si>
   <si>
-    <t>sushi fish</t>
-  </si>
-  <si>
     <t>ocean depths</t>
   </si>
   <si>
@@ -963,144 +933,21 @@
     <t>300m</t>
   </si>
   <si>
-    <t>ice fish</t>
-  </si>
-  <si>
     <t>4b</t>
   </si>
   <si>
-    <t>speed fish</t>
-  </si>
-  <si>
     <t>45b</t>
   </si>
   <si>
-    <t>production fish</t>
-  </si>
-  <si>
     <t>500b</t>
   </si>
   <si>
-    <t>price fish</t>
-  </si>
-  <si>
     <t>6t</t>
   </si>
   <si>
-    <t>reaserch fish</t>
-  </si>
-  <si>
-    <t>65t</t>
-  </si>
-  <si>
-    <t>fishing fish</t>
-  </si>
-  <si>
-    <t>700t</t>
-  </si>
-  <si>
-    <t>market fish</t>
-  </si>
-  <si>
-    <t>8penta</t>
-  </si>
-  <si>
-    <t>upgrade fish</t>
-  </si>
-  <si>
-    <t>85p</t>
-  </si>
-  <si>
-    <t>dam fish</t>
-  </si>
-  <si>
-    <t>900p</t>
-  </si>
-  <si>
-    <t>seaweed</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
     <t>coke bottle</t>
   </si>
   <si>
-    <t>150n</t>
-  </si>
-  <si>
-    <t>bot fish</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>afk fish</t>
-  </si>
-  <si>
-    <t>25c</t>
-  </si>
-  <si>
-    <t>lucky fish</t>
-  </si>
-  <si>
-    <t>300c</t>
-  </si>
-  <si>
-    <t>bait fish</t>
-  </si>
-  <si>
-    <t>4l</t>
-  </si>
-  <si>
-    <t>dog fish</t>
-  </si>
-  <si>
-    <t>cat fish</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>coal fish</t>
-  </si>
-  <si>
-    <t>bigfish</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>mytich fish</t>
-  </si>
-  <si>
-    <t>electric eal</t>
-  </si>
-  <si>
-    <t>magic fish</t>
-  </si>
-  <si>
-    <t>multiplier fish</t>
-  </si>
-  <si>
-    <t>ascention fish</t>
-  </si>
-  <si>
-    <t>shop fish</t>
-  </si>
-  <si>
-    <t>clownfish</t>
-  </si>
-  <si>
-    <t>gem</t>
-  </si>
-  <si>
-    <t>gem fish</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
     <t>wood per click per level</t>
   </si>
   <si>
@@ -2554,13 +2401,381 @@
   </si>
   <si>
     <t>1+ beavers from woodcamps</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpc +1 </t>
+  </si>
+  <si>
+    <t>wpc +3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wps +1 </t>
+  </si>
+  <si>
+    <t>Gold Fish</t>
+  </si>
+  <si>
+    <t>5 gold per second</t>
+  </si>
+  <si>
+    <t>Magic Fish</t>
+  </si>
+  <si>
+    <t>Magic Pot</t>
+  </si>
+  <si>
+    <t>Gold Pot</t>
+  </si>
+  <si>
+    <t>5 magic per second</t>
+  </si>
+  <si>
+    <t>Speed fish</t>
+  </si>
+  <si>
+    <t>Lower Fish speed 1.5 %</t>
+  </si>
+  <si>
+    <t>Storage Box</t>
+  </si>
+  <si>
+    <t>GPS +1%</t>
+  </si>
+  <si>
+    <t>Magic Pot II</t>
+  </si>
+  <si>
+    <t>Magic Pot III</t>
+  </si>
+  <si>
+    <t>50 magic per second</t>
+  </si>
+  <si>
+    <t>500 magic per second</t>
+  </si>
+  <si>
+    <t>Gold Pot II</t>
+  </si>
+  <si>
+    <t>Gold Pot III</t>
+  </si>
+  <si>
+    <t>50 gold per second</t>
+  </si>
+  <si>
+    <t>500 gold per second</t>
+  </si>
+  <si>
+    <t>Research Fish</t>
+  </si>
+  <si>
+    <t>1% faster research</t>
+  </si>
+  <si>
+    <t>1% better wood price</t>
+  </si>
+  <si>
+    <t>Dam Fish</t>
+  </si>
+  <si>
+    <t>3% Dam Effect</t>
+  </si>
+  <si>
+    <t>All wood storage +120</t>
+  </si>
+  <si>
+    <t>All wood storage +10</t>
+  </si>
+  <si>
+    <t>Catfish</t>
+  </si>
+  <si>
+    <t>beaver +1</t>
+  </si>
+  <si>
+    <t>Lucky fish</t>
+  </si>
+  <si>
+    <t>1% better fish</t>
+  </si>
+  <si>
+    <t>Crate fish</t>
+  </si>
+  <si>
+    <t>1% better loot in crates</t>
+  </si>
+  <si>
+    <t>Bot Fish</t>
+  </si>
+  <si>
+    <t>1% cheaper bots, 1% more sold</t>
+  </si>
+  <si>
+    <t>Ice Fish</t>
+  </si>
+  <si>
+    <t>Lower Fish bounce 1%</t>
+  </si>
+  <si>
+    <t>Wood Fish</t>
+  </si>
+  <si>
+    <t>Bait fish</t>
+  </si>
+  <si>
+    <t>1% bait effect</t>
+  </si>
+  <si>
+    <t>Construction Shark</t>
+  </si>
+  <si>
+    <t>Woodcamp price -1%</t>
+  </si>
+  <si>
+    <t>Electric Eal</t>
+  </si>
+  <si>
+    <t>Electric vally</t>
+  </si>
+  <si>
+    <t>Electric Jellyfish</t>
+  </si>
+  <si>
+    <t>Electric Sponge</t>
+  </si>
+  <si>
+    <t>Salmon Lumber Jack</t>
+  </si>
+  <si>
+    <t>WC effect 1%</t>
+  </si>
+  <si>
+    <t>Ascention fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1% more magic on ascention</t>
+  </si>
+  <si>
+    <t>Magic Effects</t>
+  </si>
+  <si>
+    <t>Descention fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1% more magic per second</t>
+  </si>
+  <si>
+    <t>All aplicable upgrade effects 1%</t>
+  </si>
+  <si>
+    <t>Big fish</t>
+  </si>
+  <si>
+    <t>Makes fish 1% bigger</t>
+  </si>
+  <si>
+    <t>Unlocks sponge / base wps +1</t>
+  </si>
+  <si>
+    <t>Clownfish</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Oak Crate</t>
+  </si>
+  <si>
+    <t>Apple Crate</t>
+  </si>
+  <si>
+    <t>Maple Crate</t>
+  </si>
+  <si>
+    <t>Birch Crate</t>
+  </si>
+  <si>
+    <t>Spruce Crate</t>
+  </si>
+  <si>
+    <t>Chestnut Crate</t>
+  </si>
+  <si>
+    <t>Cherry Crate</t>
+  </si>
+  <si>
+    <t>Ash Crate</t>
+  </si>
+  <si>
+    <t>Cedar Crate</t>
+  </si>
+  <si>
+    <t>Mahogany Crate</t>
+  </si>
+  <si>
+    <t>Ebony Crate</t>
+  </si>
+  <si>
+    <t>Dogwood Crate</t>
+  </si>
+  <si>
+    <t>Rosewood Crate</t>
+  </si>
+  <si>
+    <t>Ghost Gum Crate</t>
+  </si>
+  <si>
+    <t>Dragonwood Crate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak PS +1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple PS +1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple PS +1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birch PS +1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spruce PS +1 </t>
+  </si>
+  <si>
+    <t>Chestnut PS +1</t>
+  </si>
+  <si>
+    <t>Cherry PS +1</t>
+  </si>
+  <si>
+    <t>Ash PS +1</t>
+  </si>
+  <si>
+    <t>Cedar PS +1</t>
+  </si>
+  <si>
+    <t>Mahogany PS +1</t>
+  </si>
+  <si>
+    <t>Ebony PS +1</t>
+  </si>
+  <si>
+    <t>Dogwood PS +1</t>
+  </si>
+  <si>
+    <t>Rosewood PS +1</t>
+  </si>
+  <si>
+    <t>Ghost Gum PS +1</t>
+  </si>
+  <si>
+    <t>Dragonwood PS +1</t>
+  </si>
+  <si>
+    <t>Clown +1 ?? Actualy beaver</t>
+  </si>
+  <si>
+    <t>Open?</t>
+  </si>
+  <si>
+    <t>Get 10 to unlock salmon valley/ +1 fish rarity / unlock jellyfish</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reaserch / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from salmon now</t>
+    </r>
+  </si>
+  <si>
+    <t>5% fishing power</t>
+  </si>
+  <si>
+    <t>Other effect</t>
+  </si>
+  <si>
+    <t>Crate Atractor</t>
+  </si>
+  <si>
+    <t>3x more crates</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>Catarpiller</t>
+  </si>
+  <si>
+    <t>Shiny worm</t>
+  </si>
+  <si>
+    <t>Devils tonge</t>
+  </si>
+  <si>
+    <t>Wyverns feather</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Jig</t>
+  </si>
+  <si>
+    <t>Leech</t>
+  </si>
+  <si>
+    <t>Giant Squids tentacle</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>Maybe change fish shop currency to amber or smthg to balance the economy</t>
+  </si>
+  <si>
+    <t>Fishing level</t>
+  </si>
+  <si>
+    <t>Calculation for appearing</t>
+  </si>
+  <si>
+    <t>Blue Whale</t>
+  </si>
+  <si>
+    <t>2x WPS</t>
+  </si>
+  <si>
+    <t>Multiplying Fish</t>
+  </si>
+  <si>
+    <t>1% more fish appear</t>
+  </si>
+  <si>
+    <t>(0.5 - bait FP) * spot%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2649,6 +2864,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="47">
@@ -3172,7 +3398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3304,6 +3530,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3530,7 +3760,7 @@
   <dimension ref="C5:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="H31" sqref="H31:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3886,7 +4116,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -3954,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -3971,7 +4201,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -4005,7 +4235,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -4022,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -4039,7 +4269,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -4073,7 +4303,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -4090,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -5010,7 +5240,7 @@
   </sheetPr>
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5049,7 +5279,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75">
@@ -5057,26 +5287,26 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>757</v>
+        <v>706</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>568</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
@@ -5090,7 +5320,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -5102,16 +5332,16 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="M5" s="112" t="s">
         <v>78</v>
@@ -5144,23 +5374,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>815</v>
+        <v>764</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M113 + 1.3 * M113^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -5193,7 +5423,7 @@
         <v>88</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75">
@@ -5213,26 +5443,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M113 + 1.3 * M113^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -5265,7 +5495,7 @@
         <v>98</v>
       </c>
       <c r="W7" s="39" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75">
@@ -5285,25 +5515,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -5321,22 +5551,22 @@
         <v>103</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="T8" s="27" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="V8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75">
@@ -5356,22 +5586,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -5389,22 +5619,22 @@
         <v>110</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="T9" s="27" t="s">
         <v>111</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="V9" s="38" t="s">
         <v>112</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.75">
@@ -5424,10 +5654,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -5445,21 +5675,21 @@
         <v>116</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="R10" s="27"/>
       <c r="S10" s="27" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" s="38" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="W10" s="40" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75">
@@ -5479,19 +5709,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>838</v>
+        <v>787</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="L11" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -5500,25 +5730,25 @@
         <v>118</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="38" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75">
@@ -5538,16 +5768,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -5556,22 +5786,22 @@
         <v>121</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="U12" s="27"/>
       <c r="V12" s="40" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="W12" s="40"/>
     </row>
@@ -5592,7 +5822,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>746</v>
+        <v>695</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -5601,7 +5831,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>123</v>
@@ -5614,11 +5844,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="U13" s="27"/>
       <c r="V13" s="40" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="W13" s="40"/>
     </row>
@@ -5636,17 +5866,17 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>125</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -5670,17 +5900,17 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -5704,17 +5934,17 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>742</v>
+        <v>691</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
@@ -5738,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -5746,11 +5976,11 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -5774,15 +6004,15 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>822</v>
+        <v>771</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -5809,16 +6039,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="G19" t="s">
-        <v>831</v>
+        <v>780</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="35" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -5840,13 +6070,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>817</v>
+        <v>766</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="35" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -5871,13 +6101,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="35" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -5899,13 +6129,13 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="35" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -5927,13 +6157,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -5942,7 +6172,7 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="35" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -5967,13 +6197,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -5982,7 +6212,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="35" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -6007,13 +6237,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -6022,7 +6252,7 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="35" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -6046,13 +6276,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -6061,7 +6291,7 @@
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="35" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -6085,13 +6315,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -6100,7 +6330,7 @@
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -6121,19 +6351,19 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -6188,13 +6418,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -6219,16 +6449,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="P31" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -6245,13 +6475,13 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" thickBot="1">
@@ -6265,10 +6495,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" thickBot="1">
@@ -6282,7 +6512,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -6310,16 +6540,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>756</v>
+        <v>705</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -6346,7 +6576,7 @@
         <v>88</v>
       </c>
       <c r="W35" s="36" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="X35" s="56" t="s">
         <v>233</v>
@@ -6363,7 +6593,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -6373,40 +6603,40 @@
         <v>1</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>745</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="12.75">
@@ -6420,51 +6650,51 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="40">
         <v>2</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>744</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.75">
@@ -6478,50 +6708,50 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="L38" s="40">
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="R38" s="84" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>743</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="12.75">
@@ -6535,7 +6765,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>694</v>
+        <v>643</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -6546,40 +6776,40 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="R39" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="S39" s="76" t="s">
+        <v>610</v>
+      </c>
+      <c r="T39" s="86" t="s">
+        <v>626</v>
+      </c>
+      <c r="U39" s="87" t="s">
+        <v>645</v>
+      </c>
+      <c r="V39" s="88" t="s">
         <v>656</v>
       </c>
-      <c r="S39" s="76" t="s">
-        <v>661</v>
-      </c>
-      <c r="T39" s="86" t="s">
-        <v>677</v>
-      </c>
-      <c r="U39" s="87" t="s">
-        <v>696</v>
-      </c>
-      <c r="V39" s="88" t="s">
-        <v>707</v>
-      </c>
       <c r="W39" s="89" t="s">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>741</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="12.75">
@@ -6596,47 +6826,47 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="I40" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="L40" s="40">
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>649</v>
+        <v>598</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>742</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.75">
@@ -6653,7 +6883,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -6661,35 +6891,35 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="X41" s="55"/>
     </row>
@@ -6708,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -6718,35 +6948,35 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="X42" s="55"/>
     </row>
@@ -6764,42 +6994,42 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="P43" s="57" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="X43" s="55"/>
     </row>
@@ -6817,42 +7047,42 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="P44" s="57" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="X44" s="55"/>
     </row>
@@ -6873,40 +7103,40 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="P45" s="57" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="X45" s="59"/>
     </row>
@@ -6924,40 +7154,40 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>823</v>
+        <v>772</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>749</v>
+        <v>698</v>
       </c>
       <c r="P46" s="55" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="X46" s="55"/>
     </row>
@@ -6975,40 +7205,40 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="P47" s="55" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>684</v>
+        <v>633</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="X47" s="55"/>
     </row>
@@ -7026,38 +7256,38 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="P48" s="57" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>668</v>
+        <v>617</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>686</v>
+        <v>635</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="X48" s="55"/>
     </row>
@@ -7075,38 +7305,38 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>752</v>
+        <v>701</v>
       </c>
       <c r="P49" s="57" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="X49" s="55"/>
     </row>
@@ -7124,38 +7354,38 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>753</v>
+        <v>702</v>
       </c>
       <c r="P50" s="57" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>667</v>
+        <v>616</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="X50" s="55"/>
     </row>
@@ -7173,35 +7403,35 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>745</v>
+        <v>694</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
       </c>
       <c r="M51" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N51" s="63" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="O51" s="64" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="P51" s="57" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>689</v>
+        <v>638</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="X51" s="55"/>
     </row>
@@ -7219,11 +7449,11 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="I52">
         <v>21</v>
@@ -7232,35 +7462,35 @@
         <v>10</v>
       </c>
       <c r="K52" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="L52" s="40">
         <v>17</v>
       </c>
       <c r="M52" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="O52" s="64" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="P52" s="57" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="X52" s="55"/>
     </row>
@@ -7278,39 +7508,39 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="L53" s="40">
         <v>18</v>
       </c>
       <c r="M53" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="P53" s="57" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="X53" s="55"/>
     </row>
@@ -7328,36 +7558,36 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="G54" s="1"/>
       <c r="L54" s="40">
         <v>19</v>
       </c>
       <c r="M54" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="O54" s="64" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="P54" s="57" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>692</v>
+        <v>641</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="X54" s="55"/>
     </row>
@@ -7375,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -7391,29 +7621,29 @@
         <v>20</v>
       </c>
       <c r="M55" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
       <c r="P55" s="57" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>732</v>
+        <v>681</v>
       </c>
       <c r="X55" s="55"/>
     </row>
@@ -7431,36 +7661,36 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="G56" s="1"/>
       <c r="L56" s="40">
         <v>21</v>
       </c>
       <c r="M56" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>746</v>
+        <v>695</v>
       </c>
       <c r="P56" s="55" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>733</v>
+        <v>682</v>
       </c>
       <c r="X56" s="55"/>
     </row>
@@ -7481,36 +7711,36 @@
         <v>16</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="G57" s="1"/>
       <c r="L57" s="40">
         <v>22</v>
       </c>
       <c r="M57" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>747</v>
+        <v>696</v>
       </c>
       <c r="P57" s="55" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="X57" s="55"/>
     </row>
@@ -7528,24 +7758,24 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="G58" s="1"/>
       <c r="L58" s="40">
         <v>23</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -7553,7 +7783,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="X58" s="55"/>
     </row>
@@ -7571,27 +7801,27 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="L59" s="40">
         <v>24</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>587</v>
+        <v>536</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -7599,7 +7829,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>736</v>
+        <v>685</v>
       </c>
       <c r="X59" s="55"/>
     </row>
@@ -7618,23 +7848,23 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -7642,7 +7872,7 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="X60" s="55"/>
     </row>
@@ -7660,7 +7890,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -7669,17 +7899,17 @@
         <v>26</v>
       </c>
       <c r="M61" s="70" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -7687,7 +7917,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>738</v>
+        <v>687</v>
       </c>
       <c r="X61" s="55"/>
     </row>
@@ -7705,23 +7935,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -7729,7 +7959,7 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="X62" s="55"/>
     </row>
@@ -7744,23 +7974,23 @@
         <v>4</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="L63" s="40">
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -7768,7 +7998,7 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>740</v>
+        <v>689</v>
       </c>
       <c r="X63" s="55"/>
     </row>
@@ -7783,23 +8013,23 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
       </c>
       <c r="M64" s="71" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -7820,23 +8050,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -7857,23 +8087,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="N66" s="63" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -7894,23 +8124,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -7931,23 +8161,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="N68" s="63" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -7968,19 +8198,19 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="N69" s="63" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -8006,19 +8236,19 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>684</v>
+        <v>633</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
       </c>
       <c r="M70" s="80" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -8041,16 +8271,16 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
       </c>
       <c r="M71" s="80" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -8074,16 +8304,16 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
       </c>
       <c r="M72" s="80" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -8107,16 +8337,16 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -8140,16 +8370,16 @@
         <v>15</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="L74" s="40">
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -8173,16 +8403,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -8206,16 +8436,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -8239,19 +8469,19 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>832</v>
+        <v>781</v>
       </c>
       <c r="G77" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -8276,16 +8506,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -8309,16 +8539,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -8342,16 +8572,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -8375,14 +8605,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -8406,14 +8636,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -8440,14 +8670,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -8471,14 +8701,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -8502,14 +8732,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>740</v>
+        <v>689</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -8533,14 +8763,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>818</v>
+        <v>767</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -8564,7 +8794,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -8614,7 +8844,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -8646,10 +8876,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="T89" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="12.75">
@@ -8663,10 +8893,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>819</v>
+        <v>768</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -8693,10 +8923,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -8723,10 +8953,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -8753,10 +8983,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -8786,10 +9016,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -8816,10 +9046,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -8847,10 +9077,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -8877,10 +9107,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -8907,10 +9137,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -8937,10 +9167,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -8967,10 +9197,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>738</v>
+        <v>687</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -8997,10 +9227,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -9027,10 +9257,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -9057,7 +9287,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="T103" s="45"/>
     </row>
@@ -9072,7 +9302,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
     </row>
     <row r="105" spans="2:24" ht="12.75">
@@ -9086,7 +9316,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
     </row>
     <row r="106" spans="2:24" ht="12.75">
@@ -9100,7 +9330,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="105" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
     </row>
     <row r="107" spans="2:24" ht="12.75">
@@ -9114,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="12.75">
@@ -9131,7 +9361,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="12.75">
@@ -9145,10 +9375,10 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>833</v>
+        <v>782</v>
       </c>
       <c r="G109" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -9174,7 +9404,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111" spans="2:24" ht="12.75">
@@ -9188,7 +9418,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>733</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="2:24" ht="12.75">
@@ -9202,14 +9432,14 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>525</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="2:24" ht="12.75">
@@ -9223,7 +9453,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -9242,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -9270,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -9285,7 +9515,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -9312,7 +9542,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -9327,7 +9557,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -9354,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -9369,7 +9599,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -9396,7 +9626,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -9429,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>824</v>
+        <v>773</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -9461,7 +9691,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -9495,7 +9725,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -9520,7 +9750,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -9545,7 +9775,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -9570,7 +9800,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -9595,7 +9825,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -9620,7 +9850,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -9645,7 +9875,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>825</v>
+        <v>774</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -9670,7 +9900,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -9695,7 +9925,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -9723,7 +9953,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>743</v>
+        <v>692</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -9748,7 +9978,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -9773,7 +10003,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -9799,10 +10029,10 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="L132" s="45" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="M132">
         <v>20</v>
@@ -9827,10 +10057,10 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="L133" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="M133">
         <v>21</v>
@@ -9855,10 +10085,10 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="L134" s="45" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="M134">
         <v>22</v>
@@ -9883,7 +10113,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -9908,10 +10138,10 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="L136" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="M136">
         <v>24</v>
@@ -9936,7 +10166,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -9961,7 +10191,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -9986,7 +10216,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>695</v>
+        <v>644</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -10011,7 +10241,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -10036,7 +10266,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -10061,7 +10291,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -10086,7 +10316,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -10111,7 +10341,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -10136,7 +10366,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -10161,7 +10391,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -10186,7 +10416,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -10211,7 +10441,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -10239,7 +10469,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>687</v>
+        <v>636</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -10265,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -10290,7 +10520,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -10315,7 +10545,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -10343,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>668</v>
+        <v>617</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -10368,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -10396,7 +10626,7 @@
         <v>6</v>
       </c>
       <c r="F155" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M155">
         <v>43</v>
@@ -10421,7 +10651,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -10446,7 +10676,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -10471,7 +10701,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -10496,7 +10726,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>826</v>
+        <v>775</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -10521,7 +10751,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -10546,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -10571,7 +10801,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>764</v>
+        <v>713</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -10596,7 +10826,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -10621,7 +10851,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -10646,7 +10876,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -10671,7 +10901,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>827</v>
+        <v>776</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -10696,7 +10926,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -10722,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -10747,7 +10977,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -10772,7 +11002,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -10797,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -10822,7 +11052,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -10847,7 +11077,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -10872,7 +11102,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -10897,7 +11127,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -10922,7 +11152,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -10947,7 +11177,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -10972,7 +11202,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>828</v>
+        <v>777</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -10997,10 +11227,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>834</v>
+        <v>783</v>
       </c>
       <c r="G179" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -11028,7 +11258,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -11053,7 +11283,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -11078,7 +11308,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -11103,7 +11333,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>686</v>
+        <v>635</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -11131,7 +11361,7 @@
         <v>17</v>
       </c>
       <c r="F184" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M184">
         <v>72</v>
@@ -11156,7 +11386,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>699</v>
+        <v>648</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -11182,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -11210,7 +11440,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>749</v>
+        <v>698</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -11235,7 +11465,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -11260,7 +11490,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -11285,7 +11515,7 @@
         <v>5</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="M190">
         <v>78</v>
@@ -11310,7 +11540,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>667</v>
+        <v>616</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -11335,7 +11565,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>736</v>
+        <v>685</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -11360,7 +11590,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -11385,7 +11615,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>587</v>
+        <v>536</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -11410,7 +11640,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -11435,7 +11665,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>732</v>
+        <v>681</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -11460,7 +11690,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -11488,7 +11718,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M198">
         <v>86</v>
@@ -11513,7 +11743,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -11538,7 +11768,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -11563,7 +11793,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>690</v>
+        <v>639</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -11588,7 +11818,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -11613,7 +11843,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -11639,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -11664,7 +11894,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>750</v>
+        <v>699</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -11689,7 +11919,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -11714,7 +11944,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -11739,7 +11969,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -11764,7 +11994,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -11792,7 +12022,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -11817,7 +12047,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -11842,7 +12072,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -11867,7 +12097,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>656</v>
+        <v>605</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -11892,7 +12122,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -11917,7 +12147,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>829</v>
+        <v>778</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -11942,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>835</v>
+        <v>784</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -11967,7 +12197,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -11995,7 +12225,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M218">
         <v>106</v>
@@ -12020,7 +12250,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -12045,7 +12275,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>830</v>
+        <v>779</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -12070,7 +12300,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>741</v>
+        <v>690</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -12098,7 +12328,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -12123,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -12148,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -12173,7 +12403,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -12198,7 +12428,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -12223,7 +12453,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -12251,7 +12481,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M228">
         <v>116</v>
@@ -12276,7 +12506,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -12301,7 +12531,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -12326,7 +12556,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -12351,7 +12581,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -12376,7 +12606,7 @@
         <v>12</v>
       </c>
       <c r="F233" s="75" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="M233">
         <v>121</v>
@@ -12401,7 +12631,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>688</v>
+        <v>637</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -12426,7 +12656,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -12451,7 +12681,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -12476,7 +12706,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>649</v>
+        <v>598</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -12501,7 +12731,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -12526,7 +12756,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -12555,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -12583,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>752</v>
+        <v>701</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -12611,10 +12841,10 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="H242" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="M242">
         <v>130</v>
@@ -12639,10 +12869,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="H243" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="M243">
         <v>131</v>
@@ -12667,10 +12897,10 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>747</v>
+        <v>696</v>
       </c>
       <c r="H244" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="M244">
         <v>132</v>
@@ -12698,10 +12928,10 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="H245" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="M245">
         <v>133</v>
@@ -12726,10 +12956,10 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="H246" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="M246">
         <v>134</v>
@@ -12754,10 +12984,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="H247" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="M247">
         <v>135</v>
@@ -12782,10 +13012,10 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
       <c r="H248" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="M248">
         <v>136</v>
@@ -12810,10 +13040,10 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="H249" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="M249">
         <v>137</v>
@@ -12844,10 +13074,10 @@
         <v>11</v>
       </c>
       <c r="F250" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="H250" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="M250">
         <v>138</v>
@@ -12875,10 +13105,10 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>692</v>
+        <v>641</v>
       </c>
       <c r="H251" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="M251">
         <v>139</v>
@@ -12906,10 +13136,10 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="H252" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="M252">
         <v>140</v>
@@ -12937,10 +13167,10 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="H253" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="M253">
         <v>141</v>
@@ -12965,10 +13195,10 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="H254" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="M254">
         <v>142</v>
@@ -12993,10 +13223,10 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="H255" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="M255">
         <v>143</v>
@@ -13021,10 +13251,10 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="H256" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="M256">
         <v>144</v>
@@ -13049,7 +13279,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -13075,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -13103,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>753</v>
+        <v>702</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -13134,10 +13364,10 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="H260" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="M260">
         <v>148</v>
@@ -13162,10 +13392,10 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>836</v>
+        <v>785</v>
       </c>
       <c r="H261" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="M261">
         <v>149</v>
@@ -13190,10 +13420,10 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="H262" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="M262">
         <v>150</v>
@@ -13218,10 +13448,10 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="H263" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
     </row>
     <row r="264" spans="2:15" ht="15.75" customHeight="1">
@@ -13235,10 +13465,10 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="H264" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265" spans="2:15" ht="15.75" customHeight="1">
@@ -13252,10 +13482,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="H265" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="2:15" ht="15.75" customHeight="1">
@@ -13269,13 +13499,13 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>837</v>
+        <v>786</v>
       </c>
       <c r="G266" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="H266" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267" spans="2:15" ht="15.75" customHeight="1">
@@ -13289,10 +13519,10 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="H267" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
     </row>
     <row r="268" spans="2:15" ht="15.75" customHeight="1">
@@ -13306,10 +13536,10 @@
         <v>11</v>
       </c>
       <c r="F268" s="105" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="H268" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="2:15" ht="15.75" customHeight="1">
@@ -13323,10 +13553,10 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="H269" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
     </row>
     <row r="270" spans="2:15" ht="15.75" customHeight="1">
@@ -13340,10 +13570,10 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="H270" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
     </row>
     <row r="271" spans="2:15" ht="15.75" customHeight="1">
@@ -13357,10 +13587,10 @@
         <v>14</v>
       </c>
       <c r="F271" s="75" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="H271" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
     </row>
     <row r="272" spans="2:15" ht="15.75" customHeight="1">
@@ -13377,10 +13607,10 @@
         <v>15</v>
       </c>
       <c r="F272" s="105" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="H272" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="2:8" ht="15.75" customHeight="1">
@@ -13394,10 +13624,10 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>744</v>
+        <v>693</v>
       </c>
       <c r="H273" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
     </row>
     <row r="274" spans="2:8" ht="15.75" customHeight="1">
@@ -13411,10 +13641,10 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="H274" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="2:8" ht="15.75" customHeight="1">
@@ -13428,10 +13658,10 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="H275" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
     </row>
     <row r="276" spans="2:8" ht="15.75" customHeight="1">
@@ -13440,7 +13670,7 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>748</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -13514,7 +13744,7 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="J5" t="s">
         <v>208</v>
@@ -13531,7 +13761,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="12.75">
@@ -13545,7 +13775,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="3:10" ht="12.75">
@@ -13559,7 +13789,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="12.75">
@@ -13573,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>772</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="12.75">
@@ -13587,7 +13817,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="12.75">
@@ -13601,7 +13831,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>784</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="12.75">
@@ -13615,7 +13845,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="12.75">
@@ -13643,7 +13873,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="12.75">
@@ -13657,7 +13887,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="12.75">
@@ -13671,7 +13901,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="12.75">
@@ -13685,7 +13915,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="12.75">
@@ -13699,7 +13929,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="12.75">
@@ -13713,7 +13943,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="12.75">
@@ -13727,7 +13957,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="12.75">
@@ -13741,7 +13971,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="12.75">
@@ -13755,7 +13985,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="12.75">
@@ -13769,7 +13999,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>789</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="12.75">
@@ -13783,7 +14013,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="12.75">
@@ -13797,7 +14027,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="12.75">
@@ -13811,7 +14041,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>793</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="12.75">
@@ -13839,7 +14069,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>794</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="12.75">
@@ -13853,7 +14083,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>795</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="12.75">
@@ -13867,7 +14097,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>820</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -13910,7 +14140,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="I33" s="27"/>
     </row>
@@ -13955,7 +14185,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="I36" s="27" t="s">
         <v>119</v>
@@ -13972,7 +14202,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
@@ -13989,7 +14219,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>124</v>
@@ -14009,7 +14239,7 @@
         <v>142</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="12.75">
@@ -14023,10 +14253,10 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="12.75">
@@ -14043,7 +14273,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="12.75">
@@ -14057,10 +14287,10 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="12.75">
@@ -14077,7 +14307,7 @@
         <v>140</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="12.75">
@@ -14094,7 +14324,7 @@
         <v>179</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="12.75">
@@ -14111,7 +14341,7 @@
         <v>165</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="12.75">
@@ -14128,7 +14358,7 @@
         <v>177</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="12.75">
@@ -14142,10 +14372,10 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="12.75">
@@ -14159,10 +14389,10 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="12.75">
@@ -14179,7 +14409,7 @@
         <v>182</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="12.75">
@@ -14196,7 +14426,7 @@
         <v>173</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="12.75">
@@ -14210,10 +14440,10 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="12.75">
@@ -14230,7 +14460,7 @@
         <v>178</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="12.75">
@@ -14244,10 +14474,10 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="12.75">
@@ -14261,7 +14491,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="12.75">
@@ -14303,7 +14533,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>796</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="12.75">
@@ -14359,7 +14589,7 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>774</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="12.75">
@@ -14436,7 +14666,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>797</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -14455,10 +14685,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -14469,7 +14699,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -14480,7 +14710,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -14491,7 +14721,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -14502,7 +14732,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>779</v>
+        <v>728</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -14513,12 +14743,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -15024,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>792</v>
+        <v>741</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -15035,7 +15265,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -15046,7 +15276,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>810</v>
+        <v>759</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -15057,7 +15287,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="G10" s="1">
         <v>14</v>
@@ -15068,7 +15298,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>808</v>
+        <v>757</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -15079,7 +15309,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="G12" s="1">
         <v>135</v>
@@ -15090,7 +15320,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="G13" s="1">
         <v>220</v>
@@ -15101,7 +15331,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
       <c r="G14" s="1">
         <v>444</v>
@@ -15112,7 +15342,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -15123,7 +15353,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="G16" s="1">
         <v>700</v>
@@ -15134,7 +15364,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>811</v>
+        <v>760</v>
       </c>
       <c r="G17" s="1">
         <v>1200</v>
@@ -15145,7 +15375,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="G18" s="1">
         <v>3000</v>
@@ -15156,7 +15386,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="G19" s="1">
         <v>5000</v>
@@ -15167,7 +15397,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>210</v>
@@ -15178,7 +15408,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>211</v>
@@ -15189,7 +15419,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>798</v>
+        <v>747</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>212</v>
@@ -15200,7 +15430,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>213</v>
@@ -15211,7 +15441,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>812</v>
+        <v>761</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>214</v>
@@ -15222,7 +15452,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>215</v>
@@ -15233,7 +15463,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>813</v>
+        <v>762</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>216</v>
@@ -15244,7 +15474,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>217</v>
@@ -15255,7 +15485,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>814</v>
+        <v>763</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>218</v>
@@ -15266,7 +15496,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>219</v>
@@ -15277,7 +15507,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>208</v>
@@ -15288,7 +15518,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>220</v>
@@ -15299,7 +15529,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>221</v>
@@ -15310,7 +15540,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>800</v>
+        <v>749</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>222</v>
@@ -15321,7 +15551,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>223</v>
@@ -15332,7 +15562,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>821</v>
+        <v>770</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -15343,7 +15573,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>225</v>
@@ -15393,7 +15623,7 @@
         <v>228</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -15404,10 +15634,10 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -15612,7 +15842,7 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -15657,7 +15887,7 @@
         <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="L13" s="1">
         <v>8</v>
@@ -15674,7 +15904,7 @@
         <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
@@ -15946,10 +16176,10 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="G39" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="3:7">
@@ -16297,24 +16527,37 @@
   </sheetPr>
   <dimension ref="C3:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="2.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="D3" s="45" t="s">
+        <v>899</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -16335,799 +16578,1033 @@
       <c r="F5" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="G5" s="46" t="s">
+        <v>885</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>76</v>
+      <c r="N5" s="46" t="s">
+        <v>900</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>901</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
+      <c r="D6" s="46" t="s">
+        <v>888</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>884</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="S6" s="29"/>
+      <c r="J6" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="K6" t="s">
+        <v>792</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="46" t="s">
+        <v>889</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>292</v>
+      <c r="F7" s="31">
+        <v>0.1</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2</v>
+      <c r="J7" t="s">
+        <v>788</v>
+      </c>
+      <c r="K7" t="s">
+        <v>790</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>294</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="S7" s="30"/>
+        <v>285</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="3:20">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="46" t="s">
+        <v>895</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.08</v>
+        <v>289</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>297</v>
+      <c r="J8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="s">
+        <v>817</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
       </c>
       <c r="P8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S8" s="32"/>
+        <v>288</v>
+      </c>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
+      <c r="D9" s="46" t="s">
+        <v>894</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>301</v>
+      <c r="J9" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="K9" t="s">
+        <v>819</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="33"/>
+        <v>834</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="3:20">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
+      <c r="D10" s="46" t="s">
+        <v>890</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F10" s="1">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>304</v>
+      <c r="J10" t="s">
+        <v>797</v>
+      </c>
+      <c r="K10" t="s">
+        <v>794</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="S10" s="34"/>
+        <v>291</v>
+      </c>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="3:20">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
+      <c r="D11" s="46" t="s">
+        <v>896</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F11" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="J11" t="s">
+        <v>807</v>
+      </c>
+      <c r="K11" t="s">
+        <v>809</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="3:20">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>309</v>
+      <c r="D12" s="46" t="s">
+        <v>886</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>898</v>
       </c>
       <c r="F12" s="1">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>887</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="J12" t="s">
+        <v>808</v>
+      </c>
+      <c r="K12" t="s">
+        <v>810</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
+      <c r="D13" s="46" t="s">
+        <v>897</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F13" s="1">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I13" s="1">
         <v>8</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>312</v>
+      <c r="J13" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="K13" t="s">
+        <v>802</v>
+      </c>
+      <c r="N13">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+      <c r="D14" s="46" t="s">
+        <v>893</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F14" s="1">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>314</v>
+      <c r="J14" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="K14" t="s">
+        <v>798</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
+      <c r="D15" s="115" t="s">
+        <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F15" s="1">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>316</v>
+      <c r="J15" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="K15" t="s">
+        <v>805</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
+      <c r="D16" s="46" t="s">
+        <v>891</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" s="1">
-        <v>200</v>
+        <v>301</v>
+      </c>
+      <c r="F16" s="46">
+        <v>230</v>
       </c>
       <c r="I16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
+      <c r="J16" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="K16" t="s">
+        <v>806</v>
+      </c>
+      <c r="N16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="1">
-        <v>280</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="I17" s="1">
         <v>12</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="J17" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K17" t="s">
+        <v>841</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="1">
-        <v>380</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="I18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
+      <c r="J18" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="K18" t="s">
+        <v>800</v>
+      </c>
+      <c r="N18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F19" s="1">
-        <v>500</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="I19" s="1">
         <v>14</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="J19" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="K19" t="s">
+        <v>816</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="1">
-        <v>650</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="I20" s="1">
         <v>15</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>811</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
+        <v>812</v>
+      </c>
+      <c r="N20">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="1">
-        <v>800</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="I21" s="1">
         <v>16</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>828</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
+        <v>813</v>
+      </c>
+      <c r="N21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="I22" s="1">
         <v>17</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>814</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+        <v>815</v>
+      </c>
+      <c r="N22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1300</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="I23" s="1">
         <v>18</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>820</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
+        <v>821</v>
+      </c>
+      <c r="N23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="I24" s="1">
         <v>19</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>822</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
+        <v>823</v>
+      </c>
+      <c r="N24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="I25" s="1">
         <v>20</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>824</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
+        <v>825</v>
+      </c>
+      <c r="N25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="I26" s="1">
         <v>21</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>826</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
+        <v>827</v>
+      </c>
+      <c r="N26">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="I27" s="1">
         <v>22</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>829</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
+        <v>830</v>
+      </c>
+      <c r="N27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="I28" s="1">
         <v>23</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>833</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
+        <v>882</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="I29" s="1">
         <v>24</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>835</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
+        <v>847</v>
+      </c>
+      <c r="N29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
       <c r="I30" s="1">
         <v>25</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
+        <v>844</v>
+      </c>
+      <c r="N30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
       <c r="I31" s="1">
         <v>26</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11">
+        <v>832</v>
+      </c>
+      <c r="N31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
       <c r="I32" s="1">
         <v>27</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>837</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11">
+        <v>838</v>
+      </c>
+      <c r="N32">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14">
       <c r="I33" s="1">
         <v>28</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>839</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11">
+        <v>840</v>
+      </c>
+      <c r="N33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14">
       <c r="I34" s="1">
         <v>29</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11">
+        <v>843</v>
+      </c>
+      <c r="N34">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14">
       <c r="I35" s="1">
         <v>30</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11">
+        <v>846</v>
+      </c>
+      <c r="N35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14">
       <c r="I36" s="1">
         <v>31</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11">
+        <v>880</v>
+      </c>
+      <c r="N36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14">
       <c r="I37" s="1">
         <v>32</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>849</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11">
+        <v>791</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14">
       <c r="I38" s="1">
         <v>33</v>
       </c>
+      <c r="J38" s="39" t="s">
+        <v>850</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11">
+        <v>865</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14">
       <c r="I39" s="1">
         <v>34</v>
       </c>
+      <c r="J39" s="35" t="s">
+        <v>851</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11">
+        <v>866</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14">
       <c r="I40" s="1">
         <v>35</v>
       </c>
+      <c r="J40" s="35" t="s">
+        <v>852</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11">
+        <v>867</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14">
       <c r="I41" s="1">
         <v>36</v>
       </c>
+      <c r="J41" s="35" t="s">
+        <v>853</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11">
+        <v>868</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14">
       <c r="I42" s="1">
         <v>37</v>
       </c>
+      <c r="J42" s="35" t="s">
+        <v>854</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11">
+        <v>869</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14">
       <c r="I43" s="1">
         <v>38</v>
       </c>
+      <c r="J43" s="35" t="s">
+        <v>855</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="9:11">
+        <v>870</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14">
       <c r="I44" s="1">
         <v>39</v>
       </c>
+      <c r="J44" s="47" t="s">
+        <v>856</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="9:11">
+        <v>871</v>
+      </c>
+      <c r="N44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14">
       <c r="I45" s="1">
         <v>40</v>
       </c>
+      <c r="J45" s="35" t="s">
+        <v>857</v>
+      </c>
       <c r="K45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="9:11">
+        <v>872</v>
+      </c>
+      <c r="N45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14">
       <c r="I46" s="1">
         <v>41</v>
       </c>
+      <c r="J46" s="35" t="s">
+        <v>858</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="9:11">
+        <v>873</v>
+      </c>
+      <c r="N46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="9:14">
       <c r="I47" s="1">
         <v>42</v>
       </c>
+      <c r="J47" s="35" t="s">
+        <v>859</v>
+      </c>
       <c r="K47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11">
+        <v>874</v>
+      </c>
+      <c r="N47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14">
       <c r="I48" s="1">
         <v>43</v>
       </c>
+      <c r="J48" s="35" t="s">
+        <v>860</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11">
+        <v>875</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14">
       <c r="I49" s="1">
         <v>44</v>
       </c>
+      <c r="J49" s="35" t="s">
+        <v>861</v>
+      </c>
       <c r="K49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11">
+        <v>876</v>
+      </c>
+      <c r="N49">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14">
       <c r="I50" s="1">
         <v>45</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11">
+      <c r="J50" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="N50">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14">
       <c r="I51" s="1">
         <v>46</v>
       </c>
+      <c r="J51" s="35" t="s">
+        <v>863</v>
+      </c>
       <c r="K51" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11">
+        <v>878</v>
+      </c>
+      <c r="N51">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14">
       <c r="I52" s="1">
         <v>47</v>
       </c>
+      <c r="J52" s="35" t="s">
+        <v>864</v>
+      </c>
       <c r="K52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11">
+        <v>879</v>
+      </c>
+      <c r="N52">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14">
       <c r="I53" s="1">
         <v>48</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11">
+      <c r="J53" s="116" t="s">
+        <v>902</v>
+      </c>
+      <c r="K53" s="46" t="s">
+        <v>903</v>
+      </c>
+      <c r="N53">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14">
       <c r="I54" s="1">
         <v>49</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11">
+      <c r="J54" s="116" t="s">
+        <v>904</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="N54">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14">
       <c r="I55" s="1">
         <v>50</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="9:14">
       <c r="I56" s="1">
         <v>51</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="9:14">
       <c r="I57" s="1">
         <v>52</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="9:11">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="9:14">
       <c r="I58" s="1">
         <v>53</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="9:14">
       <c r="I59" s="1">
         <v>54</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="9:11">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="9:14">
       <c r="I60" s="1">
         <v>55</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="9:11">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="9:14">
       <c r="I61" s="1">
         <v>56</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="9:11">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="9:14">
       <c r="I62" s="1">
         <v>57</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="K62" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E01CE-4D03-4FB2-9FC4-6B700D6CFDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFF4EB-C132-45FD-A55D-5364B463217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3523,6 +3523,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3530,10 +3534,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5343,19 +5343,19 @@
       <c r="K5" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
@@ -15697,15 +15697,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">
@@ -16527,8 +16527,8 @@
   </sheetPr>
   <dimension ref="C3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16915,7 +16915,7 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="112" t="s">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -17531,7 +17531,7 @@
       <c r="I53" s="1">
         <v>48</v>
       </c>
-      <c r="J53" s="116" t="s">
+      <c r="J53" s="113" t="s">
         <v>902</v>
       </c>
       <c r="K53" s="46" t="s">
@@ -17545,7 +17545,7 @@
       <c r="I54" s="1">
         <v>49</v>
       </c>
-      <c r="J54" s="116" t="s">
+      <c r="J54" s="113" t="s">
         <v>904</v>
       </c>
       <c r="K54" s="46" t="s">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFF4EB-C132-45FD-A55D-5364B463217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C9EA3D-6824-4F9A-8B46-68E199E1EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Dam" sheetId="7" r:id="rId7"/>
     <sheet name="Achievements" sheetId="8" r:id="rId8"/>
     <sheet name="Fishing" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="912">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -2769,6 +2770,21 @@
   </si>
   <si>
     <t>(0.5 - bait FP) * spot%</t>
+  </si>
+  <si>
+    <t>round(pow(1.6, level) + 1.5 * pow(level, 4.3)) + 1 * (level + 1) * 7 + 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>2^C5 + 2 * (C5^2) + 1 * (C5 + 1) * 7 + 2</t>
+  </si>
+  <si>
+    <t>2^C5 + 2 * (C5^3) + 1 * (C5 + 1) * 7 + 2</t>
+  </si>
+  <si>
+    <t>3^C5 + 2 * (C5^2) + 1 * (C5 + 1) * 7 + 2</t>
   </si>
 </sst>
 </file>
@@ -4365,6 +4381,759 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE76D2E-FEA3-454F-BC35-ED3E32220B6F}">
+  <dimension ref="C3:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6">
+      <c r="D3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D4" t="s">
+        <v>909</v>
+      </c>
+      <c r="E4" t="s">
+        <v>911</v>
+      </c>
+      <c r="F4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>2^C5 + 2 * (C5^2) + 1 * (C5+ 1) * 7 + 2</f>
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f>3^C5 + 2 * (C5^2) + 1 * (C5+ 1) * 7 + 2</f>
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <f>2^C5 + 2 * (C5^3) + 1 * (C5 + 1) * 7 + 2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D46" si="0">2^C6 + 2 * (C6^2) + 1 * (C6+ 1) * 7 + 2</f>
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E46" si="1">3^C6 + 2 * (C6^2) + 1 * (C6+ 1) * 7 + 2</f>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F46" si="2">2^C6 + 2 * (C6^3) + 1 * (C6 + 1) * 7 + 2</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>337</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>852</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2343</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>6754</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>19917</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1303</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>59328</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2376</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>177475</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4477</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>531822</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8630</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1594761</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>12686</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16883</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4783468</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>21979</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>33332</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>14349471</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>39632</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>66169</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>43047354</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>73849</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>131778</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>129140869</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>141026</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>262927</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>387421272</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>273943</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>525152</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1162262331</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>538148</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1049525</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>3486785350</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1064725</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2098190</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>10460354241</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2115830</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4195435</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>31381060740</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>4215763</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8389836</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>94143180055</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>8413112</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>16778545</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>282429537810</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>16805041</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>33555866</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>847288610877</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>33585866</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>67110407</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2541865829872</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>67144207</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>134219384</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>7625597486643</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>134257292</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>268437229</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>22876792456734</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>268479565</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>536872806</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>68630377366777</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>536919902</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1073743843</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>205891132096668</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>1073796043</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2147485796</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>617673396286095</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>2147543456</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>4294969577</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1853020188854122</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>4295033065</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>8589937010</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>5559060566557941</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>8590006706</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>17179871743</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.6677181699669126E+16</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>17179948039</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>34359741072</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>5.00315450990024E+16</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>34359824372</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>68719479589</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1.5009463529700198E+17</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>68719570309</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>137438956478</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>4.5028390589100038E+17</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>137439055046</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>274877910107</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.3508517176729951E+18</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>274878016963</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>549755817212</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>4.0525551530189798E+18</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>549755932808</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1099511631265</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1.2157665459056933E+19</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1099511756065</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2199023259210</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3.6472996377170792E+19</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>2199023393690</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>4398046514935</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>1.0941898913151237E+20</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>4398046659583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -16527,7 +17296,7 @@
   </sheetPr>
   <dimension ref="C3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C9EA3D-6824-4F9A-8B46-68E199E1EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B8D6-5C84-434C-9507-E3A344DC71A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="966">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -1087,9 +1087,6 @@
     <t>ROUND(1.25^(M35+6)+M35^3,0)</t>
   </si>
   <si>
-    <t>Oak storage +10</t>
-  </si>
-  <si>
     <t>ROUND((1.14^(M35)+M35^3)+148, 0)</t>
   </si>
   <si>
@@ -1177,9 +1174,6 @@
     <t>better wood click</t>
   </si>
   <si>
-    <t>Unlock Apple Wood</t>
-  </si>
-  <si>
     <t>Unlocks Apple wood for production</t>
   </si>
   <si>
@@ -1189,12 +1183,6 @@
     <t>from start</t>
   </si>
   <si>
-    <t>Apple per click +2</t>
-  </si>
-  <si>
-    <t>Apple storage +20</t>
-  </si>
-  <si>
     <t>Improve all achievement upgrades</t>
   </si>
   <si>
@@ -2236,9 +2224,6 @@
     <t>levels give a little storage</t>
   </si>
   <si>
-    <t>10% more wps</t>
-  </si>
-  <si>
     <t>Maple WPS 3x</t>
   </si>
   <si>
@@ -2332,15 +2317,9 @@
     <t>bait effects 15%</t>
   </si>
   <si>
-    <t>add click beaver</t>
-  </si>
-  <si>
     <t>upgrade click beaver</t>
   </si>
   <si>
-    <t>wood per second 2% increase per level</t>
-  </si>
-  <si>
     <t>Better wood price +10</t>
   </si>
   <si>
@@ -2353,9 +2332,6 @@
     <t>Fish rarer fish 2x</t>
   </si>
   <si>
-    <t xml:space="preserve">wood per click add 1% wps </t>
-  </si>
-  <si>
     <t>per achiv -0.2% WC price</t>
   </si>
   <si>
@@ -2399,9 +2375,6 @@
   </si>
   <si>
     <t>Better wood price 3.1%</t>
-  </si>
-  <si>
-    <t>1+ beavers from woodcamps</t>
   </si>
   <si>
     <t>Seaweed</t>
@@ -2785,6 +2758,195 @@
   </si>
   <si>
     <t>3^C5 + 2 * (C5^2) + 1 * (C5 + 1) * 7 + 2</t>
+  </si>
+  <si>
+    <t>Oak storage +100</t>
+  </si>
+  <si>
+    <t>10% cheaper beavers</t>
+  </si>
+  <si>
+    <t>12% storage from woodcamps</t>
+  </si>
+  <si>
+    <t>cheaper bots 6%</t>
+  </si>
+  <si>
+    <t>WC 7% cheaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpc add 2% wps </t>
+  </si>
+  <si>
+    <t>1+ beavers per WC</t>
+  </si>
+  <si>
+    <t>ideas</t>
+  </si>
+  <si>
+    <t>WC base storage increase +100</t>
+  </si>
+  <si>
+    <t>25% more wps</t>
+  </si>
+  <si>
+    <t>this changed</t>
+  </si>
+  <si>
+    <t>changed position</t>
+  </si>
+  <si>
+    <t>1.5x storage</t>
+  </si>
+  <si>
+    <t>fish sell for more 5%</t>
+  </si>
+  <si>
+    <t>cheaper bots 4%</t>
+  </si>
+  <si>
+    <t>faster research 2%</t>
+  </si>
+  <si>
+    <t>10+ beavers for each wood type</t>
+  </si>
+  <si>
+    <t>2% more fish</t>
+  </si>
+  <si>
+    <t>More magic 5%</t>
+  </si>
+  <si>
+    <t>13% storage</t>
+  </si>
+  <si>
+    <t>change?</t>
+  </si>
+  <si>
+    <t>need to add second one</t>
+  </si>
+  <si>
+    <t>Doesn't work</t>
+  </si>
+  <si>
+    <t>faster research 1%</t>
+  </si>
+  <si>
+    <t>beaver +1.5 more wood</t>
+  </si>
+  <si>
+    <t>cheaper woodcamps 8%</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Beaver production 5%</t>
+  </si>
+  <si>
+    <t>storage 7.5%</t>
+  </si>
+  <si>
+    <t>Dam price -2.5%</t>
+  </si>
+  <si>
+    <t>Each beaver is also a woodcamp</t>
+  </si>
+  <si>
+    <t>Wood price 5%</t>
+  </si>
+  <si>
+    <t>Better bait 3%</t>
+  </si>
+  <si>
+    <t>Fish price 8%</t>
+  </si>
+  <si>
+    <t>Magic production 4%</t>
+  </si>
+  <si>
+    <t>Upgrade price -1.5%</t>
+  </si>
+  <si>
+    <t>gold gain</t>
+  </si>
+  <si>
+    <t>Magic gian</t>
+  </si>
+  <si>
+    <t>wood spent total</t>
+  </si>
+  <si>
+    <t>Beavers total</t>
+  </si>
+  <si>
+    <t>Improve magic effects 4.5%</t>
+  </si>
+  <si>
+    <t>Beaver price -3.5%</t>
+  </si>
+  <si>
+    <t>Oak WPS 12.5%</t>
+  </si>
+  <si>
+    <t>1.75x storage</t>
+  </si>
+  <si>
+    <t>fish better wood 2%</t>
+  </si>
+  <si>
+    <t>Gold upgrades -0.7% cheaper</t>
+  </si>
+  <si>
+    <t>WC effects 5%</t>
+  </si>
+  <si>
+    <t>upgrades 2.25% cheaper</t>
+  </si>
+  <si>
+    <t>Apple storage +110</t>
+  </si>
+  <si>
+    <t>Unlock Research / wps 5.5%</t>
+  </si>
+  <si>
+    <t>9% cheaper beavers</t>
+  </si>
+  <si>
+    <t>beaver +0.25 more wood</t>
+  </si>
+  <si>
+    <t>beaver +0.3 more wood</t>
+  </si>
+  <si>
+    <t>WC use 2.5% less wood</t>
+  </si>
+  <si>
+    <t>dam effects 1.5%</t>
+  </si>
+  <si>
+    <t>Beavers</t>
+  </si>
+  <si>
+    <t>wpc</t>
+  </si>
+  <si>
+    <t>Unlock Apple Wood / 2% wpc tp wps</t>
+  </si>
+  <si>
+    <t>Woodcamp production 8.5%</t>
+  </si>
+  <si>
+    <t>research time 1.5%</t>
+  </si>
+  <si>
+    <t>Starting beavers +7</t>
+  </si>
+  <si>
+    <t>Fish stay 0.75% longer</t>
+  </si>
+  <si>
+    <t>bot effect amount 7%</t>
   </si>
 </sst>
 </file>
@@ -3773,10 +3935,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C5:J47"/>
+  <dimension ref="B5:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H45"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3788,7 +3950,7 @@
     <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="12.75">
+    <row r="5" spans="2:10" ht="12.75">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3799,7 +3961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="12.75">
+    <row r="6" spans="2:10" ht="12.75">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -3813,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="12.75">
+    <row r="7" spans="2:10" ht="12.75">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -3827,7 +3989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="12.75">
+    <row r="8" spans="2:10" ht="12.75">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -3841,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="12.75">
+    <row r="9" spans="2:10" ht="12.75">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="12.75">
+    <row r="10" spans="2:10" ht="12.75">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -3875,7 +4037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="12.75">
+    <row r="11" spans="2:10" ht="12.75">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -3889,7 +4051,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="12.75">
+    <row r="12" spans="2:10" ht="12.75">
+      <c r="C12" t="s">
+        <v>958</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -3903,7 +4071,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="12.75">
+    <row r="13" spans="2:10" ht="12.75">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
@@ -3917,7 +4094,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="12.75">
+    <row r="14" spans="2:10" ht="12.75">
+      <c r="B14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
@@ -3931,7 +4117,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="12.75">
+    <row r="15" spans="2:10" ht="12.75">
+      <c r="B15" t="s">
+        <v>959</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
@@ -3943,7 +4138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="12.75">
+    <row r="16" spans="2:10" ht="12.75">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -4132,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -4200,7 +4395,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -4217,7 +4412,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -4251,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -4268,7 +4463,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -4285,7 +4480,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -4319,7 +4514,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -4336,7 +4531,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -4385,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE76D2E-FEA3-454F-BC35-ED3E32220B6F}">
   <dimension ref="C3:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4398,21 +4593,21 @@
   <sheetData>
     <row r="3" spans="3:6">
       <c r="D3" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D4" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E4" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F4" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="3:6">
@@ -6007,10 +6202,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X276"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O292" sqref="O292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6048,7 +6243,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75">
@@ -6056,26 +6251,26 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
@@ -6089,7 +6284,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -6101,16 +6296,16 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
         <v>347</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M5" s="114" t="s">
         <v>78</v>
@@ -6143,23 +6338,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>764</v>
+        <v>954</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M113 + 1.3 * M113^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -6212,26 +6407,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>349</v>
+        <v>903</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M113 + 1.3 * M113^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -6284,25 +6479,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -6355,22 +6550,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>765</v>
+        <v>904</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -6423,10 +6618,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>379</v>
+        <v>960</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -6478,19 +6673,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -6537,16 +6732,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>610</v>
+        <v>918</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -6591,7 +6786,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>695</v>
+        <v>905</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -6635,7 +6830,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>304</v>
@@ -6669,7 +6864,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>709</v>
+        <v>950</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>336</v>
@@ -6703,7 +6898,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>691</v>
+        <v>906</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>337</v>
@@ -6737,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>677</v>
+        <v>921</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -6773,7 +6968,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>771</v>
+        <v>908</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -6808,10 +7003,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G19" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -6839,7 +7034,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>766</v>
+        <v>920</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -6870,7 +7065,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>413</v>
+        <v>915</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -6898,7 +7093,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>578</v>
+        <v>917</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -6926,13 +7121,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>630</v>
+        <v>916</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -6966,13 +7161,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>383</v>
+        <v>955</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -7006,13 +7201,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>384</v>
+        <v>951</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -7045,13 +7240,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -7084,13 +7279,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>707</v>
+        <v>922</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -7120,13 +7315,16 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>412</v>
+        <v>945</v>
+      </c>
+      <c r="G28" t="s">
+        <v>923</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
@@ -7156,7 +7354,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>92</v>
+        <v>952</v>
+      </c>
+      <c r="G29" t="s">
+        <v>924</v>
       </c>
       <c r="H29">
         <v>1000</v>
@@ -7187,13 +7388,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>765</v>
+        <v>953</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -7218,16 +7419,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>413</v>
+        <v>946</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P31" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -7244,13 +7445,16 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>548</v>
+        <v>956</v>
+      </c>
+      <c r="G32" t="s">
+        <v>925</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" thickBot="1">
@@ -7264,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>606</v>
+        <v>926</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" thickBot="1">
@@ -7281,7 +7485,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -7309,16 +7513,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -7362,7 +7566,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>666</v>
+        <v>948</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -7375,37 +7579,37 @@
         <v>344</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="12.75">
@@ -7419,11 +7623,11 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="40">
@@ -7433,37 +7637,37 @@
         <v>345</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.75">
@@ -7477,50 +7681,50 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>638</v>
+        <v>947</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L38" s="40">
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P38" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q38" s="83" t="s">
         <v>569</v>
       </c>
-      <c r="Q38" s="83" t="s">
-        <v>573</v>
-      </c>
       <c r="R38" s="84" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="12.75">
@@ -7534,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>643</v>
+        <v>957</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -7545,40 +7749,40 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="R39" s="84" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="U39" s="87" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="W39" s="89" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="12.75">
@@ -7595,47 +7799,47 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L40" s="40">
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.75">
@@ -7652,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>671</v>
+        <v>949</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -7660,35 +7864,35 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="X41" s="55"/>
     </row>
@@ -7707,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>453</v>
+        <v>927</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -7717,35 +7921,35 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="X42" s="55"/>
     </row>
@@ -7763,42 +7967,42 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>502</v>
+        <v>695</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P43" s="57" t="s">
         <v>308</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X43" s="55"/>
     </row>
@@ -7816,42 +8020,42 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P44" s="57" t="s">
         <v>309</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="X44" s="55"/>
     </row>
@@ -7872,40 +8076,40 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>532</v>
+        <v>928</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P45" s="57" t="s">
         <v>315</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="X45" s="59"/>
     </row>
@@ -7923,40 +8127,40 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="P46" s="55" t="s">
         <v>316</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="X46" s="55"/>
     </row>
@@ -7974,40 +8178,40 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="P47" s="55" t="s">
         <v>317</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="X47" s="55"/>
     </row>
@@ -8025,38 +8229,38 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="P48" s="57" t="s">
         <v>318</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="X48" s="55"/>
     </row>
@@ -8074,38 +8278,38 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P49" s="57" t="s">
         <v>319</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="X49" s="55"/>
     </row>
@@ -8123,38 +8327,38 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P50" s="57" t="s">
         <v>320</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="X50" s="55"/>
     </row>
@@ -8172,35 +8376,35 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
       </c>
       <c r="M51" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N51" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O51" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P51" s="57" t="s">
         <v>321</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="X51" s="55"/>
     </row>
@@ -8218,7 +8422,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
@@ -8237,29 +8441,29 @@
         <v>17</v>
       </c>
       <c r="M52" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O52" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P52" s="57" t="s">
         <v>322</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="X52" s="55"/>
     </row>
@@ -8277,39 +8481,39 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L53" s="40">
         <v>18</v>
       </c>
       <c r="M53" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P53" s="57" t="s">
         <v>323</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="X53" s="55"/>
     </row>
@@ -8327,36 +8531,36 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G54" s="1"/>
       <c r="L54" s="40">
         <v>19</v>
       </c>
       <c r="M54" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O54" s="64" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P54" s="57" t="s">
         <v>324</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="X54" s="55"/>
     </row>
@@ -8374,7 +8578,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -8390,29 +8594,29 @@
         <v>20</v>
       </c>
       <c r="M55" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="P55" s="57" t="s">
         <v>329</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="X55" s="55"/>
     </row>
@@ -8430,36 +8634,36 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G56" s="1"/>
       <c r="L56" s="40">
         <v>21</v>
       </c>
       <c r="M56" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="P56" s="55" t="s">
         <v>341</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="X56" s="55"/>
     </row>
@@ -8480,36 +8684,36 @@
         <v>16</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G57" s="1"/>
       <c r="L57" s="40">
         <v>22</v>
       </c>
       <c r="M57" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P57" s="55" t="s">
         <v>342</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="X57" s="55"/>
     </row>
@@ -8527,24 +8731,24 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G58" s="1"/>
       <c r="L58" s="40">
         <v>23</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -8552,7 +8756,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="X58" s="55"/>
     </row>
@@ -8570,27 +8774,27 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L59" s="40">
         <v>24</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -8598,7 +8802,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="X59" s="55"/>
     </row>
@@ -8617,23 +8821,23 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -8641,7 +8845,7 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="X60" s="55"/>
     </row>
@@ -8659,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -8668,17 +8872,17 @@
         <v>26</v>
       </c>
       <c r="M61" s="70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -8686,7 +8890,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="X61" s="55"/>
     </row>
@@ -8704,23 +8908,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -8728,7 +8932,7 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="X62" s="55"/>
     </row>
@@ -8743,23 +8947,23 @@
         <v>4</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L63" s="40">
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -8767,7 +8971,7 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="X63" s="55"/>
     </row>
@@ -8782,23 +8986,23 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
       </c>
       <c r="M64" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -8819,23 +9023,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -8856,23 +9060,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N66" s="63" t="s">
         <v>337</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -8893,23 +9097,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N67" s="63" t="s">
         <v>337</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -8930,23 +9134,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N68" s="63" t="s">
         <v>336</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -8967,7 +9171,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
@@ -8979,7 +9183,7 @@
         <v>336</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -9005,7 +9209,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
@@ -9014,10 +9218,10 @@
         <v>337</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -9040,7 +9244,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
@@ -9049,7 +9253,7 @@
         <v>336</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -9073,7 +9277,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
@@ -9082,7 +9286,7 @@
         <v>336</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -9106,7 +9310,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
@@ -9115,7 +9319,7 @@
         <v>336</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -9145,10 +9349,10 @@
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -9172,16 +9376,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -9205,16 +9409,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -9238,19 +9442,19 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="G77" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -9275,16 +9479,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -9308,16 +9512,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -9341,16 +9545,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -9374,14 +9578,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -9405,14 +9609,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -9439,14 +9643,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -9470,14 +9674,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -9501,14 +9705,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -9532,14 +9736,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -9563,7 +9767,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -9613,7 +9817,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -9645,10 +9849,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T89" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="12.75">
@@ -9662,10 +9866,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -9692,10 +9896,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -9722,10 +9926,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -9752,10 +9956,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -9785,10 +9989,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -9815,10 +10019,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -9846,10 +10050,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -9876,10 +10080,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -9906,10 +10110,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -9936,10 +10140,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9966,10 +10170,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -9996,10 +10200,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -10026,10 +10230,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -10056,7 +10260,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="T103" s="45"/>
     </row>
@@ -10071,7 +10275,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" spans="2:24" ht="12.75">
@@ -10085,7 +10289,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="2:24" ht="12.75">
@@ -10113,7 +10317,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="12.75">
@@ -10130,7 +10334,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="12.75">
@@ -10144,10 +10348,10 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G109" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -10173,7 +10377,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="111" spans="2:24" ht="12.75">
@@ -10187,7 +10391,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="112" spans="2:24" ht="12.75">
@@ -10201,14 +10405,14 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="2:24" ht="12.75">
@@ -10222,7 +10426,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -10241,7 +10445,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -10269,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -10284,7 +10488,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -10311,7 +10515,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -10326,7 +10530,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -10353,7 +10557,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -10368,7 +10572,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -10395,7 +10599,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -10428,7 +10632,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -10460,7 +10664,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -10494,7 +10698,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -10519,7 +10723,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -10544,7 +10748,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -10569,7 +10773,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -10594,7 +10798,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -10619,7 +10823,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -10644,7 +10848,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -10669,7 +10873,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -10694,7 +10898,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -10722,7 +10926,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -10747,7 +10951,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -10772,7 +10976,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -10798,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L132" s="45" t="s">
         <v>348</v>
@@ -10826,10 +11030,10 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L133" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M133">
         <v>21</v>
@@ -10854,10 +11058,10 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L134" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M134">
         <v>22</v>
@@ -10882,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -10907,10 +11111,10 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M136">
         <v>24</v>
@@ -10935,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -10960,7 +11164,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -10985,7 +11189,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -11010,7 +11214,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -11035,7 +11239,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -11060,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -11085,7 +11289,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -11110,7 +11314,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -11135,7 +11339,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -11160,7 +11364,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -11185,7 +11389,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -11210,7 +11414,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -11238,7 +11442,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -11264,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -11289,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -11314,7 +11518,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -11342,7 +11546,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -11367,7 +11571,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -11395,7 +11599,7 @@
         <v>6</v>
       </c>
       <c r="F155" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M155">
         <v>43</v>
@@ -11420,7 +11624,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -11445,7 +11649,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -11470,7 +11674,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -11495,7 +11699,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -11520,7 +11724,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -11545,7 +11749,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -11570,7 +11774,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -11595,7 +11799,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -11620,7 +11824,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -11645,7 +11849,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -11670,7 +11874,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -11695,7 +11899,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -11721,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -11746,7 +11950,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -11771,7 +11975,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -11796,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -11821,7 +12025,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -11846,7 +12050,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -11871,7 +12075,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -11896,7 +12100,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -11921,7 +12125,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -11946,7 +12150,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -11971,7 +12175,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -11996,10 +12200,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="G179" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -12027,7 +12231,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -12052,7 +12256,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -12077,7 +12281,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -12102,7 +12306,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -12130,7 +12334,7 @@
         <v>17</v>
       </c>
       <c r="F184" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M184">
         <v>72</v>
@@ -12155,7 +12359,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -12181,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -12209,7 +12413,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -12234,7 +12438,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -12259,7 +12463,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -12284,7 +12488,7 @@
         <v>5</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M190">
         <v>78</v>
@@ -12309,7 +12513,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -12334,7 +12538,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -12359,7 +12563,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -12384,7 +12588,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -12409,7 +12613,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -12434,7 +12638,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -12459,7 +12663,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -12487,7 +12691,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M198">
         <v>86</v>
@@ -12512,7 +12716,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -12537,7 +12741,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -12562,7 +12766,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -12587,7 +12791,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -12612,7 +12816,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -12638,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -12663,7 +12867,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -12688,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -12713,7 +12917,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -12738,7 +12942,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -12763,7 +12967,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -12791,7 +12995,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -12816,7 +13020,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -12841,7 +13045,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -12866,7 +13070,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -12891,7 +13095,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -12916,7 +13120,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -12941,7 +13145,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -12966,7 +13170,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -12994,7 +13198,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M218">
         <v>106</v>
@@ -13019,7 +13223,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -13044,7 +13248,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -13069,7 +13273,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -13097,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -13122,7 +13326,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -13147,7 +13351,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -13172,7 +13376,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -13197,7 +13401,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -13222,7 +13426,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -13250,7 +13454,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M228">
         <v>116</v>
@@ -13275,7 +13479,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -13300,7 +13504,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -13325,7 +13529,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -13350,7 +13554,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -13400,7 +13604,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -13425,7 +13629,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -13450,7 +13654,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -13475,7 +13679,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -13500,7 +13704,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -13525,7 +13729,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -13554,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -13582,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -13610,10 +13814,10 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H242" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M242">
         <v>130</v>
@@ -13638,10 +13842,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H243" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M243">
         <v>131</v>
@@ -13666,10 +13870,10 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H244" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M244">
         <v>132</v>
@@ -13697,10 +13901,10 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H245" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M245">
         <v>133</v>
@@ -13725,10 +13929,10 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H246" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M246">
         <v>134</v>
@@ -13753,10 +13957,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H247" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M247">
         <v>135</v>
@@ -13781,10 +13985,10 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H248" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M248">
         <v>136</v>
@@ -13809,10 +14013,10 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H249" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M249">
         <v>137</v>
@@ -13843,10 +14047,10 @@
         <v>11</v>
       </c>
       <c r="F250" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H250" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M250">
         <v>138</v>
@@ -13874,10 +14078,10 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H251" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M251">
         <v>139</v>
@@ -13905,10 +14109,10 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H252" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M252">
         <v>140</v>
@@ -13936,10 +14140,10 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H253" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M253">
         <v>141</v>
@@ -13964,10 +14168,10 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H254" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M254">
         <v>142</v>
@@ -13992,10 +14196,10 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H255" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M255">
         <v>143</v>
@@ -14020,10 +14224,10 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H256" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M256">
         <v>144</v>
@@ -14048,7 +14252,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -14074,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -14102,7 +14306,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -14133,10 +14337,10 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H260" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M260">
         <v>148</v>
@@ -14161,10 +14365,10 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="H261" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M261">
         <v>149</v>
@@ -14189,10 +14393,10 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H262" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M262">
         <v>150</v>
@@ -14217,10 +14421,10 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H263" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="2:15" ht="15.75" customHeight="1">
@@ -14234,10 +14438,10 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H264" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265" spans="2:15" ht="15.75" customHeight="1">
@@ -14251,10 +14455,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H265" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="266" spans="2:15" ht="15.75" customHeight="1">
@@ -14268,13 +14472,13 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G266" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H266" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="267" spans="2:15" ht="15.75" customHeight="1">
@@ -14288,10 +14492,10 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H267" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="268" spans="2:15" ht="15.75" customHeight="1">
@@ -14308,7 +14512,7 @@
         <v>336</v>
       </c>
       <c r="H268" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="269" spans="2:15" ht="15.75" customHeight="1">
@@ -14322,10 +14526,10 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H269" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="270" spans="2:15" ht="15.75" customHeight="1">
@@ -14339,10 +14543,10 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H270" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="2:15" ht="15.75" customHeight="1">
@@ -14359,7 +14563,7 @@
         <v>336</v>
       </c>
       <c r="H271" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="272" spans="2:15" ht="15.75" customHeight="1">
@@ -14376,10 +14580,10 @@
         <v>15</v>
       </c>
       <c r="F272" s="105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H272" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="2:8" ht="15.75" customHeight="1">
@@ -14393,10 +14597,10 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H273" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="274" spans="2:8" ht="15.75" customHeight="1">
@@ -14410,10 +14614,10 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H274" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="275" spans="2:8" ht="15.75" customHeight="1">
@@ -14427,10 +14631,10 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H275" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="2:8" ht="15.75" customHeight="1">
@@ -14439,7 +14643,230 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>697</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B278" s="106"/>
+      <c r="C278" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="D278" s="108"/>
+      <c r="E278" s="106">
+        <v>1</v>
+      </c>
+      <c r="F278" s="105" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B279" s="1"/>
+      <c r="C279" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E279" s="67">
+        <v>2</v>
+      </c>
+      <c r="F279" s="65" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B280" s="1"/>
+      <c r="C280" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="D280">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E280" s="67">
+        <v>3</v>
+      </c>
+      <c r="F280" s="75" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B281" s="1"/>
+      <c r="C281" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E281" s="67">
+        <v>4</v>
+      </c>
+      <c r="F281" s="74" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B282" s="1"/>
+      <c r="C282" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E282" s="67">
+        <v>5</v>
+      </c>
+      <c r="F282" s="102" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B283" s="1"/>
+      <c r="C283" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E283" s="67">
+        <v>6</v>
+      </c>
+      <c r="F283" s="101" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B284" s="1"/>
+      <c r="C284" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E284" s="67">
+        <v>7</v>
+      </c>
+      <c r="F284" s="100" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B285" s="1"/>
+      <c r="C285" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E285" s="67">
+        <v>8</v>
+      </c>
+      <c r="F285" s="75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B286" s="1"/>
+      <c r="C286" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E286" s="67">
+        <v>9</v>
+      </c>
+      <c r="F286" s="74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B287" s="1"/>
+      <c r="C287" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E287" s="67">
+        <v>10</v>
+      </c>
+      <c r="F287" s="103" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B288" s="1"/>
+      <c r="C288" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E288" s="67">
+        <v>11</v>
+      </c>
+      <c r="F288" s="105" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B289" s="1"/>
+      <c r="C289" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E289" s="67">
+        <v>12</v>
+      </c>
+      <c r="F289" s="65" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B290" s="1"/>
+      <c r="C290" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E290" s="67">
+        <v>13</v>
+      </c>
+      <c r="F290" s="97" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B291" s="1"/>
+      <c r="C291" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E291" s="67">
+        <v>14</v>
+      </c>
+      <c r="F291" s="75" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B292" s="1"/>
+      <c r="C292" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="D292">
+        <v>1.26</v>
+      </c>
+      <c r="E292" s="67">
+        <v>15</v>
+      </c>
+      <c r="F292" s="105" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B293" s="1"/>
+      <c r="C293" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E293" s="67">
+        <v>16</v>
+      </c>
+      <c r="F293" s="99" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B294" s="1"/>
+      <c r="C294" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E294" s="67">
+        <v>17</v>
+      </c>
+      <c r="F294" s="97" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B295" s="1"/>
+      <c r="C295" s="107" t="s">
+        <v>929</v>
+      </c>
+      <c r="E295" s="67">
+        <v>18</v>
+      </c>
+      <c r="F295" s="103" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -14456,10 +14883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C2:J76"/>
+  <dimension ref="C2:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14468,12 +14895,17 @@
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="12.75">
+    <row r="2" spans="3:12" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="12.75">
+    <row r="3" spans="3:12" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -14498,8 +14930,11 @@
       <c r="J4" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" ht="12.75">
+      <c r="L4" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="12.75">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -14513,13 +14948,16 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" ht="12.75">
+      <c r="L5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="12.75">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -14530,10 +14968,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" ht="12.75">
+        <v>418</v>
+      </c>
+      <c r="L6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="12.75">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -14544,10 +14985,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="12.75">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="12.75">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -14558,10 +14999,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="12.75">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="12.75">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -14572,10 +15013,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="12.75">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="12.75">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -14583,13 +15024,16 @@
         <v>137</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="12.75">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="12.75">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -14597,13 +15041,16 @@
         <v>137</v>
       </c>
       <c r="E11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="12.75">
+        <v>6</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>912</v>
+      </c>
+      <c r="G11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="12.75">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -14611,13 +15058,13 @@
         <v>137</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="12.75">
+        <v>7</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="12.75">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -14625,13 +15072,13 @@
         <v>144</v>
       </c>
       <c r="E13" s="1">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="12.75">
+        <v>8</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="12.75">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -14642,10 +15089,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="12.75">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="12.75">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -14656,10 +15103,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="12.75">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="12.75">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -14670,7 +15117,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="12.75">
@@ -14684,7 +15131,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="12.75">
@@ -14698,7 +15145,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="12.75">
@@ -14712,7 +15159,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="12.75">
@@ -14726,7 +15173,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="12.75">
@@ -14740,7 +15187,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="12.75">
@@ -14754,7 +15201,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="12.75">
@@ -14768,7 +15215,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="12.75">
@@ -14782,7 +15229,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="12.75">
@@ -14796,7 +15243,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="12.75">
@@ -14810,7 +15257,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="12.75">
@@ -14838,7 +15285,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="12.75">
@@ -14852,7 +15299,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="12.75">
@@ -14866,7 +15313,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -14909,7 +15356,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I33" s="27"/>
     </row>
@@ -14954,7 +15401,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I36" s="27" t="s">
         <v>119</v>
@@ -14971,7 +15418,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
@@ -14988,7 +15435,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>124</v>
@@ -15022,7 +15469,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>309</v>
@@ -15056,7 +15503,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>316</v>
@@ -15141,7 +15588,7 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I47" s="35" t="s">
         <v>321</v>
@@ -15158,7 +15605,7 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>322</v>
@@ -15209,7 +15656,7 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>329</v>
@@ -15243,7 +15690,7 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I53" s="40" t="s">
         <v>342</v>
@@ -15260,7 +15707,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="12.75">
@@ -15302,7 +15749,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="12.75">
@@ -15358,7 +15805,7 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="12.75">
@@ -15435,7 +15882,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -15454,10 +15901,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -15468,7 +15915,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -15479,7 +15926,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -15490,7 +15937,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -15501,7 +15948,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -15512,12 +15959,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -16023,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -16034,7 +16481,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -16045,7 +16492,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -16056,7 +16503,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G10" s="1">
         <v>14</v>
@@ -16067,7 +16514,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -16078,7 +16525,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G12" s="1">
         <v>135</v>
@@ -16089,7 +16536,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G13" s="1">
         <v>220</v>
@@ -16100,7 +16547,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G14" s="1">
         <v>444</v>
@@ -16111,7 +16558,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -16122,7 +16569,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G16" s="1">
         <v>700</v>
@@ -16133,7 +16580,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G17" s="1">
         <v>1200</v>
@@ -16144,7 +16591,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1">
         <v>3000</v>
@@ -16155,7 +16602,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G19" s="1">
         <v>5000</v>
@@ -16166,7 +16613,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>210</v>
@@ -16177,7 +16624,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>211</v>
@@ -16188,7 +16635,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>212</v>
@@ -16199,7 +16646,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>213</v>
@@ -16210,7 +16657,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>214</v>
@@ -16221,7 +16668,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>215</v>
@@ -16232,7 +16679,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>216</v>
@@ -16243,7 +16690,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>217</v>
@@ -16254,7 +16701,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>218</v>
@@ -16265,7 +16712,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>219</v>
@@ -16276,7 +16723,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>208</v>
@@ -16287,7 +16734,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>220</v>
@@ -16298,7 +16745,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>221</v>
@@ -16309,7 +16756,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>222</v>
@@ -16320,7 +16767,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>223</v>
@@ -16331,7 +16778,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -16342,7 +16789,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>225</v>
@@ -16392,7 +16839,7 @@
         <v>228</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -16403,10 +16850,10 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -16446,7 +16893,7 @@
   <dimension ref="C3:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16611,7 +17058,7 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -16656,7 +17103,7 @@
         <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L13" s="1">
         <v>8</v>
@@ -16673,7 +17120,7 @@
         <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
@@ -16875,6 +17322,9 @@
       <c r="D30" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="M30" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="1">
@@ -16883,6 +17333,9 @@
       <c r="D31" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="M31" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="32" spans="3:13">
       <c r="C32" s="1">
@@ -16891,24 +17344,33 @@
       <c r="D32" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="33" spans="3:7">
+      <c r="M32" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="34" spans="3:7">
+      <c r="M33" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="M34" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -16916,7 +17378,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:13">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -16924,7 +17386,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:13">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -16932,7 +17394,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:13">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -16940,58 +17402,58 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:13">
       <c r="C39" s="1">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G39" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
       <c r="C40" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="3:13">
       <c r="C41" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="3:13">
       <c r="C42" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="3:7">
+    <row r="43" spans="3:13">
       <c r="C43" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="3:13">
       <c r="C44" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="3:7">
+    <row r="45" spans="3:13">
       <c r="C45" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:7">
+    <row r="46" spans="3:13">
       <c r="C46" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="3:7">
+    <row r="47" spans="3:13">
       <c r="C47" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="3:7">
+    <row r="48" spans="3:13">
       <c r="C48" s="1">
         <v>43</v>
       </c>
@@ -17323,7 +17785,7 @@
         <v>279</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>280</v>
@@ -17348,7 +17810,7 @@
         <v>135</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -17360,16 +17822,16 @@
         <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>284</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>281</v>
@@ -17380,28 +17842,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="K6" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="3:20">
@@ -17409,7 +17871,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>211</v>
@@ -17421,10 +17883,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="K7" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -17450,7 +17912,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>289</v>
@@ -17465,7 +17927,7 @@
         <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -17486,7 +17948,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>292</v>
@@ -17498,10 +17960,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="K9" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -17510,10 +17972,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="S9" s="30"/>
     </row>
@@ -17522,7 +17984,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>294</v>
@@ -17534,10 +17996,10 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="K10" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -17558,7 +18020,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>297</v>
@@ -17570,10 +18032,10 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="K11" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -17594,25 +18056,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="K12" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="N12">
         <v>20</v>
@@ -17633,7 +18095,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>298</v>
@@ -17645,10 +18107,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K13" t="s">
         <v>793</v>
-      </c>
-      <c r="K13" t="s">
-        <v>802</v>
       </c>
       <c r="N13">
         <v>55</v>
@@ -17659,7 +18121,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>299</v>
@@ -17671,10 +18133,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="K14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -17685,7 +18147,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>300</v>
@@ -17697,10 +18159,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="K15" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="N15">
         <v>20</v>
@@ -17711,7 +18173,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>301</v>
@@ -17723,10 +18185,10 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="K16" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="N16">
         <v>35</v>
@@ -17743,10 +18205,10 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="K17" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -17763,10 +18225,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="K18" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="N18">
         <v>80</v>
@@ -17783,10 +18245,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="K19" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -17803,10 +18265,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="N20">
         <v>185</v>
@@ -17823,10 +18285,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="N21">
         <v>110</v>
@@ -17843,10 +18305,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="N22">
         <v>230</v>
@@ -17863,10 +18325,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="N23">
         <v>55</v>
@@ -17883,10 +18345,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="N24">
         <v>35</v>
@@ -17903,10 +18365,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="N25">
         <v>110</v>
@@ -17923,10 +18385,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="N26">
         <v>145</v>
@@ -17937,10 +18399,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="N27">
         <v>55</v>
@@ -17951,10 +18413,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -17965,10 +18427,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -17979,10 +18441,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="N30">
         <v>35</v>
@@ -17993,10 +18455,10 @@
         <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="N31">
         <v>80</v>
@@ -18007,10 +18469,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="N32">
         <v>185</v>
@@ -18021,10 +18483,10 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -18035,10 +18497,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="N34">
         <v>145</v>
@@ -18049,10 +18511,10 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="N35">
         <v>80</v>
@@ -18063,10 +18525,10 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="N36">
         <v>230</v>
@@ -18077,10 +18539,10 @@
         <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -18091,10 +18553,10 @@
         <v>33</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -18105,10 +18567,10 @@
         <v>34</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -18119,10 +18581,10 @@
         <v>35</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -18133,10 +18595,10 @@
         <v>36</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -18147,10 +18609,10 @@
         <v>37</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -18161,10 +18623,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="N43">
         <v>20</v>
@@ -18175,10 +18637,10 @@
         <v>39</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="N44">
         <v>20</v>
@@ -18189,10 +18651,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="N45">
         <v>35</v>
@@ -18203,10 +18665,10 @@
         <v>41</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="N46">
         <v>55</v>
@@ -18217,10 +18679,10 @@
         <v>42</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="N47">
         <v>80</v>
@@ -18231,10 +18693,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="N48">
         <v>100</v>
@@ -18245,10 +18707,10 @@
         <v>44</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="N49">
         <v>110</v>
@@ -18259,10 +18721,10 @@
         <v>45</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="N50">
         <v>145</v>
@@ -18273,10 +18735,10 @@
         <v>46</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="N51">
         <v>185</v>
@@ -18287,10 +18749,10 @@
         <v>47</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="N52">
         <v>230</v>
@@ -18301,10 +18763,10 @@
         <v>48</v>
       </c>
       <c r="J53" s="113" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="N53">
         <v>230</v>
@@ -18315,10 +18777,10 @@
         <v>49</v>
       </c>
       <c r="J54" s="113" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="N54">
         <v>145</v>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B8D6-5C84-434C-9507-E3A344DC71A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8DF73-BF64-420D-A69D-286891605130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -2853,9 +2853,6 @@
     <t>Each beaver is also a woodcamp</t>
   </si>
   <si>
-    <t>Wood price 5%</t>
-  </si>
-  <si>
     <t>Better bait 3%</t>
   </si>
   <si>
@@ -2947,6 +2944,9 @@
   </si>
   <si>
     <t>bot effect amount 7%</t>
+  </si>
+  <si>
+    <t>Gold upgrade effect 0.3%</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4578,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE76D2E-FEA3-454F-BC35-ED3E32220B6F}">
-  <dimension ref="C3:F46"/>
+  <dimension ref="C3:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4591,12 +4591,12 @@
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:10">
       <c r="D3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:10">
       <c r="C4" t="s">
         <v>899</v>
       </c>
@@ -4609,8 +4609,14 @@
       <c r="F4" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4626,8 +4632,15 @@
         <f>2^C5 + 2 * (C5^3) + 1 * (C5 + 1) * 7 + 2</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>J4*0.98</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6">
         <v>2</v>
       </c>
@@ -4643,8 +4656,15 @@
         <f t="shared" ref="F6:F46" si="2">2^C6 + 2 * (C6^3) + 1 * (C6 + 1) * 7 + 2</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="3:6">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J69" si="3">J5*0.98</f>
+        <v>96.039999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7">
         <v>3</v>
       </c>
@@ -4660,8 +4680,15 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="3:6">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>94.119199999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8">
         <v>4</v>
       </c>
@@ -4677,8 +4704,15 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="3:6">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>92.23681599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9">
         <v>5</v>
       </c>
@@ -4694,8 +4728,15 @@
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="3:6">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>90.392079679999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10">
         <v>6</v>
       </c>
@@ -4711,8 +4752,15 @@
         <f t="shared" si="2"/>
         <v>547</v>
       </c>
-    </row>
-    <row r="11" spans="3:6">
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>88.584238086399992</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11">
         <v>7</v>
       </c>
@@ -4728,8 +4776,15 @@
         <f t="shared" si="2"/>
         <v>872</v>
       </c>
-    </row>
-    <row r="12" spans="3:6">
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>86.812553324671995</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12">
         <v>8</v>
       </c>
@@ -4745,8 +4800,15 @@
         <f t="shared" si="2"/>
         <v>1345</v>
       </c>
-    </row>
-    <row r="13" spans="3:6">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>85.076302258178558</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13">
         <v>9</v>
       </c>
@@ -4762,8 +4824,15 @@
         <f t="shared" si="2"/>
         <v>2042</v>
       </c>
-    </row>
-    <row r="14" spans="3:6">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>83.374776213014982</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14">
         <v>10</v>
       </c>
@@ -4779,8 +4848,15 @@
         <f t="shared" si="2"/>
         <v>3103</v>
       </c>
-    </row>
-    <row r="15" spans="3:6">
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>81.707280688754679</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15">
         <v>11</v>
       </c>
@@ -4796,8 +4872,15 @@
         <f t="shared" si="2"/>
         <v>4796</v>
       </c>
-    </row>
-    <row r="16" spans="3:6">
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>80.073135074979589</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16">
         <v>12</v>
       </c>
@@ -4813,8 +4896,15 @@
         <f t="shared" si="2"/>
         <v>7645</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>78.47167237347999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17">
         <v>13</v>
       </c>
@@ -4830,8 +4920,15 @@
         <f t="shared" si="2"/>
         <v>12686</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>76.902238926010384</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18">
         <v>14</v>
       </c>
@@ -4847,8 +4944,15 @@
         <f t="shared" si="2"/>
         <v>21979</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>75.364194147490181</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19">
         <v>15</v>
       </c>
@@ -4864,8 +4968,15 @@
         <f t="shared" si="2"/>
         <v>39632</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>73.856910264540375</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20">
         <v>16</v>
       </c>
@@ -4881,8 +4992,15 @@
         <f t="shared" si="2"/>
         <v>73849</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>72.379772059249561</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21">
         <v>17</v>
       </c>
@@ -4898,8 +5016,15 @@
         <f t="shared" si="2"/>
         <v>141026</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>70.932176618064574</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22">
         <v>18</v>
       </c>
@@ -4915,8 +5040,15 @@
         <f t="shared" si="2"/>
         <v>273943</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>69.513533085703287</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23">
         <v>19</v>
       </c>
@@ -4932,8 +5064,15 @@
         <f t="shared" si="2"/>
         <v>538148</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>68.123262423989217</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24">
         <v>20</v>
       </c>
@@ -4949,8 +5088,15 @@
         <f t="shared" si="2"/>
         <v>1064725</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>66.760797175509438</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25">
         <v>21</v>
       </c>
@@ -4966,8 +5112,15 @@
         <f t="shared" si="2"/>
         <v>2115830</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>65.425581231999246</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26">
         <v>22</v>
       </c>
@@ -4983,8 +5136,15 @@
         <f t="shared" si="2"/>
         <v>4215763</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>64.117069607359255</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
       <c r="C27">
         <v>23</v>
       </c>
@@ -5000,8 +5160,15 @@
         <f t="shared" si="2"/>
         <v>8413112</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="I27">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>62.834728215212067</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
       <c r="C28">
         <v>24</v>
       </c>
@@ -5017,8 +5184,15 @@
         <f t="shared" si="2"/>
         <v>16805041</v>
       </c>
-    </row>
-    <row r="29" spans="3:6">
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>61.578033650907827</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
       <c r="C29">
         <v>25</v>
       </c>
@@ -5034,8 +5208,15 @@
         <f t="shared" si="2"/>
         <v>33585866</v>
       </c>
-    </row>
-    <row r="30" spans="3:6">
+      <c r="I29">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>60.346472977889668</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
       <c r="C30">
         <v>26</v>
       </c>
@@ -5051,8 +5232,15 @@
         <f t="shared" si="2"/>
         <v>67144207</v>
       </c>
-    </row>
-    <row r="31" spans="3:6">
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>59.139543518331877</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
       <c r="C31">
         <v>27</v>
       </c>
@@ -5068,8 +5256,15 @@
         <f t="shared" si="2"/>
         <v>134257292</v>
       </c>
-    </row>
-    <row r="32" spans="3:6">
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>57.956752647965239</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32">
         <v>28</v>
       </c>
@@ -5085,8 +5280,15 @@
         <f t="shared" si="2"/>
         <v>268479565</v>
       </c>
-    </row>
-    <row r="33" spans="3:6">
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>56.797617595005931</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
       <c r="C33">
         <v>29</v>
       </c>
@@ -5102,8 +5304,15 @@
         <f t="shared" si="2"/>
         <v>536919902</v>
       </c>
-    </row>
-    <row r="34" spans="3:6">
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>55.661665243105809</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
       <c r="C34">
         <v>30</v>
       </c>
@@ -5119,8 +5328,15 @@
         <f t="shared" si="2"/>
         <v>1073796043</v>
       </c>
-    </row>
-    <row r="35" spans="3:6">
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>54.548431938243688</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
       <c r="C35">
         <v>31</v>
       </c>
@@ -5136,8 +5352,15 @@
         <f t="shared" si="2"/>
         <v>2147543456</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>53.45746329947881</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
       <c r="C36">
         <v>32</v>
       </c>
@@ -5153,8 +5376,15 @@
         <f t="shared" si="2"/>
         <v>4295033065</v>
       </c>
-    </row>
-    <row r="37" spans="3:6">
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>52.38831403348923</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
       <c r="C37">
         <v>33</v>
       </c>
@@ -5170,8 +5400,15 @@
         <f t="shared" si="2"/>
         <v>8590006706</v>
       </c>
-    </row>
-    <row r="38" spans="3:6">
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>51.340547752819447</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
       <c r="C38">
         <v>34</v>
       </c>
@@ -5187,8 +5424,15 @@
         <f t="shared" si="2"/>
         <v>17179948039</v>
       </c>
-    </row>
-    <row r="39" spans="3:6">
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>50.313736797763056</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
       <c r="C39">
         <v>35</v>
       </c>
@@ -5204,8 +5448,15 @@
         <f t="shared" si="2"/>
         <v>34359824372</v>
       </c>
-    </row>
-    <row r="40" spans="3:6">
+      <c r="I39">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>49.307462061807797</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
       <c r="C40">
         <v>36</v>
       </c>
@@ -5221,8 +5472,15 @@
         <f t="shared" si="2"/>
         <v>68719570309</v>
       </c>
-    </row>
-    <row r="41" spans="3:6">
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>48.321312820571642</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
       <c r="C41">
         <v>37</v>
       </c>
@@ -5238,8 +5496,15 @@
         <f t="shared" si="2"/>
         <v>137439055046</v>
       </c>
-    </row>
-    <row r="42" spans="3:6">
+      <c r="I41">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>47.354886564160211</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
       <c r="C42">
         <v>38</v>
       </c>
@@ -5255,8 +5520,15 @@
         <f t="shared" si="2"/>
         <v>274878016963</v>
       </c>
-    </row>
-    <row r="43" spans="3:6">
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>46.407788832877003</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
       <c r="C43">
         <v>39</v>
       </c>
@@ -5272,8 +5544,15 @@
         <f t="shared" si="2"/>
         <v>549755932808</v>
       </c>
-    </row>
-    <row r="44" spans="3:6">
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>45.479633056219463</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
       <c r="C44">
         <v>40</v>
       </c>
@@ -5289,8 +5568,15 @@
         <f t="shared" si="2"/>
         <v>1099511756065</v>
       </c>
-    </row>
-    <row r="45" spans="3:6">
+      <c r="I44">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>44.57004039509507</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
       <c r="C45">
         <v>41</v>
       </c>
@@ -5306,8 +5592,15 @@
         <f t="shared" si="2"/>
         <v>2199023393690</v>
       </c>
-    </row>
-    <row r="46" spans="3:6">
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>43.678639587193167</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
       <c r="C46">
         <v>42</v>
       </c>
@@ -5322,6 +5615,778 @@
       <c r="F46">
         <f t="shared" si="2"/>
         <v>4398046659583</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>42.805066795449306</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="I47">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>41.948965459540318</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="I48">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>41.109986150349513</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10">
+      <c r="I49">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>40.287786427342525</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10">
+      <c r="I50">
+        <v>47</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>39.482030698795676</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10">
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>38.692390084819763</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10">
+      <c r="I52">
+        <v>49</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>37.918542283123365</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10">
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>37.160171437460896</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10">
+      <c r="I54">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>36.416968008711677</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10">
+      <c r="I55">
+        <v>52</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>35.688628648537446</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10">
+      <c r="I56">
+        <v>53</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>34.974856075566699</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10">
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>34.275358954055363</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58">
+        <v>55</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>33.589851774974257</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59">
+        <v>56</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>32.918054739474769</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60">
+        <v>57</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>32.259693644685271</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61">
+        <v>58</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>31.614499771791564</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62">
+        <v>59</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>30.982209776355731</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10">
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>30.362565580828615</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10">
+      <c r="I64">
+        <v>61</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>29.755314269212043</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10">
+      <c r="I65">
+        <v>62</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>29.160207983827803</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10">
+      <c r="I66">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>28.577003824151248</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10">
+      <c r="I67">
+        <v>64</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>28.005463747668223</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10">
+      <c r="I68">
+        <v>65</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>27.445354472714858</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10">
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>26.896447383260561</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10">
+      <c r="I70">
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70:J133" si="4">J69*0.98</f>
+        <v>26.35851843559535</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10">
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>25.831348066883443</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10">
+      <c r="I72">
+        <v>69</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>25.314721105545775</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10">
+      <c r="I73">
+        <v>70</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>24.80842668343486</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10">
+      <c r="I74">
+        <v>71</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="4"/>
+        <v>24.312258149766162</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10">
+      <c r="I75">
+        <v>72</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>23.826012986770838</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10">
+      <c r="I76">
+        <v>73</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="4"/>
+        <v>23.349492727035422</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10">
+      <c r="I77">
+        <v>74</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>22.882502872494712</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10">
+      <c r="I78">
+        <v>75</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="4"/>
+        <v>22.424852815044819</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10">
+      <c r="I79">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>21.976355758743921</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10">
+      <c r="I80">
+        <v>77</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>21.536828643569041</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10">
+      <c r="I81">
+        <v>78</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>21.10609207069766</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10">
+      <c r="I82">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="4"/>
+        <v>20.683970229283705</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10">
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="4"/>
+        <v>20.27029082469803</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10">
+      <c r="I84">
+        <v>81</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>19.86488500820407</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10">
+      <c r="I85">
+        <v>82</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>19.467587308039988</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10">
+      <c r="I86">
+        <v>83</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>19.07823556187919</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10">
+      <c r="I87">
+        <v>84</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>18.696670850641606</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10">
+      <c r="I88">
+        <v>85</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="4"/>
+        <v>18.322737433628774</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10">
+      <c r="I89">
+        <v>86</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="4"/>
+        <v>17.956282684956197</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10">
+      <c r="I90">
+        <v>87</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>17.597157031257073</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10">
+      <c r="I91">
+        <v>88</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="4"/>
+        <v>17.245213890631931</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10">
+      <c r="I92">
+        <v>89</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>16.900309612819292</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10">
+      <c r="I93">
+        <v>90</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="4"/>
+        <v>16.562303420562905</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10">
+      <c r="I94">
+        <v>91</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="4"/>
+        <v>16.231057352151648</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10">
+      <c r="I95">
+        <v>92</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="4"/>
+        <v>15.906436205108616</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10">
+      <c r="I96">
+        <v>93</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="4"/>
+        <v>15.588307481006444</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10">
+      <c r="I97">
+        <v>94</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="4"/>
+        <v>15.276541331386316</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10">
+      <c r="I98">
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="4"/>
+        <v>14.971010504758588</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10">
+      <c r="I99">
+        <v>96</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="4"/>
+        <v>14.671590294663416</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10">
+      <c r="I100">
+        <v>97</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="4"/>
+        <v>14.378158488770147</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10">
+      <c r="I101">
+        <v>98</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="4"/>
+        <v>14.090595318994744</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10">
+      <c r="I102">
+        <v>99</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="4"/>
+        <v>13.808783412614849</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10">
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="4"/>
+        <v>13.532607744362553</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10">
+      <c r="J104">
+        <f t="shared" si="4"/>
+        <v>13.261955589475301</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10">
+      <c r="J105">
+        <f t="shared" si="4"/>
+        <v>12.996716477685794</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10">
+      <c r="J106">
+        <f t="shared" si="4"/>
+        <v>12.736782148132079</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10">
+      <c r="J107">
+        <f t="shared" si="4"/>
+        <v>12.482046505169437</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10">
+      <c r="J108">
+        <f t="shared" si="4"/>
+        <v>12.232405575066048</v>
+      </c>
+    </row>
+    <row r="109" spans="9:10">
+      <c r="J109">
+        <f t="shared" si="4"/>
+        <v>11.987757463564726</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10">
+      <c r="J110">
+        <f t="shared" si="4"/>
+        <v>11.748002314293432</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10">
+      <c r="J111">
+        <f t="shared" si="4"/>
+        <v>11.513042268007563</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10">
+      <c r="J112">
+        <f t="shared" si="4"/>
+        <v>11.282781422647412</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113">
+        <f t="shared" si="4"/>
+        <v>11.057125794194464</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114">
+        <f t="shared" si="4"/>
+        <v>10.835983278310575</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115">
+        <f t="shared" si="4"/>
+        <v>10.619263612744364</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116">
+        <f t="shared" si="4"/>
+        <v>10.406878340489476</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117">
+        <f t="shared" si="4"/>
+        <v>10.198740773679686</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118">
+        <f t="shared" si="4"/>
+        <v>9.9947659582060933</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119">
+        <f t="shared" si="4"/>
+        <v>9.7948706390419709</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120">
+        <f t="shared" si="4"/>
+        <v>9.5989732262611316</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121">
+        <f t="shared" si="4"/>
+        <v>9.4069937617359081</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122">
+        <f t="shared" si="4"/>
+        <v>9.21885388650119</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123">
+        <f t="shared" si="4"/>
+        <v>9.0344768087711653</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124">
+        <f t="shared" si="4"/>
+        <v>8.8537872725957421</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125">
+        <f t="shared" si="4"/>
+        <v>8.6767115271438264</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126">
+        <f t="shared" si="4"/>
+        <v>8.5031772966009491</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127">
+        <f t="shared" si="4"/>
+        <v>8.3331137506689306</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128">
+        <f t="shared" si="4"/>
+        <v>8.1664514756555526</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129">
+        <f t="shared" si="4"/>
+        <v>8.0031224461424415</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130">
+        <f t="shared" si="4"/>
+        <v>7.8430599972195925</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131">
+        <f t="shared" si="4"/>
+        <v>7.6861987972752006</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132">
+        <f t="shared" si="4"/>
+        <v>7.5324748213296964</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133">
+        <f t="shared" si="4"/>
+        <v>7.3818253249031027</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134">
+        <f t="shared" ref="J134:J145" si="5">J133*0.98</f>
+        <v>7.2341888184050402</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135">
+        <f t="shared" si="5"/>
+        <v>7.0895050420369392</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>6.9477149411962005</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137">
+        <f t="shared" si="5"/>
+        <v>6.8087606423722766</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138">
+        <f t="shared" si="5"/>
+        <v>6.6725854295248306</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139">
+        <f t="shared" si="5"/>
+        <v>6.5391337209343341</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>6.408351046515647</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141">
+        <f t="shared" si="5"/>
+        <v>6.2801840255853341</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142">
+        <f t="shared" si="5"/>
+        <v>6.1545803450736276</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143">
+        <f t="shared" si="5"/>
+        <v>6.0314887381721549</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144">
+        <f t="shared" si="5"/>
+        <v>5.9108589634087121</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145">
+        <f t="shared" si="5"/>
+        <v>5.792641784140538</v>
       </c>
     </row>
   </sheetData>
@@ -6204,8 +7269,8 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O292" sqref="O292"/>
+    <sheetView topLeftCell="C280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6338,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>371</v>
@@ -6618,7 +7683,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>378</v>
@@ -6864,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>336</v>
@@ -7161,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -7201,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -7315,7 +8380,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G28" t="s">
         <v>923</v>
@@ -7354,7 +8419,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G29" t="s">
         <v>924</v>
@@ -7388,7 +8453,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H30">
         <v>1200</v>
@@ -7419,7 +8484,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -7445,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G32" t="s">
         <v>925</v>
@@ -7566,7 +8631,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -7681,7 +8746,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
@@ -7738,7 +8803,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -7856,7 +8921,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -14668,7 +15733,7 @@
         <v>2</v>
       </c>
       <c r="F279" s="65" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="280" spans="2:8" ht="15.75" customHeight="1">
@@ -14695,7 +15760,7 @@
         <v>4</v>
       </c>
       <c r="F281" s="74" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="282" spans="2:8" ht="15.75" customHeight="1">
@@ -14707,7 +15772,7 @@
         <v>5</v>
       </c>
       <c r="F282" s="102" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="15.75" customHeight="1">
@@ -14719,7 +15784,7 @@
         <v>6</v>
       </c>
       <c r="F283" s="101" t="s">
-        <v>934</v>
+        <v>965</v>
       </c>
     </row>
     <row r="284" spans="2:8" ht="15.75" customHeight="1">
@@ -14731,7 +15796,7 @@
         <v>7</v>
       </c>
       <c r="F284" s="100" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="15.75" customHeight="1">
@@ -14767,7 +15832,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="103" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="288" spans="2:8" ht="15.75" customHeight="1">
@@ -14779,7 +15844,7 @@
         <v>11</v>
       </c>
       <c r="F288" s="105" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1">
@@ -14803,7 +15868,7 @@
         <v>13</v>
       </c>
       <c r="F290" s="97" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="15.75" customHeight="1">
@@ -14815,7 +15880,7 @@
         <v>14</v>
       </c>
       <c r="F291" s="75" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1">
@@ -14830,7 +15895,7 @@
         <v>15</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1">
@@ -14842,7 +15907,7 @@
         <v>16</v>
       </c>
       <c r="F293" s="99" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1">
@@ -14854,7 +15919,7 @@
         <v>17</v>
       </c>
       <c r="F294" s="97" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1">
@@ -14885,8 +15950,8 @@
   </sheetPr>
   <dimension ref="C2:L76"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17334,7 +18399,7 @@
         <v>271</v>
       </c>
       <c r="M31" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -17345,7 +18410,7 @@
         <v>272</v>
       </c>
       <c r="M32" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -17356,7 +18421,7 @@
         <v>273</v>
       </c>
       <c r="M33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="3:13">
@@ -17367,7 +18432,7 @@
         <v>274</v>
       </c>
       <c r="M34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="35" spans="3:13">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8DF73-BF64-420D-A69D-286891605130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFBC04F-4C45-4FA0-AA24-167971929B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1022">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>time played</t>
-  </si>
-  <si>
-    <t>Dam parts built</t>
   </si>
   <si>
     <t>bots bought</t>
@@ -2874,9 +2871,6 @@
     <t>wood spent total</t>
   </si>
   <si>
-    <t>Beavers total</t>
-  </si>
-  <si>
     <t>Improve magic effects 4.5%</t>
   </si>
   <si>
@@ -2947,6 +2941,180 @@
   </si>
   <si>
     <t>Gold upgrade effect 0.3%</t>
+  </si>
+  <si>
+    <t>Unlock 5 wood types</t>
+  </si>
+  <si>
+    <t>Unlock 10 wood types</t>
+  </si>
+  <si>
+    <t>click on this achievement</t>
+  </si>
+  <si>
+    <t>Have 100 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 1000 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10000 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 100000 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10^6 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10^7 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10^8 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10^9 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 10^10 woodcamps</t>
+  </si>
+  <si>
+    <t>Have 100 beavers</t>
+  </si>
+  <si>
+    <t>Have 1000 beavers</t>
+  </si>
+  <si>
+    <t>Have 10000 beavers</t>
+  </si>
+  <si>
+    <t>Have 100000 beavers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>24 h played</t>
+  </si>
+  <si>
+    <t>Unlock all wood types</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^8</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^9</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^10</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^11</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^12</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^13</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^14</t>
+  </si>
+  <si>
+    <t>Total wood produced 10^15</t>
+  </si>
+  <si>
+    <t>Construct the small dam</t>
+  </si>
+  <si>
+    <t>Construct medium dam</t>
+  </si>
+  <si>
+    <t>Construct Big Dam</t>
+  </si>
+  <si>
+    <t>Construct Giant Dam / Mega Dam</t>
+  </si>
+  <si>
+    <t>Sell all the produced wood with bots</t>
+  </si>
+  <si>
+    <t>Find electric eal</t>
+  </si>
+  <si>
+    <t>Find Giant squid</t>
+  </si>
+  <si>
+    <t>Unlock all baits</t>
+  </si>
+  <si>
+    <t>Unlock fishing spot 1</t>
+  </si>
+  <si>
+    <t>Unlock fishing spot 2</t>
+  </si>
+  <si>
+    <t>Unlock fishing spot 3</t>
+  </si>
+  <si>
+    <t>Unlock fishing spot 4</t>
+  </si>
+  <si>
+    <t>Unlock fishing spot 5</t>
+  </si>
+  <si>
+    <t>gold gain per sec +1000</t>
+  </si>
+  <si>
+    <t>gold gain per sec +10000</t>
+  </si>
+  <si>
+    <t>gold gain per sec +190000</t>
+  </si>
+  <si>
+    <t>gold gain per sec +2800000</t>
+  </si>
+  <si>
+    <t>gold gain per sec +37000000</t>
+  </si>
+  <si>
+    <t>gold gain per sec +460000000</t>
+  </si>
+  <si>
+    <t>Ascend 1 time</t>
+  </si>
+  <si>
+    <t>Ascend 5 times</t>
+  </si>
+  <si>
+    <t>Ascend 25 times</t>
+  </si>
+  <si>
+    <t>Ascend 75 times</t>
+  </si>
+  <si>
+    <t>Ascend 150 times</t>
+  </si>
+  <si>
+    <t>Click 1 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manually click 10,000 times in one session</t>
+  </si>
+  <si>
+    <t>Why Are We Clicking?</t>
+  </si>
+  <si>
+    <t>Dams you can build multiple of the same time one at the time increase 2 at the time with research myb, and then those are first 4 tiers and the fift is a dam around the world that requirese 50x resources and you need to build up for it</t>
+  </si>
+  <si>
+    <t>All upgrades lvl 100</t>
+  </si>
+  <si>
+    <t>Click all buttons in the game</t>
+  </si>
+  <si>
+    <t>Buy all magic upgrades</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4221,7 @@
     </row>
     <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4096,7 +4264,7 @@
     </row>
     <row r="14" spans="2:10" ht="12.75">
       <c r="B14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4119,7 +4287,7 @@
     </row>
     <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4327,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -4395,7 +4563,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -4412,7 +4580,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -4446,7 +4614,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -4463,7 +4631,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -4480,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -4514,7 +4682,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -4531,7 +4699,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -4593,21 +4761,21 @@
   <sheetData>
     <row r="3" spans="3:10">
       <c r="D3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="3:10">
       <c r="C4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D4" t="s">
         <v>899</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>901</v>
+      </c>
+      <c r="F4" t="s">
         <v>900</v>
-      </c>
-      <c r="E4" t="s">
-        <v>902</v>
-      </c>
-      <c r="F4" t="s">
-        <v>901</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7308,7 +7476,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75">
@@ -7316,26 +7484,26 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="N4" s="45" t="s">
         <v>508</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
@@ -7349,7 +7517,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -7361,16 +7529,16 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M5" s="114" t="s">
         <v>78</v>
@@ -7403,23 +7571,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M113 + 1.3 * M113^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -7452,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75">
@@ -7472,26 +7640,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M113 + 1.3 * M113^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -7524,7 +7692,7 @@
         <v>98</v>
       </c>
       <c r="W7" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75">
@@ -7544,25 +7712,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -7580,22 +7748,22 @@
         <v>103</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T8" s="27" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75">
@@ -7615,22 +7783,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -7648,22 +7816,22 @@
         <v>110</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T9" s="27" t="s">
         <v>111</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V9" s="38" t="s">
         <v>112</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.75">
@@ -7683,10 +7851,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -7704,21 +7872,21 @@
         <v>116</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R10" s="27"/>
       <c r="S10" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W10" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75">
@@ -7738,19 +7906,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -7759,25 +7927,25 @@
         <v>118</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75">
@@ -7797,16 +7965,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -7815,22 +7983,22 @@
         <v>121</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U12" s="27"/>
       <c r="V12" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W12" s="40"/>
     </row>
@@ -7851,7 +8019,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -7860,7 +8028,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>123</v>
@@ -7873,11 +8041,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U13" s="27"/>
       <c r="V13" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W13" s="40"/>
     </row>
@@ -7895,17 +8063,17 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>125</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -7929,17 +8097,17 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -7963,17 +8131,17 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
@@ -7997,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -8005,11 +8173,11 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -8033,15 +8201,15 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -8068,16 +8236,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -8099,13 +8267,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -8130,13 +8298,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -8158,13 +8326,13 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -8186,13 +8354,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -8201,7 +8369,7 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -8226,13 +8394,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -8241,7 +8409,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -8266,13 +8434,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -8281,7 +8449,7 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -8305,13 +8473,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -8320,7 +8488,7 @@
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -8344,13 +8512,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -8359,7 +8527,7 @@
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -8380,22 +8548,22 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -8419,10 +8587,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H29">
         <v>1000</v>
@@ -8453,13 +8621,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -8484,16 +8652,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -8510,16 +8678,16 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" thickBot="1">
@@ -8533,10 +8701,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" thickBot="1">
@@ -8550,7 +8718,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -8578,16 +8746,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -8614,7 +8782,7 @@
         <v>88</v>
       </c>
       <c r="W35" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X35" s="56" t="s">
         <v>233</v>
@@ -8631,7 +8799,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -8641,40 +8809,40 @@
         <v>1</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="12.75">
@@ -8688,51 +8856,51 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="40">
         <v>2</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.75">
@@ -8746,50 +8914,50 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L38" s="40">
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R38" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="12.75">
@@ -8803,7 +8971,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -8814,40 +8982,40 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R39" s="84" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U39" s="87" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W39" s="89" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="12.75">
@@ -8864,47 +9032,47 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L40" s="40">
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.75">
@@ -8921,7 +9089,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -8929,35 +9097,35 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="X41" s="55"/>
     </row>
@@ -8976,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -8986,35 +9154,35 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="X42" s="55"/>
     </row>
@@ -9032,42 +9200,42 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P43" s="57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X43" s="55"/>
     </row>
@@ -9085,42 +9253,42 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P44" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X44" s="55"/>
     </row>
@@ -9141,40 +9309,40 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P45" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X45" s="59"/>
     </row>
@@ -9192,40 +9360,40 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P46" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="X46" s="55"/>
     </row>
@@ -9243,40 +9411,40 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P47" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="X47" s="55"/>
     </row>
@@ -9294,38 +9462,38 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P48" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X48" s="55"/>
     </row>
@@ -9343,38 +9511,38 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P49" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="X49" s="55"/>
     </row>
@@ -9392,38 +9560,38 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P50" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="X50" s="55"/>
     </row>
@@ -9441,35 +9609,35 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
       </c>
       <c r="M51" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N51" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O51" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P51" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="X51" s="55"/>
     </row>
@@ -9487,11 +9655,11 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I52">
         <v>21</v>
@@ -9500,35 +9668,35 @@
         <v>10</v>
       </c>
       <c r="K52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L52" s="40">
         <v>17</v>
       </c>
       <c r="M52" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O52" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P52" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X52" s="55"/>
     </row>
@@ -9546,39 +9714,39 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L53" s="40">
         <v>18</v>
       </c>
       <c r="M53" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P53" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="X53" s="55"/>
     </row>
@@ -9596,36 +9764,36 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G54" s="1"/>
       <c r="L54" s="40">
         <v>19</v>
       </c>
       <c r="M54" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O54" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P54" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="X54" s="55"/>
     </row>
@@ -9643,7 +9811,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -9659,29 +9827,29 @@
         <v>20</v>
       </c>
       <c r="M55" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P55" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="X55" s="55"/>
     </row>
@@ -9699,36 +9867,36 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G56" s="1"/>
       <c r="L56" s="40">
         <v>21</v>
       </c>
       <c r="M56" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P56" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="X56" s="55"/>
     </row>
@@ -9749,36 +9917,36 @@
         <v>16</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G57" s="1"/>
       <c r="L57" s="40">
         <v>22</v>
       </c>
       <c r="M57" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P57" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X57" s="55"/>
     </row>
@@ -9796,24 +9964,24 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G58" s="1"/>
       <c r="L58" s="40">
         <v>23</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -9821,7 +9989,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X58" s="55"/>
     </row>
@@ -9839,27 +10007,27 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L59" s="40">
         <v>24</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -9867,7 +10035,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X59" s="55"/>
     </row>
@@ -9886,23 +10054,23 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -9910,7 +10078,7 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="X60" s="55"/>
     </row>
@@ -9928,7 +10096,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -9937,17 +10105,17 @@
         <v>26</v>
       </c>
       <c r="M61" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -9955,7 +10123,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="X61" s="55"/>
     </row>
@@ -9973,23 +10141,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -9997,7 +10165,7 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="X62" s="55"/>
     </row>
@@ -10012,23 +10180,23 @@
         <v>4</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L63" s="40">
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -10036,7 +10204,7 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X63" s="55"/>
     </row>
@@ -10051,23 +10219,23 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
       </c>
       <c r="M64" s="71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -10088,23 +10256,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -10125,23 +10293,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N66" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -10162,23 +10330,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -10199,23 +10367,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N68" s="63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -10236,19 +10404,19 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N69" s="63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -10274,19 +10442,19 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
       </c>
       <c r="M70" s="80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -10309,16 +10477,16 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
       </c>
       <c r="M71" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -10342,16 +10510,16 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
       </c>
       <c r="M72" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -10375,16 +10543,16 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -10408,16 +10576,16 @@
         <v>15</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L74" s="40">
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -10441,16 +10609,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -10474,16 +10642,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -10507,19 +10675,19 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -10544,16 +10712,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -10577,16 +10745,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -10610,16 +10778,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -10643,14 +10811,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -10674,14 +10842,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -10708,14 +10876,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -10739,14 +10907,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -10770,14 +10938,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -10801,14 +10969,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -10832,7 +11000,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -10882,7 +11050,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -10914,10 +11082,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="12.75">
@@ -10931,10 +11099,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -10961,10 +11129,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -10991,10 +11159,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -11021,10 +11189,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -11054,10 +11222,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -11084,10 +11252,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -11115,10 +11283,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -11145,10 +11313,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -11175,10 +11343,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -11205,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -11235,10 +11403,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -11265,10 +11433,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -11295,10 +11463,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -11325,7 +11493,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T103" s="45"/>
     </row>
@@ -11340,7 +11508,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105" spans="2:24" ht="12.75">
@@ -11354,7 +11522,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106" spans="2:24" ht="12.75">
@@ -11368,7 +11536,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="2:24" ht="12.75">
@@ -11382,7 +11550,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="12.75">
@@ -11399,7 +11567,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="12.75">
@@ -11413,10 +11581,10 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G109" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -11442,7 +11610,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="2:24" ht="12.75">
@@ -11456,7 +11624,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="2:24" ht="12.75">
@@ -11470,14 +11638,14 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="2:24" ht="12.75">
@@ -11491,7 +11659,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -11510,7 +11678,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -11538,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -11553,7 +11721,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -11580,7 +11748,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -11595,7 +11763,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -11622,7 +11790,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -11637,7 +11805,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -11664,7 +11832,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -11697,7 +11865,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -11729,7 +11897,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -11763,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -11788,7 +11956,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -11813,7 +11981,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -11838,7 +12006,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -11863,7 +12031,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -11888,7 +12056,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -11913,7 +12081,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -11938,7 +12106,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -11963,7 +12131,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -11991,7 +12159,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -12016,7 +12184,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -12041,7 +12209,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -12067,10 +12235,10 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L132" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M132">
         <v>20</v>
@@ -12095,10 +12263,10 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M133">
         <v>21</v>
@@ -12123,10 +12291,10 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L134" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M134">
         <v>22</v>
@@ -12151,7 +12319,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -12176,10 +12344,10 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M136">
         <v>24</v>
@@ -12204,7 +12372,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -12229,7 +12397,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -12254,7 +12422,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -12279,7 +12447,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -12304,7 +12472,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -12329,7 +12497,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -12354,7 +12522,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -12379,7 +12547,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -12404,7 +12572,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -12429,7 +12597,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -12454,7 +12622,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -12479,7 +12647,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -12507,7 +12675,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -12533,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -12558,7 +12726,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -12583,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -12611,7 +12779,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -12636,7 +12804,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -12664,7 +12832,7 @@
         <v>6</v>
       </c>
       <c r="F155" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M155">
         <v>43</v>
@@ -12689,7 +12857,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -12714,7 +12882,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -12739,7 +12907,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -12764,7 +12932,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -12789,7 +12957,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -12814,7 +12982,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -12839,7 +13007,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -12864,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -12889,7 +13057,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -12914,7 +13082,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -12939,7 +13107,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -12964,7 +13132,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -12990,7 +13158,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -13015,7 +13183,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -13040,7 +13208,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -13065,7 +13233,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -13090,7 +13258,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -13115,7 +13283,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -13140,7 +13308,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -13165,7 +13333,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -13190,7 +13358,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -13215,7 +13383,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -13240,7 +13408,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -13265,10 +13433,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G179" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -13296,7 +13464,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -13321,7 +13489,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -13346,7 +13514,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -13371,7 +13539,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -13399,7 +13567,7 @@
         <v>17</v>
       </c>
       <c r="F184" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M184">
         <v>72</v>
@@ -13424,7 +13592,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -13450,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -13478,7 +13646,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -13503,7 +13671,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -13528,7 +13696,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -13553,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M190">
         <v>78</v>
@@ -13578,7 +13746,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -13603,7 +13771,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -13628,7 +13796,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -13653,7 +13821,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -13678,7 +13846,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -13703,7 +13871,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -13728,7 +13896,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -13756,7 +13924,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M198">
         <v>86</v>
@@ -13781,7 +13949,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -13806,7 +13974,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -13831,7 +13999,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -13856,7 +14024,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -13881,7 +14049,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -13907,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -13932,7 +14100,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -13957,7 +14125,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -13982,7 +14150,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -14007,7 +14175,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -14032,7 +14200,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -14060,7 +14228,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -14085,7 +14253,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -14110,7 +14278,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -14135,7 +14303,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -14160,7 +14328,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -14185,7 +14353,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -14210,7 +14378,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -14235,7 +14403,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -14263,7 +14431,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M218">
         <v>106</v>
@@ -14288,7 +14456,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -14313,7 +14481,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -14338,7 +14506,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -14366,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -14391,7 +14559,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -14416,7 +14584,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -14441,7 +14609,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -14466,7 +14634,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -14491,7 +14659,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -14519,7 +14687,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M228">
         <v>116</v>
@@ -14544,7 +14712,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -14569,7 +14737,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -14594,7 +14762,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -14619,7 +14787,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -14644,7 +14812,7 @@
         <v>12</v>
       </c>
       <c r="F233" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M233">
         <v>121</v>
@@ -14669,7 +14837,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -14694,7 +14862,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -14719,7 +14887,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -14744,7 +14912,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -14769,7 +14937,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -14794,7 +14962,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -14823,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -14851,7 +15019,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -14879,10 +15047,10 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H242" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M242">
         <v>130</v>
@@ -14907,10 +15075,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H243" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M243">
         <v>131</v>
@@ -14935,10 +15103,10 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H244" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M244">
         <v>132</v>
@@ -14966,10 +15134,10 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H245" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M245">
         <v>133</v>
@@ -14994,10 +15162,10 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M246">
         <v>134</v>
@@ -15022,10 +15190,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H247" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M247">
         <v>135</v>
@@ -15050,10 +15218,10 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H248" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M248">
         <v>136</v>
@@ -15078,10 +15246,10 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H249" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M249">
         <v>137</v>
@@ -15112,10 +15280,10 @@
         <v>11</v>
       </c>
       <c r="F250" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H250" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M250">
         <v>138</v>
@@ -15143,10 +15311,10 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M251">
         <v>139</v>
@@ -15174,10 +15342,10 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H252" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M252">
         <v>140</v>
@@ -15205,10 +15373,10 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H253" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M253">
         <v>141</v>
@@ -15233,10 +15401,10 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H254" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M254">
         <v>142</v>
@@ -15261,10 +15429,10 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H255" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M255">
         <v>143</v>
@@ -15289,10 +15457,10 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H256" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M256">
         <v>144</v>
@@ -15317,7 +15485,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -15343,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -15371,7 +15539,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -15402,10 +15570,10 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H260" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M260">
         <v>148</v>
@@ -15430,10 +15598,10 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H261" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M261">
         <v>149</v>
@@ -15458,10 +15626,10 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H262" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M262">
         <v>150</v>
@@ -15486,10 +15654,10 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H263" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264" spans="2:15" ht="15.75" customHeight="1">
@@ -15503,10 +15671,10 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H264" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="265" spans="2:15" ht="15.75" customHeight="1">
@@ -15520,10 +15688,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H265" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="266" spans="2:15" ht="15.75" customHeight="1">
@@ -15537,13 +15705,13 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G266" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H266" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="2:15" ht="15.75" customHeight="1">
@@ -15557,10 +15725,10 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H267" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="2:15" ht="15.75" customHeight="1">
@@ -15574,10 +15742,10 @@
         <v>11</v>
       </c>
       <c r="F268" s="105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H268" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="269" spans="2:15" ht="15.75" customHeight="1">
@@ -15591,10 +15759,10 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H269" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="2:15" ht="15.75" customHeight="1">
@@ -15608,10 +15776,10 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H270" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="2:15" ht="15.75" customHeight="1">
@@ -15625,10 +15793,10 @@
         <v>14</v>
       </c>
       <c r="F271" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H271" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="2:15" ht="15.75" customHeight="1">
@@ -15645,10 +15813,10 @@
         <v>15</v>
       </c>
       <c r="F272" s="105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H272" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="2:8" ht="15.75" customHeight="1">
@@ -15662,10 +15830,10 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H273" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="274" spans="2:8" ht="15.75" customHeight="1">
@@ -15679,10 +15847,10 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H274" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="275" spans="2:8" ht="15.75" customHeight="1">
@@ -15696,10 +15864,10 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H275" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="2:8" ht="15.75" customHeight="1">
@@ -15708,38 +15876,38 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="278" spans="2:8" ht="15.75" customHeight="1">
       <c r="B278" s="106"/>
       <c r="C278" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D278" s="108"/>
       <c r="E278" s="106">
         <v>1</v>
       </c>
       <c r="F278" s="105" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="279" spans="2:8" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="C279" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E279" s="67">
         <v>2</v>
       </c>
       <c r="F279" s="65" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="280" spans="2:8" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="C280" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D280">
         <v>1.1499999999999999</v>
@@ -15748,145 +15916,145 @@
         <v>3</v>
       </c>
       <c r="F280" s="75" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="281" spans="2:8" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="C281" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E281" s="67">
         <v>4</v>
       </c>
       <c r="F281" s="74" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="282" spans="2:8" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="C282" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E282" s="67">
         <v>5</v>
       </c>
       <c r="F282" s="102" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="C283" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E283" s="67">
         <v>6</v>
       </c>
       <c r="F283" s="101" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="284" spans="2:8" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="C284" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E284" s="67">
         <v>7</v>
       </c>
       <c r="F284" s="100" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="C285" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E285" s="67">
         <v>8</v>
       </c>
       <c r="F285" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="2:8" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="C286" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E286" s="67">
         <v>9</v>
       </c>
       <c r="F286" s="74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287" spans="2:8" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="C287" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E287" s="67">
         <v>10</v>
       </c>
       <c r="F287" s="103" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="288" spans="2:8" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="C288" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E288" s="67">
         <v>11</v>
       </c>
       <c r="F288" s="105" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="C289" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E289" s="67">
         <v>12</v>
       </c>
       <c r="F289" s="65" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="C290" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E290" s="67">
         <v>13</v>
       </c>
       <c r="F290" s="97" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="C291" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E291" s="67">
         <v>14</v>
       </c>
       <c r="F291" s="75" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="C292" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D292">
         <v>1.26</v>
@@ -15895,43 +16063,43 @@
         <v>15</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="C293" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E293" s="67">
         <v>16</v>
       </c>
       <c r="F293" s="99" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="C294" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E294" s="67">
         <v>17</v>
       </c>
       <c r="F294" s="97" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="C295" s="107" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E295" s="67">
         <v>18</v>
       </c>
       <c r="F295" s="103" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -15950,7 +16118,7 @@
   </sheetPr>
   <dimension ref="C2:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -15967,7 +16135,7 @@
     </row>
     <row r="3" spans="3:12" ht="15.75" customHeight="1">
       <c r="L3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="12.75">
@@ -15996,7 +16164,7 @@
         <v>136</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="12.75">
@@ -16013,13 +16181,13 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J5" t="s">
         <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="12.75">
@@ -16033,10 +16201,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="12.75">
@@ -16050,7 +16218,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="12.75">
@@ -16064,7 +16232,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="12.75">
@@ -16078,7 +16246,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="12.75">
@@ -16095,7 +16263,7 @@
         <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="12.75">
@@ -16109,10 +16277,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="G11" t="s">
         <v>912</v>
-      </c>
-      <c r="G11" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="12.75">
@@ -16126,7 +16294,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="12.75">
@@ -16140,7 +16308,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="12.75">
@@ -16154,7 +16322,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="12.75">
@@ -16168,7 +16336,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="12.75">
@@ -16182,7 +16350,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="12.75">
@@ -16196,7 +16364,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="12.75">
@@ -16210,7 +16378,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="12.75">
@@ -16224,7 +16392,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="12.75">
@@ -16238,7 +16406,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="12.75">
@@ -16252,7 +16420,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="12.75">
@@ -16266,7 +16434,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="12.75">
@@ -16280,7 +16448,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="12.75">
@@ -16294,7 +16462,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="12.75">
@@ -16308,7 +16476,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="12.75">
@@ -16322,7 +16490,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="12.75">
@@ -16350,7 +16518,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="12.75">
@@ -16364,7 +16532,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="12.75">
@@ -16378,7 +16546,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -16421,7 +16589,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I33" s="27"/>
     </row>
@@ -16466,7 +16634,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I36" s="27" t="s">
         <v>119</v>
@@ -16483,7 +16651,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
@@ -16500,7 +16668,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>124</v>
@@ -16520,7 +16688,7 @@
         <v>142</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="12.75">
@@ -16534,10 +16702,10 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="12.75">
@@ -16554,7 +16722,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="12.75">
@@ -16568,10 +16736,10 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="12.75">
@@ -16588,7 +16756,7 @@
         <v>140</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="12.75">
@@ -16605,7 +16773,7 @@
         <v>179</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="12.75">
@@ -16622,7 +16790,7 @@
         <v>165</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="12.75">
@@ -16639,7 +16807,7 @@
         <v>177</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="12.75">
@@ -16653,10 +16821,10 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="12.75">
@@ -16670,10 +16838,10 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="12.75">
@@ -16690,7 +16858,7 @@
         <v>182</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="12.75">
@@ -16707,7 +16875,7 @@
         <v>173</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="12.75">
@@ -16721,10 +16889,10 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="12.75">
@@ -16741,7 +16909,7 @@
         <v>178</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="12.75">
@@ -16755,10 +16923,10 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="12.75">
@@ -16772,7 +16940,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="12.75">
@@ -16814,7 +16982,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="12.75">
@@ -16870,7 +17038,7 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="12.75">
@@ -16947,7 +17115,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -16966,10 +17134,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
+        <v>744</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -16980,7 +17148,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -16991,7 +17159,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -17002,7 +17170,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -17013,7 +17181,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -17024,12 +17192,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -17535,7 +17703,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -17546,7 +17714,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -17557,7 +17725,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -17568,7 +17736,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G10" s="1">
         <v>14</v>
@@ -17579,7 +17747,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -17590,7 +17758,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G12" s="1">
         <v>135</v>
@@ -17601,7 +17769,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G13" s="1">
         <v>220</v>
@@ -17612,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G14" s="1">
         <v>444</v>
@@ -17623,7 +17791,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -17634,7 +17802,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G16" s="1">
         <v>700</v>
@@ -17645,7 +17813,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G17" s="1">
         <v>1200</v>
@@ -17656,7 +17824,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G18" s="1">
         <v>3000</v>
@@ -17667,7 +17835,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G19" s="1">
         <v>5000</v>
@@ -17678,7 +17846,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>210</v>
@@ -17689,7 +17857,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>211</v>
@@ -17700,7 +17868,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>212</v>
@@ -17711,7 +17879,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>213</v>
@@ -17722,7 +17890,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>214</v>
@@ -17733,7 +17901,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>215</v>
@@ -17744,7 +17912,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>216</v>
@@ -17755,7 +17923,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>217</v>
@@ -17766,7 +17934,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>218</v>
@@ -17777,7 +17945,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>219</v>
@@ -17788,7 +17956,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>208</v>
@@ -17799,7 +17967,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>220</v>
@@ -17810,7 +17978,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>221</v>
@@ -17821,7 +17989,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>222</v>
@@ -17832,7 +18000,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>223</v>
@@ -17843,7 +18011,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -17854,7 +18022,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>225</v>
@@ -17904,7 +18072,7 @@
         <v>228</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -17915,10 +18083,10 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -17957,14 +18125,15 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="E51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -18045,6 +18214,12 @@
       <c r="D6" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>964</v>
+      </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
@@ -18059,6 +18234,12 @@
       <c r="D7" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>965</v>
+      </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
@@ -18073,6 +18254,12 @@
       <c r="D8" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>982</v>
+      </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
@@ -18087,6 +18274,12 @@
       <c r="D9" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>966</v>
+      </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
@@ -18123,7 +18316,13 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -18139,6 +18338,12 @@
       <c r="D11" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
@@ -18153,6 +18358,12 @@
       <c r="D12" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
@@ -18168,7 +18379,13 @@
         <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="L13" s="1">
         <v>8</v>
@@ -18185,7 +18402,13 @@
         <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
@@ -18201,6 +18424,12 @@
       <c r="D15" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
@@ -18215,6 +18444,12 @@
       <c r="D16" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="L16" s="1">
         <v>11</v>
       </c>
@@ -18229,11 +18464,17 @@
       <c r="D17" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="L17" s="1">
         <v>12</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>257</v>
+      <c r="M17" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="3:13">
@@ -18243,11 +18484,17 @@
       <c r="D18" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>967</v>
+      </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="3:13">
@@ -18257,11 +18504,17 @@
       <c r="D19" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>968</v>
+      </c>
       <c r="L19" s="1">
         <v>14</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="3:13">
@@ -18271,11 +18524,17 @@
       <c r="D20" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -18285,11 +18544,17 @@
       <c r="D21" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>970</v>
+      </c>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:13">
@@ -18299,11 +18564,17 @@
       <c r="D22" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>971</v>
+      </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="3:13">
@@ -18313,11 +18584,17 @@
       <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>972</v>
+      </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="3:13">
@@ -18327,11 +18604,17 @@
       <c r="D24" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>973</v>
+      </c>
       <c r="L24" s="1">
         <v>19</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -18341,11 +18624,17 @@
       <c r="D25" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>974</v>
+      </c>
       <c r="L25" s="1">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -18353,7 +18642,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="H26">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="27" spans="3:13">
@@ -18361,7 +18656,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="28" spans="3:13">
@@ -18369,7 +18670,13 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="29" spans="3:13">
@@ -18377,18 +18684,30 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="H29">
+        <v>24</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J29" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>270</v>
+      <c r="H30">
+        <v>25</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="M30" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="3:13">
@@ -18396,289 +18715,496 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="M31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="3:13">
       <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>272</v>
+      <c r="H32">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>983</v>
       </c>
       <c r="M32" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
       <c r="C33" s="1">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M33" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13">
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
       <c r="C34" s="1">
         <v>29</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13">
+      <c r="H34">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
       <c r="C35" s="1">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
       <c r="C36" s="1">
         <v>31</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13">
+      <c r="H36">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
       <c r="C37" s="1">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
+      <c r="H37">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
       <c r="C38" s="1">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
+      <c r="H38">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
       <c r="C39" s="1">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G39" t="s">
         <v>414</v>
       </c>
-      <c r="G39" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
       <c r="C40" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="3:13">
+      <c r="H40">
+        <v>35</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
       <c r="C41" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="3:13">
+      <c r="H41">
+        <v>36</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
       <c r="C42" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="3:13">
+      <c r="H42">
+        <v>37</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
       <c r="C43" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="3:13">
+      <c r="H43">
+        <v>38</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
       <c r="C44" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="3:13">
+      <c r="H44">
+        <v>39</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
       <c r="C45" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="3:13">
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
       <c r="C46" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="3:13">
+      <c r="H46">
+        <v>41</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
       <c r="C47" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="3:13">
+      <c r="H47">
+        <v>42</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
       <c r="C48" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="H48">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
       <c r="C49" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
       <c r="C50" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="H50">
+        <v>45</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
       <c r="C51" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="H51">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
       <c r="C52" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="3:3">
+      <c r="H52">
+        <v>47</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
       <c r="C53" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="H53">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="H54">
+        <v>49</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
       <c r="C55" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
       <c r="C56" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="H56">
+        <v>51</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
       <c r="C57" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="3:3">
+      <c r="H57">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
       <c r="C58" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="H58">
+        <v>53</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
       <c r="C59" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="3:3">
+      <c r="H59">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
       <c r="C60" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="3:3">
+      <c r="H60">
+        <v>55</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
       <c r="C61" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="3:3">
+      <c r="H61">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
       <c r="C62" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="3:3">
+      <c r="H62">
+        <v>57</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="H63">
+        <v>58</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
       <c r="C64" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="H64">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10">
       <c r="C65" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="H65">
+        <v>60</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
       <c r="C66" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="H66">
+        <v>61</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10">
       <c r="C67" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="H67">
+        <v>62</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10">
       <c r="C68" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="H68">
+        <v>63</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10">
       <c r="C69" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:10">
       <c r="C70" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:10">
       <c r="C71" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:10">
       <c r="C72" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:10">
       <c r="C73" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:10">
       <c r="C74" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:10">
       <c r="C75" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:10">
       <c r="C76" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:10">
       <c r="C77" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:10">
       <c r="C78" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:10">
       <c r="C79" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:10">
       <c r="C80" s="1">
         <v>75</v>
       </c>
@@ -18812,6 +19338,7 @@
   <mergeCells count="1">
     <mergeCell ref="O4:U4"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18847,13 +19374,13 @@
   <sheetData>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>889</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>890</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -18866,16 +19393,16 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -18887,19 +19414,19 @@
         <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N5" s="46" t="s">
+        <v>890</v>
+      </c>
+      <c r="O5" s="46" t="s">
         <v>891</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>892</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="3:20">
@@ -18907,28 +19434,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="3:20">
@@ -18936,7 +19463,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>211</v>
@@ -18948,10 +19475,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -18963,7 +19490,7 @@
         <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>56</v>
@@ -18977,10 +19504,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" s="1">
         <v>20</v>
@@ -18989,10 +19516,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -19001,10 +19528,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="S8" s="29"/>
     </row>
@@ -19013,10 +19540,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="1">
         <v>35</v>
@@ -19025,10 +19552,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="K9" t="s">
         <v>809</v>
-      </c>
-      <c r="K9" t="s">
-        <v>810</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -19037,10 +19564,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="S9" s="30"/>
     </row>
@@ -19049,10 +19576,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="1">
         <v>55</v>
@@ -19061,10 +19588,10 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -19073,10 +19600,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="S10" s="32"/>
     </row>
@@ -19085,10 +19612,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
@@ -19097,10 +19624,10 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -19109,7 +19636,7 @@
         <v>4</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>85</v>
@@ -19121,25 +19648,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N12">
         <v>20</v>
@@ -19148,10 +19675,10 @@
         <v>5</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="S12" s="34"/>
     </row>
@@ -19160,10 +19687,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F13" s="1">
         <v>110</v>
@@ -19172,10 +19699,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N13">
         <v>55</v>
@@ -19186,10 +19713,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F14" s="1">
         <v>145</v>
@@ -19198,10 +19725,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -19212,10 +19739,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="1">
         <v>185</v>
@@ -19224,10 +19751,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N15">
         <v>20</v>
@@ -19238,10 +19765,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16" s="46">
         <v>230</v>
@@ -19250,10 +19777,10 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N16">
         <v>35</v>
@@ -19270,10 +19797,10 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -19290,10 +19817,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="K18" t="s">
         <v>790</v>
-      </c>
-      <c r="K18" t="s">
-        <v>791</v>
       </c>
       <c r="N18">
         <v>80</v>
@@ -19310,10 +19837,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -19330,10 +19857,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="N20">
         <v>185</v>
@@ -19350,10 +19877,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N21">
         <v>110</v>
@@ -19370,10 +19897,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="N22">
         <v>230</v>
@@ -19390,10 +19917,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="N23">
         <v>55</v>
@@ -19410,10 +19937,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="N24">
         <v>35</v>
@@ -19430,10 +19957,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="N25">
         <v>110</v>
@@ -19450,10 +19977,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="N26">
         <v>145</v>
@@ -19464,10 +19991,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>821</v>
       </c>
       <c r="N27">
         <v>55</v>
@@ -19478,10 +20005,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -19492,10 +20019,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -19506,10 +20033,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N30">
         <v>35</v>
@@ -19520,10 +20047,10 @@
         <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="N31">
         <v>80</v>
@@ -19534,10 +20061,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="N32">
         <v>185</v>
@@ -19548,10 +20075,10 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -19562,10 +20089,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="N34">
         <v>145</v>
@@ -19576,10 +20103,10 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="N35">
         <v>80</v>
@@ -19590,10 +20117,10 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N36">
         <v>230</v>
@@ -19604,10 +20131,10 @@
         <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -19618,10 +20145,10 @@
         <v>33</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -19632,10 +20159,10 @@
         <v>34</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -19646,10 +20173,10 @@
         <v>35</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -19660,10 +20187,10 @@
         <v>36</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -19674,10 +20201,10 @@
         <v>37</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -19688,10 +20215,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="N43">
         <v>20</v>
@@ -19702,10 +20229,10 @@
         <v>39</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N44">
         <v>20</v>
@@ -19716,10 +20243,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="N45">
         <v>35</v>
@@ -19730,10 +20257,10 @@
         <v>41</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N46">
         <v>55</v>
@@ -19744,10 +20271,10 @@
         <v>42</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N47">
         <v>80</v>
@@ -19758,10 +20285,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N48">
         <v>100</v>
@@ -19772,10 +20299,10 @@
         <v>44</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N49">
         <v>110</v>
@@ -19786,10 +20313,10 @@
         <v>45</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N50">
         <v>145</v>
@@ -19800,10 +20327,10 @@
         <v>46</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N51">
         <v>185</v>
@@ -19814,10 +20341,10 @@
         <v>47</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N52">
         <v>230</v>
@@ -19828,10 +20355,10 @@
         <v>48</v>
       </c>
       <c r="J53" s="113" t="s">
+        <v>892</v>
+      </c>
+      <c r="K53" s="46" t="s">
         <v>893</v>
-      </c>
-      <c r="K53" s="46" t="s">
-        <v>894</v>
       </c>
       <c r="N53">
         <v>230</v>
@@ -19842,10 +20369,10 @@
         <v>49</v>
       </c>
       <c r="J54" s="113" t="s">
+        <v>894</v>
+      </c>
+      <c r="K54" s="46" t="s">
         <v>895</v>
-      </c>
-      <c r="K54" s="46" t="s">
-        <v>896</v>
       </c>
       <c r="N54">
         <v>145</v>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFBC04F-4C45-4FA0-AA24-167971929B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67896D1B-93B7-4B4C-A4ED-8CEBE69647C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1035">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -778,9 +778,6 @@
     <t>Magic owned</t>
   </si>
   <si>
-    <t>Gold owned</t>
-  </si>
-  <si>
     <t>Times clicked</t>
   </si>
   <si>
@@ -793,40 +790,13 @@
     <t>Fish types caught</t>
   </si>
   <si>
-    <t>Times Fished</t>
-  </si>
-  <si>
-    <t>Achievements gained</t>
-  </si>
-  <si>
-    <t>Reaserch done</t>
-  </si>
-  <si>
-    <t>Upgrades bought</t>
-  </si>
-  <si>
-    <t>total resources sold</t>
-  </si>
-  <si>
-    <t>time played</t>
-  </si>
-  <si>
-    <t>bots bought</t>
-  </si>
-  <si>
     <t>bot production</t>
   </si>
   <si>
-    <t>wood camps</t>
-  </si>
-  <si>
     <t>levels</t>
   </si>
   <si>
     <t>Unlocked bait types</t>
-  </si>
-  <si>
-    <t>Magic upgrades</t>
   </si>
   <si>
     <t>Unlocked wood types</t>
@@ -2868,9 +2838,6 @@
     <t>Magic gian</t>
   </si>
   <si>
-    <t>wood spent total</t>
-  </si>
-  <si>
     <t>Improve magic effects 4.5%</t>
   </si>
   <si>
@@ -3115,6 +3082,78 @@
   </si>
   <si>
     <t>Buy all magic upgrades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idk </t>
+  </si>
+  <si>
+    <t>Total Gold gained</t>
+  </si>
+  <si>
+    <t>Research 10 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Research 20 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Research 50 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Research 100 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Fish 10 times in one Ascension</t>
+  </si>
+  <si>
+    <t>Fish 100 times in one Ascension</t>
+  </si>
+  <si>
+    <t>Fish 250 times in one Ascension</t>
+  </si>
+  <si>
+    <t>Total Times Fished</t>
+  </si>
+  <si>
+    <t>Total Reaserch Done</t>
+  </si>
+  <si>
+    <t>Total Upgrades bought</t>
+  </si>
+  <si>
+    <t>Time played</t>
+  </si>
+  <si>
+    <t>Total Bots bought</t>
+  </si>
+  <si>
+    <t>Total Woodcamps</t>
+  </si>
+  <si>
+    <t>Total Beavers</t>
+  </si>
+  <si>
+    <t>Magic Upgrades Bought</t>
+  </si>
+  <si>
+    <t>Total Magic Gathered</t>
+  </si>
+  <si>
+    <t>Total Dams Built</t>
+  </si>
+  <si>
+    <t>Achievements Unlocked</t>
+  </si>
+  <si>
+    <t>Gold Gain Per Second</t>
+  </si>
+  <si>
+    <t>Times Ascended</t>
+  </si>
+  <si>
+    <t>Total Wood Gained</t>
+  </si>
+  <si>
+    <t>Total Wood Sold With Bots</t>
   </si>
 </sst>
 </file>
@@ -4221,7 +4260,7 @@
     </row>
     <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4264,7 +4303,7 @@
     </row>
     <row r="14" spans="2:10" ht="12.75">
       <c r="B14" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4287,7 +4326,7 @@
     </row>
     <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4495,7 +4534,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>8</v>
@@ -4563,7 +4602,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>25</v>
@@ -4580,7 +4619,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>11</v>
@@ -4614,7 +4653,7 @@
         <v>31</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>20</v>
@@ -4631,7 +4670,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>11</v>
@@ -4648,7 +4687,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>25</v>
@@ -4682,7 +4721,7 @@
         <v>41</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>20</v>
@@ -4699,7 +4738,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>34</v>
@@ -4761,21 +4800,21 @@
   <sheetData>
     <row r="3" spans="3:10">
       <c r="D3" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D4" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7476,7 +7515,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75">
@@ -7484,26 +7523,26 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
@@ -7517,7 +7556,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -7529,16 +7568,16 @@
         <v>76</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M5" s="114" t="s">
         <v>78</v>
@@ -7571,23 +7610,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H6">
         <f>ROUND(1.28^M113 + 1.3 * M113^2.8, 0)+7</f>
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>79</v>
@@ -7620,7 +7659,7 @@
         <v>88</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75">
@@ -7640,26 +7679,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H7">
         <f>ROUND(1.29^M113 + 1.3 * M113^1.8, 0)+22</f>
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M7" s="26" t="s">
         <v>89</v>
@@ -7692,7 +7731,7 @@
         <v>98</v>
       </c>
       <c r="W7" s="39" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75">
@@ -7712,25 +7751,25 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H8">
         <v>120</v>
       </c>
       <c r="I8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="L8" s="45" t="s">
         <v>372</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>382</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>99</v>
@@ -7748,22 +7787,22 @@
         <v>103</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="T8" s="27" t="s">
         <v>104</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="V8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75">
@@ -7783,22 +7822,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>106</v>
@@ -7816,22 +7855,22 @@
         <v>110</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="T9" s="27" t="s">
         <v>111</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="V9" s="38" t="s">
         <v>112</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.75">
@@ -7851,10 +7890,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -7872,21 +7911,21 @@
         <v>116</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="R10" s="27"/>
       <c r="S10" s="27" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" s="38" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="W10" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75">
@@ -7906,19 +7945,19 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="H11">
         <v>750</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L11" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>117</v>
@@ -7927,25 +7966,25 @@
         <v>118</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>119</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="38" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75">
@@ -7965,16 +8004,16 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H12">
         <v>1400</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="J12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>120</v>
@@ -7983,22 +8022,22 @@
         <v>121</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>122</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="U12" s="27"/>
       <c r="V12" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="W12" s="40"/>
     </row>
@@ -8019,7 +8058,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -8028,7 +8067,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N13" s="27" t="s">
         <v>123</v>
@@ -8041,11 +8080,11 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="U13" s="27"/>
       <c r="V13" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="W13" s="40"/>
     </row>
@@ -8063,17 +8102,17 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>125</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -8097,17 +8136,17 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
@@ -8131,17 +8170,17 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
@@ -8165,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -8173,11 +8212,11 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="40" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -8201,15 +8240,15 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -8236,16 +8275,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G19" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="35" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -8267,13 +8306,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="35" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -8298,13 +8337,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="35" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -8326,13 +8365,13 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="35" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -8354,13 +8393,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>127</v>
@@ -8369,7 +8408,7 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="35" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -8394,13 +8433,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>128</v>
@@ -8409,7 +8448,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="35" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -8434,13 +8473,13 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>129</v>
@@ -8449,7 +8488,7 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="35" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -8473,13 +8512,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>131</v>
@@ -8488,7 +8527,7 @@
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="35" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -8512,13 +8551,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>132</v>
@@ -8527,7 +8566,7 @@
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -8548,22 +8587,22 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G28" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="H28">
         <v>400</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -8587,10 +8626,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="G29" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="H29">
         <v>1000</v>
@@ -8621,13 +8660,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="H30">
         <v>1200</v>
       </c>
       <c r="I30" s="50" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
@@ -8652,16 +8691,16 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="H31">
         <v>2000</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P31" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75">
@@ -8678,16 +8717,16 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="G32" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="H32">
         <v>2200</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" thickBot="1">
@@ -8701,10 +8740,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" thickBot="1">
@@ -8718,7 +8757,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -8746,16 +8785,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -8782,7 +8821,7 @@
         <v>88</v>
       </c>
       <c r="W35" s="36" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="X35" s="56" t="s">
         <v>233</v>
@@ -8799,7 +8838,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -8809,40 +8848,40 @@
         <v>1</v>
       </c>
       <c r="M36" s="62" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="12.75">
@@ -8856,51 +8895,51 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="40">
         <v>2</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.75">
@@ -8914,50 +8953,50 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L38" s="40">
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="R38" s="84" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="12.75">
@@ -8971,7 +9010,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -8982,40 +9021,40 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="R39" s="84" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="U39" s="87" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="W39" s="89" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="12.75">
@@ -9032,47 +9071,47 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L40" s="40">
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="12.75">
@@ -9089,7 +9128,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -9097,35 +9136,35 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="X41" s="55"/>
     </row>
@@ -9144,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -9154,35 +9193,35 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="X42" s="55"/>
     </row>
@@ -9200,42 +9239,42 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="P43" s="57" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="X43" s="55"/>
     </row>
@@ -9253,42 +9292,42 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="P44" s="57" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="X44" s="55"/>
     </row>
@@ -9309,40 +9348,40 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P45" s="57" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="X45" s="59"/>
     </row>
@@ -9360,40 +9399,40 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="P46" s="55" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="X46" s="55"/>
     </row>
@@ -9411,40 +9450,40 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="P47" s="55" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="X47" s="55"/>
     </row>
@@ -9462,38 +9501,38 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="P48" s="57" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="X48" s="55"/>
     </row>
@@ -9511,38 +9550,38 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="P49" s="57" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="X49" s="55"/>
     </row>
@@ -9560,38 +9599,38 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="P50" s="57" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="X50" s="55"/>
     </row>
@@ -9609,35 +9648,35 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
       </c>
       <c r="M51" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N51" s="63" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="O51" s="64" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P51" s="57" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="X51" s="55"/>
     </row>
@@ -9655,11 +9694,11 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="I52">
         <v>21</v>
@@ -9668,35 +9707,35 @@
         <v>10</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L52" s="40">
         <v>17</v>
       </c>
       <c r="M52" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="O52" s="64" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P52" s="57" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="X52" s="55"/>
     </row>
@@ -9714,39 +9753,39 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="L53" s="40">
         <v>18</v>
       </c>
       <c r="M53" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P53" s="57" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="X53" s="55"/>
     </row>
@@ -9764,36 +9803,36 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G54" s="1"/>
       <c r="L54" s="40">
         <v>19</v>
       </c>
       <c r="M54" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="O54" s="64" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P54" s="57" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="X54" s="55"/>
     </row>
@@ -9811,7 +9850,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -9827,29 +9866,29 @@
         <v>20</v>
       </c>
       <c r="M55" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="P55" s="57" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="X55" s="55"/>
     </row>
@@ -9867,36 +9906,36 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="G56" s="1"/>
       <c r="L56" s="40">
         <v>21</v>
       </c>
       <c r="M56" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="P56" s="55" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="X56" s="55"/>
     </row>
@@ -9917,36 +9956,36 @@
         <v>16</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G57" s="1"/>
       <c r="L57" s="40">
         <v>22</v>
       </c>
       <c r="M57" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="P57" s="55" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="X57" s="55"/>
     </row>
@@ -9964,24 +10003,24 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G58" s="1"/>
       <c r="L58" s="40">
         <v>23</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -9989,7 +10028,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="X58" s="55"/>
     </row>
@@ -10007,27 +10046,27 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L59" s="40">
         <v>24</v>
       </c>
       <c r="M59" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -10035,7 +10074,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="X59" s="55"/>
     </row>
@@ -10054,23 +10093,23 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
       </c>
       <c r="M60" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -10078,7 +10117,7 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="X60" s="55"/>
     </row>
@@ -10096,7 +10135,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -10105,17 +10144,17 @@
         <v>26</v>
       </c>
       <c r="M61" s="70" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -10123,7 +10162,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="X61" s="55"/>
     </row>
@@ -10141,23 +10180,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -10165,7 +10204,7 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="X62" s="55"/>
     </row>
@@ -10180,23 +10219,23 @@
         <v>4</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L63" s="40">
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -10204,7 +10243,7 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="X63" s="55"/>
     </row>
@@ -10219,23 +10258,23 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
       </c>
       <c r="M64" s="71" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -10256,23 +10295,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -10293,23 +10332,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="N66" s="63" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -10330,23 +10369,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -10367,23 +10406,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="N68" s="63" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -10404,19 +10443,19 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N69" s="63" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -10442,19 +10481,19 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
       </c>
       <c r="M70" s="80" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -10477,16 +10516,16 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
       </c>
       <c r="M71" s="80" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -10510,16 +10549,16 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
       </c>
       <c r="M72" s="80" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -10543,16 +10582,16 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -10576,16 +10615,16 @@
         <v>15</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L74" s="40">
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -10609,16 +10648,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -10642,16 +10681,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -10675,19 +10714,19 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G77" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -10712,16 +10751,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -10745,16 +10784,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -10778,16 +10817,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -10811,14 +10850,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -10842,14 +10881,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -10876,14 +10915,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -10907,14 +10946,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -10938,14 +10977,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -10969,14 +11008,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -11000,7 +11039,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -11050,7 +11089,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -11082,10 +11121,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="T89" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="2:24" ht="12.75">
@@ -11099,10 +11138,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -11129,10 +11168,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -11159,10 +11198,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -11189,10 +11228,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -11222,10 +11261,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -11252,10 +11291,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -11283,10 +11322,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -11313,10 +11352,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -11343,10 +11382,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -11373,10 +11412,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -11403,10 +11442,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -11433,10 +11472,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -11463,10 +11502,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -11493,7 +11532,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="T103" s="45"/>
     </row>
@@ -11508,7 +11547,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="2:24" ht="12.75">
@@ -11522,7 +11561,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="2:24" ht="12.75">
@@ -11536,7 +11575,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="105" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="2:24" ht="12.75">
@@ -11550,7 +11589,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="12.75">
@@ -11567,7 +11606,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="12.75">
@@ -11581,10 +11620,10 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G109" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -11610,7 +11649,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="2:24" ht="12.75">
@@ -11624,7 +11663,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="2:24" ht="12.75">
@@ -11638,14 +11677,14 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="2:24" ht="12.75">
@@ -11659,7 +11698,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -11678,7 +11717,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -11706,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -11721,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -11748,7 +11787,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -11763,7 +11802,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -11790,7 +11829,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -11805,7 +11844,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -11832,7 +11871,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -11865,7 +11904,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -11897,7 +11936,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -11931,7 +11970,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -11956,7 +11995,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -11981,7 +12020,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -12006,7 +12045,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -12031,7 +12070,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -12056,7 +12095,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -12081,7 +12120,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -12106,7 +12145,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -12131,7 +12170,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -12159,7 +12198,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -12184,7 +12223,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -12209,7 +12248,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -12235,10 +12274,10 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L132" s="45" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M132">
         <v>20</v>
@@ -12263,10 +12302,10 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L133" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M133">
         <v>21</v>
@@ -12291,10 +12330,10 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L134" s="45" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M134">
         <v>22</v>
@@ -12319,7 +12358,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -12344,10 +12383,10 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L136" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M136">
         <v>24</v>
@@ -12372,7 +12411,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -12397,7 +12436,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -12422,7 +12461,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -12447,7 +12486,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -12472,7 +12511,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -12497,7 +12536,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -12522,7 +12561,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -12547,7 +12586,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -12572,7 +12611,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -12597,7 +12636,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -12622,7 +12661,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -12647,7 +12686,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -12675,7 +12714,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -12701,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -12726,7 +12765,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -12751,7 +12790,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -12779,7 +12818,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -12804,7 +12843,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -12832,7 +12871,7 @@
         <v>6</v>
       </c>
       <c r="F155" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M155">
         <v>43</v>
@@ -12857,7 +12896,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -12882,7 +12921,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -12907,7 +12946,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -12932,7 +12971,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -12957,7 +12996,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -12982,7 +13021,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -13007,7 +13046,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -13032,7 +13071,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -13057,7 +13096,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -13082,7 +13121,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -13107,7 +13146,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -13132,7 +13171,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -13158,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -13183,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -13208,7 +13247,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -13233,7 +13272,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -13258,7 +13297,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -13283,7 +13322,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -13308,7 +13347,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -13333,7 +13372,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -13358,7 +13397,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -13383,7 +13422,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -13408,7 +13447,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -13433,10 +13472,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G179" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -13464,7 +13503,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -13489,7 +13528,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -13514,7 +13553,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -13539,7 +13578,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -13567,7 +13606,7 @@
         <v>17</v>
       </c>
       <c r="F184" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M184">
         <v>72</v>
@@ -13592,7 +13631,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -13618,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -13646,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -13671,7 +13710,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -13696,7 +13735,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -13721,7 +13760,7 @@
         <v>5</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M190">
         <v>78</v>
@@ -13746,7 +13785,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -13771,7 +13810,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -13796,7 +13835,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -13821,7 +13860,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -13846,7 +13885,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -13871,7 +13910,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -13896,7 +13935,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -13924,7 +13963,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M198">
         <v>86</v>
@@ -13949,7 +13988,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -13974,7 +14013,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -13999,7 +14038,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -14024,7 +14063,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -14049,7 +14088,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -14075,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -14100,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -14125,7 +14164,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -14150,7 +14189,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -14175,7 +14214,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -14200,7 +14239,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -14228,7 +14267,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -14253,7 +14292,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -14278,7 +14317,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -14303,7 +14342,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -14328,7 +14367,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -14353,7 +14392,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -14378,7 +14417,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -14403,7 +14442,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -14431,7 +14470,7 @@
         <v>15</v>
       </c>
       <c r="F218" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M218">
         <v>106</v>
@@ -14456,7 +14495,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -14481,7 +14520,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -14506,7 +14545,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -14534,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -14559,7 +14598,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -14584,7 +14623,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -14609,7 +14648,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -14634,7 +14673,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -14659,7 +14698,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -14687,7 +14726,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M228">
         <v>116</v>
@@ -14712,7 +14751,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -14737,7 +14776,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -14762,7 +14801,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -14787,7 +14826,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -14812,7 +14851,7 @@
         <v>12</v>
       </c>
       <c r="F233" s="75" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M233">
         <v>121</v>
@@ -14837,7 +14876,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -14862,7 +14901,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -14887,7 +14926,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -14912,7 +14951,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -14937,7 +14976,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -14962,7 +15001,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -14991,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -15019,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -15047,10 +15086,10 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H242" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M242">
         <v>130</v>
@@ -15075,10 +15114,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H243" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M243">
         <v>131</v>
@@ -15103,10 +15142,10 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H244" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M244">
         <v>132</v>
@@ -15134,10 +15173,10 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H245" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M245">
         <v>133</v>
@@ -15162,10 +15201,10 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H246" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M246">
         <v>134</v>
@@ -15190,10 +15229,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="H247" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M247">
         <v>135</v>
@@ -15218,10 +15257,10 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H248" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M248">
         <v>136</v>
@@ -15246,10 +15285,10 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H249" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M249">
         <v>137</v>
@@ -15280,10 +15319,10 @@
         <v>11</v>
       </c>
       <c r="F250" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H250" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M250">
         <v>138</v>
@@ -15311,10 +15350,10 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="H251" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M251">
         <v>139</v>
@@ -15342,10 +15381,10 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H252" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M252">
         <v>140</v>
@@ -15373,10 +15412,10 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="H253" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M253">
         <v>141</v>
@@ -15401,10 +15440,10 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H254" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M254">
         <v>142</v>
@@ -15429,10 +15468,10 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H255" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M255">
         <v>143</v>
@@ -15457,10 +15496,10 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="H256" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M256">
         <v>144</v>
@@ -15485,7 +15524,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -15511,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -15539,7 +15578,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -15570,10 +15609,10 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H260" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M260">
         <v>148</v>
@@ -15598,10 +15637,10 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="H261" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M261">
         <v>149</v>
@@ -15626,10 +15665,10 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H262" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M262">
         <v>150</v>
@@ -15654,10 +15693,10 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="H263" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="264" spans="2:15" ht="15.75" customHeight="1">
@@ -15671,10 +15710,10 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="H264" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="265" spans="2:15" ht="15.75" customHeight="1">
@@ -15688,10 +15727,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H265" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="266" spans="2:15" ht="15.75" customHeight="1">
@@ -15705,13 +15744,13 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G266" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H266" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="2:15" ht="15.75" customHeight="1">
@@ -15725,10 +15764,10 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="H267" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="268" spans="2:15" ht="15.75" customHeight="1">
@@ -15742,10 +15781,10 @@
         <v>11</v>
       </c>
       <c r="F268" s="105" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H268" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="2:15" ht="15.75" customHeight="1">
@@ -15759,10 +15798,10 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H269" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" spans="2:15" ht="15.75" customHeight="1">
@@ -15776,10 +15815,10 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="H270" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="271" spans="2:15" ht="15.75" customHeight="1">
@@ -15793,10 +15832,10 @@
         <v>14</v>
       </c>
       <c r="F271" s="75" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H271" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="272" spans="2:15" ht="15.75" customHeight="1">
@@ -15813,10 +15852,10 @@
         <v>15</v>
       </c>
       <c r="F272" s="105" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H272" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="2:8" ht="15.75" customHeight="1">
@@ -15830,10 +15869,10 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H273" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="2:8" ht="15.75" customHeight="1">
@@ -15847,10 +15886,10 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H274" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="2:8" ht="15.75" customHeight="1">
@@ -15864,10 +15903,10 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="H275" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="2:8" ht="15.75" customHeight="1">
@@ -15876,38 +15915,38 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="278" spans="2:8" ht="15.75" customHeight="1">
       <c r="B278" s="106"/>
       <c r="C278" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D278" s="108"/>
       <c r="E278" s="106">
         <v>1</v>
       </c>
       <c r="F278" s="105" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="2:8" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="C279" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E279" s="67">
         <v>2</v>
       </c>
       <c r="F279" s="65" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="280" spans="2:8" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="C280" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D280">
         <v>1.1499999999999999</v>
@@ -15916,145 +15955,145 @@
         <v>3</v>
       </c>
       <c r="F280" s="75" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="281" spans="2:8" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="C281" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E281" s="67">
         <v>4</v>
       </c>
       <c r="F281" s="74" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
     </row>
     <row r="282" spans="2:8" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="C282" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E282" s="67">
         <v>5</v>
       </c>
       <c r="F282" s="102" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="C283" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E283" s="67">
         <v>6</v>
       </c>
       <c r="F283" s="101" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="284" spans="2:8" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="C284" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E284" s="67">
         <v>7</v>
       </c>
       <c r="F284" s="100" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="C285" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E285" s="67">
         <v>8</v>
       </c>
       <c r="F285" s="75" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="2:8" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="C286" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E286" s="67">
         <v>9</v>
       </c>
       <c r="F286" s="74" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="287" spans="2:8" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="C287" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E287" s="67">
         <v>10</v>
       </c>
       <c r="F287" s="103" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="288" spans="2:8" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="C288" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E288" s="67">
         <v>11</v>
       </c>
       <c r="F288" s="105" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="C289" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E289" s="67">
         <v>12</v>
       </c>
       <c r="F289" s="65" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="C290" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E290" s="67">
         <v>13</v>
       </c>
       <c r="F290" s="97" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="C291" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E291" s="67">
         <v>14</v>
       </c>
       <c r="F291" s="75" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="C292" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D292">
         <v>1.26</v>
@@ -16063,43 +16102,43 @@
         <v>15</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="C293" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E293" s="67">
         <v>16</v>
       </c>
       <c r="F293" s="99" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="C294" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E294" s="67">
         <v>17</v>
       </c>
       <c r="F294" s="97" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="C295" s="107" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E295" s="67">
         <v>18</v>
       </c>
       <c r="F295" s="103" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -16135,7 +16174,7 @@
     </row>
     <row r="3" spans="3:12" ht="15.75" customHeight="1">
       <c r="L3" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="12.75">
@@ -16164,7 +16203,7 @@
         <v>136</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="12.75">
@@ -16181,13 +16220,13 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J5" t="s">
         <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="12.75">
@@ -16201,10 +16240,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L6" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="12.75">
@@ -16218,7 +16257,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="12.75">
@@ -16232,7 +16271,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="12.75">
@@ -16246,7 +16285,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="12.75">
@@ -16263,7 +16302,7 @@
         <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="12.75">
@@ -16277,10 +16316,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="G11" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="12.75">
@@ -16294,7 +16333,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="12.75">
@@ -16308,7 +16347,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="12.75">
@@ -16322,7 +16361,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="12.75">
@@ -16336,7 +16375,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="12.75">
@@ -16350,7 +16389,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="12.75">
@@ -16364,7 +16403,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="12.75">
@@ -16378,7 +16417,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="12.75">
@@ -16392,7 +16431,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="12.75">
@@ -16406,7 +16445,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="12.75">
@@ -16420,7 +16459,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="12.75">
@@ -16434,7 +16473,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="12.75">
@@ -16448,7 +16487,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="12.75">
@@ -16462,7 +16501,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="12.75">
@@ -16476,7 +16515,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="12.75">
@@ -16490,7 +16529,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="12.75">
@@ -16518,7 +16557,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="12.75">
@@ -16532,7 +16571,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="12.75">
@@ -16546,7 +16585,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -16589,7 +16628,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="I33" s="27"/>
     </row>
@@ -16634,7 +16673,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I36" s="27" t="s">
         <v>119</v>
@@ -16651,7 +16690,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
@@ -16668,7 +16707,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>124</v>
@@ -16688,7 +16727,7 @@
         <v>142</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="12.75">
@@ -16702,10 +16741,10 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="12.75">
@@ -16722,7 +16761,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="12.75">
@@ -16736,10 +16775,10 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="12.75">
@@ -16756,7 +16795,7 @@
         <v>140</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="12.75">
@@ -16773,7 +16812,7 @@
         <v>179</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="12.75">
@@ -16790,7 +16829,7 @@
         <v>165</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="12.75">
@@ -16807,7 +16846,7 @@
         <v>177</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="12.75">
@@ -16821,10 +16860,10 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="12.75">
@@ -16838,10 +16877,10 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="12.75">
@@ -16858,7 +16897,7 @@
         <v>182</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="12.75">
@@ -16875,7 +16914,7 @@
         <v>173</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="12.75">
@@ -16889,10 +16928,10 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="12.75">
@@ -16909,7 +16948,7 @@
         <v>178</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="12.75">
@@ -16923,10 +16962,10 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="12.75">
@@ -16940,7 +16979,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="12.75">
@@ -16982,7 +17021,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="12.75">
@@ -17038,7 +17077,7 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="12.75">
@@ -17115,7 +17154,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -17134,10 +17173,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -17148,7 +17187,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -17159,7 +17198,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -17170,7 +17209,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -17181,7 +17220,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -17192,12 +17231,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -17703,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -17714,7 +17753,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -17725,7 +17764,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -17736,7 +17775,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G10" s="1">
         <v>14</v>
@@ -17747,7 +17786,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -17758,7 +17797,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G12" s="1">
         <v>135</v>
@@ -17769,7 +17808,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G13" s="1">
         <v>220</v>
@@ -17780,7 +17819,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G14" s="1">
         <v>444</v>
@@ -17791,7 +17830,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G15" s="1">
         <v>666</v>
@@ -17802,7 +17841,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G16" s="1">
         <v>700</v>
@@ -17813,7 +17852,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G17" s="1">
         <v>1200</v>
@@ -17824,7 +17863,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G18" s="1">
         <v>3000</v>
@@ -17835,7 +17874,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G19" s="1">
         <v>5000</v>
@@ -17846,7 +17885,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>210</v>
@@ -17857,7 +17896,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>211</v>
@@ -17868,7 +17907,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>212</v>
@@ -17879,7 +17918,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>213</v>
@@ -17890,7 +17929,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>214</v>
@@ -17901,7 +17940,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>215</v>
@@ -17912,7 +17951,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>216</v>
@@ -17923,7 +17962,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>217</v>
@@ -17934,7 +17973,7 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>218</v>
@@ -17945,7 +17984,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>219</v>
@@ -17956,7 +17995,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>208</v>
@@ -17967,7 +18006,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>220</v>
@@ -17978,7 +18017,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>221</v>
@@ -17989,7 +18028,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>222</v>
@@ -18000,7 +18039,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>223</v>
@@ -18011,7 +18050,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>224</v>
@@ -18022,7 +18061,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>225</v>
@@ -18072,7 +18111,7 @@
         <v>228</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -18083,10 +18122,10 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -18125,15 +18164,15 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -18173,6 +18212,12 @@
       <c r="G5" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>52</v>
       </c>
@@ -18218,13 +18263,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="3:22">
@@ -18238,13 +18283,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>245</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="3:22">
@@ -18258,13 +18303,13 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>246</v>
+      <c r="M8" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="3:22">
@@ -18278,19 +18323,19 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q9" s="1">
         <v>1000</v>
@@ -18316,19 +18361,19 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>250</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="3:22">
@@ -18342,13 +18387,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>251</v>
+      <c r="M11" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="3:22">
@@ -18362,13 +18407,13 @@
         <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L12" s="1">
         <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>252</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="3:22">
@@ -18379,19 +18424,19 @@
         <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L13" s="1">
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>253</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14" spans="3:22">
@@ -18402,19 +18447,19 @@
         <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H14">
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>254</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="15" spans="3:22">
@@ -18428,13 +18473,13 @@
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>255</v>
+      <c r="M15" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="3:22">
@@ -18448,16 +18493,16 @@
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L16" s="1">
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -18468,16 +18513,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L17" s="1">
         <v>12</v>
       </c>
-      <c r="M17" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13">
+      <c r="M17" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -18488,16 +18533,19 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+        <v>1029</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -18508,16 +18556,19 @@
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="L19" s="1">
         <v>14</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
+        <v>249</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -18528,16 +18579,19 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13">
+        <v>1020</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -18548,16 +18602,19 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13">
+        <v>246</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -18568,16 +18625,19 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
+        <v>1023</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -18588,16 +18648,19 @@
         <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+        <v>1030</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -18608,16 +18671,14 @@
         <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="L24" s="1">
-        <v>19</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
+        <v>962</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -18628,75 +18689,76 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="L25" s="1">
-        <v>20</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
+        <v>963</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H26">
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H27">
         <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
+        <v>965</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H28">
         <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+        <v>966</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H29">
         <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="J29" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -18704,30 +18766,30 @@
         <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="M30" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H31">
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="M31" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -18735,10 +18797,10 @@
         <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="M32" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="3:9">
@@ -18749,7 +18811,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
     </row>
     <row r="34" spans="3:9">
@@ -18760,7 +18822,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="35" spans="3:9">
@@ -18771,7 +18833,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
     </row>
     <row r="36" spans="3:9">
@@ -18782,7 +18844,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="37" spans="3:9">
@@ -18793,7 +18855,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
     </row>
     <row r="38" spans="3:9">
@@ -18804,7 +18866,7 @@
         <v>33</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="3:9">
@@ -18812,16 +18874,16 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H39">
         <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="3:9">
@@ -18832,7 +18894,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41" spans="3:9">
@@ -18843,7 +18905,7 @@
         <v>36</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="42" spans="3:9">
@@ -18854,7 +18916,7 @@
         <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -18865,7 +18927,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
     <row r="44" spans="3:9">
@@ -18876,7 +18938,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="45" spans="3:9">
@@ -18887,7 +18949,7 @@
         <v>40</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="46" spans="3:9">
@@ -18898,7 +18960,7 @@
         <v>41</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="47" spans="3:9">
@@ -18909,7 +18971,7 @@
         <v>42</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -18920,7 +18982,7 @@
         <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="49" spans="3:13">
@@ -18931,7 +18993,7 @@
         <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="50" spans="3:13">
@@ -18942,7 +19004,7 @@
         <v>45</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="51" spans="3:13">
@@ -18953,7 +19015,7 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="52" spans="3:13">
@@ -18964,7 +19026,7 @@
         <v>47</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="53" spans="3:13">
@@ -18975,7 +19037,7 @@
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="54" spans="3:13">
@@ -18986,10 +19048,10 @@
         <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="M54" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="55" spans="3:13">
@@ -19000,7 +19062,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="3:13">
@@ -19011,7 +19073,7 @@
         <v>51</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="3:13">
@@ -19022,7 +19084,7 @@
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="58" spans="3:13">
@@ -19033,7 +19095,7 @@
         <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="59" spans="3:13">
@@ -19044,7 +19106,7 @@
         <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="3:13">
@@ -19055,7 +19117,7 @@
         <v>55</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="3:13">
@@ -19066,7 +19128,7 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="3:13">
@@ -19077,7 +19139,7 @@
         <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="3:13">
@@ -19088,7 +19150,7 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="64" spans="3:13">
@@ -19099,7 +19161,7 @@
         <v>59</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="65" spans="3:10">
@@ -19110,10 +19172,10 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="J65" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="66" spans="3:10">
@@ -19124,7 +19186,7 @@
         <v>61</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="67" spans="3:10">
@@ -19135,7 +19197,7 @@
         <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="3:10">
@@ -19146,42 +19208,63 @@
         <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="69" spans="3:10">
       <c r="C69" s="1">
         <v>64</v>
       </c>
+      <c r="I69" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="70" spans="3:10">
       <c r="C70" s="1">
         <v>65</v>
       </c>
+      <c r="I70" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="1">
         <v>66</v>
       </c>
+      <c r="I71" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="1">
         <v>67</v>
       </c>
+      <c r="I72" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="1">
         <v>68</v>
       </c>
+      <c r="I73" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" s="1">
         <v>69</v>
       </c>
+      <c r="I74" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="1">
         <v>70</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="76" spans="3:10">
@@ -19374,13 +19457,13 @@
   <sheetData>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -19393,16 +19476,16 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -19414,19 +19497,19 @@
         <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="3:20">
@@ -19434,28 +19517,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="K6" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="3:20">
@@ -19463,7 +19546,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>211</v>
@@ -19475,10 +19558,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="K7" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -19490,7 +19573,7 @@
         <v>55</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>56</v>
@@ -19504,10 +19587,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F8" s="1">
         <v>20</v>
@@ -19516,10 +19599,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -19528,10 +19611,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="S8" s="29"/>
     </row>
@@ -19540,10 +19623,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1">
         <v>35</v>
@@ -19552,10 +19635,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="K9" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -19564,10 +19647,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="S9" s="30"/>
     </row>
@@ -19576,10 +19659,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F10" s="1">
         <v>55</v>
@@ -19588,10 +19671,10 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="K10" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -19600,10 +19683,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="S10" s="32"/>
     </row>
@@ -19612,10 +19695,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
@@ -19624,10 +19707,10 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="K11" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -19636,7 +19719,7 @@
         <v>4</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>85</v>
@@ -19648,25 +19731,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="K12" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="N12">
         <v>20</v>
@@ -19675,10 +19758,10 @@
         <v>5</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="S12" s="34"/>
     </row>
@@ -19687,10 +19770,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F13" s="1">
         <v>110</v>
@@ -19699,10 +19782,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="K13" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="N13">
         <v>55</v>
@@ -19713,10 +19796,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F14" s="1">
         <v>145</v>
@@ -19725,10 +19808,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="K14" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -19739,10 +19822,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F15" s="1">
         <v>185</v>
@@ -19751,10 +19834,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K15" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="N15">
         <v>20</v>
@@ -19765,10 +19848,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F16" s="46">
         <v>230</v>
@@ -19777,10 +19860,10 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="K16" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="N16">
         <v>35</v>
@@ -19797,10 +19880,10 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="K17" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -19817,10 +19900,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="K18" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="N18">
         <v>80</v>
@@ -19837,10 +19920,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="K19" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -19857,10 +19940,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="N20">
         <v>185</v>
@@ -19877,10 +19960,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="N21">
         <v>110</v>
@@ -19897,10 +19980,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="N22">
         <v>230</v>
@@ -19917,10 +20000,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="N23">
         <v>55</v>
@@ -19937,10 +20020,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="N24">
         <v>35</v>
@@ -19957,10 +20040,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="N25">
         <v>110</v>
@@ -19977,10 +20060,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="N26">
         <v>145</v>
@@ -19991,10 +20074,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="N27">
         <v>55</v>
@@ -20005,10 +20088,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -20019,10 +20102,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -20033,10 +20116,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="N30">
         <v>35</v>
@@ -20047,10 +20130,10 @@
         <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="N31">
         <v>80</v>
@@ -20061,10 +20144,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="N32">
         <v>185</v>
@@ -20075,10 +20158,10 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -20089,10 +20172,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="N34">
         <v>145</v>
@@ -20103,10 +20186,10 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="N35">
         <v>80</v>
@@ -20117,10 +20200,10 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="N36">
         <v>230</v>
@@ -20131,10 +20214,10 @@
         <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -20145,10 +20228,10 @@
         <v>33</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -20159,10 +20242,10 @@
         <v>34</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -20173,10 +20256,10 @@
         <v>35</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -20187,10 +20270,10 @@
         <v>36</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -20201,10 +20284,10 @@
         <v>37</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -20215,10 +20298,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="N43">
         <v>20</v>
@@ -20229,10 +20312,10 @@
         <v>39</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="N44">
         <v>20</v>
@@ -20243,10 +20326,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="N45">
         <v>35</v>
@@ -20257,10 +20340,10 @@
         <v>41</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="N46">
         <v>55</v>
@@ -20271,10 +20354,10 @@
         <v>42</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="N47">
         <v>80</v>
@@ -20285,10 +20368,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="N48">
         <v>100</v>
@@ -20299,10 +20382,10 @@
         <v>44</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="N49">
         <v>110</v>
@@ -20313,10 +20396,10 @@
         <v>45</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="N50">
         <v>145</v>
@@ -20327,10 +20410,10 @@
         <v>46</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="N51">
         <v>185</v>
@@ -20341,10 +20424,10 @@
         <v>47</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="N52">
         <v>230</v>
@@ -20355,10 +20438,10 @@
         <v>48</v>
       </c>
       <c r="J53" s="113" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="N53">
         <v>230</v>
@@ -20369,10 +20452,10 @@
         <v>49</v>
       </c>
       <c r="J54" s="113" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="N54">
         <v>145</v>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67896D1B-93B7-4B4C-A4ED-8CEBE69647C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F777FDA-72F8-4CB8-9694-BAF287F92725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1063">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -3154,6 +3154,90 @@
   </si>
   <si>
     <t>Total Wood Sold With Bots</t>
+  </si>
+  <si>
+    <t>Mega Dam</t>
+  </si>
+  <si>
+    <t>Sub 1</t>
+  </si>
+  <si>
+    <t>Sub 4</t>
+  </si>
+  <si>
+    <t>Sub 3</t>
+  </si>
+  <si>
+    <t>Sub 2</t>
+  </si>
+  <si>
+    <t>Foundations</t>
+  </si>
+  <si>
+    <t>Site Appreizal</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Finishing Toches</t>
+  </si>
+  <si>
+    <t>Fund Rasing</t>
+  </si>
+  <si>
+    <t>Buying Oligargcs</t>
+  </si>
+  <si>
+    <t>Getting a Team of Beavers</t>
+  </si>
+  <si>
+    <t>Planing</t>
+  </si>
+  <si>
+    <t>Arhitecture</t>
+  </si>
+  <si>
+    <t>Plan Excecution</t>
+  </si>
+  <si>
+    <t>Weight Testing</t>
+  </si>
+  <si>
+    <t>Atracting Investors</t>
+  </si>
+  <si>
+    <t>Over throwing the Government</t>
+  </si>
+  <si>
+    <t>Subjecation</t>
+  </si>
+  <si>
+    <t>Excecuting the master plan</t>
+  </si>
+  <si>
+    <t>Grand Opening</t>
+  </si>
+  <si>
+    <t>Creating Logistics lines</t>
+  </si>
+  <si>
+    <t>Environmental Impact Studies</t>
+  </si>
+  <si>
+    <t>Careful Wood Stacking</t>
+  </si>
+  <si>
+    <t>Patching leaks/ holes</t>
+  </si>
+  <si>
+    <t>Build Multiple Dams at the same time with unlocks, all current constructions if stages active suck other resources (suck speed can be improved with upgrades, resource amount needed lowered with research, like an inovation in the construction process</t>
+  </si>
+  <si>
+    <t>To start building a dam there is some upfront cost</t>
+  </si>
+  <si>
+    <t>Maybe make magic like a skill tree to be more interesting open one and then adjesent magic upgrades are shown and be able to be unlocked</t>
   </si>
 </sst>
 </file>
@@ -17703,10 +17787,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C4:G36"/>
+  <dimension ref="C4:G39"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -18067,6 +18151,11 @@
         <v>225</v>
       </c>
     </row>
+    <row r="39" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D39" t="s">
+        <v>1062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18077,44 +18166,85 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C3:H9"/>
+  <dimension ref="C3:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:20">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:20">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -18122,34 +18252,112 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q6" t="s">
         <v>428</v>
       </c>
-      <c r="H6" t="s">
+      <c r="T6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:20">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="3:8">
+      <c r="E7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="E8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>232</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" ht="15.75" customHeight="1">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" ht="15.75" customHeight="1">
+      <c r="D15" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" ht="15.75" customHeight="1">
+      <c r="D16" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -18164,7 +18372,7 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F777FDA-72F8-4CB8-9694-BAF287F92725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11921FAC-31D2-4FAD-AF60-B5EB95CCB638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -3174,9 +3174,6 @@
     <t>Foundations</t>
   </si>
   <si>
-    <t>Site Appreizal</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -3186,9 +3183,6 @@
     <t>Fund Rasing</t>
   </si>
   <si>
-    <t>Buying Oligargcs</t>
-  </si>
-  <si>
     <t>Getting a Team of Beavers</t>
   </si>
   <si>
@@ -3210,9 +3204,6 @@
     <t>Over throwing the Government</t>
   </si>
   <si>
-    <t>Subjecation</t>
-  </si>
-  <si>
     <t>Excecuting the master plan</t>
   </si>
   <si>
@@ -3238,6 +3229,15 @@
   </si>
   <si>
     <t>Maybe make magic like a skill tree to be more interesting open one and then adjesent magic upgrades are shown and be able to be unlocked</t>
+  </si>
+  <si>
+    <t>Site Eppraisal</t>
+  </si>
+  <si>
+    <t>Buying Oligarchs</t>
+  </si>
+  <si>
+    <t>Subjugation</t>
   </si>
 </sst>
 </file>
@@ -17789,7 +17789,7 @@
   </sheetPr>
   <dimension ref="C4:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -17799,12 +17799,12 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" ht="12.75">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" ht="12.75">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" ht="12.75">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" ht="12.75">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" ht="12.75">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" ht="12.75">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" ht="12.75">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" ht="12.75">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" ht="12.75">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" ht="12.75">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" ht="12.75">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" ht="12.75">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" ht="12.75">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" ht="12.75">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" ht="12.75">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" ht="12.75">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" ht="12.75">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" ht="12.75">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" ht="12.75">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" ht="12.75">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" ht="12.75">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" ht="12.75">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" ht="12.75">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" ht="12.75">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" ht="12.75">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" ht="12.75">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" ht="12.75">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" ht="12.75">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" ht="12.75">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" ht="12.75">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" ht="12.75">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="39" spans="3:7" ht="15.75" customHeight="1">
       <c r="D39" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -18168,8 +18168,8 @@
   </sheetPr>
   <dimension ref="C3:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -18183,12 +18183,12 @@
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20">
+    <row r="3" spans="3:20" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="3:20">
+    <row r="5" spans="3:20" ht="12.75">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="3:20">
+    <row r="6" spans="3:20" ht="12.75">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -18252,16 +18252,16 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H6" t="s">
         <v>1040</v>
       </c>
       <c r="K6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="N6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="Q6" t="s">
         <v>428</v>
@@ -18270,7 +18270,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:20" ht="12.75">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -18278,19 +18278,19 @@
         <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="H7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K7" t="s">
         <v>1047</v>
       </c>
-      <c r="K7" t="s">
-        <v>1049</v>
-      </c>
       <c r="N7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="12.75">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -18298,19 +18298,19 @@
         <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H8" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="K8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N8" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" ht="12.75">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -18318,16 +18318,16 @@
         <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H9" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="N9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="15.75" customHeight="1">
@@ -18338,26 +18338,26 @@
         <v>1035</v>
       </c>
       <c r="E10" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="H10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K10" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="N10" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="15.75" customHeight="1">
       <c r="D15" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="15.75" customHeight="1">
       <c r="D16" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11921FAC-31D2-4FAD-AF60-B5EB95CCB638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB715DD-0B62-4512-A1E7-67FB0132B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="7848" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,24 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1066">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -2730,24 +2743,9 @@
     <t>Oak storage +100</t>
   </si>
   <si>
-    <t>10% cheaper beavers</t>
-  </si>
-  <si>
     <t>12% storage from woodcamps</t>
   </si>
   <si>
-    <t>cheaper bots 6%</t>
-  </si>
-  <si>
-    <t>WC 7% cheaper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wpc add 2% wps </t>
-  </si>
-  <si>
-    <t>1+ beavers per WC</t>
-  </si>
-  <si>
     <t>ideas</t>
   </si>
   <si>
@@ -2763,30 +2761,12 @@
     <t>changed position</t>
   </si>
   <si>
-    <t>1.5x storage</t>
-  </si>
-  <si>
-    <t>fish sell for more 5%</t>
-  </si>
-  <si>
-    <t>cheaper bots 4%</t>
-  </si>
-  <si>
-    <t>faster research 2%</t>
-  </si>
-  <si>
     <t>10+ beavers for each wood type</t>
   </si>
   <si>
     <t>2% more fish</t>
   </si>
   <si>
-    <t>More magic 5%</t>
-  </si>
-  <si>
-    <t>13% storage</t>
-  </si>
-  <si>
     <t>change?</t>
   </si>
   <si>
@@ -2865,18 +2845,9 @@
     <t>Apple storage +110</t>
   </si>
   <si>
-    <t>Unlock Research / wps 5.5%</t>
-  </si>
-  <si>
     <t>9% cheaper beavers</t>
   </si>
   <si>
-    <t>beaver +0.25 more wood</t>
-  </si>
-  <si>
-    <t>beaver +0.3 more wood</t>
-  </si>
-  <si>
     <t>WC use 2.5% less wood</t>
   </si>
   <si>
@@ -2889,9 +2860,6 @@
     <t>wpc</t>
   </si>
   <si>
-    <t>Unlock Apple Wood / 2% wpc tp wps</t>
-  </si>
-  <si>
     <t>Woodcamp production 8.5%</t>
   </si>
   <si>
@@ -3238,6 +3206,60 @@
   </si>
   <si>
     <t>Subjugation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak per Beaver +0.25 </t>
+  </si>
+  <si>
+    <t>Woodcamp WPS +0.5</t>
+  </si>
+  <si>
+    <t>1.5% wpc tp wps</t>
+  </si>
+  <si>
+    <t>Unlock Apple Wood / 10% cheaper Beavers</t>
+  </si>
+  <si>
+    <t>Per WC +1 Beaver</t>
+  </si>
+  <si>
+    <t>Faster research 2%</t>
+  </si>
+  <si>
+    <t>7% cheaper WC's</t>
+  </si>
+  <si>
+    <t>6% Cheaper bots</t>
+  </si>
+  <si>
+    <t>5% More Magic</t>
+  </si>
+  <si>
+    <t>add 2% WPC to WPS</t>
+  </si>
+  <si>
+    <t>Better wood price 0.005</t>
+  </si>
+  <si>
+    <t>4.5% storage</t>
+  </si>
+  <si>
+    <t>Cheaper bots 4%</t>
+  </si>
+  <si>
+    <t>Fish price 5%</t>
+  </si>
+  <si>
+    <t>Apple per Beaver +0.3</t>
+  </si>
+  <si>
+    <t>Woodcamp WPS +1</t>
+  </si>
+  <si>
+    <t>WPS 4.5%</t>
+  </si>
+  <si>
+    <t>Unlock Research / 7.5% Storage</t>
   </si>
 </sst>
 </file>
@@ -4005,7 +4027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4232,16 +4254,16 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="12.75">
+    <row r="5" spans="2:10" ht="13.2">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="12.75">
+    <row r="6" spans="2:10" ht="13.2">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -4266,7 +4288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="12.75">
+    <row r="7" spans="2:10" ht="13.2">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -4280,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="12.75">
+    <row r="8" spans="2:10" ht="13.2">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -4294,7 +4316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="12.75">
+    <row r="9" spans="2:10" ht="13.2">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +4336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="12.75">
+    <row r="10" spans="2:10" ht="13.2">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -4328,7 +4350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="12.75">
+    <row r="11" spans="2:10" ht="13.2">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -4342,9 +4364,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="12.75">
+    <row r="12" spans="2:10" ht="13.2">
       <c r="C12" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4362,7 +4384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="12.75">
+    <row r="13" spans="2:10" ht="13.2">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -4385,7 +4407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="12.75">
+    <row r="14" spans="2:10" ht="13.2">
       <c r="B14" t="s">
         <v>468</v>
       </c>
@@ -4408,9 +4430,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="12.75">
+    <row r="15" spans="2:10" ht="13.2">
       <c r="B15" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4429,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="12.75">
+    <row r="16" spans="2:10" ht="13.2">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -4443,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="12.75">
+    <row r="17" spans="6:10" ht="13.2">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -4457,7 +4479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="12.75">
+    <row r="18" spans="6:10" ht="13.2">
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -4468,7 +4490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="12.75">
+    <row r="19" spans="6:10" ht="13.2">
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -4482,7 +4504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="12.75">
+    <row r="20" spans="6:10" ht="13.2">
       <c r="G20" s="1">
         <v>3</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="12.75">
+    <row r="21" spans="6:10" ht="13.2">
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -4510,7 +4532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="12.75">
+    <row r="22" spans="6:10" ht="13.2">
       <c r="G22" s="1">
         <v>3</v>
       </c>
@@ -4524,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="12.75">
+    <row r="23" spans="6:10" ht="13.2">
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -4538,7 +4560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="12.75">
+    <row r="24" spans="6:10" ht="13.2">
       <c r="G24" s="1">
         <v>3</v>
       </c>
@@ -4549,7 +4571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="12.75">
+    <row r="25" spans="6:10" ht="13.2">
       <c r="G25" s="1">
         <v>3</v>
       </c>
@@ -4563,7 +4585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="12.75">
+    <row r="26" spans="6:10" ht="13.2">
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -4875,11 +4897,11 @@
       <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="4" max="4" width="57" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10">
@@ -6696,15 +6718,15 @@
       <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="12.75">
+    <row r="2" spans="1:15" ht="13.2">
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
@@ -6712,7 +6734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75">
+    <row r="3" spans="1:15" ht="13.2">
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -6744,7 +6766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75">
+    <row r="4" spans="1:15" ht="13.2">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -6777,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75">
+    <row r="5" spans="1:15" ht="13.2">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -6810,7 +6832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75">
+    <row r="6" spans="1:15" ht="13.2">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -6843,7 +6865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75">
+    <row r="7" spans="1:15" ht="13.2">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -6876,7 +6898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75">
+    <row r="8" spans="1:15" ht="13.2">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -6909,7 +6931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75">
+    <row r="9" spans="1:15" ht="13.2">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -6942,7 +6964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75">
+    <row r="10" spans="1:15" ht="13.2">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -6975,7 +6997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75">
+    <row r="11" spans="1:15" ht="13.2">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -7008,7 +7030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75">
+    <row r="12" spans="1:15" ht="13.2">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -7041,7 +7063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75">
+    <row r="13" spans="1:15" ht="13.2">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -7077,7 +7099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75">
+    <row r="14" spans="1:15" ht="13.2">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -7113,7 +7135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75">
+    <row r="15" spans="1:15" ht="13.2">
       <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
@@ -7149,7 +7171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75">
+    <row r="16" spans="1:15" ht="13.2">
       <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
@@ -7185,7 +7207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75">
+    <row r="17" spans="1:15" ht="13.2">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -7221,7 +7243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75">
+    <row r="18" spans="1:15" ht="13.2">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -7257,7 +7279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75">
+    <row r="19" spans="1:15" ht="13.2">
       <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
@@ -7265,7 +7287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75">
+    <row r="20" spans="1:15" ht="13.2">
       <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
@@ -7273,7 +7295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -7289,7 +7311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
@@ -7297,7 +7319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -7305,7 +7327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25" s="35" t="s">
         <v>41</v>
       </c>
@@ -7313,7 +7335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -7321,7 +7343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27" s="35" t="s">
         <v>46</v>
       </c>
@@ -7329,12 +7351,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="O28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -7367,12 +7389,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="O30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="F32" s="23" t="s">
         <v>72</v>
       </c>
@@ -7382,7 +7404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="12.75">
+    <row r="34" spans="2:12" ht="13.2">
       <c r="F34" s="23" t="s">
         <v>74</v>
       </c>
@@ -7560,41 +7582,41 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView topLeftCell="C280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="31.42578125" customWidth="1"/>
-    <col min="27" max="27" width="37.7109375" customWidth="1"/>
-    <col min="28" max="28" width="29.42578125" customWidth="1"/>
-    <col min="29" max="29" width="29.85546875" customWidth="1"/>
-    <col min="30" max="30" width="28.7109375" customWidth="1"/>
-    <col min="31" max="31" width="33.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" customWidth="1"/>
+    <col min="25" max="25" width="22.109375" customWidth="1"/>
+    <col min="26" max="26" width="31.44140625" customWidth="1"/>
+    <col min="27" max="27" width="37.6640625" customWidth="1"/>
+    <col min="28" max="28" width="29.44140625" customWidth="1"/>
+    <col min="29" max="29" width="29.88671875" customWidth="1"/>
+    <col min="30" max="30" width="28.6640625" customWidth="1"/>
+    <col min="31" max="31" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
@@ -7602,7 +7624,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75">
+    <row r="2" spans="1:23" ht="13.2">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
@@ -7677,7 +7699,7 @@
       <c r="V5" s="114"/>
       <c r="W5" s="114"/>
     </row>
-    <row r="6" spans="1:23" ht="13.5" thickBot="1">
+    <row r="6" spans="1:23" ht="13.8" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -7694,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>940</v>
+        <v>1048</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>360</v>
@@ -7746,7 +7768,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="12.75">
+    <row r="7" spans="1:23" ht="13.2">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -7818,7 +7840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.75">
+    <row r="8" spans="1:23" ht="13.2">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -7835,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>470</v>
+        <v>1049</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>413</v>
@@ -7889,7 +7911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75">
+    <row r="9" spans="1:23" ht="13.2">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +7928,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>893</v>
+        <v>1050</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>365</v>
@@ -7957,7 +7979,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75">
+    <row r="10" spans="1:23" ht="13.2">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -7974,7 +7996,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>946</v>
+        <v>1051</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>367</v>
@@ -8012,7 +8034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="12.75">
+    <row r="11" spans="1:23" ht="13.2">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -8029,7 +8051,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>898</v>
+        <v>1052</v>
       </c>
       <c r="H11">
         <v>750</v>
@@ -8071,7 +8093,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="12.75">
+    <row r="12" spans="1:23" ht="13.2">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -8088,7 +8110,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>907</v>
+        <v>1053</v>
       </c>
       <c r="H12">
         <v>1400</v>
@@ -8125,7 +8147,7 @@
       </c>
       <c r="W12" s="40"/>
     </row>
-    <row r="13" spans="1:23" ht="12.75">
+    <row r="13" spans="1:23" ht="13.2">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -8142,7 +8164,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -8172,7 +8194,7 @@
       </c>
       <c r="W13" s="40"/>
     </row>
-    <row r="14" spans="1:23" ht="12.75">
+    <row r="14" spans="1:23" ht="13.2">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -8186,7 +8208,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>896</v>
+        <v>1054</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>293</v>
@@ -8206,7 +8228,7 @@
       <c r="V14" s="38"/>
       <c r="W14" s="40"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75">
+    <row r="15" spans="1:23" ht="13.2">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -8220,7 +8242,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>325</v>
@@ -8240,7 +8262,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="40"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75">
+    <row r="16" spans="1:23" ht="13.2">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -8254,7 +8276,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>895</v>
+        <v>1055</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>326</v>
@@ -8274,7 +8296,7 @@
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
     </row>
-    <row r="17" spans="1:23" ht="12.75">
+    <row r="17" spans="1:23" ht="13.2">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -8288,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>910</v>
+        <v>1056</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -8310,7 +8332,7 @@
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
     </row>
-    <row r="18" spans="1:23" ht="12.75">
+    <row r="18" spans="1:23" ht="13.2">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -8324,7 +8346,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>897</v>
+        <v>1057</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -8342,7 +8364,7 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:23" ht="12.75">
+    <row r="19" spans="1:23" ht="13.2">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -8359,7 +8381,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>556</v>
+        <v>1058</v>
       </c>
       <c r="G19" t="s">
         <v>761</v>
@@ -8378,7 +8400,7 @@
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
     </row>
-    <row r="20" spans="1:23" ht="12.75">
+    <row r="20" spans="1:23" ht="13.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -8390,7 +8412,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -8406,7 +8428,7 @@
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
     </row>
-    <row r="21" spans="1:23" ht="12.75">
+    <row r="21" spans="1:23" ht="13.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -8421,7 +8443,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>904</v>
+        <v>1059</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -8437,7 +8459,7 @@
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
     </row>
-    <row r="22" spans="1:23" ht="12.75">
+    <row r="22" spans="1:23" ht="13.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -8449,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>906</v>
+        <v>1060</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -8465,7 +8487,7 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="1:23" ht="12.75">
+    <row r="23" spans="1:23" ht="13.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -8477,7 +8499,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>905</v>
+        <v>1061</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
@@ -8502,7 +8524,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
     </row>
-    <row r="24" spans="1:23" ht="12.75">
+    <row r="24" spans="1:23" ht="13.2">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -8517,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>941</v>
+        <v>1062</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -8542,7 +8564,7 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
     </row>
-    <row r="25" spans="1:23" ht="12.75">
+    <row r="25" spans="1:23" ht="13.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -8557,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -8582,7 +8604,7 @@
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
     </row>
-    <row r="26" spans="1:23" ht="12.75">
+    <row r="26" spans="1:23" ht="13.2">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -8596,7 +8618,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>471</v>
+        <v>1063</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -8621,7 +8643,7 @@
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
     </row>
-    <row r="27" spans="1:23" ht="12.75">
+    <row r="27" spans="1:23" ht="13.2">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -8635,7 +8657,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>911</v>
+        <v>1064</v>
       </c>
       <c r="H27">
         <v>300</v>
@@ -8660,7 +8682,7 @@
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
     </row>
-    <row r="28" spans="1:23" ht="12.75">
+    <row r="28" spans="1:23" ht="13.2">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -8671,10 +8693,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="G28" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="H28">
         <v>400</v>
@@ -8696,7 +8718,7 @@
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
     </row>
-    <row r="29" spans="1:23" ht="12.75">
+    <row r="29" spans="1:23" ht="13.2">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -8710,10 +8732,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>938</v>
+        <v>1065</v>
       </c>
       <c r="G29" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="H29">
         <v>1000</v>
@@ -8730,7 +8752,7 @@
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
     </row>
-    <row r="30" spans="1:23" ht="12.75">
+    <row r="30" spans="1:23" ht="13.2">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -8744,7 +8766,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="H30">
         <v>1200</v>
@@ -8764,7 +8786,7 @@
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
     </row>
-    <row r="31" spans="1:23" ht="12.75">
+    <row r="31" spans="1:23" ht="13.2">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -8775,7 +8797,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -8787,7 +8809,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75">
+    <row r="32" spans="1:23" ht="13.2">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -8801,10 +8823,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="G32" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="H32">
         <v>2200</v>
@@ -8813,7 +8835,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18.75" thickBot="1">
+    <row r="33" spans="1:24" ht="18" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -8824,13 +8846,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="O33" s="79" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18.75" thickBot="1">
+    <row r="34" spans="1:24" ht="18" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -8858,7 +8880,7 @@
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" thickBot="1">
+    <row r="35" spans="1:24" ht="13.8" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -8911,7 +8933,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="12.75">
+    <row r="36" spans="1:24" ht="13.2">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -8922,7 +8944,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -8968,7 +8990,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="12.75">
+    <row r="37" spans="1:24" ht="13.2">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -9026,7 +9048,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="12.75">
+    <row r="38" spans="1:24" ht="13.2">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -9037,7 +9059,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
@@ -9083,7 +9105,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.75">
+    <row r="39" spans="1:24" ht="13.2">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -9094,7 +9116,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -9141,7 +9163,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="12.75">
+    <row r="40" spans="1:24" ht="13.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9198,7 +9220,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="12.75">
+    <row r="41" spans="1:24" ht="13.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9212,7 +9234,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -9252,7 +9274,7 @@
       </c>
       <c r="X41" s="55"/>
     </row>
-    <row r="42" spans="1:24" ht="12.75">
+    <row r="42" spans="1:24" ht="13.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -9267,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -9309,7 +9331,7 @@
       </c>
       <c r="X42" s="55"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75">
+    <row r="43" spans="1:24" ht="13.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -9362,7 +9384,7 @@
       </c>
       <c r="X43" s="55"/>
     </row>
-    <row r="44" spans="1:24" ht="12.75">
+    <row r="44" spans="1:24" ht="13.2">
       <c r="A44">
         <v>13</v>
       </c>
@@ -9415,7 +9437,7 @@
       </c>
       <c r="X44" s="55"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75">
+    <row r="45" spans="1:24" ht="13.2">
       <c r="A45">
         <v>16</v>
       </c>
@@ -9432,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
@@ -9469,7 +9491,7 @@
       </c>
       <c r="X45" s="59"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75">
+    <row r="46" spans="1:24" ht="13.2">
       <c r="A46">
         <v>19</v>
       </c>
@@ -9520,7 +9542,7 @@
       </c>
       <c r="X46" s="55"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75">
+    <row r="47" spans="1:24" ht="13.2">
       <c r="A47">
         <v>22</v>
       </c>
@@ -9571,7 +9593,7 @@
       </c>
       <c r="X47" s="55"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75">
+    <row r="48" spans="1:24" ht="13.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -9620,7 +9642,7 @@
       </c>
       <c r="X48" s="55"/>
     </row>
-    <row r="49" spans="1:24" ht="12.75">
+    <row r="49" spans="1:24" ht="13.2">
       <c r="A49">
         <v>28</v>
       </c>
@@ -9669,7 +9691,7 @@
       </c>
       <c r="X49" s="55"/>
     </row>
-    <row r="50" spans="1:24" ht="12.75">
+    <row r="50" spans="1:24" ht="13.2">
       <c r="A50">
         <v>31</v>
       </c>
@@ -9718,7 +9740,7 @@
       </c>
       <c r="X50" s="55"/>
     </row>
-    <row r="51" spans="1:24" ht="12.75">
+    <row r="51" spans="1:24" ht="13.2">
       <c r="A51">
         <v>34</v>
       </c>
@@ -9764,7 +9786,7 @@
       </c>
       <c r="X51" s="55"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75">
+    <row r="52" spans="1:24" ht="13.2">
       <c r="A52">
         <v>37</v>
       </c>
@@ -9823,7 +9845,7 @@
       </c>
       <c r="X52" s="55"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75">
+    <row r="53" spans="1:24" ht="13.2">
       <c r="A53">
         <v>40</v>
       </c>
@@ -9873,7 +9895,7 @@
       </c>
       <c r="X53" s="55"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75">
+    <row r="54" spans="1:24" ht="13.2">
       <c r="A54">
         <v>43</v>
       </c>
@@ -9920,7 +9942,7 @@
       </c>
       <c r="X54" s="55"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75">
+    <row r="55" spans="1:24" ht="13.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -9976,7 +9998,7 @@
       </c>
       <c r="X55" s="55"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75">
+    <row r="56" spans="1:24" ht="13.2">
       <c r="A56">
         <v>49</v>
       </c>
@@ -10023,7 +10045,7 @@
       </c>
       <c r="X56" s="55"/>
     </row>
-    <row r="57" spans="1:24" ht="12.75">
+    <row r="57" spans="1:24" ht="13.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -10073,7 +10095,7 @@
       </c>
       <c r="X57" s="55"/>
     </row>
-    <row r="58" spans="1:24" ht="12.75">
+    <row r="58" spans="1:24" ht="13.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -10116,7 +10138,7 @@
       </c>
       <c r="X58" s="55"/>
     </row>
-    <row r="59" spans="1:24" ht="12.75">
+    <row r="59" spans="1:24" ht="13.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10162,7 +10184,7 @@
       </c>
       <c r="X59" s="55"/>
     </row>
-    <row r="60" spans="1:24" ht="12.75">
+    <row r="60" spans="1:24" ht="13.2">
       <c r="A60">
         <v>61</v>
       </c>
@@ -10205,7 +10227,7 @@
       </c>
       <c r="X60" s="55"/>
     </row>
-    <row r="61" spans="1:24" ht="12.75">
+    <row r="61" spans="1:24" ht="13.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10250,7 +10272,7 @@
       </c>
       <c r="X61" s="55"/>
     </row>
-    <row r="62" spans="1:24" ht="12.75">
+    <row r="62" spans="1:24" ht="13.2">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -10292,7 +10314,7 @@
       </c>
       <c r="X62" s="55"/>
     </row>
-    <row r="63" spans="1:24" ht="12.75">
+    <row r="63" spans="1:24" ht="13.2">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -10331,7 +10353,7 @@
       </c>
       <c r="X63" s="55"/>
     </row>
-    <row r="64" spans="1:24" ht="12.75">
+    <row r="64" spans="1:24" ht="13.2">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -10368,7 +10390,7 @@
       <c r="W64" s="55"/>
       <c r="X64" s="55"/>
     </row>
-    <row r="65" spans="2:24" ht="12.75">
+    <row r="65" spans="2:24" ht="13.2">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -10405,7 +10427,7 @@
       <c r="W65" s="55"/>
       <c r="X65" s="55"/>
     </row>
-    <row r="66" spans="2:24" ht="12.75">
+    <row r="66" spans="2:24" ht="13.2">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -10442,7 +10464,7 @@
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
     </row>
-    <row r="67" spans="2:24" ht="12.75">
+    <row r="67" spans="2:24" ht="13.2">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -10479,7 +10501,7 @@
       <c r="W67" s="55"/>
       <c r="X67" s="55"/>
     </row>
-    <row r="68" spans="2:24" ht="12.75">
+    <row r="68" spans="2:24" ht="13.2">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -10516,7 +10538,7 @@
       <c r="W68" s="55"/>
       <c r="X68" s="55"/>
     </row>
-    <row r="69" spans="2:24" ht="12.75">
+    <row r="69" spans="2:24" ht="13.2">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -10551,7 +10573,7 @@
       <c r="W69" s="55"/>
       <c r="X69" s="55"/>
     </row>
-    <row r="70" spans="2:24" ht="12.75">
+    <row r="70" spans="2:24" ht="13.2">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -10589,7 +10611,7 @@
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
     </row>
-    <row r="71" spans="2:24" ht="12.75">
+    <row r="71" spans="2:24" ht="13.2">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -10622,7 +10644,7 @@
       <c r="W71" s="55"/>
       <c r="X71" s="55"/>
     </row>
-    <row r="72" spans="2:24" ht="12.75">
+    <row r="72" spans="2:24" ht="13.2">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -10655,7 +10677,7 @@
       <c r="W72" s="55"/>
       <c r="X72" s="55"/>
     </row>
-    <row r="73" spans="2:24" ht="12.75">
+    <row r="73" spans="2:24" ht="13.2">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -10688,7 +10710,7 @@
       <c r="W73" s="55"/>
       <c r="X73" s="55"/>
     </row>
-    <row r="74" spans="2:24" ht="12.75">
+    <row r="74" spans="2:24" ht="13.2">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -10721,7 +10743,7 @@
       <c r="W74" s="55"/>
       <c r="X74" s="55"/>
     </row>
-    <row r="75" spans="2:24" ht="12.75">
+    <row r="75" spans="2:24" ht="13.2">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -10754,7 +10776,7 @@
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
     </row>
-    <row r="76" spans="2:24" ht="12.75">
+    <row r="76" spans="2:24" ht="13.2">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -10787,7 +10809,7 @@
       <c r="W76" s="55"/>
       <c r="X76" s="55"/>
     </row>
-    <row r="77" spans="2:24" ht="12.75">
+    <row r="77" spans="2:24" ht="13.2">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -10823,7 +10845,7 @@
       <c r="W77" s="55"/>
       <c r="X77" s="55"/>
     </row>
-    <row r="78" spans="2:24" ht="12.75">
+    <row r="78" spans="2:24" ht="13.2">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -10857,7 +10879,7 @@
       <c r="W78" s="55"/>
       <c r="X78" s="55"/>
     </row>
-    <row r="79" spans="2:24" ht="12.75">
+    <row r="79" spans="2:24" ht="13.2">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -10890,7 +10912,7 @@
       <c r="W79" s="55"/>
       <c r="X79" s="55"/>
     </row>
-    <row r="80" spans="2:24" ht="12.75">
+    <row r="80" spans="2:24" ht="13.2">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -10923,7 +10945,7 @@
       <c r="W80" s="55"/>
       <c r="X80" s="55"/>
     </row>
-    <row r="81" spans="2:24" ht="12.75">
+    <row r="81" spans="2:24" ht="13.2">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -10954,7 +10976,7 @@
       <c r="W81" s="55"/>
       <c r="X81" s="55"/>
     </row>
-    <row r="82" spans="2:24" ht="12.75">
+    <row r="82" spans="2:24" ht="13.2">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -10985,7 +11007,7 @@
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
     </row>
-    <row r="83" spans="2:24" ht="12.75">
+    <row r="83" spans="2:24" ht="13.2">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -11019,7 +11041,7 @@
       <c r="W83" s="55"/>
       <c r="X83" s="55"/>
     </row>
-    <row r="84" spans="2:24" ht="12.75">
+    <row r="84" spans="2:24" ht="13.2">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -11050,7 +11072,7 @@
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
     </row>
-    <row r="85" spans="2:24" ht="12.75">
+    <row r="85" spans="2:24" ht="13.2">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -11081,7 +11103,7 @@
       <c r="W85" s="55"/>
       <c r="X85" s="55"/>
     </row>
-    <row r="86" spans="2:24" ht="12.75">
+    <row r="86" spans="2:24" ht="13.2">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -11112,7 +11134,7 @@
       <c r="W86" s="55"/>
       <c r="X86" s="55"/>
     </row>
-    <row r="87" spans="2:24" ht="12.75">
+    <row r="87" spans="2:24" ht="13.2">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -11162,7 +11184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:24" ht="12.75">
+    <row r="88" spans="2:24" ht="13.2">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -11194,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:24" ht="12.75">
+    <row r="89" spans="2:24" ht="13.2">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -11211,7 +11233,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="2:24" ht="12.75">
+    <row r="90" spans="2:24" ht="13.2">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -11241,7 +11263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="2:24" ht="12.75">
+    <row r="91" spans="2:24" ht="13.2">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -11271,7 +11293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:24" ht="12.75">
+    <row r="92" spans="2:24" ht="13.2">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -11301,7 +11323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:24" ht="12.75">
+    <row r="93" spans="2:24" ht="13.2">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -11331,7 +11353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:24" ht="12.75">
+    <row r="94" spans="2:24" ht="13.2">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -11364,7 +11386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:24" ht="12.75">
+    <row r="95" spans="2:24" ht="13.2">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -11394,7 +11416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:24" ht="12.75">
+    <row r="96" spans="2:24" ht="13.2">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -11425,7 +11447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="12.75">
+    <row r="97" spans="2:24" ht="13.2">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -11455,7 +11477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="12.75">
+    <row r="98" spans="2:24" ht="13.2">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -11485,7 +11507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="12.75">
+    <row r="99" spans="2:24" ht="13.2">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -11515,7 +11537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="12.75">
+    <row r="100" spans="2:24" ht="13.2">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -11545,7 +11567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="12.75">
+    <row r="101" spans="2:24" ht="13.2">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -11575,7 +11597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="12.75">
+    <row r="102" spans="2:24" ht="13.2">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -11605,7 +11627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="12.75">
+    <row r="103" spans="2:24" ht="13.2">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -11620,7 +11642,7 @@
       </c>
       <c r="T103" s="45"/>
     </row>
-    <row r="104" spans="2:24" ht="12.75">
+    <row r="104" spans="2:24" ht="13.2">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -11634,7 +11656,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="12.75">
+    <row r="105" spans="2:24" ht="13.2">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -11648,7 +11670,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="12.75">
+    <row r="106" spans="2:24" ht="13.2">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -11662,7 +11684,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="2:24" ht="12.75">
+    <row r="107" spans="2:24" ht="13.2">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -11676,7 +11698,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="2:24" ht="12.75">
+    <row r="108" spans="2:24" ht="13.2">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -11693,7 +11715,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="109" spans="2:24" ht="12.75">
+    <row r="109" spans="2:24" ht="13.2">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -11722,7 +11744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="12.75">
+    <row r="110" spans="2:24" ht="13.2">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -11736,7 +11758,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="12.75">
+    <row r="111" spans="2:24" ht="13.2">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -11750,7 +11772,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="12.75">
+    <row r="112" spans="2:24" ht="13.2">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -11771,7 +11793,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="2:24" ht="12.75">
+    <row r="113" spans="2:24" ht="13.2">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -11817,7 +11839,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:24" ht="12.75">
+    <row r="114" spans="2:24" ht="13.2">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -11860,7 +11882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:24" ht="12.75">
+    <row r="115" spans="2:24" ht="13.2">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -11902,7 +11924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:24" ht="12.75">
+    <row r="116" spans="2:24" ht="13.2">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -11944,7 +11966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:24" ht="12.75">
+    <row r="117" spans="2:24" ht="13.2">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -11977,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:24" ht="12.75">
+    <row r="118" spans="2:24" ht="13.2">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -12009,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" ht="12.75">
+    <row r="119" spans="2:24" ht="13.2">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -12043,7 +12065,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="2:24" ht="12.75">
+    <row r="120" spans="2:24" ht="13.2">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -12068,7 +12090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="2:24" ht="12.75">
+    <row r="121" spans="2:24" ht="13.2">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -12093,7 +12115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="2:24" ht="12.75">
+    <row r="122" spans="2:24" ht="13.2">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -12118,7 +12140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="12.75">
+    <row r="123" spans="2:24" ht="13.2">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -12143,7 +12165,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="2:24" ht="12.75">
+    <row r="124" spans="2:24" ht="13.2">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -12168,7 +12190,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="2:24" ht="12.75">
+    <row r="125" spans="2:24" ht="13.2">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -12193,7 +12215,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="2:24" ht="12.75">
+    <row r="126" spans="2:24" ht="13.2">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -12218,7 +12240,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:24" ht="12.75">
+    <row r="127" spans="2:24" ht="13.2">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -12243,7 +12265,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="2:24" ht="12.75">
+    <row r="128" spans="2:24" ht="13.2">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -12268,7 +12290,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="12.75">
+    <row r="129" spans="2:15" ht="13.2">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -12296,7 +12318,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="12.75">
+    <row r="130" spans="2:15" ht="13.2">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -12321,7 +12343,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="12.75">
+    <row r="131" spans="2:15" ht="13.2">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -12346,7 +12368,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="12.75">
+    <row r="132" spans="2:15" ht="13.2">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -12375,7 +12397,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="12.75">
+    <row r="133" spans="2:15" ht="13.2">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -12403,7 +12425,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="12.75">
+    <row r="134" spans="2:15" ht="13.2">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -12431,7 +12453,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="12.75">
+    <row r="135" spans="2:15" ht="13.2">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -12456,7 +12478,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="12.75">
+    <row r="136" spans="2:15" ht="13.2">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -12484,7 +12506,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="12.75">
+    <row r="137" spans="2:15" ht="13.2">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -12509,7 +12531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="12.75">
+    <row r="138" spans="2:15" ht="13.2">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -12534,7 +12556,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="12.75">
+    <row r="139" spans="2:15" ht="13.2">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -12559,7 +12581,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="12.75">
+    <row r="140" spans="2:15" ht="13.2">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -12584,7 +12606,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="12.75">
+    <row r="141" spans="2:15" ht="13.2">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -12609,7 +12631,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="12.75">
+    <row r="142" spans="2:15" ht="13.2">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -12634,7 +12656,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="12.75">
+    <row r="143" spans="2:15" ht="13.2">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -12659,7 +12681,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="12.75">
+    <row r="144" spans="2:15" ht="13.2">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -12684,7 +12706,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="12.75">
+    <row r="145" spans="2:15" ht="13.2">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -12709,7 +12731,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="12.75">
+    <row r="146" spans="2:15" ht="13.2">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -12734,7 +12756,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="12.75">
+    <row r="147" spans="2:15" ht="13.2">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -12759,7 +12781,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="12.75">
+    <row r="148" spans="2:15" ht="13.2">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -12784,7 +12806,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="12.75">
+    <row r="149" spans="2:15" ht="13.2">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -12812,7 +12834,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="12.75">
+    <row r="150" spans="2:15" ht="13.2">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -12838,7 +12860,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="12.75">
+    <row r="151" spans="2:15" ht="13.2">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -12863,7 +12885,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="12.75">
+    <row r="152" spans="2:15" ht="13.2">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -12888,7 +12910,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="12.75">
+    <row r="153" spans="2:15" ht="13.2">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -12916,7 +12938,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="12.75">
+    <row r="154" spans="2:15" ht="13.2">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -12941,7 +12963,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="12.75">
+    <row r="155" spans="2:15" ht="13.2">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -12969,7 +12991,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="12.75">
+    <row r="156" spans="2:15" ht="13.2">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -12994,7 +13016,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="12.75">
+    <row r="157" spans="2:15" ht="13.2">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -13019,7 +13041,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="12.75">
+    <row r="158" spans="2:15" ht="13.2">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -13044,7 +13066,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="12.75">
+    <row r="159" spans="2:15" ht="13.2">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -13069,7 +13091,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="12.75">
+    <row r="160" spans="2:15" ht="13.2">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -13094,7 +13116,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="12.75">
+    <row r="161" spans="2:15" ht="13.2">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -13119,7 +13141,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="162" spans="2:15" ht="12.75">
+    <row r="162" spans="2:15" ht="13.2">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -13144,7 +13166,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="163" spans="2:15" ht="12.75">
+    <row r="163" spans="2:15" ht="13.2">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -13169,7 +13191,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="164" spans="2:15" ht="12.75">
+    <row r="164" spans="2:15" ht="13.2">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -13194,7 +13216,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="165" spans="2:15" ht="12.75">
+    <row r="165" spans="2:15" ht="13.2">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -13219,7 +13241,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="166" spans="2:15" ht="12.75">
+    <row r="166" spans="2:15" ht="13.2">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -13244,7 +13266,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="167" spans="2:15" ht="12.75">
+    <row r="167" spans="2:15" ht="13.2">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -13269,7 +13291,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="168" spans="2:15" ht="12.75">
+    <row r="168" spans="2:15" ht="13.2">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -13295,7 +13317,7 @@
         <v>8178</v>
       </c>
     </row>
-    <row r="169" spans="2:15" ht="12.75">
+    <row r="169" spans="2:15" ht="13.2">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -13320,7 +13342,7 @@
         <v>9047</v>
       </c>
     </row>
-    <row r="170" spans="2:15" ht="12.75">
+    <row r="170" spans="2:15" ht="13.2">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -13345,7 +13367,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="171" spans="2:15" ht="12.75">
+    <row r="171" spans="2:15" ht="13.2">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -13370,7 +13392,7 @@
         <v>11149</v>
       </c>
     </row>
-    <row r="172" spans="2:15" ht="12.75">
+    <row r="172" spans="2:15" ht="13.2">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -13395,7 +13417,7 @@
         <v>12418</v>
       </c>
     </row>
-    <row r="173" spans="2:15" ht="12.75">
+    <row r="173" spans="2:15" ht="13.2">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -16005,32 +16027,32 @@
     <row r="278" spans="2:8" ht="15.75" customHeight="1">
       <c r="B278" s="106"/>
       <c r="C278" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D278" s="108"/>
       <c r="E278" s="106">
         <v>1</v>
       </c>
       <c r="F278" s="105" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="279" spans="2:8" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="C279" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E279" s="67">
         <v>2</v>
       </c>
       <c r="F279" s="65" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
     </row>
     <row r="280" spans="2:8" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="C280" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D280">
         <v>1.1499999999999999</v>
@@ -16039,61 +16061,61 @@
         <v>3</v>
       </c>
       <c r="F280" s="75" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="281" spans="2:8" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="C281" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E281" s="67">
         <v>4</v>
       </c>
       <c r="F281" s="74" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
     </row>
     <row r="282" spans="2:8" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="C282" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E282" s="67">
         <v>5</v>
       </c>
       <c r="F282" s="102" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="283" spans="2:8" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="C283" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E283" s="67">
         <v>6</v>
       </c>
       <c r="F283" s="101" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
     </row>
     <row r="284" spans="2:8" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="C284" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E284" s="67">
         <v>7</v>
       </c>
       <c r="F284" s="100" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="C285" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E285" s="67">
         <v>8</v>
@@ -16105,7 +16127,7 @@
     <row r="286" spans="2:8" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="C286" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E286" s="67">
         <v>9</v>
@@ -16117,31 +16139,31 @@
     <row r="287" spans="2:8" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="C287" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E287" s="67">
         <v>10</v>
       </c>
       <c r="F287" s="103" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="288" spans="2:8" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="C288" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E288" s="67">
         <v>11</v>
       </c>
       <c r="F288" s="105" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="C289" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E289" s="67">
         <v>12</v>
@@ -16153,31 +16175,31 @@
     <row r="290" spans="2:6" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="C290" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E290" s="67">
         <v>13</v>
       </c>
       <c r="F290" s="97" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="C291" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E291" s="67">
         <v>14</v>
       </c>
       <c r="F291" s="75" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="C292" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D292">
         <v>1.26</v>
@@ -16186,43 +16208,43 @@
         <v>15</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="C293" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E293" s="67">
         <v>16</v>
       </c>
       <c r="F293" s="99" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="C294" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E294" s="67">
         <v>17</v>
       </c>
       <c r="F294" s="97" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="C295" s="107" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E295" s="67">
         <v>18</v>
       </c>
       <c r="F295" s="103" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -16245,23 +16267,23 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="12.75">
+    <row r="2" spans="3:12" ht="13.2">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" customHeight="1">
       <c r="L3" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" ht="12.75">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="13.2">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -16287,10 +16309,10 @@
         <v>136</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="12.75">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="13.2">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -16310,10 +16332,10 @@
         <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" ht="12.75">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="13.2">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -16327,10 +16349,10 @@
         <v>407</v>
       </c>
       <c r="L6" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="12.75">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="13.2">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -16344,7 +16366,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="12.75">
+    <row r="8" spans="3:12" ht="13.2">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -16358,7 +16380,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="12.75">
+    <row r="9" spans="3:12" ht="13.2">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -16372,7 +16394,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="12.75">
+    <row r="10" spans="3:12" ht="13.2">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -16386,10 +16408,10 @@
         <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="12.75">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="13.2">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -16400,13 +16422,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G11" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="12.75">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="13.2">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -16420,7 +16442,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="12.75">
+    <row r="13" spans="3:12" ht="13.2">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -16434,7 +16456,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="12.75">
+    <row r="14" spans="3:12" ht="13.2">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -16448,7 +16470,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="12.75">
+    <row r="15" spans="3:12" ht="13.2">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -16462,7 +16484,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="12.75">
+    <row r="16" spans="3:12" ht="13.2">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -16476,7 +16498,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="12.75">
+    <row r="17" spans="3:9" ht="13.2">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -16490,7 +16512,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="12.75">
+    <row r="18" spans="3:9" ht="13.2">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -16504,7 +16526,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="12.75">
+    <row r="19" spans="3:9" ht="13.2">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -16518,7 +16540,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="12.75">
+    <row r="20" spans="3:9" ht="13.2">
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -16532,7 +16554,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="12.75">
+    <row r="21" spans="3:9" ht="13.2">
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -16546,7 +16568,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="12.75">
+    <row r="22" spans="3:9" ht="13.2">
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -16560,7 +16582,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="12.75">
+    <row r="23" spans="3:9" ht="13.2">
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -16574,7 +16596,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="12.75">
+    <row r="24" spans="3:9" ht="13.2">
       <c r="C24" s="1">
         <v>20</v>
       </c>
@@ -16588,7 +16610,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="12.75">
+    <row r="25" spans="3:9" ht="13.2">
       <c r="C25" s="1">
         <v>21</v>
       </c>
@@ -16602,7 +16624,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="12.75">
+    <row r="26" spans="3:9" ht="13.2">
       <c r="C26" s="1">
         <v>22</v>
       </c>
@@ -16616,7 +16638,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="12.75">
+    <row r="27" spans="3:9" ht="13.2">
       <c r="C27" s="1">
         <v>23</v>
       </c>
@@ -16630,7 +16652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="12.75">
+    <row r="28" spans="3:9" ht="13.2">
       <c r="C28" s="1">
         <v>24</v>
       </c>
@@ -16644,7 +16666,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="12.75">
+    <row r="29" spans="3:9" ht="13.2">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -16658,7 +16680,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="12.75">
+    <row r="30" spans="3:9" ht="13.2">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -16672,7 +16694,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="12.75">
+    <row r="31" spans="3:9" ht="13.2">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -16686,7 +16708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="12.75">
+    <row r="32" spans="3:9" ht="13.2">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -16701,7 +16723,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="3:9" ht="12.75">
+    <row r="33" spans="3:9" ht="13.2">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -16716,7 +16738,7 @@
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="3:9" ht="12.75">
+    <row r="34" spans="3:9" ht="13.2">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -16731,7 +16753,7 @@
       </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="3:9" ht="12.75">
+    <row r="35" spans="3:9" ht="13.2">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -16746,7 +16768,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="3:9" ht="12.75">
+    <row r="36" spans="3:9" ht="13.2">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -16763,7 +16785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="12.75">
+    <row r="37" spans="3:9" ht="13.2">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -16780,7 +16802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="12.75">
+    <row r="38" spans="3:9" ht="13.2">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -16797,7 +16819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="12.75">
+    <row r="39" spans="3:9" ht="13.2">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -16814,7 +16836,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="12.75">
+    <row r="40" spans="3:9" ht="13.2">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -16831,7 +16853,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="12.75">
+    <row r="41" spans="3:9" ht="13.2">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -16848,7 +16870,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="12.75">
+    <row r="42" spans="3:9" ht="13.2">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -16865,7 +16887,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="12.75">
+    <row r="43" spans="3:9" ht="13.2">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -16882,7 +16904,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="12.75">
+    <row r="44" spans="3:9" ht="13.2">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -16899,7 +16921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="12.75">
+    <row r="45" spans="3:9" ht="13.2">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -16916,7 +16938,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="12.75">
+    <row r="46" spans="3:9" ht="13.2">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -16933,7 +16955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="12.75">
+    <row r="47" spans="3:9" ht="13.2">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -16950,7 +16972,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="12.75">
+    <row r="48" spans="3:9" ht="13.2">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -16967,7 +16989,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="12.75">
+    <row r="49" spans="3:9" ht="13.2">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -16984,7 +17006,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="12.75">
+    <row r="50" spans="3:9" ht="13.2">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -17001,7 +17023,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="12.75">
+    <row r="51" spans="3:9" ht="13.2">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -17018,7 +17040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="12.75">
+    <row r="52" spans="3:9" ht="13.2">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -17035,7 +17057,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="12.75">
+    <row r="53" spans="3:9" ht="13.2">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -17052,7 +17074,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="12.75">
+    <row r="54" spans="3:9" ht="13.2">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -17066,7 +17088,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="12.75">
+    <row r="55" spans="3:9" ht="13.2">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -17080,7 +17102,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="12.75">
+    <row r="56" spans="3:9" ht="13.2">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -17094,7 +17116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="12.75">
+    <row r="57" spans="3:9" ht="13.2">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -17108,7 +17130,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="12.75">
+    <row r="58" spans="3:9" ht="13.2">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -17122,7 +17144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="12.75">
+    <row r="59" spans="3:9" ht="13.2">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -17136,7 +17158,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="12.75">
+    <row r="60" spans="3:9" ht="13.2">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -17150,7 +17172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="12.75">
+    <row r="61" spans="3:9" ht="13.2">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -17164,7 +17186,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="12.75">
+    <row r="62" spans="3:9" ht="13.2">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -17175,7 +17197,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="12.75">
+    <row r="63" spans="3:9" ht="13.2">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -17186,7 +17208,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="12.75">
+    <row r="64" spans="3:9" ht="13.2">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -17197,7 +17219,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="12.75">
+    <row r="65" spans="3:6" ht="13.2">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -17339,10 +17361,10 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9">
@@ -17793,18 +17815,18 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="12.75">
+    <row r="4" spans="3:7" ht="13.2">
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="12.75">
+    <row r="6" spans="3:7" ht="13.2">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -17821,7 +17843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="12.75">
+    <row r="7" spans="3:7" ht="13.2">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -17832,7 +17854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="12.75">
+    <row r="8" spans="3:7" ht="13.2">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -17843,7 +17865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="12.75">
+    <row r="9" spans="3:7" ht="13.2">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -17854,7 +17876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="12.75">
+    <row r="10" spans="3:7" ht="13.2">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -17865,7 +17887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="12.75">
+    <row r="11" spans="3:7" ht="13.2">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -17876,7 +17898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="12.75">
+    <row r="12" spans="3:7" ht="13.2">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -17887,7 +17909,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="12.75">
+    <row r="13" spans="3:7" ht="13.2">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -17898,7 +17920,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="12.75">
+    <row r="14" spans="3:7" ht="13.2">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -17909,7 +17931,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="12.75">
+    <row r="15" spans="3:7" ht="13.2">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -17920,7 +17942,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="12.75">
+    <row r="16" spans="3:7" ht="13.2">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -17931,7 +17953,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="12.75">
+    <row r="17" spans="3:7" ht="13.2">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -17942,7 +17964,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="12.75">
+    <row r="18" spans="3:7" ht="13.2">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -17953,7 +17975,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="12.75">
+    <row r="19" spans="3:7" ht="13.2">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -17964,7 +17986,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="12.75">
+    <row r="20" spans="3:7" ht="13.2">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -17975,7 +17997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="12.75">
+    <row r="21" spans="3:7" ht="13.2">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -17986,7 +18008,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="12.75">
+    <row r="22" spans="3:7" ht="13.2">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -17997,7 +18019,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="12.75">
+    <row r="23" spans="3:7" ht="13.2">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -18008,7 +18030,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="12.75">
+    <row r="24" spans="3:7" ht="13.2">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -18019,7 +18041,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="12.75">
+    <row r="25" spans="3:7" ht="13.2">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -18030,7 +18052,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="12.75">
+    <row r="26" spans="3:7" ht="13.2">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -18041,7 +18063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="12.75">
+    <row r="27" spans="3:7" ht="13.2">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -18052,7 +18074,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="12.75">
+    <row r="28" spans="3:7" ht="13.2">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -18063,7 +18085,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="12.75">
+    <row r="29" spans="3:7" ht="13.2">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -18074,7 +18096,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="12.75">
+    <row r="30" spans="3:7" ht="13.2">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -18085,7 +18107,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="12.75">
+    <row r="31" spans="3:7" ht="13.2">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -18096,7 +18118,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="12.75">
+    <row r="32" spans="3:7" ht="13.2">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -18107,7 +18129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="12.75">
+    <row r="33" spans="3:7" ht="13.2">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -18118,7 +18140,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="12.75">
+    <row r="34" spans="3:7" ht="13.2">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -18129,7 +18151,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="12.75">
+    <row r="35" spans="3:7" ht="13.2">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -18140,7 +18162,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="12.75">
+    <row r="36" spans="3:7" ht="13.2">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -18153,7 +18175,7 @@
     </row>
     <row r="39" spans="3:7" ht="15.75" customHeight="1">
       <c r="D39" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -18168,27 +18190,27 @@
   </sheetPr>
   <dimension ref="C3:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" ht="12.75">
+    <row r="3" spans="3:20" ht="13.2">
       <c r="C3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="12.75">
+    <row r="5" spans="3:20" ht="13.2">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -18196,7 +18218,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
@@ -18205,7 +18227,7 @@
         <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
@@ -18214,7 +18236,7 @@
         <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="L5" t="s">
         <v>77</v>
@@ -18223,7 +18245,7 @@
         <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="O5" t="s">
         <v>77</v>
@@ -18244,7 +18266,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="12.75">
+    <row r="6" spans="3:20" ht="13.2">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -18252,16 +18274,16 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="H6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K6" t="s">
         <v>1040</v>
       </c>
-      <c r="K6" t="s">
-        <v>1055</v>
-      </c>
       <c r="N6" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="Q6" t="s">
         <v>428</v>
@@ -18270,7 +18292,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="3:20" ht="12.75">
+    <row r="7" spans="3:20" ht="13.2">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -18278,19 +18300,19 @@
         <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="H7" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="K7" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="N7" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" ht="12.75">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="13.2">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -18298,19 +18320,19 @@
         <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="H8" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="K8" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="N8" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" ht="12.75">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" ht="13.2">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -18318,16 +18340,16 @@
         <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="H9" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="K9" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="N9" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="15.75" customHeight="1">
@@ -18335,29 +18357,29 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H10" t="s">
         <v>1035</v>
       </c>
-      <c r="E10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1050</v>
-      </c>
       <c r="K10" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="N10" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="15.75" customHeight="1">
       <c r="D15" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="15.75" customHeight="1">
       <c r="D16" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -18376,11 +18398,11 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -18471,13 +18493,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="3:22">
@@ -18491,13 +18513,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="3:22">
@@ -18511,13 +18533,13 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" spans="3:22">
@@ -18531,13 +18553,13 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>247</v>
@@ -18581,7 +18603,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="3:22">
@@ -18601,7 +18623,7 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="3:22">
@@ -18621,7 +18643,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="3:22">
@@ -18644,7 +18666,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="14" spans="3:22">
@@ -18667,7 +18689,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="15" spans="3:22">
@@ -18687,7 +18709,7 @@
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16" spans="3:22">
@@ -18707,7 +18729,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="17" spans="3:16">
@@ -18727,7 +18749,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -18741,13 +18763,13 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>253</v>
@@ -18764,7 +18786,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="L19" s="1">
         <v>14</v>
@@ -18787,13 +18809,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>251</v>
@@ -18810,7 +18832,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
@@ -18833,13 +18855,13 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>250</v>
@@ -18856,13 +18878,13 @@
         <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>244</v>
@@ -18879,7 +18901,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="L24" s="1"/>
       <c r="P24" s="1" t="s">
@@ -18897,7 +18919,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -18912,7 +18934,7 @@
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
     </row>
     <row r="27" spans="3:16">
@@ -18926,10 +18948,10 @@
         <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="N27" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="3:16">
@@ -18943,10 +18965,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="N28" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29" spans="3:16">
@@ -18960,10 +18982,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="J29" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="3:16">
@@ -18974,10 +18996,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="M30" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="3:16">
@@ -18991,10 +19013,10 @@
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="M31" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" spans="3:16">
@@ -19005,10 +19027,10 @@
         <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="M32" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" spans="3:9">
@@ -19019,7 +19041,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
     </row>
     <row r="34" spans="3:9">
@@ -19030,7 +19052,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="3:9">
@@ -19041,7 +19063,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="3:9">
@@ -19052,7 +19074,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="3:9">
@@ -19063,7 +19085,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="3:9">
@@ -19074,7 +19096,7 @@
         <v>33</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="3:9">
@@ -19091,7 +19113,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="3:9">
@@ -19102,7 +19124,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="3:9">
@@ -19113,7 +19135,7 @@
         <v>36</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="3:9">
@@ -19124,7 +19146,7 @@
         <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -19135,7 +19157,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="3:9">
@@ -19146,7 +19168,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="3:9">
@@ -19157,7 +19179,7 @@
         <v>40</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="3:9">
@@ -19168,7 +19190,7 @@
         <v>41</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="3:9">
@@ -19179,7 +19201,7 @@
         <v>42</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -19190,7 +19212,7 @@
         <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="3:13">
@@ -19201,7 +19223,7 @@
         <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="3:13">
@@ -19212,7 +19234,7 @@
         <v>45</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
     </row>
     <row r="51" spans="3:13">
@@ -19223,7 +19245,7 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
     </row>
     <row r="52" spans="3:13">
@@ -19234,7 +19256,7 @@
         <v>47</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
     </row>
     <row r="53" spans="3:13">
@@ -19245,7 +19267,7 @@
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
     </row>
     <row r="54" spans="3:13">
@@ -19256,10 +19278,10 @@
         <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="M54" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
     </row>
     <row r="55" spans="3:13">
@@ -19270,7 +19292,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="3:13">
@@ -19281,7 +19303,7 @@
         <v>51</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
     </row>
     <row r="57" spans="3:13">
@@ -19292,7 +19314,7 @@
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
     </row>
     <row r="58" spans="3:13">
@@ -19303,7 +19325,7 @@
         <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
     </row>
     <row r="59" spans="3:13">
@@ -19314,7 +19336,7 @@
         <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
     </row>
     <row r="60" spans="3:13">
@@ -19325,7 +19347,7 @@
         <v>55</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
     </row>
     <row r="61" spans="3:13">
@@ -19336,7 +19358,7 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
     </row>
     <row r="62" spans="3:13">
@@ -19347,7 +19369,7 @@
         <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
     </row>
     <row r="63" spans="3:13">
@@ -19358,7 +19380,7 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
     </row>
     <row r="64" spans="3:13">
@@ -19369,7 +19391,7 @@
         <v>59</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
     </row>
     <row r="65" spans="3:10">
@@ -19380,10 +19402,10 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="J65" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="66" spans="3:10">
@@ -19394,7 +19416,7 @@
         <v>61</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="3:10">
@@ -19405,7 +19427,7 @@
         <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
     </row>
     <row r="68" spans="3:10">
@@ -19416,7 +19438,7 @@
         <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
     </row>
     <row r="69" spans="3:10">
@@ -19424,7 +19446,7 @@
         <v>64</v>
       </c>
       <c r="I69" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="3:10">
@@ -19432,7 +19454,7 @@
         <v>65</v>
       </c>
       <c r="I70" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="3:10">
@@ -19440,7 +19462,7 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="3:10">
@@ -19448,7 +19470,7 @@
         <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="3:10">
@@ -19456,7 +19478,7 @@
         <v>68</v>
       </c>
       <c r="I73" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="3:10">
@@ -19464,7 +19486,7 @@
         <v>69</v>
       </c>
       <c r="I74" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="3:10">
@@ -19472,7 +19494,7 @@
         <v>70</v>
       </c>
       <c r="I75" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="76" spans="3:10">
@@ -19645,22 +19667,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="51.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="51.88671875" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="29.44140625" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="2.140625" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="2.109375" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB715DD-0B62-4512-A1E7-67FB0132B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD99B11-51A1-47B1-9A96-A8D9803BAC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="7848" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,11 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1068">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -3260,6 +3247,12 @@
   </si>
   <si>
     <t>Unlock Research / 7.5% Storage</t>
+  </si>
+  <si>
+    <t>New idea in december</t>
+  </si>
+  <si>
+    <t>After unlocking all wood types have 0 wood</t>
   </si>
 </sst>
 </file>
@@ -4027,7 +4020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4254,16 +4247,16 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="13.2">
+    <row r="5" spans="2:10" ht="12.75">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.2">
+    <row r="6" spans="2:10" ht="12.75">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -4288,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.2">
+    <row r="7" spans="2:10" ht="12.75">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -4302,7 +4295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="13.2">
+    <row r="8" spans="2:10" ht="12.75">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -4316,7 +4309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.2">
+    <row r="9" spans="2:10" ht="12.75">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4336,7 +4329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.2">
+    <row r="10" spans="2:10" ht="12.75">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -4350,7 +4343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13.2">
+    <row r="11" spans="2:10" ht="12.75">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="13.2">
+    <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
         <v>930</v>
       </c>
@@ -4384,7 +4377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="13.2">
+    <row r="13" spans="2:10" ht="12.75">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -4407,7 +4400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="13.2">
+    <row r="14" spans="2:10" ht="12.75">
       <c r="B14" t="s">
         <v>468</v>
       </c>
@@ -4430,7 +4423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="13.2">
+    <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
         <v>931</v>
       </c>
@@ -4451,7 +4444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="13.2">
+    <row r="16" spans="2:10" ht="12.75">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -4465,7 +4458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="13.2">
+    <row r="17" spans="6:10" ht="12.75">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -4479,7 +4472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="13.2">
+    <row r="18" spans="6:10" ht="12.75">
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -4490,7 +4483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="13.2">
+    <row r="19" spans="6:10" ht="12.75">
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -4504,7 +4497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="13.2">
+    <row r="20" spans="6:10" ht="12.75">
       <c r="G20" s="1">
         <v>3</v>
       </c>
@@ -4518,7 +4511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="13.2">
+    <row r="21" spans="6:10" ht="12.75">
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -4532,7 +4525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="13.2">
+    <row r="22" spans="6:10" ht="12.75">
       <c r="G22" s="1">
         <v>3</v>
       </c>
@@ -4546,7 +4539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="13.2">
+    <row r="23" spans="6:10" ht="12.75">
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="13.2">
+    <row r="24" spans="6:10" ht="12.75">
       <c r="G24" s="1">
         <v>3</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="13.2">
+    <row r="25" spans="6:10" ht="12.75">
       <c r="G25" s="1">
         <v>3</v>
       </c>
@@ -4585,7 +4578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="13.2">
+    <row r="26" spans="6:10" ht="12.75">
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -4897,11 +4890,11 @@
       <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="57" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10">
@@ -6718,15 +6711,15 @@
       <selection activeCell="F4" sqref="F4:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="13.2">
+    <row r="2" spans="1:15" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
@@ -6734,7 +6727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2">
+    <row r="3" spans="1:15" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -6766,7 +6759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.2">
+    <row r="4" spans="1:15" ht="12.75">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -6799,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.2">
+    <row r="5" spans="1:15" ht="12.75">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -6832,7 +6825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.2">
+    <row r="6" spans="1:15" ht="12.75">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -6865,7 +6858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13.2">
+    <row r="7" spans="1:15" ht="12.75">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -6898,7 +6891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2">
+    <row r="8" spans="1:15" ht="12.75">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -6931,7 +6924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2">
+    <row r="9" spans="1:15" ht="12.75">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -6964,7 +6957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13.2">
+    <row r="10" spans="1:15" ht="12.75">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -6997,7 +6990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.2">
+    <row r="11" spans="1:15" ht="12.75">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -7030,7 +7023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.2">
+    <row r="12" spans="1:15" ht="12.75">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -7063,7 +7056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.2">
+    <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -7099,7 +7092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.2">
+    <row r="14" spans="1:15" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -7135,7 +7128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.2">
+    <row r="15" spans="1:15" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
@@ -7171,7 +7164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.2">
+    <row r="16" spans="1:15" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
@@ -7207,7 +7200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2">
+    <row r="17" spans="1:15" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -7243,7 +7236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2">
+    <row r="18" spans="1:15" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -7279,7 +7272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2">
+    <row r="19" spans="1:15" ht="12.75">
       <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
@@ -7287,7 +7280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2">
+    <row r="20" spans="1:15" ht="12.75">
       <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="12.75">
       <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
@@ -7303,7 +7296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="12.75">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -7311,7 +7304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="12.75">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
@@ -7319,7 +7312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="12.75">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -7327,7 +7320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="12.75">
       <c r="A25" s="35" t="s">
         <v>41</v>
       </c>
@@ -7335,7 +7328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="12.75">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -7343,7 +7336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="12.75">
       <c r="A27" s="35" t="s">
         <v>46</v>
       </c>
@@ -7351,12 +7344,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="12.75">
       <c r="O28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="12.75">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -7389,12 +7382,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="12.75">
       <c r="O30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="12.75">
       <c r="F32" s="23" t="s">
         <v>72</v>
       </c>
@@ -7404,7 +7397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.2">
+    <row r="34" spans="2:12" ht="12.75">
       <c r="F34" s="23" t="s">
         <v>74</v>
       </c>
@@ -7582,41 +7575,41 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" customWidth="1"/>
-    <col min="21" max="21" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" customWidth="1"/>
-    <col min="25" max="25" width="22.109375" customWidth="1"/>
-    <col min="26" max="26" width="31.44140625" customWidth="1"/>
-    <col min="27" max="27" width="37.6640625" customWidth="1"/>
-    <col min="28" max="28" width="29.44140625" customWidth="1"/>
-    <col min="29" max="29" width="29.88671875" customWidth="1"/>
-    <col min="30" max="30" width="28.6640625" customWidth="1"/>
-    <col min="31" max="31" width="33.109375" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="31.42578125" customWidth="1"/>
+    <col min="27" max="27" width="37.7109375" customWidth="1"/>
+    <col min="28" max="28" width="29.42578125" customWidth="1"/>
+    <col min="29" max="29" width="29.85546875" customWidth="1"/>
+    <col min="30" max="30" width="28.7109375" customWidth="1"/>
+    <col min="31" max="31" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1">
@@ -7624,7 +7617,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.2">
+    <row r="2" spans="1:23" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
@@ -7699,7 +7692,7 @@
       <c r="V5" s="114"/>
       <c r="W5" s="114"/>
     </row>
-    <row r="6" spans="1:23" ht="13.8" thickBot="1">
+    <row r="6" spans="1:23" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -7768,7 +7761,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.2">
+    <row r="7" spans="1:23" ht="12.75">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -7840,7 +7833,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.2">
+    <row r="8" spans="1:23" ht="12.75">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -7911,7 +7904,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.2">
+    <row r="9" spans="1:23" ht="12.75">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7972,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.2">
+    <row r="10" spans="1:23" ht="12.75">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -8034,7 +8027,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.2">
+    <row r="11" spans="1:23" ht="12.75">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -8093,7 +8086,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.2">
+    <row r="12" spans="1:23" ht="12.75">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -8147,7 +8140,7 @@
       </c>
       <c r="W12" s="40"/>
     </row>
-    <row r="13" spans="1:23" ht="13.2">
+    <row r="13" spans="1:23" ht="12.75">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -8194,7 +8187,7 @@
       </c>
       <c r="W13" s="40"/>
     </row>
-    <row r="14" spans="1:23" ht="13.2">
+    <row r="14" spans="1:23" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -8228,7 +8221,7 @@
       <c r="V14" s="38"/>
       <c r="W14" s="40"/>
     </row>
-    <row r="15" spans="1:23" ht="13.2">
+    <row r="15" spans="1:23" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -8262,7 +8255,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="40"/>
     </row>
-    <row r="16" spans="1:23" ht="13.2">
+    <row r="16" spans="1:23" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -8296,7 +8289,7 @@
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
     </row>
-    <row r="17" spans="1:23" ht="13.2">
+    <row r="17" spans="1:23" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -8332,7 +8325,7 @@
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
     </row>
-    <row r="18" spans="1:23" ht="13.2">
+    <row r="18" spans="1:23" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -8364,7 +8357,7 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:23" ht="13.2">
+    <row r="19" spans="1:23" ht="12.75">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -8400,7 +8393,7 @@
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
     </row>
-    <row r="20" spans="1:23" ht="13.2">
+    <row r="20" spans="1:23" ht="12.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -8428,7 +8421,7 @@
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
     </row>
-    <row r="21" spans="1:23" ht="13.2">
+    <row r="21" spans="1:23" ht="12.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -8459,7 +8452,7 @@
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
     </row>
-    <row r="22" spans="1:23" ht="13.2">
+    <row r="22" spans="1:23" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -8487,7 +8480,7 @@
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="1:23" ht="13.2">
+    <row r="23" spans="1:23" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -8524,7 +8517,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
     </row>
-    <row r="24" spans="1:23" ht="13.2">
+    <row r="24" spans="1:23" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -8564,7 +8557,7 @@
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
     </row>
-    <row r="25" spans="1:23" ht="13.2">
+    <row r="25" spans="1:23" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -8604,7 +8597,7 @@
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
     </row>
-    <row r="26" spans="1:23" ht="13.2">
+    <row r="26" spans="1:23" ht="12.75">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -8643,7 +8636,7 @@
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
     </row>
-    <row r="27" spans="1:23" ht="13.2">
+    <row r="27" spans="1:23" ht="12.75">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -8682,7 +8675,7 @@
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
     </row>
-    <row r="28" spans="1:23" ht="13.2">
+    <row r="28" spans="1:23" ht="12.75">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -8718,7 +8711,7 @@
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
     </row>
-    <row r="29" spans="1:23" ht="13.2">
+    <row r="29" spans="1:23" ht="12.75">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -8752,7 +8745,7 @@
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
     </row>
-    <row r="30" spans="1:23" ht="13.2">
+    <row r="30" spans="1:23" ht="12.75">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -8786,7 +8779,7 @@
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
     </row>
-    <row r="31" spans="1:23" ht="13.2">
+    <row r="31" spans="1:23" ht="12.75">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -8809,7 +8802,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.2">
+    <row r="32" spans="1:23" ht="12.75">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -8835,7 +8828,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18" thickBot="1">
+    <row r="33" spans="1:24" ht="18.75" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -8852,7 +8845,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="18" thickBot="1">
+    <row r="34" spans="1:24" ht="18.75" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -8880,7 +8873,7 @@
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:24" ht="13.8" thickBot="1">
+    <row r="35" spans="1:24" ht="13.5" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -8933,7 +8926,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.2">
+    <row r="36" spans="1:24" ht="12.75">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -8990,7 +8983,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.2">
+    <row r="37" spans="1:24" ht="12.75">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -9048,7 +9041,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.2">
+    <row r="38" spans="1:24" ht="12.75">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -9105,7 +9098,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.2">
+    <row r="39" spans="1:24" ht="12.75">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -9163,7 +9156,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.2">
+    <row r="40" spans="1:24" ht="12.75">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9220,7 +9213,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.2">
+    <row r="41" spans="1:24" ht="12.75">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9274,7 +9267,7 @@
       </c>
       <c r="X41" s="55"/>
     </row>
-    <row r="42" spans="1:24" ht="13.2">
+    <row r="42" spans="1:24" ht="12.75">
       <c r="A42">
         <v>7</v>
       </c>
@@ -9331,7 +9324,7 @@
       </c>
       <c r="X42" s="55"/>
     </row>
-    <row r="43" spans="1:24" ht="13.2">
+    <row r="43" spans="1:24" ht="12.75">
       <c r="A43">
         <v>10</v>
       </c>
@@ -9384,7 +9377,7 @@
       </c>
       <c r="X43" s="55"/>
     </row>
-    <row r="44" spans="1:24" ht="13.2">
+    <row r="44" spans="1:24" ht="12.75">
       <c r="A44">
         <v>13</v>
       </c>
@@ -9437,7 +9430,7 @@
       </c>
       <c r="X44" s="55"/>
     </row>
-    <row r="45" spans="1:24" ht="13.2">
+    <row r="45" spans="1:24" ht="12.75">
       <c r="A45">
         <v>16</v>
       </c>
@@ -9491,7 +9484,7 @@
       </c>
       <c r="X45" s="59"/>
     </row>
-    <row r="46" spans="1:24" ht="13.2">
+    <row r="46" spans="1:24" ht="12.75">
       <c r="A46">
         <v>19</v>
       </c>
@@ -9542,7 +9535,7 @@
       </c>
       <c r="X46" s="55"/>
     </row>
-    <row r="47" spans="1:24" ht="13.2">
+    <row r="47" spans="1:24" ht="12.75">
       <c r="A47">
         <v>22</v>
       </c>
@@ -9593,7 +9586,7 @@
       </c>
       <c r="X47" s="55"/>
     </row>
-    <row r="48" spans="1:24" ht="13.2">
+    <row r="48" spans="1:24" ht="12.75">
       <c r="A48">
         <v>25</v>
       </c>
@@ -9642,7 +9635,7 @@
       </c>
       <c r="X48" s="55"/>
     </row>
-    <row r="49" spans="1:24" ht="13.2">
+    <row r="49" spans="1:24" ht="12.75">
       <c r="A49">
         <v>28</v>
       </c>
@@ -9691,7 +9684,7 @@
       </c>
       <c r="X49" s="55"/>
     </row>
-    <row r="50" spans="1:24" ht="13.2">
+    <row r="50" spans="1:24" ht="12.75">
       <c r="A50">
         <v>31</v>
       </c>
@@ -9740,7 +9733,7 @@
       </c>
       <c r="X50" s="55"/>
     </row>
-    <row r="51" spans="1:24" ht="13.2">
+    <row r="51" spans="1:24" ht="12.75">
       <c r="A51">
         <v>34</v>
       </c>
@@ -9786,7 +9779,7 @@
       </c>
       <c r="X51" s="55"/>
     </row>
-    <row r="52" spans="1:24" ht="13.2">
+    <row r="52" spans="1:24" ht="12.75">
       <c r="A52">
         <v>37</v>
       </c>
@@ -9845,7 +9838,7 @@
       </c>
       <c r="X52" s="55"/>
     </row>
-    <row r="53" spans="1:24" ht="13.2">
+    <row r="53" spans="1:24" ht="12.75">
       <c r="A53">
         <v>40</v>
       </c>
@@ -9895,7 +9888,7 @@
       </c>
       <c r="X53" s="55"/>
     </row>
-    <row r="54" spans="1:24" ht="13.2">
+    <row r="54" spans="1:24" ht="12.75">
       <c r="A54">
         <v>43</v>
       </c>
@@ -9942,7 +9935,7 @@
       </c>
       <c r="X54" s="55"/>
     </row>
-    <row r="55" spans="1:24" ht="13.2">
+    <row r="55" spans="1:24" ht="12.75">
       <c r="A55">
         <v>46</v>
       </c>
@@ -9998,7 +9991,7 @@
       </c>
       <c r="X55" s="55"/>
     </row>
-    <row r="56" spans="1:24" ht="13.2">
+    <row r="56" spans="1:24" ht="12.75">
       <c r="A56">
         <v>49</v>
       </c>
@@ -10045,7 +10038,7 @@
       </c>
       <c r="X56" s="55"/>
     </row>
-    <row r="57" spans="1:24" ht="13.2">
+    <row r="57" spans="1:24" ht="12.75">
       <c r="A57">
         <v>52</v>
       </c>
@@ -10095,7 +10088,7 @@
       </c>
       <c r="X57" s="55"/>
     </row>
-    <row r="58" spans="1:24" ht="13.2">
+    <row r="58" spans="1:24" ht="12.75">
       <c r="A58">
         <v>55</v>
       </c>
@@ -10138,7 +10131,7 @@
       </c>
       <c r="X58" s="55"/>
     </row>
-    <row r="59" spans="1:24" ht="13.2">
+    <row r="59" spans="1:24" ht="12.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10184,7 +10177,7 @@
       </c>
       <c r="X59" s="55"/>
     </row>
-    <row r="60" spans="1:24" ht="13.2">
+    <row r="60" spans="1:24" ht="12.75">
       <c r="A60">
         <v>61</v>
       </c>
@@ -10227,7 +10220,7 @@
       </c>
       <c r="X60" s="55"/>
     </row>
-    <row r="61" spans="1:24" ht="13.2">
+    <row r="61" spans="1:24" ht="12.75">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10272,7 +10265,7 @@
       </c>
       <c r="X61" s="55"/>
     </row>
-    <row r="62" spans="1:24" ht="13.2">
+    <row r="62" spans="1:24" ht="12.75">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -10314,7 +10307,7 @@
       </c>
       <c r="X62" s="55"/>
     </row>
-    <row r="63" spans="1:24" ht="13.2">
+    <row r="63" spans="1:24" ht="12.75">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -10353,7 +10346,7 @@
       </c>
       <c r="X63" s="55"/>
     </row>
-    <row r="64" spans="1:24" ht="13.2">
+    <row r="64" spans="1:24" ht="12.75">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -10390,7 +10383,7 @@
       <c r="W64" s="55"/>
       <c r="X64" s="55"/>
     </row>
-    <row r="65" spans="2:24" ht="13.2">
+    <row r="65" spans="2:24" ht="12.75">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -10427,7 +10420,7 @@
       <c r="W65" s="55"/>
       <c r="X65" s="55"/>
     </row>
-    <row r="66" spans="2:24" ht="13.2">
+    <row r="66" spans="2:24" ht="12.75">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -10464,7 +10457,7 @@
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
     </row>
-    <row r="67" spans="2:24" ht="13.2">
+    <row r="67" spans="2:24" ht="12.75">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -10501,7 +10494,7 @@
       <c r="W67" s="55"/>
       <c r="X67" s="55"/>
     </row>
-    <row r="68" spans="2:24" ht="13.2">
+    <row r="68" spans="2:24" ht="12.75">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -10538,7 +10531,7 @@
       <c r="W68" s="55"/>
       <c r="X68" s="55"/>
     </row>
-    <row r="69" spans="2:24" ht="13.2">
+    <row r="69" spans="2:24" ht="12.75">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -10573,7 +10566,7 @@
       <c r="W69" s="55"/>
       <c r="X69" s="55"/>
     </row>
-    <row r="70" spans="2:24" ht="13.2">
+    <row r="70" spans="2:24" ht="12.75">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -10611,7 +10604,7 @@
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
     </row>
-    <row r="71" spans="2:24" ht="13.2">
+    <row r="71" spans="2:24" ht="12.75">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -10644,7 +10637,7 @@
       <c r="W71" s="55"/>
       <c r="X71" s="55"/>
     </row>
-    <row r="72" spans="2:24" ht="13.2">
+    <row r="72" spans="2:24" ht="12.75">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -10677,7 +10670,7 @@
       <c r="W72" s="55"/>
       <c r="X72" s="55"/>
     </row>
-    <row r="73" spans="2:24" ht="13.2">
+    <row r="73" spans="2:24" ht="12.75">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -10710,7 +10703,7 @@
       <c r="W73" s="55"/>
       <c r="X73" s="55"/>
     </row>
-    <row r="74" spans="2:24" ht="13.2">
+    <row r="74" spans="2:24" ht="12.75">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -10743,7 +10736,7 @@
       <c r="W74" s="55"/>
       <c r="X74" s="55"/>
     </row>
-    <row r="75" spans="2:24" ht="13.2">
+    <row r="75" spans="2:24" ht="12.75">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -10776,7 +10769,7 @@
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
     </row>
-    <row r="76" spans="2:24" ht="13.2">
+    <row r="76" spans="2:24" ht="12.75">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -10809,7 +10802,7 @@
       <c r="W76" s="55"/>
       <c r="X76" s="55"/>
     </row>
-    <row r="77" spans="2:24" ht="13.2">
+    <row r="77" spans="2:24" ht="12.75">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -10845,7 +10838,7 @@
       <c r="W77" s="55"/>
       <c r="X77" s="55"/>
     </row>
-    <row r="78" spans="2:24" ht="13.2">
+    <row r="78" spans="2:24" ht="12.75">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -10879,7 +10872,7 @@
       <c r="W78" s="55"/>
       <c r="X78" s="55"/>
     </row>
-    <row r="79" spans="2:24" ht="13.2">
+    <row r="79" spans="2:24" ht="12.75">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -10912,7 +10905,7 @@
       <c r="W79" s="55"/>
       <c r="X79" s="55"/>
     </row>
-    <row r="80" spans="2:24" ht="13.2">
+    <row r="80" spans="2:24" ht="12.75">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -10945,7 +10938,7 @@
       <c r="W80" s="55"/>
       <c r="X80" s="55"/>
     </row>
-    <row r="81" spans="2:24" ht="13.2">
+    <row r="81" spans="2:24" ht="12.75">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -10976,7 +10969,7 @@
       <c r="W81" s="55"/>
       <c r="X81" s="55"/>
     </row>
-    <row r="82" spans="2:24" ht="13.2">
+    <row r="82" spans="2:24" ht="12.75">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -11007,7 +11000,7 @@
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
     </row>
-    <row r="83" spans="2:24" ht="13.2">
+    <row r="83" spans="2:24" ht="12.75">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -11041,7 +11034,7 @@
       <c r="W83" s="55"/>
       <c r="X83" s="55"/>
     </row>
-    <row r="84" spans="2:24" ht="13.2">
+    <row r="84" spans="2:24" ht="12.75">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -11072,7 +11065,7 @@
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
     </row>
-    <row r="85" spans="2:24" ht="13.2">
+    <row r="85" spans="2:24" ht="12.75">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -11103,7 +11096,7 @@
       <c r="W85" s="55"/>
       <c r="X85" s="55"/>
     </row>
-    <row r="86" spans="2:24" ht="13.2">
+    <row r="86" spans="2:24" ht="12.75">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -11134,7 +11127,7 @@
       <c r="W86" s="55"/>
       <c r="X86" s="55"/>
     </row>
-    <row r="87" spans="2:24" ht="13.2">
+    <row r="87" spans="2:24" ht="12.75">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -11184,7 +11177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:24" ht="13.2">
+    <row r="88" spans="2:24" ht="12.75">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -11216,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:24" ht="13.2">
+    <row r="89" spans="2:24" ht="12.75">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -11233,7 +11226,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="2:24" ht="13.2">
+    <row r="90" spans="2:24" ht="12.75">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -11263,7 +11256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="2:24" ht="13.2">
+    <row r="91" spans="2:24" ht="12.75">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -11293,7 +11286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:24" ht="13.2">
+    <row r="92" spans="2:24" ht="12.75">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -11323,7 +11316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="2:24" ht="13.2">
+    <row r="93" spans="2:24" ht="12.75">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -11353,7 +11346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="2:24" ht="13.2">
+    <row r="94" spans="2:24" ht="12.75">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -11386,7 +11379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:24" ht="13.2">
+    <row r="95" spans="2:24" ht="12.75">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -11416,7 +11409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="2:24" ht="13.2">
+    <row r="96" spans="2:24" ht="12.75">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -11447,7 +11440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:24" ht="13.2">
+    <row r="97" spans="2:24" ht="12.75">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -11477,7 +11470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:24" ht="13.2">
+    <row r="98" spans="2:24" ht="12.75">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -11507,7 +11500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:24" ht="13.2">
+    <row r="99" spans="2:24" ht="12.75">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -11537,7 +11530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:24" ht="13.2">
+    <row r="100" spans="2:24" ht="12.75">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -11567,7 +11560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:24" ht="13.2">
+    <row r="101" spans="2:24" ht="12.75">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -11597,7 +11590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:24" ht="13.2">
+    <row r="102" spans="2:24" ht="12.75">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -11627,7 +11620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:24" ht="13.2">
+    <row r="103" spans="2:24" ht="12.75">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -11642,7 +11635,7 @@
       </c>
       <c r="T103" s="45"/>
     </row>
-    <row r="104" spans="2:24" ht="13.2">
+    <row r="104" spans="2:24" ht="12.75">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -11656,7 +11649,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="105" spans="2:24" ht="13.2">
+    <row r="105" spans="2:24" ht="12.75">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -11670,7 +11663,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="106" spans="2:24" ht="13.2">
+    <row r="106" spans="2:24" ht="12.75">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -11684,7 +11677,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="2:24" ht="13.2">
+    <row r="107" spans="2:24" ht="12.75">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -11698,7 +11691,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="2:24" ht="13.2">
+    <row r="108" spans="2:24" ht="12.75">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -11715,7 +11708,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="109" spans="2:24" ht="13.2">
+    <row r="109" spans="2:24" ht="12.75">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -11744,7 +11737,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="2:24" ht="13.2">
+    <row r="110" spans="2:24" ht="12.75">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -11758,7 +11751,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="111" spans="2:24" ht="13.2">
+    <row r="111" spans="2:24" ht="12.75">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -11772,7 +11765,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="112" spans="2:24" ht="13.2">
+    <row r="112" spans="2:24" ht="12.75">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -11793,7 +11786,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="2:24" ht="13.2">
+    <row r="113" spans="2:24" ht="12.75">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -11839,7 +11832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:24" ht="13.2">
+    <row r="114" spans="2:24" ht="12.75">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -11882,7 +11875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="2:24" ht="13.2">
+    <row r="115" spans="2:24" ht="12.75">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -11924,7 +11917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:24" ht="13.2">
+    <row r="116" spans="2:24" ht="12.75">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -11966,7 +11959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:24" ht="13.2">
+    <row r="117" spans="2:24" ht="12.75">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -11999,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:24" ht="13.2">
+    <row r="118" spans="2:24" ht="12.75">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -12031,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" ht="13.2">
+    <row r="119" spans="2:24" ht="12.75">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -12065,7 +12058,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="2:24" ht="13.2">
+    <row r="120" spans="2:24" ht="12.75">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -12090,7 +12083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="2:24" ht="13.2">
+    <row r="121" spans="2:24" ht="12.75">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -12115,7 +12108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="2:24" ht="13.2">
+    <row r="122" spans="2:24" ht="12.75">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -12140,7 +12133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="2:24" ht="13.2">
+    <row r="123" spans="2:24" ht="12.75">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -12165,7 +12158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="2:24" ht="13.2">
+    <row r="124" spans="2:24" ht="12.75">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -12190,7 +12183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="2:24" ht="13.2">
+    <row r="125" spans="2:24" ht="12.75">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -12215,7 +12208,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="2:24" ht="13.2">
+    <row r="126" spans="2:24" ht="12.75">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -12240,7 +12233,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:24" ht="13.2">
+    <row r="127" spans="2:24" ht="12.75">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -12265,7 +12258,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="2:24" ht="13.2">
+    <row r="128" spans="2:24" ht="12.75">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -12290,7 +12283,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="2:15" ht="13.2">
+    <row r="129" spans="2:15" ht="12.75">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -12318,7 +12311,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="2:15" ht="13.2">
+    <row r="130" spans="2:15" ht="12.75">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -12343,7 +12336,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="13.2">
+    <row r="131" spans="2:15" ht="12.75">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -12368,7 +12361,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="132" spans="2:15" ht="13.2">
+    <row r="132" spans="2:15" ht="12.75">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -12397,7 +12390,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="13.2">
+    <row r="133" spans="2:15" ht="12.75">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -12425,7 +12418,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="2:15" ht="13.2">
+    <row r="134" spans="2:15" ht="12.75">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -12453,7 +12446,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="135" spans="2:15" ht="13.2">
+    <row r="135" spans="2:15" ht="12.75">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -12478,7 +12471,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="136" spans="2:15" ht="13.2">
+    <row r="136" spans="2:15" ht="12.75">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -12506,7 +12499,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="137" spans="2:15" ht="13.2">
+    <row r="137" spans="2:15" ht="12.75">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -12531,7 +12524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="2:15" ht="13.2">
+    <row r="138" spans="2:15" ht="12.75">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -12556,7 +12549,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="139" spans="2:15" ht="13.2">
+    <row r="139" spans="2:15" ht="12.75">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -12581,7 +12574,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="140" spans="2:15" ht="13.2">
+    <row r="140" spans="2:15" ht="12.75">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -12606,7 +12599,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="2:15" ht="13.2">
+    <row r="141" spans="2:15" ht="12.75">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -12631,7 +12624,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="2:15" ht="13.2">
+    <row r="142" spans="2:15" ht="12.75">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -12656,7 +12649,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="2:15" ht="13.2">
+    <row r="143" spans="2:15" ht="12.75">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -12681,7 +12674,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="144" spans="2:15" ht="13.2">
+    <row r="144" spans="2:15" ht="12.75">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -12706,7 +12699,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="2:15" ht="13.2">
+    <row r="145" spans="2:15" ht="12.75">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -12731,7 +12724,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="146" spans="2:15" ht="13.2">
+    <row r="146" spans="2:15" ht="12.75">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -12756,7 +12749,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="13.2">
+    <row r="147" spans="2:15" ht="12.75">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -12781,7 +12774,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="13.2">
+    <row r="148" spans="2:15" ht="12.75">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -12806,7 +12799,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="13.2">
+    <row r="149" spans="2:15" ht="12.75">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -12834,7 +12827,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="150" spans="2:15" ht="13.2">
+    <row r="150" spans="2:15" ht="12.75">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -12860,7 +12853,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="13.2">
+    <row r="151" spans="2:15" ht="12.75">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -12885,7 +12878,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="152" spans="2:15" ht="13.2">
+    <row r="152" spans="2:15" ht="12.75">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -12910,7 +12903,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="13.2">
+    <row r="153" spans="2:15" ht="12.75">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -12938,7 +12931,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="154" spans="2:15" ht="13.2">
+    <row r="154" spans="2:15" ht="12.75">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -12963,7 +12956,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="155" spans="2:15" ht="13.2">
+    <row r="155" spans="2:15" ht="12.75">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -12991,7 +12984,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="13.2">
+    <row r="156" spans="2:15" ht="12.75">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -13016,7 +13009,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="13.2">
+    <row r="157" spans="2:15" ht="12.75">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -13041,7 +13034,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="13.2">
+    <row r="158" spans="2:15" ht="12.75">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -13066,7 +13059,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="159" spans="2:15" ht="13.2">
+    <row r="159" spans="2:15" ht="12.75">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -13091,7 +13084,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="160" spans="2:15" ht="13.2">
+    <row r="160" spans="2:15" ht="12.75">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -13116,7 +13109,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="13.2">
+    <row r="161" spans="2:15" ht="12.75">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -13141,7 +13134,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="162" spans="2:15" ht="13.2">
+    <row r="162" spans="2:15" ht="12.75">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -13166,7 +13159,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="163" spans="2:15" ht="13.2">
+    <row r="163" spans="2:15" ht="12.75">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -13191,7 +13184,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="164" spans="2:15" ht="13.2">
+    <row r="164" spans="2:15" ht="12.75">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -13216,7 +13209,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="165" spans="2:15" ht="13.2">
+    <row r="165" spans="2:15" ht="12.75">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -13241,7 +13234,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="166" spans="2:15" ht="13.2">
+    <row r="166" spans="2:15" ht="12.75">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -13266,7 +13259,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="167" spans="2:15" ht="13.2">
+    <row r="167" spans="2:15" ht="12.75">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -13291,7 +13284,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="168" spans="2:15" ht="13.2">
+    <row r="168" spans="2:15" ht="12.75">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -13317,7 +13310,7 @@
         <v>8178</v>
       </c>
     </row>
-    <row r="169" spans="2:15" ht="13.2">
+    <row r="169" spans="2:15" ht="12.75">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -13342,7 +13335,7 @@
         <v>9047</v>
       </c>
     </row>
-    <row r="170" spans="2:15" ht="13.2">
+    <row r="170" spans="2:15" ht="12.75">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -13367,7 +13360,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="171" spans="2:15" ht="13.2">
+    <row r="171" spans="2:15" ht="12.75">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -13392,7 +13385,7 @@
         <v>11149</v>
       </c>
     </row>
-    <row r="172" spans="2:15" ht="13.2">
+    <row r="172" spans="2:15" ht="12.75">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -13417,7 +13410,7 @@
         <v>12418</v>
       </c>
     </row>
-    <row r="173" spans="2:15" ht="13.2">
+    <row r="173" spans="2:15" ht="12.75">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -16267,13 +16260,13 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="13.2">
+    <row r="2" spans="3:12" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -16283,7 +16276,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="13.2">
+    <row r="4" spans="3:12" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -16312,7 +16305,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="13.2">
+    <row r="5" spans="3:12" ht="12.75">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -16335,7 +16328,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="13.2">
+    <row r="6" spans="3:12" ht="12.75">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -16352,7 +16345,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="13.2">
+    <row r="7" spans="3:12" ht="12.75">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -16366,7 +16359,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="13.2">
+    <row r="8" spans="3:12" ht="12.75">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -16380,7 +16373,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="13.2">
+    <row r="9" spans="3:12" ht="12.75">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -16394,7 +16387,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="13.2">
+    <row r="10" spans="3:12" ht="12.75">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -16411,7 +16404,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="13.2">
+    <row r="11" spans="3:12" ht="12.75">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -16428,7 +16421,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="13.2">
+    <row r="12" spans="3:12" ht="12.75">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -16442,7 +16435,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="13.2">
+    <row r="13" spans="3:12" ht="12.75">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -16456,7 +16449,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="13.2">
+    <row r="14" spans="3:12" ht="12.75">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -16470,7 +16463,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="13.2">
+    <row r="15" spans="3:12" ht="12.75">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -16484,7 +16477,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="13.2">
+    <row r="16" spans="3:12" ht="12.75">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -16498,7 +16491,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="13.2">
+    <row r="17" spans="3:9" ht="12.75">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -16512,7 +16505,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="13.2">
+    <row r="18" spans="3:9" ht="12.75">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -16526,7 +16519,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="13.2">
+    <row r="19" spans="3:9" ht="12.75">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -16540,7 +16533,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="13.2">
+    <row r="20" spans="3:9" ht="12.75">
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -16554,7 +16547,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="13.2">
+    <row r="21" spans="3:9" ht="12.75">
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -16568,7 +16561,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="13.2">
+    <row r="22" spans="3:9" ht="12.75">
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -16582,7 +16575,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="13.2">
+    <row r="23" spans="3:9" ht="12.75">
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -16596,7 +16589,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="13.2">
+    <row r="24" spans="3:9" ht="12.75">
       <c r="C24" s="1">
         <v>20</v>
       </c>
@@ -16610,7 +16603,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="13.2">
+    <row r="25" spans="3:9" ht="12.75">
       <c r="C25" s="1">
         <v>21</v>
       </c>
@@ -16624,7 +16617,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="13.2">
+    <row r="26" spans="3:9" ht="12.75">
       <c r="C26" s="1">
         <v>22</v>
       </c>
@@ -16638,7 +16631,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="13.2">
+    <row r="27" spans="3:9" ht="12.75">
       <c r="C27" s="1">
         <v>23</v>
       </c>
@@ -16652,7 +16645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="13.2">
+    <row r="28" spans="3:9" ht="12.75">
       <c r="C28" s="1">
         <v>24</v>
       </c>
@@ -16666,7 +16659,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="13.2">
+    <row r="29" spans="3:9" ht="12.75">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -16680,7 +16673,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="13.2">
+    <row r="30" spans="3:9" ht="12.75">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -16694,7 +16687,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="13.2">
+    <row r="31" spans="3:9" ht="12.75">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -16708,7 +16701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="13.2">
+    <row r="32" spans="3:9" ht="12.75">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -16723,7 +16716,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="3:9" ht="13.2">
+    <row r="33" spans="3:9" ht="12.75">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -16738,7 +16731,7 @@
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="3:9" ht="13.2">
+    <row r="34" spans="3:9" ht="12.75">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -16753,7 +16746,7 @@
       </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="3:9" ht="13.2">
+    <row r="35" spans="3:9" ht="12.75">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -16768,7 +16761,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="3:9" ht="13.2">
+    <row r="36" spans="3:9" ht="12.75">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -16785,7 +16778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="13.2">
+    <row r="37" spans="3:9" ht="12.75">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -16802,7 +16795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="13.2">
+    <row r="38" spans="3:9" ht="12.75">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -16819,7 +16812,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="13.2">
+    <row r="39" spans="3:9" ht="12.75">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -16836,7 +16829,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="13.2">
+    <row r="40" spans="3:9" ht="12.75">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -16853,7 +16846,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="13.2">
+    <row r="41" spans="3:9" ht="12.75">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -16870,7 +16863,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="13.2">
+    <row r="42" spans="3:9" ht="12.75">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -16887,7 +16880,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="13.2">
+    <row r="43" spans="3:9" ht="12.75">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -16904,7 +16897,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="13.2">
+    <row r="44" spans="3:9" ht="12.75">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -16921,7 +16914,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="13.2">
+    <row r="45" spans="3:9" ht="12.75">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -16938,7 +16931,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="13.2">
+    <row r="46" spans="3:9" ht="12.75">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -16955,7 +16948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="13.2">
+    <row r="47" spans="3:9" ht="12.75">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -16972,7 +16965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="13.2">
+    <row r="48" spans="3:9" ht="12.75">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -16989,7 +16982,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="13.2">
+    <row r="49" spans="3:9" ht="12.75">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -17006,7 +16999,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="13.2">
+    <row r="50" spans="3:9" ht="12.75">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -17023,7 +17016,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="13.2">
+    <row r="51" spans="3:9" ht="12.75">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -17040,7 +17033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="13.2">
+    <row r="52" spans="3:9" ht="12.75">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -17057,7 +17050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="13.2">
+    <row r="53" spans="3:9" ht="12.75">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -17074,7 +17067,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="13.2">
+    <row r="54" spans="3:9" ht="12.75">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -17088,7 +17081,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="13.2">
+    <row r="55" spans="3:9" ht="12.75">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -17102,7 +17095,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="13.2">
+    <row r="56" spans="3:9" ht="12.75">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -17116,7 +17109,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="13.2">
+    <row r="57" spans="3:9" ht="12.75">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -17130,7 +17123,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="13.2">
+    <row r="58" spans="3:9" ht="12.75">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -17144,7 +17137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="13.2">
+    <row r="59" spans="3:9" ht="12.75">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -17158,7 +17151,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="13.2">
+    <row r="60" spans="3:9" ht="12.75">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -17172,7 +17165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="13.2">
+    <row r="61" spans="3:9" ht="12.75">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -17186,7 +17179,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="13.2">
+    <row r="62" spans="3:9" ht="12.75">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -17197,7 +17190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="13.2">
+    <row r="63" spans="3:9" ht="12.75">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -17208,7 +17201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="13.2">
+    <row r="64" spans="3:9" ht="12.75">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -17219,7 +17212,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="13.2">
+    <row r="65" spans="3:6" ht="12.75">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -17361,10 +17354,10 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9">
@@ -17815,18 +17808,18 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="13.2">
+    <row r="4" spans="3:7" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="13.2">
+    <row r="6" spans="3:7" ht="12.75">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -17843,7 +17836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="13.2">
+    <row r="7" spans="3:7" ht="12.75">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -17854,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="13.2">
+    <row r="8" spans="3:7" ht="12.75">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -17865,7 +17858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="13.2">
+    <row r="9" spans="3:7" ht="12.75">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -17876,7 +17869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="13.2">
+    <row r="10" spans="3:7" ht="12.75">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -17887,7 +17880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="13.2">
+    <row r="11" spans="3:7" ht="12.75">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -17898,7 +17891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="13.2">
+    <row r="12" spans="3:7" ht="12.75">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -17909,7 +17902,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="13.2">
+    <row r="13" spans="3:7" ht="12.75">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -17920,7 +17913,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="13.2">
+    <row r="14" spans="3:7" ht="12.75">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -17931,7 +17924,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="13.2">
+    <row r="15" spans="3:7" ht="12.75">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -17942,7 +17935,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="13.2">
+    <row r="16" spans="3:7" ht="12.75">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -17953,7 +17946,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="13.2">
+    <row r="17" spans="3:7" ht="12.75">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -17964,7 +17957,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="13.2">
+    <row r="18" spans="3:7" ht="12.75">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -17975,7 +17968,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="13.2">
+    <row r="19" spans="3:7" ht="12.75">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -17986,7 +17979,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="13.2">
+    <row r="20" spans="3:7" ht="12.75">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -17997,7 +17990,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="13.2">
+    <row r="21" spans="3:7" ht="12.75">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -18008,7 +18001,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="13.2">
+    <row r="22" spans="3:7" ht="12.75">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -18019,7 +18012,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="13.2">
+    <row r="23" spans="3:7" ht="12.75">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -18030,7 +18023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="13.2">
+    <row r="24" spans="3:7" ht="12.75">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -18041,7 +18034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="13.2">
+    <row r="25" spans="3:7" ht="12.75">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -18052,7 +18045,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="13.2">
+    <row r="26" spans="3:7" ht="12.75">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -18063,7 +18056,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="13.2">
+    <row r="27" spans="3:7" ht="12.75">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -18074,7 +18067,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="13.2">
+    <row r="28" spans="3:7" ht="12.75">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -18085,7 +18078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="13.2">
+    <row r="29" spans="3:7" ht="12.75">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -18096,7 +18089,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="13.2">
+    <row r="30" spans="3:7" ht="12.75">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -18107,7 +18100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="13.2">
+    <row r="31" spans="3:7" ht="12.75">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -18118,7 +18111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="13.2">
+    <row r="32" spans="3:7" ht="12.75">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -18129,7 +18122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="13.2">
+    <row r="33" spans="3:7" ht="12.75">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -18140,7 +18133,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="13.2">
+    <row r="34" spans="3:7" ht="12.75">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -18151,7 +18144,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="13.2">
+    <row r="35" spans="3:7" ht="12.75">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -18162,7 +18155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="13.2">
+    <row r="36" spans="3:7" ht="12.75">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -18194,23 +18187,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" ht="13.2">
+    <row r="3" spans="3:20" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="13.2">
+    <row r="5" spans="3:20" ht="12.75">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -18266,7 +18259,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="13.2">
+    <row r="6" spans="3:20" ht="12.75">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -18292,7 +18285,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="3:20" ht="13.2">
+    <row r="7" spans="3:20" ht="12.75">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -18312,7 +18305,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="13.2">
+    <row r="8" spans="3:20" ht="12.75">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -18332,7 +18325,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="9" spans="3:20" ht="13.2">
+    <row r="9" spans="3:20" ht="12.75">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -18394,15 +18387,15 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
@@ -19033,7 +19026,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:12">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -19044,7 +19037,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:12">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -19055,7 +19048,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="3:12">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -19066,7 +19059,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:12">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -19076,8 +19069,11 @@
       <c r="I36" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="37" spans="3:9">
+      <c r="L36" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -19087,8 +19083,11 @@
       <c r="I37" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="38" spans="3:9">
+      <c r="L37" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -19099,7 +19098,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:12">
       <c r="C39" s="1">
         <v>34</v>
       </c>
@@ -19116,7 +19115,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="3:12">
       <c r="C40" s="1">
         <v>35</v>
       </c>
@@ -19127,7 +19126,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="41" spans="3:9">
+    <row r="41" spans="3:12">
       <c r="C41" s="1">
         <v>36</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="3:12">
       <c r="C42" s="1">
         <v>37</v>
       </c>
@@ -19149,7 +19148,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="3:12">
       <c r="C43" s="1">
         <v>38</v>
       </c>
@@ -19160,7 +19159,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="44" spans="3:9">
+    <row r="44" spans="3:12">
       <c r="C44" s="1">
         <v>39</v>
       </c>
@@ -19171,7 +19170,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="3:9">
+    <row r="45" spans="3:12">
       <c r="C45" s="1">
         <v>40</v>
       </c>
@@ -19182,7 +19181,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="3:12">
       <c r="C46" s="1">
         <v>41</v>
       </c>
@@ -19193,7 +19192,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="47" spans="3:9">
+    <row r="47" spans="3:12">
       <c r="C47" s="1">
         <v>42</v>
       </c>
@@ -19204,7 +19203,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="48" spans="3:9">
+    <row r="48" spans="3:12">
       <c r="C48" s="1">
         <v>43</v>
       </c>
@@ -19667,22 +19666,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.85546875" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" customWidth="1"/>
-    <col min="21" max="21" width="3.5546875" customWidth="1"/>
-    <col min="22" max="22" width="2.109375" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="2.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD99B11-51A1-47B1-9A96-A8D9803BAC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F814DE-DF7D-4832-AA13-91244ACF03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7890" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="5292" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,24 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1235">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -3253,6 +3266,507 @@
   </si>
   <si>
     <t>After unlocking all wood types have 0 wood</t>
+  </si>
+  <si>
+    <t>New Type</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New Type Nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak per Beaver +0.3 </t>
+  </si>
+  <si>
+    <t>Apple per Beaver +0.35</t>
+  </si>
+  <si>
+    <t>Maple per Beaver +0.4</t>
+  </si>
+  <si>
+    <t>Birch per Beaver +0.45</t>
+  </si>
+  <si>
+    <t>Spruce per Beaver +0.5</t>
+  </si>
+  <si>
+    <t>Chestnut per Beaver +0.55</t>
+  </si>
+  <si>
+    <t>Cherry per Beaver +0.6</t>
+  </si>
+  <si>
+    <t>Ash per Beaver +0.65</t>
+  </si>
+  <si>
+    <t>Cedar per Beaver +0.7</t>
+  </si>
+  <si>
+    <t>Mahogany per Beaver +0.75</t>
+  </si>
+  <si>
+    <t>Ebony per Beaver +0.8</t>
+  </si>
+  <si>
+    <t>Dogwood per Beaver +0.85</t>
+  </si>
+  <si>
+    <t>Rosewood per Beaver +0.9</t>
+  </si>
+  <si>
+    <t>Ghost Gum per Beaver +0.95</t>
+  </si>
+  <si>
+    <t>Dragonwood per Beaver +1</t>
+  </si>
+  <si>
+    <t>wood storage +160</t>
+  </si>
+  <si>
+    <t>wood storage +170</t>
+  </si>
+  <si>
+    <t>wood storage +180</t>
+  </si>
+  <si>
+    <t>wood storage +190</t>
+  </si>
+  <si>
+    <t>wood storage +200</t>
+  </si>
+  <si>
+    <t>wood storage +210</t>
+  </si>
+  <si>
+    <t>wood storage +220</t>
+  </si>
+  <si>
+    <t>wood storage +230</t>
+  </si>
+  <si>
+    <t>wood storage +240</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +1.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +2.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +3.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +7.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +4.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +5.5</t>
+  </si>
+  <si>
+    <t>wps per woodcamp +6.5</t>
+  </si>
+  <si>
+    <t>cheaper woodcamps 5%</t>
+  </si>
+  <si>
+    <t>4% wpc</t>
+  </si>
+  <si>
+    <t>9.5% storage from woodcamps</t>
+  </si>
+  <si>
+    <t>storage 6%</t>
+  </si>
+  <si>
+    <t>storage 12%</t>
+  </si>
+  <si>
+    <t>Woodcamps effects 5%</t>
+  </si>
+  <si>
+    <t>Faster research 1%</t>
+  </si>
+  <si>
+    <t>faster research 2%</t>
+  </si>
+  <si>
+    <t>All upgrades 0.5% cheaper</t>
+  </si>
+  <si>
+    <t>increase global wps 0.05%</t>
+  </si>
+  <si>
+    <t>100+ storage from beavers</t>
+  </si>
+  <si>
+    <t>All bots sell 15 more wood</t>
+  </si>
+  <si>
+    <t>More fish 0.85%</t>
+  </si>
+  <si>
+    <t>Better wood price 100</t>
+  </si>
+  <si>
+    <t>Better wood price 10000</t>
+  </si>
+  <si>
+    <t>storage +3%</t>
+  </si>
+  <si>
+    <t>Gold upgrades -0.45% cheaper</t>
+  </si>
+  <si>
+    <t>per dam 0.25% gold gain</t>
+  </si>
+  <si>
+    <t>Wood storage +</t>
+  </si>
+  <si>
+    <t>cheaper beaver</t>
+  </si>
+  <si>
+    <t>wpc to wps %</t>
+  </si>
+  <si>
+    <t>per wc + beaver</t>
+  </si>
+  <si>
+    <t>all upgrades cheaper</t>
+  </si>
+  <si>
+    <t>wps %</t>
+  </si>
+  <si>
+    <t>woodcamp wps +</t>
+  </si>
+  <si>
+    <t>wood per beaver +</t>
+  </si>
+  <si>
+    <t>wc less wood %</t>
+  </si>
+  <si>
+    <t>dam effects %</t>
+  </si>
+  <si>
+    <t>fish price %</t>
+  </si>
+  <si>
+    <t>cheaper wc %</t>
+  </si>
+  <si>
+    <t>storage from wc %</t>
+  </si>
+  <si>
+    <t>bots sell more %</t>
+  </si>
+  <si>
+    <t>global wps %</t>
+  </si>
+  <si>
+    <t>more magic %</t>
+  </si>
+  <si>
+    <t>more magic 12%</t>
+  </si>
+  <si>
+    <t>better wood price +</t>
+  </si>
+  <si>
+    <t>better wood price %</t>
+  </si>
+  <si>
+    <t>cheaper bait %</t>
+  </si>
+  <si>
+    <t>bot price %</t>
+  </si>
+  <si>
+    <t>Bots Cheaper 3%</t>
+  </si>
+  <si>
+    <t>faster dam building %</t>
+  </si>
+  <si>
+    <t>wpc per wc %</t>
+  </si>
+  <si>
+    <t>wpc per wc 3%</t>
+  </si>
+  <si>
+    <t>WC use less wood 0.5%</t>
+  </si>
+  <si>
+    <t>dam price %</t>
+  </si>
+  <si>
+    <t>bots sell more +</t>
+  </si>
+  <si>
+    <t>fish stay longer %</t>
+  </si>
+  <si>
+    <t>wc effects %</t>
+  </si>
+  <si>
+    <t>wpc per wc 0.75%</t>
+  </si>
+  <si>
+    <t>gold upgrades cheaper</t>
+  </si>
+  <si>
+    <t>cheaper beavers 3%</t>
+  </si>
+  <si>
+    <t>lower wps (cost?)%</t>
+  </si>
+  <si>
+    <t>Fish effects 0.25%</t>
+  </si>
+  <si>
+    <t>upgrades cheaper 5%</t>
+  </si>
+  <si>
+    <t>fish effects %</t>
+  </si>
+  <si>
+    <t>per dam gold gain %</t>
+  </si>
+  <si>
+    <t>?? Not exist</t>
+  </si>
+  <si>
+    <t>17.5% more storage from wc</t>
+  </si>
+  <si>
+    <t>gain 1 beaver for every 15 beavers lower tier</t>
+  </si>
+  <si>
+    <t>more fish %</t>
+  </si>
+  <si>
+    <t>wpc per wc +</t>
+  </si>
+  <si>
+    <t>per beaver storage +</t>
+  </si>
+  <si>
+    <t>per beaver storage %</t>
+  </si>
+  <si>
+    <t>per beaver storage 3%</t>
+  </si>
+  <si>
+    <t>cheaper beavers 5%</t>
+  </si>
+  <si>
+    <t>unlock 3 last upgrades with magic</t>
+  </si>
+  <si>
+    <t>WC effects 10%</t>
+  </si>
+  <si>
+    <t>global wps per achievement %</t>
+  </si>
+  <si>
+    <t>0.09% global wps per achievement</t>
+  </si>
+  <si>
+    <t>wpc to wps 0.3%</t>
+  </si>
+  <si>
+    <t>global better wood price 0.45%</t>
+  </si>
+  <si>
+    <t>wpc 6%</t>
+  </si>
+  <si>
+    <t>faster dam building per beaver 0.09%</t>
+  </si>
+  <si>
+    <t>per dam 0.3% wood gain</t>
+  </si>
+  <si>
+    <t>global wc cheaper 1%</t>
+  </si>
+  <si>
+    <t>more magic 3.5%</t>
+  </si>
+  <si>
+    <t>per beaver wps +</t>
+  </si>
+  <si>
+    <t>global wpc 0.5%</t>
+  </si>
+  <si>
+    <t>global wpc %</t>
+  </si>
+  <si>
+    <t>bait effects %</t>
+  </si>
+  <si>
+    <t>per 10 beaver add 1 wc</t>
+  </si>
+  <si>
+    <t>cheaper dams 5%</t>
+  </si>
+  <si>
+    <t>wc use less wood 3%</t>
+  </si>
+  <si>
+    <t>slower fish 3%</t>
+  </si>
+  <si>
+    <t>slower fish %</t>
+  </si>
+  <si>
+    <t>cheaper bots 5%</t>
+  </si>
+  <si>
+    <t>increase all wps 0.27%</t>
+  </si>
+  <si>
+    <t>per beaver 2% more storage</t>
+  </si>
+  <si>
+    <t>wpc to wps 0.75%</t>
+  </si>
+  <si>
+    <t>wpc%</t>
+  </si>
+  <si>
+    <t>cornering the market)</t>
+  </si>
+  <si>
+    <t>fish price 7.5%</t>
+  </si>
+  <si>
+    <t>dam effects 3%</t>
+  </si>
+  <si>
+    <t>dam building speed 2%</t>
+  </si>
+  <si>
+    <t>bots sell 5% more</t>
+  </si>
+  <si>
+    <t>per dam wood gain %</t>
+  </si>
+  <si>
+    <t>storage 2%</t>
+  </si>
+  <si>
+    <t>per beaver wps 0.2%</t>
+  </si>
+  <si>
+    <t>cheaper beavers 20%</t>
+  </si>
+  <si>
+    <t>per beaver wps %</t>
+  </si>
+  <si>
+    <t>per beaver 300 base storage</t>
+  </si>
+  <si>
+    <t>global wps 0.07%</t>
+  </si>
+  <si>
+    <t>global storage 5.5%</t>
+  </si>
+  <si>
+    <t>cheaper woodcamps 7%</t>
+  </si>
+  <si>
+    <t>storage from wc 7%</t>
+  </si>
+  <si>
+    <t>per 7 beaver +1 wc</t>
+  </si>
+  <si>
+    <t>global wood price 4%</t>
+  </si>
+  <si>
+    <t>global storage %</t>
+  </si>
+  <si>
+    <t>more magic 6%</t>
+  </si>
+  <si>
+    <t>global upgrades cheaper 5%</t>
+  </si>
+  <si>
+    <t>dam per second price cheaper 5%</t>
+  </si>
+  <si>
+    <t>wc use less wood 8%</t>
+  </si>
+  <si>
+    <t>wps 11%</t>
+  </si>
+  <si>
+    <t>per beaver 6.5% storage</t>
+  </si>
+  <si>
+    <t>per 10 wc 1 beaver</t>
+  </si>
+  <si>
+    <t>per 10 wc add 1 beaver</t>
+  </si>
+  <si>
+    <t>global upgrades cheaper %</t>
+  </si>
+  <si>
+    <t>wpc 5%</t>
+  </si>
+  <si>
+    <t>wps 8.5%</t>
+  </si>
+  <si>
+    <t>wood price 3%</t>
+  </si>
+  <si>
+    <t>more magic 3%</t>
+  </si>
+  <si>
+    <t>bot price 2.5%</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Global wood price 5%</t>
+  </si>
+  <si>
+    <t>2% Dam Construction Speed</t>
+  </si>
+  <si>
+    <t>wpc to wps 7.5%</t>
+  </si>
+  <si>
+    <t>better wood price 1%</t>
+  </si>
+  <si>
+    <t>5% Cheaper Dam Construction</t>
+  </si>
+  <si>
+    <t>Global Better wood price 0.3%</t>
+  </si>
+  <si>
+    <t>per 5 woodcamp +1 Beaver</t>
+  </si>
+  <si>
+    <t>per 20 beavers +1 woodcamp</t>
+  </si>
+  <si>
+    <t>1.5% wpc to wps</t>
+  </si>
+  <si>
+    <t>beaver +0.7 wood per woodcamp</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3875,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3638,6 +4152,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -3882,7 +4402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4011,6 +4531,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4020,7 +4542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7573,10 +8095,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:AL295"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="AD142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH157" sqref="AH157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7605,19 +8127,22 @@
     <col min="24" max="24" width="23.28515625" customWidth="1"/>
     <col min="25" max="25" width="22.140625" customWidth="1"/>
     <col min="26" max="26" width="31.42578125" customWidth="1"/>
-    <col min="27" max="27" width="37.7109375" customWidth="1"/>
-    <col min="28" max="28" width="29.42578125" customWidth="1"/>
-    <col min="29" max="29" width="29.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="28.7109375" customWidth="1"/>
-    <col min="31" max="31" width="33.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" customWidth="1"/>
+    <col min="33" max="33" width="36.85546875" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75">
+    <row r="2" spans="1:33" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
@@ -7631,12 +8156,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
+    <row r="3" spans="1:33" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
         <v>497</v>
       </c>
@@ -7644,7 +8169,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
@@ -7678,21 +8203,42 @@
       <c r="K5" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" thickBot="1">
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="AA5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -7760,8 +8306,26 @@
       <c r="W6" s="36" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="12.75">
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="105" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="12.75">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -7832,8 +8396,26 @@
       <c r="W7" s="39" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="12.75">
+      <c r="AA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="65" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="12.75">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -7903,8 +8485,26 @@
       <c r="W8" s="35" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="12.75">
+      <c r="AA8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="75" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="12.75">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -7971,8 +8571,26 @@
       <c r="W9" s="40" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="12.75">
+      <c r="AA9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="104" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="12.75">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -8026,8 +8644,26 @@
       <c r="W10" s="40" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="12.75">
+      <c r="AA10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="65" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="12.75">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -8085,8 +8721,26 @@
       <c r="W11" s="40" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="12.75">
+      <c r="AA11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="75" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="12.75">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -8139,8 +8793,26 @@
         <v>325</v>
       </c>
       <c r="W12" s="40"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.75">
+      <c r="AA12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="74" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="12.75">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -8186,8 +8858,26 @@
         <v>326</v>
       </c>
       <c r="W13" s="40"/>
-    </row>
-    <row r="14" spans="1:23" ht="12.75">
+      <c r="AA13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -8220,8 +8910,26 @@
       <c r="U14" s="27"/>
       <c r="V14" s="38"/>
       <c r="W14" s="40"/>
-    </row>
-    <row r="15" spans="1:23" ht="12.75">
+      <c r="AA14" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="102" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -8254,8 +8962,26 @@
       <c r="U15" s="27"/>
       <c r="V15" s="38"/>
       <c r="W15" s="40"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.75">
+      <c r="AA15" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="98" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -8288,8 +9014,26 @@
       <c r="U16" s="41"/>
       <c r="V16" s="42"/>
       <c r="W16" s="43"/>
-    </row>
-    <row r="17" spans="1:23" ht="12.75">
+      <c r="AA16" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="105" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -8324,8 +9068,26 @@
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
-    </row>
-    <row r="18" spans="1:23" ht="12.75">
+      <c r="AA17" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="65" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -8356,8 +9118,27 @@
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
-    </row>
-    <row r="19" spans="1:23" ht="12.75">
+      <c r="AA18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="105"/>
+      <c r="AE18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="75" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="12.75">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -8392,8 +9173,27 @@
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
       <c r="W19" s="40"/>
-    </row>
-    <row r="20" spans="1:23" ht="12.75">
+      <c r="AA19" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="67">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="65"/>
+      <c r="AE19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="104" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="12.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -8420,8 +9220,27 @@
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
       <c r="W20" s="40"/>
-    </row>
-    <row r="21" spans="1:23" ht="12.75">
+      <c r="AA20" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="67">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="75"/>
+      <c r="AE20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="105" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="12.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -8451,8 +9270,26 @@
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
       <c r="W21" s="40"/>
-    </row>
-    <row r="22" spans="1:23" ht="12.75">
+      <c r="AA21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF21">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="65" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -8479,8 +9316,26 @@
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
       <c r="W22" s="40"/>
-    </row>
-    <row r="23" spans="1:23" ht="12.75">
+      <c r="AA22" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="67">
+        <v>5</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF22">
+        <v>7</v>
+      </c>
+      <c r="AG22" s="75" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -8516,8 +9371,26 @@
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="40"/>
-    </row>
-    <row r="24" spans="1:23" ht="12.75">
+      <c r="AA23" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="67">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF23">
+        <v>8</v>
+      </c>
+      <c r="AG23" s="102" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -8556,8 +9429,26 @@
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
       <c r="W24" s="40"/>
-    </row>
-    <row r="25" spans="1:23" ht="12.75">
+      <c r="AA24" s="106">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="67">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24" s="101" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -8596,8 +9487,27 @@
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
       <c r="W25" s="40"/>
-    </row>
-    <row r="26" spans="1:23" ht="12.75">
+      <c r="AA25" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="67">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="75"/>
+      <c r="AE25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF25">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="100" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="12.75">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -8635,8 +9545,27 @@
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
-    </row>
-    <row r="27" spans="1:23" ht="12.75">
+      <c r="AA26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="67">
+        <v>9</v>
+      </c>
+      <c r="AD26" s="97"/>
+      <c r="AE26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="105" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="12.75">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -8674,8 +9603,26 @@
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
       <c r="W27" s="40"/>
-    </row>
-    <row r="28" spans="1:23" ht="12.75">
+      <c r="AA27" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="67">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="65" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="12.75">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -8710,8 +9657,26 @@
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
       <c r="W28" s="40"/>
-    </row>
-    <row r="29" spans="1:23" ht="12.75">
+      <c r="AA28" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="67">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="75" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="12.75">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -8744,8 +9709,26 @@
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
       <c r="W29" s="40"/>
-    </row>
-    <row r="30" spans="1:23" ht="12.75">
+      <c r="AA29" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC29" s="67">
+        <v>12</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="75" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="12.75">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -8778,8 +9761,26 @@
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
-    </row>
-    <row r="31" spans="1:23" ht="12.75">
+      <c r="AA30" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="67">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="65" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="12.75">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -8801,8 +9802,26 @@
       <c r="P31" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="12.75">
+      <c r="AA31" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="67">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="75" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="12.75">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -8827,8 +9846,27 @@
       <c r="I32" s="50" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="18.75" thickBot="1">
+      <c r="AA32" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="67">
+        <v>15</v>
+      </c>
+      <c r="AD32" s="97"/>
+      <c r="AE32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF32">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="105" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="18.75" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -8844,8 +9882,26 @@
       <c r="O33" s="79" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="18.75" thickBot="1">
+      <c r="AA33" s="1">
+        <v>28</v>
+      </c>
+      <c r="AB33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="67">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF33">
+        <v>8</v>
+      </c>
+      <c r="AG33" s="74" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="18.75" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -8872,8 +9928,26 @@
       <c r="U34" s="53"/>
       <c r="V34" s="53"/>
       <c r="W34" s="53"/>
-    </row>
-    <row r="35" spans="1:24" ht="13.5" thickBot="1">
+      <c r="AA34" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB34" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="67">
+        <v>17</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF34">
+        <v>9</v>
+      </c>
+      <c r="AG34" s="99" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="13.5" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -8925,8 +9999,26 @@
       <c r="X35" s="56" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="12.75">
+      <c r="AA35" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB35" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="67">
+        <v>18</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="103" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="12.75">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -8982,8 +10074,27 @@
       <c r="X36" s="90" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="12.75">
+      <c r="AA36" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB36" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC36" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="105"/>
+      <c r="AE36" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="105" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="12.75">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -9040,8 +10151,27 @@
       <c r="X37" s="90" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="12.75">
+      <c r="AA37" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="65"/>
+      <c r="AE37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF37">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="65" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="12.75">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -9097,8 +10227,27 @@
       <c r="X38" s="90" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="12.75">
+      <c r="AA38" s="1">
+        <v>33</v>
+      </c>
+      <c r="AB38" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="75"/>
+      <c r="AE38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="12.75">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -9155,8 +10304,26 @@
       <c r="X39" s="94" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="12.75">
+      <c r="AA39" s="1">
+        <v>34</v>
+      </c>
+      <c r="AB39" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF39">
+        <v>4</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="12.75">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9212,8 +10379,26 @@
       <c r="X40" s="94" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="12.75">
+      <c r="AA40" s="1">
+        <v>35</v>
+      </c>
+      <c r="AB40" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF40">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="75" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="12.75">
       <c r="A41">
         <v>4</v>
       </c>
@@ -9266,8 +10451,27 @@
         <v>652</v>
       </c>
       <c r="X41" s="55"/>
-    </row>
-    <row r="42" spans="1:24" ht="12.75">
+      <c r="AA41" s="1">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="97"/>
+      <c r="AE41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF41">
+        <v>6</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="12.75">
       <c r="A42">
         <v>7</v>
       </c>
@@ -9323,8 +10527,26 @@
         <v>653</v>
       </c>
       <c r="X42" s="55"/>
-    </row>
-    <row r="43" spans="1:24" ht="12.75">
+      <c r="AA42" s="106">
+        <v>37</v>
+      </c>
+      <c r="AB42" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF42">
+        <v>7</v>
+      </c>
+      <c r="AG42" s="74" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="12.75">
       <c r="A43">
         <v>10</v>
       </c>
@@ -9376,8 +10598,22 @@
         <v>654</v>
       </c>
       <c r="X43" s="55"/>
-    </row>
-    <row r="44" spans="1:24" ht="12.75">
+      <c r="AA43" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="1"/>
+      <c r="AE43" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF43">
+        <v>8</v>
+      </c>
+      <c r="AG43" s="100" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="12.75">
       <c r="A44">
         <v>13</v>
       </c>
@@ -9429,8 +10665,22 @@
         <v>655</v>
       </c>
       <c r="X44" s="55"/>
-    </row>
-    <row r="45" spans="1:24" ht="12.75">
+      <c r="AA44" s="1">
+        <v>39</v>
+      </c>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="1"/>
+      <c r="AE44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF44">
+        <v>9</v>
+      </c>
+      <c r="AG44" s="74" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="12.75">
       <c r="A45">
         <v>16</v>
       </c>
@@ -9483,8 +10733,22 @@
         <v>656</v>
       </c>
       <c r="X45" s="59"/>
-    </row>
-    <row r="46" spans="1:24" ht="12.75">
+      <c r="AA45" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="1"/>
+      <c r="AE45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45" s="114" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="12.75">
       <c r="A46">
         <v>19</v>
       </c>
@@ -9534,8 +10798,22 @@
         <v>657</v>
       </c>
       <c r="X46" s="55"/>
-    </row>
-    <row r="47" spans="1:24" ht="12.75">
+      <c r="AA46" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="1"/>
+      <c r="AE46" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="105" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="12.75">
       <c r="A47">
         <v>22</v>
       </c>
@@ -9585,8 +10863,23 @@
         <v>658</v>
       </c>
       <c r="X47" s="55"/>
-    </row>
-    <row r="48" spans="1:24" ht="12.75">
+      <c r="AA47" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="97"/>
+      <c r="AE47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF47">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="65" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="12.75">
       <c r="A48">
         <v>25</v>
       </c>
@@ -9634,8 +10927,22 @@
         <v>659</v>
       </c>
       <c r="X48" s="55"/>
-    </row>
-    <row r="49" spans="1:24" ht="12.75">
+      <c r="AA48" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="1"/>
+      <c r="AE48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="75" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" ht="12.75">
       <c r="A49">
         <v>28</v>
       </c>
@@ -9683,8 +10990,26 @@
         <v>660</v>
       </c>
       <c r="X49" s="55"/>
-    </row>
-    <row r="50" spans="1:24" ht="12.75">
+      <c r="AA49" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB49" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF49">
+        <v>4</v>
+      </c>
+      <c r="AG49" s="65" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="12.75">
       <c r="A50">
         <v>31</v>
       </c>
@@ -9732,8 +11057,26 @@
         <v>661</v>
       </c>
       <c r="X50" s="55"/>
-    </row>
-    <row r="51" spans="1:24" ht="12.75">
+      <c r="AA50" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB50" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF50">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="75" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" ht="12.75">
       <c r="A51">
         <v>34</v>
       </c>
@@ -9778,8 +11121,26 @@
         <v>662</v>
       </c>
       <c r="X51" s="55"/>
-    </row>
-    <row r="52" spans="1:24" ht="12.75">
+      <c r="AA51" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB51" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF51">
+        <v>6</v>
+      </c>
+      <c r="AG51" s="105" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" ht="12.75">
       <c r="A52">
         <v>37</v>
       </c>
@@ -9837,8 +11198,26 @@
         <v>663</v>
       </c>
       <c r="X52" s="55"/>
-    </row>
-    <row r="53" spans="1:24" ht="12.75">
+      <c r="AA52" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB52" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF52">
+        <v>7</v>
+      </c>
+      <c r="AG52" s="75" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" ht="12.75">
       <c r="A53">
         <v>40</v>
       </c>
@@ -9887,8 +11266,26 @@
         <v>664</v>
       </c>
       <c r="X53" s="55"/>
-    </row>
-    <row r="54" spans="1:24" ht="12.75">
+      <c r="AA53" s="1">
+        <v>48</v>
+      </c>
+      <c r="AB53" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF53">
+        <v>8</v>
+      </c>
+      <c r="AG53" s="101" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" ht="12.75">
       <c r="A54">
         <v>43</v>
       </c>
@@ -9934,8 +11331,26 @@
         <v>665</v>
       </c>
       <c r="X54" s="55"/>
-    </row>
-    <row r="55" spans="1:24" ht="12.75">
+      <c r="AA54" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB54" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF54">
+        <v>9</v>
+      </c>
+      <c r="AG54" s="74" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="12.75">
       <c r="A55">
         <v>46</v>
       </c>
@@ -9990,8 +11405,26 @@
         <v>666</v>
       </c>
       <c r="X55" s="55"/>
-    </row>
-    <row r="56" spans="1:24" ht="12.75">
+      <c r="AA55" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB55" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF55">
+        <v>10</v>
+      </c>
+      <c r="AG55" s="100" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" ht="12.75">
       <c r="A56">
         <v>49</v>
       </c>
@@ -10037,8 +11470,26 @@
         <v>667</v>
       </c>
       <c r="X56" s="55"/>
-    </row>
-    <row r="57" spans="1:24" ht="12.75">
+      <c r="AA56" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB56" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE56" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="105" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" ht="12.75">
       <c r="A57">
         <v>52</v>
       </c>
@@ -10087,8 +11538,26 @@
         <v>668</v>
       </c>
       <c r="X57" s="55"/>
-    </row>
-    <row r="58" spans="1:24" ht="12.75">
+      <c r="AA57" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB57" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
+      <c r="AG57" s="65" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="12.75">
       <c r="A58">
         <v>55</v>
       </c>
@@ -10130,8 +11599,27 @@
         <v>669</v>
       </c>
       <c r="X58" s="55"/>
-    </row>
-    <row r="59" spans="1:24" ht="12.75">
+      <c r="AA58" s="1">
+        <v>53</v>
+      </c>
+      <c r="AB58" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD58" s="65"/>
+      <c r="AE58" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58" s="75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="12.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10176,8 +11664,27 @@
         <v>670</v>
       </c>
       <c r="X59" s="55"/>
-    </row>
-    <row r="60" spans="1:24" ht="12.75">
+      <c r="AA59" s="1">
+        <v>54</v>
+      </c>
+      <c r="AB59" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD59" s="97"/>
+      <c r="AE59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF59">
+        <v>4</v>
+      </c>
+      <c r="AG59" s="75" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="12.75">
       <c r="A60">
         <v>61</v>
       </c>
@@ -10219,8 +11726,26 @@
         <v>671</v>
       </c>
       <c r="X60" s="55"/>
-    </row>
-    <row r="61" spans="1:24" ht="12.75">
+      <c r="AA60" s="106">
+        <v>55</v>
+      </c>
+      <c r="AB60" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF60">
+        <v>5</v>
+      </c>
+      <c r="AG60" s="75" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="12.75">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10264,8 +11789,26 @@
         <v>672</v>
       </c>
       <c r="X61" s="55"/>
-    </row>
-    <row r="62" spans="1:24" ht="12.75">
+      <c r="AA61" s="1">
+        <v>56</v>
+      </c>
+      <c r="AB61" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF61">
+        <v>6</v>
+      </c>
+      <c r="AG61" s="75" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="12.75">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -10306,8 +11849,27 @@
         <v>673</v>
       </c>
       <c r="X62" s="55"/>
-    </row>
-    <row r="63" spans="1:24" ht="12.75">
+      <c r="AA62" s="1">
+        <v>57</v>
+      </c>
+      <c r="AB62" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC62" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="105"/>
+      <c r="AE62" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF62">
+        <v>7</v>
+      </c>
+      <c r="AG62" s="74" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="12.75">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -10345,8 +11907,27 @@
         <v>674</v>
       </c>
       <c r="X63" s="55"/>
-    </row>
-    <row r="64" spans="1:24" ht="12.75">
+      <c r="AA63" s="1">
+        <v>58</v>
+      </c>
+      <c r="AB63" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC63" s="67">
+        <v>2</v>
+      </c>
+      <c r="AD63" s="65"/>
+      <c r="AE63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF63">
+        <v>8</v>
+      </c>
+      <c r="AG63" s="105" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="12.75">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -10382,8 +11963,27 @@
       <c r="V64" s="55"/>
       <c r="W64" s="55"/>
       <c r="X64" s="55"/>
-    </row>
-    <row r="65" spans="2:24" ht="12.75">
+      <c r="AA64" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB64" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC64" s="67">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="75"/>
+      <c r="AE64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF64">
+        <v>9</v>
+      </c>
+      <c r="AG64" s="97" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" ht="12.75">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -10419,8 +12019,26 @@
       <c r="V65" s="55"/>
       <c r="W65" s="55"/>
       <c r="X65" s="55"/>
-    </row>
-    <row r="66" spans="2:24" ht="12.75">
+      <c r="AA65" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB65" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC65" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF65">
+        <v>10</v>
+      </c>
+      <c r="AG65" s="97" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" ht="12.75">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -10456,8 +12074,27 @@
       <c r="V66" s="55"/>
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
-    </row>
-    <row r="67" spans="2:24" ht="12.75">
+      <c r="AA66" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB66" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC66" s="67">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="98"/>
+      <c r="AE66" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="105" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" ht="12.75">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -10493,8 +12130,27 @@
       <c r="V67" s="55"/>
       <c r="W67" s="55"/>
       <c r="X67" s="55"/>
-    </row>
-    <row r="68" spans="2:24" ht="12.75">
+      <c r="AA67" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB67" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC67" s="67">
+        <v>6</v>
+      </c>
+      <c r="AD67" s="97"/>
+      <c r="AE67" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
+      </c>
+      <c r="AG67" s="65" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="68" spans="2:33" ht="12.75">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -10530,8 +12186,27 @@
       <c r="V68" s="55"/>
       <c r="W68" s="55"/>
       <c r="X68" s="55"/>
-    </row>
-    <row r="69" spans="2:24" ht="12.75">
+      <c r="AA68" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB68" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC68" s="67">
+        <v>7</v>
+      </c>
+      <c r="AD68" s="97"/>
+      <c r="AE68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
+      </c>
+      <c r="AG68" s="75" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" ht="12.75">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -10565,8 +12240,26 @@
       <c r="V69" s="55"/>
       <c r="W69" s="55"/>
       <c r="X69" s="55"/>
-    </row>
-    <row r="70" spans="2:24" ht="12.75">
+      <c r="AA69" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB69" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC69" s="67">
+        <v>8</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF69">
+        <v>4</v>
+      </c>
+      <c r="AG69" s="75" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" ht="12.75">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -10603,8 +12296,26 @@
       <c r="V70" s="55"/>
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
-    </row>
-    <row r="71" spans="2:24" ht="12.75">
+      <c r="AA70" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB70" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC70" s="67">
+        <v>9</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF70">
+        <v>5</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" ht="12.75">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -10636,8 +12347,27 @@
       <c r="V71" s="55"/>
       <c r="W71" s="55"/>
       <c r="X71" s="55"/>
-    </row>
-    <row r="72" spans="2:24" ht="12.75">
+      <c r="AA71" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB71" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC71" s="67">
+        <v>10</v>
+      </c>
+      <c r="AD71" s="105"/>
+      <c r="AE71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF71">
+        <v>6</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" ht="12.75">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -10669,8 +12399,27 @@
       <c r="V72" s="55"/>
       <c r="W72" s="55"/>
       <c r="X72" s="55"/>
-    </row>
-    <row r="73" spans="2:24" ht="12.75">
+      <c r="AA72" s="1">
+        <v>67</v>
+      </c>
+      <c r="AB72" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC72" s="67">
+        <v>11</v>
+      </c>
+      <c r="AD72" s="75"/>
+      <c r="AE72" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF72">
+        <v>7</v>
+      </c>
+      <c r="AG72" s="65" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" ht="12.75">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -10702,8 +12451,26 @@
       <c r="V73" s="55"/>
       <c r="W73" s="55"/>
       <c r="X73" s="55"/>
-    </row>
-    <row r="74" spans="2:24" ht="12.75">
+      <c r="AA73" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB73" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC73" s="67">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF73">
+        <v>8</v>
+      </c>
+      <c r="AG73" s="102" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" ht="12.75">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -10735,8 +12502,26 @@
       <c r="V74" s="55"/>
       <c r="W74" s="55"/>
       <c r="X74" s="55"/>
-    </row>
-    <row r="75" spans="2:24" ht="12.75">
+      <c r="AA74" s="1">
+        <v>69</v>
+      </c>
+      <c r="AB74" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC74" s="67">
+        <v>13</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF74">
+        <v>9</v>
+      </c>
+      <c r="AG74" s="100" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" ht="12.75">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -10768,8 +12553,26 @@
       <c r="V75" s="55"/>
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
-    </row>
-    <row r="76" spans="2:24" ht="12.75">
+      <c r="AA75" s="1">
+        <v>70</v>
+      </c>
+      <c r="AB75" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC75" s="67">
+        <v>14</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF75">
+        <v>10</v>
+      </c>
+      <c r="AG75" s="101" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" ht="12.75">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -10801,8 +12604,26 @@
       <c r="V76" s="55"/>
       <c r="W76" s="55"/>
       <c r="X76" s="55"/>
-    </row>
-    <row r="77" spans="2:24" ht="12.75">
+      <c r="AA76" s="1">
+        <v>71</v>
+      </c>
+      <c r="AB76" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC76" s="67">
+        <v>15</v>
+      </c>
+      <c r="AE76" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="105" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" ht="12.75">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -10837,8 +12658,27 @@
       <c r="V77" s="55"/>
       <c r="W77" s="55"/>
       <c r="X77" s="55"/>
-    </row>
-    <row r="78" spans="2:24" ht="12.75">
+      <c r="AA77" s="1">
+        <v>72</v>
+      </c>
+      <c r="AB77" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC77" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD77" s="99"/>
+      <c r="AE77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF77">
+        <v>2</v>
+      </c>
+      <c r="AG77" s="65" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33" ht="12.75">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -10871,8 +12711,26 @@
       <c r="V78" s="55"/>
       <c r="W78" s="55"/>
       <c r="X78" s="55"/>
-    </row>
-    <row r="79" spans="2:24" ht="12.75">
+      <c r="AA78" s="106">
+        <v>73</v>
+      </c>
+      <c r="AB78" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC78" s="67">
+        <v>17</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+      <c r="AG78" s="75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" ht="12.75">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -10904,8 +12762,27 @@
       <c r="V79" s="55"/>
       <c r="W79" s="55"/>
       <c r="X79" s="55"/>
-    </row>
-    <row r="80" spans="2:24" ht="12.75">
+      <c r="AA79" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB79" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC79" s="67">
+        <v>18</v>
+      </c>
+      <c r="AD79" s="105"/>
+      <c r="AE79" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF79">
+        <v>4</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="80" spans="2:33" ht="12.75">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -10937,8 +12814,27 @@
       <c r="V80" s="55"/>
       <c r="W80" s="55"/>
       <c r="X80" s="55"/>
-    </row>
-    <row r="81" spans="2:24" ht="12.75">
+      <c r="AA80" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB80" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC80" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="105"/>
+      <c r="AE80" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF80">
+        <v>5</v>
+      </c>
+      <c r="AG80" s="75" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="2:35" ht="12.75">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -10968,8 +12864,30 @@
       <c r="V81" s="55"/>
       <c r="W81" s="55"/>
       <c r="X81" s="55"/>
-    </row>
-    <row r="82" spans="2:24" ht="12.75">
+      <c r="AA81" s="1">
+        <v>76</v>
+      </c>
+      <c r="AB81" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD81" s="65"/>
+      <c r="AE81" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF81">
+        <v>6</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="82" spans="2:35" ht="12.75">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -10999,8 +12917,27 @@
       <c r="V82" s="55"/>
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
-    </row>
-    <row r="83" spans="2:24" ht="12.75">
+      <c r="AA82" s="1">
+        <v>77</v>
+      </c>
+      <c r="AB82" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD82" s="75"/>
+      <c r="AE82" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF82">
+        <v>7</v>
+      </c>
+      <c r="AG82" s="115" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="83" spans="2:35" ht="12.75">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -11033,8 +12970,26 @@
       <c r="V83" s="55"/>
       <c r="W83" s="55"/>
       <c r="X83" s="55"/>
-    </row>
-    <row r="84" spans="2:24" ht="12.75">
+      <c r="AA83" s="1">
+        <v>78</v>
+      </c>
+      <c r="AB83" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF83">
+        <v>8</v>
+      </c>
+      <c r="AG83" s="102" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="2:35" ht="12.75">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -11064,8 +13019,27 @@
       <c r="V84" s="55"/>
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
-    </row>
-    <row r="85" spans="2:24" ht="12.75">
+      <c r="AA84" s="1">
+        <v>79</v>
+      </c>
+      <c r="AB84" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD84" s="97"/>
+      <c r="AE84" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF84">
+        <v>9</v>
+      </c>
+      <c r="AG84" s="74" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="85" spans="2:35" ht="12.75">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -11095,8 +13069,27 @@
       <c r="V85" s="55"/>
       <c r="W85" s="55"/>
       <c r="X85" s="55"/>
-    </row>
-    <row r="86" spans="2:24" ht="12.75">
+      <c r="AA85" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB85" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD85" s="103"/>
+      <c r="AE85" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF85">
+        <v>10</v>
+      </c>
+      <c r="AG85" s="105" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="86" spans="2:35" ht="12.75">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -11126,8 +13119,26 @@
       <c r="V86" s="55"/>
       <c r="W86" s="55"/>
       <c r="X86" s="55"/>
-    </row>
-    <row r="87" spans="2:24" ht="12.75">
+      <c r="AA86" s="1">
+        <v>81</v>
+      </c>
+      <c r="AB86" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE86" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="105" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="87" spans="2:35" ht="12.75">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -11176,8 +13187,26 @@
       <c r="X87">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="2:24" ht="12.75">
+      <c r="AA87" s="1">
+        <v>82</v>
+      </c>
+      <c r="AB87" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF87">
+        <v>2</v>
+      </c>
+      <c r="AG87" s="65" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="88" spans="2:35" ht="12.75">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -11208,8 +13237,26 @@
       <c r="S88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:24" ht="12.75">
+      <c r="AA88" s="1">
+        <v>83</v>
+      </c>
+      <c r="AB88" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88" s="75" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="89" spans="2:35" ht="12.75">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -11225,8 +13272,26 @@
       <c r="T89" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="90" spans="2:24" ht="12.75">
+      <c r="AA89" s="1">
+        <v>84</v>
+      </c>
+      <c r="AB89" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF89">
+        <v>4</v>
+      </c>
+      <c r="AG89" s="105" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="90" spans="2:35" ht="12.75">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -11255,8 +13320,26 @@
       <c r="X90">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="2:24" ht="12.75">
+      <c r="AA90" s="1">
+        <v>85</v>
+      </c>
+      <c r="AB90" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF90">
+        <v>5</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="91" spans="2:35" ht="12.75">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -11285,8 +13368,26 @@
       <c r="X91">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="2:24" ht="12.75">
+      <c r="AA91" s="1">
+        <v>86</v>
+      </c>
+      <c r="AB91" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF91">
+        <v>6</v>
+      </c>
+      <c r="AG91" s="97" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="92" spans="2:35" ht="12.75">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -11315,8 +13416,27 @@
       <c r="X92">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="2:24" ht="12.75">
+      <c r="AA92" s="1">
+        <v>87</v>
+      </c>
+      <c r="AB92" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD92" s="97"/>
+      <c r="AE92" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF92">
+        <v>7</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="93" spans="2:35" ht="12.75">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -11345,8 +13465,26 @@
       <c r="X93">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="2:24" ht="12.75">
+      <c r="AA93" s="1">
+        <v>88</v>
+      </c>
+      <c r="AB93" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF93">
+        <v>8</v>
+      </c>
+      <c r="AG93" s="114" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="94" spans="2:35" ht="12.75">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -11378,8 +13516,27 @@
       <c r="X94">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="2:24" ht="12.75">
+      <c r="AA94" s="1">
+        <v>89</v>
+      </c>
+      <c r="AB94" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD94" s="105"/>
+      <c r="AE94" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF94">
+        <v>9</v>
+      </c>
+      <c r="AG94" s="114" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:35" ht="12.75">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -11408,8 +13565,26 @@
       <c r="X95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:24" ht="12.75">
+      <c r="AA95" s="1">
+        <v>90</v>
+      </c>
+      <c r="AB95" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF95">
+        <v>10</v>
+      </c>
+      <c r="AG95" s="114" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:35" ht="12.75">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -11439,8 +13614,27 @@
       <c r="X96">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="2:24" ht="12.75">
+      <c r="AA96" s="106">
+        <v>91</v>
+      </c>
+      <c r="AB96" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD96" s="99"/>
+      <c r="AE96" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96" s="105" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="97" spans="2:33" ht="12.75">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -11469,8 +13663,26 @@
       <c r="X97">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="2:24" ht="12.75">
+      <c r="AA97" s="1">
+        <v>92</v>
+      </c>
+      <c r="AB97" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF97">
+        <v>2</v>
+      </c>
+      <c r="AG97" s="65" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33" ht="12.75">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -11499,8 +13711,27 @@
       <c r="X98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="2:24" ht="12.75">
+      <c r="AA98" s="1">
+        <v>93</v>
+      </c>
+      <c r="AB98" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC98" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="105"/>
+      <c r="AE98" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF98">
+        <v>3</v>
+      </c>
+      <c r="AG98" s="75" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33" ht="12.75">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -11529,8 +13760,27 @@
       <c r="X99">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="2:24" ht="12.75">
+      <c r="AA99" s="1">
+        <v>94</v>
+      </c>
+      <c r="AB99" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC99" s="67">
+        <v>2</v>
+      </c>
+      <c r="AD99" s="65"/>
+      <c r="AE99" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF99">
+        <v>4</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33" ht="12.75">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -11559,8 +13809,27 @@
       <c r="X100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="2:24" ht="12.75">
+      <c r="AA100" s="1">
+        <v>95</v>
+      </c>
+      <c r="AB100" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC100" s="67">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="75"/>
+      <c r="AE100" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF100">
+        <v>5</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33" ht="12.75">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -11589,8 +13858,27 @@
       <c r="X101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="2:24" ht="12.75">
+      <c r="AA101" s="1">
+        <v>96</v>
+      </c>
+      <c r="AB101" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC101" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD101" s="102"/>
+      <c r="AE101" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF101">
+        <v>6</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33" ht="12.75">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -11619,8 +13907,27 @@
       <c r="X102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="2:24" ht="12.75">
+      <c r="AA102" s="1">
+        <v>97</v>
+      </c>
+      <c r="AB102" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC102" s="67">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="97"/>
+      <c r="AE102" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF102">
+        <v>7</v>
+      </c>
+      <c r="AG102" s="105" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33" ht="12.75">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -11634,8 +13941,26 @@
         <v>584</v>
       </c>
       <c r="T103" s="45"/>
-    </row>
-    <row r="104" spans="2:24" ht="12.75">
+      <c r="AA103" s="1">
+        <v>98</v>
+      </c>
+      <c r="AB103" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC103" s="67">
+        <v>6</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF103">
+        <v>8</v>
+      </c>
+      <c r="AG103" s="114" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33" ht="12.75">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -11648,8 +13973,27 @@
       <c r="F104" s="100" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="105" spans="2:24" ht="12.75">
+      <c r="AA104" s="1">
+        <v>99</v>
+      </c>
+      <c r="AB104" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC104" s="67">
+        <v>7</v>
+      </c>
+      <c r="AD104" s="75"/>
+      <c r="AE104" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF104">
+        <v>9</v>
+      </c>
+      <c r="AG104" s="114" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33" ht="12.75">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -11662,8 +14006,26 @@
       <c r="F105" s="75" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="106" spans="2:24" ht="12.75">
+      <c r="AA105" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB105" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC105" s="67">
+        <v>8</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF105">
+        <v>10</v>
+      </c>
+      <c r="AG105" s="100" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33" ht="12.75">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -11676,8 +14038,27 @@
       <c r="F106" s="105" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="107" spans="2:24" ht="12.75">
+      <c r="AA106" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB106" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC106" s="67">
+        <v>9</v>
+      </c>
+      <c r="AD106" s="100"/>
+      <c r="AE106" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+      <c r="AG106" s="105" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33" ht="12.75">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -11690,8 +14071,26 @@
       <c r="F107" s="100" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="108" spans="2:24" ht="12.75">
+      <c r="AA107" s="1">
+        <v>102</v>
+      </c>
+      <c r="AB107" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC107" s="67">
+        <v>10</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF107">
+        <v>2</v>
+      </c>
+      <c r="AG107" s="65" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33" ht="12.75">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -11707,8 +14106,27 @@
       <c r="F108" s="75" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="109" spans="2:24" ht="12.75">
+      <c r="AA108" s="1">
+        <v>103</v>
+      </c>
+      <c r="AB108" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC108" s="67">
+        <v>11</v>
+      </c>
+      <c r="AD108" s="97"/>
+      <c r="AE108" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108" s="75" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" ht="12.75">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -11736,8 +14154,27 @@
         <f>SUM(X90:X103)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="110" spans="2:24" ht="12.75">
+      <c r="AA109" s="1">
+        <v>104</v>
+      </c>
+      <c r="AB109" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC109" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD109" s="74"/>
+      <c r="AE109" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33" ht="12.75">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -11750,8 +14187,26 @@
       <c r="F110" s="65" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="111" spans="2:24" ht="12.75">
+      <c r="AA110" s="1">
+        <v>105</v>
+      </c>
+      <c r="AB110" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC110" s="67">
+        <v>13</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF110">
+        <v>5</v>
+      </c>
+      <c r="AG110" s="105" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33" ht="12.75">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -11764,8 +14219,27 @@
       <c r="F111" s="97" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="112" spans="2:24" ht="12.75">
+      <c r="AA111" s="1">
+        <v>106</v>
+      </c>
+      <c r="AB111" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC111" s="67">
+        <v>14</v>
+      </c>
+      <c r="AD111" s="105"/>
+      <c r="AE111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF111">
+        <v>6</v>
+      </c>
+      <c r="AG111" s="75" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33" ht="12.75">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -11785,8 +14259,27 @@
       <c r="T112" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="113" spans="2:24" ht="12.75">
+      <c r="AA112" s="1">
+        <v>107</v>
+      </c>
+      <c r="AB112" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC112" s="67">
+        <v>15</v>
+      </c>
+      <c r="AD112" s="74"/>
+      <c r="AE112" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF112">
+        <v>7</v>
+      </c>
+      <c r="AG112" s="74" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="113" spans="2:38" ht="12.75">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -11831,8 +14324,29 @@
       <c r="X113">
         <v>245</v>
       </c>
-    </row>
-    <row r="114" spans="2:24" ht="12.75">
+      <c r="AA113" s="1">
+        <v>108</v>
+      </c>
+      <c r="AB113" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC113" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD113" s="103" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF113">
+        <v>8</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="114" spans="2:38" ht="12.75">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -11874,8 +14388,29 @@
       <c r="X114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:24" ht="12.75">
+      <c r="AA114" s="106">
+        <v>109</v>
+      </c>
+      <c r="AB114" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC114" s="67">
+        <v>17</v>
+      </c>
+      <c r="AD114" s="75" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF114">
+        <v>9</v>
+      </c>
+      <c r="AG114" s="114" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="115" spans="2:38" ht="12.75">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -11916,8 +14451,27 @@
       <c r="X115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="2:24" ht="12.75">
+      <c r="AA115" s="1">
+        <v>110</v>
+      </c>
+      <c r="AB115" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC115" s="67">
+        <v>18</v>
+      </c>
+      <c r="AD115" s="101"/>
+      <c r="AE115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF115">
+        <v>10</v>
+      </c>
+      <c r="AG115" s="99" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="116" spans="2:38" ht="12.75">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -11958,8 +14512,33 @@
       <c r="X116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="2:24" ht="12.75">
+      <c r="AA116" s="1">
+        <v>111</v>
+      </c>
+      <c r="AB116" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC116" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="105"/>
+      <c r="AE116" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+      <c r="AG116" s="105" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AJ116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:38" ht="12.75">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -11991,8 +14570,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:24" ht="12.75">
+      <c r="AA117" s="1">
+        <v>112</v>
+      </c>
+      <c r="AB117" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC117" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD117" s="65"/>
+      <c r="AE117" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF117">
+        <v>2</v>
+      </c>
+      <c r="AG117" s="65" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AJ117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="2:38" ht="12.75">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -12023,8 +14627,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:24" ht="12.75">
+      <c r="AA118" s="1">
+        <v>113</v>
+      </c>
+      <c r="AB118" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC118" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD118" s="75"/>
+      <c r="AE118" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF118">
+        <v>3</v>
+      </c>
+      <c r="AG118" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AJ118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:38" ht="12.75">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -12057,8 +14686,33 @@
         <f>SUM(X113:X116)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="2:24" ht="12.75">
+      <c r="AA119" s="1">
+        <v>114</v>
+      </c>
+      <c r="AB119" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD119" s="105"/>
+      <c r="AE119" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF119">
+        <v>4</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AJ119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:38" ht="12.75">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -12082,8 +14736,36 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="2:24" ht="12.75">
+      <c r="AA120" s="1">
+        <v>115</v>
+      </c>
+      <c r="AB120" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC120" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD120" s="74"/>
+      <c r="AE120" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF120">
+        <v>5</v>
+      </c>
+      <c r="AG120" s="75" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ120">
+        <v>6</v>
+      </c>
+      <c r="AL120" s="65" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="121" spans="2:38" ht="12.75">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -12107,8 +14789,36 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="122" spans="2:24" ht="12.75">
+      <c r="AA121" s="1">
+        <v>116</v>
+      </c>
+      <c r="AB121" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC121" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD121" s="102"/>
+      <c r="AE121" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF121">
+        <v>6</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AJ121">
+        <v>6</v>
+      </c>
+      <c r="AL121" s="74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="122" spans="2:38" ht="12.75">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -12132,8 +14842,36 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="123" spans="2:24" ht="12.75">
+      <c r="AA122" s="1">
+        <v>117</v>
+      </c>
+      <c r="AB122" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC122" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD122" s="97"/>
+      <c r="AE122" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF122">
+        <v>7</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AJ122">
+        <v>3</v>
+      </c>
+      <c r="AL122" s="75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="123" spans="2:38" ht="12.75">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -12157,8 +14895,38 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="124" spans="2:24" ht="12.75">
+      <c r="AA123" s="1">
+        <v>118</v>
+      </c>
+      <c r="AB123" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC123" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD123" s="100" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF123">
+        <v>8</v>
+      </c>
+      <c r="AG123" s="114" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AJ123">
+        <v>3</v>
+      </c>
+      <c r="AL123" s="65" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="124" spans="2:38" ht="12.75">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -12182,8 +14950,36 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-    </row>
-    <row r="125" spans="2:24" ht="12.75">
+      <c r="AA124" s="1">
+        <v>119</v>
+      </c>
+      <c r="AB124" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC124" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD124" s="75"/>
+      <c r="AE124" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF124">
+        <v>9</v>
+      </c>
+      <c r="AG124" s="114" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AJ124">
+        <v>3</v>
+      </c>
+      <c r="AL124" s="100" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="2:38" ht="12.75">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -12207,8 +15003,36 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="126" spans="2:24" ht="12.75">
+      <c r="AA125" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB125" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD125" s="65"/>
+      <c r="AE125" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF125">
+        <v>10</v>
+      </c>
+      <c r="AG125" s="114" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ125">
+        <v>5</v>
+      </c>
+      <c r="AL125" s="97" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="126" spans="2:38" ht="12.75">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -12232,8 +15056,35 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="127" spans="2:24" ht="12.75">
+      <c r="AA126" s="1">
+        <v>121</v>
+      </c>
+      <c r="AB126" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD126" s="75" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE126" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF126">
+        <v>1</v>
+      </c>
+      <c r="AG126" s="105" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AL126" s="75" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="2:38" ht="12.75">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -12257,8 +15108,38 @@
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="128" spans="2:24" ht="12.75">
+      <c r="AA127" s="1">
+        <v>122</v>
+      </c>
+      <c r="AB127" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD127" s="74" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF127">
+        <v>2</v>
+      </c>
+      <c r="AG127" s="65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AJ127">
+        <v>4</v>
+      </c>
+      <c r="AL127" s="100" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="128" spans="2:38" ht="12.75">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -12282,8 +15163,36 @@
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="129" spans="2:15" ht="12.75">
+      <c r="AA128" s="1">
+        <v>123</v>
+      </c>
+      <c r="AB128" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD128" s="104"/>
+      <c r="AE128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AG128" s="75" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ128">
+        <v>5</v>
+      </c>
+      <c r="AL128" s="74" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="129" spans="2:38" ht="12.75">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -12310,8 +15219,34 @@
         <f t="shared" si="2"/>
         <v>311</v>
       </c>
-    </row>
-    <row r="130" spans="2:15" ht="12.75">
+      <c r="AA129" s="1">
+        <v>124</v>
+      </c>
+      <c r="AB129" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD129" s="97"/>
+      <c r="AE129" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF129">
+        <v>4</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AL129" s="74"/>
+    </row>
+    <row r="130" spans="2:38" ht="12.75">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -12335,8 +15270,38 @@
         <f t="shared" si="2"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="131" spans="2:15" ht="12.75">
+      <c r="AA130" s="1">
+        <v>125</v>
+      </c>
+      <c r="AB130" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD130" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF130">
+        <v>5</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AJ130">
+        <v>4</v>
+      </c>
+      <c r="AL130" s="100" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="131" spans="2:38" ht="12.75">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -12360,8 +15325,38 @@
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="132" spans="2:15" ht="12.75">
+      <c r="AA131" s="1">
+        <v>126</v>
+      </c>
+      <c r="AB131" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD131" s="100" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF131">
+        <v>6</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AJ131">
+        <v>3</v>
+      </c>
+      <c r="AL131" s="103" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="2:38" ht="12.75">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -12389,8 +15384,36 @@
         <f t="shared" si="2"/>
         <v>433</v>
       </c>
-    </row>
-    <row r="133" spans="2:15" ht="12.75">
+      <c r="AA132" s="106">
+        <v>127</v>
+      </c>
+      <c r="AB132" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD132" s="105"/>
+      <c r="AE132" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF132">
+        <v>7</v>
+      </c>
+      <c r="AG132" s="115" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AL132" s="75" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="133" spans="2:38" ht="12.75">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -12417,8 +15440,36 @@
         <f t="shared" si="2"/>
         <v>479</v>
       </c>
-    </row>
-    <row r="134" spans="2:15" ht="12.75">
+      <c r="AA133" s="1">
+        <v>128</v>
+      </c>
+      <c r="AB133" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD133" s="97"/>
+      <c r="AE133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF133">
+        <v>8</v>
+      </c>
+      <c r="AG133" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AL133" s="65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="134" spans="2:38" ht="12.75">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -12445,8 +15496,36 @@
         <f t="shared" si="2"/>
         <v>528</v>
       </c>
-    </row>
-    <row r="135" spans="2:15" ht="12.75">
+      <c r="AA134" s="1">
+        <v>129</v>
+      </c>
+      <c r="AB134" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC134" s="106">
+        <v>1</v>
+      </c>
+      <c r="AD134" s="105"/>
+      <c r="AE134" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF134">
+        <v>9</v>
+      </c>
+      <c r="AG134" s="114" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AJ134">
+        <v>4</v>
+      </c>
+      <c r="AL134" s="105" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="135" spans="2:38" ht="12.75">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -12470,8 +15549,36 @@
         <f t="shared" si="2"/>
         <v>579</v>
       </c>
-    </row>
-    <row r="136" spans="2:15" ht="12.75">
+      <c r="AA135" s="1">
+        <v>130</v>
+      </c>
+      <c r="AB135" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC135" s="67">
+        <v>2</v>
+      </c>
+      <c r="AD135" s="65"/>
+      <c r="AE135" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF135">
+        <v>10</v>
+      </c>
+      <c r="AG135" s="114" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AL135" s="105" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="2:38" ht="12.75">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -12498,8 +15605,36 @@
         <f t="shared" si="2"/>
         <v>634</v>
       </c>
-    </row>
-    <row r="137" spans="2:15" ht="12.75">
+      <c r="AA136" s="1">
+        <v>131</v>
+      </c>
+      <c r="AB136" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC136" s="67">
+        <v>3</v>
+      </c>
+      <c r="AD136" s="75"/>
+      <c r="AE136" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF136">
+        <v>1</v>
+      </c>
+      <c r="AG136" s="105" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AJ136">
+        <v>3</v>
+      </c>
+      <c r="AL136" s="74" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="137" spans="2:38" ht="12.75">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -12523,8 +15658,35 @@
         <f t="shared" si="2"/>
         <v>691</v>
       </c>
-    </row>
-    <row r="138" spans="2:15" ht="12.75">
+      <c r="AA137" s="1">
+        <v>132</v>
+      </c>
+      <c r="AB137" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC137" s="67">
+        <v>4</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF137">
+        <v>2</v>
+      </c>
+      <c r="AG137" s="65" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AJ137">
+        <v>3</v>
+      </c>
+      <c r="AL137" s="105" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="138" spans="2:38" ht="12.75">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -12548,8 +15710,36 @@
         <f t="shared" si="2"/>
         <v>752</v>
       </c>
-    </row>
-    <row r="139" spans="2:15" ht="12.75">
+      <c r="AA138" s="1">
+        <v>133</v>
+      </c>
+      <c r="AB138" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC138" s="67">
+        <v>5</v>
+      </c>
+      <c r="AD138" s="65"/>
+      <c r="AE138" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF138">
+        <v>3</v>
+      </c>
+      <c r="AG138" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AL138" s="100" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="139" spans="2:38" ht="12.75">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -12573,8 +15763,36 @@
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-    </row>
-    <row r="140" spans="2:15" ht="12.75">
+      <c r="AA139" s="1">
+        <v>134</v>
+      </c>
+      <c r="AB139" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC139" s="67">
+        <v>6</v>
+      </c>
+      <c r="AD139" s="102"/>
+      <c r="AE139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AL139" s="100" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="140" spans="2:38" ht="12.75">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -12598,8 +15816,36 @@
         <f t="shared" si="2"/>
         <v>885</v>
       </c>
-    </row>
-    <row r="141" spans="2:15" ht="12.75">
+      <c r="AA140" s="1">
+        <v>135</v>
+      </c>
+      <c r="AB140" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC140" s="67">
+        <v>7</v>
+      </c>
+      <c r="AD140" s="97"/>
+      <c r="AE140" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF140">
+        <v>5</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AL140" s="103" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="141" spans="2:38" ht="12.75">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -12623,8 +15869,35 @@
         <f t="shared" si="2"/>
         <v>957</v>
       </c>
-    </row>
-    <row r="142" spans="2:15" ht="12.75">
+      <c r="AA141" s="1">
+        <v>136</v>
+      </c>
+      <c r="AB141" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC141" s="67">
+        <v>8</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF141">
+        <v>6</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AJ141">
+        <v>2</v>
+      </c>
+      <c r="AL141" s="101" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="142" spans="2:38" ht="12.75">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -12648,8 +15921,35 @@
         <f t="shared" si="2"/>
         <v>1033</v>
       </c>
-    </row>
-    <row r="143" spans="2:15" ht="12.75">
+      <c r="AA142" s="1">
+        <v>137</v>
+      </c>
+      <c r="AB142" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC142" s="67">
+        <v>9</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF142">
+        <v>7</v>
+      </c>
+      <c r="AG142" s="115" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AL142" s="74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="143" spans="2:38" ht="12.75">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -12673,8 +15973,32 @@
         <f t="shared" si="2"/>
         <v>1114</v>
       </c>
-    </row>
-    <row r="144" spans="2:15" ht="12.75">
+      <c r="AA143" s="1">
+        <v>138</v>
+      </c>
+      <c r="AB143" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC143" s="67">
+        <v>10</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF143">
+        <v>8</v>
+      </c>
+      <c r="AG143" s="114" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AL143" s="74" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="144" spans="2:38" ht="12.75">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -12698,8 +16022,33 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="145" spans="2:15" ht="12.75">
+      <c r="AA144" s="1">
+        <v>139</v>
+      </c>
+      <c r="AB144" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC144" s="67">
+        <v>11</v>
+      </c>
+      <c r="AD144" s="101"/>
+      <c r="AE144" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF144">
+        <v>9</v>
+      </c>
+      <c r="AG144" s="114" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AL144" s="74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" spans="2:38" ht="12.75">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -12723,8 +16072,38 @@
         <f t="shared" si="2"/>
         <v>1292</v>
       </c>
-    </row>
-    <row r="146" spans="2:15" ht="12.75">
+      <c r="AA145" s="1">
+        <v>140</v>
+      </c>
+      <c r="AB145" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC145" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD145" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF145">
+        <v>10</v>
+      </c>
+      <c r="AG145" s="114" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AL145" s="105" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="2:38" ht="12.75">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -12748,8 +16127,33 @@
         <f t="shared" si="2"/>
         <v>1389</v>
       </c>
-    </row>
-    <row r="147" spans="2:15" ht="12.75">
+      <c r="AA146" s="1">
+        <v>141</v>
+      </c>
+      <c r="AB146" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC146" s="67">
+        <v>13</v>
+      </c>
+      <c r="AD146" s="105"/>
+      <c r="AE146" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF146">
+        <v>1</v>
+      </c>
+      <c r="AG146" s="105" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AL146" s="75" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="147" spans="2:38" ht="12.75">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -12773,8 +16177,35 @@
         <f t="shared" si="2"/>
         <v>1493</v>
       </c>
-    </row>
-    <row r="148" spans="2:15" ht="12.75">
+      <c r="AA147" s="1">
+        <v>142</v>
+      </c>
+      <c r="AB147" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC147" s="67">
+        <v>14</v>
+      </c>
+      <c r="AD147" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF147">
+        <v>2</v>
+      </c>
+      <c r="AG147" s="65" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AL147" s="75" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="148" spans="2:38" ht="12.75">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -12798,8 +16229,35 @@
         <f t="shared" si="2"/>
         <v>1604</v>
       </c>
-    </row>
-    <row r="149" spans="2:15" ht="12.75">
+      <c r="AA148" s="1">
+        <v>143</v>
+      </c>
+      <c r="AB148" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC148" s="67">
+        <v>15</v>
+      </c>
+      <c r="AD148" s="75" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF148">
+        <v>3</v>
+      </c>
+      <c r="AG148" s="75" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AL148" s="105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="2:38" ht="12.75">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -12826,8 +16284,38 @@
         <f t="shared" si="2"/>
         <v>1723</v>
       </c>
-    </row>
-    <row r="150" spans="2:15" ht="12.75">
+      <c r="AA149" s="1">
+        <v>144</v>
+      </c>
+      <c r="AB149" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC149" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD149" s="100" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF149">
+        <v>4</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AJ149">
+        <v>3</v>
+      </c>
+      <c r="AL149" s="102" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="150" spans="2:38" ht="12.75">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -12852,8 +16340,35 @@
         <f t="shared" si="2"/>
         <v>1851</v>
       </c>
-    </row>
-    <row r="151" spans="2:15" ht="12.75">
+      <c r="AA150" s="106">
+        <v>145</v>
+      </c>
+      <c r="AB150" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC150" s="67">
+        <v>17</v>
+      </c>
+      <c r="AD150" s="74" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF150">
+        <v>5</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AL150" s="101" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="151" spans="2:38" ht="12.75">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -12877,8 +16392,38 @@
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-    </row>
-    <row r="152" spans="2:15" ht="12.75">
+      <c r="AA151" s="1">
+        <v>146</v>
+      </c>
+      <c r="AB151" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC151" s="67">
+        <v>18</v>
+      </c>
+      <c r="AD151" s="103" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF151">
+        <v>6</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AL151" s="100" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="152" spans="2:38" ht="12.75">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -12902,8 +16447,35 @@
         <f t="shared" si="2"/>
         <v>2139</v>
       </c>
-    </row>
-    <row r="153" spans="2:15" ht="12.75">
+      <c r="AA152" s="1">
+        <v>147</v>
+      </c>
+      <c r="AB152" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD152" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF152">
+        <v>7</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AL152" s="103" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="153" spans="2:38" ht="12.75">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -12930,8 +16502,35 @@
         <f t="shared" si="2"/>
         <v>2301</v>
       </c>
-    </row>
-    <row r="154" spans="2:15" ht="12.75">
+      <c r="AA153" s="1">
+        <v>148</v>
+      </c>
+      <c r="AB153" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD153" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF153">
+        <v>8</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL153" s="105" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="154" spans="2:38" ht="12.75">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -12955,8 +16554,33 @@
         <f t="shared" si="2"/>
         <v>2477</v>
       </c>
-    </row>
-    <row r="155" spans="2:15" ht="12.75">
+      <c r="AA154" s="1">
+        <v>149</v>
+      </c>
+      <c r="AB154" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD154" s="65"/>
+      <c r="AE154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF154">
+        <v>9</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AL154" s="65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="155" spans="2:38" ht="12.75">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -12983,8 +16607,33 @@
         <f t="shared" si="2"/>
         <v>2668</v>
       </c>
-    </row>
-    <row r="156" spans="2:15" ht="12.75">
+      <c r="AA155" s="1">
+        <v>150</v>
+      </c>
+      <c r="AB155" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD155" s="75"/>
+      <c r="AE155" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF155">
+        <v>10</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AL155" s="97" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="156" spans="2:38" ht="12.75">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -13008,8 +16657,35 @@
         <f t="shared" si="2"/>
         <v>2878</v>
       </c>
-    </row>
-    <row r="157" spans="2:15" ht="12.75">
+      <c r="AA156" s="1">
+        <v>151</v>
+      </c>
+      <c r="AB156" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD156" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE156" s="107" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF156">
+        <v>1</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AL156" s="105" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="157" spans="2:38" ht="12.75">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -13033,8 +16709,35 @@
         <f t="shared" si="2"/>
         <v>3109</v>
       </c>
-    </row>
-    <row r="158" spans="2:15" ht="12.75">
+      <c r="AA157" s="1">
+        <v>152</v>
+      </c>
+      <c r="AB157" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD157" s="98" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF157">
+        <v>2</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AI157" s="114" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AL157" s="99" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="158" spans="2:38" ht="12.75">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -13058,8 +16761,33 @@
         <f t="shared" si="2"/>
         <v>3362</v>
       </c>
-    </row>
-    <row r="159" spans="2:15" ht="12.75">
+      <c r="AA158" s="1">
+        <v>153</v>
+      </c>
+      <c r="AB158" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD158" s="97"/>
+      <c r="AE158" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF158">
+        <v>3</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>909</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AL158" s="97" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="159" spans="2:38" ht="12.75">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -13083,8 +16811,32 @@
         <f t="shared" si="2"/>
         <v>3642</v>
       </c>
-    </row>
-    <row r="160" spans="2:15" ht="12.75">
+      <c r="AA159" s="1">
+        <v>154</v>
+      </c>
+      <c r="AB159" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD159" s="75" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF159">
+        <v>4</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="160" spans="2:38" ht="12.75">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -13108,8 +16860,32 @@
         <f t="shared" si="2"/>
         <v>3952</v>
       </c>
-    </row>
-    <row r="161" spans="2:15" ht="12.75">
+      <c r="AA160" s="1">
+        <v>155</v>
+      </c>
+      <c r="AB160" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD160" s="74" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF160">
+        <v>5</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="161" spans="2:37" ht="12.75">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -13133,8 +16909,33 @@
         <f t="shared" si="2"/>
         <v>4296</v>
       </c>
-    </row>
-    <row r="162" spans="2:15" ht="12.75">
+      <c r="AA161" s="1">
+        <v>156</v>
+      </c>
+      <c r="AB161" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC161" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD161" s="100"/>
+      <c r="AE161" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF161">
+        <v>6</v>
+      </c>
+      <c r="AG161" s="75" t="s">
+        <v>919</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:37" ht="12.75">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -13158,8 +16959,30 @@
         <f t="shared" si="2"/>
         <v>4680</v>
       </c>
-    </row>
-    <row r="163" spans="2:15" ht="12.75">
+      <c r="AA162" s="1">
+        <v>157</v>
+      </c>
+      <c r="AB162" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD162" s="105"/>
+      <c r="AE162" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF162">
+        <v>7</v>
+      </c>
+      <c r="AG162" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="163" spans="2:37" ht="12.75">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -13183,8 +17006,32 @@
         <f t="shared" si="2"/>
         <v>5108</v>
       </c>
-    </row>
-    <row r="164" spans="2:15" ht="12.75">
+      <c r="AA163" s="1">
+        <v>158</v>
+      </c>
+      <c r="AB163" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD163" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF163">
+        <v>8</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="164" spans="2:37" ht="12.75">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -13208,8 +17055,32 @@
         <f t="shared" si="2"/>
         <v>5587</v>
       </c>
-    </row>
-    <row r="165" spans="2:15" ht="12.75">
+      <c r="AA164" s="1">
+        <v>159</v>
+      </c>
+      <c r="AB164" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC164" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD164" s="111" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF164">
+        <v>9</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="165" spans="2:37" ht="12.75">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -13233,8 +17104,32 @@
         <f t="shared" si="2"/>
         <v>6124</v>
       </c>
-    </row>
-    <row r="166" spans="2:15" ht="12.75">
+      <c r="AA165" s="1">
+        <v>160</v>
+      </c>
+      <c r="AB165" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC165" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD165" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF165">
+        <v>10</v>
+      </c>
+      <c r="AG165" s="103" t="s">
+        <v>910</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="166" spans="2:37" ht="12.75">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -13258,8 +17153,21 @@
         <f t="shared" si="2"/>
         <v>6728</v>
       </c>
-    </row>
-    <row r="167" spans="2:15" ht="12.75">
+      <c r="AA166" s="1">
+        <v>161</v>
+      </c>
+      <c r="AB166" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC166" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD166" s="102"/>
+      <c r="AI166" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="167" spans="2:37" ht="12.75">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -13283,8 +17191,23 @@
         <f t="shared" si="2"/>
         <v>7409</v>
       </c>
-    </row>
-    <row r="168" spans="2:15" ht="12.75">
+      <c r="AA167" s="1">
+        <v>162</v>
+      </c>
+      <c r="AB167" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC167" s="67">
+        <v>5</v>
+      </c>
+      <c r="AD167" s="105" t="s">
+        <v>572</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="168" spans="2:37" ht="12.75">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -13309,8 +17232,21 @@
         <f t="shared" si="2"/>
         <v>8178</v>
       </c>
-    </row>
-    <row r="169" spans="2:15" ht="12.75">
+      <c r="AA168" s="106">
+        <v>163</v>
+      </c>
+      <c r="AB168" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC168" s="67">
+        <v>6</v>
+      </c>
+      <c r="AD168" s="97"/>
+      <c r="AI168" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="169" spans="2:37" ht="12.75">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -13334,8 +17270,21 @@
         <f t="shared" si="2"/>
         <v>9047</v>
       </c>
-    </row>
-    <row r="170" spans="2:15" ht="12.75">
+      <c r="AA169" s="1">
+        <v>164</v>
+      </c>
+      <c r="AB169" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC169" s="67">
+        <v>7</v>
+      </c>
+      <c r="AD169" s="105"/>
+      <c r="AI169" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="170" spans="2:37" ht="12.75">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -13359,8 +17308,23 @@
         <f t="shared" si="2"/>
         <v>10032</v>
       </c>
-    </row>
-    <row r="171" spans="2:15" ht="12.75">
+      <c r="AA170" s="1">
+        <v>165</v>
+      </c>
+      <c r="AB170" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC170" s="67">
+        <v>8</v>
+      </c>
+      <c r="AD170" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="171" spans="2:37" ht="12.75">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -13384,8 +17348,20 @@
         <f t="shared" si="2"/>
         <v>11149</v>
       </c>
-    </row>
-    <row r="172" spans="2:15" ht="12.75">
+      <c r="AA171" s="1">
+        <v>166</v>
+      </c>
+      <c r="AB171" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC171" s="67">
+        <v>9</v>
+      </c>
+      <c r="AD171" s="75" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37" ht="12.75">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -13409,8 +17385,20 @@
         <f t="shared" si="2"/>
         <v>12418</v>
       </c>
-    </row>
-    <row r="173" spans="2:15" ht="12.75">
+      <c r="AA172" s="1">
+        <v>167</v>
+      </c>
+      <c r="AB172" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC172" s="67">
+        <v>10</v>
+      </c>
+      <c r="AD172" s="74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="173" spans="2:37" ht="12.75">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -13434,8 +17422,20 @@
         <f t="shared" si="2"/>
         <v>13861</v>
       </c>
-    </row>
-    <row r="174" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA173" s="1">
+        <v>168</v>
+      </c>
+      <c r="AB173" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC173" s="67">
+        <v>11</v>
+      </c>
+      <c r="AD173" s="100" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="174" spans="2:37" ht="15.75" customHeight="1">
       <c r="B174" s="1">
         <v>169</v>
       </c>
@@ -13459,8 +17459,26 @@
         <f t="shared" si="2"/>
         <v>15506</v>
       </c>
-    </row>
-    <row r="175" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA174" s="1">
+        <v>169</v>
+      </c>
+      <c r="AB174" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC174" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD174" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF174" s="106">
+        <v>1</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="175" spans="2:37" ht="15.75" customHeight="1">
       <c r="B175" s="1">
         <v>170</v>
       </c>
@@ -13484,8 +17502,23 @@
         <f t="shared" si="2"/>
         <v>17380</v>
       </c>
-    </row>
-    <row r="176" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA175" s="1">
+        <v>170</v>
+      </c>
+      <c r="AB175" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC175" s="67">
+        <v>13</v>
+      </c>
+      <c r="AD175" s="100" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF175" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:37" ht="15.75" customHeight="1">
       <c r="B176" s="1">
         <v>171</v>
       </c>
@@ -13509,8 +17542,23 @@
         <f t="shared" si="2"/>
         <v>19518</v>
       </c>
-    </row>
-    <row r="177" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA176" s="1">
+        <v>171</v>
+      </c>
+      <c r="AB176" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC176" s="67">
+        <v>14</v>
+      </c>
+      <c r="AD176" s="103" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF176" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:32" ht="15.75" customHeight="1">
       <c r="B177" s="1">
         <v>172</v>
       </c>
@@ -13534,8 +17582,21 @@
         <f t="shared" si="2"/>
         <v>21961</v>
       </c>
-    </row>
-    <row r="178" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA177" s="1">
+        <v>172</v>
+      </c>
+      <c r="AB177" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC177" s="67">
+        <v>15</v>
+      </c>
+      <c r="AD177" s="75"/>
+      <c r="AF177" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:32" ht="15.75" customHeight="1">
       <c r="B178" s="1">
         <v>173</v>
       </c>
@@ -13559,8 +17620,23 @@
         <f t="shared" ref="O178:O241" si="5">ROUND(1.15^(M178+5)+M178^2,0)</f>
         <v>24752</v>
       </c>
-    </row>
-    <row r="179" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA178" s="1">
+        <v>173</v>
+      </c>
+      <c r="AB178" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC178" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD178" s="74" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF178" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:32" ht="15.75" customHeight="1">
       <c r="B179" s="1">
         <v>174</v>
       </c>
@@ -13587,8 +17663,21 @@
         <f t="shared" si="5"/>
         <v>27944</v>
       </c>
-    </row>
-    <row r="180" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA179" s="1">
+        <v>174</v>
+      </c>
+      <c r="AB179" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC179" s="67">
+        <v>17</v>
+      </c>
+      <c r="AD179" s="97"/>
+      <c r="AF179" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="2:32" ht="15.75" customHeight="1">
       <c r="B180" s="1">
         <v>175</v>
       </c>
@@ -13615,8 +17704,23 @@
         <f t="shared" si="5"/>
         <v>31598</v>
       </c>
-    </row>
-    <row r="181" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA180" s="1">
+        <v>175</v>
+      </c>
+      <c r="AB180" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC180" s="67">
+        <v>18</v>
+      </c>
+      <c r="AD180" s="103" t="s">
+        <v>644</v>
+      </c>
+      <c r="AF180" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="2:32" ht="15.75" customHeight="1">
       <c r="B181" s="1">
         <v>176</v>
       </c>
@@ -13640,8 +17744,20 @@
         <f t="shared" si="5"/>
         <v>35781</v>
       </c>
-    </row>
-    <row r="182" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA181" s="1">
+        <v>176</v>
+      </c>
+      <c r="AB181" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC181" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF181" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:32" ht="15.75" customHeight="1">
       <c r="B182" s="1">
         <v>177</v>
       </c>
@@ -13665,8 +17781,21 @@
         <f t="shared" si="5"/>
         <v>40573</v>
       </c>
-    </row>
-    <row r="183" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA182" s="1">
+        <v>177</v>
+      </c>
+      <c r="AB182" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD182" s="65"/>
+      <c r="AF182" s="67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="2:32" ht="15.75" customHeight="1">
       <c r="B183" s="1">
         <v>178</v>
       </c>
@@ -13690,8 +17819,21 @@
         <f t="shared" si="5"/>
         <v>46065</v>
       </c>
-    </row>
-    <row r="184" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA183" s="1">
+        <v>178</v>
+      </c>
+      <c r="AB183" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC183" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD183" s="75"/>
+      <c r="AF183" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="2:32" ht="15.75" customHeight="1">
       <c r="B184" s="1">
         <v>179</v>
       </c>
@@ -13718,8 +17860,21 @@
         <f t="shared" si="5"/>
         <v>52361</v>
       </c>
-    </row>
-    <row r="185" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA184" s="1">
+        <v>179</v>
+      </c>
+      <c r="AB184" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD184" s="97"/>
+      <c r="AF184" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="2:32" ht="15.75" customHeight="1">
       <c r="B185" s="1">
         <v>180</v>
       </c>
@@ -13743,8 +17898,21 @@
         <f t="shared" si="5"/>
         <v>59583</v>
       </c>
-    </row>
-    <row r="186" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA185" s="1">
+        <v>180</v>
+      </c>
+      <c r="AB185" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC185" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD185" s="105"/>
+      <c r="AF185" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="2:32" ht="15.75" customHeight="1">
       <c r="B186" s="106">
         <v>181</v>
       </c>
@@ -13769,8 +17937,23 @@
         <f t="shared" si="5"/>
         <v>67868</v>
       </c>
-    </row>
-    <row r="187" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA186" s="106">
+        <v>181</v>
+      </c>
+      <c r="AB186" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC186" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD186" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF186" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:32" ht="15.75" customHeight="1">
       <c r="B187" s="1">
         <v>182</v>
       </c>
@@ -13797,8 +17980,21 @@
         <f t="shared" si="5"/>
         <v>77376</v>
       </c>
-    </row>
-    <row r="188" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA187" s="1">
+        <v>182</v>
+      </c>
+      <c r="AB187" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD187" s="97"/>
+      <c r="AF187" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:32" ht="15.75" customHeight="1">
       <c r="B188" s="1">
         <v>183</v>
       </c>
@@ -13822,8 +18018,23 @@
         <f t="shared" si="5"/>
         <v>88290</v>
       </c>
-    </row>
-    <row r="189" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA188" s="1">
+        <v>183</v>
+      </c>
+      <c r="AB188" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD188" s="105" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF188" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="2:32" ht="15.75" customHeight="1">
       <c r="B189" s="1">
         <v>184</v>
       </c>
@@ -13847,8 +18058,23 @@
         <f t="shared" si="5"/>
         <v>100820</v>
       </c>
-    </row>
-    <row r="190" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA189" s="1">
+        <v>184</v>
+      </c>
+      <c r="AB189" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC189" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD189" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF189" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="2:32" ht="15.75" customHeight="1">
       <c r="B190" s="1">
         <v>185</v>
       </c>
@@ -13872,8 +18098,23 @@
         <f t="shared" si="5"/>
         <v>115208</v>
       </c>
-    </row>
-    <row r="191" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA190" s="1">
+        <v>185</v>
+      </c>
+      <c r="AB190" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC190" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD190" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF190" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="2:32" ht="15.75" customHeight="1">
       <c r="B191" s="1">
         <v>186</v>
       </c>
@@ -13897,8 +18138,23 @@
         <f t="shared" si="5"/>
         <v>131734</v>
       </c>
-    </row>
-    <row r="192" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA191" s="1">
+        <v>186</v>
+      </c>
+      <c r="AB191" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC191" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD191" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF191" s="67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="2:32" ht="15.75" customHeight="1">
       <c r="B192" s="1">
         <v>187</v>
       </c>
@@ -13922,8 +18178,20 @@
         <f t="shared" si="5"/>
         <v>150717</v>
       </c>
-    </row>
-    <row r="193" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA192" s="1">
+        <v>187</v>
+      </c>
+      <c r="AB192" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC192" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD192" s="75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="2:30" ht="15.75" customHeight="1">
       <c r="B193" s="1">
         <v>188</v>
       </c>
@@ -13947,8 +18215,20 @@
         <f t="shared" si="5"/>
         <v>172525</v>
       </c>
-    </row>
-    <row r="194" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA193" s="1">
+        <v>188</v>
+      </c>
+      <c r="AB193" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC193" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD193" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="2:30" ht="15.75" customHeight="1">
       <c r="B194" s="1">
         <v>189</v>
       </c>
@@ -13972,8 +18252,20 @@
         <f t="shared" si="5"/>
         <v>197583</v>
       </c>
-    </row>
-    <row r="195" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA194" s="1">
+        <v>189</v>
+      </c>
+      <c r="AB194" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC194" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD194" s="100" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="195" spans="2:30" ht="15.75" customHeight="1">
       <c r="B195" s="1">
         <v>190</v>
       </c>
@@ -13997,8 +18289,20 @@
         <f t="shared" si="5"/>
         <v>226377</v>
       </c>
-    </row>
-    <row r="196" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA195" s="1">
+        <v>190</v>
+      </c>
+      <c r="AB195" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC195" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD195" s="101" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="196" spans="2:30" ht="15.75" customHeight="1">
       <c r="B196" s="1">
         <v>191</v>
       </c>
@@ -14022,8 +18326,20 @@
         <f t="shared" si="5"/>
         <v>259467</v>
       </c>
-    </row>
-    <row r="197" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA196" s="1">
+        <v>191</v>
+      </c>
+      <c r="AB196" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC196" s="67">
+        <v>4</v>
+      </c>
+      <c r="AD196" s="74" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="197" spans="2:30" ht="15.75" customHeight="1">
       <c r="B197" s="1">
         <v>192</v>
       </c>
@@ -14047,8 +18363,18 @@
         <f t="shared" si="5"/>
         <v>297497</v>
       </c>
-    </row>
-    <row r="198" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA197" s="1">
+        <v>192</v>
+      </c>
+      <c r="AB197" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC197" s="67">
+        <v>5</v>
+      </c>
+      <c r="AD197" s="102"/>
+    </row>
+    <row r="198" spans="2:30" ht="15.75" customHeight="1">
       <c r="B198" s="1">
         <v>193</v>
       </c>
@@ -14075,8 +18401,18 @@
         <f t="shared" si="5"/>
         <v>341209</v>
       </c>
-    </row>
-    <row r="199" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA198" s="1">
+        <v>193</v>
+      </c>
+      <c r="AB198" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC198" s="67">
+        <v>6</v>
+      </c>
+      <c r="AD198" s="101"/>
+    </row>
+    <row r="199" spans="2:30" ht="15.75" customHeight="1">
       <c r="B199" s="1">
         <v>194</v>
       </c>
@@ -14100,8 +18436,20 @@
         <f t="shared" si="5"/>
         <v>391454</v>
       </c>
-    </row>
-    <row r="200" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA199" s="1">
+        <v>194</v>
+      </c>
+      <c r="AB199" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC199" s="67">
+        <v>7</v>
+      </c>
+      <c r="AD199" s="100" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="200" spans="2:30" ht="15.75" customHeight="1">
       <c r="B200" s="1">
         <v>195</v>
       </c>
@@ -14125,8 +18473,18 @@
         <f t="shared" si="5"/>
         <v>449212</v>
       </c>
-    </row>
-    <row r="201" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA200" s="1">
+        <v>195</v>
+      </c>
+      <c r="AB200" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC200" s="67">
+        <v>8</v>
+      </c>
+      <c r="AD200" s="75"/>
+    </row>
+    <row r="201" spans="2:30" ht="15.75" customHeight="1">
       <c r="B201" s="1">
         <v>196</v>
       </c>
@@ -14150,8 +18508,20 @@
         <f t="shared" si="5"/>
         <v>515609</v>
       </c>
-    </row>
-    <row r="202" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA201" s="1">
+        <v>196</v>
+      </c>
+      <c r="AB201" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC201" s="67">
+        <v>9</v>
+      </c>
+      <c r="AD201" s="74" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="202" spans="2:30" ht="15.75" customHeight="1">
       <c r="B202" s="1">
         <v>197</v>
       </c>
@@ -14175,8 +18545,20 @@
         <f t="shared" si="5"/>
         <v>591941</v>
       </c>
-    </row>
-    <row r="203" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA202" s="1">
+        <v>197</v>
+      </c>
+      <c r="AB202" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC202" s="67">
+        <v>10</v>
+      </c>
+      <c r="AD202" s="103" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="203" spans="2:30" ht="15.75" customHeight="1">
       <c r="B203" s="1">
         <v>198</v>
       </c>
@@ -14200,8 +18582,20 @@
         <f t="shared" si="5"/>
         <v>679699</v>
       </c>
-    </row>
-    <row r="204" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA203" s="1">
+        <v>198</v>
+      </c>
+      <c r="AB203" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC203" s="67">
+        <v>11</v>
+      </c>
+      <c r="AD203" s="105" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="2:30" ht="15.75" customHeight="1">
       <c r="B204" s="106">
         <v>199</v>
       </c>
@@ -14226,8 +18620,20 @@
         <f t="shared" si="5"/>
         <v>780594</v>
       </c>
-    </row>
-    <row r="205" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA204" s="106">
+        <v>199</v>
+      </c>
+      <c r="AB204" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC204" s="67">
+        <v>12</v>
+      </c>
+      <c r="AD204" s="65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="205" spans="2:30" ht="15.75" customHeight="1">
       <c r="B205" s="1">
         <v>200</v>
       </c>
@@ -14251,8 +18657,18 @@
         <f t="shared" si="5"/>
         <v>896599</v>
       </c>
-    </row>
-    <row r="206" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA205" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB205" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC205" s="67">
+        <v>13</v>
+      </c>
+      <c r="AD205" s="97"/>
+    </row>
+    <row r="206" spans="2:30" ht="15.75" customHeight="1">
       <c r="B206" s="1">
         <v>201</v>
       </c>
@@ -14276,8 +18692,20 @@
         <f t="shared" si="5"/>
         <v>1029978</v>
       </c>
-    </row>
-    <row r="207" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA206" s="1">
+        <v>201</v>
+      </c>
+      <c r="AB206" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC206" s="67">
+        <v>14</v>
+      </c>
+      <c r="AD206" s="75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="2:30" ht="15.75" customHeight="1">
       <c r="B207" s="1">
         <v>202</v>
       </c>
@@ -14301,8 +18729,18 @@
         <f t="shared" si="5"/>
         <v>1183338</v>
       </c>
-    </row>
-    <row r="208" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA207" s="1">
+        <v>202</v>
+      </c>
+      <c r="AB207" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC207" s="67">
+        <v>15</v>
+      </c>
+      <c r="AD207" s="105"/>
+    </row>
+    <row r="208" spans="2:30" ht="15.75" customHeight="1">
       <c r="B208" s="1">
         <v>203</v>
       </c>
@@ -14326,8 +18764,20 @@
         <f t="shared" si="5"/>
         <v>1359676</v>
       </c>
-    </row>
-    <row r="209" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA208" s="1">
+        <v>203</v>
+      </c>
+      <c r="AB208" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC208" s="67">
+        <v>16</v>
+      </c>
+      <c r="AD208" s="99" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="209" spans="2:30" ht="15.75" customHeight="1">
       <c r="B209" s="1">
         <v>204</v>
       </c>
@@ -14351,8 +18801,18 @@
         <f t="shared" si="5"/>
         <v>1562439</v>
       </c>
-    </row>
-    <row r="210" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA209" s="1">
+        <v>204</v>
+      </c>
+      <c r="AB209" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC209" s="67">
+        <v>17</v>
+      </c>
+      <c r="AD209" s="97"/>
+    </row>
+    <row r="210" spans="2:30" ht="15.75" customHeight="1">
       <c r="B210" s="1">
         <v>205</v>
       </c>
@@ -14379,8 +18839,20 @@
         <f t="shared" si="5"/>
         <v>1795588</v>
       </c>
-    </row>
-    <row r="211" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA210" s="1">
+        <v>205</v>
+      </c>
+      <c r="AB210" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC210" s="67">
+        <v>18</v>
+      </c>
+      <c r="AD210" s="103" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="211" spans="2:30" ht="15.75" customHeight="1">
       <c r="B211" s="1">
         <v>206</v>
       </c>
@@ -14404,8 +18876,14 @@
         <f t="shared" si="5"/>
         <v>2063683</v>
       </c>
-    </row>
-    <row r="212" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA211" s="1">
+        <v>206</v>
+      </c>
+      <c r="AB211" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="212" spans="2:30" ht="15.75" customHeight="1">
       <c r="B212" s="1">
         <v>207</v>
       </c>
@@ -14429,8 +18907,14 @@
         <f t="shared" si="5"/>
         <v>2371964</v>
       </c>
-    </row>
-    <row r="213" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA212" s="1">
+        <v>207</v>
+      </c>
+      <c r="AB212" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="2:30" ht="15.75" customHeight="1">
       <c r="B213" s="1">
         <v>208</v>
       </c>
@@ -14454,8 +18938,14 @@
         <f t="shared" si="5"/>
         <v>2726459</v>
       </c>
-    </row>
-    <row r="214" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA213" s="1">
+        <v>208</v>
+      </c>
+      <c r="AB213" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="2:30" ht="15.75" customHeight="1">
       <c r="B214" s="1">
         <v>209</v>
       </c>
@@ -14479,8 +18969,14 @@
         <f t="shared" si="5"/>
         <v>3134101</v>
       </c>
-    </row>
-    <row r="215" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA214" s="1">
+        <v>209</v>
+      </c>
+      <c r="AB214" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="2:30" ht="15.75" customHeight="1">
       <c r="B215" s="1">
         <v>210</v>
       </c>
@@ -14504,8 +19000,14 @@
         <f t="shared" si="5"/>
         <v>3602861</v>
       </c>
-    </row>
-    <row r="216" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA215" s="1">
+        <v>210</v>
+      </c>
+      <c r="AB215" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="216" spans="2:30" ht="15.75" customHeight="1">
       <c r="B216" s="1">
         <v>211</v>
       </c>
@@ -14529,8 +19031,14 @@
         <f t="shared" si="5"/>
         <v>4141905</v>
       </c>
-    </row>
-    <row r="217" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA216" s="1">
+        <v>211</v>
+      </c>
+      <c r="AB216" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="2:30" ht="15.75" customHeight="1">
       <c r="B217" s="1">
         <v>212</v>
       </c>
@@ -14554,8 +19062,14 @@
         <f t="shared" si="5"/>
         <v>4761778</v>
       </c>
-    </row>
-    <row r="218" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA217" s="1">
+        <v>212</v>
+      </c>
+      <c r="AB217" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="2:30" ht="15.75" customHeight="1">
       <c r="B218" s="1">
         <v>213</v>
       </c>
@@ -14582,8 +19096,14 @@
         <f t="shared" si="5"/>
         <v>5474602</v>
       </c>
-    </row>
-    <row r="219" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA218" s="1">
+        <v>213</v>
+      </c>
+      <c r="AB218" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" spans="2:30" ht="15.75" customHeight="1">
       <c r="B219" s="1">
         <v>214</v>
       </c>
@@ -14607,8 +19127,14 @@
         <f t="shared" si="5"/>
         <v>6294320</v>
       </c>
-    </row>
-    <row r="220" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA219" s="1">
+        <v>214</v>
+      </c>
+      <c r="AB219" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="2:30" ht="15.75" customHeight="1">
       <c r="B220" s="1">
         <v>215</v>
       </c>
@@ -14632,8 +19158,14 @@
         <f t="shared" si="5"/>
         <v>7236965</v>
       </c>
-    </row>
-    <row r="221" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA220" s="1">
+        <v>215</v>
+      </c>
+      <c r="AB220" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" spans="2:30" ht="15.75" customHeight="1">
       <c r="B221" s="1">
         <v>216</v>
       </c>
@@ -14657,8 +19189,14 @@
         <f t="shared" si="5"/>
         <v>8320977</v>
       </c>
-    </row>
-    <row r="222" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA221" s="1">
+        <v>216</v>
+      </c>
+      <c r="AB221" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="2:30" ht="15.75" customHeight="1">
       <c r="B222" s="106">
         <v>217</v>
       </c>
@@ -14685,8 +19223,14 @@
         <f t="shared" si="5"/>
         <v>9567561</v>
       </c>
-    </row>
-    <row r="223" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA222" s="106">
+        <v>217</v>
+      </c>
+      <c r="AB222" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="2:30" ht="15.75" customHeight="1">
       <c r="B223" s="1">
         <v>218</v>
       </c>
@@ -14710,8 +19254,14 @@
         <f t="shared" si="5"/>
         <v>11001101</v>
       </c>
-    </row>
-    <row r="224" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA223" s="1">
+        <v>218</v>
+      </c>
+      <c r="AB223" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" spans="2:30" ht="15.75" customHeight="1">
       <c r="B224" s="1">
         <v>219</v>
       </c>
@@ -14735,8 +19285,11 @@
         <f t="shared" si="5"/>
         <v>12649641</v>
       </c>
-    </row>
-    <row r="225" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA224" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="225" spans="2:27" ht="15.75" customHeight="1">
       <c r="B225" s="1">
         <v>220</v>
       </c>
@@ -14760,8 +19313,11 @@
         <f t="shared" si="5"/>
         <v>14545431</v>
       </c>
-    </row>
-    <row r="226" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA225" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="2:27" ht="15.75" customHeight="1">
       <c r="B226" s="1">
         <v>221</v>
       </c>
@@ -14785,8 +19341,11 @@
         <f t="shared" si="5"/>
         <v>16725557</v>
       </c>
-    </row>
-    <row r="227" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA226" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="2:27" ht="15.75" customHeight="1">
       <c r="B227" s="1">
         <v>222</v>
       </c>
@@ -14810,8 +19369,11 @@
         <f t="shared" si="5"/>
         <v>19232670</v>
       </c>
-    </row>
-    <row r="228" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA227" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="228" spans="2:27" ht="15.75" customHeight="1">
       <c r="B228" s="1">
         <v>223</v>
       </c>
@@ -14838,8 +19400,11 @@
         <f t="shared" si="5"/>
         <v>22115818</v>
       </c>
-    </row>
-    <row r="229" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA228" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="229" spans="2:27" ht="15.75" customHeight="1">
       <c r="B229" s="1">
         <v>224</v>
       </c>
@@ -14863,8 +19428,11 @@
         <f t="shared" si="5"/>
         <v>25431405</v>
       </c>
-    </row>
-    <row r="230" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA229" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="230" spans="2:27" ht="15.75" customHeight="1">
       <c r="B230" s="1">
         <v>225</v>
       </c>
@@ -14888,8 +19456,11 @@
         <f t="shared" si="5"/>
         <v>29244297</v>
       </c>
-    </row>
-    <row r="231" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA230" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="2:27" ht="15.75" customHeight="1">
       <c r="B231" s="1">
         <v>226</v>
       </c>
@@ -14913,8 +19484,11 @@
         <f t="shared" si="5"/>
         <v>33629090</v>
       </c>
-    </row>
-    <row r="232" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA231" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="2:27" ht="15.75" customHeight="1">
       <c r="B232" s="1">
         <v>227</v>
       </c>
@@ -14938,8 +19512,11 @@
         <f t="shared" si="5"/>
         <v>38671569</v>
       </c>
-    </row>
-    <row r="233" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA232" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="2:27" ht="15.75" customHeight="1">
       <c r="B233" s="1">
         <v>228</v>
       </c>
@@ -14963,8 +19540,11 @@
         <f t="shared" si="5"/>
         <v>44470385</v>
       </c>
-    </row>
-    <row r="234" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA233" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="2:27" ht="15.75" customHeight="1">
       <c r="B234" s="1">
         <v>229</v>
       </c>
@@ -14988,8 +19568,11 @@
         <f t="shared" si="5"/>
         <v>51138990</v>
       </c>
-    </row>
-    <row r="235" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA234" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="2:27" ht="15.75" customHeight="1">
       <c r="B235" s="1">
         <v>230</v>
       </c>
@@ -15013,8 +19596,11 @@
         <f t="shared" si="5"/>
         <v>58807851</v>
       </c>
-    </row>
-    <row r="236" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA235" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="2:27" ht="15.75" customHeight="1">
       <c r="B236" s="1">
         <v>231</v>
       </c>
@@ -15038,8 +19624,11 @@
         <f t="shared" si="5"/>
         <v>67627006</v>
       </c>
-    </row>
-    <row r="237" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA236" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="2:27" ht="15.75" customHeight="1">
       <c r="B237" s="1">
         <v>232</v>
       </c>
@@ -15063,8 +19652,11 @@
         <f t="shared" si="5"/>
         <v>77768999</v>
       </c>
-    </row>
-    <row r="238" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA237" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="238" spans="2:27" ht="15.75" customHeight="1">
       <c r="B238" s="1">
         <v>233</v>
       </c>
@@ -15088,8 +19680,11 @@
         <f t="shared" si="5"/>
         <v>89432257</v>
       </c>
-    </row>
-    <row r="239" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA238" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="2:27" ht="15.75" customHeight="1">
       <c r="B239" s="1">
         <v>234</v>
       </c>
@@ -15116,8 +19711,11 @@
         <f t="shared" si="5"/>
         <v>102844967</v>
       </c>
-    </row>
-    <row r="240" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA239" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="2:27" ht="15.75" customHeight="1">
       <c r="B240" s="106">
         <v>235</v>
       </c>
@@ -15145,8 +19743,11 @@
         <f t="shared" si="5"/>
         <v>118269547</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA240" s="106">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" ht="15.75" customHeight="1">
       <c r="B241" s="1">
         <v>236</v>
       </c>
@@ -15173,8 +19774,11 @@
         <f t="shared" si="5"/>
         <v>136007779</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA241" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" ht="15.75" customHeight="1">
       <c r="B242" s="1">
         <v>237</v>
       </c>
@@ -15201,8 +19805,11 @@
         <f t="shared" ref="O242:O262" si="7">ROUND(1.15^(M242+5)+M242^2,0)</f>
         <v>156406708</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA242" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" ht="15.75" customHeight="1">
       <c r="B243" s="1">
         <v>238</v>
       </c>
@@ -15229,8 +19836,11 @@
         <f t="shared" si="7"/>
         <v>179865441</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA243" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" ht="15.75" customHeight="1">
       <c r="B244" s="1">
         <v>239</v>
       </c>
@@ -15257,8 +19867,11 @@
         <f t="shared" si="7"/>
         <v>206842946</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA244" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" ht="15.75" customHeight="1">
       <c r="B245" s="1">
         <v>240</v>
       </c>
@@ -15288,8 +19901,11 @@
         <f t="shared" si="7"/>
         <v>237867039</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA245" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" ht="15.75" customHeight="1">
       <c r="B246" s="1">
         <v>241</v>
       </c>
@@ -15316,8 +19932,11 @@
         <f t="shared" si="7"/>
         <v>273544708</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA246" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" ht="15.75" customHeight="1">
       <c r="B247" s="1">
         <v>242</v>
       </c>
@@ -15344,8 +19963,11 @@
         <f t="shared" si="7"/>
         <v>314573990</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA247" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" ht="15.75" customHeight="1">
       <c r="B248" s="1">
         <v>243</v>
       </c>
@@ -15372,8 +19994,11 @@
         <f t="shared" si="7"/>
         <v>361757626</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA248" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" ht="15.75" customHeight="1">
       <c r="B249" s="1">
         <v>244</v>
       </c>
@@ -15400,8 +20025,11 @@
         <f t="shared" si="7"/>
         <v>416018769</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA249" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" ht="15.75" customHeight="1">
       <c r="A250" s="35" t="s">
         <v>39</v>
       </c>
@@ -15434,8 +20062,11 @@
         <f t="shared" si="7"/>
         <v>478419044</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA250" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" ht="15.75" customHeight="1">
       <c r="A251" s="35" t="s">
         <v>41</v>
       </c>
@@ -15465,8 +20096,11 @@
         <f t="shared" si="7"/>
         <v>550179320</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA251" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" ht="15.75" customHeight="1">
       <c r="A252" s="35" t="s">
         <v>45</v>
       </c>
@@ -15496,8 +20130,11 @@
         <f t="shared" si="7"/>
         <v>632703599</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA252" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" ht="15.75" customHeight="1">
       <c r="A253" s="35" t="s">
         <v>46</v>
       </c>
@@ -15527,8 +20164,11 @@
         <f t="shared" si="7"/>
         <v>727606480</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA253" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" ht="15.75" customHeight="1">
       <c r="B254" s="1">
         <v>249</v>
       </c>
@@ -15555,8 +20195,11 @@
         <f t="shared" si="7"/>
         <v>836744753</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA254" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" ht="15.75" customHeight="1">
       <c r="B255" s="1">
         <v>250</v>
       </c>
@@ -15583,8 +20226,11 @@
         <f t="shared" si="7"/>
         <v>962253727</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" ht="15.75" customHeight="1">
+      <c r="AA255" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27" ht="15.75" customHeight="1">
       <c r="B256" s="1">
         <v>251</v>
       </c>
@@ -15611,8 +20257,11 @@
         <f t="shared" si="7"/>
         <v>1106589005</v>
       </c>
-    </row>
-    <row r="257" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA256" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="2:27" ht="15.75" customHeight="1">
       <c r="B257" s="1">
         <v>252</v>
       </c>
@@ -15636,8 +20285,11 @@
         <f t="shared" si="7"/>
         <v>1272574535</v>
       </c>
-    </row>
-    <row r="258" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA257" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="258" spans="2:27" ht="15.75" customHeight="1">
       <c r="B258" s="106">
         <v>253</v>
       </c>
@@ -15665,8 +20317,11 @@
         <f t="shared" si="7"/>
         <v>1463457852</v>
       </c>
-    </row>
-    <row r="259" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA258" s="106">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="2:27" ht="15.75" customHeight="1">
       <c r="B259" s="1">
         <v>254</v>
       </c>
@@ -15693,8 +20348,11 @@
         <f t="shared" si="7"/>
         <v>1682973625</v>
       </c>
-    </row>
-    <row r="260" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA259" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="2:27" ht="15.75" customHeight="1">
       <c r="B260" s="1">
         <v>255</v>
       </c>
@@ -15724,8 +20382,11 @@
         <f t="shared" si="7"/>
         <v>1935416723</v>
       </c>
-    </row>
-    <row r="261" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA260" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="2:27" ht="15.75" customHeight="1">
       <c r="B261" s="1">
         <v>256</v>
       </c>
@@ -15752,8 +20413,11 @@
         <f t="shared" si="7"/>
         <v>2225726243</v>
       </c>
-    </row>
-    <row r="262" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA261" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="2:27" ht="15.75" customHeight="1">
       <c r="B262" s="1">
         <v>257</v>
       </c>
@@ -15780,8 +20444,11 @@
         <f t="shared" si="7"/>
         <v>2559582148</v>
       </c>
-    </row>
-    <row r="263" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA262" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="2:27" ht="15.75" customHeight="1">
       <c r="B263" s="1">
         <v>258</v>
       </c>
@@ -15797,8 +20464,11 @@
       <c r="H263" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="264" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA263" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="2:27" ht="15.75" customHeight="1">
       <c r="B264" s="1">
         <v>259</v>
       </c>
@@ -15814,8 +20484,11 @@
       <c r="H264" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="265" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA264" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="265" spans="2:27" ht="15.75" customHeight="1">
       <c r="B265" s="1">
         <v>260</v>
       </c>
@@ -15831,8 +20504,11 @@
       <c r="H265" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="266" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA265" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="266" spans="2:27" ht="15.75" customHeight="1">
       <c r="B266" s="1">
         <v>261</v>
       </c>
@@ -15851,8 +20527,11 @@
       <c r="H266" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="267" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA266" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="267" spans="2:27" ht="15.75" customHeight="1">
       <c r="B267" s="1">
         <v>262</v>
       </c>
@@ -15868,8 +20547,11 @@
       <c r="H267" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="268" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA267" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="268" spans="2:27" ht="15.75" customHeight="1">
       <c r="B268" s="1">
         <v>263</v>
       </c>
@@ -15885,8 +20567,11 @@
       <c r="H268" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="269" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA268" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="269" spans="2:27" ht="15.75" customHeight="1">
       <c r="B269" s="1">
         <v>264</v>
       </c>
@@ -15902,8 +20587,11 @@
       <c r="H269" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="270" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA269" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="2:27" ht="15.75" customHeight="1">
       <c r="B270" s="1">
         <v>265</v>
       </c>
@@ -15919,8 +20607,11 @@
       <c r="H270" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="271" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA270" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="2:27" ht="15.75" customHeight="1">
       <c r="B271" s="1">
         <v>266</v>
       </c>
@@ -15936,8 +20627,11 @@
       <c r="H271" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="272" spans="2:15" ht="15.75" customHeight="1">
+      <c r="AA271" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="272" spans="2:27" ht="15.75" customHeight="1">
       <c r="B272" s="1">
         <v>267</v>
       </c>
@@ -15956,8 +20650,11 @@
       <c r="H272" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="273" spans="2:8" ht="15.75" customHeight="1">
+      <c r="AA272" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="2:27" ht="15.75" customHeight="1">
       <c r="B273" s="1">
         <v>268</v>
       </c>
@@ -15973,8 +20670,11 @@
       <c r="H273" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="274" spans="2:8" ht="15.75" customHeight="1">
+      <c r="AA273" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="2:27" ht="15.75" customHeight="1">
       <c r="B274" s="1">
         <v>269</v>
       </c>
@@ -15990,8 +20690,11 @@
       <c r="H274" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="275" spans="2:8" ht="15.75" customHeight="1">
+      <c r="AA274" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="275" spans="2:27" ht="15.75" customHeight="1">
       <c r="B275" s="1">
         <v>270</v>
       </c>
@@ -16007,8 +20710,11 @@
       <c r="H275" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="276" spans="2:8" ht="15.75" customHeight="1">
+      <c r="AA275" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="2:27" ht="15.75" customHeight="1">
       <c r="D276">
         <f>COUNT(D6:D275)</f>
         <v>39</v>
@@ -16017,7 +20723,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="278" spans="2:8" ht="15.75" customHeight="1">
+    <row r="278" spans="2:27" ht="15.75" customHeight="1">
       <c r="B278" s="106"/>
       <c r="C278" s="107" t="s">
         <v>907</v>
@@ -16030,7 +20736,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="15.75" customHeight="1">
+    <row r="279" spans="2:27" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="C279" s="107" t="s">
         <v>907</v>
@@ -16042,7 +20748,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="15.75" customHeight="1">
+    <row r="280" spans="2:27" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="C280" s="107" t="s">
         <v>907</v>
@@ -16057,7 +20763,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="281" spans="2:8" ht="15.75" customHeight="1">
+    <row r="281" spans="2:27" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="C281" s="107" t="s">
         <v>907</v>
@@ -16069,7 +20775,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="282" spans="2:8" ht="15.75" customHeight="1">
+    <row r="282" spans="2:27" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="C282" s="107" t="s">
         <v>907</v>
@@ -16081,7 +20787,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="283" spans="2:8" ht="15.75" customHeight="1">
+    <row r="283" spans="2:27" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="C283" s="107" t="s">
         <v>907</v>
@@ -16093,7 +20799,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="284" spans="2:8" ht="15.75" customHeight="1">
+    <row r="284" spans="2:27" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="C284" s="107" t="s">
         <v>907</v>
@@ -16105,7 +20811,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="285" spans="2:8" ht="15.75" customHeight="1">
+    <row r="285" spans="2:27" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="C285" s="107" t="s">
         <v>907</v>
@@ -16117,7 +20823,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="286" spans="2:8" ht="15.75" customHeight="1">
+    <row r="286" spans="2:27" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="C286" s="107" t="s">
         <v>907</v>
@@ -16129,7 +20835,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="15.75" customHeight="1">
+    <row r="287" spans="2:27" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="C287" s="107" t="s">
         <v>907</v>
@@ -16141,7 +20847,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="15.75" customHeight="1">
+    <row r="288" spans="2:27" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="C288" s="107" t="s">
         <v>907</v>
@@ -18387,7 +23093,7 @@
   </sheetPr>
   <dimension ref="C3:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -18409,15 +23115,15 @@
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
     </row>
     <row r="5" spans="3:22">
       <c r="C5" s="1" t="s">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F814DE-DF7D-4832-AA13-91244ACF03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1706D4F-E0BF-4288-8D57-1377BEECEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="5292" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="5292" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1249">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -3767,6 +3767,48 @@
   </si>
   <si>
     <t>beaver +0.7 wood per woodcamp</t>
+  </si>
+  <si>
+    <t>New Magic</t>
+  </si>
+  <si>
+    <t>Unlock Gold upgrades</t>
+  </si>
+  <si>
+    <t>Unlock Magic Store</t>
+  </si>
+  <si>
+    <t>Unlock Baits</t>
+  </si>
+  <si>
+    <t>Unlock Fishing Spots</t>
+  </si>
+  <si>
+    <t>Unlock Storage Overdrives</t>
+  </si>
+  <si>
+    <t>Unlock Research slot 2</t>
+  </si>
+  <si>
+    <t>Unlock Research slot 3</t>
+  </si>
+  <si>
+    <t>Unlock Auto Research</t>
+  </si>
+  <si>
+    <t>Unlock Achievements and FoS</t>
+  </si>
+  <si>
+    <t>1 Magic Bonus</t>
+  </si>
+  <si>
+    <t>1% WPS</t>
+  </si>
+  <si>
+    <t>1% WPC</t>
+  </si>
+  <si>
+    <t>1% Storage</t>
   </si>
 </sst>
 </file>
@@ -8097,7 +8139,7 @@
   </sheetPr>
   <dimension ref="A1:AL295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD142" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AD142" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH157" sqref="AH157"/>
     </sheetView>
   </sheetViews>
@@ -22508,24 +22550,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C4:G39"/>
+  <dimension ref="A4:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="12.75">
+    <row r="4" spans="1:9" ht="12.75">
+      <c r="A4" t="s">
+        <v>1235</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="12.75">
+    <row r="6" spans="1:9" ht="12.75">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -22541,8 +22587,17 @@
       <c r="G6" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="12.75">
+      <c r="I6" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1236</v>
+      </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -22553,7 +22608,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="12.75">
+    <row r="8" spans="1:9" ht="12.75">
+      <c r="B8" t="s">
+        <v>1237</v>
+      </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -22563,8 +22621,14 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" ht="12.75">
+      <c r="I8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75">
+      <c r="B9" t="s">
+        <v>1244</v>
+      </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -22574,8 +22638,14 @@
       <c r="G9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" ht="12.75">
+      <c r="I9" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75">
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -22585,8 +22655,14 @@
       <c r="G10" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" ht="12.75">
+      <c r="I10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75">
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -22597,7 +22673,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="12.75">
+    <row r="12" spans="1:9" ht="12.75">
+      <c r="B12" t="s">
+        <v>1238</v>
+      </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -22608,7 +22687,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="12.75">
+    <row r="13" spans="1:9" ht="12.75">
+      <c r="B13" t="s">
+        <v>1239</v>
+      </c>
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -22619,7 +22701,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="12.75">
+    <row r="14" spans="1:9" ht="12.75">
+      <c r="B14" t="s">
+        <v>1240</v>
+      </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -22630,7 +22715,10 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="12.75">
+    <row r="15" spans="1:9" ht="12.75">
+      <c r="B15" t="s">
+        <v>1241</v>
+      </c>
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -22641,7 +22729,10 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="12.75">
+    <row r="16" spans="1:9" ht="12.75">
+      <c r="B16" t="s">
+        <v>1242</v>
+      </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -22652,7 +22743,10 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="12.75">
+    <row r="17" spans="2:7" ht="12.75">
+      <c r="B17" t="s">
+        <v>1243</v>
+      </c>
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -22663,7 +22757,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="12.75">
+    <row r="18" spans="2:7" ht="12.75">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -22674,7 +22768,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="12.75">
+    <row r="19" spans="2:7" ht="12.75">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -22685,7 +22779,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="12.75">
+    <row r="20" spans="2:7" ht="12.75">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -22696,7 +22790,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="12.75">
+    <row r="21" spans="2:7" ht="12.75">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -22707,7 +22801,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="12.75">
+    <row r="22" spans="2:7" ht="12.75">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -22718,7 +22812,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="12.75">
+    <row r="23" spans="2:7" ht="12.75">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -22729,7 +22823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="12.75">
+    <row r="24" spans="2:7" ht="12.75">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -22740,7 +22834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="12.75">
+    <row r="25" spans="2:7" ht="12.75">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -22751,7 +22845,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="12.75">
+    <row r="26" spans="2:7" ht="12.75">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -22762,7 +22856,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="12.75">
+    <row r="27" spans="2:7" ht="12.75">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -22773,7 +22867,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="12.75">
+    <row r="28" spans="2:7" ht="12.75">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -22784,7 +22878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="12.75">
+    <row r="29" spans="2:7" ht="12.75">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -22795,7 +22889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="12.75">
+    <row r="30" spans="2:7" ht="12.75">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -22806,7 +22900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="12.75">
+    <row r="31" spans="2:7" ht="12.75">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -22817,7 +22911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="12.75">
+    <row r="32" spans="2:7" ht="12.75">
       <c r="C32" s="1">
         <v>26</v>
       </c>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1706D4F-E0BF-4288-8D57-1377BEECEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8EDE7-5BB9-4B55-9934-2F8CB9CD3B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="5292" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1271">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -1253,9 +1253,6 @@
     <t>better storage upgarade +40</t>
   </si>
   <si>
-    <t>Research 2 at a time</t>
-  </si>
-  <si>
     <t>Research all Button</t>
   </si>
   <si>
@@ -1301,30 +1298,15 @@
     <t>get more fish</t>
   </si>
   <si>
-    <t>Keep Research</t>
-  </si>
-  <si>
     <t>Keep Classic Wood Upgrades</t>
   </si>
   <si>
     <t>Unlock Final Dam</t>
   </si>
   <si>
-    <t>5x wood production</t>
-  </si>
-  <si>
     <t>Research Times / 2</t>
   </si>
   <si>
-    <t>10x storage</t>
-  </si>
-  <si>
-    <t>Gain 3x Magic</t>
-  </si>
-  <si>
-    <t>Research 3 at a time</t>
-  </si>
-  <si>
     <t>Keep Rare Wood Upgrades</t>
   </si>
   <si>
@@ -1334,9 +1316,6 @@
     <t>Unlock Ascention</t>
   </si>
   <si>
-    <t>Unlock Spruce Wood</t>
-  </si>
-  <si>
     <t>Unlock Chestnut</t>
   </si>
   <si>
@@ -2228,9 +2207,6 @@
     <t>unlock levels</t>
   </si>
   <si>
-    <t>Unlock gold upgrades</t>
-  </si>
-  <si>
     <t>level effects 30%</t>
   </si>
   <si>
@@ -2246,15 +2222,6 @@
     <t>Unlock Dogwood</t>
   </si>
   <si>
-    <t>Unlock Cedar Wood</t>
-  </si>
-  <si>
-    <t>Unlock Rose Wood</t>
-  </si>
-  <si>
-    <t>Magic effects 10x</t>
-  </si>
-  <si>
     <t>65b</t>
   </si>
   <si>
@@ -2267,28 +2234,7 @@
     <t>Unlock Fishing spot</t>
   </si>
   <si>
-    <t>Wood price 2.5x</t>
-  </si>
-  <si>
-    <t>Oak wps 100x</t>
-  </si>
-  <si>
-    <t>Oak wood price +1000</t>
-  </si>
-  <si>
-    <t>7.5x wpc</t>
-  </si>
-  <si>
     <t>50% cheaper woodcamps</t>
-  </si>
-  <si>
-    <t>15x storage from wc</t>
-  </si>
-  <si>
-    <t>wc count adds to base click</t>
-  </si>
-  <si>
-    <t>fish are worth 5x</t>
   </si>
   <si>
     <t>Dams 30% cheaper</t>
@@ -3775,18 +3721,9 @@
     <t>Unlock Gold upgrades</t>
   </si>
   <si>
-    <t>Unlock Magic Store</t>
-  </si>
-  <si>
     <t>Unlock Baits</t>
   </si>
   <si>
-    <t>Unlock Fishing Spots</t>
-  </si>
-  <si>
-    <t>Unlock Storage Overdrives</t>
-  </si>
-  <si>
     <t>Unlock Research slot 2</t>
   </si>
   <si>
@@ -3809,6 +3746,135 @@
   </si>
   <si>
     <t>1% Storage</t>
+  </si>
+  <si>
+    <t>Unlock Storage Overloading</t>
+  </si>
+  <si>
+    <t>20% WPS</t>
+  </si>
+  <si>
+    <t>2x storage from wc</t>
+  </si>
+  <si>
+    <t>First 100</t>
+  </si>
+  <si>
+    <t>0.1% WPS</t>
+  </si>
+  <si>
+    <t>0.1% WPC</t>
+  </si>
+  <si>
+    <t>0.1% Storage</t>
+  </si>
+  <si>
+    <t>First 1000 and so on</t>
+  </si>
+  <si>
+    <t>5% WPC To WPS</t>
+  </si>
+  <si>
+    <t>Gain 30% More Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Beavers +2 </t>
+  </si>
+  <si>
+    <t>Per Achievement 0.1% WPS</t>
+  </si>
+  <si>
+    <t>2x storage</t>
+  </si>
+  <si>
+    <t>fish sell for more 22.5%</t>
+  </si>
+  <si>
+    <t>Keep First 10 Research</t>
+  </si>
+  <si>
+    <t>5% wpc</t>
+  </si>
+  <si>
+    <t>WC effects +15%</t>
+  </si>
+  <si>
+    <t>fish Price 5x</t>
+  </si>
+  <si>
+    <t>Wood price 1.5x</t>
+  </si>
+  <si>
+    <t>Lower WC Production Costs 15%</t>
+  </si>
+  <si>
+    <t>35% storage from woodcamps</t>
+  </si>
+  <si>
+    <t>more fish appear 25%</t>
+  </si>
+  <si>
+    <t>per achiv -0.1% WC price</t>
+  </si>
+  <si>
+    <t>Oak wps 2x</t>
+  </si>
+  <si>
+    <t>Magic effects 2x</t>
+  </si>
+  <si>
+    <t>Wood price +50%</t>
+  </si>
+  <si>
+    <t>0.2% storage per Achievement</t>
+  </si>
+  <si>
+    <t>40% Cheaper Bots</t>
+  </si>
+  <si>
+    <t>Starting Woodcamps +10</t>
+  </si>
+  <si>
+    <t>Dam Effects 15%</t>
+  </si>
+  <si>
+    <t>Unlock Fishing Spot</t>
+  </si>
+  <si>
+    <t>Improve magic effects 2x</t>
+  </si>
+  <si>
+    <t>Gain Magic Without Ascention</t>
+  </si>
+  <si>
+    <t>Gold Upgrades 35% Cheaper</t>
+  </si>
+  <si>
+    <t>All Upgrades 50% Cheaper</t>
+  </si>
+  <si>
+    <t>Fish Price 2x</t>
+  </si>
+  <si>
+    <t>Fish Stay 25% Longer</t>
+  </si>
+  <si>
+    <t>0.05% WPC Per Achievement</t>
+  </si>
+  <si>
+    <t>3.5% of Lower Tier Storage Added</t>
+  </si>
+  <si>
+    <t>Add 5% of Lower Tier Wood WPS</t>
+  </si>
+  <si>
+    <t>Each Dam Gives 1% WPS</t>
+  </si>
+  <si>
+    <t>Each Dam Gives 1% Gold PS</t>
+  </si>
+  <si>
+    <t>Bots Sell 20% More Wood</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4582,6 +4648,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -4923,7 +4990,7 @@
     </row>
     <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4966,7 +5033,7 @@
     </row>
     <row r="14" spans="2:10" ht="12.75">
       <c r="B14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4989,7 +5056,7 @@
     </row>
     <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5463,21 +5530,21 @@
   <sheetData>
     <row r="3" spans="3:10">
       <c r="D3" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="D4" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="E4" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="F4" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -8139,8 +8206,8 @@
   </sheetPr>
   <dimension ref="A1:AL295"/>
   <sheetViews>
-    <sheetView topLeftCell="AD142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH157" sqref="AH157"/>
+    <sheetView topLeftCell="AD114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL158" sqref="AL120:AL158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8181,7 +8248,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1">
       <c r="M1" s="45" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="12.75">
@@ -8189,26 +8256,26 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.75" customHeight="1">
       <c r="M3" s="45" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="M4" s="45" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
@@ -8222,7 +8289,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -8271,13 +8338,13 @@
         <v>55</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="13.5" thickBot="1">
@@ -8297,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>360</v>
@@ -8364,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="105" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="12.75">
@@ -8384,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>364</v>
@@ -8454,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="65" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="12.75">
@@ -8474,10 +8541,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H8">
         <v>120</v>
@@ -8543,7 +8610,7 @@
         <v>3</v>
       </c>
       <c r="AG8" s="75" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="12.75">
@@ -8563,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>365</v>
@@ -8629,7 +8696,7 @@
         <v>4</v>
       </c>
       <c r="AG9" s="104" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="12.75">
@@ -8649,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>367</v>
@@ -8702,7 +8769,7 @@
         <v>5</v>
       </c>
       <c r="AG10" s="65" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="12.75">
@@ -8722,7 +8789,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="H11">
         <v>750</v>
@@ -8779,7 +8846,7 @@
         <v>6</v>
       </c>
       <c r="AG11" s="75" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="12.75">
@@ -8799,7 +8866,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="H12">
         <v>1400</v>
@@ -8851,7 +8918,7 @@
         <v>7</v>
       </c>
       <c r="AG12" s="74" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="12.75">
@@ -8871,7 +8938,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="H13" s="1">
         <v>10000</v>
@@ -8916,7 +8983,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12.75">
@@ -8933,7 +9000,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>293</v>
@@ -8968,7 +9035,7 @@
         <v>9</v>
       </c>
       <c r="AG14" s="102" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="12.75">
@@ -8985,7 +9052,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>325</v>
@@ -9020,7 +9087,7 @@
         <v>10</v>
       </c>
       <c r="AG15" s="98" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="12.75">
@@ -9037,7 +9104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>326</v>
@@ -9072,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="105" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.75">
@@ -9089,7 +9156,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -9126,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="65" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.75">
@@ -9143,7 +9210,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -9177,7 +9244,7 @@
         <v>3</v>
       </c>
       <c r="AG18" s="75" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.75">
@@ -9197,10 +9264,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="G19" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -9232,7 +9299,7 @@
         <v>4</v>
       </c>
       <c r="AG19" s="104" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75">
@@ -9247,7 +9314,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="40"/>
@@ -9279,7 +9346,7 @@
         <v>5</v>
       </c>
       <c r="AG20" s="105" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.75">
@@ -9297,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -9328,7 +9395,7 @@
         <v>6</v>
       </c>
       <c r="AG21" s="65" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.75">
@@ -9343,7 +9410,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -9374,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="AG22" s="75" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.75">
@@ -9389,7 +9456,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
@@ -9429,7 +9496,7 @@
         <v>8</v>
       </c>
       <c r="AG23" s="102" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.75">
@@ -9447,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -9487,7 +9554,7 @@
         <v>9</v>
       </c>
       <c r="AG24" s="101" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.75">
@@ -9505,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -9546,7 +9613,7 @@
         <v>10</v>
       </c>
       <c r="AG25" s="100" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75">
@@ -9563,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -9604,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="105" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.75">
@@ -9621,7 +9688,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="H27">
         <v>300</v>
@@ -9661,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="AG27" s="65" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.75">
@@ -9675,10 +9742,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="G28" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="H28">
         <v>400</v>
@@ -9715,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="AG28" s="75" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.75">
@@ -9732,10 +9799,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="G29" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="H29">
         <v>1000</v>
@@ -9767,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="AG29" s="75" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.75">
@@ -9784,7 +9851,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="H30">
         <v>1200</v>
@@ -9819,7 +9886,7 @@
         <v>5</v>
       </c>
       <c r="AG30" s="65" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="12.75">
@@ -9833,7 +9900,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="H31">
         <v>2000</v>
@@ -9842,7 +9909,7 @@
         <v>395</v>
       </c>
       <c r="P31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA31" s="1">
         <v>26</v>
@@ -9860,7 +9927,7 @@
         <v>6</v>
       </c>
       <c r="AG31" s="75" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="12.75">
@@ -9877,10 +9944,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="G32" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="H32">
         <v>2200</v>
@@ -9905,7 +9972,7 @@
         <v>7</v>
       </c>
       <c r="AG32" s="105" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="18.75" thickBot="1">
@@ -9919,10 +9986,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="O33" s="79" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AA33" s="1">
         <v>28</v>
@@ -9940,7 +10007,7 @@
         <v>8</v>
       </c>
       <c r="AG33" s="74" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="18.75" thickBot="1">
@@ -9954,7 +10021,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="60" t="s">
@@ -9986,7 +10053,7 @@
         <v>9</v>
       </c>
       <c r="AG34" s="99" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="13.5" thickBot="1">
@@ -10000,16 +10067,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M35" s="54" t="s">
         <v>79</v>
       </c>
       <c r="N35" s="56" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O35" s="36" t="s">
         <v>81</v>
@@ -10057,7 +10124,7 @@
         <v>10</v>
       </c>
       <c r="AG35" s="103" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="12.75">
@@ -10071,7 +10138,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>130</v>
@@ -10084,37 +10151,37 @@
         <v>333</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P36" s="77" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="S36" s="85" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="T36" s="91" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="U36" s="96" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="V36" s="95" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="X36" s="90" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AA36" s="1">
         <v>31</v>
@@ -10133,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="AG36" s="105" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="12.75">
@@ -10147,7 +10214,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45" t="s">
@@ -10161,37 +10228,37 @@
         <v>334</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P37" s="78" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q37" s="83" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="R37" s="84" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="T37" s="86" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="U37" s="87" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="V37" s="88" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="W37" s="89" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="X37" s="90" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="AA37" s="1">
         <v>32</v>
@@ -10210,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="AG37" s="65" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="12.75">
@@ -10224,7 +10291,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="100" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" t="s">
@@ -10234,40 +10301,40 @@
         <v>3</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="P38" s="78" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="R38" s="84" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="U38" s="87" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="V38" s="88" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="W38" s="89" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="X38" s="90" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AA38" s="1">
         <v>33</v>
@@ -10286,7 +10353,7 @@
         <v>3</v>
       </c>
       <c r="AG38" s="75" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="12.75">
@@ -10300,7 +10367,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="1" t="s">
@@ -10311,40 +10378,40 @@
         <v>4</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P39" s="78" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="Q39" s="83" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="R39" s="84" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="U39" s="87" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="V39" s="88" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="W39" s="89" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AA39" s="1">
         <v>34</v>
@@ -10362,7 +10429,7 @@
         <v>4</v>
       </c>
       <c r="AG39" t="s">
-        <v>1112</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="12.75">
@@ -10379,7 +10446,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="I40" t="s">
         <v>370</v>
@@ -10388,38 +10455,38 @@
         <v>5</v>
       </c>
       <c r="M40" s="69" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P40" s="57" t="s">
         <v>119</v>
       </c>
       <c r="Q40" s="83" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="76" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="T40" s="86" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="U40" s="87" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="V40" s="88" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="W40" s="89" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="X40" s="94" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="AA40" s="1">
         <v>35</v>
@@ -10437,7 +10504,7 @@
         <v>5</v>
       </c>
       <c r="AG40" s="75" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="12.75">
@@ -10454,7 +10521,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="45"/>
@@ -10462,35 +10529,35 @@
         <v>6</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>122</v>
       </c>
       <c r="Q41" s="83" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="R41" s="57"/>
       <c r="S41" s="76" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="U41" s="87" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="V41" s="88" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="W41" s="89" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="X41" s="55"/>
       <c r="AA41" s="1">
@@ -10510,7 +10577,7 @@
         <v>6</v>
       </c>
       <c r="AG41" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="12.75">
@@ -10528,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="45">
@@ -10538,35 +10605,35 @@
         <v>7</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N42" s="63" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P42" s="57" t="s">
         <v>124</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="R42" s="57"/>
       <c r="S42" s="76" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="U42" s="87" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="V42" s="88" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="W42" s="89" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="X42" s="55"/>
       <c r="AA42" s="106">
@@ -10585,7 +10652,7 @@
         <v>7</v>
       </c>
       <c r="AG42" s="74" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="12.75">
@@ -10602,42 +10669,42 @@
         <v>2</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G43" s="1"/>
       <c r="L43" s="40">
         <v>8</v>
       </c>
       <c r="M43" s="68" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P43" s="57" t="s">
         <v>297</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="76" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="T43" s="86" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="U43" s="87" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="V43" s="88" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="W43" s="89" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="X43" s="55"/>
       <c r="AA43" s="1">
@@ -10652,7 +10719,7 @@
         <v>8</v>
       </c>
       <c r="AG43" s="100" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="12.75">
@@ -10669,42 +10736,42 @@
         <v>3</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G44" s="1"/>
       <c r="L44" s="40">
         <v>9</v>
       </c>
       <c r="M44" s="69" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P44" s="57" t="s">
         <v>298</v>
       </c>
       <c r="Q44" s="83" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="R44" s="57"/>
       <c r="S44" s="76" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="T44" s="92" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="U44" s="87" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="V44" s="88" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="W44" s="89" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="X44" s="55"/>
       <c r="AA44" s="1">
@@ -10719,7 +10786,7 @@
         <v>9</v>
       </c>
       <c r="AG44" s="74" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="12.75">
@@ -10739,40 +10806,40 @@
         <v>4</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="G45" s="1"/>
       <c r="L45" s="40">
         <v>10</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P45" s="57" t="s">
         <v>304</v>
       </c>
       <c r="Q45" s="83" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="R45" s="57"/>
       <c r="S45" s="76" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="T45" s="86" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="U45" s="57"/>
       <c r="V45" s="88" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="W45" s="89" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="X45" s="59"/>
       <c r="AA45" s="1">
@@ -10787,7 +10854,7 @@
         <v>10</v>
       </c>
       <c r="AG45" s="114" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="12.75">
@@ -10804,40 +10871,40 @@
         <v>5</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="G46" s="1"/>
       <c r="L46" s="40">
         <v>11</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="P46" s="55" t="s">
         <v>305</v>
       </c>
       <c r="Q46" s="83" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="R46" s="55"/>
       <c r="S46" s="76" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="T46" s="86" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="U46" s="55"/>
       <c r="V46" s="88" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="W46" s="89" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="X46" s="55"/>
       <c r="AA46" s="1">
@@ -10852,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="AG46" s="105" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="12.75">
@@ -10869,40 +10936,40 @@
         <v>6</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G47" s="1"/>
       <c r="L47" s="40">
         <v>12</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="P47" s="55" t="s">
         <v>306</v>
       </c>
       <c r="Q47" s="83" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="R47" s="55"/>
       <c r="S47" s="76" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="T47" s="86" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="U47" s="55"/>
       <c r="V47" s="88" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="W47" s="89" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="X47" s="55"/>
       <c r="AA47" s="1">
@@ -10918,7 +10985,7 @@
         <v>2</v>
       </c>
       <c r="AG47" s="65" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="12.75">
@@ -10935,38 +11002,38 @@
         <v>7</v>
       </c>
       <c r="F48" s="102" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G48" s="1"/>
       <c r="L48" s="40">
         <v>13</v>
       </c>
       <c r="M48" s="69" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="P48" s="57" t="s">
         <v>307</v>
       </c>
       <c r="Q48" s="83" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="R48" s="55"/>
       <c r="S48" s="76" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="T48" s="86" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
       <c r="W48" s="89" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="X48" s="55"/>
       <c r="AA48" s="1">
@@ -10981,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="AG48" s="75" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="49" spans="1:33" ht="12.75">
@@ -10998,38 +11065,38 @@
         <v>8</v>
       </c>
       <c r="F49" s="75" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G49" s="1"/>
       <c r="L49" s="40">
         <v>14</v>
       </c>
       <c r="M49" s="68" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="P49" s="57" t="s">
         <v>308</v>
       </c>
       <c r="Q49" s="83" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="R49" s="55"/>
       <c r="S49" s="76" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="T49" s="86" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
       <c r="W49" s="89" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="X49" s="55"/>
       <c r="AA49" s="1">
@@ -11048,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="AG49" s="65" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="12.75">
@@ -11065,38 +11132,38 @@
         <v>9</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G50" s="1"/>
       <c r="L50" s="40">
         <v>15</v>
       </c>
       <c r="M50" s="68" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="P50" s="57" t="s">
         <v>309</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="R50" s="55"/>
       <c r="S50" s="76" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="T50" s="86" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
       <c r="W50" s="89" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="X50" s="55"/>
       <c r="AA50" s="1">
@@ -11115,7 +11182,7 @@
         <v>5</v>
       </c>
       <c r="AG50" s="75" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="12.75">
@@ -11132,7 +11199,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="99" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="L51" s="40">
         <v>16</v>
@@ -11150,17 +11217,17 @@
         <v>310</v>
       </c>
       <c r="Q51" s="83" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="R51" s="55"/>
       <c r="S51" s="55"/>
       <c r="T51" s="86" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
       <c r="W51" s="89" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="X51" s="55"/>
       <c r="AA51" s="1">
@@ -11179,7 +11246,7 @@
         <v>6</v>
       </c>
       <c r="AG51" s="105" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="12.75">
@@ -11196,7 +11263,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
@@ -11227,17 +11294,17 @@
         <v>311</v>
       </c>
       <c r="Q52" s="83" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="R52" s="55"/>
       <c r="S52" s="55"/>
       <c r="T52" s="86" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
       <c r="W52" s="89" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="X52" s="55"/>
       <c r="AA52" s="1">
@@ -11256,7 +11323,7 @@
         <v>7</v>
       </c>
       <c r="AG52" s="75" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="12.75">
@@ -11273,7 +11340,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="45" t="s">
@@ -11286,7 +11353,7 @@
         <v>366</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="O53" s="64" t="s">
         <v>398</v>
@@ -11295,17 +11362,17 @@
         <v>312</v>
       </c>
       <c r="Q53" s="83" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
       <c r="T53" s="86" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
       <c r="W53" s="89" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="X53" s="55"/>
       <c r="AA53" s="1">
@@ -11324,7 +11391,7 @@
         <v>8</v>
       </c>
       <c r="AG53" s="101" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:33" ht="12.75">
@@ -11341,7 +11408,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G54" s="1"/>
       <c r="L54" s="40">
@@ -11351,7 +11418,7 @@
         <v>366</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="O54" s="64" t="s">
         <v>398</v>
@@ -11360,17 +11427,17 @@
         <v>313</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="R54" s="55"/>
       <c r="S54" s="55"/>
       <c r="T54" s="86" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
       <c r="W54" s="89" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="X54" s="55"/>
       <c r="AA54" s="1">
@@ -11389,7 +11456,7 @@
         <v>9</v>
       </c>
       <c r="AG54" s="74" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="12.75">
@@ -11406,7 +11473,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -11425,26 +11492,26 @@
         <v>366</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="P55" s="57" t="s">
         <v>318</v>
       </c>
       <c r="Q55" s="83" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
       <c r="T55" s="86" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
       <c r="W55" s="89" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="X55" s="55"/>
       <c r="AA55" s="1">
@@ -11463,7 +11530,7 @@
         <v>10</v>
       </c>
       <c r="AG55" s="100" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="12.75">
@@ -11480,7 +11547,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G56" s="1"/>
       <c r="L56" s="40">
@@ -11490,26 +11557,26 @@
         <v>366</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P56" s="55" t="s">
         <v>330</v>
       </c>
       <c r="Q56" s="83" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="86" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="89" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="X56" s="55"/>
       <c r="AA56" s="1">
@@ -11528,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="AG56" s="105" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="12.75">
@@ -11558,26 +11625,26 @@
         <v>366</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="P57" s="55" t="s">
         <v>331</v>
       </c>
       <c r="Q57" s="83" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="R57" s="55"/>
       <c r="S57" s="55"/>
       <c r="T57" s="92" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="89" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="X57" s="55"/>
       <c r="AA57" s="1">
@@ -11596,7 +11663,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="65" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="12.75">
@@ -11613,7 +11680,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G58" s="1"/>
       <c r="L58" s="40">
@@ -11623,14 +11690,14 @@
         <v>366</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="P58" s="55"/>
       <c r="Q58" s="83" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="R58" s="55"/>
       <c r="S58" s="55"/>
@@ -11638,7 +11705,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="89" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="X58" s="55"/>
       <c r="AA58" s="1">
@@ -11658,7 +11725,7 @@
         <v>3</v>
       </c>
       <c r="AG58" s="75" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="12.75">
@@ -11675,7 +11742,7 @@
         <v>18</v>
       </c>
       <c r="F59" s="103" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="45" t="s">
@@ -11688,14 +11755,14 @@
         <v>366</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="P59" s="55"/>
       <c r="Q59" s="83" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="R59" s="55"/>
       <c r="S59" s="55"/>
@@ -11703,7 +11770,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
       <c r="W59" s="89" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="X59" s="55"/>
       <c r="AA59" s="1">
@@ -11723,7 +11790,7 @@
         <v>4</v>
       </c>
       <c r="AG59" s="75" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="12.75">
@@ -11741,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L60" s="40">
         <v>25</v>
@@ -11750,14 +11817,14 @@
         <v>366</v>
       </c>
       <c r="N60" s="63" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P60" s="55"/>
       <c r="Q60" s="83" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
@@ -11765,7 +11832,7 @@
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
       <c r="W60" s="89" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="X60" s="55"/>
       <c r="AA60" s="106">
@@ -11784,7 +11851,7 @@
         <v>5</v>
       </c>
       <c r="AG60" s="75" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="12.75">
@@ -11801,7 +11868,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I61" s="45" t="s">
         <v>84</v>
@@ -11813,14 +11880,14 @@
         <v>366</v>
       </c>
       <c r="N61" s="63" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="P61" s="55"/>
       <c r="Q61" s="83" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
@@ -11828,7 +11895,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
       <c r="W61" s="89" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="X61" s="55"/>
       <c r="AA61" s="1">
@@ -11847,7 +11914,7 @@
         <v>6</v>
       </c>
       <c r="AG61" s="75" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="12.75">
@@ -11864,23 +11931,23 @@
         <v>3</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="L62" s="40">
         <v>27</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N62" s="63" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="P62" s="55"/>
       <c r="Q62" s="83" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -11888,7 +11955,7 @@
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
       <c r="W62" s="89" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="X62" s="55"/>
       <c r="AA62" s="1">
@@ -11908,7 +11975,7 @@
         <v>7</v>
       </c>
       <c r="AG62" s="74" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="63" spans="1:33" ht="12.75">
@@ -11928,17 +11995,17 @@
         <v>28</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P63" s="55"/>
       <c r="Q63" s="83" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="R63" s="55"/>
       <c r="S63" s="55"/>
@@ -11946,7 +12013,7 @@
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
       <c r="W63" s="89" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="X63" s="55"/>
       <c r="AA63" s="1">
@@ -11966,7 +12033,7 @@
         <v>8</v>
       </c>
       <c r="AG63" s="105" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="64" spans="1:33" ht="12.75">
@@ -11980,7 +12047,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="102" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="L64" s="40">
         <v>29</v>
@@ -11989,14 +12056,14 @@
         <v>397</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P64" s="55"/>
       <c r="Q64" s="83" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="R64" s="55"/>
       <c r="S64" s="55"/>
@@ -12022,7 +12089,7 @@
         <v>9</v>
       </c>
       <c r="AG64" s="97" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65" spans="2:33" ht="12.75">
@@ -12036,23 +12103,23 @@
         <v>6</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="L65" s="40">
         <v>30</v>
       </c>
       <c r="M65" s="71" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P65" s="55"/>
       <c r="Q65" s="83" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
@@ -12077,7 +12144,7 @@
         <v>10</v>
       </c>
       <c r="AG65" s="97" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="66" spans="2:33" ht="12.75">
@@ -12091,23 +12158,23 @@
         <v>7</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L66" s="40">
         <v>31</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="N66" s="63" t="s">
         <v>326</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="P66" s="55"/>
       <c r="Q66" s="83" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
@@ -12133,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="AG66" s="105" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="67" spans="2:33" ht="12.75">
@@ -12147,23 +12214,23 @@
         <v>8</v>
       </c>
       <c r="F67" s="103" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="L67" s="40">
         <v>32</v>
       </c>
       <c r="M67" s="71" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="N67" s="63" t="s">
         <v>326</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P67" s="55"/>
       <c r="Q67" s="83" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
@@ -12189,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="AG67" s="65" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="68" spans="2:33" ht="12.75">
@@ -12203,23 +12270,23 @@
         <v>9</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L68" s="40">
         <v>33</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="N68" s="63" t="s">
         <v>325</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P68" s="55"/>
       <c r="Q68" s="83" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
@@ -12245,7 +12312,7 @@
         <v>3</v>
       </c>
       <c r="AG68" s="75" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="69" spans="2:33" ht="12.75">
@@ -12259,7 +12326,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="100" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="L69" s="40">
         <v>34</v>
@@ -12271,7 +12338,7 @@
         <v>325</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
@@ -12298,7 +12365,7 @@
         <v>4</v>
       </c>
       <c r="AG69" s="75" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="70" spans="2:33" ht="12.75">
@@ -12315,7 +12382,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="100" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="L70" s="40">
         <v>35</v>
@@ -12324,10 +12391,10 @@
         <v>326</v>
       </c>
       <c r="N70" s="63" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
@@ -12354,7 +12421,7 @@
         <v>5</v>
       </c>
       <c r="AG70" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="71" spans="2:33" ht="12.75">
@@ -12368,7 +12435,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="L71" s="40">
         <v>36</v>
@@ -12377,7 +12444,7 @@
         <v>325</v>
       </c>
       <c r="N71" s="63" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
@@ -12406,7 +12473,7 @@
         <v>6</v>
       </c>
       <c r="AG71" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="72" spans="2:33" ht="12.75">
@@ -12420,7 +12487,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="L72" s="40">
         <v>37</v>
@@ -12429,7 +12496,7 @@
         <v>325</v>
       </c>
       <c r="N72" s="63" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
@@ -12458,7 +12525,7 @@
         <v>7</v>
       </c>
       <c r="AG72" s="65" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="73" spans="2:33" ht="12.75">
@@ -12472,7 +12539,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L73" s="40">
         <v>38</v>
@@ -12481,7 +12548,7 @@
         <v>325</v>
       </c>
       <c r="N73" s="63" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
@@ -12509,7 +12576,7 @@
         <v>8</v>
       </c>
       <c r="AG73" s="102" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="2:33" ht="12.75">
@@ -12529,10 +12596,10 @@
         <v>39</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
@@ -12560,7 +12627,7 @@
         <v>9</v>
       </c>
       <c r="AG74" s="100" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="75" spans="2:33" ht="12.75">
@@ -12574,16 +12641,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L75" s="40">
         <v>40</v>
       </c>
       <c r="M75" s="71" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="N75" s="63" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="O75" s="55"/>
       <c r="P75" s="55"/>
@@ -12611,7 +12678,7 @@
         <v>10</v>
       </c>
       <c r="AG75" s="101" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="76" spans="2:33" ht="12.75">
@@ -12625,16 +12692,16 @@
         <v>17</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="L76" s="40">
         <v>41</v>
       </c>
       <c r="M76" s="71" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="O76" s="55"/>
       <c r="P76" s="55"/>
@@ -12662,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="AG76" s="105" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="77" spans="2:33" ht="12.75">
@@ -12676,19 +12743,19 @@
         <v>18</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="G77" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="L77" s="40">
         <v>42</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O77" s="55"/>
       <c r="P77" s="55"/>
@@ -12717,7 +12784,7 @@
         <v>2</v>
       </c>
       <c r="AG77" s="65" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="78" spans="2:33" ht="12.75">
@@ -12732,16 +12799,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L78" s="40">
         <v>43</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N78" s="63" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="O78" s="55"/>
       <c r="P78" s="55"/>
@@ -12769,7 +12836,7 @@
         <v>3</v>
       </c>
       <c r="AG78" s="75" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="2:33" ht="12.75">
@@ -12783,16 +12850,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L79" s="40">
         <v>44</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N79" s="63" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="O79" s="55"/>
       <c r="P79" s="55"/>
@@ -12821,7 +12888,7 @@
         <v>4</v>
       </c>
       <c r="AG79" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="80" spans="2:33" ht="12.75">
@@ -12835,16 +12902,16 @@
         <v>3</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L80" s="40">
         <v>45</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="N80" s="63" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="O80" s="55"/>
       <c r="P80" s="55"/>
@@ -12873,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="AG80" s="75" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="2:35" ht="12.75">
@@ -12887,14 +12954,14 @@
         <v>4</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L81" s="40">
         <v>46</v>
       </c>
       <c r="M81" s="55"/>
       <c r="N81" s="63" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="O81" s="55"/>
       <c r="P81" s="55"/>
@@ -12923,10 +12990,10 @@
         <v>6</v>
       </c>
       <c r="AG81" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="AI81" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="82" spans="2:35" ht="12.75">
@@ -12940,14 +13007,14 @@
         <v>5</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L82" s="40">
         <v>47</v>
       </c>
       <c r="M82" s="55"/>
       <c r="N82" s="63" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="O82" s="55"/>
       <c r="P82" s="55"/>
@@ -12976,7 +13043,7 @@
         <v>7</v>
       </c>
       <c r="AG82" s="115" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="83" spans="2:35" ht="12.75">
@@ -12993,14 +13060,14 @@
         <v>6</v>
       </c>
       <c r="F83" s="102" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L83" s="40">
         <v>48</v>
       </c>
       <c r="M83" s="55"/>
       <c r="N83" s="63" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="O83" s="55"/>
       <c r="P83" s="55"/>
@@ -13028,7 +13095,7 @@
         <v>8</v>
       </c>
       <c r="AG83" s="102" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="2:35" ht="12.75">
@@ -13042,14 +13109,14 @@
         <v>7</v>
       </c>
       <c r="F84" s="98" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L84" s="40">
         <v>49</v>
       </c>
       <c r="M84" s="55"/>
       <c r="N84" s="81" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="O84" s="55"/>
       <c r="P84" s="55"/>
@@ -13078,7 +13145,7 @@
         <v>9</v>
       </c>
       <c r="AG84" s="74" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="85" spans="2:35" ht="12.75">
@@ -13092,14 +13159,14 @@
         <v>8</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="L85" s="40">
         <v>50</v>
       </c>
       <c r="M85" s="55"/>
       <c r="N85" s="81" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -13128,7 +13195,7 @@
         <v>10</v>
       </c>
       <c r="AG85" s="105" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="86" spans="2:35" ht="12.75">
@@ -13142,14 +13209,14 @@
         <v>9</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="L86" s="40">
         <v>51</v>
       </c>
       <c r="M86" s="55"/>
       <c r="N86" s="63" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -13177,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="AG86" s="105" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="87" spans="2:35" ht="12.75">
@@ -13191,7 +13258,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="65" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -13245,7 +13312,7 @@
         <v>2</v>
       </c>
       <c r="AG87" s="65" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="88" spans="2:35" ht="12.75">
@@ -13259,7 +13326,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="75" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M88">
         <v>27</v>
@@ -13295,7 +13362,7 @@
         <v>3</v>
       </c>
       <c r="AG88" s="75" t="s">
-        <v>1099</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="89" spans="2:35" ht="12.75">
@@ -13309,10 +13376,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="65" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T89" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AA89" s="1">
         <v>84</v>
@@ -13330,7 +13397,7 @@
         <v>4</v>
       </c>
       <c r="AG89" s="105" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="90" spans="2:35" ht="12.75">
@@ -13344,10 +13411,10 @@
         <v>13</v>
       </c>
       <c r="F90" s="97" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="T90" s="58" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="U90">
         <v>3</v>
@@ -13378,7 +13445,7 @@
         <v>5</v>
       </c>
       <c r="AG90" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="91" spans="2:35" ht="12.75">
@@ -13392,10 +13459,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="100" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="T91" s="58" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="U91">
         <v>3.4</v>
@@ -13426,7 +13493,7 @@
         <v>6</v>
       </c>
       <c r="AG91" s="97" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="92" spans="2:35" ht="12.75">
@@ -13440,10 +13507,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="100" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="T92" s="58" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -13475,7 +13542,7 @@
         <v>7</v>
       </c>
       <c r="AG92" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="93" spans="2:35" ht="12.75">
@@ -13489,10 +13556,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="T93" s="58" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="U93">
         <v>2.4</v>
@@ -13523,7 +13590,7 @@
         <v>8</v>
       </c>
       <c r="AG93" s="114" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="94" spans="2:35" ht="12.75">
@@ -13540,10 +13607,10 @@
         <v>17</v>
       </c>
       <c r="F94" s="105" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="T94" s="58" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -13575,7 +13642,7 @@
         <v>9</v>
       </c>
       <c r="AG94" s="114" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="95" spans="2:35" ht="12.75">
@@ -13589,10 +13656,10 @@
         <v>18</v>
       </c>
       <c r="F95" s="103" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="T95" s="58" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="U95">
         <v>0.47</v>
@@ -13623,7 +13690,7 @@
         <v>10</v>
       </c>
       <c r="AG95" s="114" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="96" spans="2:35" ht="12.75">
@@ -13638,10 +13705,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="105" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="T96" s="58" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="U96">
         <v>0.8</v>
@@ -13673,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="AG96" s="105" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="2:33" ht="12.75">
@@ -13687,10 +13754,10 @@
         <v>2</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="T97" s="58" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="U97">
         <v>1.47</v>
@@ -13721,7 +13788,7 @@
         <v>2</v>
       </c>
       <c r="AG97" s="65" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="98" spans="2:33" ht="12.75">
@@ -13735,10 +13802,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="75" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="T98" s="58" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="U98">
         <v>0.6</v>
@@ -13770,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="AG98" s="75" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="2:33" ht="12.75">
@@ -13784,10 +13851,10 @@
         <v>4</v>
       </c>
       <c r="F99" s="102" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="T99" s="58" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -13819,7 +13886,7 @@
         <v>4</v>
       </c>
       <c r="AG99" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="100" spans="2:33" ht="12.75">
@@ -13833,10 +13900,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="T100" s="58" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="U100">
         <v>0.27</v>
@@ -13868,7 +13935,7 @@
         <v>5</v>
       </c>
       <c r="AG100" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="101" spans="2:33" ht="12.75">
@@ -13882,10 +13949,10 @@
         <v>6</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="T101" s="58" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="U101">
         <v>0.26</v>
@@ -13917,7 +13984,7 @@
         <v>6</v>
       </c>
       <c r="AG101" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="102" spans="2:33" ht="12.75">
@@ -13931,10 +13998,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="T102" s="45" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="U102">
         <v>0.34</v>
@@ -13966,7 +14033,7 @@
         <v>7</v>
       </c>
       <c r="AG102" s="105" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="103" spans="2:33" ht="12.75">
@@ -13980,7 +14047,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="74" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="T103" s="45"/>
       <c r="AA103" s="1">
@@ -13999,7 +14066,7 @@
         <v>8</v>
       </c>
       <c r="AG103" s="114" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="104" spans="2:33" ht="12.75">
@@ -14013,7 +14080,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="AA104" s="1">
         <v>99</v>
@@ -14032,7 +14099,7 @@
         <v>9</v>
       </c>
       <c r="AG104" s="114" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="105" spans="2:33" ht="12.75">
@@ -14046,7 +14113,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="75" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AA105" s="1">
         <v>100</v>
@@ -14064,7 +14131,7 @@
         <v>10</v>
       </c>
       <c r="AG105" s="100" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106" spans="2:33" ht="12.75">
@@ -14097,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="AG106" s="105" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="107" spans="2:33" ht="12.75">
@@ -14111,7 +14178,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="100" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AA107" s="1">
         <v>102</v>
@@ -14129,7 +14196,7 @@
         <v>2</v>
       </c>
       <c r="AG107" s="65" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="108" spans="2:33" ht="12.75">
@@ -14146,7 +14213,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="75" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AA108" s="1">
         <v>103</v>
@@ -14165,7 +14232,7 @@
         <v>3</v>
       </c>
       <c r="AG108" s="75" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="109" spans="2:33" ht="12.75">
@@ -14179,10 +14246,10 @@
         <v>14</v>
       </c>
       <c r="F109" s="74" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="G109" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="U109">
         <f>SUM(U90:U104)</f>
@@ -14213,7 +14280,7 @@
         <v>4</v>
       </c>
       <c r="AG109" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="110" spans="2:33" ht="12.75">
@@ -14227,7 +14294,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AA110" s="1">
         <v>105</v>
@@ -14245,7 +14312,7 @@
         <v>5</v>
       </c>
       <c r="AG110" s="105" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="111" spans="2:33" ht="12.75">
@@ -14259,7 +14326,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="97" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AA111" s="1">
         <v>106</v>
@@ -14278,7 +14345,7 @@
         <v>6</v>
       </c>
       <c r="AG111" s="75" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="112" spans="2:33" ht="12.75">
@@ -14292,14 +14359,14 @@
         <v>17</v>
       </c>
       <c r="F112" s="105" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N112">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
       <c r="T112" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AA112" s="1">
         <v>107</v>
@@ -14318,7 +14385,7 @@
         <v>7</v>
       </c>
       <c r="AG112" s="74" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="113" spans="2:38" ht="12.75">
@@ -14332,7 +14399,7 @@
         <v>18</v>
       </c>
       <c r="F113" s="75" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L113" s="45"/>
       <c r="M113">
@@ -14351,7 +14418,7 @@
         <v>4</v>
       </c>
       <c r="T113" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="U113">
         <v>16.5</v>
@@ -14376,7 +14443,7 @@
         <v>16</v>
       </c>
       <c r="AD113" s="103" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AE113" t="s">
         <v>37</v>
@@ -14385,7 +14452,7 @@
         <v>8</v>
       </c>
       <c r="AG113" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="114" spans="2:38" ht="12.75">
@@ -14400,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="105" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114">
@@ -14415,7 +14482,7 @@
         <v>7</v>
       </c>
       <c r="T114" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="U114">
         <v>0.5</v>
@@ -14440,7 +14507,7 @@
         <v>17</v>
       </c>
       <c r="AD114" s="75" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="AE114" t="s">
         <v>37</v>
@@ -14449,7 +14516,7 @@
         <v>9</v>
       </c>
       <c r="AG114" s="114" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="115" spans="2:38" ht="12.75">
@@ -14463,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115">
@@ -14478,7 +14545,7 @@
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="U115">
         <v>0.5</v>
@@ -14510,7 +14577,7 @@
         <v>10</v>
       </c>
       <c r="AG115" s="99" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="116" spans="2:38" ht="12.75">
@@ -14524,7 +14591,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="75" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116">
@@ -14539,7 +14606,7 @@
         <v>20</v>
       </c>
       <c r="T116" s="45" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="U116">
         <v>0.5</v>
@@ -14571,10 +14638,10 @@
         <v>1</v>
       </c>
       <c r="AG116" s="105" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="AI116" t="s">
-        <v>1127</v>
+        <v>1109</v>
       </c>
       <c r="AJ116">
         <v>15</v>
@@ -14591,7 +14658,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="102" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117">
@@ -14629,10 +14696,10 @@
         <v>2</v>
       </c>
       <c r="AG117" s="65" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="AI117" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="AJ117">
         <v>15</v>
@@ -14649,7 +14716,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="98" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="M118">
         <v>6</v>
@@ -14686,10 +14753,10 @@
         <v>3</v>
       </c>
       <c r="AG118" s="75" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AI118" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
       <c r="AJ118">
         <v>15</v>
@@ -14706,7 +14773,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="97" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119">
@@ -14745,10 +14812,10 @@
         <v>4</v>
       </c>
       <c r="AG119" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="AI119" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="AJ119">
         <v>5</v>
@@ -14765,7 +14832,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="97" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="M120">
         <v>8</v>
@@ -14795,7 +14862,7 @@
         <v>5</v>
       </c>
       <c r="AG120" s="75" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="AI120" t="s">
         <v>101</v>
@@ -14804,7 +14871,7 @@
         <v>6</v>
       </c>
       <c r="AL120" s="65" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="2:38" ht="12.75">
@@ -14818,7 +14885,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="65" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M121">
         <v>9</v>
@@ -14848,16 +14915,16 @@
         <v>6</v>
       </c>
       <c r="AG121" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="AI121" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="AJ121">
         <v>6</v>
       </c>
       <c r="AL121" s="74" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="2:38" ht="12.75">
@@ -14871,7 +14938,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="103" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="M122">
         <v>10</v>
@@ -14901,16 +14968,16 @@
         <v>7</v>
       </c>
       <c r="AG122" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="AI122" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="AJ122">
         <v>3</v>
       </c>
       <c r="AL122" s="75" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="2:38" ht="12.75">
@@ -14924,7 +14991,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="105" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M123">
         <v>11</v>
@@ -14947,7 +15014,7 @@
         <v>8</v>
       </c>
       <c r="AD123" s="100" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AE123" t="s">
         <v>39</v>
@@ -14956,16 +15023,16 @@
         <v>8</v>
       </c>
       <c r="AG123" s="114" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="AI123" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="AJ123">
         <v>3</v>
       </c>
       <c r="AL123" s="65" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
     </row>
     <row r="124" spans="2:38" ht="12.75">
@@ -14979,7 +15046,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M124">
         <v>12</v>
@@ -15009,16 +15076,16 @@
         <v>9</v>
       </c>
       <c r="AG124" s="114" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="AI124" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="AJ124">
         <v>3</v>
       </c>
       <c r="AL124" s="100" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="2:38" ht="12.75">
@@ -15032,7 +15099,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="101" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M125">
         <v>13</v>
@@ -15062,7 +15129,7 @@
         <v>10</v>
       </c>
       <c r="AG125" s="114" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="AI125" t="s">
         <v>314</v>
@@ -15071,7 +15138,7 @@
         <v>5</v>
       </c>
       <c r="AL125" s="97" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
     </row>
     <row r="126" spans="2:38" ht="12.75">
@@ -15085,7 +15152,7 @@
         <v>13</v>
       </c>
       <c r="F126" s="105" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="M126">
         <v>14</v>
@@ -15108,7 +15175,7 @@
         <v>11</v>
       </c>
       <c r="AD126" s="75" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="AE126" s="107" t="s">
         <v>41</v>
@@ -15117,13 +15184,13 @@
         <v>1</v>
       </c>
       <c r="AG126" s="105" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="AI126" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="AL126" s="75" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="2:38" ht="12.75">
@@ -15137,7 +15204,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="74" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M127">
         <v>15</v>
@@ -15160,7 +15227,7 @@
         <v>12</v>
       </c>
       <c r="AD127" s="74" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="AE127" t="s">
         <v>41</v>
@@ -15169,16 +15236,16 @@
         <v>2</v>
       </c>
       <c r="AG127" s="65" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="AI127" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
       <c r="AJ127">
         <v>4</v>
       </c>
       <c r="AL127" s="100" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="2:38" ht="12.75">
@@ -15192,7 +15259,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="100" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M128">
         <v>16</v>
@@ -15222,16 +15289,16 @@
         <v>3</v>
       </c>
       <c r="AG128" s="75" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="AI128" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="AJ128">
         <v>5</v>
       </c>
       <c r="AL128" s="74" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="129" spans="2:38" ht="12.75">
@@ -15248,7 +15315,7 @@
         <v>16</v>
       </c>
       <c r="F129" s="99" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="M129">
         <v>17</v>
@@ -15278,13 +15345,13 @@
         <v>4</v>
       </c>
       <c r="AG129" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="AI129" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="AJ129" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="AL129" s="74"/>
     </row>
@@ -15299,7 +15366,7 @@
         <v>17</v>
       </c>
       <c r="F130" s="75" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M130">
         <v>18</v>
@@ -15322,7 +15389,7 @@
         <v>15</v>
       </c>
       <c r="AD130" s="65" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AE130" t="s">
         <v>41</v>
@@ -15331,16 +15398,16 @@
         <v>5</v>
       </c>
       <c r="AG130" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="AI130" t="s">
-        <v>1131</v>
+        <v>1113</v>
       </c>
       <c r="AJ130">
         <v>4</v>
       </c>
       <c r="AL130" s="100" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
     </row>
     <row r="131" spans="2:38" ht="12.75">
@@ -15354,7 +15421,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="105" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="M131">
         <v>19</v>
@@ -15377,7 +15444,7 @@
         <v>16</v>
       </c>
       <c r="AD131" s="100" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AE131" t="s">
         <v>41</v>
@@ -15386,16 +15453,16 @@
         <v>6</v>
       </c>
       <c r="AG131" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="AI131" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="AJ131">
         <v>3</v>
       </c>
       <c r="AL131" s="103" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="2:38" ht="12.75">
@@ -15410,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="105" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L132" s="45" t="s">
         <v>337</v>
@@ -15443,16 +15510,16 @@
         <v>7</v>
       </c>
       <c r="AG132" s="115" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="AI132" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="AJ132">
         <v>2</v>
       </c>
       <c r="AL132" s="75" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="2:38" ht="12.75">
@@ -15466,7 +15533,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="65" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L133" t="s">
         <v>339</v>
@@ -15499,16 +15566,16 @@
         <v>8</v>
       </c>
       <c r="AG133" s="102" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AI133" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="AJ133">
         <v>2</v>
       </c>
       <c r="AL133" s="65" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="2:38" ht="12.75">
@@ -15522,7 +15589,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L134" s="45" t="s">
         <v>338</v>
@@ -15555,16 +15622,16 @@
         <v>9</v>
       </c>
       <c r="AG134" s="114" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="AI134" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="AJ134">
         <v>4</v>
       </c>
       <c r="AL134" s="105" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="2:38" ht="12.75">
@@ -15578,7 +15645,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="102" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M135">
         <v>23</v>
@@ -15608,10 +15675,10 @@
         <v>10</v>
       </c>
       <c r="AG135" s="114" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="AI135" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="AJ135">
         <v>2</v>
@@ -15631,7 +15698,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="97" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L136" t="s">
         <v>341</v>
@@ -15664,16 +15731,16 @@
         <v>1</v>
       </c>
       <c r="AG136" s="105" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="AI136" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="AJ136">
         <v>3</v>
       </c>
       <c r="AL136" s="74" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" spans="2:38" ht="12.75">
@@ -15687,7 +15754,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="103" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="M137">
         <v>25</v>
@@ -15716,16 +15783,16 @@
         <v>2</v>
       </c>
       <c r="AG137" s="65" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="AI137" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="AJ137">
         <v>3</v>
       </c>
       <c r="AL137" s="105" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="138" spans="2:38" ht="12.75">
@@ -15739,7 +15806,7 @@
         <v>7</v>
       </c>
       <c r="F138" s="74" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M138">
         <v>26</v>
@@ -15769,16 +15836,16 @@
         <v>3</v>
       </c>
       <c r="AG138" s="75" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AI138" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="AJ138">
         <v>2</v>
       </c>
       <c r="AL138" s="100" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="2:38" ht="12.75">
@@ -15792,7 +15859,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M139">
         <v>27</v>
@@ -15822,16 +15889,16 @@
         <v>4</v>
       </c>
       <c r="AG139" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="AI139" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="AJ139">
         <v>2</v>
       </c>
       <c r="AL139" s="100" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="140" spans="2:38" ht="12.75">
@@ -15845,7 +15912,7 @@
         <v>9</v>
       </c>
       <c r="F140" s="100" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="M140">
         <v>28</v>
@@ -15875,16 +15942,16 @@
         <v>5</v>
       </c>
       <c r="AG140" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="AI140" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="AJ140">
         <v>2</v>
       </c>
       <c r="AL140" s="103" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="2:38" ht="12.75">
@@ -15898,7 +15965,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M141">
         <v>29</v>
@@ -15927,16 +15994,16 @@
         <v>6</v>
       </c>
       <c r="AG141" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="AI141" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="AJ141">
         <v>2</v>
       </c>
       <c r="AL141" s="101" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142" spans="2:38" ht="12.75">
@@ -15950,7 +16017,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="105" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M142">
         <v>30</v>
@@ -15979,16 +16046,16 @@
         <v>7</v>
       </c>
       <c r="AG142" s="115" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="AI142" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="AJ142">
         <v>2</v>
       </c>
       <c r="AL142" s="74" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="2:38" ht="12.75">
@@ -16002,7 +16069,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="75" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M143">
         <v>31</v>
@@ -16031,13 +16098,13 @@
         <v>8</v>
       </c>
       <c r="AG143" s="114" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="AI143" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="AL143" s="74" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="2:38" ht="12.75">
@@ -16051,7 +16118,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="97" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="M144">
         <v>32</v>
@@ -16081,13 +16148,13 @@
         <v>9</v>
       </c>
       <c r="AG144" s="114" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="AI144" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="AL144" s="74" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="2:38" ht="12.75">
@@ -16101,7 +16168,7 @@
         <v>14</v>
       </c>
       <c r="F145" s="74" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M145">
         <v>33</v>
@@ -16124,7 +16191,7 @@
         <v>12</v>
       </c>
       <c r="AD145" s="74" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AE145" t="s">
         <v>45</v>
@@ -16133,10 +16200,10 @@
         <v>10</v>
       </c>
       <c r="AG145" s="114" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="AI145" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="AJ145">
         <v>2</v>
@@ -16156,7 +16223,7 @@
         <v>15</v>
       </c>
       <c r="F146" s="105" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M146">
         <v>34</v>
@@ -16186,13 +16253,13 @@
         <v>1</v>
       </c>
       <c r="AG146" s="105" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="AI146" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="AL146" s="75" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="2:38" ht="12.75">
@@ -16206,7 +16273,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="75" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="M147">
         <v>35</v>
@@ -16229,7 +16296,7 @@
         <v>14</v>
       </c>
       <c r="AD147" s="65" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AE147" t="s">
         <v>46</v>
@@ -16238,13 +16305,13 @@
         <v>2</v>
       </c>
       <c r="AG147" s="65" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="AI147" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="AL147" s="75" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="148" spans="2:38" ht="12.75">
@@ -16258,7 +16325,7 @@
         <v>17</v>
       </c>
       <c r="F148" s="99" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="M148">
         <v>36</v>
@@ -16281,7 +16348,7 @@
         <v>15</v>
       </c>
       <c r="AD148" s="75" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AE148" t="s">
         <v>46</v>
@@ -16290,13 +16357,13 @@
         <v>3</v>
       </c>
       <c r="AG148" s="75" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="AI148" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="AL148" s="105" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="2:38" ht="12.75">
@@ -16313,7 +16380,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="100" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="M149">
         <v>37</v>
@@ -16336,7 +16403,7 @@
         <v>16</v>
       </c>
       <c r="AD149" s="100" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AE149" t="s">
         <v>46</v>
@@ -16345,16 +16412,16 @@
         <v>4</v>
       </c>
       <c r="AG149" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="AI149" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="AJ149">
         <v>3</v>
       </c>
       <c r="AL149" s="102" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
     </row>
     <row r="150" spans="2:38" ht="12.75">
@@ -16369,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="105" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M150">
         <v>38</v>
@@ -16392,7 +16459,7 @@
         <v>17</v>
       </c>
       <c r="AD150" s="74" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AE150" t="s">
         <v>46</v>
@@ -16401,13 +16468,13 @@
         <v>5</v>
       </c>
       <c r="AG150" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="AI150" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="AL150" s="101" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
     </row>
     <row r="151" spans="2:38" ht="12.75">
@@ -16421,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M151">
         <v>39</v>
@@ -16444,7 +16511,7 @@
         <v>18</v>
       </c>
       <c r="AD151" s="103" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AE151" t="s">
         <v>46</v>
@@ -16453,16 +16520,16 @@
         <v>6</v>
       </c>
       <c r="AG151" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="AI151" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="AL151" s="100" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
     </row>
     <row r="152" spans="2:38" ht="12.75">
@@ -16476,7 +16543,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="75" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M152">
         <v>40</v>
@@ -16499,7 +16566,7 @@
         <v>5</v>
       </c>
       <c r="AD152" s="74" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AE152" t="s">
         <v>46</v>
@@ -16508,13 +16575,13 @@
         <v>7</v>
       </c>
       <c r="AG152" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="AI152" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="AL152" s="103" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
     </row>
     <row r="153" spans="2:38" ht="12.75">
@@ -16531,7 +16598,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="102" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M153">
         <v>41</v>
@@ -16554,7 +16621,7 @@
         <v>6</v>
       </c>
       <c r="AD153" s="105" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AE153" t="s">
         <v>46</v>
@@ -16563,13 +16630,13 @@
         <v>8</v>
       </c>
       <c r="AG153" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="AI153" t="s">
         <v>94</v>
       </c>
       <c r="AL153" s="105" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="2:38" ht="12.75">
@@ -16583,7 +16650,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="97" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M154">
         <v>42</v>
@@ -16613,13 +16680,13 @@
         <v>9</v>
       </c>
       <c r="AG154" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="AI154" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="AL154" s="65" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="2:38" ht="12.75">
@@ -16666,13 +16733,13 @@
         <v>10</v>
       </c>
       <c r="AG155" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="AI155" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="AL155" s="97" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
     </row>
     <row r="156" spans="2:38" ht="12.75">
@@ -16686,7 +16753,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="75" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M156">
         <v>44</v>
@@ -16709,22 +16776,22 @@
         <v>9</v>
       </c>
       <c r="AD156" s="104" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AE156" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF156">
         <v>1</v>
       </c>
       <c r="AG156" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="AI156" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="AL156" s="105" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
     </row>
     <row r="157" spans="2:38" ht="12.75">
@@ -16738,7 +16805,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M157">
         <v>45</v>
@@ -16761,22 +16828,22 @@
         <v>10</v>
       </c>
       <c r="AD157" s="98" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AE157" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF157">
         <v>2</v>
       </c>
       <c r="AG157" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="AI157" s="114" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="AL157" s="99" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
     </row>
     <row r="158" spans="2:38" ht="12.75">
@@ -16790,7 +16857,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="100" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -16814,19 +16881,19 @@
       </c>
       <c r="AD158" s="97"/>
       <c r="AE158" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF158">
         <v>3</v>
       </c>
       <c r="AG158" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="AI158" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="AL158" s="97" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
     </row>
     <row r="159" spans="2:38" ht="12.75">
@@ -16840,7 +16907,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="M159">
         <v>47</v>
@@ -16863,19 +16930,19 @@
         <v>12</v>
       </c>
       <c r="AD159" s="75" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="AE159" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF159">
         <v>4</v>
       </c>
       <c r="AG159" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AI159" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="160" spans="2:38" ht="12.75">
@@ -16889,7 +16956,7 @@
         <v>11</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M160">
         <v>48</v>
@@ -16912,19 +16979,19 @@
         <v>13</v>
       </c>
       <c r="AD160" s="74" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="AE160" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF160">
         <v>5</v>
       </c>
       <c r="AG160" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="AI160" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="161" spans="2:37" ht="12.75">
@@ -16938,7 +17005,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="74" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M161">
         <v>49</v>
@@ -16962,16 +17029,16 @@
       </c>
       <c r="AD161" s="100"/>
       <c r="AE161" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF161">
         <v>6</v>
       </c>
       <c r="AG161" s="75" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="AI161" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="AJ161">
         <v>2</v>
@@ -16988,7 +17055,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="M162">
         <v>50</v>
@@ -17012,16 +17079,16 @@
       </c>
       <c r="AD162" s="105"/>
       <c r="AE162" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF162">
         <v>7</v>
       </c>
       <c r="AG162" s="75" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AI162" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="163" spans="2:37" ht="12.75">
@@ -17035,7 +17102,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="105" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M163">
         <v>51</v>
@@ -17058,19 +17125,19 @@
         <v>16</v>
       </c>
       <c r="AD163" s="75" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AE163" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF163">
         <v>8</v>
       </c>
       <c r="AG163" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="AI163" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="164" spans="2:37" ht="12.75">
@@ -17084,7 +17151,7 @@
         <v>15</v>
       </c>
       <c r="F164" s="74" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M164">
         <v>52</v>
@@ -17107,19 +17174,19 @@
         <v>17</v>
       </c>
       <c r="AD164" s="111" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="AE164" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF164">
         <v>9</v>
       </c>
       <c r="AG164" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="AI164" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="165" spans="2:37" ht="12.75">
@@ -17133,7 +17200,7 @@
         <v>16</v>
       </c>
       <c r="F165" s="103" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M165">
         <v>53</v>
@@ -17156,19 +17223,19 @@
         <v>18</v>
       </c>
       <c r="AD165" s="99" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AE165" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="AF165">
         <v>10</v>
       </c>
       <c r="AG165" s="103" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="AI165" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="166" spans="2:37" ht="12.75">
@@ -17182,7 +17249,7 @@
         <v>17</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="M166">
         <v>54</v>
@@ -17206,7 +17273,7 @@
       </c>
       <c r="AD166" s="102"/>
       <c r="AI166" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="167" spans="2:37" ht="12.75">
@@ -17220,7 +17287,7 @@
         <v>18</v>
       </c>
       <c r="F167" s="101" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="M167">
         <v>55</v>
@@ -17243,10 +17310,10 @@
         <v>5</v>
       </c>
       <c r="AD167" s="105" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="AI167" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="168" spans="2:37" ht="12.75">
@@ -17261,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="105" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M168">
         <v>56</v>
@@ -17285,7 +17352,7 @@
       </c>
       <c r="AD168" s="97"/>
       <c r="AI168" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="169" spans="2:37" ht="12.75">
@@ -17299,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M169">
         <v>57</v>
@@ -17323,7 +17390,7 @@
       </c>
       <c r="AD169" s="105"/>
       <c r="AI169" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="170" spans="2:37" ht="12.75">
@@ -17337,7 +17404,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M170">
         <v>58</v>
@@ -17360,10 +17427,10 @@
         <v>8</v>
       </c>
       <c r="AD170" s="65" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AI170" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="171" spans="2:37" ht="12.75">
@@ -17377,7 +17444,7 @@
         <v>4</v>
       </c>
       <c r="F171" s="105" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M171">
         <v>59</v>
@@ -17400,7 +17467,7 @@
         <v>9</v>
       </c>
       <c r="AD171" s="75" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="172" spans="2:37" ht="12.75">
@@ -17414,7 +17481,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="74" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M172">
         <v>60</v>
@@ -17437,7 +17504,7 @@
         <v>10</v>
       </c>
       <c r="AD172" s="74" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="2:37" ht="12.75">
@@ -17451,7 +17518,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="102" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M173">
         <v>61</v>
@@ -17474,7 +17541,7 @@
         <v>11</v>
       </c>
       <c r="AD173" s="100" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="174" spans="2:37" ht="15.75" customHeight="1">
@@ -17488,7 +17555,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="97" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="M174">
         <v>62</v>
@@ -17517,7 +17584,7 @@
         <v>1</v>
       </c>
       <c r="AK174" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="175" spans="2:37" ht="15.75" customHeight="1">
@@ -17531,7 +17598,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="100" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="M175">
         <v>63</v>
@@ -17554,7 +17621,7 @@
         <v>13</v>
       </c>
       <c r="AD175" s="100" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="AF175" s="67">
         <v>2</v>
@@ -17571,7 +17638,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="75" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="M176">
         <v>64</v>
@@ -17594,7 +17661,7 @@
         <v>14</v>
       </c>
       <c r="AD176" s="103" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="AF176" s="67">
         <v>3</v>
@@ -17611,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="F177" s="65" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M177">
         <v>65</v>
@@ -17649,7 +17716,7 @@
         <v>11</v>
       </c>
       <c r="F178" s="75" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -17672,7 +17739,7 @@
         <v>16</v>
       </c>
       <c r="AD178" s="74" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AF178" s="67">
         <v>5</v>
@@ -17689,10 +17756,10 @@
         <v>12</v>
       </c>
       <c r="F179" s="74" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="G179" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="M179">
         <v>67</v>
@@ -17733,7 +17800,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M180">
         <v>68</v>
@@ -17756,7 +17823,7 @@
         <v>18</v>
       </c>
       <c r="AD180" s="103" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="AF180" s="67">
         <v>7</v>
@@ -17773,7 +17840,7 @@
         <v>14</v>
       </c>
       <c r="F181" s="97" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="M181">
         <v>69</v>
@@ -17810,7 +17877,7 @@
         <v>15</v>
       </c>
       <c r="F182" s="65" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M182">
         <v>70</v>
@@ -17848,7 +17915,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="100" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="M183">
         <v>71</v>
@@ -17927,7 +17994,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="97" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="M185">
         <v>73</v>
@@ -17966,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="105" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M186">
         <v>74</v>
@@ -17989,7 +18056,7 @@
         <v>9</v>
       </c>
       <c r="AD186" s="74" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AF186" s="67">
         <v>13</v>
@@ -18009,7 +18076,7 @@
         <v>2</v>
       </c>
       <c r="F187" s="65" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="M187">
         <v>75</v>
@@ -18047,7 +18114,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="75" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M188">
         <v>76</v>
@@ -18087,7 +18154,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="74" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M189">
         <v>77</v>
@@ -18110,7 +18177,7 @@
         <v>12</v>
       </c>
       <c r="AD189" s="100" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AF189" s="67">
         <v>16</v>
@@ -18150,7 +18217,7 @@
         <v>13</v>
       </c>
       <c r="AD190" s="65" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AF190" s="67">
         <v>17</v>
@@ -18167,7 +18234,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="102" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M191">
         <v>79</v>
@@ -18190,7 +18257,7 @@
         <v>14</v>
       </c>
       <c r="AD191" s="74" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AF191" s="67">
         <v>18</v>
@@ -18207,7 +18274,7 @@
         <v>7</v>
       </c>
       <c r="F192" s="97" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="M192">
         <v>80</v>
@@ -18230,7 +18297,7 @@
         <v>15</v>
       </c>
       <c r="AD192" s="75" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="2:30" ht="15.75" customHeight="1">
@@ -18244,7 +18311,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="101" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M193">
         <v>81</v>
@@ -18267,7 +18334,7 @@
         <v>16</v>
       </c>
       <c r="AD193" s="74" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="2:30" ht="15.75" customHeight="1">
@@ -18281,7 +18348,7 @@
         <v>9</v>
       </c>
       <c r="F194" s="75" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M194">
         <v>82</v>
@@ -18304,7 +18371,7 @@
         <v>17</v>
       </c>
       <c r="AD194" s="100" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195" spans="2:30" ht="15.75" customHeight="1">
@@ -18318,7 +18385,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="105" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M195">
         <v>83</v>
@@ -18341,7 +18408,7 @@
         <v>18</v>
       </c>
       <c r="AD195" s="101" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="196" spans="2:30" ht="15.75" customHeight="1">
@@ -18355,7 +18422,7 @@
         <v>11</v>
       </c>
       <c r="F196" s="101" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="M196">
         <v>84</v>
@@ -18378,7 +18445,7 @@
         <v>4</v>
       </c>
       <c r="AD196" s="74" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="197" spans="2:30" ht="15.75" customHeight="1">
@@ -18392,7 +18459,7 @@
         <v>12</v>
       </c>
       <c r="F197" s="74" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M197">
         <v>85</v>
@@ -18465,7 +18532,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="65" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M199">
         <v>87</v>
@@ -18488,7 +18555,7 @@
         <v>7</v>
       </c>
       <c r="AD199" s="100" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="2:30" ht="15.75" customHeight="1">
@@ -18502,7 +18569,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M200">
         <v>88</v>
@@ -18537,7 +18604,7 @@
         <v>16</v>
       </c>
       <c r="F201" s="100" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M201">
         <v>89</v>
@@ -18560,7 +18627,7 @@
         <v>9</v>
       </c>
       <c r="AD201" s="74" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
     </row>
     <row r="202" spans="2:30" ht="15.75" customHeight="1">
@@ -18574,7 +18641,7 @@
         <v>17</v>
       </c>
       <c r="F202" s="74" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M202">
         <v>90</v>
@@ -18597,7 +18664,7 @@
         <v>10</v>
       </c>
       <c r="AD202" s="103" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" spans="2:30" ht="15.75" customHeight="1">
@@ -18611,7 +18678,7 @@
         <v>18</v>
       </c>
       <c r="F203" s="103" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="M203">
         <v>91</v>
@@ -18649,7 +18716,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="105" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M204">
         <v>92</v>
@@ -18672,7 +18739,7 @@
         <v>12</v>
       </c>
       <c r="AD204" s="65" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="205" spans="2:30" ht="15.75" customHeight="1">
@@ -18686,7 +18753,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="M205">
         <v>93</v>
@@ -18721,7 +18788,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="75" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M206">
         <v>94</v>
@@ -18758,7 +18825,7 @@
         <v>4</v>
       </c>
       <c r="F207" s="102" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M207">
         <v>95</v>
@@ -18793,7 +18860,7 @@
         <v>5</v>
       </c>
       <c r="F208" s="74" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M208">
         <v>96</v>
@@ -18816,7 +18883,7 @@
         <v>16</v>
       </c>
       <c r="AD208" s="99" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="2:30" ht="15.75" customHeight="1">
@@ -18830,7 +18897,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="105" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M209">
         <v>97</v>
@@ -18868,7 +18935,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="65" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M210">
         <v>98</v>
@@ -18891,7 +18958,7 @@
         <v>18</v>
       </c>
       <c r="AD210" s="103" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" spans="2:30" ht="15.75" customHeight="1">
@@ -18905,7 +18972,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="75" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="M211">
         <v>99</v>
@@ -18936,7 +19003,7 @@
         <v>9</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M212">
         <v>100</v>
@@ -18967,7 +19034,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="98" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M213">
         <v>101</v>
@@ -18998,7 +19065,7 @@
         <v>11</v>
       </c>
       <c r="F214" s="97" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="M214">
         <v>102</v>
@@ -19029,7 +19096,7 @@
         <v>12</v>
       </c>
       <c r="F215" s="75" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="M215">
         <v>103</v>
@@ -19060,7 +19127,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="74" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="M216">
         <v>104</v>
@@ -19091,7 +19158,7 @@
         <v>14</v>
       </c>
       <c r="F217" s="100" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="M217">
         <v>105</v>
@@ -19156,7 +19223,7 @@
         <v>16</v>
       </c>
       <c r="F219" s="75" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M219">
         <v>107</v>
@@ -19187,7 +19254,7 @@
         <v>17</v>
       </c>
       <c r="F220" s="111" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="M220">
         <v>108</v>
@@ -19218,7 +19285,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="99" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="M221">
         <v>109</v>
@@ -19252,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="105" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M222">
         <v>110</v>
@@ -19283,7 +19350,7 @@
         <v>2</v>
       </c>
       <c r="F223" s="65" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="M223">
         <v>111</v>
@@ -19314,7 +19381,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="75" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M224">
         <v>112</v>
@@ -19342,7 +19409,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="102" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="M225">
         <v>113</v>
@@ -19370,7 +19437,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="105" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M226">
         <v>114</v>
@@ -19398,7 +19465,7 @@
         <v>6</v>
       </c>
       <c r="F227" s="97" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="M227">
         <v>115</v>
@@ -19457,7 +19524,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="65" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="M229">
         <v>117</v>
@@ -19485,7 +19552,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M230">
         <v>118</v>
@@ -19513,7 +19580,7 @@
         <v>10</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M231">
         <v>119</v>
@@ -19541,7 +19608,7 @@
         <v>11</v>
       </c>
       <c r="F232" s="100" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="M232">
         <v>120</v>
@@ -19597,7 +19664,7 @@
         <v>13</v>
       </c>
       <c r="F234" s="100" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M234">
         <v>122</v>
@@ -19625,7 +19692,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="103" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M235">
         <v>123</v>
@@ -19653,7 +19720,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="75" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M236">
         <v>124</v>
@@ -19681,7 +19748,7 @@
         <v>16</v>
       </c>
       <c r="F237" s="74" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M237">
         <v>125</v>
@@ -19709,7 +19776,7 @@
         <v>17</v>
       </c>
       <c r="F238" s="97" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="M238">
         <v>126</v>
@@ -19737,7 +19804,7 @@
         <v>18</v>
       </c>
       <c r="F239" s="103" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -19769,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="105" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -19800,7 +19867,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H241">
         <v>10</v>
@@ -19831,7 +19898,7 @@
         <v>3</v>
       </c>
       <c r="F242" s="75" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H242" t="s">
         <v>375</v>
@@ -19862,7 +19929,7 @@
         <v>4</v>
       </c>
       <c r="F243" s="102" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H243" t="s">
         <v>376</v>
@@ -19893,7 +19960,7 @@
         <v>5</v>
       </c>
       <c r="F244" s="65" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H244" t="s">
         <v>389</v>
@@ -19927,7 +19994,7 @@
         <v>6</v>
       </c>
       <c r="F245" s="75" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H245" t="s">
         <v>388</v>
@@ -19958,7 +20025,7 @@
         <v>7</v>
       </c>
       <c r="F246" s="97" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="H246" t="s">
         <v>387</v>
@@ -19989,7 +20056,7 @@
         <v>8</v>
       </c>
       <c r="F247" s="105" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H247" t="s">
         <v>386</v>
@@ -20020,7 +20087,7 @@
         <v>9</v>
       </c>
       <c r="F248" s="74" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H248" t="s">
         <v>385</v>
@@ -20051,7 +20118,7 @@
         <v>10</v>
       </c>
       <c r="F249" s="97" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="H249" t="s">
         <v>384</v>
@@ -20122,7 +20189,7 @@
         <v>12</v>
       </c>
       <c r="F251" s="100" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H251" t="s">
         <v>382</v>
@@ -20156,7 +20223,7 @@
         <v>13</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H252" t="s">
         <v>381</v>
@@ -20190,7 +20257,7 @@
         <v>14</v>
       </c>
       <c r="F253" s="74" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H253" t="s">
         <v>380</v>
@@ -20221,7 +20288,7 @@
         <v>15</v>
       </c>
       <c r="F254" s="75" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H254" t="s">
         <v>379</v>
@@ -20252,7 +20319,7 @@
         <v>16</v>
       </c>
       <c r="F255" s="74" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H255" t="s">
         <v>378</v>
@@ -20283,7 +20350,7 @@
         <v>17</v>
       </c>
       <c r="F256" s="100" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H256" t="s">
         <v>377</v>
@@ -20314,7 +20381,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="101" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="M257">
         <v>145</v>
@@ -20343,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="105" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -20374,7 +20441,7 @@
         <v>2</v>
       </c>
       <c r="F259" s="65" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H259">
         <v>10</v>
@@ -20408,7 +20475,7 @@
         <v>3</v>
       </c>
       <c r="F260" s="75" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H260" t="s">
         <v>374</v>
@@ -20439,7 +20506,7 @@
         <v>4</v>
       </c>
       <c r="F261" s="74" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="H261" t="s">
         <v>375</v>
@@ -20470,7 +20537,7 @@
         <v>5</v>
       </c>
       <c r="F262" s="102" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H262" t="s">
         <v>376</v>
@@ -20501,7 +20568,7 @@
         <v>6</v>
       </c>
       <c r="F263" s="101" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H263" t="s">
         <v>389</v>
@@ -20521,7 +20588,7 @@
         <v>7</v>
       </c>
       <c r="F264" s="100" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H264" t="s">
         <v>388</v>
@@ -20541,7 +20608,7 @@
         <v>8</v>
       </c>
       <c r="F265" s="75" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H265" t="s">
         <v>387</v>
@@ -20561,10 +20628,10 @@
         <v>9</v>
       </c>
       <c r="F266" s="74" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="G266" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H266" t="s">
         <v>386</v>
@@ -20584,7 +20651,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="103" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H267" t="s">
         <v>385</v>
@@ -20624,7 +20691,7 @@
         <v>12</v>
       </c>
       <c r="F269" s="65" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H269" t="s">
         <v>383</v>
@@ -20644,7 +20711,7 @@
         <v>13</v>
       </c>
       <c r="F270" s="97" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="H270" t="s">
         <v>382</v>
@@ -20707,7 +20774,7 @@
         <v>16</v>
       </c>
       <c r="F273" s="99" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H273" t="s">
         <v>379</v>
@@ -20727,7 +20794,7 @@
         <v>17</v>
       </c>
       <c r="F274" s="97" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H274" t="s">
         <v>378</v>
@@ -20747,7 +20814,7 @@
         <v>18</v>
       </c>
       <c r="F275" s="103" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H275" t="s">
         <v>377</v>
@@ -20762,38 +20829,38 @@
         <v>39</v>
       </c>
       <c r="E276" s="45" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="2:27" ht="15.75" customHeight="1">
       <c r="B278" s="106"/>
       <c r="C278" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="D278" s="108"/>
       <c r="E278" s="106">
         <v>1</v>
       </c>
       <c r="F278" s="105" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
     </row>
     <row r="279" spans="2:27" ht="15.75" customHeight="1">
       <c r="B279" s="1"/>
       <c r="C279" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E279" s="67">
         <v>2</v>
       </c>
       <c r="F279" s="65" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
     </row>
     <row r="280" spans="2:27" ht="15.75" customHeight="1">
       <c r="B280" s="1"/>
       <c r="C280" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="D280">
         <v>1.1499999999999999</v>
@@ -20802,145 +20869,145 @@
         <v>3</v>
       </c>
       <c r="F280" s="75" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
     </row>
     <row r="281" spans="2:27" ht="15.75" customHeight="1">
       <c r="B281" s="1"/>
       <c r="C281" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E281" s="67">
         <v>4</v>
       </c>
       <c r="F281" s="74" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
     </row>
     <row r="282" spans="2:27" ht="15.75" customHeight="1">
       <c r="B282" s="1"/>
       <c r="C282" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E282" s="67">
         <v>5</v>
       </c>
       <c r="F282" s="102" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
     </row>
     <row r="283" spans="2:27" ht="15.75" customHeight="1">
       <c r="B283" s="1"/>
       <c r="C283" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E283" s="67">
         <v>6</v>
       </c>
       <c r="F283" s="101" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
     </row>
     <row r="284" spans="2:27" ht="15.75" customHeight="1">
       <c r="B284" s="1"/>
       <c r="C284" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E284" s="67">
         <v>7</v>
       </c>
       <c r="F284" s="100" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
     </row>
     <row r="285" spans="2:27" ht="15.75" customHeight="1">
       <c r="B285" s="1"/>
       <c r="C285" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E285" s="67">
         <v>8</v>
       </c>
       <c r="F285" s="75" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="286" spans="2:27" ht="15.75" customHeight="1">
       <c r="B286" s="1"/>
       <c r="C286" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E286" s="67">
         <v>9</v>
       </c>
       <c r="F286" s="74" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="287" spans="2:27" ht="15.75" customHeight="1">
       <c r="B287" s="1"/>
       <c r="C287" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E287" s="67">
         <v>10</v>
       </c>
       <c r="F287" s="103" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
     </row>
     <row r="288" spans="2:27" ht="15.75" customHeight="1">
       <c r="B288" s="1"/>
       <c r="C288" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E288" s="67">
         <v>11</v>
       </c>
       <c r="F288" s="105" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="15.75" customHeight="1">
       <c r="B289" s="1"/>
       <c r="C289" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E289" s="67">
         <v>12</v>
       </c>
       <c r="F289" s="65" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="15.75" customHeight="1">
       <c r="B290" s="1"/>
       <c r="C290" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E290" s="67">
         <v>13</v>
       </c>
       <c r="F290" s="97" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
     </row>
     <row r="291" spans="2:6" ht="15.75" customHeight="1">
       <c r="B291" s="1"/>
       <c r="C291" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E291" s="67">
         <v>14</v>
       </c>
       <c r="F291" s="75" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
     </row>
     <row r="292" spans="2:6" ht="15.75" customHeight="1">
       <c r="B292" s="1"/>
       <c r="C292" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="D292">
         <v>1.26</v>
@@ -20949,43 +21016,43 @@
         <v>15</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
     </row>
     <row r="293" spans="2:6" ht="15.75" customHeight="1">
       <c r="B293" s="1"/>
       <c r="C293" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E293" s="67">
         <v>16</v>
       </c>
       <c r="F293" s="99" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
     </row>
     <row r="294" spans="2:6" ht="15.75" customHeight="1">
       <c r="B294" s="1"/>
       <c r="C294" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E294" s="67">
         <v>17</v>
       </c>
       <c r="F294" s="97" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
     </row>
     <row r="295" spans="2:6" ht="15.75" customHeight="1">
       <c r="B295" s="1"/>
       <c r="C295" s="107" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="E295" s="67">
         <v>18</v>
       </c>
       <c r="F295" s="103" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -21021,7 +21088,7 @@
     </row>
     <row r="3" spans="3:12" ht="15.75" customHeight="1">
       <c r="L3" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="12.75">
@@ -21050,7 +21117,7 @@
         <v>136</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="12.75">
@@ -21067,13 +21134,13 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J5" t="s">
         <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="12.75">
@@ -21087,10 +21154,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L6" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="12.75">
@@ -21104,7 +21171,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="12.75">
@@ -21118,7 +21185,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="12.75">
@@ -21132,7 +21199,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="12.75">
@@ -21149,7 +21216,7 @@
         <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="12.75">
@@ -21163,10 +21230,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="G11" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="12.75">
@@ -21180,7 +21247,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="12.75">
@@ -21194,7 +21261,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="12.75">
@@ -21208,7 +21275,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="12.75">
@@ -21222,7 +21289,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="12.75">
@@ -21236,7 +21303,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="12.75">
@@ -21250,7 +21317,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="12.75">
@@ -21264,7 +21331,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="12.75">
@@ -21278,7 +21345,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="12.75">
@@ -21292,7 +21359,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="12.75">
@@ -21306,7 +21373,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="12.75">
@@ -21320,7 +21387,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="12.75">
@@ -21334,7 +21401,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="12.75">
@@ -21348,7 +21415,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="12.75">
@@ -21362,7 +21429,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="12.75">
@@ -21376,7 +21443,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="12.75">
@@ -21404,7 +21471,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="12.75">
@@ -21418,7 +21485,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="12.75">
@@ -21432,7 +21499,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="12.75">
@@ -21475,7 +21542,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="I33" s="27"/>
     </row>
@@ -21520,7 +21587,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I36" s="27" t="s">
         <v>119</v>
@@ -21537,7 +21604,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>122</v>
@@ -21554,7 +21621,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>124</v>
@@ -21588,7 +21655,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>298</v>
@@ -21622,7 +21689,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>305</v>
@@ -21707,7 +21774,7 @@
         <v>43</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="I47" s="35" t="s">
         <v>310</v>
@@ -21724,7 +21791,7 @@
         <v>44</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>311</v>
@@ -21775,7 +21842,7 @@
         <v>47</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>318</v>
@@ -21809,7 +21876,7 @@
         <v>49</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I53" s="40" t="s">
         <v>331</v>
@@ -21826,7 +21893,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="12.75">
@@ -21868,7 +21935,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="12.75">
@@ -21924,7 +21991,7 @@
         <v>57</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="12.75">
@@ -22001,7 +22068,7 @@
         <v>64</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15.75" customHeight="1">
@@ -22020,10 +22087,10 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15.75" customHeight="1">
@@ -22034,7 +22101,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15.75" customHeight="1">
@@ -22045,7 +22112,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15.75" customHeight="1">
@@ -22056,7 +22123,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15.75" customHeight="1">
@@ -22067,7 +22134,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15.75" customHeight="1">
@@ -22078,12 +22145,12 @@
         <v>70</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15.75" customHeight="1">
       <c r="F76" s="45" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -22550,28 +22617,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A4:I39"/>
+  <dimension ref="A4:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="12.75">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75">
+    <row r="6" spans="1:10" ht="12.75">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -22588,173 +22655,155 @@
         <v>209</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>1236</v>
-      </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>725</v>
+        <v>1223</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75">
-      <c r="B8" t="s">
-        <v>1237</v>
-      </c>
+      <c r="I7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75">
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>1229</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75">
-      <c r="B9" t="s">
-        <v>1244</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75">
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>1230</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75">
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
+        <v>1226</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75">
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>1238</v>
       </c>
       <c r="G10" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75">
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75">
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
       <c r="G11" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75">
-      <c r="B12" t="s">
-        <v>1238</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>1228</v>
       </c>
       <c r="G12" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75">
-      <c r="B13" t="s">
-        <v>1239</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G13" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75">
-      <c r="B14" t="s">
-        <v>1240</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>742</v>
+        <v>1265</v>
       </c>
       <c r="G14" s="1">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="B15" t="s">
-        <v>1241</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75">
       <c r="C15" s="1">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>1236</v>
       </c>
       <c r="G15" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75">
-      <c r="B16" t="s">
-        <v>1242</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75">
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1">
-        <v>700</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="12.75">
-      <c r="B17" t="s">
-        <v>1243</v>
-      </c>
       <c r="C17" s="1">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>744</v>
+        <v>1237</v>
       </c>
       <c r="G17" s="1">
-        <v>1200</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="12.75">
@@ -22762,10 +22811,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>727</v>
       </c>
       <c r="G18" s="1">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="12.75">
@@ -22773,54 +22822,57 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>1220</v>
       </c>
       <c r="G19" s="1">
-        <v>5000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="12.75">
+      <c r="B20" s="65"/>
       <c r="C20" s="1">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>210</v>
+        <v>1240</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="12.75">
+      <c r="B21" s="74"/>
       <c r="C21" s="1">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>211</v>
+      <c r="D21" s="100" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="12.75">
+      <c r="B22" s="75"/>
       <c r="C22" s="1">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>731</v>
+        <v>167</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="12.75">
       <c r="C23" s="1">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>424</v>
+      <c r="D23" s="105" t="s">
+        <v>1243</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="12.75">
@@ -22828,10 +22880,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="12.75">
@@ -22839,21 +22891,22 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="12.75">
+      <c r="B26" s="75"/>
       <c r="C26" s="1">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
-        <v>746</v>
+      <c r="D26" s="97" t="s">
+        <v>1244</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="12.75">
@@ -22861,114 +22914,396 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>1245</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="12.75">
+      <c r="B28" s="74"/>
       <c r="C28" s="1">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>747</v>
+        <v>1266</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="12.75">
+      <c r="B29" s="74"/>
       <c r="C29" s="1">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>739</v>
+        <v>1218</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="12.75">
+      <c r="B30" s="100"/>
       <c r="C30" s="1">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>1246</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="12.75">
+      <c r="B31" s="103"/>
       <c r="C31" s="1">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>736</v>
+        <v>1219</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="12.75">
+      <c r="B32" s="75"/>
       <c r="C32" s="1">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>732</v>
+        <v>1247</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="12.75">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12.75">
+      <c r="B33" s="65"/>
       <c r="C33" s="1">
         <v>27</v>
       </c>
-      <c r="D33" t="s">
-        <v>733</v>
+      <c r="D33" s="65" t="s">
+        <v>1248</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="12.75">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="12.75">
       <c r="C34" s="1">
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>740</v>
+        <v>1258</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="12.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="12.75">
+      <c r="B35" s="105"/>
       <c r="C35" s="1">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="12.75">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="12.75">
+      <c r="B36" s="74"/>
       <c r="C36" s="1">
         <v>30</v>
       </c>
       <c r="D36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="C37" s="1">
+        <v>31</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="100"/>
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="100"/>
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="103"/>
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="101"/>
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="74"/>
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="74"/>
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="74"/>
+      <c r="C44" s="1">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="105"/>
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="75"/>
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="75"/>
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="105"/>
+      <c r="C48" s="1">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B49" s="102"/>
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B50" s="101"/>
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B51" s="100"/>
+      <c r="C51" s="1">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C52" s="1">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B53" s="105"/>
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B54" s="65"/>
+      <c r="C54" s="1">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B55" s="97"/>
+      <c r="C55" s="1">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B56" s="105"/>
+      <c r="C56" s="1">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B57" s="99"/>
+      <c r="C57" s="1">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B58" s="97"/>
+      <c r="C58" s="1">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C59" s="1">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C60" s="1">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C61" s="1">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C62" s="1">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C63" s="1">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C64" s="1">
+        <v>58</v>
+      </c>
+      <c r="D64" s="103" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C65" s="1">
+        <v>59</v>
+      </c>
+      <c r="D65" s="119" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C66" s="1">
+        <v>60</v>
+      </c>
+      <c r="D66" t="s">
         <v>418</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D39" t="s">
-        <v>1044</v>
+    </row>
+    <row r="67" spans="3:4" ht="15.75" customHeight="1">
+      <c r="C67" s="1">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" ht="15.75" customHeight="1">
+      <c r="D72" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -23011,7 +23346,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
@@ -23020,7 +23355,7 @@
         <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
@@ -23029,7 +23364,7 @@
         <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="L5" t="s">
         <v>77</v>
@@ -23038,7 +23373,7 @@
         <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="O5" t="s">
         <v>77</v>
@@ -23056,7 +23391,7 @@
         <v>228</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="12.75">
@@ -23067,22 +23402,22 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="H6" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="K6" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="N6" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="Q6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="T6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="3:20" ht="12.75">
@@ -23093,16 +23428,16 @@
         <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="H7" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="K7" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="N7" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="12.75">
@@ -23113,16 +23448,16 @@
         <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="H8" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="K8" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="N8" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="12.75">
@@ -23133,16 +23468,16 @@
         <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="H9" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="K9" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="N9" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="15.75" customHeight="1">
@@ -23150,29 +23485,29 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="E10" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="H10" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="K10" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="N10" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="15.75" customHeight="1">
       <c r="D15" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="15.75" customHeight="1">
       <c r="D16" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -23286,13 +23621,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" spans="3:22">
@@ -23306,13 +23641,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="3:22">
@@ -23326,13 +23661,13 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="3:22">
@@ -23346,13 +23681,13 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>247</v>
@@ -23384,7 +23719,7 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -23396,7 +23731,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="3:22">
@@ -23416,7 +23751,7 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="3:22">
@@ -23436,7 +23771,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="3:22">
@@ -23447,7 +23782,7 @@
         <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -23459,7 +23794,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="3:22">
@@ -23470,7 +23805,7 @@
         <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -23482,7 +23817,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="3:22">
@@ -23502,7 +23837,7 @@
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="3:22">
@@ -23522,7 +23857,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="3:16">
@@ -23542,7 +23877,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -23556,13 +23891,13 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="L18" s="1">
         <v>13</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>253</v>
@@ -23579,7 +23914,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="L19" s="1">
         <v>14</v>
@@ -23602,13 +23937,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="L20" s="1">
         <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>251</v>
@@ -23625,7 +23960,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="L21" s="1">
         <v>16</v>
@@ -23648,13 +23983,13 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="L22" s="1">
         <v>17</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>250</v>
@@ -23671,13 +24006,13 @@
         <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="L23" s="1">
         <v>18</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>244</v>
@@ -23694,7 +24029,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="L24" s="1"/>
       <c r="P24" s="1" t="s">
@@ -23712,7 +24047,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -23727,7 +24062,7 @@
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="3:16">
@@ -23741,10 +24076,10 @@
         <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="N27" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
     </row>
     <row r="28" spans="3:16">
@@ -23758,10 +24093,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="N28" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
     </row>
     <row r="29" spans="3:16">
@@ -23775,10 +24110,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="J29" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="3:16">
@@ -23789,10 +24124,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="M30" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="31" spans="3:16">
@@ -23806,10 +24141,10 @@
         <v>26</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="M31" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="3:16">
@@ -23820,10 +24155,10 @@
         <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="M32" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="3:12">
@@ -23834,7 +24169,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="3:12">
@@ -23845,7 +24180,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
     </row>
     <row r="35" spans="3:12">
@@ -23856,7 +24191,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="3:12">
@@ -23867,10 +24202,10 @@
         <v>31</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="L36" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="37" spans="3:12">
@@ -23881,10 +24216,10 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="L37" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="38" spans="3:12">
@@ -23895,7 +24230,7 @@
         <v>33</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
     </row>
     <row r="39" spans="3:12">
@@ -23903,16 +24238,16 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G39" t="s">
         <v>403</v>
-      </c>
-      <c r="G39" t="s">
-        <v>404</v>
       </c>
       <c r="H39">
         <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
     </row>
     <row r="40" spans="3:12">
@@ -23923,7 +24258,7 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="3:12">
@@ -23934,7 +24269,7 @@
         <v>36</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="3:12">
@@ -23945,7 +24280,7 @@
         <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="3:12">
@@ -23956,7 +24291,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="3:12">
@@ -23967,7 +24302,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
     </row>
     <row r="45" spans="3:12">
@@ -23978,7 +24313,7 @@
         <v>40</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
     </row>
     <row r="46" spans="3:12">
@@ -23989,7 +24324,7 @@
         <v>41</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
     </row>
     <row r="47" spans="3:12">
@@ -24000,7 +24335,7 @@
         <v>42</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>972</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="3:12">
@@ -24011,7 +24346,7 @@
         <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
     </row>
     <row r="49" spans="3:13">
@@ -24022,7 +24357,7 @@
         <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
     </row>
     <row r="50" spans="3:13">
@@ -24033,7 +24368,7 @@
         <v>45</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
     </row>
     <row r="51" spans="3:13">
@@ -24044,7 +24379,7 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>976</v>
+        <v>958</v>
       </c>
     </row>
     <row r="52" spans="3:13">
@@ -24055,7 +24390,7 @@
         <v>47</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="3:13">
@@ -24066,7 +24401,7 @@
         <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="3:13">
@@ -24077,10 +24412,10 @@
         <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="M54" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
     </row>
     <row r="55" spans="3:13">
@@ -24091,7 +24426,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
     </row>
     <row r="56" spans="3:13">
@@ -24102,7 +24437,7 @@
         <v>51</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>981</v>
+        <v>963</v>
       </c>
     </row>
     <row r="57" spans="3:13">
@@ -24113,7 +24448,7 @@
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
     </row>
     <row r="58" spans="3:13">
@@ -24124,7 +24459,7 @@
         <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="3:13">
@@ -24135,7 +24470,7 @@
         <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="3:13">
@@ -24146,7 +24481,7 @@
         <v>55</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
     </row>
     <row r="61" spans="3:13">
@@ -24157,7 +24492,7 @@
         <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
     </row>
     <row r="62" spans="3:13">
@@ -24168,7 +24503,7 @@
         <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
     </row>
     <row r="63" spans="3:13">
@@ -24179,7 +24514,7 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
     </row>
     <row r="64" spans="3:13">
@@ -24190,7 +24525,7 @@
         <v>59</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
     </row>
     <row r="65" spans="3:10">
@@ -24201,10 +24536,10 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
       <c r="J65" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
     </row>
     <row r="66" spans="3:10">
@@ -24215,7 +24550,7 @@
         <v>61</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
     </row>
     <row r="67" spans="3:10">
@@ -24226,7 +24561,7 @@
         <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
     </row>
     <row r="68" spans="3:10">
@@ -24237,7 +24572,7 @@
         <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
     </row>
     <row r="69" spans="3:10">
@@ -24245,7 +24580,7 @@
         <v>64</v>
       </c>
       <c r="I69" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="3:10">
@@ -24253,7 +24588,7 @@
         <v>65</v>
       </c>
       <c r="I70" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" spans="3:10">
@@ -24261,7 +24596,7 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
     </row>
     <row r="72" spans="3:10">
@@ -24269,7 +24604,7 @@
         <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
     </row>
     <row r="73" spans="3:10">
@@ -24277,7 +24612,7 @@
         <v>68</v>
       </c>
       <c r="I73" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
     </row>
     <row r="74" spans="3:10">
@@ -24285,7 +24620,7 @@
         <v>69</v>
       </c>
       <c r="I74" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75" spans="3:10">
@@ -24293,7 +24628,7 @@
         <v>70</v>
       </c>
       <c r="I75" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
     </row>
     <row r="76" spans="3:10">
@@ -24489,7 +24824,7 @@
         <v>268</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>269</v>
@@ -24514,7 +24849,7 @@
         <v>135</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -24526,16 +24861,16 @@
         <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>273</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>270</v>
@@ -24546,28 +24881,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>275</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="K6" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="3:20">
@@ -24575,7 +24910,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>211</v>
@@ -24587,10 +24922,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="K7" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -24616,7 +24951,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>278</v>
@@ -24631,7 +24966,7 @@
         <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -24652,7 +24987,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>281</v>
@@ -24664,10 +24999,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="K9" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -24676,10 +25011,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="S9" s="30"/>
     </row>
@@ -24688,7 +25023,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>283</v>
@@ -24700,10 +25035,10 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="K10" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -24724,7 +25059,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>286</v>
@@ -24736,10 +25071,10 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="K11" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -24760,25 +25095,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="K12" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="N12">
         <v>20</v>
@@ -24799,7 +25134,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>287</v>
@@ -24811,10 +25146,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="K13" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="N13">
         <v>55</v>
@@ -24825,7 +25160,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>288</v>
@@ -24837,10 +25172,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="K14" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -24851,7 +25186,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>289</v>
@@ -24863,10 +25198,10 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="K15" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="N15">
         <v>20</v>
@@ -24877,7 +25212,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>290</v>
@@ -24889,10 +25224,10 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="K16" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="N16">
         <v>35</v>
@@ -24909,10 +25244,10 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="K17" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -24929,10 +25264,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="K18" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="N18">
         <v>80</v>
@@ -24949,10 +25284,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="K19" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -24969,10 +25304,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="N20">
         <v>185</v>
@@ -24989,10 +25324,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="N21">
         <v>110</v>
@@ -25009,10 +25344,10 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="N22">
         <v>230</v>
@@ -25029,10 +25364,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="N23">
         <v>55</v>
@@ -25049,10 +25384,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="N24">
         <v>35</v>
@@ -25069,10 +25404,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="N25">
         <v>110</v>
@@ -25089,10 +25424,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="N26">
         <v>145</v>
@@ -25103,10 +25438,10 @@
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="N27">
         <v>55</v>
@@ -25117,10 +25452,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -25131,10 +25466,10 @@
         <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -25145,10 +25480,10 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="N30">
         <v>35</v>
@@ -25159,10 +25494,10 @@
         <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="N31">
         <v>80</v>
@@ -25173,10 +25508,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="N32">
         <v>185</v>
@@ -25187,10 +25522,10 @@
         <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -25201,10 +25536,10 @@
         <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="N34">
         <v>145</v>
@@ -25215,10 +25550,10 @@
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="N35">
         <v>80</v>
@@ -25229,10 +25564,10 @@
         <v>31</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="N36">
         <v>230</v>
@@ -25243,10 +25578,10 @@
         <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -25257,10 +25592,10 @@
         <v>33</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -25271,10 +25606,10 @@
         <v>34</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -25285,10 +25620,10 @@
         <v>35</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -25299,10 +25634,10 @@
         <v>36</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -25313,10 +25648,10 @@
         <v>37</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -25327,10 +25662,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="N43">
         <v>20</v>
@@ -25341,10 +25676,10 @@
         <v>39</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="N44">
         <v>20</v>
@@ -25355,10 +25690,10 @@
         <v>40</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="N45">
         <v>35</v>
@@ -25369,10 +25704,10 @@
         <v>41</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="N46">
         <v>55</v>
@@ -25383,10 +25718,10 @@
         <v>42</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="N47">
         <v>80</v>
@@ -25397,10 +25732,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="N48">
         <v>100</v>
@@ -25411,10 +25746,10 @@
         <v>44</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="N49">
         <v>110</v>
@@ -25425,10 +25760,10 @@
         <v>45</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="N50">
         <v>145</v>
@@ -25439,10 +25774,10 @@
         <v>46</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="N51">
         <v>185</v>
@@ -25453,10 +25788,10 @@
         <v>47</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="N52">
         <v>230</v>
@@ -25467,10 +25802,10 @@
         <v>48</v>
       </c>
       <c r="J53" s="113" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="N53">
         <v>230</v>
@@ -25481,10 +25816,10 @@
         <v>49</v>
       </c>
       <c r="J54" s="113" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="N54">
         <v>145</v>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEFFDB-C5B7-4B58-87B5-2FB6823E8530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFBC34-7FB8-44C5-9661-58B5D737C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6645" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,11 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1527">
   <si>
     <t xml:space="preserve">Tier </t>
   </si>
@@ -4631,6 +4618,18 @@
   </si>
   <si>
     <t>Have 10^26 Maple</t>
+  </si>
+  <si>
+    <t>25% Woodcamp Price</t>
+  </si>
+  <si>
+    <t>Woodcamps use 10% less wood</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1c</t>
   </si>
 </sst>
 </file>
@@ -5410,7 +5409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5637,16 +5636,16 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="13.2">
+    <row r="5" spans="2:10" ht="12.75">
       <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.2">
+    <row r="6" spans="2:10" ht="12.75">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.2">
+    <row r="7" spans="2:10" ht="12.75">
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="13.2">
+    <row r="8" spans="2:10" ht="12.75">
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.2">
+    <row r="9" spans="2:10" ht="12.75">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.2">
+    <row r="10" spans="2:10" ht="12.75">
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13.2">
+    <row r="11" spans="2:10" ht="12.75">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="13.2">
+    <row r="12" spans="2:10" ht="12.75">
       <c r="C12" t="s">
         <v>898</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="13.2">
+    <row r="13" spans="2:10" ht="12.75">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="13.2">
+    <row r="14" spans="2:10" ht="12.75">
       <c r="B14" t="s">
         <v>456</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="13.2">
+    <row r="15" spans="2:10" ht="12.75">
       <c r="B15" t="s">
         <v>899</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="13.2">
+    <row r="16" spans="2:10" ht="12.75">
       <c r="G16" s="1">
         <v>2</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="13.2">
+    <row r="17" spans="6:10" ht="12.75">
       <c r="G17" s="1">
         <v>2</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="13.2">
+    <row r="18" spans="6:10" ht="12.75">
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="13.2">
+    <row r="19" spans="6:10" ht="12.75">
       <c r="G19" s="1">
         <v>2</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="13.2">
+    <row r="20" spans="6:10" ht="12.75">
       <c r="G20" s="1">
         <v>3</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="13.2">
+    <row r="21" spans="6:10" ht="12.75">
       <c r="G21" s="1">
         <v>3</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="13.2">
+    <row r="22" spans="6:10" ht="12.75">
       <c r="G22" s="1">
         <v>3</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="13.2">
+    <row r="23" spans="6:10" ht="12.75">
       <c r="G23" s="1">
         <v>3</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="13.2">
+    <row r="24" spans="6:10" ht="12.75">
       <c r="G24" s="1">
         <v>3</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="13.2">
+    <row r="25" spans="6:10" ht="12.75">
       <c r="G25" s="1">
         <v>3</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="13.2">
+    <row r="26" spans="6:10" ht="12.75">
       <c r="G26" s="1">
         <v>3</v>
       </c>
@@ -6280,11 +6279,11 @@
       <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="57" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10">
@@ -8101,15 +8100,15 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="13.2">
+    <row r="2" spans="1:15" ht="12.75">
       <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2">
+    <row r="3" spans="1:15" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.2">
+    <row r="4" spans="1:15" ht="12.75">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.2">
+    <row r="5" spans="1:15" ht="12.75">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.2">
+    <row r="6" spans="1:15" ht="12.75">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13.2">
+    <row r="7" spans="1:15" ht="12.75">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2">
+    <row r="8" spans="1:15" ht="12.75">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -8314,7 +8313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2">
+    <row r="9" spans="1:15" ht="12.75">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -8347,7 +8346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13.2">
+    <row r="10" spans="1:15" ht="12.75">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.2">
+    <row r="11" spans="1:15" ht="12.75">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.2">
+    <row r="12" spans="1:15" ht="12.75">
       <c r="C12" s="1">
         <v>9</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.2">
+    <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="39" t="s">
         <v>3</v>
       </c>
@@ -8482,7 +8481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.2">
+    <row r="14" spans="1:15" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.2">
+    <row r="15" spans="1:15" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.2">
+    <row r="16" spans="1:15" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2">
+    <row r="17" spans="1:15" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2">
+    <row r="18" spans="1:15" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>16</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2">
+    <row r="19" spans="1:15" ht="12.75">
       <c r="A19" s="47" t="s">
         <v>26</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2">
+    <row r="20" spans="1:15" ht="12.75">
       <c r="A20" s="35" t="s">
         <v>29</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="12.75">
       <c r="A21" s="35" t="s">
         <v>31</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="12.75">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="12.75">
       <c r="A23" s="35" t="s">
         <v>37</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="12.75">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="12.75">
       <c r="A25" s="35" t="s">
         <v>41</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="12.75">
       <c r="A26" s="35" t="s">
         <v>45</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="12.75">
       <c r="A27" s="35" t="s">
         <v>46</v>
       </c>
@@ -8734,12 +8733,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="12.75">
       <c r="O28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="12.75">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -8772,12 +8771,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="12.75">
       <c r="O30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="12.75">
       <c r="F32" s="23" t="s">
         <v>72</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.2">
+    <row r="34" spans="2:12" ht="12.75">
       <c r="F34" s="23" t="s">
         <v>74</v>
       </c>
@@ -8969,40 +8968,40 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" customWidth="1"/>
-    <col min="21" max="21" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" customWidth="1"/>
-    <col min="25" max="25" width="22.109375" customWidth="1"/>
-    <col min="26" max="26" width="31.44140625" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" customWidth="1"/>
-    <col min="30" max="30" width="28.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.88671875" customWidth="1"/>
-    <col min="33" max="33" width="36.88671875" customWidth="1"/>
-    <col min="34" max="34" width="19.5546875" customWidth="1"/>
-    <col min="35" max="35" width="21.109375" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="31.42578125" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="28.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" customWidth="1"/>
+    <col min="33" max="33" width="36.85546875" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" customHeight="1">
@@ -9010,7 +9009,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="13.2">
+    <row r="2" spans="1:33" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
@@ -9106,7 +9105,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="13.8" thickBot="1">
+    <row r="6" spans="1:33" ht="13.5" thickBot="1">
       <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="13.2">
+    <row r="7" spans="1:33" ht="12.75">
       <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="13.2">
+    <row r="8" spans="1:33" ht="12.75">
       <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="13.2">
+    <row r="9" spans="1:33" ht="12.75">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="13.2">
+    <row r="10" spans="1:33" ht="12.75">
       <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="13.2">
+    <row r="11" spans="1:33" ht="12.75">
       <c r="A11" s="47" t="s">
         <v>26</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="13.2">
+    <row r="12" spans="1:33" ht="12.75">
       <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="13.2">
+    <row r="13" spans="1:33" ht="12.75">
       <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="13.2">
+    <row r="14" spans="1:33" ht="12.75">
       <c r="A14" s="35" t="s">
         <v>33</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="13.2">
+    <row r="15" spans="1:33" ht="12.75">
       <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="13.2">
+    <row r="16" spans="1:33" ht="12.75">
       <c r="A16" s="35" t="s">
         <v>39</v>
       </c>
@@ -9901,7 +9900,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="13.2">
+    <row r="17" spans="1:33" ht="12.75">
       <c r="A17" s="35" t="s">
         <v>41</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="13.2">
+    <row r="18" spans="1:33" ht="12.75">
       <c r="A18" s="35" t="s">
         <v>45</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="13.2">
+    <row r="19" spans="1:33" ht="12.75">
       <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="13.2">
+    <row r="20" spans="1:33" ht="12.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>15</v>
@@ -10108,7 +10107,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="13.2">
+    <row r="21" spans="1:33" ht="12.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>16</v>
@@ -10157,7 +10156,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="13.2">
+    <row r="22" spans="1:33" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>17</v>
@@ -10203,7 +10202,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="13.2">
+    <row r="23" spans="1:33" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>18</v>
@@ -10258,7 +10257,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="13.2">
+    <row r="24" spans="1:33" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="106">
         <v>19</v>
@@ -10316,7 +10315,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="13.2">
+    <row r="25" spans="1:33" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>20</v>
@@ -10375,7 +10374,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="13.2">
+    <row r="26" spans="1:33" ht="12.75">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="13.2">
+    <row r="27" spans="1:33" ht="12.75">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="13.2">
+    <row r="28" spans="1:33" ht="12.75">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="13.2">
+    <row r="29" spans="1:33" ht="12.75">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="13.2">
+    <row r="30" spans="1:33" ht="12.75">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="13.2">
+    <row r="31" spans="1:33" ht="12.75">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="13.2">
+    <row r="32" spans="1:33" ht="12.75">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="18" thickBot="1">
+    <row r="33" spans="1:33" ht="18.75" thickBot="1">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="18" thickBot="1">
+    <row r="34" spans="1:33" ht="18.75" thickBot="1">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="13.8" thickBot="1">
+    <row r="35" spans="1:33" ht="13.5" thickBot="1">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="13.2">
+    <row r="36" spans="1:33" ht="12.75">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="13.2">
+    <row r="37" spans="1:33" ht="12.75">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="13.2">
+    <row r="38" spans="1:33" ht="12.75">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="13.2">
+    <row r="39" spans="1:33" ht="12.75">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="13.2">
+    <row r="40" spans="1:33" ht="12.75">
       <c r="A40">
         <v>1</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="13.2">
+    <row r="41" spans="1:33" ht="12.75">
       <c r="A41">
         <v>4</v>
       </c>
@@ -11339,7 +11338,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="13.2">
+    <row r="42" spans="1:33" ht="12.75">
       <c r="A42">
         <v>7</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="13.2">
+    <row r="43" spans="1:33" ht="12.75">
       <c r="A43">
         <v>10</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="13.2">
+    <row r="44" spans="1:33" ht="12.75">
       <c r="A44">
         <v>13</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="13.2">
+    <row r="45" spans="1:33" ht="12.75">
       <c r="A45">
         <v>16</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="13.2">
+    <row r="46" spans="1:33" ht="12.75">
       <c r="A46">
         <v>19</v>
       </c>
@@ -11681,7 +11680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="13.2">
+    <row r="47" spans="1:33" ht="12.75">
       <c r="A47">
         <v>22</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="13.2">
+    <row r="48" spans="1:33" ht="12.75">
       <c r="A48">
         <v>25</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="13.2">
+    <row r="49" spans="1:33" ht="12.75">
       <c r="A49">
         <v>28</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="13.2">
+    <row r="50" spans="1:33" ht="12.75">
       <c r="A50">
         <v>31</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="13.2">
+    <row r="51" spans="1:33" ht="12.75">
       <c r="A51">
         <v>34</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="13.2">
+    <row r="52" spans="1:33" ht="12.75">
       <c r="A52">
         <v>37</v>
       </c>
@@ -12085,7 +12084,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="13.2">
+    <row r="53" spans="1:33" ht="12.75">
       <c r="A53">
         <v>40</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="13.2">
+    <row r="54" spans="1:33" ht="12.75">
       <c r="A54">
         <v>43</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="13.2">
+    <row r="55" spans="1:33" ht="12.75">
       <c r="A55">
         <v>46</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="13.2">
+    <row r="56" spans="1:33" ht="12.75">
       <c r="A56">
         <v>49</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="13.2">
+    <row r="57" spans="1:33" ht="12.75">
       <c r="A57">
         <v>52</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="13.2">
+    <row r="58" spans="1:33" ht="12.75">
       <c r="A58">
         <v>55</v>
       </c>
@@ -12487,7 +12486,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="13.2">
+    <row r="59" spans="1:33" ht="12.75">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="13.2">
+    <row r="60" spans="1:33" ht="12.75">
       <c r="A60">
         <v>61</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="13.2">
+    <row r="61" spans="1:33" ht="12.75">
       <c r="A61">
         <v>64</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="13.2">
+    <row r="62" spans="1:33" ht="12.75">
       <c r="A62">
         <v>9887654321</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="13.2">
+    <row r="63" spans="1:33" ht="12.75">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="13.2">
+    <row r="64" spans="1:33" ht="12.75">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="65" spans="2:33" ht="13.2">
+    <row r="65" spans="2:33" ht="12.75">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="66" spans="2:33" ht="13.2">
+    <row r="66" spans="2:33" ht="12.75">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -12962,7 +12961,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="67" spans="2:33" ht="13.2">
+    <row r="67" spans="2:33" ht="12.75">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -13018,7 +13017,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="68" spans="2:33" ht="13.2">
+    <row r="68" spans="2:33" ht="12.75">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="69" spans="2:33" ht="13.2">
+    <row r="69" spans="2:33" ht="12.75">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -13127,7 +13126,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="70" spans="2:33" ht="13.2">
+    <row r="70" spans="2:33" ht="12.75">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -13183,7 +13182,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="71" spans="2:33" ht="13.2">
+    <row r="71" spans="2:33" ht="12.75">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="72" spans="2:33" ht="13.2">
+    <row r="72" spans="2:33" ht="12.75">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="73" spans="2:33" ht="13.2">
+    <row r="73" spans="2:33" ht="12.75">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="13.2">
+    <row r="74" spans="2:33" ht="12.75">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -13389,7 +13388,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="75" spans="2:33" ht="13.2">
+    <row r="75" spans="2:33" ht="12.75">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="76" spans="2:33" ht="13.2">
+    <row r="76" spans="2:33" ht="12.75">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -13491,7 +13490,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="77" spans="2:33" ht="13.2">
+    <row r="77" spans="2:33" ht="12.75">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="78" spans="2:33" ht="13.2">
+    <row r="78" spans="2:33" ht="12.75">
       <c r="B78" s="106">
         <v>73</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="2:33" ht="13.2">
+    <row r="79" spans="2:33" ht="12.75">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="80" spans="2:33" ht="13.2">
+    <row r="80" spans="2:33" ht="12.75">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -13702,7 +13701,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="2:35" ht="13.2">
+    <row r="81" spans="2:35" ht="12.75">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="82" spans="2:35" ht="13.2">
+    <row r="82" spans="2:35" ht="12.75">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -13805,7 +13804,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="83" spans="2:35" ht="13.2">
+    <row r="83" spans="2:35" ht="12.75">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -13857,7 +13856,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="84" spans="2:35" ht="13.2">
+    <row r="84" spans="2:35" ht="12.75">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -13907,7 +13906,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="85" spans="2:35" ht="13.2">
+    <row r="85" spans="2:35" ht="12.75">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="86" spans="2:35" ht="13.2">
+    <row r="86" spans="2:35" ht="12.75">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -14006,7 +14005,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="87" spans="2:35" ht="13.2">
+    <row r="87" spans="2:35" ht="12.75">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="88" spans="2:35" ht="13.2">
+    <row r="88" spans="2:35" ht="12.75">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="89" spans="2:35" ht="13.2">
+    <row r="89" spans="2:35" ht="12.75">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="90" spans="2:35" ht="13.2">
+    <row r="90" spans="2:35" ht="12.75">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -14207,7 +14206,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="91" spans="2:35" ht="13.2">
+    <row r="91" spans="2:35" ht="12.75">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -14255,7 +14254,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" spans="2:35" ht="13.2">
+    <row r="92" spans="2:35" ht="12.75">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="93" spans="2:35" ht="13.2">
+    <row r="93" spans="2:35" ht="12.75">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -14352,7 +14351,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="94" spans="2:35" ht="13.2">
+    <row r="94" spans="2:35" ht="12.75">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="95" spans="2:35" ht="13.2">
+    <row r="95" spans="2:35" ht="12.75">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="96" spans="2:35" ht="13.2">
+    <row r="96" spans="2:35" ht="12.75">
       <c r="B96" s="106">
         <v>91</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="97" spans="2:33" ht="13.2">
+    <row r="97" spans="2:33" ht="12.75">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="98" spans="2:33" ht="13.2">
+    <row r="98" spans="2:33" ht="12.75">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -14599,7 +14598,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="2:33" ht="13.2">
+    <row r="99" spans="2:33" ht="12.75">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="100" spans="2:33" ht="13.2">
+    <row r="100" spans="2:33" ht="12.75">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -14697,7 +14696,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="101" spans="2:33" ht="13.2">
+    <row r="101" spans="2:33" ht="12.75">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="102" spans="2:33" ht="13.2">
+    <row r="102" spans="2:33" ht="12.75">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="103" spans="2:33" ht="13.2">
+    <row r="103" spans="2:33" ht="12.75">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="104" spans="2:33" ht="13.2">
+    <row r="104" spans="2:33" ht="12.75">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -14861,7 +14860,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="105" spans="2:33" ht="13.2">
+    <row r="105" spans="2:33" ht="12.75">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -14893,7 +14892,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="106" spans="2:33" ht="13.2">
+    <row r="106" spans="2:33" ht="12.75">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="107" spans="2:33" ht="13.2">
+    <row r="107" spans="2:33" ht="12.75">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="108" spans="2:33" ht="13.2">
+    <row r="108" spans="2:33" ht="12.75">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="109" spans="2:33" ht="13.2">
+    <row r="109" spans="2:33" ht="12.75">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="110" spans="2:33" ht="13.2">
+    <row r="110" spans="2:33" ht="12.75">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="111" spans="2:33" ht="13.2">
+    <row r="111" spans="2:33" ht="12.75">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="112" spans="2:33" ht="13.2">
+    <row r="112" spans="2:33" ht="12.75">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="113" spans="2:38" ht="13.2">
+    <row r="113" spans="2:38" ht="12.75">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -15214,7 +15213,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="2:38" ht="13.2">
+    <row r="114" spans="2:38" ht="12.75">
       <c r="B114" s="106">
         <v>109</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="115" spans="2:38" ht="13.2">
+    <row r="115" spans="2:38" ht="12.75">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="116" spans="2:38" ht="13.2">
+    <row r="116" spans="2:38" ht="12.75">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="2:38" ht="13.2">
+    <row r="117" spans="2:38" ht="12.75">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="2:38" ht="13.2">
+    <row r="118" spans="2:38" ht="12.75">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -15521,7 +15520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="2:38" ht="13.2">
+    <row r="119" spans="2:38" ht="12.75">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="2:38" ht="13.2">
+    <row r="120" spans="2:38" ht="12.75">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -15633,7 +15632,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="121" spans="2:38" ht="13.2">
+    <row r="121" spans="2:38" ht="12.75">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="2:38" ht="13.2">
+    <row r="122" spans="2:38" ht="12.75">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="2:38" ht="13.2">
+    <row r="123" spans="2:38" ht="12.75">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="124" spans="2:38" ht="13.2">
+    <row r="124" spans="2:38" ht="12.75">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="125" spans="2:38" ht="13.2">
+    <row r="125" spans="2:38" ht="12.75">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="126" spans="2:38" ht="13.2">
+    <row r="126" spans="2:38" ht="12.75">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -15952,7 +15951,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="127" spans="2:38" ht="13.2">
+    <row r="127" spans="2:38" ht="12.75">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="128" spans="2:38" ht="13.2">
+    <row r="128" spans="2:38" ht="12.75">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -16060,7 +16059,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="129" spans="2:38" ht="13.2">
+    <row r="129" spans="2:38" ht="12.75">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -16114,7 +16113,7 @@
       </c>
       <c r="AL129" s="74"/>
     </row>
-    <row r="130" spans="2:38" ht="13.2">
+    <row r="130" spans="2:38" ht="12.75">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -16169,7 +16168,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="131" spans="2:38" ht="13.2">
+    <row r="131" spans="2:38" ht="12.75">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="2:38" ht="13.2">
+    <row r="132" spans="2:38" ht="12.75">
       <c r="B132" s="106">
         <v>127</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="133" spans="2:38" ht="13.2">
+    <row r="133" spans="2:38" ht="12.75">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -16337,7 +16336,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="2:38" ht="13.2">
+    <row r="134" spans="2:38" ht="12.75">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="135" spans="2:38" ht="13.2">
+    <row r="135" spans="2:38" ht="12.75">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -16446,7 +16445,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="2:38" ht="13.2">
+    <row r="136" spans="2:38" ht="12.75">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="137" spans="2:38" ht="13.2">
+    <row r="137" spans="2:38" ht="12.75">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="138" spans="2:38" ht="13.2">
+    <row r="138" spans="2:38" ht="12.75">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -16607,7 +16606,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="139" spans="2:38" ht="13.2">
+    <row r="139" spans="2:38" ht="12.75">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="140" spans="2:38" ht="13.2">
+    <row r="140" spans="2:38" ht="12.75">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -16713,7 +16712,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="141" spans="2:38" ht="13.2">
+    <row r="141" spans="2:38" ht="12.75">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="142" spans="2:38" ht="13.2">
+    <row r="142" spans="2:38" ht="12.75">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="143" spans="2:38" ht="13.2">
+    <row r="143" spans="2:38" ht="12.75">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="2:38" ht="13.2">
+    <row r="144" spans="2:38" ht="12.75">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -16916,7 +16915,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="2:38" ht="13.2">
+    <row r="145" spans="2:38" ht="12.75">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="146" spans="2:38" ht="13.2">
+    <row r="146" spans="2:38" ht="12.75">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -17021,7 +17020,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="147" spans="2:38" ht="13.2">
+    <row r="147" spans="2:38" ht="12.75">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="148" spans="2:38" ht="13.2">
+    <row r="148" spans="2:38" ht="12.75">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="2:38" ht="13.2">
+    <row r="149" spans="2:38" ht="12.75">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="150" spans="2:38" ht="13.2">
+    <row r="150" spans="2:38" ht="12.75">
       <c r="B150" s="106">
         <v>145</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="151" spans="2:38" ht="13.2">
+    <row r="151" spans="2:38" ht="12.75">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="152" spans="2:38" ht="13.2">
+    <row r="152" spans="2:38" ht="12.75">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="153" spans="2:38" ht="13.2">
+    <row r="153" spans="2:38" ht="12.75">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="154" spans="2:38" ht="13.2">
+    <row r="154" spans="2:38" ht="12.75">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="155" spans="2:38" ht="13.2">
+    <row r="155" spans="2:38" ht="12.75">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -17501,7 +17500,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="156" spans="2:38" ht="13.2">
+    <row r="156" spans="2:38" ht="12.75">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -17553,7 +17552,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="157" spans="2:38" ht="13.2">
+    <row r="157" spans="2:38" ht="12.75">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="158" spans="2:38" ht="13.2">
+    <row r="158" spans="2:38" ht="12.75">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -17655,7 +17654,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="159" spans="2:38" ht="13.2">
+    <row r="159" spans="2:38" ht="12.75">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="160" spans="2:38" ht="13.2">
+    <row r="160" spans="2:38" ht="12.75">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -17753,7 +17752,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="161" spans="2:37" ht="13.2">
+    <row r="161" spans="2:37" ht="12.75">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -17803,7 +17802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="2:37" ht="13.2">
+    <row r="162" spans="2:37" ht="12.75">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="163" spans="2:37" ht="13.2">
+    <row r="163" spans="2:37" ht="12.75">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -17899,7 +17898,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="164" spans="2:37" ht="13.2">
+    <row r="164" spans="2:37" ht="12.75">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="165" spans="2:37" ht="13.2">
+    <row r="165" spans="2:37" ht="12.75">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="166" spans="2:37" ht="13.2">
+    <row r="166" spans="2:37" ht="12.75">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -18035,7 +18034,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="167" spans="2:37" ht="13.2">
+    <row r="167" spans="2:37" ht="12.75">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="168" spans="2:37" ht="13.2">
+    <row r="168" spans="2:37" ht="12.75">
       <c r="B168" s="106">
         <v>163</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="169" spans="2:37" ht="13.2">
+    <row r="169" spans="2:37" ht="12.75">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="170" spans="2:37" ht="13.2">
+    <row r="170" spans="2:37" ht="12.75">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -18192,7 +18191,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="171" spans="2:37" ht="13.2">
+    <row r="171" spans="2:37" ht="12.75">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="172" spans="2:37" ht="13.2">
+    <row r="172" spans="2:37" ht="12.75">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="2:37" ht="13.2">
+    <row r="173" spans="2:37" ht="12.75">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -21834,13 +21833,13 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="13.2">
+    <row r="2" spans="3:12" ht="12.75">
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21850,7 +21849,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="13.2">
+    <row r="4" spans="3:12" ht="12.75">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -21879,7 +21878,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="13.2">
+    <row r="5" spans="3:12" ht="12.75">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -21902,7 +21901,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="13.2">
+    <row r="6" spans="3:12" ht="12.75">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -21919,7 +21918,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="13.2">
+    <row r="7" spans="3:12" ht="12.75">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -21933,7 +21932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="13.2">
+    <row r="8" spans="3:12" ht="12.75">
       <c r="C8" s="1">
         <v>4</v>
       </c>
@@ -21947,7 +21946,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="13.2">
+    <row r="9" spans="3:12" ht="12.75">
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -21961,7 +21960,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="13.2">
+    <row r="10" spans="3:12" ht="12.75">
       <c r="C10" s="1">
         <v>6</v>
       </c>
@@ -21978,7 +21977,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="13.2">
+    <row r="11" spans="3:12" ht="12.75">
       <c r="C11" s="1">
         <v>7</v>
       </c>
@@ -21995,7 +21994,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="13.2">
+    <row r="12" spans="3:12" ht="12.75">
       <c r="C12" s="1">
         <v>8</v>
       </c>
@@ -22009,7 +22008,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="13.2">
+    <row r="13" spans="3:12" ht="12.75">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -22023,7 +22022,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="13.2">
+    <row r="14" spans="3:12" ht="12.75">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -22040,7 +22039,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="13.2">
+    <row r="15" spans="3:12" ht="12.75">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -22057,7 +22056,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="13.2">
+    <row r="16" spans="3:12" ht="12.75">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -22074,7 +22073,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="13.2">
+    <row r="17" spans="3:9" ht="12.75">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -22088,7 +22087,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="13.2">
+    <row r="18" spans="3:9" ht="12.75">
       <c r="C18" s="1">
         <v>14</v>
       </c>
@@ -22102,7 +22101,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="13.2">
+    <row r="19" spans="3:9" ht="12.75">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -22116,7 +22115,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="13.2">
+    <row r="20" spans="3:9" ht="12.75">
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -22130,7 +22129,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="13.2">
+    <row r="21" spans="3:9" ht="12.75">
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -22144,7 +22143,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="13.2">
+    <row r="22" spans="3:9" ht="12.75">
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -22158,7 +22157,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="13.2">
+    <row r="23" spans="3:9" ht="12.75">
       <c r="C23" s="1">
         <v>19</v>
       </c>
@@ -22169,7 +22168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="13.2">
+    <row r="24" spans="3:9" ht="12.75">
       <c r="C24" s="1">
         <v>20</v>
       </c>
@@ -22183,7 +22182,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="13.2">
+    <row r="25" spans="3:9" ht="12.75">
       <c r="C25" s="1">
         <v>21</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="13.2">
+    <row r="26" spans="3:9" ht="12.75">
       <c r="C26" s="1">
         <v>22</v>
       </c>
@@ -22206,7 +22205,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="3:9" ht="13.2">
+    <row r="27" spans="3:9" ht="12.75">
       <c r="C27" s="1">
         <v>23</v>
       </c>
@@ -22220,7 +22219,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="13.2">
+    <row r="28" spans="3:9" ht="12.75">
       <c r="C28" s="1">
         <v>24</v>
       </c>
@@ -22234,7 +22233,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="13.2">
+    <row r="29" spans="3:9" ht="12.75">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -22248,7 +22247,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="13.2">
+    <row r="30" spans="3:9" ht="12.75">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -22262,7 +22261,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="13.2">
+    <row r="31" spans="3:9" ht="12.75">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -22276,7 +22275,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="13.2">
+    <row r="32" spans="3:9" ht="12.75">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -22291,7 +22290,7 @@
       </c>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="3:9" ht="13.2">
+    <row r="33" spans="3:9" ht="12.75">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -22306,7 +22305,7 @@
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="3:9" ht="13.2">
+    <row r="34" spans="3:9" ht="12.75">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -22321,7 +22320,7 @@
       </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="3:9" ht="13.2">
+    <row r="35" spans="3:9" ht="12.75">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -22336,7 +22335,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="3:9" ht="13.2">
+    <row r="36" spans="3:9" ht="12.75">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -22353,7 +22352,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="13.2">
+    <row r="37" spans="3:9" ht="12.75">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -22370,7 +22369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="13.2">
+    <row r="38" spans="3:9" ht="12.75">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="13.2">
+    <row r="39" spans="3:9" ht="12.75">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -22404,7 +22403,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="13.2">
+    <row r="40" spans="3:9" ht="12.75">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -22421,7 +22420,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="13.2">
+    <row r="41" spans="3:9" ht="12.75">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -22438,7 +22437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="13.2">
+    <row r="42" spans="3:9" ht="12.75">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -22455,7 +22454,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="13.2">
+    <row r="43" spans="3:9" ht="12.75">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -22472,7 +22471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="13.2">
+    <row r="44" spans="3:9" ht="12.75">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="13.2">
+    <row r="45" spans="3:9" ht="12.75">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -22506,7 +22505,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="13.2">
+    <row r="46" spans="3:9" ht="12.75">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -22523,7 +22522,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="13.2">
+    <row r="47" spans="3:9" ht="12.75">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -22540,7 +22539,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="13.2">
+    <row r="48" spans="3:9" ht="12.75">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -22557,7 +22556,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="13.2">
+    <row r="49" spans="3:9" ht="12.75">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -22574,7 +22573,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="13.2">
+    <row r="50" spans="3:9" ht="12.75">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -22591,7 +22590,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="13.2">
+    <row r="51" spans="3:9" ht="12.75">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="13.2">
+    <row r="52" spans="3:9" ht="12.75">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -22625,7 +22624,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="13.2">
+    <row r="53" spans="3:9" ht="12.75">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -22642,7 +22641,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="13.2">
+    <row r="54" spans="3:9" ht="12.75">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -22656,7 +22655,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="13.2">
+    <row r="55" spans="3:9" ht="12.75">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -22670,7 +22669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="13.2">
+    <row r="56" spans="3:9" ht="12.75">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -22684,7 +22683,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="13.2">
+    <row r="57" spans="3:9" ht="12.75">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -22698,7 +22697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="13.2">
+    <row r="58" spans="3:9" ht="12.75">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -22712,7 +22711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="13.2">
+    <row r="59" spans="3:9" ht="12.75">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -22726,7 +22725,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="13.2">
+    <row r="60" spans="3:9" ht="12.75">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -22740,7 +22739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="13.2">
+    <row r="61" spans="3:9" ht="12.75">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -22754,7 +22753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="13.2">
+    <row r="62" spans="3:9" ht="12.75">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -22765,7 +22764,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="13.2">
+    <row r="63" spans="3:9" ht="12.75">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -22776,7 +22775,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="13.2">
+    <row r="64" spans="3:9" ht="12.75">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -22787,7 +22786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="13.2">
+    <row r="65" spans="3:6" ht="12.75">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -22954,10 +22953,10 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9">
@@ -23402,20 +23401,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A4:J72"/>
+  <dimension ref="A4:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="A12:C16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="13.2">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" t="s">
         <v>1160</v>
       </c>
@@ -23423,7 +23422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.2">
+    <row r="6" spans="1:10" ht="12.75">
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -23443,7 +23442,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.2">
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7">
         <v>1</v>
       </c>
@@ -23463,15 +23462,15 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.2">
-      <c r="C8" s="1">
-        <v>2</v>
+    <row r="8" spans="1:10" ht="12.75">
+      <c r="C8" s="1" t="s">
+        <v>1525</v>
       </c>
       <c r="D8" t="s">
-        <v>1169</v>
+        <v>1523</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>1165</v>
@@ -23480,15 +23479,15 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.2">
-      <c r="C9" s="1">
-        <v>3</v>
+    <row r="9" spans="1:10" ht="12.75">
+      <c r="C9" s="1" t="s">
+        <v>1526</v>
       </c>
       <c r="D9" t="s">
-        <v>1170</v>
+        <v>1524</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>1166</v>
@@ -23497,15 +23496,15 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.2">
+    <row r="10" spans="1:10" ht="12.75">
       <c r="C10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="G10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>1167</v>
@@ -23514,667 +23513,689 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.2">
+    <row r="11" spans="1:10" ht="12.75">
       <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="12.75">
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>1179</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.2">
-      <c r="C12" s="1">
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="C14" s="1">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>1168</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.2">
-      <c r="C13" s="1">
+    <row r="15" spans="1:10" ht="12.75">
+      <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>412</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G15" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.2">
-      <c r="C14" s="1">
+    <row r="16" spans="1:10" ht="12.75">
+      <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>1193</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.2">
-      <c r="C15" s="1">
+    <row r="17" spans="2:7" ht="12.75">
+      <c r="C17" s="1">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>1176</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G17" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.2">
-      <c r="C16" s="1">
+    <row r="18" spans="2:7" ht="12.75">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="13.2">
-      <c r="C17" s="1">
+    <row r="19" spans="2:7" ht="12.75">
+      <c r="C19" s="1">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>1177</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13.2">
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>716</v>
-      </c>
-      <c r="G18" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="13.2">
-      <c r="C19" s="1">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G19" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.2">
+    <row r="20" spans="2:7" ht="12.75">
       <c r="B20" s="65"/>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>1180</v>
+        <v>716</v>
       </c>
       <c r="G20" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="13.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="12.75">
       <c r="B21" s="74"/>
       <c r="C21" s="1">
-        <v>15</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>1181</v>
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1227</v>
       </c>
       <c r="G21" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="13.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="12.75">
       <c r="B22" s="75"/>
       <c r="C22" s="1">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G22" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="12.75">
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="12.75">
+      <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="13.2">
-      <c r="C23" s="1">
+    <row r="25" spans="2:7" ht="12.75">
+      <c r="C25" s="1">
         <v>17</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D25" s="105" t="s">
         <v>1216</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>1750</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="13.2">
-      <c r="C24" s="1">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>715</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="13.2">
-      <c r="C25" s="1">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="13.2">
+    <row r="26" spans="2:7" ht="12.75">
       <c r="B26" s="75"/>
       <c r="C26" s="1">
-        <v>20</v>
-      </c>
-      <c r="D26" s="97" t="s">
-        <v>1217</v>
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>715</v>
       </c>
       <c r="G26" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="13.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="12.75">
       <c r="C27" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>1218</v>
+        <v>1182</v>
       </c>
       <c r="G27" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="13.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="12.75">
       <c r="B28" s="74"/>
       <c r="C28" s="1">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1194</v>
+        <v>20</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>1217</v>
       </c>
       <c r="G28" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="13.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="12.75">
       <c r="B29" s="74"/>
       <c r="C29" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G29" s="1">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="13.2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="12.75">
       <c r="B30" s="100"/>
       <c r="C30" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>1220</v>
+        <v>1194</v>
       </c>
       <c r="G30" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="13.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="12.75">
       <c r="B31" s="103"/>
       <c r="C31" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="13.2">
+        <v>1219</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="12.75">
       <c r="B32" s="75"/>
       <c r="C32" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="13.2">
+        <v>1220</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12.75">
       <c r="B33" s="65"/>
       <c r="C33" s="1">
-        <v>27</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>1221</v>
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1161</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="13.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="12.75">
       <c r="C34" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="13.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="12.75">
       <c r="B35" s="105"/>
       <c r="C35" s="1">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1222</v>
+        <v>27</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>1221</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="13.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="12.75">
       <c r="B36" s="74"/>
       <c r="C36" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>1200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
       <c r="C37" s="1">
-        <v>31</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>1224</v>
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1222</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
       <c r="B38" s="100"/>
       <c r="C38" s="1">
-        <v>32</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>1225</v>
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1223</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>212</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
       <c r="B39" s="100"/>
       <c r="C39" s="1">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1226</v>
+        <v>31</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>1224</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>1201</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
       <c r="B40" s="103"/>
       <c r="C40" s="1">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1228</v>
+        <v>32</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>1225</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>1202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
       <c r="B41" s="101"/>
       <c r="C41" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>1195</v>
+        <v>1226</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>213</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
       <c r="B42" s="74"/>
       <c r="C42" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>214</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
       <c r="B43" s="74"/>
       <c r="C43" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>1203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
       <c r="B44" s="74"/>
       <c r="C44" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>1204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
       <c r="B45" s="105"/>
       <c r="C45" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1231</v>
+        <v>1187</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>215</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
       <c r="B46" s="75"/>
       <c r="C46" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>1230</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
       <c r="B47" s="75"/>
       <c r="C47" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>1184</v>
+        <v>1231</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
       <c r="B48" s="105"/>
       <c r="C48" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>1185</v>
+        <v>140</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
       <c r="B49" s="102"/>
       <c r="C49" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>1162</v>
+        <v>1184</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
       <c r="B50" s="101"/>
       <c r="C50" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
       <c r="B51" s="100"/>
       <c r="C51" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>977</v>
+        <v>1162</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>1207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
       <c r="C52" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
       <c r="B53" s="105"/>
       <c r="C53" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>1188</v>
+        <v>977</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>207</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1">
       <c r="B54" s="65"/>
       <c r="C54" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1">
       <c r="B55" s="97"/>
       <c r="C55" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>410</v>
+        <v>1188</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1">
       <c r="B56" s="105"/>
       <c r="C56" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1">
       <c r="B57" s="99"/>
       <c r="C57" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>715</v>
+        <v>410</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1">
       <c r="B58" s="97"/>
       <c r="C58" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>1208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1">
       <c r="C59" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>1198</v>
+        <v>715</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1">
       <c r="C60" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1">
       <c r="C61" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>414</v>
+        <v>1198</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>1210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1">
       <c r="C62" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>1232</v>
+        <v>1191</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1">
       <c r="C63" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>714</v>
+        <v>414</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1">
       <c r="C64" s="1">
-        <v>58</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>1233</v>
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1232</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" customHeight="1">
       <c r="C65" s="1">
-        <v>59</v>
-      </c>
-      <c r="D65" s="116" t="s">
-        <v>1190</v>
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>714</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" customHeight="1">
       <c r="C66" s="1">
-        <v>60</v>
-      </c>
-      <c r="D66" t="s">
-        <v>413</v>
-      </c>
-      <c r="G66" s="117" t="s">
-        <v>1212</v>
+        <v>58</v>
+      </c>
+      <c r="D66" s="103" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" customHeight="1">
       <c r="C67" s="1">
+        <v>59</v>
+      </c>
+      <c r="D67" s="116" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C68" s="1">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>413</v>
+      </c>
+      <c r="G68" s="117" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C69" s="1">
         <v>61</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>411</v>
       </c>
-      <c r="G67" s="28" t="s">
+      <c r="G69" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="15.75" customHeight="1">
-      <c r="D72" t="s">
+    <row r="74" spans="3:7" ht="15.75" customHeight="1">
+      <c r="D74" t="s">
         <v>969</v>
       </c>
     </row>
@@ -24194,23 +24215,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" ht="13.2">
+    <row r="3" spans="3:20" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="3:20" ht="13.2">
+    <row r="5" spans="3:20" ht="12.75">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -24266,7 +24287,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="13.2">
+    <row r="6" spans="3:20" ht="12.75">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -24292,7 +24313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="3:20" ht="13.2">
+    <row r="7" spans="3:20" ht="12.75">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -24312,7 +24333,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="13.2">
+    <row r="8" spans="3:20" ht="12.75">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -24332,7 +24353,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="9" spans="3:20" ht="13.2">
+    <row r="9" spans="3:20" ht="12.75">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -24394,21 +24415,21 @@
   </sheetPr>
   <dimension ref="C3:V305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:22" ht="13.2">
+    <row r="3" spans="3:22" ht="12.75">
       <c r="C3" s="1" t="s">
         <v>232</v>
       </c>
@@ -24416,7 +24437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="3:22" ht="13.2">
+    <row r="4" spans="3:22" ht="12.75">
       <c r="K4" t="s">
         <v>1248</v>
       </c>
@@ -24430,7 +24451,7 @@
       <c r="T4" s="120"/>
       <c r="U4" s="120"/>
     </row>
-    <row r="5" spans="3:22" ht="13.2">
+    <row r="5" spans="3:22" ht="12.75">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -24489,7 +24510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="13.2">
+    <row r="6" spans="3:22" ht="12.75">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -24509,7 +24530,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="7" spans="3:22" ht="13.2">
+    <row r="7" spans="3:22" ht="12.75">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -24529,7 +24550,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="8" spans="3:22" ht="13.2">
+    <row r="8" spans="3:22" ht="12.75">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -24549,7 +24570,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="9" spans="3:22" ht="13.2">
+    <row r="9" spans="3:22" ht="12.75">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -24590,7 +24611,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="3:22" ht="13.2">
+    <row r="10" spans="3:22" ht="12.75">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -24613,7 +24634,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="11" spans="3:22" ht="13.2">
+    <row r="11" spans="3:22" ht="12.75">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -24633,7 +24654,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="12" spans="3:22" ht="13.2">
+    <row r="12" spans="3:22" ht="12.75">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -24653,7 +24674,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="3:22" ht="13.2">
+    <row r="13" spans="3:22" ht="12.75">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -24676,7 +24697,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="3:22" ht="13.2">
+    <row r="14" spans="3:22" ht="12.75">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -24699,7 +24720,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="3:22" ht="13.2">
+    <row r="15" spans="3:22" ht="12.75">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -24719,7 +24740,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="16" spans="3:22" ht="13.2">
+    <row r="16" spans="3:22" ht="12.75">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -24739,7 +24760,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="17" spans="3:16" ht="13.2">
+    <row r="17" spans="3:16" ht="12.75">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -24759,7 +24780,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="13.2">
+    <row r="18" spans="3:16" ht="12.75">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -24782,7 +24803,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="13.2">
+    <row r="19" spans="3:16" ht="12.75">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -24805,7 +24826,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="3:16" ht="13.2">
+    <row r="20" spans="3:16" ht="12.75">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -24828,7 +24849,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="3:16" ht="13.2">
+    <row r="21" spans="3:16" ht="12.75">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -24851,7 +24872,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="13.2">
+    <row r="22" spans="3:16" ht="12.75">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -24874,7 +24895,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="3:16" ht="13.2">
+    <row r="23" spans="3:16" ht="12.75">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -24900,7 +24921,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="3:16" ht="13.2">
+    <row r="24" spans="3:16" ht="12.75">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -24921,7 +24942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="3:16" ht="13.2">
+    <row r="25" spans="3:16" ht="12.75">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -24939,7 +24960,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:16" ht="13.2">
+    <row r="26" spans="3:16" ht="12.75">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -24956,7 +24977,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="27" spans="3:16" ht="13.2">
+    <row r="27" spans="3:16" ht="12.75">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -24976,7 +24997,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="28" spans="3:16" ht="13.2">
+    <row r="28" spans="3:16" ht="12.75">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -24996,7 +25017,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="29" spans="3:16" ht="13.2">
+    <row r="29" spans="3:16" ht="12.75">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -25013,7 +25034,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="30" spans="3:16" ht="13.2">
+    <row r="30" spans="3:16" ht="12.75">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -25030,7 +25051,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="13.2">
+    <row r="31" spans="3:16" ht="12.75">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -25050,7 +25071,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="3:16" ht="13.2">
+    <row r="32" spans="3:16" ht="12.75">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -25067,7 +25088,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="13.2">
+    <row r="33" spans="3:12" ht="12.75">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -25081,7 +25102,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="13.2">
+    <row r="34" spans="3:12" ht="12.75">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -25095,7 +25116,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="13.2">
+    <row r="35" spans="3:12" ht="12.75">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -25109,7 +25130,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="13.2">
+    <row r="36" spans="3:12" ht="12.75">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -25126,7 +25147,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="13.2">
+    <row r="37" spans="3:12" ht="12.75">
       <c r="C37" s="1">
         <v>32</v>
       </c>
@@ -25143,7 +25164,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="13.2">
+    <row r="38" spans="3:12" ht="12.75">
       <c r="C38" s="1">
         <v>33</v>
       </c>
@@ -25154,7 +25175,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="13.2">
+    <row r="39" spans="3:12" ht="12.75">
       <c r="C39" s="1">
         <v>34</v>
       </c>
@@ -25171,7 +25192,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="13.2">
+    <row r="40" spans="3:12" ht="12.75">
       <c r="C40" s="1">
         <v>35</v>
       </c>
@@ -25182,7 +25203,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="13.2">
+    <row r="41" spans="3:12" ht="12.75">
       <c r="C41" s="1">
         <v>36</v>
       </c>
@@ -25193,7 +25214,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="13.2">
+    <row r="42" spans="3:12" ht="12.75">
       <c r="C42" s="1">
         <v>37</v>
       </c>
@@ -25204,7 +25225,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="13.2">
+    <row r="43" spans="3:12" ht="12.75">
       <c r="C43" s="1">
         <v>38</v>
       </c>
@@ -25215,7 +25236,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="13.2">
+    <row r="44" spans="3:12" ht="12.75">
       <c r="C44" s="1">
         <v>39</v>
       </c>
@@ -25226,7 +25247,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="13.2">
+    <row r="45" spans="3:12" ht="12.75">
       <c r="C45" s="1">
         <v>40</v>
       </c>
@@ -25237,7 +25258,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="13.2">
+    <row r="46" spans="3:12" ht="12.75">
       <c r="C46" s="1">
         <v>41</v>
       </c>
@@ -25248,7 +25269,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="13.2">
+    <row r="47" spans="3:12" ht="12.75">
       <c r="C47" s="1">
         <v>42</v>
       </c>
@@ -25259,7 +25280,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="13.2">
+    <row r="48" spans="3:12" ht="12.75">
       <c r="C48" s="1">
         <v>43</v>
       </c>
@@ -25270,7 +25291,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="49" spans="3:13" ht="13.2">
+    <row r="49" spans="3:13" ht="12.75">
       <c r="C49" s="1">
         <v>44</v>
       </c>
@@ -25281,7 +25302,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="50" spans="3:13" ht="13.2">
+    <row r="50" spans="3:13" ht="12.75">
       <c r="C50" s="1">
         <v>45</v>
       </c>
@@ -25292,7 +25313,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="51" spans="3:13" ht="13.2">
+    <row r="51" spans="3:13" ht="12.75">
       <c r="C51" s="1">
         <v>46</v>
       </c>
@@ -25303,7 +25324,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="52" spans="3:13" ht="13.2">
+    <row r="52" spans="3:13" ht="12.75">
       <c r="C52" s="1">
         <v>47</v>
       </c>
@@ -25314,7 +25335,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="53" spans="3:13" ht="13.2">
+    <row r="53" spans="3:13" ht="12.75">
       <c r="C53" s="1">
         <v>48</v>
       </c>
@@ -25325,7 +25346,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="54" spans="3:13" ht="13.2">
+    <row r="54" spans="3:13" ht="12.75">
       <c r="C54" s="1">
         <v>49</v>
       </c>
@@ -25339,7 +25360,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="55" spans="3:13" ht="13.2">
+    <row r="55" spans="3:13" ht="12.75">
       <c r="C55" s="1">
         <v>50</v>
       </c>
@@ -25350,7 +25371,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="56" spans="3:13" ht="13.2">
+    <row r="56" spans="3:13" ht="12.75">
       <c r="C56" s="1">
         <v>51</v>
       </c>
@@ -25361,7 +25382,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="57" spans="3:13" ht="13.2">
+    <row r="57" spans="3:13" ht="12.75">
       <c r="C57" s="1">
         <v>52</v>
       </c>
@@ -25372,7 +25393,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="58" spans="3:13" ht="13.2">
+    <row r="58" spans="3:13" ht="12.75">
       <c r="C58" s="1">
         <v>53</v>
       </c>
@@ -25383,7 +25404,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="59" spans="3:13" ht="13.2">
+    <row r="59" spans="3:13" ht="12.75">
       <c r="C59" s="1">
         <v>54</v>
       </c>
@@ -25394,7 +25415,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="60" spans="3:13" ht="13.2">
+    <row r="60" spans="3:13" ht="12.75">
       <c r="C60" s="1">
         <v>55</v>
       </c>
@@ -25405,7 +25426,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="61" spans="3:13" ht="13.2">
+    <row r="61" spans="3:13" ht="12.75">
       <c r="C61" s="1">
         <v>56</v>
       </c>
@@ -25416,7 +25437,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="62" spans="3:13" ht="13.2">
+    <row r="62" spans="3:13" ht="12.75">
       <c r="C62" s="1">
         <v>57</v>
       </c>
@@ -25427,7 +25448,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" ht="13.2">
+    <row r="63" spans="3:13" ht="12.75">
       <c r="C63" s="1">
         <v>58</v>
       </c>
@@ -25438,7 +25459,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="64" spans="3:13" ht="13.2">
+    <row r="64" spans="3:13" ht="12.75">
       <c r="C64" s="1">
         <v>59</v>
       </c>
@@ -25449,7 +25470,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="13.2">
+    <row r="65" spans="3:11" ht="12.75">
       <c r="C65" s="1">
         <v>60</v>
       </c>
@@ -25460,7 +25481,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="13.2">
+    <row r="66" spans="3:11" ht="12.75">
       <c r="C66" s="1">
         <v>61</v>
       </c>
@@ -25471,7 +25492,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="13.2">
+    <row r="67" spans="3:11" ht="12.75">
       <c r="C67" s="1">
         <v>62</v>
       </c>
@@ -25482,7 +25503,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="13.2">
+    <row r="68" spans="3:11" ht="12.75">
       <c r="C68" s="1">
         <v>63</v>
       </c>
@@ -25493,7 +25514,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="13.2">
+    <row r="69" spans="3:11" ht="12.75">
       <c r="C69" s="1">
         <v>64</v>
       </c>
@@ -25504,7 +25525,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="13.2">
+    <row r="70" spans="3:11" ht="12.75">
       <c r="C70" s="1">
         <v>65</v>
       </c>
@@ -25515,7 +25536,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="13.2">
+    <row r="71" spans="3:11" ht="12.75">
       <c r="C71" s="1">
         <v>66</v>
       </c>
@@ -25526,7 +25547,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="13.2">
+    <row r="72" spans="3:11" ht="12.75">
       <c r="C72" s="1">
         <v>67</v>
       </c>
@@ -25537,7 +25558,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="13.2">
+    <row r="73" spans="3:11" ht="12.75">
       <c r="C73" s="1">
         <v>68</v>
       </c>
@@ -25548,7 +25569,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="13.2">
+    <row r="74" spans="3:11" ht="12.75">
       <c r="C74" s="1">
         <v>69</v>
       </c>
@@ -25559,7 +25580,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="13.2">
+    <row r="75" spans="3:11" ht="12.75">
       <c r="C75" s="1">
         <v>70</v>
       </c>
@@ -25570,7 +25591,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="13.2">
+    <row r="76" spans="3:11" ht="12.75">
       <c r="C76" s="1">
         <v>71</v>
       </c>
@@ -25581,7 +25602,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="13.2">
+    <row r="77" spans="3:11" ht="12.75">
       <c r="C77" s="1">
         <v>72</v>
       </c>
@@ -25592,7 +25613,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="13.2">
+    <row r="78" spans="3:11" ht="12.75">
       <c r="C78" s="1">
         <v>73</v>
       </c>
@@ -25603,7 +25624,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="79" spans="3:11" ht="13.2">
+    <row r="79" spans="3:11" ht="12.75">
       <c r="C79" s="1">
         <v>74</v>
       </c>
@@ -25614,7 +25635,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="80" spans="3:11" ht="13.2">
+    <row r="80" spans="3:11" ht="12.75">
       <c r="C80" s="1">
         <v>75</v>
       </c>
@@ -25625,7 +25646,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="81" spans="3:11" ht="13.2">
+    <row r="81" spans="3:11" ht="12.75">
       <c r="C81" s="1">
         <v>76</v>
       </c>
@@ -25636,7 +25657,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="82" spans="3:11" ht="13.2">
+    <row r="82" spans="3:11" ht="12.75">
       <c r="C82" s="1">
         <v>77</v>
       </c>
@@ -25647,7 +25668,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="83" spans="3:11" ht="13.2">
+    <row r="83" spans="3:11" ht="12.75">
       <c r="C83" s="1">
         <v>78</v>
       </c>
@@ -25658,7 +25679,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="84" spans="3:11" ht="13.2">
+    <row r="84" spans="3:11" ht="12.75">
       <c r="C84" s="1">
         <v>79</v>
       </c>
@@ -25669,7 +25690,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="85" spans="3:11" ht="13.2">
+    <row r="85" spans="3:11" ht="12.75">
       <c r="C85" s="1">
         <v>80</v>
       </c>
@@ -25680,7 +25701,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="86" spans="3:11" ht="13.2">
+    <row r="86" spans="3:11" ht="12.75">
       <c r="C86" s="1">
         <v>81</v>
       </c>
@@ -25691,7 +25712,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="87" spans="3:11" ht="13.2">
+    <row r="87" spans="3:11" ht="12.75">
       <c r="C87" s="1">
         <v>82</v>
       </c>
@@ -25702,7 +25723,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="88" spans="3:11" ht="13.2">
+    <row r="88" spans="3:11" ht="12.75">
       <c r="C88" s="1">
         <v>83</v>
       </c>
@@ -25713,7 +25734,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="89" spans="3:11" ht="13.2">
+    <row r="89" spans="3:11" ht="12.75">
       <c r="C89" s="1">
         <v>84</v>
       </c>
@@ -25724,7 +25745,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="90" spans="3:11" ht="13.2">
+    <row r="90" spans="3:11" ht="12.75">
       <c r="C90" s="1">
         <v>85</v>
       </c>
@@ -25735,7 +25756,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="91" spans="3:11" ht="13.2">
+    <row r="91" spans="3:11" ht="12.75">
       <c r="C91" s="1">
         <v>86</v>
       </c>
@@ -25746,7 +25767,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="92" spans="3:11" ht="13.2">
+    <row r="92" spans="3:11" ht="12.75">
       <c r="C92" s="1">
         <v>87</v>
       </c>
@@ -25757,7 +25778,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="93" spans="3:11" ht="13.2">
+    <row r="93" spans="3:11" ht="12.75">
       <c r="C93" s="1">
         <v>88</v>
       </c>
@@ -25768,7 +25789,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="94" spans="3:11" ht="13.2">
+    <row r="94" spans="3:11" ht="12.75">
       <c r="C94" s="1">
         <v>89</v>
       </c>
@@ -25779,7 +25800,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="95" spans="3:11" ht="13.2">
+    <row r="95" spans="3:11" ht="12.75">
       <c r="C95" s="1">
         <v>90</v>
       </c>
@@ -25790,7 +25811,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="96" spans="3:11" ht="13.2">
+    <row r="96" spans="3:11" ht="12.75">
       <c r="C96" s="1">
         <v>91</v>
       </c>
@@ -25801,7 +25822,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="97" spans="3:11" ht="13.2">
+    <row r="97" spans="3:11" ht="12.75">
       <c r="C97" s="1">
         <v>92</v>
       </c>
@@ -25812,7 +25833,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="98" spans="3:11" ht="13.2">
+    <row r="98" spans="3:11" ht="12.75">
       <c r="C98" s="1">
         <v>93</v>
       </c>
@@ -25823,7 +25844,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="99" spans="3:11" ht="13.2">
+    <row r="99" spans="3:11" ht="12.75">
       <c r="C99" s="1">
         <v>94</v>
       </c>
@@ -25834,7 +25855,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="100" spans="3:11" ht="13.2">
+    <row r="100" spans="3:11" ht="12.75">
       <c r="C100" s="1">
         <v>95</v>
       </c>
@@ -25845,7 +25866,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="101" spans="3:11" ht="13.2">
+    <row r="101" spans="3:11" ht="12.75">
       <c r="C101" s="1">
         <v>96</v>
       </c>
@@ -25856,7 +25877,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="102" spans="3:11" ht="13.2">
+    <row r="102" spans="3:11" ht="12.75">
       <c r="C102" s="1">
         <v>97</v>
       </c>
@@ -25867,7 +25888,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="103" spans="3:11" ht="13.2">
+    <row r="103" spans="3:11" ht="12.75">
       <c r="C103" s="1">
         <v>98</v>
       </c>
@@ -25878,7 +25899,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="104" spans="3:11" ht="13.2">
+    <row r="104" spans="3:11" ht="12.75">
       <c r="C104" s="1">
         <v>99</v>
       </c>
@@ -25889,7 +25910,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="105" spans="3:11" ht="13.2">
+    <row r="105" spans="3:11" ht="12.75">
       <c r="C105" s="1">
         <v>100</v>
       </c>
@@ -27525,22 +27546,22 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.85546875" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
-    <col min="18" max="18" width="29.44140625" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" customWidth="1"/>
-    <col min="21" max="21" width="3.5546875" customWidth="1"/>
-    <col min="22" max="22" width="2.109375" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="2.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:20">

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCD27B-E2BF-4C8F-BA38-9ACDB1B0A6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A904DFE-983D-484A-BAC8-18CD88F70750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21570" yWindow="8010" windowWidth="20145" windowHeight="11550" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15750" yWindow="8790" windowWidth="20145" windowHeight="11550" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -23418,7 +23418,7 @@
   </sheetPr>
   <dimension ref="A4:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -24615,8 +24615,8 @@
   </sheetPr>
   <dimension ref="C3:V305"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="I295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L303" sqref="L303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Beavers incremental mega sheet.xlsx
+++ b/Beavers incremental mega sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\godot\BeaverIncremental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A904DFE-983D-484A-BAC8-18CD88F70750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3929F-77FA-485A-95AC-927A8210D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15750" yWindow="8790" windowWidth="20145" windowHeight="11550" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22770" yWindow="8220" windowWidth="20145" windowHeight="11550" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralValues" sheetId="1" r:id="rId1"/>
@@ -2814,18 +2814,9 @@
     <t>Total Gold gained</t>
   </si>
   <si>
-    <t>Research 10 upgrades in one ascension</t>
-  </si>
-  <si>
     <t>Research 20 upgrades in one ascension</t>
   </si>
   <si>
-    <t>Research 50 upgrades in one ascension</t>
-  </si>
-  <si>
-    <t>Research 100 upgrades in one ascension</t>
-  </si>
-  <si>
     <t>Fish 10 times in one Ascension</t>
   </si>
   <si>
@@ -4323,9 +4314,6 @@
     <t>Find Giant Squid</t>
   </si>
   <si>
-    <t>Ascend 100 times</t>
-  </si>
-  <si>
     <t>Click 100 Times</t>
   </si>
   <si>
@@ -4645,6 +4633,18 @@
   </si>
   <si>
     <t>Unlock Mega Dam</t>
+  </si>
+  <si>
+    <t>Ascend 150 times</t>
+  </si>
+  <si>
+    <t>Research 30 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Research 60 upgrades in one ascension</t>
+  </si>
+  <si>
+    <t>Research 80 upgrades in one ascension</t>
   </si>
 </sst>
 </file>
@@ -9111,13 +9111,13 @@
         <v>55</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="13.5" thickBot="1">
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>357</v>
@@ -9204,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="105" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="12.75">
@@ -9314,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>407</v>
@@ -9383,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="AG8" s="75" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="12.75">
@@ -9403,7 +9403,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>362</v>
@@ -9469,7 +9469,7 @@
         <v>4</v>
       </c>
       <c r="AG9" s="104" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="12.75">
@@ -9489,7 +9489,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>364</v>
@@ -9542,7 +9542,7 @@
         <v>5</v>
       </c>
       <c r="AG10" s="65" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="12.75">
@@ -9562,7 +9562,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H11">
         <v>750</v>
@@ -9619,7 +9619,7 @@
         <v>6</v>
       </c>
       <c r="AG11" s="75" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="12.75">
@@ -9639,7 +9639,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H12">
         <v>1400</v>
@@ -9691,7 +9691,7 @@
         <v>7</v>
       </c>
       <c r="AG12" s="74" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="12.75">
@@ -9756,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12.75">
@@ -9773,7 +9773,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>290</v>
@@ -9808,7 +9808,7 @@
         <v>9</v>
       </c>
       <c r="AG14" s="102" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="12.75">
@@ -9860,7 +9860,7 @@
         <v>10</v>
       </c>
       <c r="AG15" s="98" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="12.75">
@@ -9877,7 +9877,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="99" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="M16" s="40" t="s">
         <v>323</v>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="105" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.75">
@@ -9929,7 +9929,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G17" t="e">
         <f>log</f>
@@ -9983,7 +9983,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40" t="s">
@@ -10017,7 +10017,7 @@
         <v>3</v>
       </c>
       <c r="AG18" s="75" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.75">
@@ -10037,7 +10037,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G19" t="s">
         <v>727</v>
@@ -10072,7 +10072,7 @@
         <v>4</v>
       </c>
       <c r="AG19" s="104" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.75">
@@ -10137,7 +10137,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -10168,7 +10168,7 @@
         <v>6</v>
       </c>
       <c r="AG21" s="65" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.75">
@@ -10183,7 +10183,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -10229,7 +10229,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H23" s="44">
         <v>4.11E+17</v>
@@ -10269,7 +10269,7 @@
         <v>8</v>
       </c>
       <c r="AG23" s="102" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.75">
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H24">
         <v>20</v>
@@ -10386,7 +10386,7 @@
         <v>10</v>
       </c>
       <c r="AG25" s="100" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75">
@@ -10403,7 +10403,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="105" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.75">
@@ -10461,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H27">
         <v>300</v>
@@ -10555,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="AG28" s="75" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.75">
@@ -10572,7 +10572,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G29" t="s">
         <v>868</v>
@@ -10607,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="AG29" s="75" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.75">
@@ -10659,7 +10659,7 @@
         <v>5</v>
       </c>
       <c r="AG30" s="65" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="12.75">
@@ -10826,7 +10826,7 @@
         <v>9</v>
       </c>
       <c r="AG34" s="99" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="13.5" thickBot="1">
@@ -10897,7 +10897,7 @@
         <v>10</v>
       </c>
       <c r="AG35" s="103" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="12.75">
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="AG36" s="105" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="12.75">
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="AG39" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="12.75">
@@ -11350,7 +11350,7 @@
         <v>6</v>
       </c>
       <c r="AG41" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="12.75">
@@ -11425,7 +11425,7 @@
         <v>7</v>
       </c>
       <c r="AG42" s="74" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="12.75">
@@ -11559,7 +11559,7 @@
         <v>9</v>
       </c>
       <c r="AG44" s="74" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="12.75">
@@ -11627,7 +11627,7 @@
         <v>10</v>
       </c>
       <c r="AG45" s="114" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="12.75">
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="AG46" s="105" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="12.75">
@@ -11821,7 +11821,7 @@
         <v>3</v>
       </c>
       <c r="AG48" s="75" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:33" ht="12.75">
@@ -11888,7 +11888,7 @@
         <v>4</v>
       </c>
       <c r="AG49" s="65" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="12.75">
@@ -12019,7 +12019,7 @@
         <v>6</v>
       </c>
       <c r="AG51" s="105" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="12.75">
@@ -12096,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="AG52" s="75" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="12.75">
@@ -12229,7 +12229,7 @@
         <v>9</v>
       </c>
       <c r="AG54" s="74" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="12.75">
@@ -12368,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="AG56" s="105" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="12.75">
@@ -12563,7 +12563,7 @@
         <v>4</v>
       </c>
       <c r="AG59" s="75" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="12.75">
@@ -12624,7 +12624,7 @@
         <v>5</v>
       </c>
       <c r="AG60" s="75" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="12.75">
@@ -12687,7 +12687,7 @@
         <v>6</v>
       </c>
       <c r="AG61" s="75" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="62" spans="1:33" ht="12.75">
@@ -12748,7 +12748,7 @@
         <v>7</v>
       </c>
       <c r="AG62" s="74" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="63" spans="1:33" ht="12.75">
@@ -12806,7 +12806,7 @@
         <v>8</v>
       </c>
       <c r="AG63" s="105" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="64" spans="1:33" ht="12.75">
@@ -12862,7 +12862,7 @@
         <v>9</v>
       </c>
       <c r="AG64" s="97" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="65" spans="2:33" ht="12.75">
@@ -12917,7 +12917,7 @@
         <v>10</v>
       </c>
       <c r="AG65" s="97" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="66" spans="2:33" ht="12.75">
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="AG66" s="105" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="67" spans="2:33" ht="12.75">
@@ -13029,7 +13029,7 @@
         <v>2</v>
       </c>
       <c r="AG67" s="65" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="68" spans="2:33" ht="12.75">
@@ -13085,7 +13085,7 @@
         <v>3</v>
       </c>
       <c r="AG68" s="75" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="69" spans="2:33" ht="12.75">
@@ -13138,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="AG69" s="75" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="70" spans="2:33" ht="12.75">
@@ -13194,7 +13194,7 @@
         <v>5</v>
       </c>
       <c r="AG70" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="71" spans="2:33" ht="12.75">
@@ -13246,7 +13246,7 @@
         <v>6</v>
       </c>
       <c r="AG71" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="72" spans="2:33" ht="12.75">
@@ -13298,7 +13298,7 @@
         <v>7</v>
       </c>
       <c r="AG72" s="65" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="2:33" ht="12.75">
@@